--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94550E6B-5A94-4168-830C-E7EE2392C515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910776CC-8566-45E5-A8AC-746E17483189}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24456" yWindow="3132" windowWidth="17892" windowHeight="13212" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -7640,7 +7640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7788,6 +7788,7 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11079,8 +11080,8 @@
   <dimension ref="A1:XFD1796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12377,7 +12378,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
-      <c r="B97" s="60">
+      <c r="B97" s="84">
         <v>43661</v>
       </c>
       <c r="C97"/>
@@ -12393,7 +12394,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
-      <c r="B98" s="76">
+      <c r="B98" s="95">
         <v>43671</v>
       </c>
       <c r="C98" s="77"/>
@@ -12404,7 +12405,7 @@
       <c r="F98" s="56" t="s">
         <v>1838</v>
       </c>
-      <c r="G98" s="56" t="s">
+      <c r="G98" s="55" t="s">
         <v>1840</v>
       </c>
     </row>
@@ -12427,7 +12428,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
-      <c r="B100" s="32">
+      <c r="B100" s="85">
         <v>43662</v>
       </c>
       <c r="E100" t="s">
@@ -12436,7 +12437,7 @@
       <c r="F100" t="s">
         <v>2396</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -29151,10 +29152,12 @@
     <hyperlink ref="G14" r:id="rId567" xr:uid="{52332DF9-79D8-4086-BEE5-12DCB0101DAB}"/>
     <hyperlink ref="G15" r:id="rId568" xr:uid="{647A8045-D21B-49CA-A39D-52A32B4689AC}"/>
     <hyperlink ref="G97" r:id="rId569" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
+    <hyperlink ref="G98" r:id="rId570" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
+    <hyperlink ref="G100" r:id="rId571" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId570"/>
-  <drawing r:id="rId571"/>
+  <pageSetup orientation="portrait" r:id="rId572"/>
+  <drawing r:id="rId573"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910776CC-8566-45E5-A8AC-746E17483189}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B74A7-2C05-485B-8843-4D845BA0DCF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -11080,8 +11080,8 @@
   <dimension ref="A1:XFD1796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12443,7 +12443,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
-      <c r="B101" s="32">
+      <c r="B101" s="85">
         <v>43657</v>
       </c>
       <c r="E101" t="s">
@@ -12452,13 +12452,13 @@
       <c r="F101" t="s">
         <v>2428</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3" t="s">
         <v>2429</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
-      <c r="B102" s="32">
+      <c r="B102" s="85">
         <v>43662</v>
       </c>
       <c r="E102" t="s">
@@ -12467,7 +12467,7 @@
       <c r="F102" t="s">
         <v>2442</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3" t="s">
         <v>2441</v>
       </c>
     </row>
@@ -29154,10 +29154,12 @@
     <hyperlink ref="G97" r:id="rId569" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
     <hyperlink ref="G98" r:id="rId570" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
     <hyperlink ref="G100" r:id="rId571" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
+    <hyperlink ref="G101" r:id="rId572" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
+    <hyperlink ref="G102" r:id="rId573" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId572"/>
-  <drawing r:id="rId573"/>
+  <pageSetup orientation="portrait" r:id="rId574"/>
+  <drawing r:id="rId575"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539B74A7-2C05-485B-8843-4D845BA0DCF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED0AA3-CCB0-458F-A407-D286D8A28076}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-17625" yWindow="12165" windowWidth="17280" windowHeight="9210" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="2447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="2450">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7384,6 +7384,15 @@
   </si>
   <si>
     <t>https://medium.com/@knut.svanholm/mainstream-media-of-exchange-f96b37b169d2</t>
+  </si>
+  <si>
+    <t>Sam Wouters</t>
+  </si>
+  <si>
+    <t>Protect your bitcoins through privacy</t>
+  </si>
+  <si>
+    <t>http://bitcoinsnippets.com/protect-your-bitcoin-through-privacy/</t>
   </si>
 </sst>
 </file>
@@ -10725,9 +10734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>551778</xdr:colOff>
+      <xdr:colOff>555588</xdr:colOff>
       <xdr:row>1072</xdr:row>
-      <xdr:rowOff>97710</xdr:rowOff>
+      <xdr:rowOff>93900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11080,8 +11089,8 @@
   <dimension ref="A1:XFD1796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11211,12 +11220,20 @@
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="76">
+        <v>43720</v>
+      </c>
       <c r="C11" s="77"/>
       <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="E11" s="56" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>2449</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F1E599-738C-441B-8753-E49A76BEAF7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E6CB8-D1F7-42C6-8355-2C9B1D60096E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="25908" yWindow="3612" windowWidth="17280" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="2468">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7441,6 +7441,12 @@
   </si>
   <si>
     <t>Towards a Free and Open Internet</t>
+  </si>
+  <si>
+    <t>Tweetstorm: How to outperform Bitcoin</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MLescrauwaet/status/1174797479893749765</t>
   </si>
 </sst>
 </file>
@@ -11132,8 +11138,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11245,12 +11251,18 @@
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="74">
+        <v>43728</v>
+      </c>
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="56" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>2467</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
@@ -12890,7 +12902,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
-      <c r="B130" s="83">
+      <c r="B130" s="35">
         <v>43627</v>
       </c>
       <c r="F130" t="s">
@@ -12902,13 +12914,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
-      <c r="B131" s="32">
+      <c r="B131" s="35">
         <v>43620</v>
       </c>
       <c r="F131" t="s">
         <v>1763</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -12919,7 +12931,7 @@
       </c>
       <c r="C132"/>
       <c r="E132" s="60" t="s">
-        <v>2178</v>
+        <v>852</v>
       </c>
       <c r="F132" t="s">
         <v>2168</v>
@@ -12929,13 +12941,13 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B133" s="32">
+      <c r="B133" s="35">
         <v>43640</v>
       </c>
       <c r="F133" t="s">
         <v>2457</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3" t="s">
         <v>2456</v>
       </c>
     </row>
@@ -29218,10 +29230,12 @@
     <hyperlink ref="G91" r:id="rId572" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
     <hyperlink ref="G92" r:id="rId573" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
     <hyperlink ref="G130" r:id="rId574" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
+    <hyperlink ref="G131" r:id="rId575" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
+    <hyperlink ref="G133" r:id="rId576" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId575"/>
-  <drawing r:id="rId576"/>
+  <pageSetup orientation="portrait" r:id="rId577"/>
+  <drawing r:id="rId578"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E6CB8-D1F7-42C6-8355-2C9B1D60096E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C1D66-B4BD-429B-B97C-4F8EA0866462}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25908" yWindow="3612" windowWidth="17280" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="2468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="2470">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7447,6 +7447,12 @@
   </si>
   <si>
     <t>https://twitter.com/MLescrauwaet/status/1174797479893749765</t>
+  </si>
+  <si>
+    <t>McCormack</t>
+  </si>
+  <si>
+    <t>Open letter to banks</t>
   </si>
 </sst>
 </file>
@@ -11138,8 +11144,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="3" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X488" sqref="X488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17406,6 +17412,17 @@
       </c>
       <c r="G502" s="3" t="s">
         <v>2064</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B503" s="83">
+        <v>43163</v>
+      </c>
+      <c r="E503" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F503" t="s">
+        <v>2469</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.3">
@@ -28583,7 +28600,7 @@
   <conditionalFormatting sqref="G499:G502">
     <cfRule type="duplicateValues" dxfId="62" priority="10425"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F499:F502">
+  <conditionalFormatting sqref="F499:F503">
     <cfRule type="duplicateValues" dxfId="61" priority="10427"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G497">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C1D66-B4BD-429B-B97C-4F8EA0866462}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C1A89C-AE35-4CCB-A489-AE8E3BFDFAA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="2470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="2472">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7453,6 +7453,12 @@
   </si>
   <si>
     <t>Open letter to banks</t>
+  </si>
+  <si>
+    <t>https://medium.com/unconfiscatable/bitcoins-power-oscillator-64875128c56f</t>
+  </si>
+  <si>
+    <t>Bitcoin’s power oscillator</t>
   </si>
 </sst>
 </file>
@@ -11144,8 +11150,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X488" sqref="X488"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11248,12 +11254,18 @@
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="74">
+        <v>43728</v>
+      </c>
       <c r="C8" s="75"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="56" t="s">
+        <v>2471</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>2470</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C1A89C-AE35-4CCB-A489-AE8E3BFDFAA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF168B-ADAB-4FD8-BF7F-50805070840F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="2474">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7459,6 +7459,12 @@
   </si>
   <si>
     <t>Bitcoin’s power oscillator</t>
+  </si>
+  <si>
+    <t>http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world</t>
+  </si>
+  <si>
+    <t>Bitcoin needs no changes to destroy your world</t>
   </si>
 </sst>
 </file>
@@ -7701,12 +7707,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -7715,7 +7730,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7859,6 +7874,10 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11150,8 +11169,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12990,19 +13009,19 @@
         <v>46</v>
       </c>
       <c r="D138" s="17"/>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="38" t="s">
         <v>1662</v>
       </c>
       <c r="F138" s="65" t="s">
         <v>1664</v>
       </c>
-      <c r="G138" s="66" t="s">
+      <c r="G138" s="55" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
-      <c r="B139" s="30">
+      <c r="B139" s="94">
         <v>43606</v>
       </c>
       <c r="C139" s="20" t="s">
@@ -13013,13 +13032,13 @@
       <c r="F139" s="65" t="s">
         <v>1774</v>
       </c>
-      <c r="G139" s="66" t="s">
+      <c r="G139" s="55" t="s">
         <v>1775</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
-      <c r="B140" s="32">
+      <c r="B140" s="83">
         <v>43614</v>
       </c>
       <c r="C140" s="21" t="s">
@@ -13031,7 +13050,7 @@
       <c r="F140" t="s">
         <v>2387</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3" t="s">
         <v>2386</v>
       </c>
     </row>
@@ -22128,9 +22147,15 @@
       <c r="G1032" s="3"/>
     </row>
     <row r="1033" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1033" s="32"/>
-      <c r="F1033" s="50"/>
-      <c r="G1033" s="3"/>
+      <c r="B1033" s="32">
+        <v>42118</v>
+      </c>
+      <c r="F1033" s="93" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G1033" s="3" t="s">
+        <v>2472</v>
+      </c>
     </row>
     <row r="1034" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1034" s="60">
@@ -28675,13 +28700,13 @@
   <conditionalFormatting sqref="B526:B533 B504:B505 B498">
     <cfRule type="duplicateValues" dxfId="41" priority="11443"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1574 G1628:G1048576 G1549:G1552 G1554:G1564 G1600:G1605 G369:G373 G633:G655 G1:G12 G19:G39 G58:G59 G61:G66 G71:G84 G234:G287 G353:G357 G360:G363 G138:G143 G459:G460 G413:G447 G377:G410 G449:G455 G464:G465 G483:G484 G462 G491:G496 G681:G686 G949:G953 G1139:G1145 G1147:G1152 G1298:G1304 G1392 G1396 G1508:G1512 G1542:G1546 G1523:G1525 G679 G457 H1103 G99:G128 G130:G131 G486:G489 G41:G56 G1620:G1626 G1613:G1618 G1607:G1611 G1579:G1588 G1528:G1540 G1519:G1521 G1516 G1486:G1487 G1468:G1483 G1465 G1439:G1460 G1413:G1435 G1346:G1385 G1333:G1344 G1306:G1324 G1261:G1294 G1247:G1259 G1230:G1236 G1243:G1244 G1214:G1227 G1194:G1206 G1173:G1192 G1156:G1170 G1118:G1137 G1106:G1115 G1087:G1103 G1071:G1085 G1035:G1064 G1023:G1033 G1003:G1021 G985:G1000 G956:G982 G905:G947 G903 G885:G894 G875:G879 G852:G864 G825:G848 G818:G823 G810:G816 G799:G808 G795:G796 G789:G792 G779:G787 G760:G776 G749:G757 G724:G746 G714:G722 G694:G710 G659:G677 G572:G631 G551:G570 G517:G524 G526:G546 G504:G512 G498 G514:G515 G475:G481 F474 G298:G303 G305:G350 G291:G295 G145:G229 G86 G88:G97 H27 G16">
+  <conditionalFormatting sqref="G1574 G1628:G1048576 G1549:G1552 G1554:G1564 G1600:G1605 G369:G373 G633:G655 G1:G12 G19:G39 G58:G59 G61:G66 G71:G84 G234:G287 G353:G357 G360:G363 G138:G143 G459:G460 G413:G447 G377:G410 G449:G455 G464:G465 G483:G484 G462 G491:G496 G681:G686 G949:G953 G1139:G1145 G1147:G1152 G1298:G1304 G1392 G1396 G1508:G1512 G1542:G1546 G1523:G1525 G679 G457 H1103 G99:G128 G130:G131 G486:G489 G41:G56 G1620:G1626 G1613:G1618 G1607:G1611 G1579:G1588 G1528:G1540 G1519:G1521 G1516 G1486:G1487 G1468:G1483 G1465 G1439:G1460 G1413:G1435 G1346:G1385 G1333:G1344 G1306:G1324 G1261:G1294 G1247:G1259 G1230:G1236 G1243:G1244 G1214:G1227 G1194:G1206 G1173:G1192 G1156:G1170 G1118:G1137 G1106:G1115 G1087:G1103 G1071:G1085 G1035:G1064 G1023:G1032 G1003:G1021 G985:G1000 G956:G982 G905:G947 G903 G885:G894 G875:G879 G852:G864 G825:G848 G818:G823 G810:G816 G799:G808 G795:G796 G789:G792 G779:G787 G760:G776 G749:G757 G724:G746 G714:G722 G694:G710 G659:G677 G572:G631 G551:G570 G517:G524 G526:G546 G504:G512 G498 G514:G515 G475:G481 F474 G298:G303 G305:G350 G291:G295 G145:G229 G86 G88:G97 H27 G16">
     <cfRule type="duplicateValues" dxfId="40" priority="11609"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1574 G1665:G1672 G363 G486:G489 G353 G286:G287 G1550:G1552 G1554:G1564 G1600:G1605 G1482:G1483 G380:G389 G585:G587 G1478 G1336:G1340 G1355:G1382 G1385 G1392 G1396 G1267:G1272 G1292 G1277:G1289 G1275 G1024 G1072:G1082 G1084 G843:G846 G840 G717:G722 G819:G823 G714 G1:G12 G19:G39 G222:G226 G239 G200:G219 G666 G668 G464 G459:G460 G455 G402 G449:G450 G1230:G1234 G1206 G1130:G1136 G1165:G1170 G995:G999 G985:G989 G991:G993 G908:G909 G957:G966 G1041:G1049 G1054:G1064 G1432:G1435 G1306:G1313 G1177:G1178 G1180:G1182 G1185 G1187:G1189 G1446:G1451 G1454:G1459 G1465 G1470:G1476 G1417:G1423 G1342:G1344 G1123:G1128 G756:G757 G776 G951 G1152 G1100 G968 G889:G892 G1149:G1150 G650 G750:G751 G864 G1322 G1425:G1429 G1440 G589:G591 G593:G597 G599:G631 G633:G648 G787 G977:G979 G674:G677 G681:G686 G726:G746 G679 G563 G574 G576:G578 G538:G540 G542:G546 G453 G437:G441 G414:G419 G236:G237 G655 G695:G698 G762 G792 G826:G836 G858:G861 G894 G914:G947 G970:G975 G1003:G1011 G1087:G1096 G1144:G1145 G1147 G1192 G1200:G1204 G1315:G1320 G1508 G1510:G1512 G1523:G1525 G1613:G1616 G1618 G1628:G1656 G1674:G1698 G1717:G1732 G1734:G1739 G1743:G1048576 G483 G512 G1609:G1610 G241:G284 G300:G303 G305:G346 G348:G350 G377 G421:G434 G404:G407 G479:G481 G491:G496 G462 G1103:H1103 G526:G535 G504:G508 G498 G524 G41:G54 G88 G1620:G1623 G1579:G1588 G1528:G1535 G1519:G1521 G1516 G1486:G1487 G1468 G1413:G1415 G1346:G1351 G1215:G1227 G1194:G1197 G1173 G1156:G1162 G1118:G1121 G1106:G1115 G905:G906 G903 G885 G875:G879 G810:G813 G799:G808 G795:G796 G789:G790 G779:G784 G760 G659:G664 G551:G557 G517:G518 G514:G515 G293:G295 H27 G16">
     <cfRule type="duplicateValues" dxfId="39" priority="11717"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G475:G1048576 G19:G473 F474 G1:G12 G16">
+  <conditionalFormatting sqref="G475:G1032 G19:G473 F474 G1:G12 G16 G1034:G1048576">
     <cfRule type="duplicateValues" dxfId="38" priority="11895"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -29261,10 +29286,15 @@
     <hyperlink ref="G130" r:id="rId574" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
     <hyperlink ref="G131" r:id="rId575" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
     <hyperlink ref="G133" r:id="rId576" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
+    <hyperlink ref="G1033" r:id="rId577" xr:uid="{8A899F9E-C813-45BF-91A2-5283ED101704}"/>
+    <hyperlink ref="F1033" r:id="rId578" display="http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world" xr:uid="{B94E0CE3-3372-4C20-AC98-49AB074167C9}"/>
+    <hyperlink ref="G138" r:id="rId579" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
+    <hyperlink ref="G139" r:id="rId580" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
+    <hyperlink ref="G140" r:id="rId581" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId577"/>
-  <drawing r:id="rId578"/>
+  <pageSetup orientation="portrait" r:id="rId582"/>
+  <drawing r:id="rId583"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF168B-ADAB-4FD8-BF7F-50805070840F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720CA9B-A970-48E1-B63E-12457181ECBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="11064" yWindow="4764" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="2474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="2475">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7465,6 +7465,9 @@
   </si>
   <si>
     <t>Bitcoin needs no changes to destroy your world</t>
+  </si>
+  <si>
+    <t>added 9-25</t>
   </si>
 </sst>
 </file>
@@ -7730,7 +7733,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7877,7 +7880,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11169,8 +11171,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13020,8 +13022,10 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="94">
+      <c r="A139" s="17" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B139" s="31">
         <v>43606</v>
       </c>
       <c r="C139" s="20" t="s">
@@ -13037,8 +13041,10 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="83">
+      <c r="A140" s="17" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B140" s="35">
         <v>43614</v>
       </c>
       <c r="C140" s="21" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2720CA9B-A970-48E1-B63E-12457181ECBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A34106-FFA4-4F8C-B18D-B2D94F8E7977}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11064" yWindow="4764" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="11196" yWindow="3780" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="2475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="2477">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7468,6 +7468,12 @@
   </si>
   <si>
     <t>added 9-25</t>
+  </si>
+  <si>
+    <t>https://medium.com/breez-technology/envisioning-lsps-in-the-lightning-economy-832b45871992</t>
+  </si>
+  <si>
+    <t>Envisioning LSPs in the Lightning Economy</t>
   </si>
 </sst>
 </file>
@@ -11171,8 +11177,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11266,12 +11272,18 @@
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="74">
+        <v>43733</v>
+      </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>2475</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A34106-FFA4-4F8C-B18D-B2D94F8E7977}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD791DF-F150-4593-BFC8-435802A3D7FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="3780" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="2952" yWindow="3984" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -7739,7 +7739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7886,6 +7886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11177,8 +11178,8 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13082,7 +13083,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
-      <c r="B143" s="30">
+      <c r="B143" s="94">
         <v>43571</v>
       </c>
       <c r="C143" s="20" t="s">
@@ -13093,13 +13094,13 @@
       <c r="F143" s="65" t="s">
         <v>1572</v>
       </c>
-      <c r="G143" s="66" t="s">
+      <c r="G143" s="55" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
-      <c r="B144" s="60">
+      <c r="B144" s="82">
         <v>43557</v>
       </c>
       <c r="C144" s="60"/>
@@ -13110,7 +13111,7 @@
       <c r="F144" t="s">
         <v>1923</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -29309,10 +29310,12 @@
     <hyperlink ref="G138" r:id="rId579" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
     <hyperlink ref="G139" r:id="rId580" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
     <hyperlink ref="G140" r:id="rId581" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
+    <hyperlink ref="G143" r:id="rId582" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
+    <hyperlink ref="G144" r:id="rId583" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId582"/>
-  <drawing r:id="rId583"/>
+  <pageSetup orientation="portrait" r:id="rId584"/>
+  <drawing r:id="rId585"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD791DF-F150-4593-BFC8-435802A3D7FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A255B-FAF1-4921-B0DC-D148EABCB1E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="3984" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-14175" yWindow="13305" windowWidth="24255" windowHeight="16035" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="2477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="2479">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7474,6 +7474,12 @@
   </si>
   <si>
     <t>Envisioning LSPs in the Lightning Economy</t>
+  </si>
+  <si>
+    <t>vsc</t>
+  </si>
+  <si>
+    <t>ADD TO FINANCIAL</t>
   </si>
 </sst>
 </file>
@@ -7739,7 +7745,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7887,6 +7893,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -10823,9 +10833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>551778</xdr:colOff>
+      <xdr:colOff>551777</xdr:colOff>
       <xdr:row>1067</xdr:row>
-      <xdr:rowOff>97710</xdr:rowOff>
+      <xdr:rowOff>97711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11178,13 +11188,13 @@
   <dimension ref="A1:Y1791"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="11" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="11" customWidth="1"/>
     <col min="3" max="3" width="3.21875" style="21" customWidth="1"/>
     <col min="4" max="4" width="3.21875" customWidth="1"/>
@@ -11286,9 +11296,11 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="74">
+    <row r="8" spans="1:8" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="96" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B8" s="95">
         <v>43728</v>
       </c>
       <c r="C8" s="75"/>
@@ -11358,7 +11370,7 @@
       <c r="E12" s="56" t="s">
         <v>2438</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="86" t="s">
         <v>2440</v>
       </c>
       <c r="G12" s="56" t="s">
@@ -11480,7 +11492,7 @@
     </row>
     <row r="20" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
-      <c r="B20" s="74">
+      <c r="B20" s="95">
         <v>43712</v>
       </c>
       <c r="C20" s="75"/>
@@ -11491,7 +11503,7 @@
       <c r="F20" s="56" t="s">
         <v>2399</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="55" t="s">
         <v>2398</v>
       </c>
     </row>
@@ -13130,6 +13142,9 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="32"/>
+      <c r="F148" t="s">
+        <v>2477</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
@@ -29312,10 +29327,11 @@
     <hyperlink ref="G140" r:id="rId581" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
     <hyperlink ref="G143" r:id="rId582" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
     <hyperlink ref="G144" r:id="rId583" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
+    <hyperlink ref="G20" r:id="rId584" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId584"/>
-  <drawing r:id="rId585"/>
+  <pageSetup orientation="portrait" r:id="rId585"/>
+  <drawing r:id="rId586"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A255B-FAF1-4921-B0DC-D148EABCB1E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D131F7-6497-4782-B928-E537CF7B2082}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14175" yWindow="13305" windowWidth="24255" windowHeight="16035" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="7692" yWindow="5388" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6698" uniqueCount="2479">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -11189,7 +11189,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="74">
+      <c r="B9" s="95">
         <v>43728</v>
       </c>
       <c r="C9" s="75"/>
@@ -11324,7 +11324,7 @@
       <c r="F9" s="56" t="s">
         <v>2466</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>2467</v>
       </c>
     </row>
@@ -29328,10 +29328,11 @@
     <hyperlink ref="G143" r:id="rId582" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
     <hyperlink ref="G144" r:id="rId583" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
     <hyperlink ref="G20" r:id="rId584" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
+    <hyperlink ref="G9" r:id="rId585" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId585"/>
-  <drawing r:id="rId586"/>
+  <pageSetup orientation="portrait" r:id="rId586"/>
+  <drawing r:id="rId587"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D131F7-6497-4782-B928-E537CF7B2082}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE947D-D008-4D6B-96E3-00CE12161FBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="5388" windowWidth="24252" windowHeight="16032" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6698" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="2479">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7486,7 +7486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7630,6 +7630,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -7745,7 +7753,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7897,6 +7905,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11189,7 +11199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11330,7 +11340,7 @@
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="74">
+      <c r="B10" s="95">
         <v>43719</v>
       </c>
       <c r="C10" s="75"/>
@@ -11339,30 +11349,30 @@
       <c r="F10" s="56" t="s">
         <v>2452</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>2453</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="74">
+      <c r="B11" s="97">
         <v>43720</v>
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="98" t="s">
         <v>2447</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>2448</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>2449</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="74">
+      <c r="B12" s="95">
         <v>43724</v>
       </c>
       <c r="C12" s="75"/>
@@ -11373,7 +11383,7 @@
       <c r="F12" s="86" t="s">
         <v>2440</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>2439</v>
       </c>
     </row>
@@ -11390,7 +11400,7 @@
       <c r="F13" s="56" t="s">
         <v>2422</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="55" t="s">
         <v>2423</v>
       </c>
     </row>
@@ -29329,10 +29339,14 @@
     <hyperlink ref="G144" r:id="rId583" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
     <hyperlink ref="G20" r:id="rId584" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
     <hyperlink ref="G9" r:id="rId585" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
+    <hyperlink ref="G10" r:id="rId586" xr:uid="{DBD6AD6B-351A-4133-B6A4-6B13FFA536DF}"/>
+    <hyperlink ref="G11" r:id="rId587" xr:uid="{F1752B38-25A2-48DA-8DEE-B25CAC8B1254}"/>
+    <hyperlink ref="G12" r:id="rId588" xr:uid="{E2F38E02-83B1-463D-9696-7E4BF035B6A5}"/>
+    <hyperlink ref="G13" r:id="rId589" xr:uid="{F0981388-A434-4006-AAB4-D05BFCDF32AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId586"/>
-  <drawing r:id="rId587"/>
+  <pageSetup orientation="portrait" r:id="rId590"/>
+  <drawing r:id="rId591"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07555EEB-319B-4551-8718-98850A866BF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E288C0-DD27-4FC2-95FC-2608B354A03F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="2476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="2478">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7471,6 +7471,12 @@
   </si>
   <si>
     <t>ADD TO FINANCIAL</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Melt_Dem/status/1177624330278199297</t>
+  </si>
+  <si>
+    <t>Tweet: meltdem</t>
   </si>
 </sst>
 </file>
@@ -11190,7 +11196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11275,12 +11281,18 @@
     </row>
     <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="B6" s="74">
+        <v>43735</v>
+      </c>
       <c r="C6" s="75"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>2476</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E288C0-DD27-4FC2-95FC-2608B354A03F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD75147-E2E7-4767-B4CF-211CFFB8BF36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="2478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2480">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7477,6 +7477,12 @@
   </si>
   <si>
     <t>Tweet: meltdem</t>
+  </si>
+  <si>
+    <t>https://www.unchained-capital.com/blog/bitcoin-is-not-backed-by-nothing/</t>
+  </si>
+  <si>
+    <t>Bitcoin is Not Backed by Nothing</t>
   </si>
 </sst>
 </file>
@@ -11196,7 +11202,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11272,12 +11278,20 @@
     </row>
     <row r="5" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="B5" s="74">
+        <v>43735</v>
+      </c>
       <c r="C5" s="75"/>
       <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="E5" s="56" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>2479</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>2478</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD75147-E2E7-4767-B4CF-211CFFB8BF36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB216F-8B8C-4FB1-86B8-CF5017AE9F00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="2480">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -11202,7 +11202,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11278,7 +11278,7 @@
     </row>
     <row r="5" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
-      <c r="B5" s="74">
+      <c r="B5" s="95">
         <v>43735</v>
       </c>
       <c r="C5" s="75"/>
@@ -11289,13 +11289,13 @@
       <c r="F5" s="56" t="s">
         <v>2479</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>2478</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
-      <c r="B6" s="74">
+      <c r="B6" s="95">
         <v>43735</v>
       </c>
       <c r="C6" s="75"/>
@@ -11304,13 +11304,13 @@
       <c r="F6" s="56" t="s">
         <v>2477</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>2476</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="74">
+      <c r="B7" s="95">
         <v>43733</v>
       </c>
       <c r="C7" s="75"/>
@@ -11319,7 +11319,7 @@
       <c r="F7" s="56" t="s">
         <v>2473</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -29346,10 +29346,13 @@
     <hyperlink ref="G16" r:id="rId590" xr:uid="{E65E5A32-125E-4DBA-821D-72B64CDBD5A7}"/>
     <hyperlink ref="G17" r:id="rId591" xr:uid="{6E449A4B-C9F1-4B1C-BA89-B254DE288BBB}"/>
     <hyperlink ref="G18" r:id="rId592" xr:uid="{D46FA922-8B5A-4ADD-9F9E-EA562F602C8B}"/>
+    <hyperlink ref="G6" r:id="rId593" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
+    <hyperlink ref="G7" r:id="rId594" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
+    <hyperlink ref="G5" r:id="rId595" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId593"/>
-  <drawing r:id="rId594"/>
+  <pageSetup orientation="portrait" r:id="rId596"/>
+  <drawing r:id="rId597"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07AD816-AF4C-4370-A5DC-EFF9C9B4F666}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB486A1F-9949-408C-BCBC-2FD0CDE2B42B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6708" uniqueCount="2482">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7762,7 +7762,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -7910,7 +7910,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11208,7 +11207,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11450,7 +11449,7 @@
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
-      <c r="B23" s="95">
+      <c r="B23" s="92">
         <v>43735</v>
       </c>
       <c r="C23" s="75"/>
@@ -11467,7 +11466,7 @@
     </row>
     <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
-      <c r="B24" s="95">
+      <c r="B24" s="92">
         <v>43735</v>
       </c>
       <c r="C24" s="75"/>
@@ -11482,7 +11481,7 @@
     </row>
     <row r="25" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
-      <c r="B25" s="95">
+      <c r="B25" s="92">
         <v>43733</v>
       </c>
       <c r="C25" s="75"/>
@@ -11496,10 +11495,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="95" t="s">
         <v>2475</v>
       </c>
-      <c r="B26" s="95">
+      <c r="B26" s="92">
         <v>43728</v>
       </c>
       <c r="C26" s="75"/>
@@ -11514,7 +11513,7 @@
     </row>
     <row r="27" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
-      <c r="B27" s="95">
+      <c r="B27" s="92">
         <v>43728</v>
       </c>
       <c r="C27" s="75"/>
@@ -11529,7 +11528,7 @@
     </row>
     <row r="28" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
-      <c r="B28" s="95">
+      <c r="B28" s="92">
         <v>43719</v>
       </c>
       <c r="C28" s="75"/>
@@ -11544,12 +11543,12 @@
     </row>
     <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
-      <c r="B29" s="97">
+      <c r="B29" s="96">
         <v>43720</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>2444</v>
       </c>
       <c r="F29" s="56" t="s">
@@ -11561,7 +11560,7 @@
     </row>
     <row r="30" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
-      <c r="B30" s="95">
+      <c r="B30" s="92">
         <v>43724</v>
       </c>
       <c r="C30" s="75"/>
@@ -11578,7 +11577,7 @@
     </row>
     <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
-      <c r="B31" s="95">
+      <c r="B31" s="92">
         <v>43721</v>
       </c>
       <c r="C31" s="75"/>
@@ -11595,7 +11594,7 @@
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
-      <c r="B32" s="95">
+      <c r="B32" s="92">
         <v>43720</v>
       </c>
       <c r="C32" s="75"/>
@@ -11612,7 +11611,7 @@
     </row>
     <row r="33" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
-      <c r="B33" s="95">
+      <c r="B33" s="92">
         <v>43719</v>
       </c>
       <c r="C33" s="75"/>
@@ -11629,7 +11628,7 @@
     </row>
     <row r="34" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56"/>
-      <c r="B34" s="82">
+      <c r="B34" s="68">
         <v>43718</v>
       </c>
       <c r="E34" s="46" t="s">
@@ -11644,7 +11643,7 @@
     </row>
     <row r="35" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="82">
+      <c r="B35" s="68">
         <v>43717</v>
       </c>
       <c r="E35" s="56" t="s">
@@ -11659,7 +11658,7 @@
     </row>
     <row r="36" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
-      <c r="B36" s="95">
+      <c r="B36" s="92">
         <v>43714</v>
       </c>
       <c r="C36" s="75"/>
@@ -11674,7 +11673,7 @@
     </row>
     <row r="37" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
-      <c r="B37" s="95">
+      <c r="B37" s="92">
         <v>43712</v>
       </c>
       <c r="C37" s="75"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB486A1F-9949-408C-BCBC-2FD0CDE2B42B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04EA15-F301-434E-9FC9-F2EBB14D7B91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6708" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="2486">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7489,6 +7489,18 @@
   </si>
   <si>
     <t>https://twitter.com/Beautyon_/status/1179057801706065920?s=09</t>
+  </si>
+  <si>
+    <t>https://medium.com/@RossUlbricht/bitcoin-equals-freedom-6c33986b4852</t>
+  </si>
+  <si>
+    <t>Bitcoin Equals Freedom</t>
+  </si>
+  <si>
+    <t>https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually/</t>
+  </si>
+  <si>
+    <t>Will there be 21 million bitcoins eventually?</t>
   </si>
 </sst>
 </file>
@@ -10851,9 +10863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>551777</xdr:colOff>
+      <xdr:colOff>555587</xdr:colOff>
       <xdr:row>1084</xdr:row>
-      <xdr:rowOff>97711</xdr:rowOff>
+      <xdr:rowOff>93901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11206,8 +11218,8 @@
   <dimension ref="A1:Y1808"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="3" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I996" sqref="I996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11414,12 +11426,20 @@
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="74">
+        <v>43733</v>
+      </c>
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="E20" s="56" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>2483</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>2482</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
@@ -21886,6 +21906,17 @@
       </c>
       <c r="G993" s="3" t="s">
         <v>1311</v>
+      </c>
+    </row>
+    <row r="996" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B996" s="32">
+        <v>42222</v>
+      </c>
+      <c r="F996" s="9" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G996" s="3" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="997" spans="2:7" x14ac:dyDescent="0.3">
@@ -28903,7 +28934,7 @@
   <conditionalFormatting sqref="F104">
     <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1591 F1809:F1048576 F380 B503 F302:F304 F1630:F1633 F1527:F1529 F1540:F1542 F1546:F1552 F397:F408 F602:F604 F1202 G1222 F734:F739 F860:F862 F1104:F1111 F857 F1:F33 F36:F54 F238 F256 F217:F236 F578:F579 F606:F608 F610:F614 F591:F595 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F556:F557 F559:F563 F554 F1323:F1324 F1449:F1452 F1472 F1491:F1493 F1498:F1500 F1495:F1496 F1284:F1289 F1309 F1294:F1303 F1292 F1166:F1167 F1169 F1182:F1184 F1363:F1368 F1234:F1244 F1247 F1249 F1340 F1136:F1137 F1147:F1151 F1005:F1010 F1012:F1014 F1092:F1097 F1099 F1115:F1117 F1143 F1113 F1078 F1072 F620:F648 F650:F655 F948:F962 F973:F985 F806:F807 F1456:F1458 F1465 F1041 F1057:F1069 F1043 F1034 F796:F803 B1734:B1756 B1760:B1808 B445 F1153 F1186:F1187 F1197 F685:F686 F683 F679:F681 F836:F840 F848:F853 F1162 F1372:F1378 F1381:F1398 F1467:F1468 F920 F1016 F906:F909 F967 F767 F881 F446:F451 F500 F529 F504:F506 F691:F694 F698:F703 F743:F763 F696 F731 F712:F715 F809 F843:F844 F987:F999 F1002:F1003 F1020:F1028 F1123 F1567:F1569 F1635 F1645:F1673 F1682:F1689 F1691:F1715 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F657:F665 F438:F444 F421:F424 F496:F498 F509:F513 F523:F525 F105 F64 F66:F71 F541 F58:F62 F56 F1578:F1581 F1619:F1622 F1439:F1446 F543:F552 F1637:F1640 F1596:F1605 F1536:F1538 F1533 F1503:F1504 F1350:F1359 F1194:F1195 F1173:F1179 F902 F892:F896 F827:F830 F816:F825 F812:F813 F741 F568:F574 F534:F535 F531:F532 F310:F312 F1074:F1076 F1080:F1081 F1127:F1132 F306">
+  <conditionalFormatting sqref="F1591 F1809:F1048576 F380 B503 F302:F304 F1630:F1633 F1527:F1529 F1540:F1542 F1546:F1552 F397:F408 F602:F604 F1202 G1222 F734:F739 F860:F862 F1104:F1111 F857 F1:F33 F36:F54 F238 F256 F217:F236 F578:F579 F606:F608 F610:F614 F591:F595 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F556:F557 F559:F563 F554 F1323:F1324 F1449:F1452 F1472 F1491:F1493 F1498:F1500 F1495:F1496 F1284:F1289 F1309 F1294:F1303 F1292 F1166:F1167 F1169 F1182:F1184 F1363:F1368 F1234:F1244 F1247 F1249 F1340 F1136:F1137 F1147:F1151 F1005:F1010 F1012:F1014 F1092:F1097 F1099 F1115:F1117 F1143 F1113 F1078 F1072 F620:F648 F650:F655 F948:F962 F973:F985 F806:F807 F1456:F1458 F1465 F1041 F1057:F1069 F1043 F1034 F796:F803 B1734:B1756 B1760:B1808 B445 F1153 F1186:F1187 F1197 F685:F686 F683 F679:F681 F836:F840 F848:F853 F1162 F1372:F1378 F1381:F1398 F1467:F1468 F920 F1016 F906:F909 F967 F767 F881 F446:F451 F500 F529 F504:F506 F691:F694 F698:F703 F743:F763 F696 F731 F712:F715 F809 F843:F844 F987:F995 F1002:F1003 F1020:F1028 F1123 F1567:F1569 F1635 F1645:F1673 F1682:F1689 F1691:F1715 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F657:F665 F438:F444 F421:F424 F496:F498 F509:F513 F523:F525 F105 F64 F66:F71 F541 F58:F62 F56 F1578:F1581 F1619:F1622 F1439:F1446 F543:F552 F1637:F1640 F1596:F1605 F1536:F1538 F1533 F1503:F1504 F1350:F1359 F1194:F1195 F1173:F1179 F902 F892:F896 F827:F830 F816:F825 F812:F813 F741 F568:F574 F534:F535 F531:F532 F310:F312 F1074:F1076 F1080:F1081 F1127:F1132 F306 F997:F999">
     <cfRule type="duplicateValues" dxfId="44" priority="10967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:G374">
@@ -29520,10 +29551,12 @@
     <hyperlink ref="G24" r:id="rId593" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
     <hyperlink ref="G25" r:id="rId594" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
     <hyperlink ref="G23" r:id="rId595" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
+    <hyperlink ref="G996" r:id="rId596" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
+    <hyperlink ref="F996" r:id="rId597" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId596"/>
-  <drawing r:id="rId597"/>
+  <pageSetup orientation="portrait" r:id="rId598"/>
+  <drawing r:id="rId599"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04EA15-F301-434E-9FC9-F2EBB14D7B91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73986C-16B6-431D-8544-42F198DAB70C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="2486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="2490">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7501,6 +7501,18 @@
   </si>
   <si>
     <t>Will there be 21 million bitcoins eventually?</t>
+  </si>
+  <si>
+    <t>Question on the Vulnerability of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/f2g9e7b/</t>
+  </si>
+  <si>
+    <t>The Monetary Case for Bitcoin</t>
+  </si>
+  <si>
+    <t>https://medium.com/@ben_kaufman/the-monetary-case-for-bitcoin-778cd51ff272</t>
   </si>
 </sst>
 </file>
@@ -10863,9 +10875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>555587</xdr:colOff>
+      <xdr:colOff>551777</xdr:colOff>
       <xdr:row>1084</xdr:row>
-      <xdr:rowOff>93901</xdr:rowOff>
+      <xdr:rowOff>97711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11218,8 +11230,8 @@
   <dimension ref="A1:Y1808"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A982" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I996" sqref="I996"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11408,21 +11420,33 @@
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
+      <c r="B18" s="74">
+        <v>43743</v>
+      </c>
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="56" t="s">
+        <v>2488</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>2489</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="74">
+        <v>43743</v>
+      </c>
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
@@ -28934,7 +28958,7 @@
   <conditionalFormatting sqref="F104">
     <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1591 F1809:F1048576 F380 B503 F302:F304 F1630:F1633 F1527:F1529 F1540:F1542 F1546:F1552 F397:F408 F602:F604 F1202 G1222 F734:F739 F860:F862 F1104:F1111 F857 F1:F33 F36:F54 F238 F256 F217:F236 F578:F579 F606:F608 F610:F614 F591:F595 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F556:F557 F559:F563 F554 F1323:F1324 F1449:F1452 F1472 F1491:F1493 F1498:F1500 F1495:F1496 F1284:F1289 F1309 F1294:F1303 F1292 F1166:F1167 F1169 F1182:F1184 F1363:F1368 F1234:F1244 F1247 F1249 F1340 F1136:F1137 F1147:F1151 F1005:F1010 F1012:F1014 F1092:F1097 F1099 F1115:F1117 F1143 F1113 F1078 F1072 F620:F648 F650:F655 F948:F962 F973:F985 F806:F807 F1456:F1458 F1465 F1041 F1057:F1069 F1043 F1034 F796:F803 B1734:B1756 B1760:B1808 B445 F1153 F1186:F1187 F1197 F685:F686 F683 F679:F681 F836:F840 F848:F853 F1162 F1372:F1378 F1381:F1398 F1467:F1468 F920 F1016 F906:F909 F967 F767 F881 F446:F451 F500 F529 F504:F506 F691:F694 F698:F703 F743:F763 F696 F731 F712:F715 F809 F843:F844 F987:F995 F1002:F1003 F1020:F1028 F1123 F1567:F1569 F1635 F1645:F1673 F1682:F1689 F1691:F1715 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F657:F665 F438:F444 F421:F424 F496:F498 F509:F513 F523:F525 F105 F64 F66:F71 F541 F58:F62 F56 F1578:F1581 F1619:F1622 F1439:F1446 F543:F552 F1637:F1640 F1596:F1605 F1536:F1538 F1533 F1503:F1504 F1350:F1359 F1194:F1195 F1173:F1179 F902 F892:F896 F827:F830 F816:F825 F812:F813 F741 F568:F574 F534:F535 F531:F532 F310:F312 F1074:F1076 F1080:F1081 F1127:F1132 F306 F997:F999">
+  <conditionalFormatting sqref="F1591 F1809:F1048576 F380 B503 F302:F304 F1630:F1633 F1527:F1529 F1540:F1542 F1546:F1552 F397:F408 F602:F604 F1202 G1222 F734:F739 F860:F862 F1104:F1111 F857 F1:F18 F36:F54 F238 F256 F217:F236 F578:F579 F606:F608 F610:F614 F591:F595 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F556:F557 F559:F563 F554 F1323:F1324 F1449:F1452 F1472 F1491:F1493 F1498:F1500 F1495:F1496 F1284:F1289 F1309 F1294:F1303 F1292 F1166:F1167 F1169 F1182:F1184 F1363:F1368 F1234:F1244 F1247 F1249 F1340 F1136:F1137 F1147:F1151 F1005:F1010 F1012:F1014 F1092:F1097 F1099 F1115:F1117 F1143 F1113 F1078 F1072 F620:F648 F650:F655 F948:F962 F973:F985 F806:F807 F1456:F1458 F1465 F1041 F1057:F1069 F1043 F1034 F796:F803 B1734:B1756 B1760:B1808 B445 F1153 F1186:F1187 F1197 F685:F686 F683 F679:F681 F836:F840 F848:F853 F1162 F1372:F1378 F1381:F1398 F1467:F1468 F920 F1016 F906:F909 F967 F767 F881 F446:F451 F500 F529 F504:F506 F691:F694 F698:F703 F743:F763 F696 F731 F712:F715 F809 F843:F844 F987:F995 F1002:F1003 F1020:F1028 F1123 F1567:F1569 F1635 F1645:F1673 F1682:F1689 F1691:F1715 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F657:F665 F438:F444 F421:F424 F496:F498 F509:F513 F523:F525 F105 F64 F66:F71 F541 F58:F62 F56 F1578:F1581 F1619:F1622 F1439:F1446 F543:F552 F1637:F1640 F1596:F1605 F1536:F1538 F1533 F1503:F1504 F1350:F1359 F1194:F1195 F1173:F1179 F902 F892:F896 F827:F830 F816:F825 F812:F813 F741 F568:F574 F534:F535 F531:F532 F310:F312 F1074:F1076 F1080:F1081 F1127:F1132 F306 F997:F999 F20:F33">
     <cfRule type="duplicateValues" dxfId="44" priority="10967"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:G374">
@@ -29553,10 +29577,11 @@
     <hyperlink ref="G23" r:id="rId595" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
     <hyperlink ref="G996" r:id="rId596" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
     <hyperlink ref="F996" r:id="rId597" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
+    <hyperlink ref="F19" r:id="rId598" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId598"/>
-  <drawing r:id="rId599"/>
+  <pageSetup orientation="portrait" r:id="rId599"/>
+  <drawing r:id="rId600"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73986C-16B6-431D-8544-42F198DAB70C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF47313-5491-4908-8E98-47728B6CD69F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="2490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="2495">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7513,6 +7513,21 @@
   </si>
   <si>
     <t>https://medium.com/@ben_kaufman/the-monetary-case-for-bitcoin-778cd51ff272</t>
+  </si>
+  <si>
+    <t>http://cryptosovereignty.org/crypto-without-criticisms/</t>
+  </si>
+  <si>
+    <t>Crypto without Criticisms</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Bitcoin’s Hidden Proof-of-Work Asset</t>
+  </si>
+  <si>
+    <t>https://medium.com/@RubenSomsen/bitcoins-hidden-proof-of-work-asset-4b4d086f73e2</t>
   </si>
 </sst>
 </file>
@@ -11230,8 +11245,8 @@
   <dimension ref="A1:Y1808"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="3" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L453" sqref="L453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11411,12 +11426,18 @@
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="74">
+        <v>43745</v>
+      </c>
       <c r="C17" s="75"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="56" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>2490</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
@@ -17435,7 +17456,18 @@
       <c r="B494" s="32"/>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B495" s="32"/>
+      <c r="B495" s="32">
+        <v>43270</v>
+      </c>
+      <c r="E495" t="s">
+        <v>2492</v>
+      </c>
+      <c r="F495" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G495" t="s">
+        <v>2494</v>
+      </c>
     </row>
     <row r="498" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="12"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB74A5-F4B0-42BB-BB70-D74613BD3900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D363451C-3146-4026-BB20-04CFB288175E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="9792" windowWidth="16392" windowHeight="14724" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="2503">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7546,6 +7546,12 @@
   </si>
   <si>
     <t>Elaine</t>
+  </si>
+  <si>
+    <t>The Investment Case for Bitcoin</t>
+  </si>
+  <si>
+    <t>https://www.vaneck.com/blogs/market-insights/the-investment-case-for-bitcoin/?vecs=true</t>
   </si>
 </sst>
 </file>
@@ -11263,8 +11269,8 @@
   <dimension ref="A1:Y1809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F539" sqref="F539"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11435,12 +11441,18 @@
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="74">
+        <v>43746</v>
+      </c>
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="56" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D363451C-3146-4026-BB20-04CFB288175E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711B68B-62EE-4ADB-811C-33CE28B463F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="2503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="2505">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7552,6 +7552,12 @@
   </si>
   <si>
     <t>https://www.vaneck.com/blogs/market-insights/the-investment-case-for-bitcoin/?vecs=true</t>
+  </si>
+  <si>
+    <t>ALSO THIS</t>
+  </si>
+  <si>
+    <t>https://twitter.com/gaborgurbacs/status/1181646637057429509</t>
   </si>
 </sst>
 </file>
@@ -10914,9 +10920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>551777</xdr:colOff>
+      <xdr:colOff>555587</xdr:colOff>
       <xdr:row>1085</xdr:row>
-      <xdr:rowOff>97711</xdr:rowOff>
+      <xdr:rowOff>93901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11270,7 +11276,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11285,7 +11291,7 @@
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -11297,7 +11303,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="18"/>
@@ -11307,7 +11313,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="75"/>
@@ -11344,7 +11350,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="75"/>
@@ -11353,12 +11359,12 @@
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
     </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
       <c r="C7" s="75"/>
@@ -11367,7 +11373,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="75"/>
@@ -11376,7 +11382,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="75"/>
@@ -11385,7 +11391,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="75"/>
@@ -11394,7 +11400,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="75"/>
@@ -11403,7 +11409,7 @@
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="75"/>
@@ -11412,7 +11418,7 @@
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="75"/>
@@ -11421,7 +11427,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="75"/>
@@ -11430,7 +11436,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="75"/>
@@ -11439,7 +11445,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
       <c r="B16" s="74">
         <v>43746</v>
@@ -11453,6 +11459,13 @@
       <c r="G16" s="56" t="s">
         <v>2502</v>
       </c>
+      <c r="H16" s="61" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711B68B-62EE-4ADB-811C-33CE28B463F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833637D-4971-47EF-8482-BF65424FB41F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="2505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2515">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7558,6 +7558,36 @@
   </si>
   <si>
     <t>https://twitter.com/gaborgurbacs/status/1181646637057429509</t>
+  </si>
+  <si>
+    <t>trace mayer</t>
+  </si>
+  <si>
+    <t>The Seven Network Effects of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://nakamotoinstitute.org/mempool/the-seven-network-effects-of-bitcoin/</t>
+  </si>
+  <si>
+    <t>https://www.ar.ca/blog/crypto-market-recap-10-14-19</t>
+  </si>
+  <si>
+    <t>Bitcoin’s Genius Exemplified</t>
+  </si>
+  <si>
+    <t>https://medium.com/@timdraper_24889/the-startup-government-510d015b708c</t>
+  </si>
+  <si>
+    <t>The startup governmnet</t>
+  </si>
+  <si>
+    <t>tim draper</t>
+  </si>
+  <si>
+    <t>Falsifying Stock-to-Flow As a Model of Bitcoin Value</t>
+  </si>
+  <si>
+    <t>https://medium.com/@phraudsta/falsifying-stock-to-flow-as-a-model-of-bitcoin-value-b2d9e61f68af</t>
   </si>
 </sst>
 </file>
@@ -7990,7 +8020,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="290">
+  <dxfs count="291">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10920,9 +10960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>555587</xdr:colOff>
+      <xdr:colOff>551777</xdr:colOff>
       <xdr:row>1085</xdr:row>
-      <xdr:rowOff>93901</xdr:rowOff>
+      <xdr:rowOff>97711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11275,8 +11315,8 @@
   <dimension ref="A1:Y1809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11429,21 +11469,35 @@
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="74">
+        <v>43748</v>
+      </c>
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="E14" s="56" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>2510</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="74">
+        <v>43752</v>
+      </c>
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="56" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>2508</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
@@ -12852,7 +12906,15 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
-      <c r="B113" s="32"/>
+      <c r="B113" s="32">
+        <v>43687</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2513</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2514</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
@@ -22171,8 +22233,18 @@
       <c r="F1014" s="9"/>
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1015" s="32"/>
-      <c r="F1015" s="9"/>
+      <c r="B1015" s="32">
+        <v>42181</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>2507</v>
+      </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1016" s="32">
@@ -28323,762 +28395,765 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1005">
+    <cfRule type="duplicateValues" dxfId="290" priority="255"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G793">
     <cfRule type="duplicateValues" dxfId="289" priority="254"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G793">
-    <cfRule type="duplicateValues" dxfId="288" priority="253"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F301">
-    <cfRule type="duplicateValues" dxfId="287" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G388:G389">
-    <cfRule type="duplicateValues" dxfId="286" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B388:F389">
-    <cfRule type="duplicateValues" dxfId="285" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G390">
-    <cfRule type="duplicateValues" dxfId="284" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B390:F390">
-    <cfRule type="duplicateValues" dxfId="283" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G412">
-    <cfRule type="duplicateValues" dxfId="282" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B412:F412">
-    <cfRule type="duplicateValues" dxfId="281" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G413">
-    <cfRule type="duplicateValues" dxfId="280" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B413:F413">
-    <cfRule type="duplicateValues" dxfId="279" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="239"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G474">
-    <cfRule type="duplicateValues" dxfId="278" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B474:F474">
-    <cfRule type="duplicateValues" dxfId="277" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G559">
-    <cfRule type="duplicateValues" dxfId="276" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B559:F559">
-    <cfRule type="duplicateValues" dxfId="275" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G582">
-    <cfRule type="duplicateValues" dxfId="274" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B582:F582">
-    <cfRule type="duplicateValues" dxfId="273" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G597:G598">
-    <cfRule type="duplicateValues" dxfId="272" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B597:F598">
-    <cfRule type="duplicateValues" dxfId="271" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G669:G671">
-    <cfRule type="duplicateValues" dxfId="270" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B669:F671">
-    <cfRule type="duplicateValues" dxfId="269" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G688:G689 G685">
-    <cfRule type="duplicateValues" dxfId="268" priority="3801"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="3802"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B688:F689 B685:F685">
-    <cfRule type="duplicateValues" dxfId="267" priority="3803"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="3804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G717:G728">
-    <cfRule type="duplicateValues" dxfId="266" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B717:F717 B728:F728 B718:E727">
-    <cfRule type="duplicateValues" dxfId="265" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G734">
-    <cfRule type="duplicateValues" dxfId="264" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B734:F734">
-    <cfRule type="duplicateValues" dxfId="263" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G772:G773">
-    <cfRule type="duplicateValues" dxfId="262" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B772:B773 D772:F773">
-    <cfRule type="duplicateValues" dxfId="261" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G779">
-    <cfRule type="duplicateValues" dxfId="260" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B779:F779">
-    <cfRule type="duplicateValues" dxfId="259" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G809">
-    <cfRule type="duplicateValues" dxfId="258" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B809:F809">
-    <cfRule type="duplicateValues" dxfId="257" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G843">
-    <cfRule type="duplicateValues" dxfId="256" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B843:F843">
-    <cfRule type="duplicateValues" dxfId="255" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G865:G866 G870:G875">
-    <cfRule type="duplicateValues" dxfId="254" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B865:F866 B870:F875">
-    <cfRule type="duplicateValues" dxfId="253" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G880">
-    <cfRule type="duplicateValues" dxfId="252" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B880:F880">
-    <cfRule type="duplicateValues" dxfId="251" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G911">
-    <cfRule type="duplicateValues" dxfId="250" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B911:F911">
-    <cfRule type="duplicateValues" dxfId="249" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G987">
-    <cfRule type="duplicateValues" dxfId="248" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B987:F987">
-    <cfRule type="duplicateValues" dxfId="247" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1018">
-    <cfRule type="duplicateValues" dxfId="246" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1018:F1018">
-    <cfRule type="duplicateValues" dxfId="245" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1053">
-    <cfRule type="duplicateValues" dxfId="244" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1053:F1053">
-    <cfRule type="duplicateValues" dxfId="243" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1103">
-    <cfRule type="duplicateValues" dxfId="242" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1103:F1103">
-    <cfRule type="duplicateValues" dxfId="241" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1119:G1120">
-    <cfRule type="duplicateValues" dxfId="240" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1119:F1120">
-    <cfRule type="duplicateValues" dxfId="239" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1157:G1161 G1155">
-    <cfRule type="duplicateValues" dxfId="238" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1155:F1155 B1157:F1161">
-    <cfRule type="duplicateValues" dxfId="237" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1208:G1209">
-    <cfRule type="duplicateValues" dxfId="236" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1208:F1209">
-    <cfRule type="duplicateValues" dxfId="235" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1216:G1217">
-    <cfRule type="duplicateValues" dxfId="234" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1216:F1217">
-    <cfRule type="duplicateValues" dxfId="233" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1254">
-    <cfRule type="duplicateValues" dxfId="232" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1254:E1254">
-    <cfRule type="duplicateValues" dxfId="231" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1265">
-    <cfRule type="duplicateValues" dxfId="230" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1265:F1265">
-    <cfRule type="duplicateValues" dxfId="229" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1332">
-    <cfRule type="duplicateValues" dxfId="228" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1332:F1332">
-    <cfRule type="duplicateValues" dxfId="227" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1478">
-    <cfRule type="duplicateValues" dxfId="226" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1478:F1478">
-    <cfRule type="duplicateValues" dxfId="225" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1625:G1626 G1629">
-    <cfRule type="duplicateValues" dxfId="224" priority="4140"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="4141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1625:F1625 B1629:F1629 B1626:E1626">
-    <cfRule type="duplicateValues" dxfId="223" priority="4142"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="4143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1635">
-    <cfRule type="duplicateValues" dxfId="222" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1635:F1635">
-    <cfRule type="duplicateValues" dxfId="221" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1642:G1644">
-    <cfRule type="duplicateValues" dxfId="220" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1642:F1644">
-    <cfRule type="duplicateValues" dxfId="219" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1675:G1682">
-    <cfRule type="duplicateValues" dxfId="218" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1675:F1682">
-    <cfRule type="duplicateValues" dxfId="217" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1691">
-    <cfRule type="duplicateValues" dxfId="216" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1691:F1691">
-    <cfRule type="duplicateValues" dxfId="215" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1717:G1734">
-    <cfRule type="duplicateValues" dxfId="214" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1717:F1734">
-    <cfRule type="duplicateValues" dxfId="213" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1713">
-    <cfRule type="duplicateValues" dxfId="212" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468">
-    <cfRule type="duplicateValues" dxfId="211" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F468">
-    <cfRule type="duplicateValues" dxfId="210" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F672">
+    <cfRule type="duplicateValues" dxfId="210" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G672">
     <cfRule type="duplicateValues" dxfId="209" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G672">
-    <cfRule type="duplicateValues" dxfId="208" priority="150"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G712">
-    <cfRule type="duplicateValues" dxfId="207" priority="4790"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="4791"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B712:F712">
-    <cfRule type="duplicateValues" dxfId="206" priority="4791"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="4792"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G527:G528 G501 G537:G541">
-    <cfRule type="duplicateValues" dxfId="205" priority="5053"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="5054"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B527:F528 B501:F501 B537:F541">
-    <cfRule type="duplicateValues" dxfId="204" priority="5056"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="5057"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G426:G427">
-    <cfRule type="duplicateValues" dxfId="203" priority="5182"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="5183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B426:F427">
-    <cfRule type="duplicateValues" dxfId="202" priority="5440"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="5441"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:G87">
-    <cfRule type="duplicateValues" dxfId="201" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G459:G460">
-    <cfRule type="duplicateValues" dxfId="200" priority="5567"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="5568"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B459:F460">
-    <cfRule type="duplicateValues" dxfId="199" priority="5569"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="5570"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E101 E103 E106:E107 E109:E114 F108">
-    <cfRule type="duplicateValues" dxfId="198" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G244:G246 G251:G252 G155:G156 G160">
-    <cfRule type="duplicateValues" dxfId="197" priority="5708"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="5709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="duplicateValues" dxfId="196" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="duplicateValues" dxfId="195" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F509:F513">
-    <cfRule type="containsText" dxfId="194" priority="143" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="195" priority="144" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F509)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="duplicateValues" dxfId="193" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="duplicateValues" dxfId="192" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="duplicateValues" dxfId="191" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="duplicateValues" dxfId="190" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F657">
+    <cfRule type="duplicateValues" dxfId="190" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E378">
     <cfRule type="duplicateValues" dxfId="189" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E378">
-    <cfRule type="duplicateValues" dxfId="188" priority="136"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1554:F1558">
-    <cfRule type="duplicateValues" dxfId="187" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1567 G1560:G1564 G1554:G1558">
-    <cfRule type="duplicateValues" dxfId="186" priority="7704"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="7705"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1567:F1567 B1560:F1563 B1564:E1564 B1554:E1558">
-    <cfRule type="duplicateValues" dxfId="185" priority="7708"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="7709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1645">
+    <cfRule type="duplicateValues" dxfId="185" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1645">
     <cfRule type="duplicateValues" dxfId="184" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1645">
+  <conditionalFormatting sqref="G1637">
     <cfRule type="duplicateValues" dxfId="183" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1637">
+  <conditionalFormatting sqref="F1637">
     <cfRule type="duplicateValues" dxfId="182" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1637">
+  <conditionalFormatting sqref="G1630">
     <cfRule type="duplicateValues" dxfId="181" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1630">
+  <conditionalFormatting sqref="F1630">
     <cfRule type="duplicateValues" dxfId="180" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1630">
+  <conditionalFormatting sqref="G1624">
     <cfRule type="duplicateValues" dxfId="179" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1624">
+  <conditionalFormatting sqref="F1624">
     <cfRule type="duplicateValues" dxfId="178" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1624">
+  <conditionalFormatting sqref="G1607:G1617">
     <cfRule type="duplicateValues" dxfId="177" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1607:G1617">
+  <conditionalFormatting sqref="F1607:F1617">
     <cfRule type="duplicateValues" dxfId="176" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1607:F1617">
+  <conditionalFormatting sqref="G1593:G1596">
     <cfRule type="duplicateValues" dxfId="175" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1593:G1596">
+  <conditionalFormatting sqref="F1593:F1596">
     <cfRule type="duplicateValues" dxfId="174" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1593:F1596">
+  <conditionalFormatting sqref="G1588:G1590 G1584">
     <cfRule type="duplicateValues" dxfId="173" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1588:G1590 G1584">
+  <conditionalFormatting sqref="F1588:F1590 F1584">
     <cfRule type="duplicateValues" dxfId="172" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1588:F1590 F1584">
+  <conditionalFormatting sqref="G1571">
     <cfRule type="duplicateValues" dxfId="171" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1571">
+  <conditionalFormatting sqref="F1571">
     <cfRule type="duplicateValues" dxfId="170" priority="118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1571">
+  <conditionalFormatting sqref="G1544:G1545">
     <cfRule type="duplicateValues" dxfId="169" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1544:G1545">
+  <conditionalFormatting sqref="F1544:F1545">
     <cfRule type="duplicateValues" dxfId="168" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1544:F1545">
+  <conditionalFormatting sqref="G1531 G1535:G1536">
     <cfRule type="duplicateValues" dxfId="167" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1531 G1535:G1536">
+  <conditionalFormatting sqref="F1531 F1535:F1536">
     <cfRule type="duplicateValues" dxfId="166" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1531 F1535:F1536">
-    <cfRule type="duplicateValues" dxfId="165" priority="113"/>
+  <conditionalFormatting sqref="G1502:G1503">
+    <cfRule type="duplicateValues" dxfId="165" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1502:G1503">
+  <conditionalFormatting sqref="F1502:F1503">
     <cfRule type="duplicateValues" dxfId="164" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1502:F1503">
-    <cfRule type="duplicateValues" dxfId="163" priority="109"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1527">
-    <cfRule type="duplicateValues" dxfId="162" priority="7715"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="7716"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1527:F1527">
-    <cfRule type="duplicateValues" dxfId="161" priority="7716"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="7717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1507:G1509 G1514:G1525">
-    <cfRule type="duplicateValues" dxfId="160" priority="8429"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="8430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1514:F1525 F1507:F1510">
-    <cfRule type="duplicateValues" dxfId="159" priority="8771"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="8772"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1484:G1485">
+    <cfRule type="duplicateValues" dxfId="159" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1484:F1485">
     <cfRule type="duplicateValues" dxfId="158" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1484:F1485">
+  <conditionalFormatting sqref="G1479:G1482">
     <cfRule type="duplicateValues" dxfId="157" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1479:G1482">
+  <conditionalFormatting sqref="F1479:F1482">
     <cfRule type="duplicateValues" dxfId="156" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1479:F1482">
+  <conditionalFormatting sqref="G1454:G1456">
     <cfRule type="duplicateValues" dxfId="155" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1454:G1456">
+  <conditionalFormatting sqref="F1454:F1456">
     <cfRule type="duplicateValues" dxfId="154" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1454:F1456">
-    <cfRule type="duplicateValues" dxfId="153" priority="103"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1546 F1410 F1414 F1431">
-    <cfRule type="duplicateValues" dxfId="152" priority="9478"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="9479"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1422:G1430 G1404:G1406 G1412:G1413">
-    <cfRule type="duplicateValues" dxfId="151" priority="9627"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="9628"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1422:F1430 F1404:F1406 F1412:F1413">
-    <cfRule type="duplicateValues" dxfId="150" priority="9630"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="9631"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1363">
+    <cfRule type="duplicateValues" dxfId="150" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1363">
     <cfRule type="duplicateValues" dxfId="149" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1363">
-    <cfRule type="duplicateValues" dxfId="148" priority="99"/>
+  <conditionalFormatting sqref="G1323">
+    <cfRule type="duplicateValues" dxfId="148" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1323">
+  <conditionalFormatting sqref="F1323">
     <cfRule type="duplicateValues" dxfId="147" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1323">
-    <cfRule type="duplicateValues" dxfId="146" priority="95"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1347 G1343:G1344 G1313:G1315">
-    <cfRule type="duplicateValues" dxfId="145" priority="9985"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="9986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1347 F1343:F1344 F1313:F1315">
-    <cfRule type="duplicateValues" dxfId="144" priority="9988"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="9989"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1278">
+    <cfRule type="duplicateValues" dxfId="144" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1278">
     <cfRule type="duplicateValues" dxfId="143" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1278">
+  <conditionalFormatting sqref="G1263:G1264">
     <cfRule type="duplicateValues" dxfId="142" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1263:G1264">
+  <conditionalFormatting sqref="F1263:F1264">
     <cfRule type="duplicateValues" dxfId="141" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1263:F1264">
+  <conditionalFormatting sqref="G1246:G1247">
     <cfRule type="duplicateValues" dxfId="140" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1246:G1247">
+  <conditionalFormatting sqref="F1246:F1247">
     <cfRule type="duplicateValues" dxfId="139" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1246:F1247">
+  <conditionalFormatting sqref="G1225:G1231">
     <cfRule type="duplicateValues" dxfId="138" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1225:G1231">
+  <conditionalFormatting sqref="F1225:F1231">
     <cfRule type="duplicateValues" dxfId="137" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1225:F1231">
+  <conditionalFormatting sqref="G1211">
     <cfRule type="duplicateValues" dxfId="136" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1211">
+  <conditionalFormatting sqref="F1211">
     <cfRule type="duplicateValues" dxfId="135" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1211">
+  <conditionalFormatting sqref="G1189:G1190">
     <cfRule type="duplicateValues" dxfId="134" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1189:G1190">
+  <conditionalFormatting sqref="F1189:F1190">
     <cfRule type="duplicateValues" dxfId="133" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1189:F1190">
+  <conditionalFormatting sqref="G1156 G1171 G1164">
     <cfRule type="duplicateValues" dxfId="132" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1156 G1171 G1164">
+  <conditionalFormatting sqref="F1156 F1171 F1164">
     <cfRule type="duplicateValues" dxfId="131" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1156 F1171 F1164">
+  <conditionalFormatting sqref="G1134:G1135">
     <cfRule type="duplicateValues" dxfId="130" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1134:G1135">
+  <conditionalFormatting sqref="F1134:F1135">
     <cfRule type="duplicateValues" dxfId="129" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1134:F1135">
+  <conditionalFormatting sqref="G1122:G1123">
     <cfRule type="duplicateValues" dxfId="128" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1122:G1123">
+  <conditionalFormatting sqref="F1122">
     <cfRule type="duplicateValues" dxfId="127" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1122">
+  <conditionalFormatting sqref="F1123">
     <cfRule type="duplicateValues" dxfId="126" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1123">
+  <conditionalFormatting sqref="G1104">
     <cfRule type="duplicateValues" dxfId="125" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1104">
+  <conditionalFormatting sqref="F1104">
     <cfRule type="duplicateValues" dxfId="124" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1104">
+  <conditionalFormatting sqref="G1083:G1088">
     <cfRule type="duplicateValues" dxfId="123" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1083:G1088">
+  <conditionalFormatting sqref="F1083:F1088">
     <cfRule type="duplicateValues" dxfId="122" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1083:F1088">
+  <conditionalFormatting sqref="G1052">
     <cfRule type="duplicateValues" dxfId="121" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1052">
+  <conditionalFormatting sqref="F1052">
     <cfRule type="duplicateValues" dxfId="120" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1052">
+  <conditionalFormatting sqref="G1040">
     <cfRule type="duplicateValues" dxfId="119" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1040">
+  <conditionalFormatting sqref="F1040">
     <cfRule type="duplicateValues" dxfId="118" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1040">
+  <conditionalFormatting sqref="G1019:G1020">
     <cfRule type="duplicateValues" dxfId="117" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1019:G1020">
+  <conditionalFormatting sqref="F1019:F1020">
     <cfRule type="duplicateValues" dxfId="116" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1019:F1020">
+  <conditionalFormatting sqref="G1001:G1002">
     <cfRule type="duplicateValues" dxfId="115" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1001:G1002">
+  <conditionalFormatting sqref="F1001:F1002">
     <cfRule type="duplicateValues" dxfId="114" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1001:F1002">
-    <cfRule type="duplicateValues" dxfId="113" priority="64"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1030:G1032">
-    <cfRule type="duplicateValues" dxfId="112" priority="9989"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="9990"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1030:F1032">
-    <cfRule type="duplicateValues" dxfId="111" priority="9991"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="9992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G973 G966">
+    <cfRule type="duplicateValues" dxfId="111" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F973 F966">
     <cfRule type="duplicateValues" dxfId="110" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F973 F966">
+  <conditionalFormatting sqref="G922">
     <cfRule type="duplicateValues" dxfId="109" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G922">
+  <conditionalFormatting sqref="F922">
     <cfRule type="duplicateValues" dxfId="108" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F922">
-    <cfRule type="duplicateValues" dxfId="107" priority="60"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G928:G931">
-    <cfRule type="duplicateValues" dxfId="106" priority="9992"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="9993"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B928:F931">
-    <cfRule type="duplicateValues" dxfId="105" priority="9993"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="9994"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G913:G920">
+    <cfRule type="duplicateValues" dxfId="105" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F913:F915 F917:F920">
     <cfRule type="duplicateValues" dxfId="104" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F913:F915 F917:F920">
+  <conditionalFormatting sqref="G898:G902">
     <cfRule type="duplicateValues" dxfId="103" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G898:G902">
+  <conditionalFormatting sqref="F898:F902">
     <cfRule type="duplicateValues" dxfId="102" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F898:F902">
+  <conditionalFormatting sqref="G883:G892">
     <cfRule type="duplicateValues" dxfId="101" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G883:G892">
+  <conditionalFormatting sqref="F883:F892">
     <cfRule type="duplicateValues" dxfId="100" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F883:F892">
+  <conditionalFormatting sqref="G867:G869">
     <cfRule type="duplicateValues" dxfId="99" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G867:G869">
+  <conditionalFormatting sqref="F867:F869">
     <cfRule type="duplicateValues" dxfId="98" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F867:F869">
+  <conditionalFormatting sqref="G842">
     <cfRule type="duplicateValues" dxfId="97" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G842">
+  <conditionalFormatting sqref="F842">
     <cfRule type="duplicateValues" dxfId="96" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F842">
+  <conditionalFormatting sqref="G835">
     <cfRule type="duplicateValues" dxfId="95" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G835">
+  <conditionalFormatting sqref="F835">
     <cfRule type="duplicateValues" dxfId="94" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F835">
+  <conditionalFormatting sqref="G827">
     <cfRule type="duplicateValues" dxfId="93" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G827">
+  <conditionalFormatting sqref="F827">
     <cfRule type="duplicateValues" dxfId="92" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F827">
+  <conditionalFormatting sqref="G815:G816">
     <cfRule type="duplicateValues" dxfId="91" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G815:G816">
+  <conditionalFormatting sqref="F815:F816">
     <cfRule type="duplicateValues" dxfId="90" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F815:F816">
+  <conditionalFormatting sqref="G811:G812">
     <cfRule type="duplicateValues" dxfId="89" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G811:G812">
+  <conditionalFormatting sqref="F811:F812">
     <cfRule type="duplicateValues" dxfId="88" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F811:F812">
+  <conditionalFormatting sqref="G806">
     <cfRule type="duplicateValues" dxfId="87" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G806">
+  <conditionalFormatting sqref="F806">
     <cfRule type="duplicateValues" dxfId="86" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F806">
+  <conditionalFormatting sqref="G795:G796">
     <cfRule type="duplicateValues" dxfId="85" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G795:G796">
+  <conditionalFormatting sqref="F795:F796">
     <cfRule type="duplicateValues" dxfId="84" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F795:F796">
+  <conditionalFormatting sqref="G776:G777">
     <cfRule type="duplicateValues" dxfId="83" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G776:G777">
+  <conditionalFormatting sqref="F776:F777">
     <cfRule type="duplicateValues" dxfId="82" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F776:F777">
+  <conditionalFormatting sqref="G765:G766">
     <cfRule type="duplicateValues" dxfId="81" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G765:G766">
+  <conditionalFormatting sqref="F765:F766">
     <cfRule type="duplicateValues" dxfId="80" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F765:F766">
+  <conditionalFormatting sqref="F741">
     <cfRule type="duplicateValues" dxfId="79" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F741">
+  <conditionalFormatting sqref="G729:G731">
     <cfRule type="duplicateValues" dxfId="78" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G729:G731">
+  <conditionalFormatting sqref="F729:F731">
     <cfRule type="duplicateValues" dxfId="77" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F729:F731">
+  <conditionalFormatting sqref="G705:G711">
     <cfRule type="duplicateValues" dxfId="76" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G705:G711">
+  <conditionalFormatting sqref="F705:F707">
     <cfRule type="duplicateValues" dxfId="75" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F705:F707">
+  <conditionalFormatting sqref="F708:F711">
     <cfRule type="duplicateValues" dxfId="74" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F708:F711">
+  <conditionalFormatting sqref="G674:G676">
     <cfRule type="duplicateValues" dxfId="73" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G674:G676">
+  <conditionalFormatting sqref="F674:F676">
     <cfRule type="duplicateValues" dxfId="72" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F674:F676">
+  <conditionalFormatting sqref="G589">
     <cfRule type="duplicateValues" dxfId="71" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G589">
+  <conditionalFormatting sqref="F589">
     <cfRule type="duplicateValues" dxfId="70" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F589">
+  <conditionalFormatting sqref="G565:G568">
     <cfRule type="duplicateValues" dxfId="69" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G565:G568">
+  <conditionalFormatting sqref="F565:F568">
     <cfRule type="duplicateValues" dxfId="68" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F565:F568">
+  <conditionalFormatting sqref="G534">
     <cfRule type="duplicateValues" dxfId="67" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G534">
+  <conditionalFormatting sqref="F534">
     <cfRule type="duplicateValues" dxfId="66" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F534">
+  <conditionalFormatting sqref="G531">
     <cfRule type="duplicateValues" dxfId="65" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G531">
+  <conditionalFormatting sqref="F531">
     <cfRule type="duplicateValues" dxfId="64" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F531">
-    <cfRule type="duplicateValues" dxfId="63" priority="18"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G516:G519">
-    <cfRule type="duplicateValues" dxfId="62" priority="10425"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="10426"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F516:F520">
-    <cfRule type="duplicateValues" dxfId="61" priority="10427"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="10428"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G514">
+    <cfRule type="duplicateValues" dxfId="61" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F514">
     <cfRule type="duplicateValues" dxfId="60" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F514">
+  <conditionalFormatting sqref="G483:G490">
     <cfRule type="duplicateValues" dxfId="59" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G483:G490">
+  <conditionalFormatting sqref="F483:F485 F487:F490">
     <cfRule type="duplicateValues" dxfId="58" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F483:F485 F487:F490">
+  <conditionalFormatting sqref="G381">
     <cfRule type="duplicateValues" dxfId="57" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G381">
+  <conditionalFormatting sqref="F381">
     <cfRule type="duplicateValues" dxfId="56" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F381">
-    <cfRule type="duplicateValues" dxfId="55" priority="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G315:G316 G308:G309">
-    <cfRule type="duplicateValues" dxfId="54" priority="10428"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="10429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B315:F316 B308:F309">
-    <cfRule type="duplicateValues" dxfId="53" priority="10430"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="10431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G305 G313:G314">
-    <cfRule type="duplicateValues" dxfId="52" priority="10861"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="10862"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305 F313:F314">
-    <cfRule type="duplicateValues" dxfId="51" priority="10863"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="10864"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:G161">
+    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G149">
     <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G149">
+  <conditionalFormatting sqref="E149">
     <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
+  <conditionalFormatting sqref="F149">
     <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F149">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
+  <conditionalFormatting sqref="F104">
     <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1592 F1810:F1048576 F380 B503 F302:F304 F1631:F1634 F1528:F1530 F1541:F1543 F1547:F1553 F397:F408 F603:F605 F1203 G1223 F735:F740 F861:F863 F1105:F1112 F858 F1:F18 F36:F54 F238 F256 F217:F236 F579:F580 F607:F609 F611:F615 F592:F596 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F557:F558 F560:F564 F555 F1324:F1325 F1450:F1453 F1473 F1492:F1494 F1499:F1501 F1496:F1497 F1285:F1290 F1310 F1295:F1304 F1293 F1167:F1168 F1170 F1183:F1185 F1364:F1369 F1235:F1245 F1248 F1250 F1341 F1137:F1138 F1148:F1152 F1006:F1011 F1013:F1015 F1093:F1098 F1100 F1116:F1118 F1144 F1114 F1079 F1073 F621:F649 F651:F656 F949:F963 F974:F986 F807:F808 F1457:F1459 F1466 F1042 F1058:F1070 F1044 F1035 F797:F804 B1735:B1757 B1761:B1809 B445 F1154 F1187:F1188 F1198 F686:F687 F684 F680:F682 F837:F841 F849:F854 F1163 F1373:F1379 F1382:F1399 F1468:F1469 F921 F1017 F907:F910 F968 F768 F882 F446:F451 F500 F530 F504:F506 F692:F695 F699:F704 F744:F764 F697 F732 F713:F716 F810 F844:F845 F988:F996 F1003:F1004 F1021:F1029 F1124 F1568:F1570 F1636 F1646:F1674 F1683:F1690 F1692:F1716 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F658:F666 F438:F444 F421:F424 F496:F498 F509:F513 F524:F526 F105 F64 F66:F71 F542 F58:F62 F56 F1579:F1582 F1620:F1623 F1440:F1447 F544:F553 F1638:F1641 F1597:F1606 F1537:F1539 F1534 F1504:F1505 F1351:F1360 F1195:F1196 F1174:F1180 F903 F893:F897 F828:F831 F817:F826 F813:F814 F742 F569:F575 F535:F536 F532:F533 F310:F312 F1075:F1077 F1081:F1082 F1128:F1133 F306 F998:F1000 F20:F33">
-    <cfRule type="duplicateValues" dxfId="44" priority="10967"/>
+  <conditionalFormatting sqref="F1592 F1810:F1048576 F380 B503 F302:F304 F1631:F1634 F1528:F1530 F1541:F1543 F1547:F1553 F397:F408 F603:F605 F1203 G1223 F735:F740 F861:F863 F1105:F1112 F858 F1:F18 F36:F54 F238 F256 F217:F236 F579:F580 F607:F609 F611:F615 F592:F596 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F557:F558 F560:F564 F555 F1324:F1325 F1450:F1453 F1473 F1492:F1494 F1499:F1501 F1496:F1497 F1285:F1290 F1310 F1295:F1304 F1293 F1167:F1168 F1170 F1183:F1185 F1364:F1369 F1235:F1245 F1248 F1250 F1341 F1137:F1138 F1148:F1152 F1006:F1011 F1013:F1014 F1093:F1098 F1100 F1116:F1118 F1144 F1114 F1079 F1073 F621:F649 F651:F656 F949:F963 F974:F986 F807:F808 F1457:F1459 F1466 F1042 F1058:F1070 F1044 F1035 F797:F804 B1735:B1757 B1761:B1809 B445 F1154 F1187:F1188 F1198 F686:F687 F684 F680:F682 F837:F841 F849:F854 F1163 F1373:F1379 F1382:F1399 F1468:F1469 F921 F1017 F907:F910 F968 F768 F882 F446:F451 F500 F530 F504:F506 F692:F695 F699:F704 F744:F764 F697 F732 F713:F716 F810 F844:F845 F988:F996 F1003:F1004 F1021:F1029 F1124 F1568:F1570 F1636 F1646:F1674 F1683:F1690 F1692:F1716 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F658:F666 F438:F444 F421:F424 F496:F498 F509:F513 F524:F526 F105 F64 F66:F71 F542 F58:F62 F56 F1579:F1582 F1620:F1623 F1440:F1447 F544:F553 F1638:F1641 F1597:F1606 F1537:F1539 F1534 F1504:F1505 F1351:F1360 F1195:F1196 F1174:F1180 F903 F893:F897 F828:F831 F817:F826 F813:F814 F742 F569:F575 F535:F536 F532:F533 F310:F312 F1075:F1077 F1081:F1082 F1128:F1133 F306 F998:F1000 F20:F33">
+    <cfRule type="duplicateValues" dxfId="45" priority="10968"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:G374">
-    <cfRule type="duplicateValues" dxfId="43" priority="10984"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="10985"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B371:F374">
-    <cfRule type="duplicateValues" dxfId="42" priority="10985"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="10986"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B544:B551 B521:B523 B515">
-    <cfRule type="duplicateValues" dxfId="41" priority="11443"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="11444"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592 G1646:G1048576 G1567:G1570 G1572:G1582 G1618:G1623 G386:G390 G651:G673 G1:G30 G36:G56 G75:G76 G78:G83 G88:G101 G251:G304 G370:G374 G377:G380 G155:G160 G476:G477 G430:G464 G394:G427 G466:G472 G481:G482 G500:G501 G479 G508:G513 G699:G704 G967:G971 G1157:G1163 G1165:G1170 G1316:G1322 G1410 G1414 G1526:G1530 G1560:G1564 G1541:G1543 G697 G474 H1121 G116:G145 G147:G148 G503:G506 G58:G73 G1638:G1644 G1631:G1636 G1625:G1629 G1597:G1606 G1546:G1558 G1537:G1539 G1534 G1504:G1505 G1486:G1501 G1483 G1457:G1478 G1431:G1453 G1364:G1403 G1351:G1362 G1324:G1342 G1279:G1312 G1265:G1277 G1248:G1254 G1261:G1262 G1232:G1245 G1212:G1224 G1191:G1210 G1174:G1188 G1136:G1155 G1124:G1133 G1105:G1121 G1089:G1103 G1053:G1082 G1041:G1050 G1021:G1039 G1003:G1018 G974:G1000 G923:G965 G921 G903:G912 G893:G897 G870:G882 G843:G866 G836:G841 G828:G834 G817:G826 G813:G814 G807:G810 G797:G805 G778:G794 G767:G775 G742:G764 G732:G740 G712:G728 G677:G695 G590:G649 G569:G588 G535:G542 G544:G564 G521:G530 G515 G532:G533 G492:G498 F491 G315:G320 G322:G367 G308:G312 G162:G246 G103 G105:G114 H44 G33">
-    <cfRule type="duplicateValues" dxfId="40" priority="11609"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="11610"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1592 G1683:G1690 G380 G503:G506 G370 G303:G304 G1568:G1570 G1572:G1582 G1618:G1623 G1500:G1501 G397:G406 G603:G605 G1496 G1354:G1358 G1373:G1400 G1403 G1410 G1414 G1285:G1290 G1310 G1295:G1307 G1293 G1042 G1090:G1100 G1102 G861:G864 G858 G735:G740 G837:G841 G732 G1:G30 G36:G56 G239:G243 G256 G217:G236 G684 G686 G481 G476:G477 G472 G419 G466:G467 G1248:G1252 G1224 G1148:G1154 G1183:G1188 G1013:G1017 G1003:G1007 G1009:G1011 G926:G927 G975:G984 G1059:G1067 G1072:G1082 G1450:G1453 G1324:G1331 G1195:G1196 G1198:G1200 G1203 G1205:G1207 G1464:G1469 G1472:G1477 G1483 G1488:G1494 G1435:G1441 G1360:G1362 G1141:G1146 G774:G775 G794 G969 G1170 G1118 G986 G907:G910 G1167:G1168 G668 G768:G769 G882 G1340 G1443:G1447 G1458 G607:G609 G611:G615 G617:G649 G651:G666 G805 G995:G997 G692:G695 G699:G704 G744:G764 G697 G581 G592 G594:G596 G556:G558 G560:G564 G470 G454:G458 G431:G436 G253:G254 G673 G713:G716 G780 G810 G844:G854 G876:G879 G912 G932:G965 G988:G993 G1021:G1029 G1105:G1114 G1162:G1163 G1165 G1210 G1218:G1222 G1333:G1338 G1526 G1528:G1530 G1541:G1543 G1631:G1634 G1636 G1646:G1674 G1692:G1716 G1735:G1750 G1752:G1757 G1761:G1048576 G500 G530 G1627:G1628 G258:G301 G317:G320 G322:G363 G365:G367 G394 G438:G451 G421:G424 G496:G498 G508:G513 G479 G1121:H1121 G544:G553 G521:G526 G515 G542 G58:G71 G105 G1638:G1641 G1597:G1606 G1546:G1553 G1537:G1539 G1534 G1504:G1505 G1486 G1431:G1433 G1364:G1369 G1233:G1245 G1212:G1215 G1191 G1174:G1180 G1136:G1139 G1124:G1133 G923:G924 G921 G903 G893:G897 G828:G831 G817:G826 G813:G814 G807:G808 G797:G802 G778 G677:G682 G569:G575 G535:G536 G532:G533 G310:G312 H44 G33">
-    <cfRule type="duplicateValues" dxfId="39" priority="11717"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="11718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1052:G1048576 G492:G1050 G36:G490 F491 G1:G30 G33">
-    <cfRule type="duplicateValues" dxfId="38" priority="11895"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11896"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1015">
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1714" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833637D-4971-47EF-8482-BF65424FB41F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B321A4C-5114-4CBA-897D-7855B1332EA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="9204" yWindow="2244" windowWidth="22212" windowHeight="19800" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Beautyon!$A$3:$F$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$1735:$G$1836</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$1736:$G$1837</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$259</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$268</definedName>
     <definedName name="_Toc4426557" localSheetId="0">Bitcoin!$F$281</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="2515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="2528">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7588,6 +7588,45 @@
   </si>
   <si>
     <t>https://medium.com/@phraudsta/falsifying-stock-to-flow-as-a-model-of-bitcoin-value-b2d9e61f68af</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2002,2005 by Nick Szabo</t>
+  </si>
+  <si>
+    <t>A Measure of Sacrifice</t>
+  </si>
+  <si>
+    <t>https://archive.is/5bgdV#selection-201.0-201.22</t>
+  </si>
+  <si>
+    <t>https://medium.com/@acrual/money-and-time-2cb4bebe17f9</t>
+  </si>
+  <si>
+    <t>Money and Time</t>
+  </si>
+  <si>
+    <t>acrual</t>
+  </si>
+  <si>
+    <t>https://elaineou.com/2019/10/17/bitcoin-is-for-stackers/</t>
+  </si>
+  <si>
+    <t>Bitcoin is for Stackers</t>
+  </si>
+  <si>
+    <t>elaine</t>
+  </si>
+  <si>
+    <t>https://twitter.com/JamesTodaroMD/status/1175116654201790464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ive INSANELY bullish charts for bitcoin. </t>
+  </si>
+  <si>
+    <t>https://www.unchained-capital.com/blog/bitcoin-is-not-a-pyramid-scheme/</t>
+  </si>
+  <si>
+    <t>Bitcoin is Not a Pyramid Scheme</t>
   </si>
 </sst>
 </file>
@@ -11312,11 +11351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
-  <dimension ref="A1:Y1809"/>
+  <dimension ref="A1:Y1810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11433,39 +11472,67 @@
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="74">
+        <v>43756</v>
+      </c>
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="56" t="s">
+        <v>2527</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>2526</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="74">
+        <v>43728</v>
+      </c>
       <c r="C11" s="75"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="F11" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>2524</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="74">
+        <v>43755</v>
+      </c>
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="56" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>2521</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="74">
+        <v>43755</v>
+      </c>
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>2519</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
@@ -25553,7 +25620,7 @@
       <c r="F1368" s="9" t="s">
         <v>2416</v>
       </c>
-      <c r="G1368" t="s">
+      <c r="G1368" s="3" t="s">
         <v>2415</v>
       </c>
     </row>
@@ -27970,211 +28037,222 @@
       </c>
     </row>
     <row r="1718" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1718" s="60">
-        <v>36892</v>
+      <c r="B1718" t="s">
+        <v>2515</v>
       </c>
       <c r="C1718" s="60"/>
       <c r="D1718" s="60"/>
       <c r="E1718" s="60"/>
-      <c r="F1718" s="60"/>
+      <c r="F1718" s="60" t="s">
+        <v>2516</v>
+      </c>
       <c r="G1718" t="s">
-        <v>1500</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1719" s="60">
-        <v>36398</v>
+        <v>36892</v>
       </c>
       <c r="C1719" s="60"/>
       <c r="D1719" s="60"/>
       <c r="E1719" s="60"/>
       <c r="F1719" s="60"/>
       <c r="G1719" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1720" s="60">
-        <v>35704</v>
+        <v>36398</v>
       </c>
       <c r="C1720" s="60"/>
       <c r="D1720" s="60"/>
       <c r="E1720" s="60"/>
       <c r="F1720" s="60"/>
       <c r="G1720" t="s">
-        <v>1480</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1721" s="60">
-        <v>35440</v>
+        <v>35704</v>
       </c>
       <c r="C1721" s="60"/>
       <c r="D1721" s="60"/>
       <c r="E1721" s="60"/>
       <c r="F1721" s="60"/>
       <c r="G1721" t="s">
-        <v>1498</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1722" s="60">
-        <v>35431</v>
+        <v>35440</v>
       </c>
       <c r="C1722" s="60"/>
       <c r="D1722" s="60"/>
       <c r="E1722" s="60"/>
       <c r="F1722" s="60"/>
       <c r="G1722" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1723" s="60">
-        <v>35065</v>
+        <v>35431</v>
       </c>
       <c r="C1723" s="60"/>
       <c r="D1723" s="60"/>
       <c r="E1723" s="60"/>
       <c r="F1723" s="60"/>
       <c r="G1723" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1724" s="60">
-        <v>34617</v>
+        <v>35065</v>
       </c>
       <c r="C1724" s="60"/>
       <c r="D1724" s="60"/>
       <c r="E1724" s="60"/>
       <c r="F1724" s="60"/>
       <c r="G1724" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1725" s="60">
-        <v>34409</v>
+        <v>34617</v>
       </c>
       <c r="C1725" s="60"/>
       <c r="D1725" s="60"/>
       <c r="E1725" s="60"/>
       <c r="F1725" s="60"/>
       <c r="G1725" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1726" s="60">
-        <v>34335</v>
+        <v>34409</v>
       </c>
       <c r="C1726" s="60"/>
       <c r="D1726" s="60"/>
       <c r="E1726" s="60"/>
       <c r="F1726" s="60"/>
       <c r="G1726" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1727" s="60">
-        <v>34283</v>
+        <v>34335</v>
       </c>
       <c r="C1727" s="60"/>
       <c r="D1727" s="60"/>
       <c r="E1727" s="60"/>
       <c r="F1727" s="60"/>
       <c r="G1727" t="s">
-        <v>1483</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1728" s="60">
-        <v>34037</v>
+        <v>34283</v>
       </c>
       <c r="C1728" s="60"/>
       <c r="D1728" s="60"/>
       <c r="E1728" s="60"/>
       <c r="F1728" s="60"/>
       <c r="G1728" t="s">
-        <v>1473</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1729" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1729" s="60">
-        <v>33930</v>
+        <v>34037</v>
       </c>
       <c r="C1729" s="60"/>
       <c r="D1729" s="60"/>
       <c r="E1729" s="60"/>
       <c r="F1729" s="60"/>
       <c r="G1729" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1730" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1730" s="60">
-        <v>33161</v>
+        <v>33930</v>
       </c>
       <c r="C1730" s="60"/>
       <c r="D1730" s="60"/>
       <c r="E1730" s="60"/>
       <c r="F1730" s="60"/>
       <c r="G1730" t="s">
-        <v>1509</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1731" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1731" s="60">
-        <v>23177</v>
+        <v>33161</v>
       </c>
       <c r="C1731" s="60"/>
       <c r="D1731" s="60"/>
       <c r="E1731" s="60"/>
       <c r="F1731" s="60"/>
       <c r="G1731" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1732" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1732" s="60">
-        <v>16711</v>
+        <v>23177</v>
       </c>
       <c r="C1732" s="60"/>
       <c r="D1732" s="60"/>
       <c r="E1732" s="60"/>
       <c r="F1732" s="60"/>
       <c r="G1732" t="s">
-        <v>1497</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1733" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1733" s="60">
-        <v>10228</v>
+        <v>16711</v>
       </c>
       <c r="C1733" s="60"/>
       <c r="D1733" s="60"/>
       <c r="E1733" s="60"/>
       <c r="F1733" s="60"/>
       <c r="G1733" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1734" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1734" s="60">
-        <v>4585</v>
+        <v>10228</v>
       </c>
       <c r="C1734" s="60"/>
       <c r="D1734" s="60"/>
       <c r="E1734" s="60"/>
       <c r="F1734" s="60"/>
       <c r="G1734" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1735" s="60">
+        <v>4585</v>
+      </c>
+      <c r="C1735" s="60"/>
+      <c r="D1735" s="60"/>
+      <c r="E1735" s="60"/>
+      <c r="F1735" s="60"/>
+      <c r="G1735" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="1735" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1735" s="60"/>
     </row>
     <row r="1736" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1736" s="60"/>
@@ -28193,7 +28271,6 @@
     </row>
     <row r="1741" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1741" s="60"/>
-      <c r="G1741" s="3"/>
     </row>
     <row r="1742" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1742" s="60"/>
@@ -28201,52 +28278,53 @@
     </row>
     <row r="1743" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1743" s="60"/>
+      <c r="G1743" s="3"/>
     </row>
     <row r="1744" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1744" s="60"/>
-      <c r="G1744" s="3"/>
-    </row>
-    <row r="1745" spans="2:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1745" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1745" s="60"/>
-    </row>
-    <row r="1746" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="G1745" s="3"/>
+    </row>
+    <row r="1746" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1746" s="60"/>
     </row>
-    <row r="1747" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1747" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1747" s="60"/>
     </row>
-    <row r="1748" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1748" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1748" s="60"/>
     </row>
-    <row r="1749" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1749" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1749" s="60"/>
     </row>
-    <row r="1750" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1750" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1750" s="60"/>
     </row>
-    <row r="1751" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1751" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1751" s="60"/>
     </row>
-    <row r="1752" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1752" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1752" s="60"/>
     </row>
-    <row r="1753" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1753" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1753" s="60"/>
     </row>
-    <row r="1754" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1754" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1754" s="60"/>
     </row>
-    <row r="1755" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1755" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1755" s="60"/>
     </row>
-    <row r="1756" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1756" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1756" s="60"/>
     </row>
-    <row r="1757" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1757" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1757" s="60"/>
     </row>
-    <row r="1761" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1761" s="60"/>
+    <row r="1758" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1758" s="60"/>
     </row>
     <row r="1762" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1762" s="60"/>
@@ -28304,10 +28382,10 @@
     </row>
     <row r="1780" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1780" s="60"/>
-      <c r="G1780" s="3"/>
     </row>
     <row r="1781" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1781" s="60"/>
+      <c r="G1781" s="3"/>
     </row>
     <row r="1782" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1782" s="60"/>
@@ -28392,6 +28470,9 @@
     </row>
     <row r="1809" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1809" s="60"/>
+    </row>
+    <row r="1810" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1810" s="60"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1005">
@@ -28619,10 +28700,10 @@
   <conditionalFormatting sqref="B1691:F1691">
     <cfRule type="duplicateValues" dxfId="216" priority="159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1717:G1734">
+  <conditionalFormatting sqref="G1717:G1735">
     <cfRule type="duplicateValues" dxfId="215" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1717:F1734">
+  <conditionalFormatting sqref="B1717:F1717 B1719:F1735 C1718:F1718">
     <cfRule type="duplicateValues" dxfId="214" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1713">
@@ -29131,7 +29212,7 @@
   <conditionalFormatting sqref="F104">
     <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1592 F1810:F1048576 F380 B503 F302:F304 F1631:F1634 F1528:F1530 F1541:F1543 F1547:F1553 F397:F408 F603:F605 F1203 G1223 F735:F740 F861:F863 F1105:F1112 F858 F1:F18 F36:F54 F238 F256 F217:F236 F579:F580 F607:F609 F611:F615 F592:F596 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F557:F558 F560:F564 F555 F1324:F1325 F1450:F1453 F1473 F1492:F1494 F1499:F1501 F1496:F1497 F1285:F1290 F1310 F1295:F1304 F1293 F1167:F1168 F1170 F1183:F1185 F1364:F1369 F1235:F1245 F1248 F1250 F1341 F1137:F1138 F1148:F1152 F1006:F1011 F1013:F1014 F1093:F1098 F1100 F1116:F1118 F1144 F1114 F1079 F1073 F621:F649 F651:F656 F949:F963 F974:F986 F807:F808 F1457:F1459 F1466 F1042 F1058:F1070 F1044 F1035 F797:F804 B1735:B1757 B1761:B1809 B445 F1154 F1187:F1188 F1198 F686:F687 F684 F680:F682 F837:F841 F849:F854 F1163 F1373:F1379 F1382:F1399 F1468:F1469 F921 F1017 F907:F910 F968 F768 F882 F446:F451 F500 F530 F504:F506 F692:F695 F699:F704 F744:F764 F697 F732 F713:F716 F810 F844:F845 F988:F996 F1003:F1004 F1021:F1029 F1124 F1568:F1570 F1636 F1646:F1674 F1683:F1690 F1692:F1716 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F658:F666 F438:F444 F421:F424 F496:F498 F509:F513 F524:F526 F105 F64 F66:F71 F542 F58:F62 F56 F1579:F1582 F1620:F1623 F1440:F1447 F544:F553 F1638:F1641 F1597:F1606 F1537:F1539 F1534 F1504:F1505 F1351:F1360 F1195:F1196 F1174:F1180 F903 F893:F897 F828:F831 F817:F826 F813:F814 F742 F569:F575 F535:F536 F532:F533 F310:F312 F1075:F1077 F1081:F1082 F1128:F1133 F306 F998:F1000 F20:F33">
+  <conditionalFormatting sqref="F1811:F1048576 F1592 F380 B503 F302:F304 F1631:F1634 F1528:F1530 F1541:F1543 F1547:F1553 F397:F408 F603:F605 F1203 G1223 F735:F740 F861:F863 F1105:F1112 F858 F1:F10 F36:F54 F238 F256 F217:F236 F579:F580 F607:F609 F611:F615 F592:F596 F481 F476:F477 F472 F419 F454:F458 F431:F436 F466:F467 F557:F558 F560:F564 F555 F1324:F1325 F1450:F1453 F1473 F1492:F1494 F1499:F1501 F1496:F1497 F1285:F1290 F1310 F1295:F1304 F1293 F1167:F1168 F1170 F1183:F1185 F1364:F1369 F1235:F1245 F1248 F1250 F1341 F1137:F1138 F1148:F1152 F1006:F1011 F1013:F1014 F1093:F1098 F1100 F1116:F1118 F1144 F1114 F1079 F1073 F621:F649 F651:F656 F949:F963 F974:F986 F807:F808 F1457:F1459 F1466 F1042 F1058:F1070 F1044 F1035 F797:F804 B1736:B1758 B1762:B1810 B445 F1154 F1187:F1188 F1198 F686:F687 F684 F680:F682 F837:F841 F849:F854 F1163 F1373:F1379 F1382:F1399 F1468:F1469 F921 F1017 F907:F910 F968 F768 F882 F446:F451 F500 F530 F504:F506 F692:F695 F699:F704 F744:F764 F697 F732 F713:F716 F810 F844:F845 F988:F996 F1003:F1004 F1021:F1029 F1124 F1568:F1570 F1636 F1646:F1674 F1683:F1690 F1692:F1716 F469:F470 F258:F300 F317:F320 F322:F363 F365:F367 F370 F377 F394 F658:F666 F438:F444 F421:F424 F496:F498 F509:F513 F524:F526 F105 F64 F66:F71 F542 F58:F62 F56 F1579:F1582 F1620:F1623 F1440:F1447 F544:F553 F1638:F1641 F1597:F1606 F1537:F1539 F1534 F1504:F1505 F1351:F1360 F1195:F1196 F1174:F1180 F903 F893:F897 F828:F831 F817:F826 F813:F814 F742 F569:F575 F535:F536 F532:F533 F310:F312 F1075:F1077 F1081:F1082 F1128:F1133 F306 F998:F1000 F20:F33 F12:F18">
     <cfRule type="duplicateValues" dxfId="45" priority="10968"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G371:G374">
@@ -29146,7 +29227,7 @@
   <conditionalFormatting sqref="G1592 G1646:G1048576 G1567:G1570 G1572:G1582 G1618:G1623 G386:G390 G651:G673 G1:G30 G36:G56 G75:G76 G78:G83 G88:G101 G251:G304 G370:G374 G377:G380 G155:G160 G476:G477 G430:G464 G394:G427 G466:G472 G481:G482 G500:G501 G479 G508:G513 G699:G704 G967:G971 G1157:G1163 G1165:G1170 G1316:G1322 G1410 G1414 G1526:G1530 G1560:G1564 G1541:G1543 G697 G474 H1121 G116:G145 G147:G148 G503:G506 G58:G73 G1638:G1644 G1631:G1636 G1625:G1629 G1597:G1606 G1546:G1558 G1537:G1539 G1534 G1504:G1505 G1486:G1501 G1483 G1457:G1478 G1431:G1453 G1364:G1403 G1351:G1362 G1324:G1342 G1279:G1312 G1265:G1277 G1248:G1254 G1261:G1262 G1232:G1245 G1212:G1224 G1191:G1210 G1174:G1188 G1136:G1155 G1124:G1133 G1105:G1121 G1089:G1103 G1053:G1082 G1041:G1050 G1021:G1039 G1003:G1018 G974:G1000 G923:G965 G921 G903:G912 G893:G897 G870:G882 G843:G866 G836:G841 G828:G834 G817:G826 G813:G814 G807:G810 G797:G805 G778:G794 G767:G775 G742:G764 G732:G740 G712:G728 G677:G695 G590:G649 G569:G588 G535:G542 G544:G564 G521:G530 G515 G532:G533 G492:G498 F491 G315:G320 G322:G367 G308:G312 G162:G246 G103 G105:G114 H44 G33">
     <cfRule type="duplicateValues" dxfId="41" priority="11610"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1592 G1683:G1690 G380 G503:G506 G370 G303:G304 G1568:G1570 G1572:G1582 G1618:G1623 G1500:G1501 G397:G406 G603:G605 G1496 G1354:G1358 G1373:G1400 G1403 G1410 G1414 G1285:G1290 G1310 G1295:G1307 G1293 G1042 G1090:G1100 G1102 G861:G864 G858 G735:G740 G837:G841 G732 G1:G30 G36:G56 G239:G243 G256 G217:G236 G684 G686 G481 G476:G477 G472 G419 G466:G467 G1248:G1252 G1224 G1148:G1154 G1183:G1188 G1013:G1017 G1003:G1007 G1009:G1011 G926:G927 G975:G984 G1059:G1067 G1072:G1082 G1450:G1453 G1324:G1331 G1195:G1196 G1198:G1200 G1203 G1205:G1207 G1464:G1469 G1472:G1477 G1483 G1488:G1494 G1435:G1441 G1360:G1362 G1141:G1146 G774:G775 G794 G969 G1170 G1118 G986 G907:G910 G1167:G1168 G668 G768:G769 G882 G1340 G1443:G1447 G1458 G607:G609 G611:G615 G617:G649 G651:G666 G805 G995:G997 G692:G695 G699:G704 G744:G764 G697 G581 G592 G594:G596 G556:G558 G560:G564 G470 G454:G458 G431:G436 G253:G254 G673 G713:G716 G780 G810 G844:G854 G876:G879 G912 G932:G965 G988:G993 G1021:G1029 G1105:G1114 G1162:G1163 G1165 G1210 G1218:G1222 G1333:G1338 G1526 G1528:G1530 G1541:G1543 G1631:G1634 G1636 G1646:G1674 G1692:G1716 G1735:G1750 G1752:G1757 G1761:G1048576 G500 G530 G1627:G1628 G258:G301 G317:G320 G322:G363 G365:G367 G394 G438:G451 G421:G424 G496:G498 G508:G513 G479 G1121:H1121 G544:G553 G521:G526 G515 G542 G58:G71 G105 G1638:G1641 G1597:G1606 G1546:G1553 G1537:G1539 G1534 G1504:G1505 G1486 G1431:G1433 G1364:G1369 G1233:G1245 G1212:G1215 G1191 G1174:G1180 G1136:G1139 G1124:G1133 G923:G924 G921 G903 G893:G897 G828:G831 G817:G826 G813:G814 G807:G808 G797:G802 G778 G677:G682 G569:G575 G535:G536 G532:G533 G310:G312 H44 G33">
+  <conditionalFormatting sqref="G1736:G1751 G1592 G1683:G1690 G380 G503:G506 G370 G303:G304 G1568:G1570 G1572:G1582 G1618:G1623 G1500:G1501 G397:G406 G603:G605 G1496 G1354:G1358 G1373:G1400 G1403 G1410 G1414 G1285:G1290 G1310 G1295:G1307 G1293 G1042 G1090:G1100 G1102 G861:G864 G858 G735:G740 G837:G841 G732 G1:G30 G36:G56 G239:G243 G256 G217:G236 G684 G686 G481 G476:G477 G472 G419 G466:G467 G1248:G1252 G1224 G1148:G1154 G1183:G1188 G1013:G1017 G1003:G1007 G1009:G1011 G926:G927 G975:G984 G1059:G1067 G1072:G1082 G1450:G1453 G1324:G1331 G1195:G1196 G1198:G1200 G1203 G1205:G1207 G1464:G1469 G1472:G1477 G1483 G1488:G1494 G1435:G1441 G1360:G1362 G1141:G1146 G774:G775 G794 G969 G1170 G1118 G986 G907:G910 G1167:G1168 G668 G768:G769 G882 G1340 G1443:G1447 G1458 G607:G609 G611:G615 G617:G649 G651:G666 G805 G995:G997 G692:G695 G699:G704 G744:G764 G697 G581 G592 G594:G596 G556:G558 G560:G564 G470 G454:G458 G431:G436 G253:G254 G673 G713:G716 G780 G810 G844:G854 G876:G879 G912 G932:G965 G988:G993 G1021:G1029 G1105:G1114 G1162:G1163 G1165 G1210 G1218:G1222 G1333:G1338 G1526 G1528:G1530 G1541:G1543 G1631:G1634 G1636 G1646:G1674 G1692:G1716 G1753:G1758 G1762:G1048576 G500 G530 G1627:G1628 G258:G301 G317:G320 G322:G363 G365:G367 G394 G438:G451 G421:G424 G496:G498 G508:G513 G479 G1121:H1121 G544:G553 G521:G526 G515 G542 G58:G71 G105 G1638:G1641 G1597:G1606 G1546:G1553 G1537:G1539 G1534 G1504:G1505 G1486 G1431:G1433 G1364:G1369 G1233:G1245 G1212:G1215 G1191 G1174:G1180 G1136:G1139 G1124:G1133 G923:G924 G921 G903 G893:G897 G828:G831 G817:G826 G813:G814 G807:G808 G797:G802 G778 G677:G682 G569:G575 G535:G536 G532:G533 G310:G312 H44 G33">
     <cfRule type="duplicateValues" dxfId="40" priority="11718"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1052:G1048576 G492:G1050 G36:G490 F491 G1:G30 G33">
@@ -29754,10 +29835,11 @@
     <hyperlink ref="G997" r:id="rId596" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
     <hyperlink ref="F997" r:id="rId597" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
     <hyperlink ref="F19" r:id="rId598" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
+    <hyperlink ref="G1368" r:id="rId599" xr:uid="{AE6A7506-FAA8-40BF-9933-6205D7B49D14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId599"/>
-  <drawing r:id="rId600"/>
+  <pageSetup orientation="portrait" r:id="rId600"/>
+  <drawing r:id="rId601"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cryptowords.github.io\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50878C1-3EC7-43E5-8730-116590902EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D00F8B-3EB8-4AAA-A373-C80A8BA0B2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="2532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="2535">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7639,6 +7639,15 @@
   </si>
   <si>
     <t>All 21 Million Bitcoin Already Exist</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Melt_Dem/status/1187801983605805056</t>
+  </si>
+  <si>
+    <t>Deck - matrix</t>
+  </si>
+  <si>
+    <t>meltem</t>
   </si>
 </sst>
 </file>
@@ -11367,7 +11376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11457,12 +11466,20 @@
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="74">
+        <v>43763</v>
+      </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="56" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>2532</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543607CD-627B-416F-840D-962A7D90A5E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E4941-C8F1-49AB-A2F9-D5099BB212C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1104" windowWidth="20604" windowHeight="19788" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="14160" yWindow="1932" windowWidth="12732" windowHeight="22584" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="2553">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7672,6 +7672,36 @@
   </si>
   <si>
     <t>The Real Wisdom behind Proof of Work</t>
+  </si>
+  <si>
+    <t>https://twitter.com/dergigi/status/1189608467029516289</t>
+  </si>
+  <si>
+    <t>Tweetstorm: Circularity</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>https://medium.com/@acrual/volatility-as-information-a9850d414bf1</t>
+  </si>
+  <si>
+    <t>Volatility as Information</t>
+  </si>
+  <si>
+    <t>https://medium.com/cryptolinks/i-am-a-time-traveler-begging-you-to-stop-what-you-are-doing-ab33e335e2ca</t>
+  </si>
+  <si>
+    <t>THIS HAS BEEN EDITED</t>
+  </si>
+  <si>
+    <t>THIS IS THE ORIGINAL COPY</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20171128150847/https://www.reddit.com/r/Bitcoin/comments/1lfobc/i_am_a_timetraveler_from_the_future_here_to_beg/</t>
+  </si>
+  <si>
+    <t>archive</t>
   </si>
 </sst>
 </file>
@@ -11480,9 +11510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1829"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A1353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1391" sqref="H1391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11585,30 +11615,50 @@
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="74">
+        <v>43769</v>
+      </c>
       <c r="C8" s="75"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="56" t="s">
+        <v>2547</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>2546</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="74">
+        <v>43769</v>
+      </c>
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="56" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>2543</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="74">
+        <v>43767</v>
+      </c>
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="56" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>2541</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
@@ -11940,18 +11990,6 @@
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="74">
-        <v>43767</v>
-      </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56" t="s">
-        <v>2542</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>2541</v>
-      </c>
     </row>
     <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
@@ -25862,10 +25900,10 @@
       </c>
       <c r="F1376" s="9"/>
     </row>
-    <row r="1377" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1377" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F1377" s="9"/>
     </row>
-    <row r="1378" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1378" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1378" s="32">
         <v>41539</v>
       </c>
@@ -25876,7 +25914,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="1379" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1379" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1379" s="32">
         <v>41540</v>
       </c>
@@ -25887,7 +25925,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="1380" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1380" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1380" s="32">
         <v>41536</v>
       </c>
@@ -25901,7 +25939,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="1381" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1381" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1381" s="32">
         <v>41531</v>
       </c>
@@ -25912,7 +25950,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="1382" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1382" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1382" s="60">
         <v>41528</v>
       </c>
@@ -25927,7 +25965,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="1383" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1383" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1383" s="32">
         <v>41519</v>
       </c>
@@ -25938,13 +25976,13 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="1384" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1384" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F1384" s="9"/>
     </row>
-    <row r="1385" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1385" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F1385" s="9"/>
     </row>
-    <row r="1386" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1386" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1386" s="32">
         <v>41508</v>
       </c>
@@ -25955,7 +25993,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="1387" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1387" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1387" s="32">
         <v>41516</v>
       </c>
@@ -25968,11 +26006,33 @@
       <c r="G1387" s="3" t="s">
         <v>2415</v>
       </c>
-    </row>
-    <row r="1388" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H1387" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1388" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F1388" s="9"/>
-    </row>
-    <row r="1392" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G1388" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G1389" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G1390" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1392" s="32"/>
       <c r="F1392" s="9"/>
     </row>
@@ -29565,7 +29625,7 @@
   <conditionalFormatting sqref="F123">
     <cfRule type="duplicateValues" dxfId="54" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1830:F1048576 F1611 F399 B522 F321:F323 F1650:F1653 F1547:F1549 F1560:F1562 F1566:F1572 F416:F427 F622:F624 F1222 G1242 F754:F759 F880:F882 F1124:F1131 F877 F1:F20 F55:F73 F257 F275 F236:F255 F598:F599 F626:F628 F630:F634 F611:F615 F500 F495:F496 F491 F438 F473:F477 F450:F455 F485:F486 F576:F577 F579:F583 F574 F1343:F1344 F1469:F1472 F1492 F1511:F1513 F1518:F1520 F1515:F1516 F1304:F1309 F1329 F1314:F1323 F1312 F1186:F1187 F1189 F1202:F1204 F1383:F1388 F1254:F1264 F1267 F1269 F1360 F1156:F1157 F1167:F1171 F1025:F1030 F1032:F1033 F1112:F1117 F1119 F1135:F1137 F1163 F1133 F1098 F1092 F640:F668 F670:F675 F968:F982 F993:F1005 F826:F827 F1476:F1478 F1485 F1061 F1077:F1089 F1063 F1054 F816:F823 B1755:B1777 B1781:B1829 B464 F1173 F1206:F1207 F1217 F705:F706 F703 F699:F701 F856:F860 F868:F873 F1182 F1392:F1398 F1401:F1418 F1487:F1488 F940 F1036 F926:F929 F987 F787 F901 F465:F470 F519 F549 F523:F525 F711:F714 F718:F723 F763:F783 F716 F751 F732:F735 F829 F863:F864 F1007:F1015 F1022:F1023 F1040:F1048 F1143 F1587:F1589 F1655 F1665:F1693 F1702:F1709 F1711:F1735 F488:F489 F277:F319 F336:F339 F341:F382 F384:F386 F389 F396 F413 F677:F685 F457:F463 F440:F443 F516:F517 F528:F532 F543:F545 F124 F83 F85:F90 F561 F77:F81 F75 F1598:F1601 F1639:F1642 F1459:F1466 F563:F572 F1657:F1660 F1616:F1625 F1556:F1558 F1553 F1523:F1524 F1370:F1379 F1214:F1215 F1193:F1199 F922 F912:F916 F847:F850 F836:F845 F832:F833 F761 F588:F594 F554:F555 F551:F552 F329:F331 F1094:F1096 F1100:F1101 F1147:F1152 F325 F1017:F1019 F30:F34 F22:F28 F36:F52">
+  <conditionalFormatting sqref="F1830:F1048576 F1611 F399 B522 F321:F323 F1650:F1653 F1547:F1549 F1560:F1562 F1566:F1572 F416:F427 F622:F624 F1222 G1242 F754:F759 F880:F882 F1124:F1131 F877 F1:F9 F11:F20 F55:F73 F257 F275 F236:F255 F598:F599 F626:F628 F630:F634 F611:F615 F500 F495:F496 F491 F438 F473:F477 F450:F455 F485:F486 F576:F577 F579:F583 F574 F1343:F1344 F1469:F1472 F1492 F1511:F1513 F1518:F1520 F1515:F1516 F1304:F1309 F1329 F1314:F1323 F1312 F1186:F1187 F1189 F1202:F1204 F1383:F1388 F1254:F1264 F1267 F1269 F1360 F1156:F1157 F1167:F1171 F1025:F1030 F1032:F1033 F1112:F1117 F1119 F1135:F1137 F1163 F1133 F1098 F1092 F640:F668 F670:F675 F968:F982 F993:F1005 F826:F827 F1476:F1478 F1485 F1061 F1077:F1089 F1063 F1054 F816:F823 B1755:B1777 B1781:B1829 B464 F1173 F1206:F1207 F1217 F705:F706 F703 F699:F701 F856:F860 F868:F873 F1182 F1392:F1398 F1401:F1418 F1487:F1488 F940 F1036 F926:F929 F987 F787 F901 F465:F470 F519 F549 F523:F525 F711:F714 F718:F723 F763:F783 F716 F751 F732:F735 F829 F863:F864 F1007:F1015 F1022:F1023 F1040:F1048 F1143 F1587:F1589 F1655 F1665:F1693 F1702:F1709 F1711:F1735 F488:F489 F277:F319 F336:F339 F341:F382 F384:F386 F389 F396 F413 F677:F685 F457:F463 F440:F443 F516:F517 F528:F532 F543:F545 F124 F83 F85:F90 F561 F77:F81 F75 F1598:F1601 F1639:F1642 F1459:F1466 F563:F572 F1657:F1660 F1616:F1625 F1556:F1558 F1553 F1523:F1524 F1370:F1379 F1214:F1215 F1193:F1199 F922 F912:F916 F847:F850 F836:F845 F832:F833 F761 F588:F594 F554:F555 F551:F552 F329:F331 F1094:F1096 F1100:F1101 F1147:F1152 F325 F1017:F1019 F30:F34 F22:F28 F36:F52">
     <cfRule type="duplicateValues" dxfId="53" priority="10976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G390:G393">
@@ -29577,13 +29637,13 @@
   <conditionalFormatting sqref="B563:B570 B540:B542 B534">
     <cfRule type="duplicateValues" dxfId="50" priority="11452"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1611 G1665:G1048576 G1586:G1589 G1591:G1601 G1637:G1642 G405:G409 G670:G692 G1:G34 G55:G75 G94:G95 G97:G102 G107:G120 G270:G323 G389:G393 G396:G399 G174:G179 G495:G496 G449:G483 G413:G446 G485:G491 G500:G501 G519:G520 G498 G527:G532 G718:G723 G986:G990 G1176:G1182 G1184:G1189 G1335:G1341 G1429 G1433 G1545:G1549 G1579:G1583 G1560:G1562 G716 G493 H1140 G135:G164 G166:G167 G522:G525 G77:G92 G1657:G1663 G1650:G1655 G1644:G1648 G1616:G1625 G1565:G1577 G1556:G1558 G1553 G1523:G1524 G1505:G1520 G1502 G1476:G1497 G1450:G1472 G1383:G1422 G1370:G1381 G1343:G1361 G1298:G1331 G1284:G1296 G1267:G1273 G1280:G1281 G1251:G1264 G1231:G1243 G1210:G1229 G1193:G1207 G1155:G1174 G1143:G1152 G1124:G1140 G1108:G1122 G1072:G1101 G1060:G1069 G1040:G1058 G1022:G1037 G993:G1019 G942:G984 G940 G922:G931 G912:G916 G889:G901 G862:G885 G855:G860 G847:G853 G836:G845 G832:G833 G826:G829 G816:G824 G797:G813 G786:G794 G761:G783 G751:G759 G731:G747 G696:G714 G609:G668 G588:G607 G554:G561 G563:G583 G540:G549 G534 G551:G552 G511:G514 F510 G334:G339 G341:G386 G327:G331 G181:G265 G122 G124:G133 H63 G52 G516:G517 G36:G49">
+  <conditionalFormatting sqref="G1611 G1665:G1048576 G1586:G1589 G1591:G1601 G1637:G1642 G405:G409 G670:G692 G1:G9 G11:G34 G55:G75 G94:G95 G97:G102 G107:G120 G270:G323 G389:G393 G396:G399 G174:G179 G495:G496 G449:G483 G413:G446 G485:G491 G500:G501 G519:G520 G498 G527:G532 G718:G723 G986:G990 G1176:G1182 G1184:G1189 G1335:G1341 G1429 G1433 G1545:G1549 G1579:G1583 G1560:G1562 G716 G493 H1140 G135:G164 G166:G167 G522:G525 G77:G92 G1657:G1663 G1650:G1655 G1644:G1648 G1616:G1625 G1565:G1577 G1556:G1558 G1553 G1523:G1524 G1505:G1520 G1502 G1476:G1497 G1450:G1472 G1383:G1422 G1370:G1381 G1343:G1361 G1298:G1331 G1284:G1296 G1267:G1273 G1280:G1281 G1251:G1264 G1231:G1243 G1210:G1229 G1193:G1207 G1155:G1174 G1143:G1152 G1124:G1140 G1108:G1122 G1072:G1101 G1060:G1069 G1040:G1058 G1022:G1037 G993:G1019 G942:G984 G940 G922:G931 G912:G916 G889:G901 G862:G885 G855:G860 G847:G853 G836:G845 G832:G833 G826:G829 G816:G824 G797:G813 G786:G794 G761:G783 G751:G759 G731:G747 G696:G714 G609:G668 G588:G607 G554:G561 G563:G583 G540:G549 G534 G551:G552 G511:G514 F510 G334:G339 G341:G386 G327:G331 G181:G265 G122 G124:G133 H63 G52 G516:G517 G36:G49">
     <cfRule type="duplicateValues" dxfId="49" priority="11618"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1755:G1770 G1611 G1702:G1709 G399 G522:G525 G389 G322:G323 G1587:G1589 G1591:G1601 G1637:G1642 G1519:G1520 G416:G425 G622:G624 G1515 G1373:G1377 G1392:G1419 G1422 G1429 G1433 G1304:G1309 G1329 G1314:G1326 G1312 G1061 G1109:G1119 G1121 G880:G883 G877 G754:G759 G856:G860 G751 G1:G34 G55:G75 G258:G262 G275 G236:G255 G703 G705 G500 G495:G496 G491 G438 G485:G486 G1267:G1271 G1243 G1167:G1173 G1202:G1207 G1032:G1036 G1022:G1026 G1028:G1030 G945:G946 G994:G1003 G1078:G1086 G1091:G1101 G1469:G1472 G1343:G1350 G1214:G1215 G1217:G1219 G1222 G1224:G1226 G1483:G1488 G1491:G1496 G1502 G1507:G1513 G1454:G1460 G1379:G1381 G1160:G1165 G793:G794 G813 G988 G1189 G1137 G1005 G926:G929 G1186:G1187 G687 G787:G788 G901 G1359 G1462:G1466 G1477 G626:G628 G630:G634 G636:G668 G670:G685 G824 G1014:G1016 G711:G714 G718:G723 G763:G783 G716 G600 G611 G613:G615 G575:G577 G579:G583 G489 G473:G477 G450:G455 G272:G273 G692 G732:G735 G799 G829 G863:G873 G895:G898 G931 G951:G984 G1007:G1012 G1040:G1048 G1124:G1133 G1181:G1182 G1184 G1229 G1237:G1241 G1352:G1357 G1545 G1547:G1549 G1560:G1562 G1650:G1653 G1655 G1665:G1693 G1711:G1735 G1772:G1777 G1781:G1048576 G519 G549 G1646:G1647 G277:G320 G336:G339 G341:G382 G384:G386 G413 G457:G470 G440:G443 G516:G517 G527:G532 G498 G1140:H1140 G563:G572 G540:G545 G534 G561 G77:G90 G124 G1657:G1660 G1616:G1625 G1565:G1572 G1556:G1558 G1553 G1523:G1524 G1505 G1450:G1452 G1383:G1388 G1252:G1264 G1231:G1234 G1210 G1193:G1199 G1155:G1158 G1143:G1152 G942:G943 G940 G922 G912:G916 G847:G850 G836:G845 G832:G833 G826:G827 G816:G821 G797 G696:G701 G588:G594 G554:G555 G551:G552 G329:G331 H63 G52 G36:G49">
+  <conditionalFormatting sqref="G1755:G1770 G1611 G1702:G1709 G399 G522:G525 G389 G322:G323 G1587:G1589 G1591:G1601 G1637:G1642 G1519:G1520 G416:G425 G622:G624 G1515 G1373:G1377 G1392:G1419 G1422 G1429 G1433 G1304:G1309 G1329 G1314:G1326 G1312 G1061 G1109:G1119 G1121 G880:G883 G877 G754:G759 G856:G860 G751 G1:G9 G11:G34 G55:G75 G258:G262 G275 G236:G255 G703 G705 G500 G495:G496 G491 G438 G485:G486 G1267:G1271 G1243 G1167:G1173 G1202:G1207 G1032:G1036 G1022:G1026 G1028:G1030 G945:G946 G994:G1003 G1078:G1086 G1091:G1101 G1469:G1472 G1343:G1350 G1214:G1215 G1217:G1219 G1222 G1224:G1226 G1483:G1488 G1491:G1496 G1502 G1507:G1513 G1454:G1460 G1379:G1381 G1160:G1165 G793:G794 G813 G988 G1189 G1137 G1005 G926:G929 G1186:G1187 G687 G787:G788 G901 G1359 G1462:G1466 G1477 G626:G628 G630:G634 G636:G668 G670:G685 G824 G1014:G1016 G711:G714 G718:G723 G763:G783 G716 G600 G611 G613:G615 G575:G577 G579:G583 G489 G473:G477 G450:G455 G272:G273 G692 G732:G735 G799 G829 G863:G873 G895:G898 G931 G951:G984 G1007:G1012 G1040:G1048 G1124:G1133 G1181:G1182 G1184 G1229 G1237:G1241 G1352:G1357 G1545 G1547:G1549 G1560:G1562 G1650:G1653 G1655 G1665:G1693 G1711:G1735 G1772:G1777 G1781:G1048576 G519 G549 G1646:G1647 G277:G320 G336:G339 G341:G382 G384:G386 G413 G457:G470 G440:G443 G516:G517 G527:G532 G498 G1140:H1140 G563:G572 G540:G545 G534 G561 G77:G90 G124 G1657:G1660 G1616:G1625 G1565:G1572 G1556:G1558 G1553 G1523:G1524 G1505 G1450:G1452 G1383:G1388 G1252:G1264 G1231:G1234 G1210 G1193:G1199 G1155:G1158 G1143:G1152 G942:G943 G940 G922 G912:G916 G847:G850 G836:G845 G832:G833 G826:G827 G816:G821 G797 G696:G701 G588:G594 G554:G555 G551:G552 G329:G331 H63 G52 G36:G49">
     <cfRule type="duplicateValues" dxfId="48" priority="11726"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1071:G1048576 G511:G514 G55:G509 F510 G1:G34 G52 G516:G1069 G36:G49">
+  <conditionalFormatting sqref="G1071:G1048576 G511:G514 G55:G509 F510 G1:G9 G11:G34 G52 G516:G1069 G36:G49">
     <cfRule type="duplicateValues" dxfId="47" priority="11904"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1034">
@@ -29601,17 +29661,17 @@
   <conditionalFormatting sqref="G515">
     <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1733" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -32911,25 +32971,25 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E177:F1048576 E1:F3 F4:F43 F45:F141 F143:F174 F176">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E96 E177:E1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E148">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E174">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:F175">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" xr:uid="{0E2C5374-AC71-44BB-B699-D388328F7EE0}"/>
@@ -35213,80 +35273,80 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="34" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G52">
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F52">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G83">
-    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F83">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F106">
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G106">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F122 F124">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F151">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F141">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F152">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" xr:uid="{D2498515-12E3-4313-8BEB-4779B44A87F1}"/>
@@ -35466,27 +35526,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 F7">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{C20CE396-70CC-4013-91C5-39B81FBF07EF}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E4941-C8F1-49AB-A2F9-D5099BB212C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B7C71-6948-4FAC-94D8-FB68B003FA62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1932" windowWidth="12732" windowHeight="22584" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="9132" yWindow="2136" windowWidth="12732" windowHeight="22584" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="2553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="2555">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7702,6 +7702,12 @@
   </si>
   <si>
     <t>archive</t>
+  </si>
+  <si>
+    <t>https://twitter.com/thatzenboi/status/1191325506936827904</t>
+  </si>
+  <si>
+    <t>Tweetstorm: limited lifespan</t>
   </si>
 </sst>
 </file>
@@ -11510,9 +11516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1391" sqref="H1391"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11606,12 +11612,18 @@
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="74">
+        <v>43773</v>
+      </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>2553</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B7C71-6948-4FAC-94D8-FB68B003FA62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04F372-DF4A-453F-BC31-B3FB4483F1D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9132" yWindow="2136" windowWidth="12732" windowHeight="22584" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -11516,9 +11516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11636,7 +11636,7 @@
       <c r="F8" s="56" t="s">
         <v>2547</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>2546</v>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       <c r="F9" s="56" t="s">
         <v>2544</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>2543</v>
       </c>
     </row>
@@ -11668,7 +11668,7 @@
       <c r="F10" s="56" t="s">
         <v>2542</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>2541</v>
       </c>
     </row>
@@ -30300,10 +30300,13 @@
     <hyperlink ref="G19" r:id="rId612" xr:uid="{B167801E-9FA4-47B2-B1CA-7DDECE0FDD6A}"/>
     <hyperlink ref="G18" r:id="rId613" xr:uid="{2D08E3A2-2FA4-4635-898E-94EE14E975BA}"/>
     <hyperlink ref="G17" r:id="rId614" xr:uid="{EE92FD94-F43F-47A7-B849-B38AAF7E12A0}"/>
+    <hyperlink ref="G8" r:id="rId615" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
+    <hyperlink ref="G9" r:id="rId616" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
+    <hyperlink ref="G10" r:id="rId617" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId615"/>
-  <drawing r:id="rId616"/>
+  <pageSetup orientation="portrait" r:id="rId618"/>
+  <drawing r:id="rId619"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118466A-8F3B-4F48-954E-A60BAB4DC132}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E679512-667D-44EE-AD71-E23D5BAF7712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
-    <sheet name="Beautyon" sheetId="4" r:id="rId2"/>
-    <sheet name="Other Articles" sheetId="2" r:id="rId3"/>
-    <sheet name="Formal Papers" sheetId="3" r:id="rId4"/>
+    <sheet name="BTC Theory" sheetId="5" r:id="rId2"/>
+    <sheet name="Beautyon" sheetId="4" r:id="rId3"/>
+    <sheet name="Other Articles" sheetId="2" r:id="rId4"/>
+    <sheet name="Formal Papers" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Beautyon!$A$3:$F$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Beautyon!$A$3:$F$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$1767:$G$1868</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$290</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$299</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="2561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="2653">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -7726,13 +7727,289 @@
   </si>
   <si>
     <t>Bitcoin Life and Time</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DennisReimann/status/1191458209330081800</t>
+  </si>
+  <si>
+    <t>Tweetstorm - buddhist ox story</t>
+  </si>
+  <si>
+    <t>https://meltdem.substack.com/p/the-united-states-of-shitcoin</t>
+  </si>
+  <si>
+    <t>US of Shitcoin</t>
+  </si>
+  <si>
+    <t>Tweetstorm: The Bitcoin Reformation</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TuurDemeester/status/1192534287989583873</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ObiWanKenoBit/status/1192146154227585024</t>
+  </si>
+  <si>
+    <t>Tweetstorm: The Art of the Hodl</t>
+  </si>
+  <si>
+    <t>The Triumvirate of Liquidity</t>
+  </si>
+  <si>
+    <t>https://medium.com/@TantraLabs/the-triumvirate-of-liquidity-4fe4ab48d120</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/pulse/world-has-gone-mad-system-broken-ray-dalio/</t>
+  </si>
+  <si>
+    <t>The world has gone mad</t>
+  </si>
+  <si>
+    <t>https://bitcoinmagazine.com/articles/op-ed-in-china-its-blockchain-and-tyranny-vs-bitcoin-and-freedom</t>
+  </si>
+  <si>
+    <t>Op Ed: In China, It’s Blockchain and Tyranny vs Bitcoin and Freedom</t>
+  </si>
+  <si>
+    <t>https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance</t>
+  </si>
+  <si>
+    <t>Why does hashing public keys not actually provide any quantum resistance?</t>
+  </si>
+  <si>
+    <t>https://medium.com/@breedlove22/an-open-letter-to-ray-dalio-re-bitcoin-4b07c52a1a98</t>
+  </si>
+  <si>
+    <t>An Open Letter to Ray Dalio re: Bitcoin</t>
+  </si>
+  <si>
+    <t>Bitcoin Cannot be Banned</t>
+  </si>
+  <si>
+    <t>https://www.unchained-capital.com/blog/bitcoin-cannot-be-banned/</t>
+  </si>
+  <si>
+    <t>Reducing Bitcoin Transaction Sizes with x-only Pubkeys</t>
+  </si>
+  <si>
+    <t>https://medium.com/blockstream/reducing-bitcoin-transaction-sizes-with-x-only-pubkeys-f86476af05d7</t>
+  </si>
+  <si>
+    <t>Bitcoin: Disinflating to Death</t>
+  </si>
+  <si>
+    <t>https://medium.com/@matteoleibowitz/bitcoin-disinflating-to-death-b4ba7b691969</t>
+  </si>
+  <si>
+    <t>Bitcoin Security: a Negative Exponential</t>
+  </si>
+  <si>
+    <t>https://medium.com/coinmonks/bitcoin-security-a-negative-exponential-95e78b6b575</t>
+  </si>
+  <si>
+    <t>Part I: History and Philosophy</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/11/17/introduction/</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/10/15/sovereign-violence-and-legitimacy-of-law/</t>
+  </si>
+  <si>
+    <t>Sovereign Violence and Legitimacy of Law</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/11/04/the-legal-politics-of-money/</t>
+  </si>
+  <si>
+    <t>The Legal Politics of Money</t>
+  </si>
+  <si>
+    <t>Bitcoin is a Commodity Money</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/11/19/bitcoin-as-a-commodity-money/</t>
+  </si>
+  <si>
+    <t>Bitcoin and The History of Money</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/06/23/bitcoin-and-the-history-of-money/</t>
+  </si>
+  <si>
+    <t>The Absolute Value of Crypto</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/10/09/the-absolute-value-of-crypto/</t>
+  </si>
+  <si>
+    <t>The Destituent Power of Crypto</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2016/07/27/the-destituent-power-of-crypto/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/09/03/bitcoin-and-the-internet-as-ideological-apparatuses/</t>
+  </si>
+  <si>
+    <t>Bitcoin and The Internet as Ideological Apparatuses</t>
+  </si>
+  <si>
+    <t>The Brinkmanship of Crypto</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2016/06/09/the-brinkmanship-of-crypto/</t>
+  </si>
+  <si>
+    <t>Part II: Economics</t>
+  </si>
+  <si>
+    <t>The Magic of Money, The Science of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/08/13/the-magic-of-money-the-science-of-bitcoin/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/01/16/antifragile-bitcoin/</t>
+  </si>
+  <si>
+    <t>Antifragile Bitcoin</t>
+  </si>
+  <si>
+    <t>The Intrinsic Value of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2013/09/10/what-is-bitcoins-intrinsic-value/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/02/10/understanding-the-economic-functions-of-bitcoin/</t>
+  </si>
+  <si>
+    <t>The Economic Functions of Bitcoin</t>
+  </si>
+  <si>
+    <t>Gresham’s Law and Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/08/07/greshams-law-and-bitcoin/</t>
+  </si>
+  <si>
+    <t>The Transaction Cost of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2013/10/21/transaction-cost-bitcoin/</t>
+  </si>
+  <si>
+    <t>Bitcoin and Liquidity Preference</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2013/09/08/bitcoin-and-liquidity-preference/</t>
+  </si>
+  <si>
+    <t>Bitcoin’s Creative Destruction</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2013/11/08/bitcoins-creative-destruction/</t>
+  </si>
+  <si>
+    <t>The Creative Destruction of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/12/04/creative-destruction-of-bitcoin/</t>
+  </si>
+  <si>
+    <t>The Revolution of Bitcoin Banking</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/01/05/the-revolution-of-bitcoin-banking/</t>
+  </si>
+  <si>
+    <t>Part III: Politics</t>
+  </si>
+  <si>
+    <t>Bitcoin is Political</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/07/01/bitcoin-is-political/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/12/10/bitcoin-is-not-about-money/</t>
+  </si>
+  <si>
+    <t>Bitcoin is Not About Money</t>
+  </si>
+  <si>
+    <t>Revolutionary Syndicalism of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/03/19/revolutionary-syndicalism-bitcoin/</t>
+  </si>
+  <si>
+    <t>The Reappropriation of Our Economic System</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/05/13/the-reappropriation-of-our-economic-system/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/12/06/bitcoin-economic-resistance-and-justice/</t>
+  </si>
+  <si>
+    <t>Bitcoin, Economic Resistance, and Justice</t>
+  </si>
+  <si>
+    <t>Financial Insurrection</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2013/11/29/financial-insurrection/</t>
+  </si>
+  <si>
+    <t>Capital Exit, Capital Strike</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2014/05/16/capital-exit-capital-strike/</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/01/08/bitcoins-people-problem/</t>
+  </si>
+  <si>
+    <t>Bitcoin’s People Problem</t>
+  </si>
+  <si>
+    <t>Class Consciousness of The Digital Age</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/06/24/class-consciousness-internet-digital-age/</t>
+  </si>
+  <si>
+    <t>The Revolutionary Vanguard of The Digital Age</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2015/11/03/the-revolutionary-vanguard-of-the-digital-age/</t>
+  </si>
+  <si>
+    <t>What Is To Be Done</t>
+  </si>
+  <si>
+    <t>https://btctheory.com/2016/04/21/what-is-to-be-done/</t>
+  </si>
+  <si>
+    <t>http://www.sfu.ca/~andrewf/CONCEPT2.html</t>
+  </si>
+  <si>
+    <t>On the Concept of History </t>
+  </si>
+  <si>
+    <t>this should go in here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7884,6 +8161,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -7999,7 +8291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8154,6 +8446,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -11535,8 +11831,8 @@
   <dimension ref="A1:Y1841"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="3" topLeftCell="A1708" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1733" sqref="G1733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11630,96 +11926,165 @@
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="B7" s="74">
+        <v>43775</v>
+      </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="B8" s="74">
+        <v>43777</v>
+      </c>
       <c r="C8" s="75"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="F8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>2580</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="74">
+        <v>43777</v>
+      </c>
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="56" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>2577</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="B10" s="74">
+        <v>43754</v>
+      </c>
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="9" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>2575</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="74">
+        <v>43774</v>
+      </c>
       <c r="C11" s="75"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="F11" s="56" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>2573</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="B12" s="56" t="s">
+        <v>845</v>
+      </c>
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="56" t="s">
+        <v>2572</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>2571</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
+      <c r="B13" s="74">
+        <v>43775</v>
+      </c>
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="56" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>2570</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="74">
+        <v>43775</v>
+      </c>
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="56" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="74">
+        <v>43776</v>
+      </c>
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="56" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="74">
+        <v>43767</v>
+      </c>
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="56" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
+      <c r="B17" s="87">
+        <v>43773</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
@@ -11771,7 +12136,7 @@
       <c r="F21" s="56" t="s">
         <v>2555</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="55" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -17357,15 +17722,29 @@
     </row>
     <row r="447" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
-      <c r="B447" s="41"/>
+      <c r="B447" s="41">
+        <v>43342</v>
+      </c>
       <c r="C447" s="53"/>
-      <c r="G447" s="55"/>
+      <c r="F447" s="46" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G447" s="55" t="s">
+        <v>2584</v>
+      </c>
     </row>
     <row r="448" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
-      <c r="B448" s="41"/>
+      <c r="B448" s="41">
+        <v>43341</v>
+      </c>
       <c r="C448" s="53"/>
-      <c r="G448" s="55"/>
+      <c r="F448" s="46" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G448" s="55" t="s">
+        <v>2586</v>
+      </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B450" s="32"/>
@@ -28523,12 +28902,23 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="1729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1729" s="11" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F1733" s="101" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>2650</v>
+      </c>
+      <c r="H1733" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1735" t="s">
         <v>2536</v>
       </c>
@@ -28536,7 +28926,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="1744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1744">
         <v>2008</v>
       </c>
@@ -29805,16 +30195,16 @@
   <conditionalFormatting sqref="G24">
     <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1842:F1048576 F1623 F411 B534 F333:F335 F1662:F1665 F1559:F1561 F1572:F1574 F1578:F1584 F428:F439 F634:F636 F1234 G1254 F766:F771 F892:F894 F1136:F1143 F889 F25:F32 F21:F23 F1:F16 F18 F67:F85 F269 F287 F248:F267 F610:F611 F638:F640 F642:F646 F623:F627 F512 F507:F508 F503 F450 F485:F489 F462:F467 F497:F498 F588:F589 F591:F595 F586 F1355:F1356 F1481:F1484 F1504 F1523:F1525 F1530:F1532 F1527:F1528 F1316:F1321 F1341 F1326:F1335 F1324 F1198:F1199 F1201 F1214:F1216 F1395:F1400 F1266:F1276 F1279 F1281 F1372 F1168:F1169 F1179:F1183 F1037:F1042 F1044:F1045 F1124:F1129 F1131 F1147:F1149 F1175 F1145 F1110 F1104 F652:F680 F682:F687 F980:F994 F1005:F1017 F838:F839 F1488:F1490 F1497 F1073 F1089:F1101 F1075 F1066 F828:F835 B1767:B1789 B1793:B1841 B476 F1185 F1218:F1219 F1229 F717:F718 F715 F711:F713 F868:F872 F880:F885 F1194 F1404:F1410 F1413:F1430 F1499:F1500 F952 F1048 F938:F941 F999 F799 F913 F477:F482 F531 F561 F535:F537 F723:F726 F730:F735 F775:F795 F728 F763 F744:F747 F841 F875:F876 F1019:F1027 F1034:F1035 F1052:F1060 F1155 F1599:F1601 F1667 F1677:F1705 F1714:F1721 F1723:F1747 F500:F501 F289:F331 F348:F351 F353:F394 F396:F398 F401 F408 F425 F689:F697 F469:F475 F452:F455 F528:F529 F540:F544 F555:F557 F136 F95 F97:F102 F573 F89:F93 F87 F1610:F1613 F1651:F1654 F1471:F1478 F575:F584 F1669:F1672 F1628:F1637 F1568:F1570 F1565 F1535:F1536 F1382:F1391 F1226:F1227 F1205:F1211 F934 F924:F928 F859:F862 F848:F857 F844:F845 F773 F600:F606 F566:F567 F563:F564 F341:F343 F1106:F1108 F1112:F1113 F1159:F1164 F337 F1029:F1031 F42:F46 F34:F40 F48:F64">
+  <conditionalFormatting sqref="F1842:F1048576 F1623 F411 B534 F333:F335 F1662:F1665 F1559:F1561 F1572:F1574 F1578:F1584 F428:F439 F634:F636 F1234 G1254 F766:F771 F892:F894 F1136:F1143 F889 F25:F32 F21:F23 F1:F7 F14:F16 F18 F67:F85 F269 F287 F248:F267 F610:F611 F638:F640 F642:F646 F623:F627 F512 F507:F508 F503 F450 F485:F489 F462:F467 F497:F498 F588:F589 F591:F595 F586 F1355:F1356 F1481:F1484 F1504 F1523:F1525 F1530:F1532 F1527:F1528 F1316:F1321 F1341 F1326:F1335 F1324 F1198:F1199 F1201 F1214:F1216 F1395:F1400 F1266:F1276 F1279 F1281 F1372 F1168:F1169 F1179:F1183 F1037:F1042 F1044:F1045 F1124:F1129 F1131 F1147:F1149 F1175 F1145 F1110 F1104 F652:F680 F682:F687 F980:F994 F1005:F1017 F838:F839 F1488:F1490 F1497 F1073 F1089:F1101 F1075 F1066 F828:F835 B1767:B1789 B1793:B1841 B476 F1185 F1218:F1219 F1229 F717:F718 F715 F711:F713 F868:F872 F880:F885 F1194 F1404:F1410 F1413:F1430 F1499:F1500 F952 F1048 F938:F941 F999 F799 F913 F477:F482 F531 F561 F535:F537 F723:F726 F730:F735 F775:F795 F728 F763 F744:F747 F841 F875:F876 F1019:F1027 F1034:F1035 F1052:F1060 F1155 F1599:F1601 F1667 F1677:F1705 F1714:F1721 F1723:F1732 F500:F501 F289:F331 F348:F351 F353:F394 F396:F398 F401 F408 F425 F689:F697 F469:F475 F452:F455 F528:F529 F540:F544 F555:F557 F136 F95 F97:F102 F573 F89:F93 F87 F1610:F1613 F1651:F1654 F1471:F1478 F575:F584 F1669:F1672 F1628:F1637 F1568:F1570 F1565 F1535:F1536 F1382:F1391 F1226:F1227 F1205:F1211 F934 F924:F928 F859:F862 F848:F857 F844:F845 F773 F600:F606 F566:F567 F563:F564 F341:F343 F1106:F1108 F1112:F1113 F1159:F1164 F337 F1029:F1031 F42:F46 F34:F40 F48:F64 F11:F12 F9 F1734:F1747">
     <cfRule type="duplicateValues" dxfId="41" priority="13306"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1623 G1677:G1048576 G1598:G1601 G1603:G1613 G1649:G1654 G417:G421 G682:G704 G25:G46 G21:G23 G1:G16 G18 G67:G87 G106:G107 G109:G114 G119:G132 G282:G335 G401:G405 G408:G411 G186:G191 G507:G508 G461:G495 G425:G458 G497:G503 G512:G513 G531:G532 G510 G539:G544 G730:G735 G998:G1002 G1188:G1194 G1196:G1201 G1347:G1353 G1441 G1445 G1557:G1561 G1591:G1595 G1572:G1574 G728 G505 H1152 G147:G176 G178:G179 G534:G537 G89:G104 G1669:G1675 G1662:G1667 G1656:G1660 G1628:G1637 G1577:G1589 G1568:G1570 G1565 G1535:G1536 G1517:G1532 G1514 G1488:G1509 G1462:G1484 G1395:G1434 G1382:G1393 G1355:G1373 G1310:G1343 G1296:G1308 G1279:G1285 G1292:G1293 G1263:G1276 G1243:G1255 G1222:G1241 G1205:G1219 G1167:G1186 G1155:G1164 G1136:G1152 G1120:G1134 G1084:G1113 G1072:G1081 G1052:G1070 G1034:G1049 G1005:G1031 G954:G996 G952 G934:G943 G924:G928 G901:G913 G874:G897 G867:G872 G859:G865 G848:G857 G844:G845 G838:G841 G828:G836 G809:G825 G798:G806 G773:G795 G763:G771 G743:G759 G708:G726 G621:G680 G600:G619 G566:G573 G575:G595 G552:G561 G546 G563:G564 G523:G526 F522 G346:G351 G353:G398 G339:G343 G193:G277 G134 G136:G145 H75 G64 G528:G529 G48:G61">
+  <conditionalFormatting sqref="G1623 G1677:G1048576 G1598:G1601 G1603:G1613 G1649:G1654 G417:G421 G682:G704 G25:G46 G21:G23 G1:G12 G14:G16 F13 G18 G67:G87 G106:G107 G109:G114 G119:G132 G282:G335 G401:G405 G408:G411 G186:G191 G507:G508 G461:G495 G425:G458 G497:G503 G512:G513 G531:G532 G510 G539:G544 G730:G735 G998:G1002 G1188:G1194 G1196:G1201 G1347:G1353 G1441 G1445 G1557:G1561 G1591:G1595 G1572:G1574 G728 G505 H1152 G147:G176 G178:G179 G534:G537 G89:G104 G1669:G1675 G1662:G1667 G1656:G1660 G1628:G1637 G1577:G1589 G1568:G1570 G1565 G1535:G1536 G1517:G1532 G1514 G1488:G1509 G1462:G1484 G1395:G1434 G1382:G1393 G1355:G1373 G1310:G1343 G1296:G1308 G1279:G1285 G1292:G1293 G1263:G1276 G1243:G1255 G1222:G1241 G1205:G1219 G1167:G1186 G1155:G1164 G1136:G1152 G1120:G1134 G1084:G1113 G1072:G1081 G1052:G1070 G1034:G1049 G1005:G1031 G954:G996 G952 G934:G943 G924:G928 G901:G913 G874:G897 G867:G872 G859:G865 G848:G857 G844:G845 G838:G841 G828:G836 G809:G825 G798:G806 G773:G795 G763:G771 G743:G759 G708:G726 G621:G680 G600:G619 G566:G573 G575:G595 G552:G561 G546 G563:G564 G523:G526 F522 G346:G351 G353:G398 G339:G343 G193:G277 G134 G136:G145 H75 G64 G528:G529 G48:G61">
     <cfRule type="duplicateValues" dxfId="40" priority="13478"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1767:G1782 G1623 G1714:G1721 G411 G534:G537 G401 G334:G335 G1599:G1601 G1603:G1613 G1649:G1654 G1531:G1532 G428:G437 G634:G636 G1527 G1385:G1389 G1404:G1431 G1434 G1441 G1445 G1316:G1321 G1341 G1326:G1338 G1324 G1073 G1121:G1131 G1133 G892:G895 G889 G766:G771 G868:G872 G763 G25:G46 G21:G23 G1:G16 G18 G67:G87 G270:G274 G287 G248:G267 G715 G717 G512 G507:G508 G503 G450 G497:G498 G1279:G1283 G1255 G1179:G1185 G1214:G1219 G1044:G1048 G1034:G1038 G1040:G1042 G957:G958 G1006:G1015 G1090:G1098 G1103:G1113 G1481:G1484 G1355:G1362 G1226:G1227 G1229:G1231 G1234 G1236:G1238 G1495:G1500 G1503:G1508 G1514 G1519:G1525 G1466:G1472 G1391:G1393 G1172:G1177 G805:G806 G825 G1000 G1201 G1149 G1017 G938:G941 G1198:G1199 G699 G799:G800 G913 G1371 G1474:G1478 G1489 G638:G640 G642:G646 G648:G680 G682:G697 G836 G1026:G1028 G723:G726 G730:G735 G775:G795 G728 G612 G623 G625:G627 G587:G589 G591:G595 G501 G485:G489 G462:G467 G284:G285 G704 G744:G747 G811 G841 G875:G885 G907:G910 G943 G963:G996 G1019:G1024 G1052:G1060 G1136:G1145 G1193:G1194 G1196 G1241 G1249:G1253 G1364:G1369 G1557 G1559:G1561 G1572:G1574 G1662:G1665 G1667 G1677:G1705 G1723:G1747 G1784:G1789 G1793:G1048576 G531 G561 G1658:G1659 G289:G332 G348:G351 G353:G394 G396:G398 G425 G469:G482 G452:G455 G528:G529 G539:G544 G510 G1152:H1152 G575:G584 G552:G557 G546 G573 G89:G102 G136 G1669:G1672 G1628:G1637 G1577:G1584 G1568:G1570 G1565 G1535:G1536 G1517 G1462:G1464 G1395:G1400 G1264:G1276 G1243:G1246 G1222 G1205:G1211 G1167:G1170 G1155:G1164 G954:G955 G952 G934 G924:G928 G859:G862 G848:G857 G844:G845 G838:G839 G828:G833 G809 G708:G713 G600:G606 G566:G567 G563:G564 G341:G343 H75 G64 G48:G61">
+  <conditionalFormatting sqref="G1767:G1782 G1623 G1714:G1721 G411 G534:G537 G401 G334:G335 G1599:G1601 G1603:G1613 G1649:G1654 G1531:G1532 G428:G437 G634:G636 G1527 G1385:G1389 G1404:G1431 G1434 G1441 G1445 G1316:G1321 G1341 G1326:G1338 G1324 G1073 G1121:G1131 G1133 G892:G895 G889 G766:G771 G868:G872 G763 G25:G46 G21:G23 G1:G12 G14:G16 F13 G18 G67:G87 G270:G274 G287 G248:G267 G715 G717 G512 G507:G508 G503 G450 G497:G498 G1279:G1283 G1255 G1179:G1185 G1214:G1219 G1044:G1048 G1034:G1038 G1040:G1042 G957:G958 G1006:G1015 G1090:G1098 G1103:G1113 G1481:G1484 G1355:G1362 G1226:G1227 G1229:G1231 G1234 G1236:G1238 G1495:G1500 G1503:G1508 G1514 G1519:G1525 G1466:G1472 G1391:G1393 G1172:G1177 G805:G806 G825 G1000 G1201 G1149 G1017 G938:G941 G1198:G1199 G699 G799:G800 G913 G1371 G1474:G1478 G1489 G638:G640 G642:G646 G648:G680 G682:G697 G836 G1026:G1028 G723:G726 G730:G735 G775:G795 G728 G612 G623 G625:G627 G587:G589 G591:G595 G501 G485:G489 G462:G467 G284:G285 G704 G744:G747 G811 G841 G875:G885 G907:G910 G943 G963:G996 G1019:G1024 G1052:G1060 G1136:G1145 G1193:G1194 G1196 G1241 G1249:G1253 G1364:G1369 G1557 G1559:G1561 G1572:G1574 G1662:G1665 G1667 G1677:G1705 G1723:G1747 G1784:G1789 G1793:G1048576 G531 G561 G1658:G1659 G289:G332 G348:G351 G353:G394 G396:G398 G425 G469:G482 G452:G455 G528:G529 G539:G544 G510 G1152:H1152 G575:G584 G552:G557 G546 G573 G89:G102 G136 G1669:G1672 G1628:G1637 G1577:G1584 G1568:G1570 G1565 G1535:G1536 G1517 G1462:G1464 G1395:G1400 G1264:G1276 G1243:G1246 G1222 G1205:G1211 G1167:G1170 G1155:G1164 G954:G955 G952 G934 G924:G928 G859:G862 G848:G857 G844:G845 G838:G839 G828:G833 G809 G708:G713 G600:G606 G566:G567 G563:G564 G341:G343 H75 G64 G48:G61">
     <cfRule type="duplicateValues" dxfId="39" priority="13591"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1083:G1048576 G523:G526 G67:G521 F522 G25:G46 G21:G23 G1:G16 G18 G64 G528:G1081 G48:G61">
+  <conditionalFormatting sqref="G1083:G1048576 G523:G526 G67:G521 F522 G25:G46 G21:G23 G1:G12 G14:G16 F13 G18 G64 G528:G1081 G48:G61">
     <cfRule type="duplicateValues" dxfId="38" priority="13772"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -30435,14 +30825,290 @@
     <hyperlink ref="G22" r:id="rId615" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
     <hyperlink ref="G23" r:id="rId616" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
     <hyperlink ref="G24" r:id="rId617" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
+    <hyperlink ref="F10" r:id="rId618" display="https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance" xr:uid="{5F39B841-CC8B-44F1-A5F2-8EE6146C307D}"/>
+    <hyperlink ref="G21" r:id="rId619" xr:uid="{365B81C8-1751-4B75-9CC6-ECFAC78B1E49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId618"/>
-  <drawing r:id="rId619"/>
+  <pageSetup orientation="portrait" r:id="rId620"/>
+  <drawing r:id="rId621"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E5BED-1E1E-4DBA-908F-8E269998423F}">
+  <dimension ref="C3:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="100" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C14" s="100" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C26" s="100" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3B6BD-D660-40F9-A99C-EA5220986F4F}">
   <dimension ref="A1:F177"/>
   <sheetViews>
@@ -33212,7 +33878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E29D8-AE95-413C-9C43-D79E15372FC2}">
   <dimension ref="A1:G153"/>
   <sheetViews>
@@ -35585,7 +36251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE0EE7-0DB3-4B65-AB70-EECE9B373108}">
   <dimension ref="A4:H9"/>
   <sheetViews>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C00C477-B128-4FDB-8C5B-78A7C97C132C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D84A887-7CFF-430D-9F7E-A05235D62D00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23304" yWindow="3024" windowWidth="19968" windowHeight="18684" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="5616" yWindow="3240" windowWidth="36924" windowHeight="18684" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="2680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="2682">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8084,6 +8084,12 @@
   </si>
   <si>
     <t>https://twitter.com/Breedlove22/status/1195139492232908800</t>
+  </si>
+  <si>
+    <t>https://medium.com/swlh/bitcoin-halving-everything-you-need-to-know-4573dc5b528e</t>
+  </si>
+  <si>
+    <t>Bitcoin Halving — Everything You Need to Know</t>
   </si>
 </sst>
 </file>
@@ -11912,8 +11918,8 @@
   <dimension ref="A1:Y1868"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12138,12 +12144,6 @@
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
@@ -12923,14 +12923,22 @@
       <c r="F77" s="56"/>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
-      <c r="B78" s="74"/>
+    <row r="78" spans="1:10" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="95" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B78" s="74">
+        <v>43714</v>
+      </c>
       <c r="C78" s="75"/>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="55"/>
+      <c r="F78" s="56" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G78" s="56" t="s">
+        <v>2680</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="56"/>
@@ -30599,16 +30607,16 @@
   <conditionalFormatting sqref="G51">
     <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1869:F1048576 F1650 F438 B561 F360:F362 F1689:F1692 F1586:F1588 F1599:F1601 F1605:F1611 F455:F466 F661:F663 F1261 G1281 F793:F798 F919:F921 F1163:F1170 F916 F52:F59 F48:F50 F1:F22 F40:F42 F44 F94:F112 F296 F314 F275:F294 F637:F638 F665:F667 F669:F673 F650:F654 F539 F534:F535 F530 F477 F512:F516 F489:F494 F524:F525 F615:F616 F618:F622 F613 F1382:F1383 F1508:F1511 F1531 F1550:F1552 F1557:F1559 F1554:F1555 F1343:F1348 F1368 F1353:F1362 F1351 F1225:F1226 F1228 F1241:F1243 F1422:F1427 F1293:F1303 F1306 F1308 F1399 F1195:F1196 F1206:F1210 F1064:F1069 F1071:F1072 F1151:F1156 F1158 F1174:F1176 F1202 F1172 F1137 F1131 F679:F707 F709:F714 F1007:F1021 F1032:F1044 F865:F866 F1515:F1517 F1524 F1100 F1116:F1128 F1102 F1093 F855:F862 B1794:B1816 B1820:B1868 B503 F1212 F1245:F1246 F1256 F744:F745 F742 F738:F740 F895:F899 F907:F912 F1221 F1431:F1437 F1440:F1457 F1526:F1527 F979 F1075 F965:F968 F1026 F826 F940 F504:F509 F558 F588 F562:F564 F750:F753 F757:F762 F802:F822 F755 F790 F771:F774 F868 F902:F903 F1046:F1054 F1061:F1062 F1079:F1087 F1182 F1626:F1628 F1694 F1704:F1732 F1741:F1748 F1750:F1759 F527:F528 F316:F358 F375:F378 F380:F421 F423:F425 F428 F435 F452 F716:F724 F496:F502 F479:F482 F555:F556 F567:F571 F582:F584 F163 F122 F124:F129 F600 F116:F120 F114 F1637:F1640 F1678:F1681 F1498:F1505 F602:F611 F1696:F1699 F1655:F1664 F1595:F1597 F1592 F1562:F1563 F1409:F1418 F1253:F1254 F1232:F1238 F961 F951:F955 F886:F889 F875:F884 F871:F872 F800 F627:F633 F593:F594 F590:F591 F368:F370 F1133:F1135 F1139:F1140 F1186:F1191 F364 F1056:F1058 F69:F73 F61:F67 F75:F91 F37:F38 F1761:F1774 F31:F32 F29 F24:F26 F34:F35">
+  <conditionalFormatting sqref="F1869:F1048576 F1650 F438 B561 F360:F362 F1689:F1692 F1586:F1588 F1599:F1601 F1605:F1611 F455:F466 F661:F663 F1261 G1281 F793:F798 F919:F921 F1163:F1170 F916 F52:F59 F48:F50 F1:F20 F22 F40:F42 F44 F94:F112 F296 F314 F275:F294 F637:F638 F665:F667 F669:F673 F650:F654 F539 F534:F535 F530 F477 F512:F516 F489:F494 F524:F525 F615:F616 F618:F622 F613 F1382:F1383 F1508:F1511 F1531 F1550:F1552 F1557:F1559 F1554:F1555 F1343:F1348 F1368 F1353:F1362 F1351 F1225:F1226 F1228 F1241:F1243 F1422:F1427 F1293:F1303 F1306 F1308 F1399 F1195:F1196 F1206:F1210 F1064:F1069 F1071:F1072 F1151:F1156 F1158 F1174:F1176 F1202 F1172 F1137 F1131 F679:F707 F709:F714 F1007:F1021 F1032:F1044 F865:F866 F1515:F1517 F1524 F1100 F1116:F1128 F1102 F1093 F855:F862 B1794:B1816 B1820:B1868 B503 F1212 F1245:F1246 F1256 F744:F745 F742 F738:F740 F895:F899 F907:F912 F1221 F1431:F1437 F1440:F1457 F1526:F1527 F979 F1075 F965:F968 F1026 F826 F940 F504:F509 F558 F588 F562:F564 F750:F753 F757:F762 F802:F822 F755 F790 F771:F774 F868 F902:F903 F1046:F1054 F1061:F1062 F1079:F1087 F1182 F1626:F1628 F1694 F1704:F1732 F1741:F1748 F1750:F1759 F527:F528 F316:F358 F375:F378 F380:F421 F423:F425 F428 F435 F452 F716:F724 F496:F502 F479:F482 F555:F556 F567:F571 F582:F584 F163 F122 F124:F129 F600 F116:F120 F114 F1637:F1640 F1678:F1681 F1498:F1505 F602:F611 F1696:F1699 F1655:F1664 F1595:F1597 F1592 F1562:F1563 F1409:F1418 F1253:F1254 F1232:F1238 F961 F951:F955 F886:F889 F875:F884 F871:F872 F800 F627:F633 F593:F594 F590:F591 F368:F370 F1133:F1135 F1139:F1140 F1186:F1191 F364 F1056:F1058 F69:F73 F61:F67 F75:F91 F37:F38 F1761:F1774 F31:F32 F29 F24:F26 F34:F35">
     <cfRule type="duplicateValues" dxfId="41" priority="13306"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1650 G1704:G1048576 G1625:G1628 G1630:G1640 G1676:G1681 G444:G448 G709:G731 G52:G73 G48:G50 G1:G38 G40:G42 F39 G44 G94:G114 G133:G134 G136:G141 G146:G159 G309:G362 G428:G432 G435:G438 G213:G218 G534:G535 G488:G522 G452:G485 G524:G530 G539:G540 G558:G559 G537 G566:G571 G757:G762 G1025:G1029 G1215:G1221 G1223:G1228 G1374:G1380 G1468 G1472 G1584:G1588 G1618:G1622 G1599:G1601 G755 G532 H1179 G174:G203 G205:G206 G561:G564 G116:G131 G1696:G1702 G1689:G1694 G1683:G1687 G1655:G1664 G1604:G1616 G1595:G1597 G1592 G1562:G1563 G1544:G1559 G1541 G1515:G1536 G1489:G1511 G1422:G1461 G1409:G1420 G1382:G1400 G1337:G1370 G1323:G1335 G1306:G1312 G1319:G1320 G1290:G1303 G1270:G1282 G1249:G1268 G1232:G1246 G1194:G1213 G1182:G1191 G1163:G1179 G1147:G1161 G1111:G1140 G1099:G1108 G1079:G1097 G1061:G1076 G1032:G1058 G981:G1023 G979 G961:G970 G951:G955 G928:G940 G901:G924 G894:G899 G886:G892 G875:G884 G871:G872 G865:G868 G855:G863 G836:G852 G825:G833 G800:G822 G790:G798 G770:G786 G735:G753 G648:G707 G627:G646 G593:G600 G602:G622 G579:G588 G573 G590:G591 G550:G553 F549 G373:G378 G380:G425 G366:G370 G220:G304 G161 G163:G172 H102 G91 G555:G556 G75:G88">
+  <conditionalFormatting sqref="G1650 G1704:G1048576 G1625:G1628 G1630:G1640 G1676:G1681 G444:G448 G709:G731 G52:G73 G48:G50 G1:G20 G22:G38 G40:G42 F39 G44 G94:G114 G133:G134 G136:G141 G146:G159 G309:G362 G428:G432 G435:G438 G213:G218 G534:G535 G488:G522 G452:G485 G524:G530 G539:G540 G558:G559 G537 G566:G571 G757:G762 G1025:G1029 G1215:G1221 G1223:G1228 G1374:G1380 G1468 G1472 G1584:G1588 G1618:G1622 G1599:G1601 G755 G532 H1179 G174:G203 G205:G206 G561:G564 G116:G131 G1696:G1702 G1689:G1694 G1683:G1687 G1655:G1664 G1604:G1616 G1595:G1597 G1592 G1562:G1563 G1544:G1559 G1541 G1515:G1536 G1489:G1511 G1422:G1461 G1409:G1420 G1382:G1400 G1337:G1370 G1323:G1335 G1306:G1312 G1319:G1320 G1290:G1303 G1270:G1282 G1249:G1268 G1232:G1246 G1194:G1213 G1182:G1191 G1163:G1179 G1147:G1161 G1111:G1140 G1099:G1108 G1079:G1097 G1061:G1076 G1032:G1058 G981:G1023 G979 G961:G970 G951:G955 G928:G940 G901:G924 G894:G899 G886:G892 G875:G884 G871:G872 G865:G868 G855:G863 G836:G852 G825:G833 G800:G822 G790:G798 G770:G786 G735:G753 G648:G707 G627:G646 G593:G600 G602:G622 G579:G588 G573 G590:G591 G550:G553 F549 G373:G378 G380:G425 G366:G370 G220:G304 G161 G163:G172 H102 G91 G555:G556 G75:G88">
     <cfRule type="duplicateValues" dxfId="40" priority="13478"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1794:G1809 G1650 G1741:G1748 G438 G561:G564 G428 G361:G362 G1626:G1628 G1630:G1640 G1676:G1681 G1558:G1559 G455:G464 G661:G663 G1554 G1412:G1416 G1431:G1458 G1461 G1468 G1472 G1343:G1348 G1368 G1353:G1365 G1351 G1100 G1148:G1158 G1160 G919:G922 G916 G793:G798 G895:G899 G790 G52:G73 G48:G50 G1:G38 G40:G42 F39 G44 G94:G114 G297:G301 G314 G275:G294 G742 G744 G539 G534:G535 G530 G477 G524:G525 G1306:G1310 G1282 G1206:G1212 G1241:G1246 G1071:G1075 G1061:G1065 G1067:G1069 G984:G985 G1033:G1042 G1117:G1125 G1130:G1140 G1508:G1511 G1382:G1389 G1253:G1254 G1256:G1258 G1261 G1263:G1265 G1522:G1527 G1530:G1535 G1541 G1546:G1552 G1493:G1499 G1418:G1420 G1199:G1204 G832:G833 G852 G1027 G1228 G1176 G1044 G965:G968 G1225:G1226 G726 G826:G827 G940 G1398 G1501:G1505 G1516 G665:G667 G669:G673 G675:G707 G709:G724 G863 G1053:G1055 G750:G753 G757:G762 G802:G822 G755 G639 G650 G652:G654 G614:G616 G618:G622 G528 G512:G516 G489:G494 G311:G312 G731 G771:G774 G838 G868 G902:G912 G934:G937 G970 G990:G1023 G1046:G1051 G1079:G1087 G1163:G1172 G1220:G1221 G1223 G1268 G1276:G1280 G1391:G1396 G1584 G1586:G1588 G1599:G1601 G1689:G1692 G1694 G1704:G1732 G1750:G1774 G1811:G1816 G1820:G1048576 G558 G588 G1685:G1686 G316:G359 G375:G378 G380:G421 G423:G425 G452 G496:G509 G479:G482 G555:G556 G566:G571 G537 G1179:H1179 G602:G611 G579:G584 G573 G600 G116:G129 G163 G1696:G1699 G1655:G1664 G1604:G1611 G1595:G1597 G1592 G1562:G1563 G1544 G1489:G1491 G1422:G1427 G1291:G1303 G1270:G1273 G1249 G1232:G1238 G1194:G1197 G1182:G1191 G981:G982 G979 G961 G951:G955 G886:G889 G875:G884 G871:G872 G865:G866 G855:G860 G836 G735:G740 G627:G633 G593:G594 G590:G591 G368:G370 H102 G91 G75:G88">
+  <conditionalFormatting sqref="G1794:G1809 G1650 G1741:G1748 G438 G561:G564 G428 G361:G362 G1626:G1628 G1630:G1640 G1676:G1681 G1558:G1559 G455:G464 G661:G663 G1554 G1412:G1416 G1431:G1458 G1461 G1468 G1472 G1343:G1348 G1368 G1353:G1365 G1351 G1100 G1148:G1158 G1160 G919:G922 G916 G793:G798 G895:G899 G790 G52:G73 G48:G50 G1:G20 G22:G38 G40:G42 F39 G44 G94:G114 G297:G301 G314 G275:G294 G742 G744 G539 G534:G535 G530 G477 G524:G525 G1306:G1310 G1282 G1206:G1212 G1241:G1246 G1071:G1075 G1061:G1065 G1067:G1069 G984:G985 G1033:G1042 G1117:G1125 G1130:G1140 G1508:G1511 G1382:G1389 G1253:G1254 G1256:G1258 G1261 G1263:G1265 G1522:G1527 G1530:G1535 G1541 G1546:G1552 G1493:G1499 G1418:G1420 G1199:G1204 G832:G833 G852 G1027 G1228 G1176 G1044 G965:G968 G1225:G1226 G726 G826:G827 G940 G1398 G1501:G1505 G1516 G665:G667 G669:G673 G675:G707 G709:G724 G863 G1053:G1055 G750:G753 G757:G762 G802:G822 G755 G639 G650 G652:G654 G614:G616 G618:G622 G528 G512:G516 G489:G494 G311:G312 G731 G771:G774 G838 G868 G902:G912 G934:G937 G970 G990:G1023 G1046:G1051 G1079:G1087 G1163:G1172 G1220:G1221 G1223 G1268 G1276:G1280 G1391:G1396 G1584 G1586:G1588 G1599:G1601 G1689:G1692 G1694 G1704:G1732 G1750:G1774 G1811:G1816 G1820:G1048576 G558 G588 G1685:G1686 G316:G359 G375:G378 G380:G421 G423:G425 G452 G496:G509 G479:G482 G555:G556 G566:G571 G537 G1179:H1179 G602:G611 G579:G584 G573 G600 G116:G129 G163 G1696:G1699 G1655:G1664 G1604:G1611 G1595:G1597 G1592 G1562:G1563 G1544 G1489:G1491 G1422:G1427 G1291:G1303 G1270:G1273 G1249 G1232:G1238 G1194:G1197 G1182:G1191 G981:G982 G979 G961 G951:G955 G886:G889 G875:G884 G871:G872 G865:G866 G855:G860 G836 G735:G740 G627:G633 G593:G594 G590:G591 G368:G370 H102 G91 G75:G88">
     <cfRule type="duplicateValues" dxfId="39" priority="13591"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1110:G1048576 G550:G553 G94:G548 F549 G52:G73 G48:G50 G1:G38 G40:G42 F39 G44 G91 G555:G1108 G75:G88">
+  <conditionalFormatting sqref="G1110:G1048576 G550:G553 G94:G548 F549 G52:G73 G48:G50 G1:G20 G22:G38 G40:G42 F39 G44 G91 G555:G1108 G75:G88">
     <cfRule type="duplicateValues" dxfId="38" priority="13772"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A1BF1-4011-4014-B40C-B718AC4A2F9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322AAD67-531A-4A29-8DDB-F2C277BA5BDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7063" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2686">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -11931,7 +11931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="28" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
-      <c r="B28" s="74">
+      <c r="B28" s="99">
         <v>43781</v>
       </c>
       <c r="C28" s="75"/>
@@ -12261,13 +12261,13 @@
       <c r="F28" s="9" t="s">
         <v>2664</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="55" t="s">
         <v>2665</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
-      <c r="B29" s="74">
+      <c r="B29" s="99">
         <v>43775</v>
       </c>
       <c r="C29" s="75"/>
@@ -12276,13 +12276,13 @@
       <c r="F29" s="56" t="s">
         <v>2663</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="55" t="s">
         <v>2662</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
-      <c r="B30" s="74">
+      <c r="B30" s="98">
         <v>43788</v>
       </c>
       <c r="C30" s="75"/>
@@ -12291,13 +12291,13 @@
       <c r="F30" t="s">
         <v>2660</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="55" t="s">
         <v>2661</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
-      <c r="B31" s="74">
+      <c r="B31" s="99">
         <v>43786</v>
       </c>
       <c r="C31" s="75"/>
@@ -12306,13 +12306,13 @@
       <c r="F31" s="56" t="s">
         <v>2656</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="55" t="s">
         <v>2657</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
-      <c r="B32" s="74">
+      <c r="B32" s="98">
         <v>43775</v>
       </c>
       <c r="C32" s="75"/>
@@ -12321,13 +12321,13 @@
       <c r="F32" s="56" t="s">
         <v>2581</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="55" t="s">
         <v>2582</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
-      <c r="B33" s="74">
+      <c r="B33" s="99">
         <v>43777</v>
       </c>
       <c r="C33" s="75"/>
@@ -12336,7 +12336,7 @@
       <c r="F33" t="s">
         <v>2579</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="55" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="74">
+      <c r="B35" s="99">
         <v>43777</v>
       </c>
       <c r="C35" s="75"/>
@@ -12364,13 +12364,13 @@
       <c r="F35" s="56" t="s">
         <v>2578</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="55" t="s">
         <v>2577</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
-      <c r="B36" s="74">
+      <c r="B36" s="99">
         <v>43754</v>
       </c>
       <c r="C36" s="75"/>
@@ -12379,13 +12379,13 @@
       <c r="F36" s="9" t="s">
         <v>2576</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="55" t="s">
         <v>2575</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
-      <c r="B37" s="74">
+      <c r="B37" s="99">
         <v>43774</v>
       </c>
       <c r="C37" s="75"/>
@@ -12394,7 +12394,7 @@
       <c r="F37" s="56" t="s">
         <v>2574</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="55" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="39" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
-      <c r="B39" s="74">
+      <c r="B39" s="99">
         <v>43775</v>
       </c>
       <c r="C39" s="75"/>
@@ -12424,13 +12424,13 @@
       <c r="F39" s="56" t="s">
         <v>2569</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="55" t="s">
         <v>2570</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
-      <c r="B40" s="74">
+      <c r="B40" s="99">
         <v>43775</v>
       </c>
       <c r="C40" s="75"/>
@@ -12439,13 +12439,13 @@
       <c r="F40" s="56" t="s">
         <v>2568</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="55" t="s">
         <v>2567</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56"/>
-      <c r="B41" s="74">
+      <c r="B41" s="99">
         <v>43776</v>
       </c>
       <c r="C41" s="75"/>
@@ -12454,13 +12454,13 @@
       <c r="F41" s="56" t="s">
         <v>2565</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="55" t="s">
         <v>2566</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="56"/>
-      <c r="B42" s="74">
+      <c r="B42" s="98">
         <v>43767</v>
       </c>
       <c r="C42" s="75"/>
@@ -12469,25 +12469,25 @@
       <c r="F42" s="56" t="s">
         <v>2564</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="55" t="s">
         <v>2563</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
-      <c r="B43" s="87">
+      <c r="B43" s="82">
         <v>43773</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>2562</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="55" t="s">
         <v>2561</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="56"/>
-      <c r="B44" s="74">
+      <c r="B44" s="98">
         <v>43773</v>
       </c>
       <c r="C44" s="75"/>
@@ -12502,13 +12502,13 @@
     </row>
     <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
-      <c r="B45" s="87">
+      <c r="B45" s="82">
         <v>43774</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>2560</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="55" t="s">
         <v>2559</v>
       </c>
     </row>
@@ -31275,10 +31275,25 @@
     <hyperlink ref="F23" r:id="rId622" display="https://rhythmofbitcoin.substack.com/p/a-cashless-future-is-a-dystopia-without" xr:uid="{07C57689-D3FC-4121-98A6-93F2DAD82C21}"/>
     <hyperlink ref="G47" r:id="rId623" xr:uid="{2EE1B357-E60C-45B9-9CEE-68544A367F08}"/>
     <hyperlink ref="G46" r:id="rId624" xr:uid="{E92DAF54-A1CD-407F-9960-FA99A125DE5E}"/>
+    <hyperlink ref="G45" r:id="rId625" xr:uid="{CBF7FC3E-2007-4F4E-AC35-47C052353CBE}"/>
+    <hyperlink ref="G43" r:id="rId626" xr:uid="{DE7704B6-672B-49D1-911E-B490E0050F2F}"/>
+    <hyperlink ref="G42" r:id="rId627" xr:uid="{01E80B7B-6F1A-4A15-AC37-7B6C9C24808C}"/>
+    <hyperlink ref="G41" r:id="rId628" xr:uid="{C8C5819A-91F8-4556-96E4-99ECD0F925B2}"/>
+    <hyperlink ref="G40" r:id="rId629" xr:uid="{B6959887-BE99-41D9-8475-24A70F43AB16}"/>
+    <hyperlink ref="G39" r:id="rId630" xr:uid="{1B36DB34-9CCC-4C2A-A4CA-ACA47E2DE508}"/>
+    <hyperlink ref="G37" r:id="rId631" xr:uid="{921095A8-36CB-410D-9D2A-8973557C47F6}"/>
+    <hyperlink ref="G36" r:id="rId632" xr:uid="{80CD66BD-8117-4B53-923C-29CFF6619C94}"/>
+    <hyperlink ref="G35" r:id="rId633" xr:uid="{BECC4351-03F1-4297-AA29-E33126942591}"/>
+    <hyperlink ref="G33" r:id="rId634" xr:uid="{2D020D98-BF85-4D86-979A-CDC3363E9807}"/>
+    <hyperlink ref="G32" r:id="rId635" xr:uid="{9694C19A-452D-4542-8CBE-95F35257503B}"/>
+    <hyperlink ref="G31" r:id="rId636" xr:uid="{8BA32324-4B77-420B-AE30-515B0BAC5C67}"/>
+    <hyperlink ref="G30" r:id="rId637" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
+    <hyperlink ref="G29" r:id="rId638" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
+    <hyperlink ref="G28" r:id="rId639" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId625"/>
-  <drawing r:id="rId626"/>
+  <pageSetup orientation="portrait" r:id="rId640"/>
+  <drawing r:id="rId641"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322AAD67-531A-4A29-8DDB-F2C277BA5BDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F67C2-0FD2-4358-A43E-68A07EB01B36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="2690">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8102,13 +8102,25 @@
   </si>
   <si>
     <t>What is a UTXO?</t>
+  </si>
+  <si>
+    <t>ADD TO FINANCIAL JOURNAL</t>
+  </si>
+  <si>
+    <t>https://medium.com/dlabvc/paxful-is-the-most-important-bitcoin-company-you-arent-paying-attention-to-4e699db0c5ca</t>
+  </si>
+  <si>
+    <t>Paxful is the Most Important Bitcoin Company You Aren’t Paying Attention to.</t>
+  </si>
+  <si>
+    <t>Lets get this straight, Bitcoin is an experiment in self-organizing collective intelligence.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8275,8 +8287,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8366,8 +8385,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8384,13 +8408,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8549,10 +8589,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="299">
@@ -11575,9 +11617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>551777</xdr:colOff>
+      <xdr:colOff>555587</xdr:colOff>
       <xdr:row>1144</xdr:row>
-      <xdr:rowOff>97711</xdr:rowOff>
+      <xdr:rowOff>93901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11930,8 +11972,8 @@
   <dimension ref="A1:Y1869"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12147,22 +12189,31 @@
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
+      <c r="B20" s="68">
+        <v>43794</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2687</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
-      <c r="B21" s="87">
+      <c r="B21" s="68">
         <v>43791</v>
       </c>
       <c r="F21" t="s">
         <v>2683</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="55" t="s">
         <v>2682</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
-      <c r="B22" s="74">
+      <c r="B22" s="98">
         <v>43784</v>
       </c>
       <c r="C22" s="75"/>
@@ -12171,13 +12222,13 @@
       <c r="F22" s="56" t="s">
         <v>2676</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="55" t="s">
         <v>2677</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
-      <c r="B23" s="74">
+      <c r="B23" s="92">
         <v>43788</v>
       </c>
       <c r="C23" s="75"/>
@@ -12186,13 +12237,13 @@
       <c r="F23" s="9" t="s">
         <v>2674</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="55" t="s">
         <v>2675</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
-      <c r="B24" s="74">
+      <c r="B24" s="92">
         <v>43782</v>
       </c>
       <c r="C24" s="75"/>
@@ -12201,13 +12252,15 @@
       <c r="F24" s="56" t="s">
         <v>2673</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="55" t="s">
         <v>2672</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="74">
+      <c r="A25" s="102" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B25" s="92">
         <v>43782</v>
       </c>
       <c r="C25" s="75"/>
@@ -12216,13 +12269,13 @@
       <c r="F25" s="56" t="s">
         <v>2671</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="55" t="s">
         <v>2670</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
-      <c r="B26" s="74">
+      <c r="B26" s="98">
         <v>43784</v>
       </c>
       <c r="C26" s="75"/>
@@ -12231,13 +12284,13 @@
       <c r="F26" s="56" t="s">
         <v>2669</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="55" t="s">
         <v>2668</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
-      <c r="B27" s="74">
+      <c r="B27" s="92">
         <v>43760</v>
       </c>
       <c r="C27" s="75"/>
@@ -12246,13 +12299,13 @@
       <c r="F27" s="9" t="s">
         <v>2666</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="55" t="s">
         <v>2667</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
-      <c r="B28" s="99">
+      <c r="B28" s="92">
         <v>43781</v>
       </c>
       <c r="C28" s="75"/>
@@ -12267,7 +12320,7 @@
     </row>
     <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
-      <c r="B29" s="99">
+      <c r="B29" s="92">
         <v>43775</v>
       </c>
       <c r="C29" s="75"/>
@@ -12297,7 +12350,7 @@
     </row>
     <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
-      <c r="B31" s="99">
+      <c r="B31" s="92">
         <v>43786</v>
       </c>
       <c r="C31" s="75"/>
@@ -12327,7 +12380,7 @@
     </row>
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
-      <c r="B33" s="99">
+      <c r="B33" s="92">
         <v>43777</v>
       </c>
       <c r="C33" s="75"/>
@@ -12355,7 +12408,7 @@
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
-      <c r="B35" s="99">
+      <c r="B35" s="92">
         <v>43777</v>
       </c>
       <c r="C35" s="75"/>
@@ -12370,7 +12423,7 @@
     </row>
     <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
-      <c r="B36" s="99">
+      <c r="B36" s="92">
         <v>43754</v>
       </c>
       <c r="C36" s="75"/>
@@ -12385,7 +12438,7 @@
     </row>
     <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
-      <c r="B37" s="99">
+      <c r="B37" s="92">
         <v>43774</v>
       </c>
       <c r="C37" s="75"/>
@@ -12415,7 +12468,7 @@
     </row>
     <row r="39" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
-      <c r="B39" s="99">
+      <c r="B39" s="92">
         <v>43775</v>
       </c>
       <c r="C39" s="75"/>
@@ -12430,7 +12483,7 @@
     </row>
     <row r="40" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
-      <c r="B40" s="99">
+      <c r="B40" s="98">
         <v>43775</v>
       </c>
       <c r="C40" s="75"/>
@@ -12445,7 +12498,7 @@
     </row>
     <row r="41" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56"/>
-      <c r="B41" s="99">
+      <c r="B41" s="92">
         <v>43776</v>
       </c>
       <c r="C41" s="75"/>
@@ -12475,7 +12528,7 @@
     </row>
     <row r="43" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
-      <c r="B43" s="82">
+      <c r="B43" s="68">
         <v>43773</v>
       </c>
       <c r="F43" s="46" t="s">
@@ -12502,7 +12555,7 @@
     </row>
     <row r="45" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
-      <c r="B45" s="82">
+      <c r="B45" s="68">
         <v>43774</v>
       </c>
       <c r="F45" s="46" t="s">
@@ -12514,7 +12567,7 @@
     </row>
     <row r="46" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="56"/>
-      <c r="B46" s="82">
+      <c r="B46" s="68">
         <v>43774</v>
       </c>
       <c r="F46" s="46" t="s">
@@ -12526,7 +12579,7 @@
     </row>
     <row r="47" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="56"/>
-      <c r="B47" s="82">
+      <c r="B47" s="68">
         <v>43782</v>
       </c>
       <c r="F47" s="46" t="s">
@@ -12538,7 +12591,7 @@
     </row>
     <row r="48" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="56"/>
-      <c r="B48" s="99">
+      <c r="B48" s="92">
         <v>43772</v>
       </c>
       <c r="C48" s="75"/>
@@ -12553,7 +12606,7 @@
     </row>
     <row r="49" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="56"/>
-      <c r="B49" s="99">
+      <c r="B49" s="92">
         <v>43769</v>
       </c>
       <c r="C49" s="75"/>
@@ -12568,7 +12621,7 @@
     </row>
     <row r="50" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="56"/>
-      <c r="B50" s="99">
+      <c r="B50" s="92">
         <v>43769</v>
       </c>
       <c r="C50" s="75"/>
@@ -12585,7 +12638,7 @@
     </row>
     <row r="51" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
-      <c r="B51" s="99">
+      <c r="B51" s="92">
         <v>43767</v>
       </c>
       <c r="C51" s="75"/>
@@ -22912,7 +22965,9 @@
       <c r="C970" s="60"/>
       <c r="D970" s="60"/>
       <c r="E970" s="60"/>
-      <c r="F970" s="60"/>
+      <c r="F970" s="60" t="s">
+        <v>2689</v>
+      </c>
       <c r="G970" t="s">
         <v>1437</v>
       </c>
@@ -31290,10 +31345,18 @@
     <hyperlink ref="G30" r:id="rId637" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
     <hyperlink ref="G29" r:id="rId638" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
     <hyperlink ref="G28" r:id="rId639" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
+    <hyperlink ref="G27" r:id="rId640" xr:uid="{BDF76746-FDBF-44EE-A525-73B909EC9345}"/>
+    <hyperlink ref="G26" r:id="rId641" xr:uid="{3E017625-FCF1-4498-850D-541386E1AB24}"/>
+    <hyperlink ref="G25" r:id="rId642" xr:uid="{9A3F1B72-A7AC-4031-B61B-D0EB83B6E508}"/>
+    <hyperlink ref="G24" r:id="rId643" xr:uid="{63415624-457F-4E97-BFA3-73CCB3525134}"/>
+    <hyperlink ref="G23" r:id="rId644" xr:uid="{D427E119-4BE4-48B1-AE6A-14E352E8709F}"/>
+    <hyperlink ref="G22" r:id="rId645" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
+    <hyperlink ref="G21" r:id="rId646" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
+    <hyperlink ref="G20" r:id="rId647" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId640"/>
-  <drawing r:id="rId641"/>
+  <pageSetup orientation="portrait" r:id="rId648"/>
+  <drawing r:id="rId649"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F67C2-0FD2-4358-A43E-68A07EB01B36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C77D94-206B-4B75-A32F-EA6563008075}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10005" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2696">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8114,6 +8114,24 @@
   </si>
   <si>
     <t>Lets get this straight, Bitcoin is an experiment in self-organizing collective intelligence.</t>
+  </si>
+  <si>
+    <t>Debunking Bitcoin’s natural long-term power-law corridor of growth</t>
+  </si>
+  <si>
+    <t>https://medium.com/burgercrypto-com/debunking-bitcoins-natural-long-term-power-law-corridor-of-growth-c1f336e558f6</t>
+  </si>
+  <si>
+    <t>https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets</t>
+  </si>
+  <si>
+    <t>Bitcoin's Missionaries vs Wall Street's Mercenaries</t>
+  </si>
+  <si>
+    <t>https://medium.com/@LucasNuzzi/a-look-at-innovation-in-bitcoins-technology-stack-7edf877eab14</t>
+  </si>
+  <si>
+    <t>A Look at Innovation in Bitcoin’s Technology Stack</t>
   </si>
 </sst>
 </file>
@@ -11972,8 +11990,8 @@
   <dimension ref="A1:Y1869"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12131,34 +12149,51 @@
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="B14" s="74">
+        <v>43802</v>
+      </c>
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="56" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>2694</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="74">
+        <v>43802</v>
+      </c>
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="9" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>2692</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="74">
+        <v>43799</v>
+      </c>
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="F16" s="56" t="s">
+        <v>2690</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>2691</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
@@ -30693,16 +30728,16 @@
   <conditionalFormatting sqref="G51">
     <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1870:F1048576 F1651 F439 B562 F361:F363 F1690:F1693 F1587:F1589 F1600:F1602 F1606:F1612 F456:F467 F662:F664 F1262 G1282 F794:F799 F920:F922 F1164:F1171 F917 F52:F59 F48:F50 F1:F19 F169 F22 F40:F42 F44 F94:F112 F297 F315 F276:F295 F638:F639 F666:F668 F670:F674 F651:F655 F540 F535:F536 F531 F478 F513:F517 F490:F495 F525:F526 F616:F617 F619:F623 F614 F1383:F1384 F1509:F1512 F1532 F1551:F1553 F1558:F1560 F1555:F1556 F1344:F1349 F1369 F1354:F1363 F1352 F1226:F1227 F1229 F1242:F1244 F1423:F1428 F1294:F1304 F1307 F1309 F1400 F1196:F1197 F1207:F1211 F1065:F1070 F1072:F1073 F1152:F1157 F1159 F1175:F1177 F1203 F1173 F1138 F1132 F680:F708 F710:F715 F1008:F1022 F1033:F1045 F866:F867 F1516:F1518 F1525 F1101 F1117:F1129 F1103 F1094 F856:F863 B1795:B1817 B1821:B1869 B504 F1213 F1246:F1247 F1257 F745:F746 F743 F739:F741 F896:F900 F908:F913 F1222 F1432:F1438 F1441:F1458 F1527:F1528 F980 F1076 F966:F969 F1027 F827 F941 F505:F510 F559 F589 F563:F565 F751:F754 F758:F763 F803:F823 F756 F791 F772:F775 F869 F903:F904 F1047:F1055 F1062:F1063 F1080:F1088 F1183 F1627:F1629 F1695 F1705:F1733 F1742:F1749 F1751:F1760 F528:F529 F317:F359 F376:F379 F381:F422 F424:F426 F429 F436 F453 F717:F725 F497:F503 F480:F483 F556:F557 F568:F572 F583:F585 F163 F122 F124:F129 F601 F116:F120 F114 F1638:F1641 F1679:F1682 F1499:F1506 F603:F612 F1697:F1700 F1656:F1665 F1596:F1598 F1593 F1563:F1564 F1410:F1419 F1254:F1255 F1233:F1239 F962 F952:F956 F887:F890 F876:F885 F872:F873 F801 F628:F634 F594:F595 F591:F592 F369:F371 F1134:F1136 F1140:F1141 F1187:F1192 F365 F1057:F1059 F69:F73 F61:F67 F75:F91 F37:F38 F1762:F1775 F31:F32 F29 F24:F26 F34:F35">
+  <conditionalFormatting sqref="F1870:F1048576 F1651 F439 B562 F361:F363 F1690:F1693 F1587:F1589 F1600:F1602 F1606:F1612 F456:F467 F662:F664 F1262 G1282 F794:F799 F920:F922 F1164:F1171 F917 F52:F59 F48:F50 F1:F14 F169 F22 F40:F42 F44 F94:F112 F297 F315 F276:F295 F638:F639 F666:F668 F670:F674 F651:F655 F540 F535:F536 F531 F478 F513:F517 F490:F495 F525:F526 F616:F617 F619:F623 F614 F1383:F1384 F1509:F1512 F1532 F1551:F1553 F1558:F1560 F1555:F1556 F1344:F1349 F1369 F1354:F1363 F1352 F1226:F1227 F1229 F1242:F1244 F1423:F1428 F1294:F1304 F1307 F1309 F1400 F1196:F1197 F1207:F1211 F1065:F1070 F1072:F1073 F1152:F1157 F1159 F1175:F1177 F1203 F1173 F1138 F1132 F680:F708 F710:F715 F1008:F1022 F1033:F1045 F866:F867 F1516:F1518 F1525 F1101 F1117:F1129 F1103 F1094 F856:F863 B1795:B1817 B1821:B1869 B504 F1213 F1246:F1247 F1257 F745:F746 F743 F739:F741 F896:F900 F908:F913 F1222 F1432:F1438 F1441:F1458 F1527:F1528 F980 F1076 F966:F969 F1027 F827 F941 F505:F510 F559 F589 F563:F565 F751:F754 F758:F763 F803:F823 F756 F791 F772:F775 F869 F903:F904 F1047:F1055 F1062:F1063 F1080:F1088 F1183 F1627:F1629 F1695 F1705:F1733 F1742:F1749 F1751:F1760 F528:F529 F317:F359 F376:F379 F381:F422 F424:F426 F429 F436 F453 F717:F725 F497:F503 F480:F483 F556:F557 F568:F572 F583:F585 F163 F122 F124:F129 F601 F116:F120 F114 F1638:F1641 F1679:F1682 F1499:F1506 F603:F612 F1697:F1700 F1656:F1665 F1596:F1598 F1593 F1563:F1564 F1410:F1419 F1254:F1255 F1233:F1239 F962 F952:F956 F887:F890 F876:F885 F872:F873 F801 F628:F634 F594:F595 F591:F592 F369:F371 F1134:F1136 F1140:F1141 F1187:F1192 F365 F1057:F1059 F69:F73 F61:F67 F75:F91 F37:F38 F1762:F1775 F31:F32 F29 F24:F26 F34:F35 F16:F19">
     <cfRule type="duplicateValues" dxfId="41" priority="13779"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1651 G1705:G1048576 G1626:G1629 G1631:G1641 G1677:G1682 G445:G449 G710:G732 G52:G73 G48:G50 G1:G19 G22:G38 G40:G42 F39 G44 G94:G114 G133:G134 G136:G141 G146:G159 G310:G363 G429:G433 G436:G439 G214:G219 G535:G536 G489:G523 G453:G486 G525:G531 G540:G541 G559:G560 G538 G567:G572 G758:G763 G1026:G1030 G1216:G1222 G1224:G1229 G1375:G1381 G1469 G1473 G1585:G1589 G1619:G1623 G1600:G1602 G756 G533 H1180 G175:G204 G206:G207 G562:G565 G116:G131 G1697:G1703 G1690:G1695 G1684:G1688 G1656:G1665 G1605:G1617 G1596:G1598 G1593 G1563:G1564 G1545:G1560 G1542 G1516:G1537 G1490:G1512 G1423:G1462 G1410:G1421 G1383:G1401 G1338:G1371 G1324:G1336 G1307:G1313 G1320:G1321 G1291:G1304 G1271:G1283 G1250:G1269 G1233:G1247 G1195:G1214 G1183:G1192 G1164:G1180 G1148:G1162 G1112:G1141 G1100:G1109 G1080:G1098 G1062:G1077 G1033:G1059 G982:G1024 G980 G962:G971 G952:G956 G929:G941 G902:G925 G895:G900 G887:G893 G876:G885 G872:G873 G866:G869 G856:G864 G837:G853 G826:G834 G801:G823 G791:G799 G771:G787 G736:G754 G649:G708 G628:G647 G594:G601 G603:G623 G580:G589 G574 G591:G592 G551:G554 F550 G374:G379 G381:G426 G367:G371 G221:G305 G161 G163:G173 H102 G91 G556:G557 G75:G88">
+  <conditionalFormatting sqref="G1651 G1705:G1048576 G1626:G1629 G1631:G1641 G1677:G1682 G445:G449 G710:G732 G52:G73 G48:G50 G1:G12 G14:G19 G22:G38 G40:G42 F39 G44 G94:G114 G133:G134 G136:G141 G146:G159 G310:G363 G429:G433 G436:G439 G214:G219 G535:G536 G489:G523 G453:G486 G525:G531 G540:G541 G559:G560 G538 G567:G572 G758:G763 G1026:G1030 G1216:G1222 G1224:G1229 G1375:G1381 G1469 G1473 G1585:G1589 G1619:G1623 G1600:G1602 G756 G533 H1180 G175:G204 G206:G207 G562:G565 G116:G131 G1697:G1703 G1690:G1695 G1684:G1688 G1656:G1665 G1605:G1617 G1596:G1598 G1593 G1563:G1564 G1545:G1560 G1542 G1516:G1537 G1490:G1512 G1423:G1462 G1410:G1421 G1383:G1401 G1338:G1371 G1324:G1336 G1307:G1313 G1320:G1321 G1291:G1304 G1271:G1283 G1250:G1269 G1233:G1247 G1195:G1214 G1183:G1192 G1164:G1180 G1148:G1162 G1112:G1141 G1100:G1109 G1080:G1098 G1062:G1077 G1033:G1059 G982:G1024 G980 G962:G971 G952:G956 G929:G941 G902:G925 G895:G900 G887:G893 G876:G885 G872:G873 G866:G869 G856:G864 G837:G853 G826:G834 G801:G823 G791:G799 G771:G787 G736:G754 G649:G708 G628:G647 G594:G601 G603:G623 G580:G589 G574 G591:G592 G551:G554 F550 G374:G379 G381:G426 G367:G371 G221:G305 G161 G163:G173 H102 G91 G556:G557 G75:G88">
     <cfRule type="duplicateValues" dxfId="40" priority="13960"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1795:G1810 G1651 G1742:G1749 G439 G562:G565 G429 G362:G363 G1627:G1629 G1631:G1641 G1677:G1682 G1559:G1560 G456:G465 G662:G664 G1555 G1413:G1417 G1432:G1459 G1462 G1469 G1473 G1344:G1349 G1369 G1354:G1366 G1352 G1101 G1149:G1159 G1161 G920:G923 G917 G794:G799 G896:G900 G791 G52:G73 G48:G50 G1:G19 G169 G22:G38 G40:G42 F39 G44 G94:G114 G298:G302 G315 G276:G295 G743 G745 G540 G535:G536 G531 G478 G525:G526 G1307:G1311 G1283 G1207:G1213 G1242:G1247 G1072:G1076 G1062:G1066 G1068:G1070 G985:G986 G1034:G1043 G1118:G1126 G1131:G1141 G1509:G1512 G1383:G1390 G1254:G1255 G1257:G1259 G1262 G1264:G1266 G1523:G1528 G1531:G1536 G1542 G1547:G1553 G1494:G1500 G1419:G1421 G1200:G1205 G833:G834 G853 G1028 G1229 G1177 G1045 G966:G969 G1226:G1227 G727 G827:G828 G941 G1399 G1502:G1506 G1517 G666:G668 G670:G674 G676:G708 G710:G725 G864 G1054:G1056 G751:G754 G758:G763 G803:G823 G756 G640 G651 G653:G655 G615:G617 G619:G623 G529 G513:G517 G490:G495 G312:G313 G732 G772:G775 G839 G869 G903:G913 G935:G938 G971 G991:G1024 G1047:G1052 G1080:G1088 G1164:G1173 G1221:G1222 G1224 G1269 G1277:G1281 G1392:G1397 G1585 G1587:G1589 G1600:G1602 G1690:G1693 G1695 G1705:G1733 G1751:G1775 G1812:G1817 G1821:G1048576 G559 G589 G1686:G1687 G317:G360 G376:G379 G381:G422 G424:G426 G453 G497:G510 G480:G483 G556:G557 G567:G572 G538 G1180:H1180 G603:G612 G580:G585 G574 G601 G116:G129 G163 G1697:G1700 G1656:G1665 G1605:G1612 G1596:G1598 G1593 G1563:G1564 G1545 G1490:G1492 G1423:G1428 G1292:G1304 G1271:G1274 G1250 G1233:G1239 G1195:G1198 G1183:G1192 G982:G983 G980 G962 G952:G956 G887:G890 G876:G885 G872:G873 G866:G867 G856:G861 G837 G736:G741 G628:G634 G594:G595 G591:G592 G369:G371 H102 G91 G75:G88">
+  <conditionalFormatting sqref="G1795:G1810 G1651 G1742:G1749 G439 G562:G565 G429 G362:G363 G1627:G1629 G1631:G1641 G1677:G1682 G1559:G1560 G456:G465 G662:G664 G1555 G1413:G1417 G1432:G1459 G1462 G1469 G1473 G1344:G1349 G1369 G1354:G1366 G1352 G1101 G1149:G1159 G1161 G920:G923 G917 G794:G799 G896:G900 G791 G52:G73 G48:G50 G1:G12 G14:G19 G169 G22:G38 G40:G42 F39 G44 G94:G114 G298:G302 G315 G276:G295 G743 G745 G540 G535:G536 G531 G478 G525:G526 G1307:G1311 G1283 G1207:G1213 G1242:G1247 G1072:G1076 G1062:G1066 G1068:G1070 G985:G986 G1034:G1043 G1118:G1126 G1131:G1141 G1509:G1512 G1383:G1390 G1254:G1255 G1257:G1259 G1262 G1264:G1266 G1523:G1528 G1531:G1536 G1542 G1547:G1553 G1494:G1500 G1419:G1421 G1200:G1205 G833:G834 G853 G1028 G1229 G1177 G1045 G966:G969 G1226:G1227 G727 G827:G828 G941 G1399 G1502:G1506 G1517 G666:G668 G670:G674 G676:G708 G710:G725 G864 G1054:G1056 G751:G754 G758:G763 G803:G823 G756 G640 G651 G653:G655 G615:G617 G619:G623 G529 G513:G517 G490:G495 G312:G313 G732 G772:G775 G839 G869 G903:G913 G935:G938 G971 G991:G1024 G1047:G1052 G1080:G1088 G1164:G1173 G1221:G1222 G1224 G1269 G1277:G1281 G1392:G1397 G1585 G1587:G1589 G1600:G1602 G1690:G1693 G1695 G1705:G1733 G1751:G1775 G1812:G1817 G1821:G1048576 G559 G589 G1686:G1687 G317:G360 G376:G379 G381:G422 G424:G426 G453 G497:G510 G480:G483 G556:G557 G567:G572 G538 G1180:H1180 G603:G612 G580:G585 G574 G601 G116:G129 G163 G1697:G1700 G1656:G1665 G1605:G1612 G1596:G1598 G1593 G1563:G1564 G1545 G1490:G1492 G1423:G1428 G1292:G1304 G1271:G1274 G1250 G1233:G1239 G1195:G1198 G1183:G1192 G982:G983 G980 G962 G952:G956 G887:G890 G876:G885 G872:G873 G866:G867 G856:G861 G837 G736:G741 G628:G634 G594:G595 G591:G592 G369:G371 H102 G91 G75:G88">
     <cfRule type="duplicateValues" dxfId="39" priority="14077"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1111:G1048576 G551:G554 F550 G52:G73 G48:G50 G1:G19 G94:G549 G22:G38 G40:G42 F39 G44 G91 G556:G1109 G75:G88">
+  <conditionalFormatting sqref="G1111:G1048576 G551:G554 F550 G52:G73 G48:G50 G1:G12 G14:G19 G94:G549 G22:G38 G40:G42 F39 G44 G91 G556:G1109 G75:G88">
     <cfRule type="duplicateValues" dxfId="38" priority="14262"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -31353,10 +31388,12 @@
     <hyperlink ref="G22" r:id="rId645" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
     <hyperlink ref="G21" r:id="rId646" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
     <hyperlink ref="G20" r:id="rId647" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
+    <hyperlink ref="G16" r:id="rId648" xr:uid="{336AD68E-287A-41A9-892B-C7A7EC2F3875}"/>
+    <hyperlink ref="F15" r:id="rId649" display="https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets" xr:uid="{5AEA4BED-B8F9-4ED9-BCE6-B7AD163E0E25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId648"/>
-  <drawing r:id="rId649"/>
+  <pageSetup orientation="portrait" r:id="rId650"/>
+  <drawing r:id="rId651"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Crypto Words\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C77D94-206B-4B75-A32F-EA6563008075}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1AAEB-D70A-4B35-AA61-405EEE328CE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="5076" yWindow="2988" windowWidth="18888" windowHeight="15516" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -11991,7 +11991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA7ABC1-4585-441A-87AD-C3B660F9C489}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418EC6B6-D2AE-47DA-B549-36152DC21BE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -11982,8 +11982,8 @@
   <dimension ref="A1:Y1867"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T359" sqref="T359"/>
+      <pane ySplit="3" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F375" sqref="F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17015,7 +17015,7 @@
     </row>
     <row r="376" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="36"/>
-      <c r="B376" s="94">
+      <c r="B376" s="31">
         <v>43537</v>
       </c>
       <c r="C376" s="45" t="s">
@@ -17032,8 +17032,8 @@
     </row>
     <row r="377" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="36"/>
-      <c r="B377" s="94">
-        <v>43549</v>
+      <c r="B377" s="31">
+        <v>43580</v>
       </c>
       <c r="C377" s="45" t="s">
         <v>46</v>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F041E-57F0-4189-ACBA-F1819BC451E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B7E17-3121-4A3B-A0D0-A20F536FAAB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="6630" windowWidth="23190" windowHeight="12585" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-23610" yWindow="10485" windowWidth="23190" windowHeight="12585" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="2739">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8258,6 +8258,9 @@
   </si>
   <si>
     <t>Could Bitcoin's privacy benefit from Litecoin's EB MimbleWimble proposal?</t>
+  </si>
+  <si>
+    <t>https://medium.com/the-bitcoin-times/bitcoins-eternal-struggle-2c197f1bafd8</t>
   </si>
 </sst>
 </file>
@@ -8574,7 +8577,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8738,6 +8741,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -12129,9 +12133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12392,11 +12396,11 @@
       <c r="E21" s="56" t="s">
         <v>2733</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="47" t="s">
         <v>2728</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>2726</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -12480,7 +12484,7 @@
       <c r="C27" s="75"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="107" t="s">
         <v>2712</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -12493,7 +12497,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="107" t="s">
         <v>2710</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -12506,7 +12510,7 @@
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="107" t="s">
         <v>2708</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -12519,7 +12523,7 @@
       <c r="C30" s="75"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="107" t="s">
         <v>2706</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -12532,7 +12536,7 @@
       <c r="C31" s="75"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="107" t="s">
         <v>2704</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -31888,9 +31892,9 @@
     <hyperlink ref="G24" r:id="rId675" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
     <hyperlink ref="G23" r:id="rId676" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
     <hyperlink ref="G22" r:id="rId677" xr:uid="{81D0B50B-4CBE-4F1A-A38E-70BDFA45FFC3}"/>
-    <hyperlink ref="G17:G21" r:id="rId678" display="https://drive.google.com/drive/folders/1F2Bgp5rIcjhOoIB0otnJxzqucpgvQz1Q" xr:uid="{11756C8D-DEA2-404B-99E4-C7E2F12DFDF7}"/>
-    <hyperlink ref="G38" r:id="rId679" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
-    <hyperlink ref="G16" r:id="rId680" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
+    <hyperlink ref="G38" r:id="rId678" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
+    <hyperlink ref="G16" r:id="rId679" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
+    <hyperlink ref="G21" r:id="rId680" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId681"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cryptowords.github.io\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6969903-C64E-44CB-95D2-65C3FB848350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C45AC0-1B18-446A-B2F6-E37CA5DED3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="2739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="2742">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8261,6 +8261,15 @@
   </si>
   <si>
     <t>https://medium.com/the-bitcoin-times/bitcoins-eternal-struggle-2c197f1bafd8</t>
+  </si>
+  <si>
+    <t>https://medium.com/the-bitcoin-times/the-cat-is-out-of-the-bag-fc1344c46bc1</t>
+  </si>
+  <si>
+    <t>https://medium.com/the-bitcoin-times/information-theory-of-money-36247aebdfe1</t>
+  </si>
+  <si>
+    <t>https://medium.com/the-bitcoin-times/proof-of-work-the-fundamental-laws-of-physics-and-nature-33d95167c57a</t>
   </si>
 </sst>
 </file>
@@ -12135,8 +12144,8 @@
   <dimension ref="A1:Y1892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12356,7 +12365,7 @@
         <v>2731</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>2726</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -12371,7 +12380,7 @@
         <v>2730</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>2726</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -12416,7 +12425,7 @@
         <v>2727</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>2726</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -31892,14 +31901,13 @@
     <hyperlink ref="G25" r:id="rId674" xr:uid="{B1B3C0B6-F7FF-417B-91F4-90B38EA4A0EC}"/>
     <hyperlink ref="G24" r:id="rId675" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
     <hyperlink ref="G23" r:id="rId676" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
-    <hyperlink ref="G22" r:id="rId677" xr:uid="{81D0B50B-4CBE-4F1A-A38E-70BDFA45FFC3}"/>
-    <hyperlink ref="G38" r:id="rId678" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
-    <hyperlink ref="G16" r:id="rId679" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
-    <hyperlink ref="G21" r:id="rId680" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
+    <hyperlink ref="G38" r:id="rId677" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
+    <hyperlink ref="G16" r:id="rId678" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
+    <hyperlink ref="G21" r:id="rId679" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId681"/>
-  <drawing r:id="rId682"/>
+  <pageSetup orientation="portrait" r:id="rId680"/>
+  <drawing r:id="rId681"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cryptowords.github.io\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C45AC0-1B18-446A-B2F6-E37CA5DED3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8BE28-8F2A-4B59-8372-78BDBC0A1598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -8586,7 +8586,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8752,6 +8752,9 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -12144,8 +12147,8 @@
   <dimension ref="A1:Y1892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12632,7 +12635,7 @@
       <c r="C37" s="75"/>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="108" t="s">
         <v>2697</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -12647,7 +12650,7 @@
       <c r="C38" s="75"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="108" t="s">
         <v>2735</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -12662,10 +12665,10 @@
       <c r="C39" s="75"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="108" t="s">
         <v>2690</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="55" t="s">
         <v>2689</v>
       </c>
     </row>
@@ -12677,10 +12680,10 @@
       <c r="C40" s="75"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="109" t="s">
         <v>2688</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="55" t="s">
         <v>2687</v>
       </c>
     </row>
@@ -12692,7 +12695,7 @@
       <c r="C41" s="75"/>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="108" t="s">
         <v>2685</v>
       </c>
       <c r="G41" s="55" t="s">
@@ -31904,10 +31907,12 @@
     <hyperlink ref="G38" r:id="rId677" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
     <hyperlink ref="G16" r:id="rId678" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
     <hyperlink ref="G21" r:id="rId679" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
+    <hyperlink ref="G40" r:id="rId680" xr:uid="{5BD8B767-E55B-4DE1-8EB1-A809B6B3C2C8}"/>
+    <hyperlink ref="G39" r:id="rId681" xr:uid="{7DE6CFA3-7232-4268-B4B8-371DB50F73B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId680"/>
-  <drawing r:id="rId681"/>
+  <pageSetup orientation="portrait" r:id="rId682"/>
+  <drawing r:id="rId683"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cryptowords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF0DC4-2882-4C1F-829B-C100F5BC7BDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DDFB1-B4EC-4AE4-BE58-F6392588CEC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="6600" windowWidth="23190" windowHeight="12585" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="35160" yWindow="7080" windowWidth="17280" windowHeight="12585" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -8772,11 +8772,11 @@
     <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -12170,7 +12170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12329,7 +12329,7 @@
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="109" t="s">
         <v>2747</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -12344,7 +12344,7 @@
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="109" t="s">
         <v>2743</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -12359,7 +12359,7 @@
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="109" t="s">
         <v>2742</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -12374,7 +12374,7 @@
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="109" t="s">
         <v>2736</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -12389,7 +12389,7 @@
       <c r="E17" s="56" t="s">
         <v>2732</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="6" t="s">
         <v>2731</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -12404,7 +12404,7 @@
       <c r="E18" s="56" t="s">
         <v>2732</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="6" t="s">
         <v>2730</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -12419,7 +12419,7 @@
       <c r="E19" s="56" t="s">
         <v>2732</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="6" t="s">
         <v>2729</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -12434,7 +12434,7 @@
       <c r="E20" s="56" t="s">
         <v>2732</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="6" t="s">
         <v>2727</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -12449,7 +12449,7 @@
       <c r="E21" s="56" t="s">
         <v>2732</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="6" t="s">
         <v>2726</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -12464,7 +12464,7 @@
       <c r="C22" s="75"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
-      <c r="F22" s="110" t="s">
+      <c r="F22" s="108" t="s">
         <v>2724</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -12479,7 +12479,7 @@
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="109" t="s">
         <v>2722</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -12494,7 +12494,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="109" t="s">
         <v>2721</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -12509,7 +12509,7 @@
       <c r="C25" s="75"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="109" t="s">
         <v>2715</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -12606,7 +12606,7 @@
       <c r="C32" s="75"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="109" t="s">
         <v>2717</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -12621,7 +12621,7 @@
       <c r="C33" s="75"/>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="109" t="s">
         <v>2693</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -12651,7 +12651,7 @@
       <c r="C35" s="75"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="109" t="s">
         <v>2698</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -12666,7 +12666,7 @@
       <c r="C36" s="75"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="109" t="s">
         <v>2697</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -12681,7 +12681,7 @@
       <c r="C37" s="75"/>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="109" t="s">
         <v>2734</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -12696,7 +12696,7 @@
       <c r="C38" s="75"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="108" t="s">
+      <c r="F38" s="109" t="s">
         <v>2690</v>
       </c>
       <c r="G38" s="55" t="s">
@@ -12711,7 +12711,7 @@
       <c r="C39" s="75"/>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
-      <c r="F39" s="109" t="s">
+      <c r="F39" s="110" t="s">
         <v>2688</v>
       </c>
       <c r="G39" s="55" t="s">
@@ -12726,7 +12726,7 @@
       <c r="C40" s="75"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="109" t="s">
         <v>2685</v>
       </c>
       <c r="G40" s="55" t="s">
@@ -12741,7 +12741,7 @@
       <c r="C41" s="75"/>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="108" t="s">
+      <c r="F41" s="109" t="s">
         <v>2695</v>
       </c>
       <c r="G41" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBBAA6-2237-40B9-82FF-B4CB8DE0470A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7D12CB-5487-4ACF-9E2A-F6199E4EFB0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24765" yWindow="10950" windowWidth="21735" windowHeight="9225" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="2770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="2773">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8354,6 +8354,15 @@
   </si>
   <si>
     <t>https://medium.com/@tamas.blummer/bitcoins-storage-cost-38f17f46e782</t>
+  </si>
+  <si>
+    <t>Bitcoin’s increasing price resistance uphill, short- and long-term</t>
+  </si>
+  <si>
+    <t>https://medium.com/coinmonks/bitcoins-increasing-price-resistance-uphill-short-and-long-term-36ab6f74e61a</t>
+  </si>
+  <si>
+    <t>add to financial</t>
   </si>
 </sst>
 </file>
@@ -12233,8 +12242,8 @@
   <dimension ref="A1:Y1914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F645" sqref="F645"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12332,13 +12341,21 @@
       <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="101" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B7" s="74">
+        <v>43829</v>
+      </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2771</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
@@ -31454,23 +31471,23 @@
   <conditionalFormatting sqref="F619">
     <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1156:G1048576 G596:G599 F595 G76:G95 G72:G74 G1:G12 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G601:G623 G100:G112 G42:G43 G122:G233 G626:G1154 G501:G517 G408:G413 G416:G498 G235:G236 G523:G594 G354:G398 G246:G351 G238:G244">
+  <conditionalFormatting sqref="G1156:G1048576 G596:G599 F595 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G601:G623 G100:G112 G42:G43 G122:G233 G626:G1154 G501:G517 G408:G413 G416:G498 G235:G236 G523:G594 G354:G398 G246:G351 G238:G244">
     <cfRule type="duplicateValues" dxfId="43" priority="14630"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1696 G1750:G1048576 G1671:G1674 G1676:G1686 G1722:G1727 G482:G486 G755:G777 G76:G95 G72:G74 G1:G12 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G344 G467:G470 G473:G476 G238:G243 G580:G581 G534:G568 G501:G517 G490:G498 G570:G576 G585:G586 G604:G605 G583 G612:G617 G803:G808 G1071:G1075 G1261:G1267 G1269:G1274 G1420:G1426 G1514 G1518 G1630:G1634 G1664:G1668 G1645:G1647 G801 G578 H1225 G199:G228 G230:G231 G607:G610 G140:G155 G1742:G1748 G1735:G1740 G1729:G1733 G1701:G1710 G1650:G1662 G1641:G1643 G1638 G1608:G1609 G1590:G1605 G1587 G1561:G1582 G1535:G1557 G1468:G1507 G1455:G1466 G1428:G1446 G1383:G1416 G1369:G1381 G1352:G1358 G1365:G1366 G1336:G1349 G1316:G1328 G1295:G1314 G1278:G1292 G1240:G1259 G1228:G1237 G1209:G1225 G1193:G1207 G1157:G1186 G1145:G1154 G1125:G1143 G1107:G1122 G1078:G1104 G1027:G1069 G1025 G1007:G1016 G997:G1001 G974:G986 G947:G970 G940:G945 G932:G938 G921:G930 G917:G918 G911:G914 G901:G909 G882:G898 G871:G879 G846:G868 G836:G844 G816:G832 G781:G799 G694:G753 G673:G692 G639:G646 G648:G668 G626:G634 G619 G636:G637 G596:G599 F595 G412:G413 G416:G417 G419:G464 G408:G410 G348:G351 G246:G329 G185 G187:G197 H126 G115 G601:G602 G100:G112 G42:G43 G122:G138 G523:G531 G354:G398">
+  <conditionalFormatting sqref="G1696 G1750:G1048576 G1671:G1674 G1676:G1686 G1722:G1727 G482:G486 G755:G777 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G344 G467:G470 G473:G476 G238:G243 G580:G581 G534:G568 G501:G517 G490:G498 G570:G576 G585:G586 G604:G605 G583 G612:G617 G803:G808 G1071:G1075 G1261:G1267 G1269:G1274 G1420:G1426 G1514 G1518 G1630:G1634 G1664:G1668 G1645:G1647 G801 G578 H1225 G199:G228 G230:G231 G607:G610 G140:G155 G1742:G1748 G1735:G1740 G1729:G1733 G1701:G1710 G1650:G1662 G1641:G1643 G1638 G1608:G1609 G1590:G1605 G1587 G1561:G1582 G1535:G1557 G1468:G1507 G1455:G1466 G1428:G1446 G1383:G1416 G1369:G1381 G1352:G1358 G1365:G1366 G1336:G1349 G1316:G1328 G1295:G1314 G1278:G1292 G1240:G1259 G1228:G1237 G1209:G1225 G1193:G1207 G1157:G1186 G1145:G1154 G1125:G1143 G1107:G1122 G1078:G1104 G1027:G1069 G1025 G1007:G1016 G997:G1001 G974:G986 G947:G970 G940:G945 G932:G938 G921:G930 G917:G918 G911:G914 G901:G909 G882:G898 G871:G879 G846:G868 G836:G844 G816:G832 G781:G799 G694:G753 G673:G692 G639:G646 G648:G668 G626:G634 G619 G636:G637 G596:G599 F595 G412:G413 G416:G417 G419:G464 G408:G410 G348:G351 G246:G329 G185 G187:G197 H126 G115 G601:G602 G100:G112 G42:G43 G122:G138 G523:G531 G354:G398">
     <cfRule type="duplicateValues" dxfId="42" priority="15010"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1840:G1855 G343:G344 G1696 G1787:G1794 G476 G607:G610 G467 G1672:G1674 G1676:G1686 G1722:G1727 G1604:G1605 G504:G513 G707:G709 G1600 G1458:G1462 G1477:G1504 G1507 G1514 G1518 G1389:G1394 G1414 G1399:G1411 G1397 G1146 G1194:G1204 G1206 G965:G968 G962 G839:G844 G941:G945 G836 G76:G95 G72:G74 G1:G12 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G355 G300:G319 G788 G790 G585 G580:G581 G576 G523 G570:G571 G1352:G1356 G1328 G1252:G1258 G1287:G1292 G1117:G1121 G1107:G1111 G1113:G1115 G1030:G1031 G1079:G1088 G1163:G1171 G1176:G1186 G1554:G1557 G1428:G1435 G1299:G1300 G1302:G1304 G1307 G1309:G1311 G1568:G1573 G1576:G1581 G1587 G1592:G1598 G1539:G1545 G1464:G1466 G1245:G1250 G878:G879 G898 G1073 G1274 G1222 G1090 G1011:G1014 G1271:G1272 G772 G872:G873 G986 G1444 G1547:G1551 G1562 G711:G713 G715:G719 G721:G753 G755:G770 G909 G1099:G1101 G796:G799 G803:G808 G848:G868 G801 G685 G696 G698:G700 G660:G662 G664:G668 G574 G558:G562 G535:G540 G336:G337 G777 G817:G820 G884 G914 G948:G958 G980:G983 G1016 G1036:G1069 G1092:G1097 G1125:G1133 G1209:G1218 G1266:G1267 G1269 G1314 G1322:G1326 G1437:G1442 G1630 G1632:G1634 G1645:G1647 G1735:G1738 G1740 G1750:G1778 G1796:G1820 G1857:G1862 G1866:G1048576 G604 G634 G1731:G1732 G357:G398 G339:G341 G416:G417 G350:G351 G419:G460 G462:G464 G490 G542:G555 G525:G528 G601:G602 G612:G617 G583 G1225:H1225 G648:G657 G626:G630 G619 G646 G140:G153 G187 G1742:G1745 G1701:G1710 G1650:G1657 G1641:G1643 G1638 G1608:G1609 G1590 G1535:G1537 G1468:G1473 G1337:G1349 G1316:G1319 G1295 G1278:G1284 G1240:G1243 G1228:G1237 G1027:G1028 G1025 G1007 G997:G1001 G932:G935 G921:G930 G917:G918 G911:G912 G901:G906 G882 G781:G786 G673:G679 G639:G640 G636:G637 G408:G410 H126 G115 G100:G112 G42:G43 G122:G138">
+  <conditionalFormatting sqref="G1840:G1855 G343:G344 G1696 G1787:G1794 G476 G607:G610 G467 G1672:G1674 G1676:G1686 G1722:G1727 G1604:G1605 G504:G513 G707:G709 G1600 G1458:G1462 G1477:G1504 G1507 G1514 G1518 G1389:G1394 G1414 G1399:G1411 G1397 G1146 G1194:G1204 G1206 G965:G968 G962 G839:G844 G941:G945 G836 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G355 G300:G319 G788 G790 G585 G580:G581 G576 G523 G570:G571 G1352:G1356 G1328 G1252:G1258 G1287:G1292 G1117:G1121 G1107:G1111 G1113:G1115 G1030:G1031 G1079:G1088 G1163:G1171 G1176:G1186 G1554:G1557 G1428:G1435 G1299:G1300 G1302:G1304 G1307 G1309:G1311 G1568:G1573 G1576:G1581 G1587 G1592:G1598 G1539:G1545 G1464:G1466 G1245:G1250 G878:G879 G898 G1073 G1274 G1222 G1090 G1011:G1014 G1271:G1272 G772 G872:G873 G986 G1444 G1547:G1551 G1562 G711:G713 G715:G719 G721:G753 G755:G770 G909 G1099:G1101 G796:G799 G803:G808 G848:G868 G801 G685 G696 G698:G700 G660:G662 G664:G668 G574 G558:G562 G535:G540 G336:G337 G777 G817:G820 G884 G914 G948:G958 G980:G983 G1016 G1036:G1069 G1092:G1097 G1125:G1133 G1209:G1218 G1266:G1267 G1269 G1314 G1322:G1326 G1437:G1442 G1630 G1632:G1634 G1645:G1647 G1735:G1738 G1740 G1750:G1778 G1796:G1820 G1857:G1862 G1866:G1048576 G604 G634 G1731:G1732 G357:G398 G339:G341 G416:G417 G350:G351 G419:G460 G462:G464 G490 G542:G555 G525:G528 G601:G602 G612:G617 G583 G1225:H1225 G648:G657 G626:G630 G619 G646 G140:G153 G187 G1742:G1745 G1701:G1710 G1650:G1657 G1641:G1643 G1638 G1608:G1609 G1590 G1535:G1537 G1468:G1473 G1337:G1349 G1316:G1319 G1295 G1278:G1284 G1240:G1243 G1228:G1237 G1027:G1028 G1025 G1007 G997:G1001 G932:G935 G921:G930 G917:G918 G911:G912 G901:G906 G882 G781:G786 G673:G679 G639:G640 G636:G637 G408:G410 H126 G115 G100:G112 G42:G43 G122:G138">
     <cfRule type="duplicateValues" dxfId="41" priority="15015"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1915:F1048576 F342:F344 F1696 F476 B607 F1735:F1738 F1632:F1634 F1645:F1647 F1651:F1657 F504:F515 F707:F709 F1307 G1327 F839:F844 F965:F967 F1209:F1216 F962 F76:F83 F72:F74 F1:F16 F193 F46 F64:F66 F68 F118:F120 F321 F339:F340 F355 F300:F319 F683:F684 F711:F713 F715:F719 F696:F700 F585 F580:F581 F576 F523 F558:F562 F535:F540 F570:F571 F661:F662 F664:F668 F659 F1428:F1429 F1554:F1557 F1577 F1596:F1598 F1603:F1605 F1600:F1601 F1389:F1394 F1414 F1399:F1408 F1397 F1271:F1272 F1274 F1287:F1289 F1468:F1473 F1339:F1349 F1352 F1354 F1445 F1241:F1242 F1252:F1256 F1110:F1115 F1117:F1118 F1197:F1202 F1204 F1220:F1222 F1248 F1218 F1183 F1177 F725:F753 F755:F760 F1053:F1067 F1078:F1090 F911:F912 F1561:F1563 F1570 F1146 F1162:F1174 F1148 F1139 F901:F908 B1840:B1862 B1866:B1914 B549 F1258 F1291:F1292 F1302 F790:F791 F788 F784:F786 F941:F945 F953:F958 F1267 F1477:F1483 F1486:F1503 F1572:F1573 F1025 F1121 F1011:F1014 F1072 F872 F986 F550:F555 F604 F634 F608:F610 F796:F799 F803:F808 F848:F868 F801 F836 F817:F820 F914 F948:F949 F1092:F1100 F1107:F1108 F1125:F1133 F1228 F1672:F1674 F1740 F1750:F1778 F1787:F1794 F1796:F1805 F573:F574 F357:F398 F416:F417 F350:F351 F419:F460 F462:F464 F467 F473 F490 F762:F770 F542:F548 F525:F528 F601:F602 F613:F617 F628:F630 F187 F146 F148:F153 F646 F140:F144 F138 F1683:F1686 F1724:F1727 F1544:F1551 F648:F657 F1742:F1745 F1701:F1710 F1641:F1643 F1638 F1608:F1609 F1455:F1464 F1299:F1300 F1278:F1284 F1007 F997:F1001 F932:F935 F921:F930 F917:F918 F846 F673:F679 F639:F640 F636:F637 F408:F410 F1179:F1181 F1185:F1186 F1232:F1237 F346 F1102:F1104 F93:F95 F97 F85:F91 F99:F115 F61:F62 F1807:F1820 F55:F56 F53 F48:F50 F58:F59 F40:F43 F32:F36 F122:F136 F22:F30 F38">
+  <conditionalFormatting sqref="F1915:F1048576 F342:F344 F1696 F476 B607 F1735:F1738 F1632:F1634 F1645:F1647 F1651:F1657 F504:F515 F707:F709 F1307 G1327 F839:F844 F965:F967 F1209:F1216 F962 F76:F83 F72:F74 F1:F6 F8:F16 F193 F46 F64:F66 F68 F118:F120 F321 F339:F340 F355 F300:F319 F683:F684 F711:F713 F715:F719 F696:F700 F585 F580:F581 F576 F523 F558:F562 F535:F540 F570:F571 F661:F662 F664:F668 F659 F1428:F1429 F1554:F1557 F1577 F1596:F1598 F1603:F1605 F1600:F1601 F1389:F1394 F1414 F1399:F1408 F1397 F1271:F1272 F1274 F1287:F1289 F1468:F1473 F1339:F1349 F1352 F1354 F1445 F1241:F1242 F1252:F1256 F1110:F1115 F1117:F1118 F1197:F1202 F1204 F1220:F1222 F1248 F1218 F1183 F1177 F725:F753 F755:F760 F1053:F1067 F1078:F1090 F911:F912 F1561:F1563 F1570 F1146 F1162:F1174 F1148 F1139 F901:F908 B1840:B1862 B1866:B1914 B549 F1258 F1291:F1292 F1302 F790:F791 F788 F784:F786 F941:F945 F953:F958 F1267 F1477:F1483 F1486:F1503 F1572:F1573 F1025 F1121 F1011:F1014 F1072 F872 F986 F550:F555 F604 F634 F608:F610 F796:F799 F803:F808 F848:F868 F801 F836 F817:F820 F914 F948:F949 F1092:F1100 F1107:F1108 F1125:F1133 F1228 F1672:F1674 F1740 F1750:F1778 F1787:F1794 F1796:F1805 F573:F574 F357:F398 F416:F417 F350:F351 F419:F460 F462:F464 F467 F473 F490 F762:F770 F542:F548 F525:F528 F601:F602 F613:F617 F628:F630 F187 F146 F148:F153 F646 F140:F144 F138 F1683:F1686 F1724:F1727 F1544:F1551 F648:F657 F1742:F1745 F1701:F1710 F1641:F1643 F1638 F1608:F1609 F1455:F1464 F1299:F1300 F1278:F1284 F1007 F997:F1001 F932:F935 F921:F930 F917:F918 F846 F673:F679 F639:F640 F636:F637 F408:F410 F1179:F1181 F1185:F1186 F1232:F1237 F346 F1102:F1104 F93:F95 F97 F85:F91 F99:F115 F61:F62 F1807:F1820 F55:F56 F53 F48:F50 F58:F59 F40:F43 F32:F36 F122:F136 F22:F30 F38">
     <cfRule type="duplicateValues" dxfId="40" priority="15210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G468:G470">
-    <cfRule type="duplicateValues" dxfId="1" priority="15259"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="15259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B468:F470">
-    <cfRule type="duplicateValues" dxfId="0" priority="15260"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="15260"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1818" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -32175,10 +32192,11 @@
     <hyperlink ref="G98" r:id="rId700" xr:uid="{9C3AB0F0-34DC-4574-A55C-B7F545DFD135}"/>
     <hyperlink ref="G99" r:id="rId701" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
     <hyperlink ref="G637" r:id="rId702" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
+    <hyperlink ref="G7" r:id="rId703" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId703"/>
-  <drawing r:id="rId704"/>
+  <pageSetup orientation="portrait" r:id="rId704"/>
+  <drawing r:id="rId705"/>
 </worksheet>
 </file>
 
@@ -35132,25 +35150,25 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E177:F1048576 E1:F3 F4:F43 F45:F141 F143:F174 F176">
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E96 E177:E1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E148">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E174">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:F175">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" xr:uid="{0E2C5374-AC71-44BB-B699-D388328F7EE0}"/>
@@ -37434,80 +37452,80 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G52">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F52">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G83">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F83">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F106">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G106">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F122 F124">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F151">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F141">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F152">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" xr:uid="{D2498515-12E3-4313-8BEB-4779B44A87F1}"/>
@@ -37687,27 +37705,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 F7">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{C20CE396-70CC-4013-91C5-39B81FBF07EF}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7D12CB-5487-4ACF-9E2A-F6199E4EFB0F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6B73B-D1DF-4018-81DA-CB1588EF8251}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="2775">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8363,6 +8363,12 @@
   </si>
   <si>
     <t>add to financial</t>
+  </si>
+  <si>
+    <t>https://opaque.link/post/dropgang/</t>
+  </si>
+  <si>
+    <t>dropgangs, or the future of darknet markets</t>
   </si>
 </sst>
 </file>
@@ -12242,8 +12248,8 @@
   <dimension ref="A1:Y1914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="3" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12359,12 +12365,6 @@
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
@@ -18477,11 +18477,18 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
-      <c r="B470" s="60"/>
-      <c r="C470" s="60"/>
-      <c r="D470" s="60"/>
-      <c r="E470" s="60"/>
-      <c r="F470" s="60"/>
+      <c r="B470" s="74">
+        <v>43460</v>
+      </c>
+      <c r="C470" s="75"/>
+      <c r="D470" s="56"/>
+      <c r="E470" s="56"/>
+      <c r="F470" s="56" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>2773</v>
+      </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B473" s="41">
@@ -31471,22 +31478,22 @@
   <conditionalFormatting sqref="F619">
     <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1156:G1048576 G596:G599 F595 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G601:G623 G100:G112 G42:G43 G122:G233 G626:G1154 G501:G517 G408:G413 G416:G498 G235:G236 G523:G594 G354:G398 G246:G351 G238:G244">
+  <conditionalFormatting sqref="G1156:G1048576 G596:G599 F595 G76:G95 G72:G74 G1:G6 G9:G12 F7 G38:G40 G118:G120 G46:G62 G64:G66 F63 G68 G115 G601:G623 G100:G112 G42:G43 G122:G233 G626:G1154 G501:G517 G408:G413 G416:G469 G471:G498 G235:G236 G523:G594 G354:G398 G246:G351 G238:G244">
     <cfRule type="duplicateValues" dxfId="43" priority="14630"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1696 G1750:G1048576 G1671:G1674 G1676:G1686 G1722:G1727 G482:G486 G755:G777 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G344 G467:G470 G473:G476 G238:G243 G580:G581 G534:G568 G501:G517 G490:G498 G570:G576 G585:G586 G604:G605 G583 G612:G617 G803:G808 G1071:G1075 G1261:G1267 G1269:G1274 G1420:G1426 G1514 G1518 G1630:G1634 G1664:G1668 G1645:G1647 G801 G578 H1225 G199:G228 G230:G231 G607:G610 G140:G155 G1742:G1748 G1735:G1740 G1729:G1733 G1701:G1710 G1650:G1662 G1641:G1643 G1638 G1608:G1609 G1590:G1605 G1587 G1561:G1582 G1535:G1557 G1468:G1507 G1455:G1466 G1428:G1446 G1383:G1416 G1369:G1381 G1352:G1358 G1365:G1366 G1336:G1349 G1316:G1328 G1295:G1314 G1278:G1292 G1240:G1259 G1228:G1237 G1209:G1225 G1193:G1207 G1157:G1186 G1145:G1154 G1125:G1143 G1107:G1122 G1078:G1104 G1027:G1069 G1025 G1007:G1016 G997:G1001 G974:G986 G947:G970 G940:G945 G932:G938 G921:G930 G917:G918 G911:G914 G901:G909 G882:G898 G871:G879 G846:G868 G836:G844 G816:G832 G781:G799 G694:G753 G673:G692 G639:G646 G648:G668 G626:G634 G619 G636:G637 G596:G599 F595 G412:G413 G416:G417 G419:G464 G408:G410 G348:G351 G246:G329 G185 G187:G197 H126 G115 G601:G602 G100:G112 G42:G43 G122:G138 G523:G531 G354:G398">
+  <conditionalFormatting sqref="G1696 G1750:G1048576 G1671:G1674 G1676:G1686 G1722:G1727 G482:G486 G755:G777 G76:G95 G72:G74 G1:G6 G9:G12 F7 G38:G40 G46:G62 G64:G66 F63 G68 G118:G120 G157:G158 G160:G165 G170:G183 G334:G344 G467:G469 G473:G476 G238:G243 G580:G581 G534:G568 G501:G517 G490:G498 G570:G576 G585:G586 G604:G605 G583 G612:G617 G803:G808 G1071:G1075 G1261:G1267 G1269:G1274 G1420:G1426 G1514 G1518 G1630:G1634 G1664:G1668 G1645:G1647 G801 G578 H1225 G199:G228 G230:G231 G607:G610 G140:G155 G1742:G1748 G1735:G1740 G1729:G1733 G1701:G1710 G1650:G1662 G1641:G1643 G1638 G1608:G1609 G1590:G1605 G1587 G1561:G1582 G1535:G1557 G1468:G1507 G1455:G1466 G1428:G1446 G1383:G1416 G1369:G1381 G1352:G1358 G1365:G1366 G1336:G1349 G1316:G1328 G1295:G1314 G1278:G1292 G1240:G1259 G1228:G1237 G1209:G1225 G1193:G1207 G1157:G1186 G1145:G1154 G1125:G1143 G1107:G1122 G1078:G1104 G1027:G1069 G1025 G1007:G1016 G997:G1001 G974:G986 G947:G970 G940:G945 G932:G938 G921:G930 G917:G918 G911:G914 G901:G909 G882:G898 G871:G879 G846:G868 G836:G844 G816:G832 G781:G799 G694:G753 G673:G692 G639:G646 G648:G668 G626:G634 G619 G636:G637 G596:G599 F595 G412:G413 G416:G417 G419:G464 G408:G410 G348:G351 G246:G329 G185 G187:G197 H126 G115 G601:G602 G100:G112 G42:G43 G122:G138 G523:G531 G354:G398">
     <cfRule type="duplicateValues" dxfId="42" priority="15010"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1840:G1855 G343:G344 G1696 G1787:G1794 G476 G607:G610 G467 G1672:G1674 G1676:G1686 G1722:G1727 G1604:G1605 G504:G513 G707:G709 G1600 G1458:G1462 G1477:G1504 G1507 G1514 G1518 G1389:G1394 G1414 G1399:G1411 G1397 G1146 G1194:G1204 G1206 G965:G968 G962 G839:G844 G941:G945 G836 G76:G95 G72:G74 G1:G6 G8:G12 F7 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G355 G300:G319 G788 G790 G585 G580:G581 G576 G523 G570:G571 G1352:G1356 G1328 G1252:G1258 G1287:G1292 G1117:G1121 G1107:G1111 G1113:G1115 G1030:G1031 G1079:G1088 G1163:G1171 G1176:G1186 G1554:G1557 G1428:G1435 G1299:G1300 G1302:G1304 G1307 G1309:G1311 G1568:G1573 G1576:G1581 G1587 G1592:G1598 G1539:G1545 G1464:G1466 G1245:G1250 G878:G879 G898 G1073 G1274 G1222 G1090 G1011:G1014 G1271:G1272 G772 G872:G873 G986 G1444 G1547:G1551 G1562 G711:G713 G715:G719 G721:G753 G755:G770 G909 G1099:G1101 G796:G799 G803:G808 G848:G868 G801 G685 G696 G698:G700 G660:G662 G664:G668 G574 G558:G562 G535:G540 G336:G337 G777 G817:G820 G884 G914 G948:G958 G980:G983 G1016 G1036:G1069 G1092:G1097 G1125:G1133 G1209:G1218 G1266:G1267 G1269 G1314 G1322:G1326 G1437:G1442 G1630 G1632:G1634 G1645:G1647 G1735:G1738 G1740 G1750:G1778 G1796:G1820 G1857:G1862 G1866:G1048576 G604 G634 G1731:G1732 G357:G398 G339:G341 G416:G417 G350:G351 G419:G460 G462:G464 G490 G542:G555 G525:G528 G601:G602 G612:G617 G583 G1225:H1225 G648:G657 G626:G630 G619 G646 G140:G153 G187 G1742:G1745 G1701:G1710 G1650:G1657 G1641:G1643 G1638 G1608:G1609 G1590 G1535:G1537 G1468:G1473 G1337:G1349 G1316:G1319 G1295 G1278:G1284 G1240:G1243 G1228:G1237 G1027:G1028 G1025 G1007 G997:G1001 G932:G935 G921:G930 G917:G918 G911:G912 G901:G906 G882 G781:G786 G673:G679 G639:G640 G636:G637 G408:G410 H126 G115 G100:G112 G42:G43 G122:G138">
+  <conditionalFormatting sqref="G1840:G1855 G343:G344 G1696 G1787:G1794 G476 G607:G610 G467 G1672:G1674 G1676:G1686 G1722:G1727 G1604:G1605 G504:G513 G707:G709 G1600 G1458:G1462 G1477:G1504 G1507 G1514 G1518 G1389:G1394 G1414 G1399:G1411 G1397 G1146 G1194:G1204 G1206 G965:G968 G962 G839:G844 G941:G945 G836 G76:G95 G72:G74 G1:G6 G9:G12 F7 G38:G40 G193 G46:G62 G64:G66 F63 G68 G118:G120 G322:G326 G355 G300:G319 G788 G790 G585 G580:G581 G576 G523 G570:G571 G1352:G1356 G1328 G1252:G1258 G1287:G1292 G1117:G1121 G1107:G1111 G1113:G1115 G1030:G1031 G1079:G1088 G1163:G1171 G1176:G1186 G1554:G1557 G1428:G1435 G1299:G1300 G1302:G1304 G1307 G1309:G1311 G1568:G1573 G1576:G1581 G1587 G1592:G1598 G1539:G1545 G1464:G1466 G1245:G1250 G878:G879 G898 G1073 G1274 G1222 G1090 G1011:G1014 G1271:G1272 G772 G872:G873 G986 G1444 G1547:G1551 G1562 G711:G713 G715:G719 G721:G753 G755:G770 G909 G1099:G1101 G796:G799 G803:G808 G848:G868 G801 G685 G696 G698:G700 G660:G662 G664:G668 G574 G558:G562 G535:G540 G336:G337 G777 G817:G820 G884 G914 G948:G958 G980:G983 G1016 G1036:G1069 G1092:G1097 G1125:G1133 G1209:G1218 G1266:G1267 G1269 G1314 G1322:G1326 G1437:G1442 G1630 G1632:G1634 G1645:G1647 G1735:G1738 G1740 G1750:G1778 G1796:G1820 G1857:G1862 G1866:G1048576 G604 G634 G1731:G1732 G357:G398 G339:G341 G416:G417 G350:G351 G419:G460 G462:G464 G490 G542:G555 G525:G528 G601:G602 G612:G617 G583 G1225:H1225 G648:G657 G626:G630 G619 G646 G140:G153 G187 G1742:G1745 G1701:G1710 G1650:G1657 G1641:G1643 G1638 G1608:G1609 G1590 G1535:G1537 G1468:G1473 G1337:G1349 G1316:G1319 G1295 G1278:G1284 G1240:G1243 G1228:G1237 G1027:G1028 G1025 G1007 G997:G1001 G932:G935 G921:G930 G917:G918 G911:G912 G901:G906 G882 G781:G786 G673:G679 G639:G640 G636:G637 G408:G410 H126 G115 G100:G112 G42:G43 G122:G138">
     <cfRule type="duplicateValues" dxfId="41" priority="15015"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1915:F1048576 F342:F344 F1696 F476 B607 F1735:F1738 F1632:F1634 F1645:F1647 F1651:F1657 F504:F515 F707:F709 F1307 G1327 F839:F844 F965:F967 F1209:F1216 F962 F76:F83 F72:F74 F1:F6 F8:F16 F193 F46 F64:F66 F68 F118:F120 F321 F339:F340 F355 F300:F319 F683:F684 F711:F713 F715:F719 F696:F700 F585 F580:F581 F576 F523 F558:F562 F535:F540 F570:F571 F661:F662 F664:F668 F659 F1428:F1429 F1554:F1557 F1577 F1596:F1598 F1603:F1605 F1600:F1601 F1389:F1394 F1414 F1399:F1408 F1397 F1271:F1272 F1274 F1287:F1289 F1468:F1473 F1339:F1349 F1352 F1354 F1445 F1241:F1242 F1252:F1256 F1110:F1115 F1117:F1118 F1197:F1202 F1204 F1220:F1222 F1248 F1218 F1183 F1177 F725:F753 F755:F760 F1053:F1067 F1078:F1090 F911:F912 F1561:F1563 F1570 F1146 F1162:F1174 F1148 F1139 F901:F908 B1840:B1862 B1866:B1914 B549 F1258 F1291:F1292 F1302 F790:F791 F788 F784:F786 F941:F945 F953:F958 F1267 F1477:F1483 F1486:F1503 F1572:F1573 F1025 F1121 F1011:F1014 F1072 F872 F986 F550:F555 F604 F634 F608:F610 F796:F799 F803:F808 F848:F868 F801 F836 F817:F820 F914 F948:F949 F1092:F1100 F1107:F1108 F1125:F1133 F1228 F1672:F1674 F1740 F1750:F1778 F1787:F1794 F1796:F1805 F573:F574 F357:F398 F416:F417 F350:F351 F419:F460 F462:F464 F467 F473 F490 F762:F770 F542:F548 F525:F528 F601:F602 F613:F617 F628:F630 F187 F146 F148:F153 F646 F140:F144 F138 F1683:F1686 F1724:F1727 F1544:F1551 F648:F657 F1742:F1745 F1701:F1710 F1641:F1643 F1638 F1608:F1609 F1455:F1464 F1299:F1300 F1278:F1284 F1007 F997:F1001 F932:F935 F921:F930 F917:F918 F846 F673:F679 F639:F640 F636:F637 F408:F410 F1179:F1181 F1185:F1186 F1232:F1237 F346 F1102:F1104 F93:F95 F97 F85:F91 F99:F115 F61:F62 F1807:F1820 F55:F56 F53 F48:F50 F58:F59 F40:F43 F32:F36 F122:F136 F22:F30 F38">
+  <conditionalFormatting sqref="F1915:F1048576 F342:F344 F1696 F476 B607 F1735:F1738 F1632:F1634 F1645:F1647 F1651:F1657 F504:F515 F707:F709 F1307 G1327 F839:F844 F965:F967 F1209:F1216 F962 F76:F83 F72:F74 F1:F6 F9:F16 F470 F193 F46 F64:F66 F68 F118:F120 F321 F339:F340 F355 F300:F319 F683:F684 F711:F713 F715:F719 F696:F700 F585 F580:F581 F576 F523 F558:F562 F535:F540 F570:F571 F661:F662 F664:F668 F659 F1428:F1429 F1554:F1557 F1577 F1596:F1598 F1603:F1605 F1600:F1601 F1389:F1394 F1414 F1399:F1408 F1397 F1271:F1272 F1274 F1287:F1289 F1468:F1473 F1339:F1349 F1352 F1354 F1445 F1241:F1242 F1252:F1256 F1110:F1115 F1117:F1118 F1197:F1202 F1204 F1220:F1222 F1248 F1218 F1183 F1177 F725:F753 F755:F760 F1053:F1067 F1078:F1090 F911:F912 F1561:F1563 F1570 F1146 F1162:F1174 F1148 F1139 F901:F908 B1840:B1862 B1866:B1914 B549 F1258 F1291:F1292 F1302 F790:F791 F788 F784:F786 F941:F945 F953:F958 F1267 F1477:F1483 F1486:F1503 F1572:F1573 F1025 F1121 F1011:F1014 F1072 F872 F986 F550:F555 F604 F634 F608:F610 F796:F799 F803:F808 F848:F868 F801 F836 F817:F820 F914 F948:F949 F1092:F1100 F1107:F1108 F1125:F1133 F1228 F1672:F1674 F1740 F1750:F1778 F1787:F1794 F1796:F1805 F573:F574 F357:F398 F416:F417 F350:F351 F419:F460 F462:F464 F467 F473 F490 F762:F770 F542:F548 F525:F528 F601:F602 F613:F617 F628:F630 F187 F146 F148:F153 F646 F140:F144 F138 F1683:F1686 F1724:F1727 F1544:F1551 F648:F657 F1742:F1745 F1701:F1710 F1641:F1643 F1638 F1608:F1609 F1455:F1464 F1299:F1300 F1278:F1284 F1007 F997:F1001 F932:F935 F921:F930 F917:F918 F846 F673:F679 F639:F640 F636:F637 F408:F410 F1179:F1181 F1185:F1186 F1232:F1237 F346 F1102:F1104 F93:F95 F97 F85:F91 F99:F115 F61:F62 F1807:F1820 F55:F56 F53 F48:F50 F58:F59 F40:F43 F32:F36 F122:F136 F22:F30 F38">
     <cfRule type="duplicateValues" dxfId="40" priority="15210"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G468:G470">
+  <conditionalFormatting sqref="G468:G469">
     <cfRule type="duplicateValues" dxfId="39" priority="15259"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B468:F470">
+  <conditionalFormatting sqref="B468:F469">
     <cfRule type="duplicateValues" dxfId="38" priority="15260"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -32193,10 +32200,11 @@
     <hyperlink ref="G99" r:id="rId701" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
     <hyperlink ref="G637" r:id="rId702" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
     <hyperlink ref="G7" r:id="rId703" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
+    <hyperlink ref="G470" r:id="rId704" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId704"/>
-  <drawing r:id="rId705"/>
+  <pageSetup orientation="portrait" r:id="rId705"/>
+  <drawing r:id="rId706"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DD8E7-4789-45EE-944F-393F1CB97A5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCA3D5-0BFD-4CE6-A7A7-0BB001DDB71B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-25050" yWindow="12960" windowWidth="18255" windowHeight="9870" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2775">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8363,6 +8363,12 @@
   </si>
   <si>
     <t>dropgangs, or the future of darknet markets</t>
+  </si>
+  <si>
+    <t>https://unchained-capital.com/blog/bitcoin-obsoletes-all-other-money/</t>
+  </si>
+  <si>
+    <t>Bitcoin Obsoletes All Other Money</t>
   </si>
 </sst>
 </file>
@@ -8672,7 +8678,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8840,6 +8846,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -12241,9 +12248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1913"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K626" sqref="K626"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12350,7 +12357,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="111" t="s">
         <v>2768</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -12359,6 +12366,15 @@
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
+      <c r="B8" s="86">
+        <v>43854</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2773</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
@@ -32182,10 +32198,11 @@
     <hyperlink ref="G470" r:id="rId703" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
     <hyperlink ref="G638" r:id="rId704" xr:uid="{44942DCC-A950-45B7-836C-EEA3E136F355}"/>
     <hyperlink ref="G639" r:id="rId705" xr:uid="{00AC84C7-DFB1-4053-8E88-68BFE3D11151}"/>
+    <hyperlink ref="G8" r:id="rId706" xr:uid="{EC30F85A-C055-431E-B3E3-3BD63F7D214D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId706"/>
-  <drawing r:id="rId707"/>
+  <pageSetup orientation="portrait" r:id="rId707"/>
+  <drawing r:id="rId708"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A2145-9DDE-4A97-A180-D91C04A186EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B09F2-0219-4FD6-88A2-3DE9DA85CF3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="5550" windowWidth="31185" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="6630" yWindow="1815" windowWidth="31185" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -12434,7 +12434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B09F2-0219-4FD6-88A2-3DE9DA85CF3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C85B7-1278-408F-97F7-39A61B0743AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6630" yWindow="1815" windowWidth="31185" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="2832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="2834">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8540,6 +8540,12 @@
   </si>
   <si>
     <t>waiting on ok</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bradmillscan/no-you-cant-break-bitcoin-475fce0a81a4</t>
+  </si>
+  <si>
+    <t>No, YOU Can’t Break Bitcoin.</t>
   </si>
 </sst>
 </file>
@@ -12434,7 +12440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12892,12 +12898,18 @@
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
+      <c r="B32" s="74">
+        <v>43859</v>
+      </c>
       <c r="C32" s="75"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="111" t="s">
+        <v>2833</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2832</v>
+      </c>
     </row>
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
@@ -32840,10 +32852,11 @@
     <hyperlink ref="G31" r:id="rId735" xr:uid="{0BF6221B-A89E-4363-B02B-39C7289FD686}"/>
     <hyperlink ref="G380" r:id="rId736" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
     <hyperlink ref="G819" r:id="rId737" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
+    <hyperlink ref="G32" r:id="rId738" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId738"/>
-  <drawing r:id="rId739"/>
+  <pageSetup orientation="portrait" r:id="rId739"/>
+  <drawing r:id="rId740"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C85B7-1278-408F-97F7-39A61B0743AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9E3E3-CC4E-4860-A77D-437DCEEB179B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1815" windowWidth="31185" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="6870" yWindow="2865" windowWidth="17730" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -12438,9 +12438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12608,7 +12608,7 @@
       <c r="E11" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="112" t="s">
         <v>2787</v>
       </c>
       <c r="G11" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9E3E3-CC4E-4860-A77D-437DCEEB179B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950BD27-77E6-430B-8A89-06038A8F9A08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2865" windowWidth="17730" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="6870" yWindow="2865" windowWidth="26085" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -12440,7 +12440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12625,7 +12625,7 @@
       <c r="E12" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="112" t="s">
         <v>2788</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -12656,7 +12656,7 @@
       <c r="E14" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="112" t="s">
         <v>2792</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -12686,7 +12686,7 @@
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="112" t="s">
         <v>2797</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -12699,7 +12699,7 @@
       <c r="C17" s="75"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="112" t="s">
         <v>2799</v>
       </c>
       <c r="G17" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950BD27-77E6-430B-8A89-06038A8F9A08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBCF27-6A2B-40F8-ACA3-744E1E704A0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2865" windowWidth="26085" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="1710" yWindow="2625" windowWidth="26085" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4216" uniqueCount="2834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="2834">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -12440,7 +12440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12729,7 +12729,7 @@
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="112" t="s">
         <v>2803</v>
       </c>
       <c r="G19" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBCF27-6A2B-40F8-ACA3-744E1E704A0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D40517-36ED-4735-9543-EBF550C67756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2625" windowWidth="26085" windowHeight="22695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="2834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="2837">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8546,13 +8546,22 @@
   </si>
   <si>
     <t>No, YOU Can’t Break Bitcoin.</t>
+  </si>
+  <si>
+    <t>https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272</t>
+  </si>
+  <si>
+    <t>The Subsctance of Money</t>
+  </si>
+  <si>
+    <t>Ben Kaufman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8719,6 +8728,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -8855,7 +8872,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -9027,6 +9044,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -12438,9 +12462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y1939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,7 +12738,7 @@
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="112" t="s">
         <v>2801</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -12744,7 +12768,7 @@
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="112" t="s">
         <v>2805</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -12757,7 +12781,7 @@
       <c r="C21" s="75"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="113" t="s">
         <v>2807</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -12770,7 +12794,7 @@
       <c r="C22" s="75"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="96" t="s">
         <v>2808</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -12783,7 +12807,7 @@
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="84" t="s">
         <v>2810</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -12796,7 +12820,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="112" t="s">
         <v>2812</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -12809,7 +12833,7 @@
       <c r="C25" s="75"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="112" t="s">
         <v>2814</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -12822,7 +12846,7 @@
       <c r="C26" s="75"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="111" t="s">
+      <c r="F26" s="114" t="s">
         <v>2817</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -12835,7 +12859,7 @@
       <c r="C27" s="75"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="111" t="s">
+      <c r="F27" s="115" t="s">
         <v>2818</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -12848,7 +12872,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="84" t="s">
         <v>2821</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -12861,7 +12885,7 @@
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="111" t="s">
+      <c r="F29" s="114" t="s">
         <v>2794</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -12889,7 +12913,7 @@
       <c r="C31" s="75"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="84" t="s">
         <v>2827</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -12904,7 +12928,7 @@
       <c r="C32" s="75"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="111" t="s">
+      <c r="F32" s="115" t="s">
         <v>2833</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -14545,12 +14569,20 @@
     </row>
     <row r="148" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="56"/>
-      <c r="B148" s="56"/>
+      <c r="B148" s="74">
+        <v>43712</v>
+      </c>
       <c r="C148" s="75"/>
       <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
+      <c r="E148" s="56" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>2834</v>
+      </c>
     </row>
     <row r="149" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="56"/>
@@ -32093,16 +32125,16 @@
   <conditionalFormatting sqref="F645">
     <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1181:G1549 G622:G625 F621 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G144:G146 G72:G88 G90:G92 F89 G94 G141 G627:G649 G126:G138 G68:G69 G148:G259 G652:G818 G528:G543 G434:G439 G442:G495 G497:G524 G261 G549:G620 G381:G424 G272:G377 G264:G270 G1551:G1048576 G1047:G1179 G820:G1045">
+  <conditionalFormatting sqref="G1181:G1549 G622:G625 F621 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G144:G146 G72:G88 G90:G92 F89 G94 G141 G627:G649 G126:G138 G68:G69 G149:G259 G652:G818 G528:G543 G434:G439 G442:G495 G497:G524 G261 G549:G620 G381:G424 G272:G377 G264:G270 G1551:G1048576 G1047:G1179 G820:G1045">
     <cfRule type="duplicateValues" dxfId="44" priority="14631"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1721 G1775:G1048576 G1696:G1699 G1701:G1711 G1747:G1752 G508:G512 G780:G802 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G72:G88 G90:G92 F89 G94 G144:G146 G183:G184 G186:G191 G196:G209 G360:G370 G493:G495 G499:G502 G264:G269 G606:G607 G560:G594 G528:G543 G516:G524 G596:G602 G611:G612 G630:G631 G609 G638:G643 G828:G833 G1096:G1100 G1286:G1292 G1294:G1299 G1445:G1451 G1539 G1543 G1655:G1659 G1689:G1693 G1670:G1672 G826 G604 H1250 G225:G254 G256:G257 G633:G636 G166:G181 G1767:G1773 G1760:G1765 G1754:G1758 G1726:G1735 G1675:G1687 G1666:G1668 G1663 G1633:G1634 G1615:G1630 G1612 G1586:G1607 G1560:G1582 G1493:G1532 G1480:G1491 G1453:G1471 G1408:G1441 G1394:G1406 G1377:G1383 G1390:G1391 G1361:G1374 G1341:G1353 G1320:G1339 G1303:G1317 G1265:G1284 G1253:G1262 G1234:G1250 G1218:G1232 G1182:G1211 G1170:G1179 G1150:G1168 G1132:G1147 G1103:G1129 G1052:G1094 G1050 G1032:G1041 G1022:G1026 G999:G1011 G972:G995 G965:G970 G957:G963 G946:G955 G942:G943 G936:G939 G926:G934 G907:G923 G896:G904 G871:G893 G861:G869 G841:G857 G806:G818 G719:G778 G698:G717 G665:G671 G673:G693 G652:G660 G645 G662:G663 G622:G625 F621 G438:G439 G442:G443 G445:G490 G434:G436 G374:G377 G272:G355 G211 G213:G223 H152 G141 G627:G628 G126:G138 G68:G69 G148:G164 G549:G557 G381:G424 G820:G824">
+  <conditionalFormatting sqref="G1721 G1775:G1048576 G1696:G1699 G1701:G1711 G1747:G1752 G508:G512 G780:G802 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G72:G88 G90:G92 F89 G94 G144:G146 G183:G184 G186:G191 G196:G209 G360:G370 G493:G495 G499:G502 G264:G269 G606:G607 G560:G594 G528:G543 G516:G524 G596:G602 G611:G612 G630:G631 G609 G638:G643 G828:G833 G1096:G1100 G1286:G1292 G1294:G1299 G1445:G1451 G1539 G1543 G1655:G1659 G1689:G1693 G1670:G1672 G826 G604 H1250 G225:G254 G256:G257 G633:G636 G166:G181 G1767:G1773 G1760:G1765 G1754:G1758 G1726:G1735 G1675:G1687 G1666:G1668 G1663 G1633:G1634 G1615:G1630 G1612 G1586:G1607 G1560:G1582 G1493:G1532 G1480:G1491 G1453:G1471 G1408:G1441 G1394:G1406 G1377:G1383 G1390:G1391 G1361:G1374 G1341:G1353 G1320:G1339 G1303:G1317 G1265:G1284 G1253:G1262 G1234:G1250 G1218:G1232 G1182:G1211 G1170:G1179 G1150:G1168 G1132:G1147 G1103:G1129 G1052:G1094 G1050 G1032:G1041 G1022:G1026 G999:G1011 G972:G995 G965:G970 G957:G963 G946:G955 G942:G943 G936:G939 G926:G934 G907:G923 G896:G904 G871:G893 G861:G869 G841:G857 G806:G818 G719:G778 G698:G717 G665:G671 G673:G693 G652:G660 G645 G662:G663 G622:G625 F621 G438:G439 G442:G443 G445:G490 G434:G436 G374:G377 G272:G355 G211 G213:G223 H152 G141 G627:G628 G126:G138 G68:G69 G149:G164 G549:G557 G381:G424 G820:G824">
     <cfRule type="duplicateValues" dxfId="43" priority="15011"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1865:G1880 G369:G370 G1721 G1812:G1819 G502 G633:G636 G493 G1697:G1699 G1701:G1711 G1747:G1752 G1629:G1630 G530:G539 G732:G734 G1625 G1483:G1487 G1502:G1529 G1532 G1539 G1543 G1414:G1419 G1439 G1424:G1436 G1422 G1171 G1219:G1229 G1231 G990:G993 G987 G864:G869 G966:G970 G861 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G219 G72:G88 G90:G92 F89 G94 G144:G146 G348:G352 G381 G326:G345 G813 G815 G611 G606:G607 G602 G549 G596:G597 G1377:G1381 G1353 G1277:G1283 G1312:G1317 G1142:G1146 G1132:G1136 G1138:G1140 G1055:G1056 G1104:G1113 G1188:G1196 G1201:G1211 G1579:G1582 G1453:G1460 G1324:G1325 G1327:G1329 G1332 G1334:G1336 G1593:G1598 G1601:G1606 G1612 G1617:G1623 G1564:G1570 G1489:G1491 G1270:G1275 G903:G904 G923 G1098 G1299 G1247 G1115 G1036:G1039 G1296:G1297 G797 G897:G898 G1011 G1469 G1572:G1576 G1587 G736:G738 G740:G744 G746:G778 G780:G795 G934 G1124:G1126 G821:G824 G828:G833 G873:G893 G826 G710 G721 G723:G725 G685:G687 G689:G693 G600 G584:G588 G561:G566 G362:G363 G802 G842:G845 G909 G939 G973:G983 G1005:G1008 G1041 G1061:G1094 G1117:G1122 G1150:G1158 G1234:G1243 G1291:G1292 G1294 G1339 G1347:G1351 G1462:G1467 G1655 G1657:G1659 G1670:G1672 G1760:G1763 G1765 G1775:G1803 G1821:G1845 G1882:G1887 G1891:G1048576 G630 G660 G1756:G1757 G383:G424 G365:G367 G442:G443 G376:G377 G445:G486 G488:G490 G516 G568:G581 G551:G554 G627:G628 G638:G643 G609 G1250:H1250 G673:G682 G652:G656 G645 G671 G166:G179 G213 G1767:G1770 G1726:G1735 G1675:G1682 G1666:G1668 G1663 G1633:G1634 G1615 G1560:G1562 G1493:G1498 G1362:G1374 G1341:G1344 G1320 G1303:G1309 G1265:G1268 G1253:G1262 G1052:G1053 G1050 G1032 G1022:G1026 G957:G960 G946:G955 G942:G943 G936:G937 G926:G931 G907 G806:G811 G698:G704 G665 G662:G663 G434:G436 H152 G141 G126:G138 G68:G69 G148:G164">
+  <conditionalFormatting sqref="G1865:G1880 G369:G370 G1721 G1812:G1819 G502 G633:G636 G493 G1697:G1699 G1701:G1711 G1747:G1752 G1629:G1630 G530:G539 G732:G734 G1625 G1483:G1487 G1502:G1529 G1532 G1539 G1543 G1414:G1419 G1439 G1424:G1436 G1422 G1171 G1219:G1229 G1231 G990:G993 G987 G864:G869 G966:G970 G861 G102:G121 G98:G100 G1:G6 G38 F7 G64:G66 G219 G72:G88 G90:G92 F89 G94 G144:G146 G348:G352 G381 G326:G345 G813 G815 G611 G606:G607 G602 G549 G596:G597 G1377:G1381 G1353 G1277:G1283 G1312:G1317 G1142:G1146 G1132:G1136 G1138:G1140 G1055:G1056 G1104:G1113 G1188:G1196 G1201:G1211 G1579:G1582 G1453:G1460 G1324:G1325 G1327:G1329 G1332 G1334:G1336 G1593:G1598 G1601:G1606 G1612 G1617:G1623 G1564:G1570 G1489:G1491 G1270:G1275 G903:G904 G923 G1098 G1299 G1247 G1115 G1036:G1039 G1296:G1297 G797 G897:G898 G1011 G1469 G1572:G1576 G1587 G736:G738 G740:G744 G746:G778 G780:G795 G934 G1124:G1126 G821:G824 G828:G833 G873:G893 G826 G710 G721 G723:G725 G685:G687 G689:G693 G600 G584:G588 G561:G566 G362:G363 G802 G842:G845 G909 G939 G973:G983 G1005:G1008 G1041 G1061:G1094 G1117:G1122 G1150:G1158 G1234:G1243 G1291:G1292 G1294 G1339 G1347:G1351 G1462:G1467 G1655 G1657:G1659 G1670:G1672 G1760:G1763 G1765 G1775:G1803 G1821:G1845 G1882:G1887 G1891:G1048576 G630 G660 G1756:G1757 G383:G424 G365:G367 G442:G443 G376:G377 G445:G486 G488:G490 G516 G568:G581 G551:G554 G627:G628 G638:G643 G609 G1250:H1250 G673:G682 G652:G656 G645 G671 G166:G179 G213 G1767:G1770 G1726:G1735 G1675:G1682 G1666:G1668 G1663 G1633:G1634 G1615 G1560:G1562 G1493:G1498 G1362:G1374 G1341:G1344 G1320 G1303:G1309 G1265:G1268 G1253:G1262 G1052:G1053 G1050 G1032 G1022:G1026 G957:G960 G946:G955 G942:G943 G936:G937 G926:G931 G907 G806:G811 G698:G704 G665 G662:G663 G434:G436 H152 G141 G126:G138 G68:G69 G149:G164">
     <cfRule type="duplicateValues" dxfId="42" priority="15016"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1940:F1048576 F368:F370 F1721 F502 B633 F1760:F1763 F1657:F1659 F1670:F1672 F1676:F1682 F530:F541 F732:F734 F1332 G1352 F864:F869 F990:F992 F1234:F1241 F987 F102:F109 F98:F100 F1:F6 F9:F20 F496 F219 F72 F90:F92 F94 F144:F146 F347 F365:F366 F381 F326:F345 F708:F709 F736:F738 F740:F744 F721:F725 F611 F606:F607 F602 F549 F584:F588 F561:F566 F596:F597 F686:F687 F689:F693 F684 F1453:F1454 F1579:F1582 F1602 F1621:F1623 F1628:F1630 F1625:F1626 F1414:F1419 F1439 F1424:F1433 F1422 F1296:F1297 F1299 F1312:F1314 F1493:F1498 F1364:F1374 F1377 F1379 F1470 F1266:F1267 F1277:F1281 F1135:F1140 F1142:F1143 F1222:F1227 F1229 F1245:F1247 F1273 F1243 F1208 F1202 F750:F778 F780:F785 F1078:F1092 F1103:F1115 F936:F937 F1586:F1588 F1595 F1171 F1187:F1199 F1173 F1164 F926:F933 B1865:B1887 B1891:B1939 B575 F1283 F1316:F1317 F1327 F815:F816 F813 F809:F811 F966:F970 F978:F983 F1292 F1502:F1508 F1511:F1528 F1597:F1598 F1050 F1146 F1036:F1039 F1097 F897 F1011 F576:F581 F630 F660 F634:F636 F821:F824 F828:F833 F873:F893 F826 F861 F842:F845 F939 F973:F974 F1117:F1125 F1132:F1133 F1150:F1158 F1253 F1697:F1699 F1765 F1775:F1803 F1812:F1819 F1821:F1830 F599:F600 F383:F424 F442:F443 F376:F377 F445:F486 F488:F490 F493 F499 F516 F787:F795 F568:F574 F551:F554 F627:F628 F639:F643 F654:F656 F213 F172 F174:F179 F671 F166:F170 F164 F1708:F1711 F1749:F1752 F1569:F1576 F673:F682 F1767:F1770 F1726:F1735 F1666:F1668 F1663 F1633:F1634 F1480:F1489 F1324:F1325 F1303:F1309 F1032 F1022:F1026 F957:F960 F946:F955 F942:F943 F871 F698:F704 F665 F662:F663 F434:F436 F1204:F1206 F1210:F1211 F1257:F1262 F372 F1127:F1129 F119:F121 F123 F111:F117 F125:F141 F87:F88 F1832:F1845 F81:F82 F79 F74:F76 F84:F85 F66:F69 F58:F62 F148:F162 F48:F56 F64 F24:F25 F37:F42">
+  <conditionalFormatting sqref="F1940:F1048576 F368:F370 F1721 F502 B633 F1760:F1763 F1657:F1659 F1670:F1672 F1676:F1682 F530:F541 F732:F734 F1332 G1352 F864:F869 F990:F992 F1234:F1241 F987 F102:F109 F98:F100 F1:F6 F9:F20 F496 F219 F72 F90:F92 F94 F144:F146 F347 F365:F366 F381 F326:F345 F708:F709 F736:F738 F740:F744 F721:F725 F611 F606:F607 F602 F549 F584:F588 F561:F566 F596:F597 F686:F687 F689:F693 F684 F1453:F1454 F1579:F1582 F1602 F1621:F1623 F1628:F1630 F1625:F1626 F1414:F1419 F1439 F1424:F1433 F1422 F1296:F1297 F1299 F1312:F1314 F1493:F1498 F1364:F1374 F1377 F1379 F1470 F1266:F1267 F1277:F1281 F1135:F1140 F1142:F1143 F1222:F1227 F1229 F1245:F1247 F1273 F1243 F1208 F1202 F750:F778 F780:F785 F1078:F1092 F1103:F1115 F936:F937 F1586:F1588 F1595 F1171 F1187:F1199 F1173 F1164 F926:F933 B1865:B1887 B1891:B1939 B575 F1283 F1316:F1317 F1327 F815:F816 F813 F809:F811 F966:F970 F978:F983 F1292 F1502:F1508 F1511:F1528 F1597:F1598 F1050 F1146 F1036:F1039 F1097 F897 F1011 F576:F581 F630 F660 F634:F636 F821:F824 F828:F833 F873:F893 F826 F861 F842:F845 F939 F973:F974 F1117:F1125 F1132:F1133 F1150:F1158 F1253 F1697:F1699 F1765 F1775:F1803 F1812:F1819 F1821:F1830 F599:F600 F383:F424 F442:F443 F376:F377 F445:F486 F488:F490 F493 F499 F516 F787:F795 F568:F574 F551:F554 F627:F628 F639:F643 F654:F656 F213 F172 F174:F179 F671 F166:F170 F164 F1708:F1711 F1749:F1752 F1569:F1576 F673:F682 F1767:F1770 F1726:F1735 F1666:F1668 F1663 F1633:F1634 F1480:F1489 F1324:F1325 F1303:F1309 F1032 F1022:F1026 F957:F960 F946:F955 F942:F943 F871 F698:F704 F665 F662:F663 F434:F436 F1204:F1206 F1210:F1211 F1257:F1262 F372 F1127:F1129 F119:F121 F123 F111:F117 F125:F141 F87:F88 F1832:F1845 F81:F82 F79 F74:F76 F84:F85 F66:F69 F58:F62 F149:F162 F48:F56 F64 F24:F25 F37:F42">
     <cfRule type="duplicateValues" dxfId="41" priority="15211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G494:G495">
@@ -32853,10 +32885,12 @@
     <hyperlink ref="G380" r:id="rId736" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
     <hyperlink ref="G819" r:id="rId737" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
     <hyperlink ref="G32" r:id="rId738" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
+    <hyperlink ref="F148" r:id="rId739" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
+    <hyperlink ref="G148" r:id="rId740" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId739"/>
-  <drawing r:id="rId740"/>
+  <pageSetup orientation="portrait" r:id="rId741"/>
+  <drawing r:id="rId742"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D40517-36ED-4735-9543-EBF550C67756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB152B1-7895-4C62-A427-4AE0EEA36B13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="2837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="2837">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9043,12 +9043,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12463,8 +12463,8 @@
   <dimension ref="A1:Y1939"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12571,7 +12571,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="108" t="s">
         <v>2768</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -12583,7 +12583,7 @@
       <c r="B8" s="86">
         <v>43854</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="6" t="s">
         <v>2774</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -12598,7 +12598,7 @@
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="108" t="s">
         <v>2782</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -12615,7 +12615,7 @@
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="108" t="s">
         <v>2785</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -12632,7 +12632,7 @@
       <c r="E11" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="108" t="s">
         <v>2787</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -12649,7 +12649,7 @@
       <c r="E12" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="108" t="s">
         <v>2788</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="108" t="s">
         <v>2790</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -12680,7 +12680,7 @@
       <c r="E14" s="56" t="s">
         <v>2831</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="108" t="s">
         <v>2792</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -12710,7 +12710,7 @@
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="108" t="s">
         <v>2797</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -12723,7 +12723,7 @@
       <c r="C17" s="75"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="108" t="s">
         <v>2799</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -12738,7 +12738,7 @@
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="108" t="s">
         <v>2801</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -12753,7 +12753,7 @@
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="108" t="s">
         <v>2803</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -12768,7 +12768,7 @@
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="108" t="s">
         <v>2805</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -12781,7 +12781,7 @@
       <c r="C21" s="75"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="112" t="s">
         <v>2807</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -12807,7 +12807,7 @@
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="114" t="s">
         <v>2810</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -12820,7 +12820,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="108" t="s">
         <v>2812</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -12833,7 +12833,7 @@
       <c r="C25" s="75"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="108" t="s">
         <v>2814</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -12846,7 +12846,7 @@
       <c r="C26" s="75"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="115" t="s">
         <v>2817</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -12859,7 +12859,7 @@
       <c r="C27" s="75"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="113" t="s">
         <v>2818</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -12872,7 +12872,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="114" t="s">
         <v>2821</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -12885,7 +12885,7 @@
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="115" t="s">
         <v>2794</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -12913,7 +12913,7 @@
       <c r="C31" s="75"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="114" t="s">
         <v>2827</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -12928,7 +12928,7 @@
       <c r="C32" s="75"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="113" t="s">
         <v>2833</v>
       </c>
       <c r="G32" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C6DA8-BE2A-4676-8BAE-D99F5217E4B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E922C-E9EA-4B63-B2F1-E26AC4D49FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1230" windowWidth="21510" windowHeight="28710" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="2903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="2908">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -8753,6 +8753,21 @@
   </si>
   <si>
     <t>Clark Moody</t>
+  </si>
+  <si>
+    <t>Allen Farrington</t>
+  </si>
+  <si>
+    <t>https://medium.com/@allenfarrington/elusive-symmetries-f2a2938a095f</t>
+  </si>
+  <si>
+    <t>Elusive Symmetries</t>
+  </si>
+  <si>
+    <t>The Complex Markets Hypothesis</t>
+  </si>
+  <si>
+    <t>https://medium.com/@allenfarrington/the-complex-markets-hypothesis-44c2b2b191d2</t>
   </si>
 </sst>
 </file>
@@ -12661,8 +12676,8 @@
   <dimension ref="A1:Y1988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F499" sqref="F499"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12795,12 +12810,20 @@
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="B9" s="74">
+        <v>43876</v>
+      </c>
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="56" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2907</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -13394,12 +13417,20 @@
     </row>
     <row r="60" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
+      <c r="B60" s="74">
+        <v>43815</v>
+      </c>
       <c r="C60" s="75"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="56" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F60" s="111" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>2904</v>
+      </c>
     </row>
     <row r="61" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56"/>
@@ -33070,13 +33101,13 @@
   <conditionalFormatting sqref="F681">
     <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1910:G1048576 G1226:G1227 G658:G661 F657 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G168:G170 G96:G112 G114:G116 F113 G118 G165 G663:G685 G151:G162 G92:G93 G173:G242 G688:G697 G564:G579 G469:G474 G477:G530 G532:G539 G586:G656 G416:G459 G300:G405 G292:G298 G1596:G1897 G1092:G1149 G865:G919 G1012:G1090 G1908 G1902:G1906 G1899:G1900 G852:G853 G718:G742 G1257:G1301 G1004:G1006 G1252:G1255 G9:G30 G700:G715 G855:G863 G1151:G1221 G1494:G1594 G744:G761 G831:G850 G763:G829 G541:G547 G244:G287 G1223:G1224 G1008:G1009 G1303:G1492 G921:G1001 G1229:G1250 G549:G560">
+  <conditionalFormatting sqref="G1910:G1048576 G1226:G1227 G658:G661 F657 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G168:G170 G96:G112 G114:G116 F113 G118 G165 G663:G685 G151:G162 G92:G93 G173:G242 G688:G697 G564:G579 G469:G474 G477:G530 G532:G539 G586:G656 G416:G459 G300:G405 G292:G298 G1596:G1897 G1092:G1149 G865:G919 G1012:G1090 G1908 G1902:G1906 G1899:G1900 G852:G853 G718:G742 G1257:G1301 G1004:G1006 G1252:G1255 G10:G30 G700:G715 G855:G863 G1151:G1221 G1494:G1594 G744:G761 G831:G850 G763:G829 G541:G547 G244:G287 G1223:G1224 G1008:G1009 G1303:G1492 G921:G1001 G1229:G1250 G549:G560">
     <cfRule type="duplicateValues" dxfId="44" priority="14631"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1910:G1048576 G1766 G1820:G1897 G1741:G1744 G1746:G1756 G1792:G1797 G543:G547 G825:G829 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G96:G112 G114:G116 F113 G118 G168:G170 G207:G208 G210:G215 G220:G233 G388:G398 G528:G530 G534:G537 G292:G297 G642:G643 G596:G630 G564:G579 G552:G560 G632:G638 G647:G648 G666:G667 G645 G674:G679 G873:G878 G1141:G1145 G1331:G1337 G1339:G1344 G1490:G1492 G1584 G1588 G1700:G1704 G1734:G1738 G1715:G1717 G871 G640 H1295 G253:G282 G284:G285 G669:G672 G190:G205 G1812:G1818 G1805:G1810 G1799:G1803 G1771:G1780 G1720:G1732 G1711:G1713 G1708 G1678:G1679 G1660:G1675 G1657 G1631:G1652 G1605:G1627 G1538:G1577 G1525:G1536 G1498:G1516 G1453:G1486 G1439:G1451 G1422:G1428 G1435:G1436 G1406:G1419 G1386:G1398 G1365:G1384 G1348:G1362 G1310:G1329 G1298:G1301 G1279:G1295 G1263:G1277 G1227 G1215:G1221 G1195:G1213 G1177:G1192 G1148:G1149 G1097:G1139 G1095 G1077:G1086 G1067:G1071 G1044:G1056 G1017:G1040 G1012:G1015 G1004:G1006 G991:G1000 G987:G988 G981:G984 G971:G979 G952:G968 G941:G949 G916:G919 G906:G914 G886:G902 G852:G853 G764:G823 G744:G761 G710:G715 G718:G738 G688:G696 G681 G707:G708 G658:G661 F657 G473:G474 G477:G478 G480:G525 G469:G471 G402:G405 G300:G383 G235 G237:G242 H176 G165 G663:G664 G151:G162 G92:G93 G173:G188 G586:G593 G416:G459 G865:G869 G1908 G1902:G1906 G1899:G1900 G1252:G1255 G9:G30 G855:G863 G1151:G1174 G1494:G1496 G831:G847 G244:G251 G1223:G1224 G1008 G1303:G1307 G921:G938 G1229:G1250">
+  <conditionalFormatting sqref="G1910:G1048576 G1766 G1820:G1897 G1741:G1744 G1746:G1756 G1792:G1797 G543:G547 G825:G829 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G96:G112 G114:G116 F113 G118 G168:G170 G207:G208 G210:G215 G220:G233 G388:G398 G528:G530 G534:G537 G292:G297 G642:G643 G596:G630 G564:G579 G552:G560 G632:G638 G647:G648 G666:G667 G645 G674:G679 G873:G878 G1141:G1145 G1331:G1337 G1339:G1344 G1490:G1492 G1584 G1588 G1700:G1704 G1734:G1738 G1715:G1717 G871 G640 H1295 G253:G282 G284:G285 G669:G672 G190:G205 G1812:G1818 G1805:G1810 G1799:G1803 G1771:G1780 G1720:G1732 G1711:G1713 G1708 G1678:G1679 G1660:G1675 G1657 G1631:G1652 G1605:G1627 G1538:G1577 G1525:G1536 G1498:G1516 G1453:G1486 G1439:G1451 G1422:G1428 G1435:G1436 G1406:G1419 G1386:G1398 G1365:G1384 G1348:G1362 G1310:G1329 G1298:G1301 G1279:G1295 G1263:G1277 G1227 G1215:G1221 G1195:G1213 G1177:G1192 G1148:G1149 G1097:G1139 G1095 G1077:G1086 G1067:G1071 G1044:G1056 G1017:G1040 G1012:G1015 G1004:G1006 G991:G1000 G987:G988 G981:G984 G971:G979 G952:G968 G941:G949 G916:G919 G906:G914 G886:G902 G852:G853 G764:G823 G744:G761 G710:G715 G718:G738 G688:G696 G681 G707:G708 G658:G661 F657 G473:G474 G477:G478 G480:G525 G469:G471 G402:G405 G300:G383 G235 G237:G242 H176 G165 G663:G664 G151:G162 G92:G93 G173:G188 G586:G593 G416:G459 G865:G869 G1908 G1902:G1906 G1899:G1900 G1252:G1255 G10:G30 G855:G863 G1151:G1174 G1494:G1496 G831:G847 G244:G251 G1223:G1224 G1008 G1303:G1307 G921:G938 G1229:G1250">
     <cfRule type="duplicateValues" dxfId="43" priority="15011"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1914:G1929 G397:G398 G1766 G1857:G1864 G537 G669:G672 G528 G1742:G1744 G1746:G1756 G1792:G1797 G1674:G1675 G566:G575 G777:G779 G1670 G1528:G1532 G1547:G1574 G1577 G1584 G1588 G1459:G1464 G1484 G1469:G1481 G1467 G1216 G1264:G1274 G1276 G1035:G1038 G1032 G909:G914 G1012:G1015 G906 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G247 G96:G112 G114:G116 F113 G118 G168:G170 G376:G380 G416 G354:G373 G858 G860 G647 G642:G643 G638 G632:G633 G1422:G1426 G1398 G1322:G1328 G1357:G1362 G1187:G1191 G1177:G1181 G1183:G1185 G1100:G1101 G1149 G1233:G1241 G1246:G1250 G1624:G1627 G1498:G1505 G1369:G1370 G1372:G1374 G1377 G1379:G1381 G1638:G1643 G1646:G1651 G1657 G1662:G1668 G1609:G1615 G1534:G1536 G1315:G1320 G948:G949 G968 G1143 G1344 G1292 G1160 G1081:G1084 G1341:G1342 G842 G942:G943 G1056 G1514 G1617:G1621 G1632 G781:G783 G785:G789 G791:G823 G825:G829 G979 G1169:G1171 G866:G869 G873:G878 G918:G919 G871 G755 G766 G768:G770 G730:G732 G734:G738 G636 G620:G624 G597:G602 G390:G391 G847 G887:G890 G954 G984 G1018:G1028 G1050:G1053 G1086 G1106:G1139 G1162:G1167 G1195:G1203 G1279:G1288 G1336:G1337 G1339 G1384 G1392:G1396 G1507:G1512 G1700 G1702:G1704 G1715:G1717 G1805:G1808 G1810 G1820:G1848 G1866:G1890 G1931:G1936 G1940:G1048576 G666 G696 G1801:G1802 G418:G459 G393:G395 G477:G478 G404:G405 G480:G521 G523:G525 G552 G604:G617 G587:G590 G663:G664 G674:G679 G645 G1295:H1295 G718:G727 G688:G692 G681 G190:G203 G237 G1812:G1815 G1771:G1780 G1720:G1727 G1711:G1713 G1708 G1678:G1679 G1660 G1605:G1607 G1538:G1543 G1407:G1419 G1386:G1389 G1365 G1348:G1354 G1310:G1313 G1298:G1301 G1097:G1098 G1095 G1077 G1067:G1071 G1004:G1005 G991:G1000 G987:G988 G981:G982 G971:G976 G952 G852:G853 G744:G749 G710 G707:G708 G469:G471 H176 G165 G151:G162 G92:G93 G173:G188 G1252:G1255 G9:G30 G855:G856 G1151:G1158 G831:G840 G1303:G1307 G921:G938">
+  <conditionalFormatting sqref="G1914:G1929 G397:G398 G1766 G1857:G1864 G537 G669:G672 G528 G1742:G1744 G1746:G1756 G1792:G1797 G1674:G1675 G566:G575 G777:G779 G1670 G1528:G1532 G1547:G1574 G1577 G1584 G1588 G1459:G1464 G1484 G1469:G1481 G1467 G1216 G1264:G1274 G1276 G1035:G1038 G1032 G909:G914 G1012:G1015 G906 G126:G145 G122:G124 G1:G6 G62 F31 G88:G90 G247 G96:G112 G114:G116 F113 G118 G168:G170 G376:G380 G416 G354:G373 G858 G860 G647 G642:G643 G638 G632:G633 G1422:G1426 G1398 G1322:G1328 G1357:G1362 G1187:G1191 G1177:G1181 G1183:G1185 G1100:G1101 G1149 G1233:G1241 G1246:G1250 G1624:G1627 G1498:G1505 G1369:G1370 G1372:G1374 G1377 G1379:G1381 G1638:G1643 G1646:G1651 G1657 G1662:G1668 G1609:G1615 G1534:G1536 G1315:G1320 G948:G949 G968 G1143 G1344 G1292 G1160 G1081:G1084 G1341:G1342 G842 G942:G943 G1056 G1514 G1617:G1621 G1632 G781:G783 G785:G789 G791:G823 G825:G829 G979 G1169:G1171 G866:G869 G873:G878 G918:G919 G871 G755 G766 G768:G770 G730:G732 G734:G738 G636 G620:G624 G597:G602 G390:G391 G847 G887:G890 G954 G984 G1018:G1028 G1050:G1053 G1086 G1106:G1139 G1162:G1167 G1195:G1203 G1279:G1288 G1336:G1337 G1339 G1384 G1392:G1396 G1507:G1512 G1700 G1702:G1704 G1715:G1717 G1805:G1808 G1810 G1820:G1848 G1866:G1890 G1931:G1936 G1940:G1048576 G666 G696 G1801:G1802 G418:G459 G393:G395 G477:G478 G404:G405 G480:G521 G523:G525 G552 G604:G617 G587:G590 G663:G664 G674:G679 G645 G1295:H1295 G718:G727 G688:G692 G681 G190:G203 G237 G1812:G1815 G1771:G1780 G1720:G1727 G1711:G1713 G1708 G1678:G1679 G1660 G1605:G1607 G1538:G1543 G1407:G1419 G1386:G1389 G1365 G1348:G1354 G1310:G1313 G1298:G1301 G1097:G1098 G1095 G1077 G1067:G1071 G1004:G1005 G991:G1000 G987:G988 G981:G982 G971:G976 G952 G852:G853 G744:G749 G710 G707:G708 G469:G471 H176 G165 G151:G162 G92:G93 G173:G188 G1252:G1255 G10:G30 G855:G856 G1151:G1158 G831:G840 G1303:G1307 G921:G938">
     <cfRule type="duplicateValues" dxfId="42" priority="15016"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1989:F1048576 F396:F398 F1766 F537 B669 F1805:F1808 F1702:F1704 F1715:F1717 F1721:F1727 F566:F577 F777:F779 F1377 G1397 F909:F914 F1035:F1037 F1279:F1286 F1032 F126:F133 F122:F124 F1:F6 F33:F44 F531 F247 F96 F114:F116 F118 F168:F170 F375 F393:F394 F416 F354:F373 F753:F754 F781:F783 F785:F789 F766:F770 F647 F642:F643 F638 F620:F624 F597:F602 F632:F633 F731:F732 F734:F738 F729 F1498:F1499 F1624:F1627 F1647 F1666:F1668 F1673:F1675 F1670:F1671 F1459:F1464 F1484 F1469:F1478 F1467 F1341:F1342 F1344 F1357:F1359 F1538:F1543 F1409:F1419 F1422 F1424 F1515 F1311:F1312 F1322:F1326 F1180:F1185 F1187:F1188 F1267:F1272 F1274 F1290:F1292 F1318 F1288 F1253 F1247 F795:F823 F825:F830 F1123:F1137 F1148:F1149 F981:F982 F1631:F1633 F1640 F1216 F1232:F1244 F1218 F1209 F971:F978 B1914:B1936 B1940:B1988 B611 F1328 F1361:F1362 F1372 F860:F861 F858 F854:F856 F1012:F1015 F1023:F1028 F1337 F1547:F1553 F1556:F1573 F1642:F1643 F1095 F1191 F1081:F1084 F1142 F942 F1056 F612:F617 F666 F696 F670:F672 F866:F869 F873:F878 F918:F919 F871 F906 F887:F890 F984 F1018:F1019 F1162:F1170 F1177:F1178 F1195:F1203 F1298 F1742:F1744 F1810 F1820:F1848 F1857:F1864 F1866:F1875 F635:F636 F418:F459 F477:F478 F404:F405 F480:F521 F523:F525 F528 F534 F552 F832:F840 F604:F610 F587:F590 F663:F664 F675:F679 F690:F692 F237 F196 F198:F203 F716 F190:F194 F188 F1753:F1756 F1794:F1797 F1614:F1621 F718:F727 F1812:F1815 F1771:F1780 F1711:F1713 F1708 F1678:F1679 F1525:F1534 F1369:F1370 F1348:F1354 F1077 F1067:F1071 F1002 F991:F1000 F987:F988 F916 F744:F749 F710 F707:F708 F469:F471 F1249:F1251 F1255:F1256 F1302:F1307 F400 F1172:F1174 F143:F145 F147 F135:F141 F149:F165 F111:F112 F1877:F1890 F105:F106 F103 F98:F100 F108:F109 F90:F93 F82:F86 F173:F186 F72:F80 F88 F48:F49 F61:F66 F9:F30 F1151:F1160 F921:F938 F1004:F1005">
@@ -33873,10 +33904,12 @@
     <hyperlink ref="G8" r:id="rId779" xr:uid="{6770A1E8-983C-432A-B8F4-91BD5861D598}"/>
     <hyperlink ref="G548" r:id="rId780" xr:uid="{030BA989-4FE3-4FB3-85D0-130CBF9ECD30}"/>
     <hyperlink ref="F548" r:id="rId781" display="https://bitcoin.clarkmoody.com/posts/bitcoin-interplanetary-frontier" xr:uid="{1A1171A6-88B3-4908-9C0C-F8A37D9AB3AC}"/>
+    <hyperlink ref="G60" r:id="rId782" xr:uid="{61984DEF-3D18-4E7E-A02F-7B645F749512}"/>
+    <hyperlink ref="G9" r:id="rId783" xr:uid="{6F6A7382-F223-487E-977C-CD153A2B9D49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId782"/>
-  <drawing r:id="rId783"/>
+  <pageSetup orientation="portrait" r:id="rId784"/>
+  <drawing r:id="rId785"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E922C-E9EA-4B63-B2F1-E26AC4D49FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F51A44-171B-4170-9366-DC223DE660D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -12676,8 +12676,8 @@
   <dimension ref="A1:Y1988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <pane ySplit="3" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D1B1E-7843-4C80-B6EE-627ECA2AF181}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963A1C2-665D-47BF-9EEC-63C3FB8868AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="9585" windowWidth="27675" windowHeight="14220" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -9457,7 +9457,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -9638,6 +9638,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -13050,8 +13051,8 @@
   <dimension ref="A1:Y2019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F185" sqref="F185"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13147,7 +13148,7 @@
       <c r="C6" s="75"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="84" t="s">
         <v>3026</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -13161,7 +13162,7 @@
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="96" t="s">
         <v>2491</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -13181,7 +13182,7 @@
       <c r="E8" s="56" t="s">
         <v>2899</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="84" t="s">
         <v>2901</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -13198,7 +13199,7 @@
       <c r="E9" s="56" t="s">
         <v>2903</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="117" t="s">
         <v>2906</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -13230,7 +13231,7 @@
       <c r="E11" s="56" t="s">
         <v>1614</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="117" t="s">
         <v>2909</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -13244,7 +13245,7 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="118" t="s">
         <v>2945</v>
       </c>
       <c r="F12" s="56" t="s">
@@ -13311,7 +13312,7 @@
       <c r="E16" s="56" t="s">
         <v>2511</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="117" t="s">
         <v>2932</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -13325,7 +13326,7 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="96" t="s">
         <v>2936</v>
       </c>
       <c r="F17" s="56" t="s">
@@ -13345,7 +13346,7 @@
       <c r="E18" s="56" t="s">
         <v>2939</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="117" t="s">
         <v>2937</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -13362,7 +13363,7 @@
       <c r="E19" s="56" t="s">
         <v>2942</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="117" t="s">
         <v>2941</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -13379,7 +13380,7 @@
       <c r="E20" s="56" t="s">
         <v>2948</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="117" t="s">
         <v>2946</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -13396,7 +13397,7 @@
       <c r="E21" s="56" t="s">
         <v>2951</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="117" t="s">
         <v>2950</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -13410,7 +13411,7 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="96" t="s">
         <v>2899</v>
       </c>
       <c r="F22" s="56" t="s">
@@ -13427,7 +13428,7 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="96" t="s">
         <v>2919</v>
       </c>
       <c r="F23" s="56" t="s">
@@ -13447,7 +13448,7 @@
       <c r="E24" s="56" t="s">
         <v>2956</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="117" t="s">
         <v>2955</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -13464,7 +13465,7 @@
       <c r="E25" s="56" t="s">
         <v>2957</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="84" t="s">
         <v>2959</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -13478,7 +13479,7 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="96" t="s">
         <v>2974</v>
       </c>
       <c r="F26" s="56" t="s">
@@ -13498,7 +13499,7 @@
       <c r="E27" s="56" t="s">
         <v>2511</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="117" t="s">
         <v>3009</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -13515,7 +13516,7 @@
       <c r="E28" s="56" t="s">
         <v>2962</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="84" t="s">
         <v>2961</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -13528,7 +13529,7 @@
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="117" t="s">
         <v>2964</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -13542,7 +13543,7 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="56"/>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="96" t="s">
         <v>2977</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -13562,7 +13563,7 @@
       <c r="E31" s="56" t="s">
         <v>2983</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="84" t="s">
         <v>2981</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -13579,7 +13580,7 @@
       <c r="E32" s="56" t="s">
         <v>2978</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="84" t="s">
         <v>2980</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -13593,7 +13594,7 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="56"/>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="96" t="s">
         <v>2986</v>
       </c>
       <c r="F33" s="56" t="s">
@@ -13613,7 +13614,7 @@
       <c r="E34" s="56" t="s">
         <v>2987</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="117" t="s">
         <v>2989</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -13647,7 +13648,7 @@
       <c r="E36" s="56" t="s">
         <v>2993</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="117" t="s">
         <v>2994</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -13661,7 +13662,7 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="56"/>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="96" t="s">
         <v>2998</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -13678,10 +13679,10 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="56"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="96" t="s">
         <v>1730</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="96" t="s">
         <v>2999</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -13693,8 +13694,8 @@
       <c r="B39" s="56"/>
       <c r="C39" s="75"/>
       <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56" t="s">
+      <c r="E39" s="96"/>
+      <c r="F39" s="96" t="s">
         <v>3002</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -13708,10 +13709,10 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="56"/>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="96" t="s">
         <v>2956</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="96" t="s">
         <v>3004</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -13725,7 +13726,7 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="56"/>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="96" t="s">
         <v>3007</v>
       </c>
       <c r="F41" s="56" t="s">
@@ -13742,7 +13743,7 @@
       <c r="E42" s="56" t="s">
         <v>1763</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="47" t="s">
         <v>3011</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -13754,7 +13755,7 @@
       <c r="B43" s="56"/>
       <c r="C43" s="75"/>
       <c r="D43" s="56"/>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="96" t="s">
         <v>3013</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -13771,7 +13772,7 @@
       </c>
       <c r="C44" s="75"/>
       <c r="D44" s="56"/>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="96" t="s">
         <v>3018</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -13788,7 +13789,7 @@
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="56"/>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="96" t="s">
         <v>3019</v>
       </c>
       <c r="F45" s="116" t="s">
@@ -13805,7 +13806,7 @@
       </c>
       <c r="C46" s="75"/>
       <c r="D46" s="56"/>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="96" t="s">
         <v>3024</v>
       </c>
       <c r="F46" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963A1C2-665D-47BF-9EEC-63C3FB8868AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE7970-8EA4-431E-A45C-080A7143B14B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-19605" yWindow="10800" windowWidth="18570" windowHeight="12480" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -13051,8 +13051,8 @@
   <dimension ref="A1:Y2019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="3" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D573" sqref="D573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20729,13 +20729,13 @@
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B572" s="32">
+      <c r="B572" s="83">
         <v>43375</v>
       </c>
       <c r="F572" t="s">
         <v>2412</v>
       </c>
-      <c r="G572" t="s">
+      <c r="G572" s="3" t="s">
         <v>2413</v>
       </c>
     </row>
@@ -24480,7 +24480,7 @@
       <c r="F924" t="s">
         <v>2414</v>
       </c>
-      <c r="G924" t="s">
+      <c r="G924" s="3" t="s">
         <v>2415</v>
       </c>
     </row>
@@ -34979,10 +34979,12 @@
     <hyperlink ref="G6" r:id="rId833" xr:uid="{408EA5BB-EEC6-467F-980E-43BDCF41646F}"/>
     <hyperlink ref="G331" r:id="rId834" xr:uid="{53E7C097-E2C6-48EA-B963-4159C0ED21EA}"/>
     <hyperlink ref="G197" r:id="rId835" xr:uid="{F11B3F97-7283-42C8-9E1C-D47EDE6E2886}"/>
+    <hyperlink ref="G924" r:id="rId836" xr:uid="{31AE34AB-4FE7-4F41-830E-12DAB5D1D142}"/>
+    <hyperlink ref="G572" r:id="rId837" xr:uid="{11AF1195-59BE-43AB-995C-B10527F76EB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId836"/>
-  <drawing r:id="rId837"/>
+  <pageSetup orientation="portrait" r:id="rId838"/>
+  <drawing r:id="rId839"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174835F3-E240-4535-B310-1F8B4803D375}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF5430-D7A1-4036-8BCA-495A43A9A1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29220" yWindow="12405" windowWidth="18570" windowHeight="11250" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="2895" yWindow="7170" windowWidth="24660" windowHeight="17745" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="3031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="3032">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9137,6 +9137,9 @@
   </si>
   <si>
     <t>Peter Surda</t>
+  </si>
+  <si>
+    <t>talib</t>
   </si>
 </sst>
 </file>
@@ -13058,8 +13061,8 @@
   <dimension ref="A1:Y2016"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A939" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E961" sqref="E961"/>
+      <pane ySplit="3" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F743" sqref="F743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22641,7 +22644,9 @@
       </c>
       <c r="C743" s="60"/>
       <c r="D743" s="60"/>
-      <c r="E743" s="60"/>
+      <c r="E743" s="60" t="s">
+        <v>3031</v>
+      </c>
       <c r="F743" s="60"/>
       <c r="G743" s="3" t="s">
         <v>1435</v>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DADB4-662C-4897-9708-35C1410CD904}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E1895-37F9-40DF-B1DC-B0D6C50E930A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="7170" windowWidth="24660" windowHeight="17745" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -13067,8 +13067,8 @@
   <dimension ref="A1:Y2044"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="3" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F764" sqref="F764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22828,7 +22828,7 @@
       <c r="G765" s="3"/>
     </row>
     <row r="766" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B766" s="83">
+      <c r="B766" s="35">
         <v>43119</v>
       </c>
       <c r="E766" t="s">
@@ -22842,7 +22842,7 @@
       </c>
     </row>
     <row r="767" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B767" s="82">
+      <c r="B767" s="68">
         <v>43130</v>
       </c>
       <c r="C767" s="60"/>
@@ -22858,7 +22858,7 @@
       </c>
     </row>
     <row r="768" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B768" s="83">
+      <c r="B768" s="35">
         <v>43123</v>
       </c>
       <c r="C768" s="21" t="s">
@@ -22872,7 +22872,7 @@
       </c>
     </row>
     <row r="769" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B769" s="82">
+      <c r="B769" s="68">
         <v>43128</v>
       </c>
       <c r="C769" s="60" t="s">
@@ -22902,7 +22902,7 @@
       </c>
     </row>
     <row r="771" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B771" s="82">
+      <c r="B771" s="68">
         <v>43122</v>
       </c>
       <c r="C771" s="60"/>
@@ -22916,7 +22916,7 @@
       </c>
     </row>
     <row r="772" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B772" s="82">
+      <c r="B772" s="68">
         <v>43111</v>
       </c>
       <c r="C772" s="60"/>
@@ -22940,7 +22940,7 @@
       </c>
     </row>
     <row r="774" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B774" s="83">
+      <c r="B774" s="35">
         <v>43113</v>
       </c>
       <c r="C774" s="53"/>
@@ -34378,13 +34378,13 @@
     <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1048576 G1282:G1283 G716:G717 F715 G180:G199 G176:G178 G1:G14 G116 F85 G142:G144 G223:G224 G150:G166 G168:G170 F167 G172 G220 G721:G743 G206:G217 G146:G147 G229:G297 G746:G755 G622:G637 G528:G533 G536:G589 G591:G598 G644:G714 G475:G518 G360:G464 G351:G353 G1652:G1953 G1148:G1205 G923:G951 G1068:G1146 G1964 G1958:G1962 G1955:G1956 G910:G911 G776:G800 G1313:G1357 G1060:G1062 G1308:G1311 G758:G773 G913:G921 G1207:G1213 G1550:G1650 G802:G819 G889:G908 G821:G887 G299:G342 G1279:G1280 G1064:G1065 G1359:G1512 G979:G995 G1285:G1306 G600:G618 G953:G977 G719 G1514:G1548 G997:G1057 G84 G355:G357 G1215:G1277 G16:G32">
-    <cfRule type="duplicateValues" dxfId="2" priority="15320"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1966:G1048576 G1822 G1876:G1953 G1797:G1800 G1802:G1812 G1848:G1853 G602:G606 G883:G887 G180:G199 G176:G178 G1:G14 G116 F85 G142:G144 G150:G166 G168:G170 F167 G172 G223:G224 G262:G263 G265:G270 G275:G288 G447:G457 G587:G589 G593:G596 G351:G353 G700:G701 G654:G688 G622:G637 G610:G618 G690:G696 G705:G706 G724:G725 G703 G732:G737 G931:G936 G1197:G1201 G1387:G1393 G1395:G1400 G1546:G1548 G1640 G1644 G1756:G1760 G1790:G1794 G1771:G1773 G929 G698 H1351 G308:G337 G339:G340 G727:G730 G245:G260 G1868:G1874 G1861:G1866 G1855:G1859 G1827:G1836 G1776:G1788 G1767:G1769 G1764 G1734:G1735 G1716:G1731 G1713 G1687:G1708 G1661:G1683 G1594:G1633 G1581:G1592 G1554:G1572 G1509:G1512 G1495:G1507 G1478:G1484 G1491:G1492 G1462:G1475 G1442:G1454 G1421:G1440 G1404:G1418 G1366:G1385 G1354:G1357 G1335:G1351 G1319:G1333 G1283 G1271:G1277 G1251:G1269 G1233:G1248 G1204:G1205 G1153:G1195 G1151 G1133:G1142 G1123:G1127 G1100:G1112 G1073:G1096 G1068:G1071 G1060:G1062 G1047:G1056 G1043:G1044 G1037:G1040 G1027:G1035 G1008:G1024 G998:G1005 G974:G977 G964:G972 G944:G951 G910:G911 G822:G881 G802:G819 G768:G773 G776:G796 G746:G754 G739 G765:G766 G716:G717 F715 G532:G533 G536:G537 G539:G584 G528:G530 G461:G464 G360:G442 G290 G292:G297 H231 G220 G721:G722 G206:G217 G146:G147 G229:G243 G644:G651 G475:G518 G923:G927 G1964 G1958:G1962 G1955:G1956 G1308:G1311 G913:G921 G1207:G1213 G1550:G1552 G889:G905 G299:G306 G1279:G1280 G1064 G1359:G1363 G979:G995 G1285:G1306 G953:G960 G719 G1514:G1542 G84 G355:G356 G1215:G1230 G16:G32">
-    <cfRule type="duplicateValues" dxfId="1" priority="15383"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1970:G1985 G456:G457 G1822 G1913:G1920 G596 G727:G730 G587 G1798:G1800 G1802:G1812 G1848:G1853 G1730:G1731 G624:G633 G835:G837 G1726 G1584:G1588 G1603:G1630 G1633 G1640 G1644 G1515:G1520 G1540 G1525:G1537 G1523 G1272 G1320:G1330 G1332 G1091:G1094 G1088 G967:G972 G1068:G1071 G964 G180:G199 G176:G178 G1:G14 G116 F85 G142:G144 G302 G150:G166 G168:G170 F167 G172 G223:G224 G435:G439 G475 G413:G432 G916 G918 G705 G700:G701 G696 G690:G691 G1478:G1482 G1454 G1378:G1384 G1413:G1418 G1243:G1247 G1233:G1237 G1239:G1241 G1156:G1157 G1205 G1289:G1297 G1302:G1306 G1680:G1683 G1554:G1561 G1425:G1426 G1428:G1430 G1433 G1435:G1437 G1694:G1699 G1702:G1707 G1713 G1718:G1724 G1665:G1671 G1590:G1592 G1371:G1376 G1004:G1005 G1024 G1199 G1400 G1348 G1216 G1137:G1140 G1397:G1398 G900 G999 G1112 G1570 G1673:G1677 G1688 G839:G841 G843:G847 G849:G881 G883:G887 G1035 G1225:G1227 G924:G927 G931:G936 G976:G977 G929 G813 G824 G826:G828 G788:G790 G792:G796 G694 G678:G682 G655:G660 G449:G450 G905 G945:G948 G1010 G1040 G1074:G1084 G1106:G1109 G1142 G1162:G1195 G1218:G1223 G1251:G1259 G1335:G1344 G1392:G1393 G1395 G1440 G1448:G1452 G1563:G1568 G1756 G1758:G1760 G1771:G1773 G1861:G1864 G1866 G1876:G1904 G1922:G1946 G1987:G1992 G1996:G1048576 G724 G754 G1857:G1858 G477:G518 G452:G454 G536:G537 G463:G464 G539:G580 G582:G584 G610 G662:G675 G645:G648 G721:G722 G732:G737 G703 G1351:H1351 G776:G785 G746:G750 G739 G245:G258 G292 G1868:G1871 G1827:G1836 G1776:G1783 G1767:G1769 G1764 G1734:G1735 G1716 G1661:G1663 G1594:G1599 G1463:G1475 G1442:G1445 G1421 G1404:G1410 G1366:G1369 G1354:G1357 G1153:G1154 G1151 G1133 G1123:G1127 G1060:G1061 G1047:G1056 G1043:G1044 G1037:G1038 G1027:G1032 G1008 G910:G911 G802:G807 G768 G765:G766 G528:G530 H231 G220 G206:G217 G146:G147 G229:G243 G1308:G1311 G913:G914 G1207:G1213 G889:G898 G1359:G1363 G979:G995 G84 G16:G32">
-    <cfRule type="duplicateValues" dxfId="0" priority="15532"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G1944" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -38184,25 +38184,25 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E177:F1048576 E1:F3 F4:F43 F45:F141 F143:F174 F176">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E96 E177:E1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E148">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E174">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:F175">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" xr:uid="{0E2C5374-AC71-44BB-B699-D388328F7EE0}"/>
@@ -40487,80 +40487,80 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G52">
-    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F52">
-    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G83">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F83">
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F106">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G106">
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F122 F124">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F151">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F141">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F152">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" xr:uid="{D2498515-12E3-4313-8BEB-4779B44A87F1}"/>
@@ -40740,27 +40740,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 F7">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{C20CE396-70CC-4013-91C5-39B81FBF07EF}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0B26A-6E7E-4FB2-9FC3-CBC9C8DF6DFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F02C5-41CD-485B-94E9-00283C6D0D11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23310" yWindow="6255" windowWidth="24660" windowHeight="17745" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-25260" yWindow="10410" windowWidth="24660" windowHeight="8700" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="3111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="3118">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9377,6 +9377,27 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/Bitcoin/comments/8iz8ge/list_of_legendary_bitcointalk_posts/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@btconometrics/stock-to-flow-influences-on-bitcoin-price-8a52e475c7a1</t>
+  </si>
+  <si>
+    <t>Stock-to-Flow Influences on Bitcoin Price</t>
+  </si>
+  <si>
+    <t>https://limitlesscuriosity.com/essays/stop-calling-for-a-free-market-in-money</t>
+  </si>
+  <si>
+    <t>Stop Calling for a Free Market in Money</t>
+  </si>
+  <si>
+    <t>The Number Zero and Bitcoin</t>
+  </si>
+  <si>
+    <t>https://medium.com/@breedlove22/the-number-zero-and-bitcoin-4c193336db5b</t>
+  </si>
+  <si>
+    <t>Breedlove</t>
   </si>
 </sst>
 </file>
@@ -12996,6 +13017,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1708897</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="clancyrodgersart's profile picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0904472-75AE-4920-86CE-7DED2EB6389F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3339353" y="10152529"/>
+          <a:ext cx="1428750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13298,9 +13380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2071"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13451,18 +13533,30 @@
       <c r="B12" s="56"/>
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="56" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F12" s="117" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3116</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F13" s="117" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3113</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -13470,8 +13564,12 @@
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="117" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3111</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
@@ -13481,7 +13579,7 @@
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="96" t="s">
         <v>3033</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -13511,7 +13609,7 @@
       <c r="E17" s="56" t="s">
         <v>3038</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="117" t="s">
         <v>3037</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -13524,7 +13622,7 @@
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="117" t="s">
         <v>3039</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -13975,7 +14073,7 @@
       <c r="C53" s="75"/>
       <c r="D53" s="56"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
+      <c r="F53"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -34995,7 +35093,7 @@
   <conditionalFormatting sqref="F766">
     <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2072:F1048576 F482:F484 F1849 F623 B754 F1888:F1891 F1785:F1787 F1798:F1800 F1804:F1810 F651:F662 F862:F864 F1460 G1480 F994:F999 F1118:F1120 F1362:F1369 F1115 F207:F214 F203:F205 F1:F17 F114:F125 F617 F329 F177 F195:F197 F199 F250:F252 F461 F479:F480 F502 F440:F459 F838:F839 F866:F868 F870:F874 F851:F855 F732 F727:F728 F723 F705:F709 F682:F687 F717:F718 F816:F817 F819:F823 F814 F1581:F1582 F1707:F1710 F1730 F1749:F1751 F1756:F1758 F1753:F1754 F1542:F1547 F1567 F1552:F1561 F1550 F1424:F1425 F1427 F1440:F1442 F1621:F1626 F1492:F1502 F1505 F1507 F1598 F1394:F1395 F1405:F1409 F1263:F1268 F1270:F1271 F1350:F1355 F1357 F1373:F1375 F1401 F1371 F1336 F1330 F880:F908 F910:F915 F1206:F1220 F1231:F1232 F1064:F1065 F1714:F1716 F1723 F1299 F1315:F1327 F1301 F1292 F1054:F1061 B1997:B2019 B2023:B2071 B696 F1411 F1444:F1445 F1455 F945:F946 F943 F939:F941 F1095:F1098 F1106:F1111 F1420 F1630:F1636 F1639:F1656 F1725:F1726 F1178 F1274 F1164:F1167 F1225 F1139 F697:F702 F751 F781 F755:F757 F951:F954 F958:F963 F1003:F1004 F956 F991 F972:F975 F1067 F1101:F1102 F1245:F1253 F1260:F1261 F1278:F1286 F1381 F1825:F1827 F1893 F1903:F1931 F1940:F1947 F1949:F1958 F720:F721 F504:F545 F563:F564 F490:F491 F566:F607 F609:F611 F614 F620 F637 F917:F925 F690:F695 F672:F675 F748:F749 F760:F764 F775:F777 F319 F278 F280:F285 F801 F272:F276 F270 F1836:F1839 F1877:F1880 F1697:F1704 F803:F812 F1895:F1898 F1854:F1863 F1794:F1796 F1791 F1761:F1762 F1608:F1617 F1452:F1453 F1431:F1437 F1160 F1150:F1154 F1085 F1074:F1083 F1070:F1071 F1001 F829:F834 F795 F792:F793 F555:F557 F1332:F1334 F1338:F1339 F1385:F1390 F486 F1255:F1257 F224:F226 F228:F229 F216:F222 F231:F247 F192:F193 F1960:F1973 F186:F187 F184 F179:F181 F189:F190 F171:F174 F163:F167 F256:F268 F153:F161 F169 F129:F130 F142:F147 F64 F1234:F1240 F1006:F1023 F1087:F1088 F66:F79 F81:F82 F84 F1242:F1243 F88:F89 F91 F93:F96 F111 F19:F60">
+  <conditionalFormatting sqref="F2072:F1048576 F482:F484 F1849 F623 B754 F1888:F1891 F1785:F1787 F1798:F1800 F1804:F1810 F651:F662 F862:F864 F1460 G1480 F994:F999 F1118:F1120 F1362:F1369 F1115 F207:F214 F203:F205 F1:F17 F114:F125 F617 F329 F177 F195:F197 F199 F250:F252 F461 F479:F480 F502 F440:F459 F838:F839 F866:F868 F870:F874 F851:F855 F732 F727:F728 F723 F705:F709 F682:F687 F717:F718 F816:F817 F819:F823 F814 F1581:F1582 F1707:F1710 F1730 F1749:F1751 F1756:F1758 F1753:F1754 F1542:F1547 F1567 F1552:F1561 F1550 F1424:F1425 F1427 F1440:F1442 F1621:F1626 F1492:F1502 F1505 F1507 F1598 F1394:F1395 F1405:F1409 F1263:F1268 F1270:F1271 F1350:F1355 F1357 F1373:F1375 F1401 F1371 F1336 F1330 F880:F908 F910:F915 F1206:F1220 F1231:F1232 F1064:F1065 F1714:F1716 F1723 F1299 F1315:F1327 F1301 F1292 F1054:F1061 B1997:B2019 B2023:B2071 B696 F1411 F1444:F1445 F1455 F945:F946 F943 F939:F941 F1095:F1098 F1106:F1111 F1420 F1630:F1636 F1639:F1656 F1725:F1726 F1178 F1274 F1164:F1167 F1225 F1139 F697:F702 F751 F781 F755:F757 F951:F954 F958:F963 F1003:F1004 F956 F991 F972:F975 F1067 F1101:F1102 F1245:F1253 F1260:F1261 F1278:F1286 F1381 F1825:F1827 F1893 F1903:F1931 F1940:F1947 F1949:F1958 F720:F721 F504:F545 F563:F564 F490:F491 F566:F607 F609:F611 F614 F620 F637 F917:F925 F690:F695 F672:F675 F748:F749 F760:F764 F775:F777 F319 F278 F280:F285 F801 F272:F276 F270 F1836:F1839 F1877:F1880 F1697:F1704 F803:F812 F1895:F1898 F1854:F1863 F1794:F1796 F1791 F1761:F1762 F1608:F1617 F1452:F1453 F1431:F1437 F1160 F1150:F1154 F1085 F1074:F1083 F1070:F1071 F1001 F829:F834 F795 F792:F793 F555:F557 F1332:F1334 F1338:F1339 F1385:F1390 F486 F1255:F1257 F224:F226 F228:F229 F216:F222 F231:F247 F192:F193 F1960:F1973 F186:F187 F184 F179:F181 F189:F190 F171:F174 F163:F167 F256:F268 F153:F161 F169 F129:F130 F142:F147 F64 F1234:F1240 F1006:F1023 F1087:F1088 F66:F79 F81:F82 F84 F1242:F1243 F88:F89 F91 F93:F96 F111 F19:F52 F54:F60">
     <cfRule type="duplicateValues" dxfId="48" priority="15212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G615:G616">
@@ -35019,13 +35117,13 @@
   <conditionalFormatting sqref="F1024">
     <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1993:G1048576 G1309:G1310 G743:G744 F742 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G250:G251 G177:G193 G195:G197 F194 G199 G247 G748:G770 G233:G244 G173:G174 G256:G324 G773:G782 G649:G664 G555:G560 G563:G616 G618:G625 G671:G688 G502:G545 G387:G491 G378:G380 G1679:G1980 G1175:G1232 G950:G978 G1095:G1153 G1991 G1985:G1989 G1982:G1983 G937:G938 G803:G827 G1340:G1384 G1087:G1089 G1335:G1338 G785:G800 G940:G948 G1234:G1240 G1577:G1677 G829:G846 G916:G935 G848:G914 G326:G369 G1306:G1307 G1091:G1092 G1386:G1539 G1006:G1022 G1312:G1333 G627:G645 G980:G1004 G746 G1541:G1575 G1024:G1084 G111 G382:G384 G1242:G1304 F18 G56:G57 G59 G1155:G1173 G690:G741 G7:G14">
+  <conditionalFormatting sqref="G1993:G1048576 G1309:G1310 G743:G744 F742 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G250:G251 G177:G193 G195:G197 F194 G199 G247 G748:G770 G233:G244 G173:G174 G256:G324 G773:G782 G649:G664 G555:G560 G563:G616 G618:G625 G671:G688 G502:G545 G387:G491 G378:G380 G1679:G1980 G1175:G1232 G950:G978 G1095:G1153 G1991 G1985:G1989 G1982:G1983 G937:G938 G803:G827 G1340:G1384 G1087:G1089 G1335:G1338 G785:G800 G940:G948 G1234:G1240 G1577:G1677 G829:G846 G916:G935 G848:G914 G326:G369 G1306:G1307 G1091:G1092 G1386:G1539 G1006:G1022 G1312:G1333 G627:G645 G980:G1004 G746 G1541:G1575 G1024:G1084 G111 G382:G384 G1242:G1304 F18 G56:G57 G59 G1155:G1173 G690:G741 G7:G11">
     <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1993:G1048576 G1849 G1903:G1980 G1824:G1827 G1829:G1839 G1875:G1880 G629:G633 G910:G914 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G177:G193 G195:G197 F194 G199 G250:G251 G289:G290 G292:G297 G302:G315 G474:G484 G614:G616 G620:G623 G378:G380 G727:G728 G681:G688 G649:G664 G637:G645 G717:G723 G732:G733 G751:G752 G730 G759:G764 G958:G963 G1224:G1228 G1414:G1420 G1422:G1427 G1573:G1575 G1667 G1671 G1783:G1787 G1817:G1821 G1798:G1800 G956 G725 H1378 G335:G364 G366:G367 G754:G757 G272:G287 G1895:G1901 G1888:G1893 G1882:G1886 G1854:G1863 G1803:G1815 G1794:G1796 G1791 G1761:G1762 G1743:G1758 G1740 G1714:G1735 G1688:G1710 G1621:G1660 G1608:G1619 G1581:G1599 G1536:G1539 G1522:G1534 G1505:G1511 G1518:G1519 G1489:G1502 G1469:G1481 G1448:G1467 G1431:G1445 G1393:G1412 G1381:G1384 G1362:G1378 G1346:G1360 G1310 G1298:G1304 G1278:G1296 G1260:G1275 G1231:G1232 G1180:G1222 G1178 G1160:G1169 G1150:G1153 G1127:G1139 G1100:G1123 G1095:G1098 G1087:G1089 G1074:G1083 G1070:G1071 G1064:G1067 G1054:G1062 G1035:G1051 G1025:G1032 G1001:G1004 G991:G999 G971:G978 G937:G938 G849:G908 G829:G846 G795:G800 G803:G823 G773:G781 G766 G792:G793 G743:G744 F742 G559:G560 G563:G564 G566:G611 G555:G557 G488:G491 G387:G469 G317 G319:G324 H258 G247 G748:G749 G233:G244 G173:G174 G256:G270 G671:G678 G502:G545 G950:G954 G1991 G1985:G1989 G1982:G1983 G1335:G1338 G940:G948 G1234:G1240 G1577:G1579 G916:G932 G326:G333 G1306:G1307 G1091 G1386:G1390 G1006:G1022 G1312:G1333 G980:G987 G746 G1541:G1569 G111 G382:G383 G1242:G1257 F18 G56:G57 G59 G690:G715 G7:G14">
+  <conditionalFormatting sqref="G1993:G1048576 G1849 G1903:G1980 G1824:G1827 G1829:G1839 G1875:G1880 G629:G633 G910:G914 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G177:G193 G195:G197 F194 G199 G250:G251 G289:G290 G292:G297 G302:G315 G474:G484 G614:G616 G620:G623 G378:G380 G727:G728 G681:G688 G649:G664 G637:G645 G717:G723 G732:G733 G751:G752 G730 G759:G764 G958:G963 G1224:G1228 G1414:G1420 G1422:G1427 G1573:G1575 G1667 G1671 G1783:G1787 G1817:G1821 G1798:G1800 G956 G725 H1378 G335:G364 G366:G367 G754:G757 G272:G287 G1895:G1901 G1888:G1893 G1882:G1886 G1854:G1863 G1803:G1815 G1794:G1796 G1791 G1761:G1762 G1743:G1758 G1740 G1714:G1735 G1688:G1710 G1621:G1660 G1608:G1619 G1581:G1599 G1536:G1539 G1522:G1534 G1505:G1511 G1518:G1519 G1489:G1502 G1469:G1481 G1448:G1467 G1431:G1445 G1393:G1412 G1381:G1384 G1362:G1378 G1346:G1360 G1310 G1298:G1304 G1278:G1296 G1260:G1275 G1231:G1232 G1180:G1222 G1178 G1160:G1169 G1150:G1153 G1127:G1139 G1100:G1123 G1095:G1098 G1087:G1089 G1074:G1083 G1070:G1071 G1064:G1067 G1054:G1062 G1035:G1051 G1025:G1032 G1001:G1004 G991:G999 G971:G978 G937:G938 G849:G908 G829:G846 G795:G800 G803:G823 G773:G781 G766 G792:G793 G743:G744 F742 G559:G560 G563:G564 G566:G611 G555:G557 G488:G491 G387:G469 G317 G319:G324 H258 G247 G748:G749 G233:G244 G173:G174 G256:G270 G671:G678 G502:G545 G950:G954 G1991 G1985:G1989 G1982:G1983 G1335:G1338 G940:G948 G1234:G1240 G1577:G1579 G916:G932 G326:G333 G1306:G1307 G1091 G1386:G1390 G1006:G1022 G1312:G1333 G980:G987 G746 G1541:G1569 G111 G382:G383 G1242:G1257 F18 G56:G57 G59 G690:G715 G7:G11">
     <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1997:G2012 G483:G484 G1849 G1940:G1947 G623 G754:G757 G614 G1825:G1827 G1829:G1839 G1875:G1880 G1757:G1758 G651:G660 G862:G864 G1753 G1611:G1615 G1630:G1657 G1660 G1667 G1671 G1542:G1547 G1567 G1552:G1564 G1550 G1299 G1347:G1357 G1359 G1118:G1121 G1115 G994:G999 G1095:G1098 G991 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G329 G177:G193 G195:G197 F194 G199 G250:G251 G462:G466 G502 G440:G459 G943 G945 G732 G727:G728 G723 G717:G718 G1505:G1509 G1481 G1405:G1411 G1440:G1445 G1270:G1274 G1260:G1264 G1266:G1268 G1183:G1184 G1232 G1316:G1324 G1329:G1333 G1707:G1710 G1581:G1588 G1452:G1453 G1455:G1457 G1460 G1462:G1464 G1721:G1726 G1729:G1734 G1740 G1745:G1751 G1692:G1698 G1617:G1619 G1398:G1403 G1031:G1032 G1051 G1226 G1427 G1375 G1243 G1164:G1167 G1424:G1425 G927 G1026 G1139 G1597 G1700:G1704 G1715 G866:G868 G870:G874 G876:G908 G910:G914 G1062 G1252:G1254 G951:G954 G958:G963 G1003:G1004 G956 G840 G851 G853:G855 G815:G817 G819:G823 G721 G705:G709 G682:G687 G476:G477 G932 G972:G975 G1037 G1067 G1101:G1111 G1133:G1136 G1169 G1189:G1222 G1245:G1250 G1278:G1286 G1362:G1371 G1419:G1420 G1422 G1467 G1475:G1479 G1590:G1595 G1783 G1785:G1787 G1798:G1800 G1888:G1891 G1893 G1903:G1931 G1949:G1973 G2014:G2019 G2023:G1048576 G751 G781 G1884:G1885 G504:G545 G479:G481 G563:G564 G490:G491 G566:G607 G609:G611 G637 G690:G702 G672:G675 G748:G749 G759:G764 G730 G1378:H1378 G803:G812 G773:G777 G766 G272:G285 G319 G1895:G1898 G1854:G1863 G1803:G1810 G1794:G1796 G1791 G1761:G1762 G1743 G1688:G1690 G1621:G1626 G1490:G1502 G1469:G1472 G1448 G1431:G1437 G1393:G1396 G1381:G1384 G1180:G1181 G1178 G1160 G1150:G1153 G1087:G1088 G1074:G1083 G1070:G1071 G1064:G1065 G1054:G1059 G1035 G937:G938 G829:G834 G795 G792:G793 G555:G557 H258 G247 G233:G244 G173:G174 G256:G270 G1335:G1338 G940:G941 G1234:G1240 G916:G925 G1386:G1390 G1006:G1022 G111 F18 G56:G57 G59 G7:G14">
+  <conditionalFormatting sqref="G1997:G2012 G483:G484 G1849 G1940:G1947 G623 G754:G757 G614 G1825:G1827 G1829:G1839 G1875:G1880 G1757:G1758 G651:G660 G862:G864 G1753 G1611:G1615 G1630:G1657 G1660 G1667 G1671 G1542:G1547 G1567 G1552:G1564 G1550 G1299 G1347:G1357 G1359 G1118:G1121 G1115 G994:G999 G1095:G1098 G991 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G329 G177:G193 G195:G197 F194 G199 G250:G251 G462:G466 G502 G440:G459 G943 G945 G732 G727:G728 G723 G717:G718 G1505:G1509 G1481 G1405:G1411 G1440:G1445 G1270:G1274 G1260:G1264 G1266:G1268 G1183:G1184 G1232 G1316:G1324 G1329:G1333 G1707:G1710 G1581:G1588 G1452:G1453 G1455:G1457 G1460 G1462:G1464 G1721:G1726 G1729:G1734 G1740 G1745:G1751 G1692:G1698 G1617:G1619 G1398:G1403 G1031:G1032 G1051 G1226 G1427 G1375 G1243 G1164:G1167 G1424:G1425 G927 G1026 G1139 G1597 G1700:G1704 G1715 G866:G868 G870:G874 G876:G908 G910:G914 G1062 G1252:G1254 G951:G954 G958:G963 G1003:G1004 G956 G840 G851 G853:G855 G815:G817 G819:G823 G721 G705:G709 G682:G687 G476:G477 G932 G972:G975 G1037 G1067 G1101:G1111 G1133:G1136 G1169 G1189:G1222 G1245:G1250 G1278:G1286 G1362:G1371 G1419:G1420 G1422 G1467 G1475:G1479 G1590:G1595 G1783 G1785:G1787 G1798:G1800 G1888:G1891 G1893 G1903:G1931 G1949:G1973 G2014:G2019 G2023:G1048576 G751 G781 G1884:G1885 G504:G545 G479:G481 G563:G564 G490:G491 G566:G607 G609:G611 G637 G690:G702 G672:G675 G748:G749 G759:G764 G730 G1378:H1378 G803:G812 G773:G777 G766 G272:G285 G319 G1895:G1898 G1854:G1863 G1803:G1810 G1794:G1796 G1791 G1761:G1762 G1743 G1688:G1690 G1621:G1626 G1490:G1502 G1469:G1472 G1448 G1431:G1437 G1393:G1396 G1381:G1384 G1180:G1181 G1178 G1160 G1150:G1153 G1087:G1088 G1074:G1083 G1070:G1071 G1064:G1065 G1054:G1059 G1035 G937:G938 G829:G834 G795 G792:G793 G555:G557 H258 G247 G233:G244 G173:G174 G256:G270 G1335:G1338 G940:G941 G1234:G1240 G916:G925 G1386:G1390 G1006:G1022 G111 F18 G56:G57 G59 G7:G11">
     <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -35908,10 +36006,13 @@
     <hyperlink ref="G49" r:id="rId877" xr:uid="{AA195322-351D-42B5-8AD9-E29B62FAD157}"/>
     <hyperlink ref="G50" r:id="rId878" xr:uid="{52C83D6A-C363-4B79-B40C-B7A4C77F6583}"/>
     <hyperlink ref="G6" r:id="rId879" xr:uid="{33E9A75B-7A5E-4563-BF5A-4D38BCB32A4B}"/>
+    <hyperlink ref="G14" r:id="rId880" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
+    <hyperlink ref="G13" r:id="rId881" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
+    <hyperlink ref="G12" r:id="rId882" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId880"/>
-  <drawing r:id="rId881"/>
+  <pageSetup orientation="portrait" r:id="rId883"/>
+  <drawing r:id="rId884"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F02C5-41CD-485B-94E9-00283C6D0D11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BEDA8-2655-44BA-BA73-5AEF54092688}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="10410" windowWidth="24660" windowHeight="8700" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-25260" yWindow="10410" windowWidth="24660" windowHeight="14730" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -13381,8 +13381,8 @@
   <dimension ref="A1:Y2071"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13635,7 +13635,7 @@
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="85" t="s">
         <v>3041</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -13648,7 +13648,7 @@
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="117" t="s">
         <v>3043</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -13674,7 +13674,7 @@
       <c r="C22" s="75"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="117" t="s">
         <v>3048</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -13687,7 +13687,7 @@
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="117" t="s">
         <v>3049</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -13700,7 +13700,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="117" t="s">
         <v>3053</v>
       </c>
       <c r="G24" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BEDA8-2655-44BA-BA73-5AEF54092688}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFE822-333B-4D83-A5EB-52145E1EDE86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="10410" windowWidth="24660" windowHeight="14730" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="3118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="3120">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9398,6 +9398,12 @@
   </si>
   <si>
     <t>Breedlove</t>
+  </si>
+  <si>
+    <t>https://medium.com/@dergigi/dear-bitcoiners-73f87e2380f2</t>
+  </si>
+  <si>
+    <t>Dear Bitcoiners</t>
   </si>
 </sst>
 </file>
@@ -9897,7 +9903,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -13380,9 +13386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13536,7 +13542,7 @@
       <c r="E12" s="56" t="s">
         <v>3117</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="108" t="s">
         <v>3115</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -13551,7 +13557,7 @@
       <c r="E13" s="56" t="s">
         <v>3038</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="108" t="s">
         <v>3114</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -13564,7 +13570,7 @@
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="108" t="s">
         <v>3112</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -13609,7 +13615,7 @@
       <c r="E17" s="56" t="s">
         <v>3038</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="108" t="s">
         <v>3037</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -13622,7 +13628,7 @@
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="108" t="s">
         <v>3039</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -13635,7 +13641,7 @@
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="96" t="s">
         <v>3041</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -13648,7 +13654,7 @@
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
-      <c r="F20" s="117" t="s">
+      <c r="F20" s="108" t="s">
         <v>3043</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -13661,7 +13667,7 @@
       <c r="C21" s="75"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="96" t="s">
         <v>3045</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -13674,7 +13680,7 @@
       <c r="C22" s="75"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="108" t="s">
         <v>3048</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -13687,7 +13693,7 @@
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="117" t="s">
+      <c r="F23" s="108" t="s">
         <v>3049</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -13700,7 +13706,7 @@
       <c r="C24" s="75"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="117" t="s">
+      <c r="F24" s="108" t="s">
         <v>3053</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -13713,7 +13719,7 @@
       <c r="C25" s="75"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="96" t="s">
         <v>3055</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -13726,7 +13732,7 @@
       <c r="C26" s="75"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="96" t="s">
         <v>3058</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -13739,7 +13745,7 @@
       <c r="C27" s="75"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="108" t="s">
         <v>3059</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -13752,7 +13758,7 @@
       <c r="C28" s="75"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="108" t="s">
         <v>3062</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -13765,7 +13771,7 @@
       <c r="C29" s="75"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="96" t="s">
         <v>3063</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -13777,8 +13783,10 @@
       <c r="B30" s="56"/>
       <c r="C30" s="75"/>
       <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56" t="s">
+      <c r="E30" s="90" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F30" s="108" t="s">
         <v>3065</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -13791,7 +13799,7 @@
       <c r="C31" s="75"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="108" t="s">
         <v>3068</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -13804,7 +13812,7 @@
       <c r="C32" s="75"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="108" t="s">
         <v>3069</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -13817,7 +13825,7 @@
       <c r="C33" s="75"/>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="96" t="s">
         <v>3071</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -13830,7 +13838,7 @@
       <c r="C34" s="75"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="96" t="s">
         <v>3076</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -13843,7 +13851,7 @@
       <c r="C35" s="75"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="108" t="s">
         <v>3075</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -13856,7 +13864,7 @@
       <c r="C36" s="75"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="108" t="s">
         <v>3078</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -13884,7 +13892,7 @@
       <c r="E38" s="56" t="s">
         <v>3086</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="108" t="s">
         <v>3084</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -13896,15 +13904,6 @@
       <c r="B39" s="56"/>
       <c r="C39" s="75"/>
       <c r="D39" s="56"/>
-      <c r="E39" s="56" t="s">
-        <v>2470</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>1930</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>1931</v>
-      </c>
     </row>
     <row r="40" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
@@ -13912,7 +13911,7 @@
       <c r="C40" s="75"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="96" t="s">
         <v>3087</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -13925,7 +13924,7 @@
       <c r="C41" s="75"/>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="96" t="s">
         <v>3089</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -13938,7 +13937,7 @@
       <c r="C42" s="75"/>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="108" t="s">
         <v>3091</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -13951,7 +13950,7 @@
       <c r="C43" s="75"/>
       <c r="D43" s="56"/>
       <c r="E43" s="56"/>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="108" t="s">
         <v>3093</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -13964,7 +13963,7 @@
       <c r="C44" s="75"/>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="108" t="s">
         <v>3096</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -13977,7 +13976,7 @@
       <c r="C45" s="75"/>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="96" t="s">
         <v>3098</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -13990,7 +13989,7 @@
       <c r="C46" s="75"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="96" t="s">
         <v>3099</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -14003,7 +14002,7 @@
       <c r="C47" s="75"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="108" t="s">
         <v>3101</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -14016,7 +14015,7 @@
       <c r="C48" s="75"/>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="96" t="s">
         <v>3103</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -14029,7 +14028,7 @@
       <c r="C49" s="75"/>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="96" t="s">
         <v>3105</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -14042,7 +14041,7 @@
       <c r="C50" s="75"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="56" t="s">
+      <c r="F50" s="108" t="s">
         <v>3107</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -14054,9 +14053,15 @@
       <c r="B51" s="56"/>
       <c r="C51" s="75"/>
       <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="3"/>
+      <c r="E51" s="56" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F51" s="108" t="s">
+        <v>3119</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>3118</v>
+      </c>
     </row>
     <row r="52" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
@@ -14150,7 +14155,7 @@
       <c r="C61" s="75"/>
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="114" t="s">
         <v>3024</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -14184,7 +14189,7 @@
       <c r="E63" s="56" t="s">
         <v>2898</v>
       </c>
-      <c r="F63" s="84" t="s">
+      <c r="F63" s="114" t="s">
         <v>2900</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -14201,7 +14206,7 @@
       <c r="E64" s="56" t="s">
         <v>2901</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="108" t="s">
         <v>2904</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -14233,7 +14238,7 @@
       <c r="E66" s="56" t="s">
         <v>1613</v>
       </c>
-      <c r="F66" s="117" t="s">
+      <c r="F66" s="108" t="s">
         <v>2907</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -14265,7 +14270,7 @@
       <c r="E68" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F68" s="117" t="s">
+      <c r="F68" s="108" t="s">
         <v>2911</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -14280,7 +14285,7 @@
       <c r="E69" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F69" s="117" t="s">
+      <c r="F69" s="108" t="s">
         <v>2909</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -14297,7 +14302,7 @@
       <c r="E70" s="56" t="s">
         <v>2927</v>
       </c>
-      <c r="F70" s="117" t="s">
+      <c r="F70" s="108" t="s">
         <v>2928</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -14314,7 +14319,7 @@
       <c r="E71" s="56" t="s">
         <v>2510</v>
       </c>
-      <c r="F71" s="117" t="s">
+      <c r="F71" s="108" t="s">
         <v>2930</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -14348,7 +14353,7 @@
       <c r="E73" s="56" t="s">
         <v>2937</v>
       </c>
-      <c r="F73" s="117" t="s">
+      <c r="F73" s="108" t="s">
         <v>2935</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -14365,7 +14370,7 @@
       <c r="E74" s="56" t="s">
         <v>2940</v>
       </c>
-      <c r="F74" s="117" t="s">
+      <c r="F74" s="108" t="s">
         <v>2939</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -14382,7 +14387,7 @@
       <c r="E75" s="56" t="s">
         <v>2946</v>
       </c>
-      <c r="F75" s="117" t="s">
+      <c r="F75" s="108" t="s">
         <v>2944</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -14399,7 +14404,7 @@
       <c r="E76" s="56" t="s">
         <v>2949</v>
       </c>
-      <c r="F76" s="117" t="s">
+      <c r="F76" s="108" t="s">
         <v>2948</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -14450,7 +14455,7 @@
       <c r="E79" s="56" t="s">
         <v>2954</v>
       </c>
-      <c r="F79" s="117" t="s">
+      <c r="F79" s="108" t="s">
         <v>2953</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -14467,7 +14472,7 @@
       <c r="E80" s="56" t="s">
         <v>2955</v>
       </c>
-      <c r="F80" s="84" t="s">
+      <c r="F80" s="114" t="s">
         <v>2957</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -14501,7 +14506,7 @@
       <c r="E82" s="56" t="s">
         <v>2510</v>
       </c>
-      <c r="F82" s="117" t="s">
+      <c r="F82" s="108" t="s">
         <v>3007</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -14518,7 +14523,7 @@
       <c r="E83" s="56" t="s">
         <v>2960</v>
       </c>
-      <c r="F83" s="84" t="s">
+      <c r="F83" s="114" t="s">
         <v>2959</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -14531,7 +14536,7 @@
       <c r="C84" s="75"/>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
-      <c r="F84" s="117" t="s">
+      <c r="F84" s="108" t="s">
         <v>2962</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -14565,7 +14570,7 @@
       <c r="E86" s="56" t="s">
         <v>2981</v>
       </c>
-      <c r="F86" s="84" t="s">
+      <c r="F86" s="114" t="s">
         <v>2979</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -14582,7 +14587,7 @@
       <c r="E87" s="56" t="s">
         <v>2976</v>
       </c>
-      <c r="F87" s="84" t="s">
+      <c r="F87" s="114" t="s">
         <v>2978</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -14616,7 +14621,7 @@
       <c r="E89" s="56" t="s">
         <v>2985</v>
       </c>
-      <c r="F89" s="117" t="s">
+      <c r="F89" s="108" t="s">
         <v>2987</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -14650,7 +14655,7 @@
       <c r="E91" s="56" t="s">
         <v>2991</v>
       </c>
-      <c r="F91" s="117" t="s">
+      <c r="F91" s="108" t="s">
         <v>2992</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -14745,7 +14750,7 @@
       <c r="E97" s="56" t="s">
         <v>1762</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="6" t="s">
         <v>3009</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -29672,7 +29677,18 @@
       </c>
     </row>
     <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F1452" s="25"/>
+      <c r="B1452" s="83">
+        <v>41820</v>
+      </c>
+      <c r="E1452" s="56" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F1452" s="56" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G1452" s="3" t="s">
+        <v>1931</v>
+      </c>
     </row>
     <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1455" s="32">
@@ -35093,7 +35109,7 @@
   <conditionalFormatting sqref="F766">
     <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2072:F1048576 F482:F484 F1849 F623 B754 F1888:F1891 F1785:F1787 F1798:F1800 F1804:F1810 F651:F662 F862:F864 F1460 G1480 F994:F999 F1118:F1120 F1362:F1369 F1115 F207:F214 F203:F205 F1:F17 F114:F125 F617 F329 F177 F195:F197 F199 F250:F252 F461 F479:F480 F502 F440:F459 F838:F839 F866:F868 F870:F874 F851:F855 F732 F727:F728 F723 F705:F709 F682:F687 F717:F718 F816:F817 F819:F823 F814 F1581:F1582 F1707:F1710 F1730 F1749:F1751 F1756:F1758 F1753:F1754 F1542:F1547 F1567 F1552:F1561 F1550 F1424:F1425 F1427 F1440:F1442 F1621:F1626 F1492:F1502 F1505 F1507 F1598 F1394:F1395 F1405:F1409 F1263:F1268 F1270:F1271 F1350:F1355 F1357 F1373:F1375 F1401 F1371 F1336 F1330 F880:F908 F910:F915 F1206:F1220 F1231:F1232 F1064:F1065 F1714:F1716 F1723 F1299 F1315:F1327 F1301 F1292 F1054:F1061 B1997:B2019 B2023:B2071 B696 F1411 F1444:F1445 F1455 F945:F946 F943 F939:F941 F1095:F1098 F1106:F1111 F1420 F1630:F1636 F1639:F1656 F1725:F1726 F1178 F1274 F1164:F1167 F1225 F1139 F697:F702 F751 F781 F755:F757 F951:F954 F958:F963 F1003:F1004 F956 F991 F972:F975 F1067 F1101:F1102 F1245:F1253 F1260:F1261 F1278:F1286 F1381 F1825:F1827 F1893 F1903:F1931 F1940:F1947 F1949:F1958 F720:F721 F504:F545 F563:F564 F490:F491 F566:F607 F609:F611 F614 F620 F637 F917:F925 F690:F695 F672:F675 F748:F749 F760:F764 F775:F777 F319 F278 F280:F285 F801 F272:F276 F270 F1836:F1839 F1877:F1880 F1697:F1704 F803:F812 F1895:F1898 F1854:F1863 F1794:F1796 F1791 F1761:F1762 F1608:F1617 F1452:F1453 F1431:F1437 F1160 F1150:F1154 F1085 F1074:F1083 F1070:F1071 F1001 F829:F834 F795 F792:F793 F555:F557 F1332:F1334 F1338:F1339 F1385:F1390 F486 F1255:F1257 F224:F226 F228:F229 F216:F222 F231:F247 F192:F193 F1960:F1973 F186:F187 F184 F179:F181 F189:F190 F171:F174 F163:F167 F256:F268 F153:F161 F169 F129:F130 F142:F147 F64 F1234:F1240 F1006:F1023 F1087:F1088 F66:F79 F81:F82 F84 F1242:F1243 F88:F89 F91 F93:F96 F111 F19:F52 F54:F60">
+  <conditionalFormatting sqref="F2072:F1048576 F482:F484 F1849 F623 B754 F1888:F1891 F1785:F1787 F1798:F1800 F1804:F1810 F651:F662 F862:F864 F1460 G1480 F994:F999 F1118:F1120 F1362:F1369 F1115 F207:F214 F203:F205 F1:F17 F114:F125 F617 F329 F177 F195:F197 F199 F250:F252 F461 F479:F480 F502 F440:F459 F838:F839 F866:F868 F870:F874 F851:F855 F732 F727:F728 F723 F705:F709 F682:F687 F717:F718 F816:F817 F819:F823 F814 F1581:F1582 F1707:F1710 F1730 F1749:F1751 F1756:F1758 F1753:F1754 F1542:F1547 F1567 F1552:F1561 F1550 F1424:F1425 F1427 F1440:F1442 F1621:F1626 F1492:F1502 F1505 F1507 F1598 F1394:F1395 F1405:F1409 F1263:F1268 F1270:F1271 F1350:F1355 F1357 F1373:F1375 F1401 F1371 F1336 F1330 F880:F908 F910:F915 F1206:F1220 F1231:F1232 F1064:F1065 F1714:F1716 F1723 F1299 F1315:F1327 F1301 F1292 F1054:F1061 B1997:B2019 B2023:B2071 B696 F1411 F1444:F1445 F1455 F945:F946 F943 F939:F941 F1095:F1098 F1106:F1111 F1420 F1630:F1636 F1639:F1656 F1725:F1726 F1178 F1274 F1164:F1167 F1225 F1139 F697:F702 F751 F781 F755:F757 F951:F954 F958:F963 F1003:F1004 F956 F991 F972:F975 F1067 F1101:F1102 F1245:F1253 F1260:F1261 F1278:F1286 F1381 F1825:F1827 F1893 F1903:F1931 F1940:F1947 F1949:F1958 F720:F721 F504:F545 F563:F564 F490:F491 F566:F607 F609:F611 F614 F620 F637 F917:F925 F690:F695 F672:F675 F748:F749 F760:F764 F775:F777 F319 F278 F280:F285 F801 F272:F276 F270 F1836:F1839 F1877:F1880 F1697:F1704 F803:F812 F1895:F1898 F1854:F1863 F1794:F1796 F1791 F1761:F1762 F1608:F1617 F1431:F1437 F1160 F1150:F1154 F1085 F1074:F1083 F1070:F1071 F1001 F829:F834 F795 F792:F793 F555:F557 F1332:F1334 F1338:F1339 F1385:F1390 F486 F1255:F1257 F224:F226 F228:F229 F216:F222 F231:F247 F192:F193 F1960:F1973 F186:F187 F184 F179:F181 F189:F190 F171:F174 F163:F167 F256:F268 F153:F161 F169 F129:F130 F142:F147 F64 F1234:F1240 F1006:F1023 F1087:F1088 F66:F79 F81:F82 F84 F1242:F1243 F88:F89 F91 F93:F96 F111 F19:F38 F40:F52 F1452:F1453 F54:F60">
     <cfRule type="duplicateValues" dxfId="48" priority="15212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G615:G616">
@@ -35117,13 +35133,13 @@
   <conditionalFormatting sqref="F1024">
     <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1993:G1048576 G1309:G1310 G743:G744 F742 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G250:G251 G177:G193 G195:G197 F194 G199 G247 G748:G770 G233:G244 G173:G174 G256:G324 G773:G782 G649:G664 G555:G560 G563:G616 G618:G625 G671:G688 G502:G545 G387:G491 G378:G380 G1679:G1980 G1175:G1232 G950:G978 G1095:G1153 G1991 G1985:G1989 G1982:G1983 G937:G938 G803:G827 G1340:G1384 G1087:G1089 G1335:G1338 G785:G800 G940:G948 G1234:G1240 G1577:G1677 G829:G846 G916:G935 G848:G914 G326:G369 G1306:G1307 G1091:G1092 G1386:G1539 G1006:G1022 G1312:G1333 G627:G645 G980:G1004 G746 G1541:G1575 G1024:G1084 G111 G382:G384 G1242:G1304 F18 G56:G57 G59 G1155:G1173 G690:G741 G7:G11">
+  <conditionalFormatting sqref="G1993:G1048576 G1309:G1310 G743:G744 F742 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G250:G251 G177:G193 G195:G197 F194 G199 G247 G748:G770 G233:G244 G173:G174 G256:G324 G773:G782 G649:G664 G555:G560 G563:G616 G618:G625 G671:G688 G502:G545 G387:G491 G378:G380 G1679:G1980 G1175:G1232 G950:G978 G1095:G1153 G1991 G1985:G1989 G1982:G1983 G937:G938 G803:G827 G1340:G1384 G1087:G1089 G1335:G1338 G785:G800 G940:G948 G1234:G1240 G1577:G1677 G829:G846 G916:G935 G848:G914 G326:G369 G1306:G1307 G1091:G1092 G1386:G1451 G1453:G1539 G1006:G1022 G1312:G1333 G627:G645 G980:G1004 G746 G1541:G1575 G1024:G1084 G111 G382:G384 G1242:G1304 F18 G56:G57 G59 G1155:G1173 G690:G741 G7:G11">
     <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1993:G1048576 G1849 G1903:G1980 G1824:G1827 G1829:G1839 G1875:G1880 G629:G633 G910:G914 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G177:G193 G195:G197 F194 G199 G250:G251 G289:G290 G292:G297 G302:G315 G474:G484 G614:G616 G620:G623 G378:G380 G727:G728 G681:G688 G649:G664 G637:G645 G717:G723 G732:G733 G751:G752 G730 G759:G764 G958:G963 G1224:G1228 G1414:G1420 G1422:G1427 G1573:G1575 G1667 G1671 G1783:G1787 G1817:G1821 G1798:G1800 G956 G725 H1378 G335:G364 G366:G367 G754:G757 G272:G287 G1895:G1901 G1888:G1893 G1882:G1886 G1854:G1863 G1803:G1815 G1794:G1796 G1791 G1761:G1762 G1743:G1758 G1740 G1714:G1735 G1688:G1710 G1621:G1660 G1608:G1619 G1581:G1599 G1536:G1539 G1522:G1534 G1505:G1511 G1518:G1519 G1489:G1502 G1469:G1481 G1448:G1467 G1431:G1445 G1393:G1412 G1381:G1384 G1362:G1378 G1346:G1360 G1310 G1298:G1304 G1278:G1296 G1260:G1275 G1231:G1232 G1180:G1222 G1178 G1160:G1169 G1150:G1153 G1127:G1139 G1100:G1123 G1095:G1098 G1087:G1089 G1074:G1083 G1070:G1071 G1064:G1067 G1054:G1062 G1035:G1051 G1025:G1032 G1001:G1004 G991:G999 G971:G978 G937:G938 G849:G908 G829:G846 G795:G800 G803:G823 G773:G781 G766 G792:G793 G743:G744 F742 G559:G560 G563:G564 G566:G611 G555:G557 G488:G491 G387:G469 G317 G319:G324 H258 G247 G748:G749 G233:G244 G173:G174 G256:G270 G671:G678 G502:G545 G950:G954 G1991 G1985:G1989 G1982:G1983 G1335:G1338 G940:G948 G1234:G1240 G1577:G1579 G916:G932 G326:G333 G1306:G1307 G1091 G1386:G1390 G1006:G1022 G1312:G1333 G980:G987 G746 G1541:G1569 G111 G382:G383 G1242:G1257 F18 G56:G57 G59 G690:G715 G7:G11">
+  <conditionalFormatting sqref="G1993:G1048576 G1849 G1903:G1980 G1824:G1827 G1829:G1839 G1875:G1880 G629:G633 G910:G914 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G177:G193 G195:G197 F194 G199 G250:G251 G289:G290 G292:G297 G302:G315 G474:G484 G614:G616 G620:G623 G378:G380 G727:G728 G681:G688 G649:G664 G637:G645 G717:G723 G732:G733 G751:G752 G730 G759:G764 G958:G963 G1224:G1228 G1414:G1420 G1422:G1427 G1573:G1575 G1667 G1671 G1783:G1787 G1817:G1821 G1798:G1800 G956 G725 H1378 G335:G364 G366:G367 G754:G757 G272:G287 G1895:G1901 G1888:G1893 G1882:G1886 G1854:G1863 G1803:G1815 G1794:G1796 G1791 G1761:G1762 G1743:G1758 G1740 G1714:G1735 G1688:G1710 G1621:G1660 G1608:G1619 G1581:G1599 G1536:G1539 G1522:G1534 G1505:G1511 G1518:G1519 G1489:G1502 G1469:G1481 G1448:G1451 G1453:G1467 G1431:G1445 G1393:G1412 G1381:G1384 G1362:G1378 G1346:G1360 G1310 G1298:G1304 G1278:G1296 G1260:G1275 G1231:G1232 G1180:G1222 G1178 G1160:G1169 G1150:G1153 G1127:G1139 G1100:G1123 G1095:G1098 G1087:G1089 G1074:G1083 G1070:G1071 G1064:G1067 G1054:G1062 G1035:G1051 G1025:G1032 G1001:G1004 G991:G999 G971:G978 G937:G938 G849:G908 G829:G846 G795:G800 G803:G823 G773:G781 G766 G792:G793 G743:G744 F742 G559:G560 G563:G564 G566:G611 G555:G557 G488:G491 G387:G469 G317 G319:G324 H258 G247 G748:G749 G233:G244 G173:G174 G256:G270 G671:G678 G502:G545 G950:G954 G1991 G1985:G1989 G1982:G1983 G1335:G1338 G940:G948 G1234:G1240 G1577:G1579 G916:G932 G326:G333 G1306:G1307 G1091 G1386:G1390 G1006:G1022 G1312:G1333 G980:G987 G746 G1541:G1569 G111 G382:G383 G1242:G1257 F18 G56:G57 G59 G690:G715 G7:G11">
     <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1997:G2012 G483:G484 G1849 G1940:G1947 G623 G754:G757 G614 G1825:G1827 G1829:G1839 G1875:G1880 G1757:G1758 G651:G660 G862:G864 G1753 G1611:G1615 G1630:G1657 G1660 G1667 G1671 G1542:G1547 G1567 G1552:G1564 G1550 G1299 G1347:G1357 G1359 G1118:G1121 G1115 G994:G999 G1095:G1098 G991 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G329 G177:G193 G195:G197 F194 G199 G250:G251 G462:G466 G502 G440:G459 G943 G945 G732 G727:G728 G723 G717:G718 G1505:G1509 G1481 G1405:G1411 G1440:G1445 G1270:G1274 G1260:G1264 G1266:G1268 G1183:G1184 G1232 G1316:G1324 G1329:G1333 G1707:G1710 G1581:G1588 G1452:G1453 G1455:G1457 G1460 G1462:G1464 G1721:G1726 G1729:G1734 G1740 G1745:G1751 G1692:G1698 G1617:G1619 G1398:G1403 G1031:G1032 G1051 G1226 G1427 G1375 G1243 G1164:G1167 G1424:G1425 G927 G1026 G1139 G1597 G1700:G1704 G1715 G866:G868 G870:G874 G876:G908 G910:G914 G1062 G1252:G1254 G951:G954 G958:G963 G1003:G1004 G956 G840 G851 G853:G855 G815:G817 G819:G823 G721 G705:G709 G682:G687 G476:G477 G932 G972:G975 G1037 G1067 G1101:G1111 G1133:G1136 G1169 G1189:G1222 G1245:G1250 G1278:G1286 G1362:G1371 G1419:G1420 G1422 G1467 G1475:G1479 G1590:G1595 G1783 G1785:G1787 G1798:G1800 G1888:G1891 G1893 G1903:G1931 G1949:G1973 G2014:G2019 G2023:G1048576 G751 G781 G1884:G1885 G504:G545 G479:G481 G563:G564 G490:G491 G566:G607 G609:G611 G637 G690:G702 G672:G675 G748:G749 G759:G764 G730 G1378:H1378 G803:G812 G773:G777 G766 G272:G285 G319 G1895:G1898 G1854:G1863 G1803:G1810 G1794:G1796 G1791 G1761:G1762 G1743 G1688:G1690 G1621:G1626 G1490:G1502 G1469:G1472 G1448 G1431:G1437 G1393:G1396 G1381:G1384 G1180:G1181 G1178 G1160 G1150:G1153 G1087:G1088 G1074:G1083 G1070:G1071 G1064:G1065 G1054:G1059 G1035 G937:G938 G829:G834 G795 G792:G793 G555:G557 H258 G247 G233:G244 G173:G174 G256:G270 G1335:G1338 G940:G941 G1234:G1240 G916:G925 G1386:G1390 G1006:G1022 G111 F18 G56:G57 G59 G7:G11">
+  <conditionalFormatting sqref="G1997:G2012 G483:G484 G1849 G1940:G1947 G623 G754:G757 G614 G1825:G1827 G1829:G1839 G1875:G1880 G1757:G1758 G651:G660 G862:G864 G1753 G1611:G1615 G1630:G1657 G1660 G1667 G1671 G1542:G1547 G1567 G1552:G1564 G1550 G1299 G1347:G1357 G1359 G1118:G1121 G1115 G994:G999 G1095:G1098 G991 G207:G226 G203:G205 G1:G5 G143 F112 G169:G171 G329 G177:G193 G195:G197 F194 G199 G250:G251 G462:G466 G502 G440:G459 G943 G945 G732 G727:G728 G723 G717:G718 G1505:G1509 G1481 G1405:G1411 G1440:G1445 G1270:G1274 G1260:G1264 G1266:G1268 G1183:G1184 G1232 G1316:G1324 G1329:G1333 G1707:G1710 G1581:G1588 G1453 G1455:G1457 G1460 G1462:G1464 G1721:G1726 G1729:G1734 G1740 G1745:G1751 G1692:G1698 G1617:G1619 G1398:G1403 G1031:G1032 G1051 G1226 G1427 G1375 G1243 G1164:G1167 G1424:G1425 G927 G1026 G1139 G1597 G1700:G1704 G1715 G866:G868 G870:G874 G876:G908 G910:G914 G1062 G1252:G1254 G951:G954 G958:G963 G1003:G1004 G956 G840 G851 G853:G855 G815:G817 G819:G823 G721 G705:G709 G682:G687 G476:G477 G932 G972:G975 G1037 G1067 G1101:G1111 G1133:G1136 G1169 G1189:G1222 G1245:G1250 G1278:G1286 G1362:G1371 G1419:G1420 G1422 G1467 G1475:G1479 G1590:G1595 G1783 G1785:G1787 G1798:G1800 G1888:G1891 G1893 G1903:G1931 G1949:G1973 G2014:G2019 G2023:G1048576 G751 G781 G1884:G1885 G504:G545 G479:G481 G563:G564 G490:G491 G566:G607 G609:G611 G637 G690:G702 G672:G675 G748:G749 G759:G764 G730 G1378:H1378 G803:G812 G773:G777 G766 G272:G285 G319 G1895:G1898 G1854:G1863 G1803:G1810 G1794:G1796 G1791 G1761:G1762 G1743 G1688:G1690 G1621:G1626 G1490:G1502 G1469:G1472 G1448 G1431:G1437 G1393:G1396 G1381:G1384 G1180:G1181 G1178 G1160 G1150:G1153 G1087:G1088 G1074:G1083 G1070:G1071 G1064:G1065 G1054:G1059 G1035 G937:G938 G829:G834 G795 G792:G793 G555:G557 H258 G247 G233:G244 G173:G174 G256:G270 G1335:G1338 G940:G941 G1234:G1240 G916:G925 G1386:G1390 G1006:G1022 G111 F18 G56:G57 G59 G7:G11">
     <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -35993,7 +36009,7 @@
     <hyperlink ref="G37" r:id="rId864" xr:uid="{6575E818-E0EC-4AA0-B696-5D4A5A0064FE}"/>
     <hyperlink ref="G689" r:id="rId865" xr:uid="{094A3E5D-774A-4A44-AEE6-B18414CEB11C}"/>
     <hyperlink ref="G38" r:id="rId866" xr:uid="{DE5762B5-CF8F-46D0-897A-F1904E5BC369}"/>
-    <hyperlink ref="G39" r:id="rId867" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
+    <hyperlink ref="G1452" r:id="rId867" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
     <hyperlink ref="G40" r:id="rId868" xr:uid="{5C68A9B9-18DC-41F0-8C6D-9E60CE63CB05}"/>
     <hyperlink ref="G41" r:id="rId869" xr:uid="{4B6A94FC-7D29-4B61-91D2-D3DC6499A189}"/>
     <hyperlink ref="G42" r:id="rId870" xr:uid="{508B6E8E-A802-44FD-A125-7F731995B4E9}"/>
@@ -36009,10 +36025,11 @@
     <hyperlink ref="G14" r:id="rId880" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
     <hyperlink ref="G13" r:id="rId881" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
     <hyperlink ref="G12" r:id="rId882" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
+    <hyperlink ref="G51" r:id="rId883" xr:uid="{D6336EF7-B909-4B9B-9CD2-6D39BABB29B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId883"/>
-  <drawing r:id="rId884"/>
+  <pageSetup orientation="portrait" r:id="rId884"/>
+  <drawing r:id="rId885"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFE822-333B-4D83-A5EB-52145E1EDE86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B6D68-1027-420C-8EC8-FB0F47E5F35F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="7260" yWindow="675" windowWidth="13545" windowHeight="20730" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -13387,8 +13387,8 @@
   <dimension ref="A1:Y2071"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="3" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F605" sqref="F605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A19F44-FC07-4896-A1A6-A650FFB33E63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C5148-3758-446C-A21E-0D20052A4D14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="2415" windowWidth="25425" windowHeight="26880" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="9165" yWindow="2730" windowWidth="25425" windowHeight="26880" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -13728,7 +13728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F783" sqref="F783"/>
+      <selection pane="bottomLeft" activeCell="I772" sqref="I772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24081,10 +24081,10 @@
       <c r="B790" s="32">
         <v>43241</v>
       </c>
-      <c r="F790" t="s">
+      <c r="F790" s="47" t="s">
         <v>2447</v>
       </c>
-      <c r="G790" t="s">
+      <c r="G790" s="3" t="s">
         <v>2448</v>
       </c>
     </row>
@@ -24092,10 +24092,10 @@
       <c r="B791" s="32">
         <v>43233</v>
       </c>
-      <c r="F791" t="s">
+      <c r="F791" s="47" t="s">
         <v>2449</v>
       </c>
-      <c r="G791" t="s">
+      <c r="G791" s="3" t="s">
         <v>2450</v>
       </c>
     </row>
@@ -37174,10 +37174,12 @@
     <hyperlink ref="G48" r:id="rId927" xr:uid="{88AE2CD2-98A0-4F89-B410-23E9F372D919}"/>
     <hyperlink ref="G779" r:id="rId928" xr:uid="{4C0215E0-167B-42CC-97B0-0477A6D95BAA}"/>
     <hyperlink ref="G780" r:id="rId929" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
+    <hyperlink ref="G791" r:id="rId930" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
+    <hyperlink ref="G790" r:id="rId931" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId930"/>
-  <drawing r:id="rId931"/>
+  <pageSetup orientation="portrait" r:id="rId932"/>
+  <drawing r:id="rId933"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C5148-3758-446C-A21E-0D20052A4D14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFEB4A-9FE4-4C11-9BB6-73FAA9ECDBAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="2730" windowWidth="25425" windowHeight="26880" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="3234">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9743,6 +9743,9 @@
   </si>
   <si>
     <t>Part 3 S2F</t>
+  </si>
+  <si>
+    <t>FINANCIAL ADD</t>
   </si>
 </sst>
 </file>
@@ -13727,8 +13730,8 @@
   <dimension ref="A1:Y2119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I772" sqref="I772"/>
+      <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G547" sqref="G547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17648,7 +17651,7 @@
       <c r="E275" s="56" t="s">
         <v>2727</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="47" t="s">
         <v>2723</v>
       </c>
       <c r="G275" s="3" t="s">
@@ -17663,7 +17666,7 @@
       <c r="C276" s="75"/>
       <c r="D276" s="56"/>
       <c r="E276" s="56"/>
-      <c r="F276" s="56" t="s">
+      <c r="F276" s="117" t="s">
         <v>2759</v>
       </c>
       <c r="G276" s="3" t="s">
@@ -17690,7 +17693,7 @@
       <c r="B278" s="86">
         <v>43752</v>
       </c>
-      <c r="F278" s="46" t="s">
+      <c r="F278" s="47" t="s">
         <v>2762</v>
       </c>
       <c r="G278" s="3" t="s">
@@ -17705,7 +17708,7 @@
       <c r="C279" s="75"/>
       <c r="D279" s="56"/>
       <c r="E279" s="56"/>
-      <c r="F279" s="56" t="s">
+      <c r="F279" s="117" t="s">
         <v>2763</v>
       </c>
       <c r="G279" s="3" t="s">
@@ -17722,7 +17725,7 @@
       <c r="E280" s="56" t="s">
         <v>2490</v>
       </c>
-      <c r="F280" s="56" t="s">
+      <c r="F280" s="106" t="s">
         <v>2874</v>
       </c>
       <c r="G280" s="3" t="s">
@@ -17748,10 +17751,10 @@
       <c r="C282" s="75"/>
       <c r="D282" s="56"/>
       <c r="E282" s="56"/>
-      <c r="F282" s="56" t="s">
+      <c r="F282" s="106" t="s">
         <v>2671</v>
       </c>
-      <c r="G282" s="56" t="s">
+      <c r="G282" s="55" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -18056,7 +18059,7 @@
       <c r="E302" s="56" t="s">
         <v>2833</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F302" s="120" t="s">
         <v>2832</v>
       </c>
       <c r="G302" s="3" t="s">
@@ -19125,10 +19128,13 @@
       <c r="B378" s="32">
         <v>43703</v>
       </c>
-      <c r="F378" t="s">
+      <c r="E378" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F378" s="47" t="s">
         <v>2441</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G378" s="3" t="s">
         <v>2442</v>
       </c>
     </row>
@@ -19667,7 +19673,7 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B425" s="32">
+      <c r="B425" s="83">
         <v>43611</v>
       </c>
       <c r="F425" t="s">
@@ -19790,7 +19796,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="17"/>
-      <c r="B433" s="32">
+      <c r="B433" s="83">
         <v>43572</v>
       </c>
       <c r="F433" t="s">
@@ -19802,7 +19808,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="17"/>
-      <c r="B434" s="32">
+      <c r="B434" s="83">
         <v>43561</v>
       </c>
       <c r="E434" t="s">
@@ -21050,14 +21056,16 @@
       </c>
     </row>
     <row r="540" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="36"/>
-      <c r="B540" s="86">
+      <c r="A540" s="101" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B540" s="82">
         <v>43475</v>
       </c>
       <c r="C540" s="60"/>
       <c r="D540" s="60"/>
       <c r="E540" s="60"/>
-      <c r="F540" s="60" t="s">
+      <c r="F540" s="82" t="s">
         <v>2752</v>
       </c>
       <c r="G540" s="3" t="s">
@@ -21072,7 +21080,7 @@
       <c r="C541" s="60"/>
       <c r="D541" s="60"/>
       <c r="E541" s="60"/>
-      <c r="F541" s="3" t="s">
+      <c r="F541" s="84" t="s">
         <v>2755</v>
       </c>
       <c r="G541" s="3" t="s">
@@ -37176,10 +37184,12 @@
     <hyperlink ref="G780" r:id="rId929" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
     <hyperlink ref="G791" r:id="rId930" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
     <hyperlink ref="G790" r:id="rId931" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
+    <hyperlink ref="G282" r:id="rId932" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
+    <hyperlink ref="G378" r:id="rId933" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId932"/>
-  <drawing r:id="rId933"/>
+  <pageSetup orientation="portrait" r:id="rId934"/>
+  <drawing r:id="rId935"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFEB4A-9FE4-4C11-9BB6-73FAA9ECDBAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02936373-725E-41F5-9AE0-5791409F5E7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -13731,7 +13731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G547" sqref="G547"/>
+      <selection pane="bottomLeft" activeCell="E547" sqref="E547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02936373-725E-41F5-9AE0-5791409F5E7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201776F-50F9-4108-B3F4-71BE0669F7EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="2310" yWindow="1710" windowWidth="22740" windowHeight="21945" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_Toc4426568" localSheetId="0">'Other Articles'!$F$32</definedName>
     <definedName name="_Toc4426574" localSheetId="0">'Other Articles'!$F$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13731,7 +13731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E547" sqref="E547"/>
+      <selection pane="bottomLeft" activeCell="F537" sqref="F537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21011,7 +21011,7 @@
       <c r="C537" s="60"/>
       <c r="D537" s="60"/>
       <c r="E537" s="60"/>
-      <c r="F537" s="60" t="s">
+      <c r="F537" s="82" t="s">
         <v>1888</v>
       </c>
       <c r="G537" s="3" t="s">
@@ -21029,7 +21029,7 @@
         <v>1216</v>
       </c>
       <c r="E538" s="36"/>
-      <c r="F538" s="36" t="s">
+      <c r="F538" s="54" t="s">
         <v>1222</v>
       </c>
       <c r="G538" s="55" t="s">
@@ -21048,7 +21048,7 @@
         <v>1217</v>
       </c>
       <c r="E539" s="36"/>
-      <c r="F539" s="36" t="s">
+      <c r="F539" s="54" t="s">
         <v>1225</v>
       </c>
       <c r="G539" s="55" t="s">
@@ -21112,7 +21112,7 @@
       <c r="E543" s="60" t="s">
         <v>2490</v>
       </c>
-      <c r="F543" s="3" t="s">
+      <c r="F543" s="84" t="s">
         <v>2877</v>
       </c>
       <c r="G543" s="3" t="s">
@@ -37186,10 +37186,12 @@
     <hyperlink ref="G790" r:id="rId931" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
     <hyperlink ref="G282" r:id="rId932" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
     <hyperlink ref="G378" r:id="rId933" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
+    <hyperlink ref="G538" r:id="rId934" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
+    <hyperlink ref="G539" r:id="rId935" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId934"/>
-  <drawing r:id="rId935"/>
+  <pageSetup orientation="portrait" r:id="rId936"/>
+  <drawing r:id="rId937"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201776F-50F9-4108-B3F4-71BE0669F7EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64F808-6A93-4691-BE85-BDE059E51E48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1710" windowWidth="22740" windowHeight="21945" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -13731,7 +13731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F537" sqref="F537"/>
+      <selection pane="bottomLeft" activeCell="J548" sqref="J548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21095,7 +21095,7 @@
       <c r="C542" s="60"/>
       <c r="D542" s="60"/>
       <c r="E542" s="60"/>
-      <c r="F542" s="3" t="s">
+      <c r="F542" s="112" t="s">
         <v>2825</v>
       </c>
       <c r="G542" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64F808-6A93-4691-BE85-BDE059E51E48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9E253-C81F-4220-B2AA-61A00ECCED37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1710" windowWidth="22740" windowHeight="21945" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="3540" yWindow="5730" windowWidth="22740" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="3234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="3235">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9746,6 +9746,9 @@
   </si>
   <si>
     <t>FINANCIAL ADD</t>
+  </si>
+  <si>
+    <t>WORDS</t>
   </si>
 </sst>
 </file>
@@ -13730,8 +13733,8 @@
   <dimension ref="A1:Y2119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J548" sqref="J548"/>
+      <pane ySplit="3" topLeftCell="A1714" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1722" sqref="F1722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13748,7 +13751,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>3234</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="18"/>
@@ -33081,6 +33084,10 @@
       <c r="G1747" s="3" t="s">
         <v>1298</v>
       </c>
+    </row>
+    <row r="1748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1748" s="32"/>
+      <c r="G1748" s="3"/>
     </row>
     <row r="1752" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1752" s="13"/>
@@ -36243,13 +36250,13 @@
   <conditionalFormatting sqref="F1072">
     <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2041:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G2028 G1223:G1280 G998:G1026 G1143:G1201 G2039 G2033:G2037 G2030:G2031 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736">
+  <conditionalFormatting sqref="G2041:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2039 G2033:G2037 G2030:G2031 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G2028">
     <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2041:G1048576 G1897 G1951:G2028 G1872:G1875 G1877:G1887 G1923:G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1943:G1949 G1936:G1941 G1930:G1934 G1902:G1911 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1758 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2039 G2033:G2037 G2030:G2031 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59">
+  <conditionalFormatting sqref="G2041:G1048576 G1897 G1951:G2028 G1872:G1875 G1877:G1887 G1923:G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1943:G1949 G1936:G1941 G1930:G1934 G1902:G1911 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2039 G2033:G2037 G2030:G2031 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
     <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2045:G2060 G531:G532 G1897 G1988:G1995 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1923:G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1748:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1936:G1939 G1941 G1951:G1979 G1997:G2021 G2062:G2067 G2071:G1048576 G799 G829 G1932:G1933 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1943:G1946 G1902:G1911 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
+  <conditionalFormatting sqref="G2045:G2060 G531:G532 G1897 G1988:G1995 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1923:G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1936:G1939 G1941 G1951:G1979 G1997:G2021 G2062:G2067 G2071:G1048576 G799 G829 G1932:G1933 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1943:G1946 G1902:G1911 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
     <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA9E253-C81F-4220-B2AA-61A00ECCED37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CCEDAF-0B41-42AC-9C28-356533E88C97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="5730" windowWidth="22740" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="7920" yWindow="4200" windowWidth="37530" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="3235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="3236">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9749,6 +9749,9 @@
   </si>
   <si>
     <t>WORDS</t>
+  </si>
+  <si>
+    <t>Canon</t>
   </si>
 </sst>
 </file>
@@ -13733,8 +13736,8 @@
   <dimension ref="A1:Y2119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1714" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1722" sqref="F1722"/>
+      <pane ySplit="3" topLeftCell="A1918" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1931" sqref="A1931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34640,16 +34643,19 @@
       </c>
     </row>
     <row r="1931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1931" s="11" t="s">
+        <v>3235</v>
+      </c>
       <c r="B1931" s="60">
         <v>40690</v>
       </c>
       <c r="C1931" s="60"/>
       <c r="D1931" s="60"/>
       <c r="E1931" s="60"/>
-      <c r="F1931" t="s">
+      <c r="F1931" s="47" t="s">
         <v>1622</v>
       </c>
-      <c r="G1931" t="s">
+      <c r="G1931" s="3" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -34683,7 +34689,7 @@
       <c r="F1935" t="s">
         <v>2199</v>
       </c>
-      <c r="G1935" t="s">
+      <c r="G1935" s="3" t="s">
         <v>2201</v>
       </c>
     </row>
@@ -34725,7 +34731,7 @@
       <c r="F1942" t="s">
         <v>2203</v>
       </c>
-      <c r="G1942" t="s">
+      <c r="G1942" s="3" t="s">
         <v>2204</v>
       </c>
     </row>
@@ -34805,7 +34811,7 @@
       <c r="D1980" s="60"/>
       <c r="E1980" s="60"/>
       <c r="F1980" s="60"/>
-      <c r="G1980" t="s">
+      <c r="G1980" s="3" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -37195,10 +37201,14 @@
     <hyperlink ref="G378" r:id="rId933" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
     <hyperlink ref="G538" r:id="rId934" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
     <hyperlink ref="G539" r:id="rId935" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
+    <hyperlink ref="G1980" r:id="rId936" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
+    <hyperlink ref="G1942" r:id="rId937" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
+    <hyperlink ref="G1935" r:id="rId938" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
+    <hyperlink ref="G1931" r:id="rId939" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId936"/>
-  <drawing r:id="rId937"/>
+  <pageSetup orientation="portrait" r:id="rId940"/>
+  <drawing r:id="rId941"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CCEDAF-0B41-42AC-9C28-356533E88C97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C59BA-5603-4CEB-A57C-4E46FFC59B9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="4200" windowWidth="37530" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="1470" yWindow="6900" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Beautyon!$A$3:$F$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$2045:$G$2146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$2042:$G$2143</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$553</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$562</definedName>
     <definedName name="_Toc4426557" localSheetId="0">Bitcoin!$F$575</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="3236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="3242">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9752,13 +9752,31 @@
   </si>
   <si>
     <t>Canon</t>
+  </si>
+  <si>
+    <t>The most dangerous creation in the history of man</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20110529123206/http://www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/</t>
+  </si>
+  <si>
+    <t>Bitcoin what took ye so long</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Nick Szabo</t>
+  </si>
+  <si>
+    <t>Gwern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9933,6 +9951,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -10069,7 +10093,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10253,6 +10277,12 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -13733,11 +13763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
-  <dimension ref="A1:Y2119"/>
+  <dimension ref="A1:Y2116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1918" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1931" sqref="A1931"/>
+      <pane ySplit="3" topLeftCell="A1910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1929" sqref="E1929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34374,29 +34404,53 @@
     </row>
     <row r="1910" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1910" s="56"/>
-      <c r="B1910" s="56"/>
-      <c r="C1910" s="75"/>
+      <c r="B1910" s="60">
+        <v>40716</v>
+      </c>
+      <c r="C1910" s="60"/>
+      <c r="D1910" s="60"/>
+      <c r="E1910" s="79" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="1911" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1911" s="56"/>
-      <c r="B1911" s="56"/>
-      <c r="C1911" s="75"/>
+      <c r="B1911" s="60">
+        <v>40717</v>
+      </c>
+      <c r="C1911" s="60"/>
+      <c r="D1911" s="60"/>
+      <c r="E1911" s="79" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>1944</v>
+      </c>
     </row>
     <row r="1912" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1912" s="56"/>
       <c r="B1912" s="60">
-        <v>40700</v>
-      </c>
-      <c r="C1912"/>
-      <c r="D1912"/>
-      <c r="E1912" s="60" t="s">
-        <v>2170</v>
+        <v>40714</v>
+      </c>
+      <c r="C1912" s="60"/>
+      <c r="D1912" s="60"/>
+      <c r="E1912" s="79" t="s">
+        <v>2087</v>
       </c>
       <c r="F1912" t="s">
-        <v>2173</v>
+        <v>1911</v>
       </c>
       <c r="G1912" t="s">
-        <v>2174</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1913" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -34450,23 +34504,6 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="1916" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1916" s="56"/>
-      <c r="B1916" s="60">
-        <v>40714</v>
-      </c>
-      <c r="C1916" s="60"/>
-      <c r="D1916" s="60"/>
-      <c r="E1916" s="79" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1916" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1916" t="s">
-        <v>1912</v>
-      </c>
-    </row>
     <row r="1917" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1917" s="56"/>
       <c r="B1917" s="60">
@@ -34487,356 +34524,445 @@
     <row r="1918" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1918" s="56"/>
       <c r="B1918" s="60">
-        <v>40716</v>
-      </c>
-      <c r="C1918" s="60"/>
-      <c r="D1918" s="60"/>
-      <c r="E1918" s="79" t="s">
-        <v>2087</v>
+        <v>40717</v>
+      </c>
+      <c r="C1918"/>
+      <c r="D1918"/>
+      <c r="E1918" s="60" t="s">
+        <v>2170</v>
       </c>
       <c r="F1918" t="s">
-        <v>1940</v>
+        <v>2185</v>
       </c>
       <c r="G1918" t="s">
-        <v>1941</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1919" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1919" s="56"/>
       <c r="B1919" s="60">
-        <v>40717</v>
-      </c>
-      <c r="C1919" s="60"/>
-      <c r="D1919" s="60"/>
-      <c r="E1919" s="79" t="s">
-        <v>2087</v>
+        <v>40722</v>
+      </c>
+      <c r="C1919"/>
+      <c r="D1919"/>
+      <c r="E1919" s="60" t="s">
+        <v>2170</v>
       </c>
       <c r="F1919" t="s">
-        <v>1945</v>
+        <v>2175</v>
       </c>
       <c r="G1919" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1920" s="56"/>
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1920" s="11" t="s">
+        <v>554</v>
+      </c>
       <c r="B1920" s="60">
-        <v>40717</v>
+        <v>40723</v>
       </c>
       <c r="C1920"/>
-      <c r="D1920"/>
       <c r="E1920" s="60" t="s">
         <v>2170</v>
       </c>
       <c r="F1920" t="s">
-        <v>2185</v>
+        <v>2195</v>
       </c>
       <c r="G1920" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1921" s="56"/>
-      <c r="B1921" s="60">
-        <v>40722</v>
-      </c>
-      <c r="C1921"/>
-      <c r="D1921"/>
-      <c r="E1921" s="60" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1921" s="32">
+        <v>40723</v>
+      </c>
+      <c r="F1921" s="80" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1922" s="32">
+        <v>40698</v>
+      </c>
+      <c r="F1922" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1923" s="32">
+        <v>40695</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1923" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1924" s="32"/>
+      <c r="E1924" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1921" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G1921" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1922" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B1922" s="60">
-        <v>40723</v>
-      </c>
-      <c r="C1922"/>
-      <c r="E1922" s="60" t="s">
+      <c r="F1924" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1924" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1924" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1925" s="32"/>
+      <c r="E1925" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1922" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G1922" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1923" s="32">
-        <v>40723</v>
-      </c>
-      <c r="F1923" s="80" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G1923" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1924" s="32">
-        <v>40698</v>
-      </c>
-      <c r="F1924" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G1924" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1925" s="32">
-        <v>40695</v>
-      </c>
       <c r="F1925" t="s">
-        <v>555</v>
+        <v>3236</v>
       </c>
       <c r="G1925" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1926" s="32"/>
-      <c r="G1926" s="3"/>
-    </row>
-    <row r="1927" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1927" s="32"/>
-      <c r="G1927" s="3"/>
-    </row>
-    <row r="1928" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1928" s="32"/>
-      <c r="G1928" s="3"/>
-    </row>
-    <row r="1929" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1929" s="60">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1926" s="60">
         <v>40694</v>
       </c>
-      <c r="C1929"/>
-      <c r="E1929" s="60" t="s">
+      <c r="C1926"/>
+      <c r="E1926" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1929" t="s">
+      <c r="F1926" s="47" t="s">
         <v>2197</v>
       </c>
-      <c r="G1929" t="s">
+      <c r="G1926" s="3" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="1930" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1930" s="60">
+    <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1927" s="60">
         <v>40691</v>
       </c>
-      <c r="C1930" s="60"/>
-      <c r="D1930" s="60"/>
-      <c r="E1930" s="60"/>
-      <c r="F1930" s="60"/>
-      <c r="G1930" t="s">
+      <c r="C1927" s="60"/>
+      <c r="D1927" s="60"/>
+      <c r="E1927" s="60" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1927" s="82" t="s">
+        <v>3238</v>
+      </c>
+      <c r="G1927" s="3" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="1931" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1931" s="11" t="s">
+    <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1928" s="11" t="s">
         <v>3235</v>
       </c>
+      <c r="B1928" s="60">
+        <v>40690</v>
+      </c>
+      <c r="C1928" s="60"/>
+      <c r="D1928" s="60"/>
+      <c r="E1928" s="60" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F1928" s="47" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1928" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1929" s="3"/>
+    </row>
+    <row r="1930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1930" s="32"/>
+      <c r="F1930" s="9"/>
+    </row>
+    <row r="1931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1931" s="60">
-        <v>40690</v>
+        <v>40654</v>
       </c>
       <c r="C1931" s="60"/>
       <c r="D1931" s="60"/>
       <c r="E1931" s="60"/>
-      <c r="F1931" s="47" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G1931" s="3" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G1932" s="3"/>
-    </row>
-    <row r="1933" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1933" s="32"/>
-      <c r="F1933" s="9"/>
-    </row>
-    <row r="1934" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1934" s="60">
-        <v>40654</v>
-      </c>
-      <c r="C1934" s="60"/>
-      <c r="D1934" s="60"/>
-      <c r="E1934" s="60"/>
-      <c r="F1934" s="60"/>
-      <c r="G1934" t="s">
+      <c r="F1931" s="60"/>
+      <c r="G1931" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1935" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1935" s="60">
+    <row r="1932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1932" s="60">
         <v>40649</v>
       </c>
-      <c r="C1935"/>
-      <c r="E1935" s="60" t="s">
+      <c r="C1932"/>
+      <c r="E1932" s="60" t="s">
         <v>2200</v>
       </c>
-      <c r="F1935" t="s">
+      <c r="F1932" t="s">
         <v>2199</v>
       </c>
-      <c r="G1935" s="3" t="s">
+      <c r="G1932" s="3" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="1938" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1938" s="13"/>
-      <c r="B1938" s="13"/>
-      <c r="C1938" s="23"/>
-    </row>
-    <row r="1939" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1939" s="11" t="s">
+    <row r="1935" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1935" s="13"/>
+      <c r="B1935" s="13"/>
+      <c r="C1935" s="23"/>
+    </row>
+    <row r="1936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1936" s="11" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="1940" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1940" s="60">
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1937" s="60">
         <v>40544</v>
       </c>
-      <c r="C1940" s="60"/>
-      <c r="D1940" s="60"/>
-      <c r="E1940" s="60"/>
-      <c r="F1940" s="60"/>
-      <c r="G1940" t="s">
+      <c r="C1937" s="60"/>
+      <c r="D1937" s="60"/>
+      <c r="E1937" s="60"/>
+      <c r="F1937" s="60"/>
+      <c r="G1937" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1941" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1941" s="32">
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1938" s="32">
         <v>40560</v>
       </c>
     </row>
-    <row r="1942" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1942" s="60">
+    <row r="1939" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1939" s="60">
         <v>40563</v>
       </c>
-      <c r="C1942"/>
-      <c r="E1942" s="60" t="s">
+      <c r="C1939"/>
+      <c r="E1939" s="60" t="s">
         <v>2202</v>
       </c>
-      <c r="F1942" t="s">
+      <c r="F1939" t="s">
         <v>2203</v>
       </c>
-      <c r="G1942" s="3" t="s">
+      <c r="G1939" s="3" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="1947" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1947" s="11" t="s">
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1944" s="11" t="s">
         <v>1517</v>
       </c>
+      <c r="B1944" s="60">
+        <v>40542</v>
+      </c>
+      <c r="C1944" s="60"/>
+      <c r="D1944" s="60"/>
+      <c r="E1944" s="60"/>
+      <c r="F1944" s="60"/>
+      <c r="G1944" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1945" s="60"/>
+      <c r="C1945" s="60"/>
+      <c r="D1945" s="60"/>
+      <c r="E1945" s="60"/>
+      <c r="F1945" s="60"/>
+    </row>
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1946" s="60">
+        <v>40458</v>
+      </c>
+      <c r="C1946" s="60"/>
+      <c r="D1946" s="60"/>
+      <c r="E1946" s="60"/>
+      <c r="F1946" s="60"/>
+      <c r="G1946" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1947" s="60">
-        <v>40542</v>
+        <v>40522</v>
       </c>
       <c r="C1947" s="60"/>
       <c r="D1947" s="60"/>
-      <c r="E1947" s="60"/>
-      <c r="F1947" s="60"/>
+      <c r="E1947" s="79" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>1968</v>
+      </c>
       <c r="G1947" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1948" s="60"/>
-      <c r="C1948" s="60"/>
-      <c r="D1948" s="60"/>
-      <c r="E1948" s="60"/>
-      <c r="F1948" s="60"/>
-    </row>
-    <row r="1949" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1949" s="60">
-        <v>40458</v>
-      </c>
-      <c r="C1949" s="60"/>
-      <c r="D1949" s="60"/>
-      <c r="E1949" s="60"/>
-      <c r="F1949" s="60"/>
-      <c r="G1949" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1950" s="60">
-        <v>40522</v>
-      </c>
-      <c r="C1950" s="60"/>
-      <c r="D1950" s="60"/>
-      <c r="E1950" s="79" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1950" t="s">
-        <v>1968</v>
-      </c>
-      <c r="G1950" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1957" s="11" t="s">
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1951" s="121"/>
+    </row>
+    <row r="1952" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1952" s="122" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1953" s="122" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1954" s="11" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1963" s="11" t="s">
+      <c r="H1954" s="122" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1955" s="122" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1956" s="122" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1957" s="122" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1958" s="122" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1959" s="122" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1960" s="11" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1975" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1975" s="11" t="s">
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1964" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1965" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1966" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1967" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1968" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1969" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1970" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1971" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1972" s="11" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1980" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1980" s="11" t="s">
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1977" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="B1980" s="60">
+      <c r="B1977" s="60">
         <v>40150</v>
       </c>
+      <c r="C1977" s="60"/>
+      <c r="D1977" s="60"/>
+      <c r="E1977" s="60"/>
+      <c r="F1977" s="60"/>
+      <c r="G1977" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1978" s="60"/>
+      <c r="C1978" s="60"/>
+      <c r="D1978" s="60"/>
+      <c r="E1978" s="60"/>
+      <c r="F1978" s="60"/>
+    </row>
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1979" s="60"/>
+      <c r="C1979" s="60"/>
+      <c r="D1979" s="60"/>
+      <c r="E1979" s="60"/>
+      <c r="F1979" s="60"/>
+    </row>
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1980" s="60"/>
       <c r="C1980" s="60"/>
       <c r="D1980" s="60"/>
       <c r="E1980" s="60"/>
       <c r="F1980" s="60"/>
-      <c r="G1980" s="3" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1981" s="60"/>
       <c r="C1981" s="60"/>
       <c r="D1981" s="60"/>
       <c r="E1981" s="60"/>
       <c r="F1981" s="60"/>
     </row>
-    <row r="1982" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1982" s="60"/>
       <c r="C1982" s="60"/>
       <c r="D1982" s="60"/>
       <c r="E1982" s="60"/>
       <c r="F1982" s="60"/>
     </row>
-    <row r="1983" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1983" s="60"/>
       <c r="C1983" s="60"/>
       <c r="D1983" s="60"/>
       <c r="E1983" s="60"/>
       <c r="F1983" s="60"/>
     </row>
-    <row r="1984" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1984" s="60"/>
       <c r="C1984" s="60"/>
       <c r="D1984" s="60"/>
@@ -34844,408 +34970,396 @@
       <c r="F1984" s="60"/>
     </row>
     <row r="1985" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1985" s="60"/>
-      <c r="C1985" s="60"/>
-      <c r="D1985" s="60"/>
-      <c r="E1985" s="60"/>
-      <c r="F1985" s="60"/>
-    </row>
-    <row r="1986" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1986" s="60"/>
-      <c r="C1986" s="60"/>
-      <c r="D1986" s="60"/>
-      <c r="E1986" s="60"/>
-      <c r="F1986" s="60"/>
-    </row>
-    <row r="1987" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1987" s="60"/>
-      <c r="C1987" s="60"/>
-      <c r="D1987" s="60"/>
-      <c r="E1987" s="60"/>
-      <c r="F1987" s="60"/>
-    </row>
-    <row r="1988" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1988" s="11" t="s">
+      <c r="A1985" s="11" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1996" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1996" s="11" t="s">
+    <row r="1993" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1993" s="11" t="s">
         <v>1524</v>
       </c>
-      <c r="B1996" s="60">
+      <c r="B1993" s="60">
         <v>39947</v>
       </c>
-      <c r="C1996" s="60"/>
-      <c r="D1996" s="60"/>
-      <c r="E1996" s="60"/>
-      <c r="F1996" s="60"/>
-      <c r="G1996" t="s">
+      <c r="C1993" s="60"/>
+      <c r="D1993" s="60"/>
+      <c r="E1993" s="60"/>
+      <c r="F1993" s="60"/>
+      <c r="G1993" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="2003" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2003" s="11" t="s">
+    <row r="2000" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2000" s="11" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="2007" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2007" s="100" t="s">
+    <row r="2004" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2004" s="100" t="s">
         <v>2641</v>
       </c>
-      <c r="G2007" t="s">
+      <c r="G2004" t="s">
         <v>2640</v>
       </c>
-      <c r="H2007" t="s">
+      <c r="H2004" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="2009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2009" t="s">
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2006" t="s">
         <v>2526</v>
       </c>
-      <c r="G2009" t="s">
+      <c r="G2006" t="s">
         <v>2525</v>
       </c>
+    </row>
+    <row r="2015" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2015">
+        <v>2008</v>
+      </c>
+      <c r="B2015" s="60">
+        <v>39722</v>
+      </c>
+      <c r="F2015" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2016">
+        <v>2002</v>
+      </c>
+      <c r="F2016" t="s">
+        <v>558</v>
+      </c>
+      <c r="G2016" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H2016" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2017"/>
     </row>
     <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2018">
-        <v>2008</v>
-      </c>
-      <c r="B2018" s="60">
-        <v>39722</v>
+        <v>1982</v>
       </c>
       <c r="F2018" t="s">
-        <v>1124</v>
+        <v>560</v>
       </c>
       <c r="G2018" t="s">
-        <v>1125</v>
+        <v>561</v>
+      </c>
+      <c r="H2018" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2019">
-        <v>2002</v>
-      </c>
-      <c r="F2019" t="s">
-        <v>558</v>
-      </c>
-      <c r="G2019" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H2019" t="s">
-        <v>558</v>
+      <c r="B2019" s="60">
+        <v>38930</v>
+      </c>
+      <c r="C2019" s="60"/>
+      <c r="D2019" s="60"/>
+      <c r="E2019" s="60"/>
+      <c r="F2019" s="60"/>
+      <c r="G2019" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2020"/>
+      <c r="B2020" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C2020" s="60"/>
+      <c r="D2020" s="60"/>
+      <c r="E2020" s="60"/>
+      <c r="F2020" s="60" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G2020" t="s">
+        <v>2507</v>
+      </c>
     </row>
     <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2021">
-        <v>1982</v>
-      </c>
-      <c r="F2021" t="s">
-        <v>560</v>
-      </c>
+      <c r="B2021" s="60">
+        <v>36892</v>
+      </c>
+      <c r="C2021" s="60"/>
+      <c r="D2021" s="60"/>
+      <c r="E2021" s="60"/>
+      <c r="F2021" s="60"/>
       <c r="G2021" t="s">
-        <v>561</v>
-      </c>
-      <c r="H2021" t="s">
-        <v>560</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2022" s="60">
-        <v>38930</v>
+        <v>36398</v>
       </c>
       <c r="C2022" s="60"/>
       <c r="D2022" s="60"/>
       <c r="E2022" s="60"/>
       <c r="F2022" s="60"/>
       <c r="G2022" t="s">
-        <v>1476</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2023" t="s">
-        <v>2505</v>
+      <c r="B2023" s="60">
+        <v>35704</v>
       </c>
       <c r="C2023" s="60"/>
       <c r="D2023" s="60"/>
       <c r="E2023" s="60"/>
-      <c r="F2023" s="60" t="s">
-        <v>2506</v>
-      </c>
+      <c r="F2023" s="60"/>
       <c r="G2023" t="s">
-        <v>2507</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2024" s="60">
-        <v>36892</v>
+        <v>35440</v>
       </c>
       <c r="C2024" s="60"/>
       <c r="D2024" s="60"/>
       <c r="E2024" s="60"/>
       <c r="F2024" s="60"/>
       <c r="G2024" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2025" s="60">
-        <v>36398</v>
+        <v>35431</v>
       </c>
       <c r="C2025" s="60"/>
       <c r="D2025" s="60"/>
       <c r="E2025" s="60"/>
       <c r="F2025" s="60"/>
       <c r="G2025" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2026" s="60">
-        <v>35704</v>
+        <v>35431</v>
       </c>
       <c r="C2026" s="60"/>
       <c r="D2026" s="60"/>
-      <c r="E2026" s="60"/>
-      <c r="F2026" s="60"/>
-      <c r="G2026" t="s">
-        <v>1475</v>
+      <c r="E2026" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F2026" s="60" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G2026" s="3" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2027" s="60">
-        <v>35440</v>
+        <v>35065</v>
       </c>
       <c r="C2027" s="60"/>
       <c r="D2027" s="60"/>
       <c r="E2027" s="60"/>
       <c r="F2027" s="60"/>
       <c r="G2027" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2028" s="60">
-        <v>35431</v>
+        <v>34617</v>
       </c>
       <c r="C2028" s="60"/>
       <c r="D2028" s="60"/>
       <c r="E2028" s="60"/>
       <c r="F2028" s="60"/>
       <c r="G2028" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2029" s="60">
-        <v>35431</v>
+        <v>34587</v>
       </c>
       <c r="C2029" s="60"/>
       <c r="D2029" s="60"/>
       <c r="E2029" t="s">
         <v>2840</v>
       </c>
-      <c r="F2029" s="60" t="s">
-        <v>2845</v>
+      <c r="F2029" t="s">
+        <v>2843</v>
       </c>
       <c r="G2029" s="3" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2030" s="60">
-        <v>35065</v>
+        <v>34409</v>
       </c>
       <c r="C2030" s="60"/>
       <c r="D2030" s="60"/>
       <c r="E2030" s="60"/>
       <c r="F2030" s="60"/>
       <c r="G2030" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2031" s="60">
-        <v>34617</v>
+        <v>34335</v>
       </c>
       <c r="C2031" s="60"/>
       <c r="D2031" s="60"/>
       <c r="E2031" s="60"/>
       <c r="F2031" s="60"/>
       <c r="G2031" t="s">
-        <v>1470</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2032" s="60">
-        <v>34587</v>
+        <v>34283</v>
       </c>
       <c r="C2032" s="60"/>
       <c r="D2032" s="60"/>
-      <c r="E2032" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F2032" t="s">
-        <v>2843</v>
-      </c>
-      <c r="G2032" s="3" t="s">
-        <v>2844</v>
+      <c r="E2032" s="60"/>
+      <c r="F2032" s="60"/>
+      <c r="G2032" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="2033" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2033" s="60">
-        <v>34409</v>
+        <v>34037</v>
       </c>
       <c r="C2033" s="60"/>
       <c r="D2033" s="60"/>
       <c r="E2033" s="60"/>
       <c r="F2033" s="60"/>
       <c r="G2033" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2034" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2034" s="60">
-        <v>34335</v>
+        <v>33930</v>
       </c>
       <c r="C2034" s="60"/>
       <c r="D2034" s="60"/>
-      <c r="E2034" s="60"/>
+      <c r="E2034" t="s">
+        <v>2840</v>
+      </c>
       <c r="F2034" s="60"/>
       <c r="G2034" t="s">
-        <v>1505</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="2035" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2035" s="60">
-        <v>34283</v>
+        <v>33848</v>
       </c>
       <c r="C2035" s="60"/>
       <c r="D2035" s="60"/>
-      <c r="E2035" s="60"/>
-      <c r="F2035" s="60"/>
-      <c r="G2035" t="s">
-        <v>1478</v>
+      <c r="E2035" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F2035" s="60" t="s">
+        <v>2842</v>
+      </c>
+      <c r="G2035" s="3" t="s">
+        <v>2841</v>
       </c>
     </row>
     <row r="2036" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2036" s="60">
-        <v>34037</v>
+        <v>33161</v>
       </c>
       <c r="C2036" s="60"/>
       <c r="D2036" s="60"/>
       <c r="E2036" s="60"/>
       <c r="F2036" s="60"/>
       <c r="G2036" t="s">
-        <v>1468</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2037" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2037" s="60">
-        <v>33930</v>
-      </c>
-      <c r="C2037" s="60"/>
-      <c r="D2037" s="60"/>
+      <c r="B2037" s="11">
+        <v>1988</v>
+      </c>
       <c r="E2037" t="s">
         <v>2840</v>
       </c>
-      <c r="F2037" s="60"/>
-      <c r="G2037" t="s">
-        <v>1467</v>
+      <c r="F2037" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G2037" s="3" t="s">
+        <v>2838</v>
       </c>
     </row>
     <row r="2038" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2038" s="60">
-        <v>33848</v>
+        <v>23177</v>
       </c>
       <c r="C2038" s="60"/>
       <c r="D2038" s="60"/>
-      <c r="E2038" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F2038" s="60" t="s">
-        <v>2842</v>
-      </c>
-      <c r="G2038" s="3" t="s">
-        <v>2841</v>
+      <c r="E2038" s="60"/>
+      <c r="F2038" s="60"/>
+      <c r="G2038" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="2039" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2039" s="60">
-        <v>33161</v>
+        <v>16711</v>
       </c>
       <c r="C2039" s="60"/>
       <c r="D2039" s="60"/>
       <c r="E2039" s="60"/>
       <c r="F2039" s="60"/>
       <c r="G2039" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2040" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2040" s="11">
-        <v>1988</v>
-      </c>
-      <c r="E2040" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F2040" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G2040" s="3" t="s">
-        <v>2838</v>
+      <c r="B2040" s="60">
+        <v>10228</v>
+      </c>
+      <c r="C2040" s="60"/>
+      <c r="D2040" s="60"/>
+      <c r="E2040" s="60"/>
+      <c r="F2040" s="60"/>
+      <c r="G2040" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="2041" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2041" s="60">
-        <v>23177</v>
+        <v>4585</v>
       </c>
       <c r="C2041" s="60"/>
       <c r="D2041" s="60"/>
       <c r="E2041" s="60"/>
       <c r="F2041" s="60"/>
       <c r="G2041" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2042" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2042" s="60">
-        <v>16711</v>
-      </c>
-      <c r="C2042" s="60"/>
-      <c r="D2042" s="60"/>
-      <c r="E2042" s="60"/>
-      <c r="F2042" s="60"/>
-      <c r="G2042" t="s">
-        <v>1492</v>
-      </c>
+      <c r="B2042" s="60"/>
     </row>
     <row r="2043" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2043" s="60">
-        <v>10228</v>
-      </c>
-      <c r="C2043" s="60"/>
-      <c r="D2043" s="60"/>
-      <c r="E2043" s="60"/>
-      <c r="F2043" s="60"/>
-      <c r="G2043" t="s">
-        <v>1491</v>
-      </c>
+      <c r="B2043" s="60"/>
     </row>
     <row r="2044" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2044" s="60">
-        <v>4585</v>
-      </c>
-      <c r="C2044" s="60"/>
-      <c r="D2044" s="60"/>
-      <c r="E2044" s="60"/>
-      <c r="F2044" s="60"/>
-      <c r="G2044" t="s">
-        <v>1502</v>
-      </c>
+      <c r="B2044" s="60"/>
     </row>
     <row r="2045" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2045" s="60"/>
@@ -35258,9 +35372,11 @@
     </row>
     <row r="2048" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2048" s="60"/>
+      <c r="G2048" s="3"/>
     </row>
     <row r="2049" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2049" s="60"/>
+      <c r="G2049" s="3"/>
     </row>
     <row r="2050" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2050" s="60"/>
@@ -35271,14 +35387,12 @@
     </row>
     <row r="2052" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2052" s="60"/>
-      <c r="G2052" s="3"/>
     </row>
     <row r="2053" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2053" s="60"/>
     </row>
     <row r="2054" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2054" s="60"/>
-      <c r="G2054" s="3"/>
     </row>
     <row r="2055" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2055" s="60"/>
@@ -35310,14 +35424,14 @@
     <row r="2064" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2064" s="60"/>
     </row>
-    <row r="2065" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2065" s="60"/>
-    </row>
-    <row r="2066" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2066" s="60"/>
-    </row>
-    <row r="2067" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2067" s="60"/>
+    <row r="2068" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2068" s="60"/>
+    </row>
+    <row r="2069" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2069" s="60"/>
+    </row>
+    <row r="2070" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2070" s="60"/>
     </row>
     <row r="2071" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2071" s="60"/>
@@ -35369,6 +35483,7 @@
     </row>
     <row r="2087" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2087" s="60"/>
+      <c r="G2087" s="3"/>
     </row>
     <row r="2088" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2088" s="60"/>
@@ -35378,7 +35493,6 @@
     </row>
     <row r="2090" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2090" s="60"/>
-      <c r="G2090" s="3"/>
     </row>
     <row r="2091" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2091" s="60"/>
@@ -35457,15 +35571,6 @@
     </row>
     <row r="2116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2116" s="60"/>
-    </row>
-    <row r="2117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2117" s="60"/>
-    </row>
-    <row r="2118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2118" s="60"/>
-    </row>
-    <row r="2119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2119" s="60"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1310">
@@ -35660,43 +35765,43 @@
   <conditionalFormatting sqref="B1783:F1783">
     <cfRule type="duplicateValues" dxfId="239" priority="185"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1930:G1931 G1934">
+  <conditionalFormatting sqref="G1927:G1928 G1931">
     <cfRule type="duplicateValues" dxfId="238" priority="4153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1930:F1930 B1934:F1934 B1931:E1931">
+  <conditionalFormatting sqref="B1927:F1927 B1931:F1931 B1928:E1928">
     <cfRule type="duplicateValues" dxfId="237" priority="4155"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1940">
+  <conditionalFormatting sqref="G1937">
     <cfRule type="duplicateValues" dxfId="236" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1940:F1940">
+  <conditionalFormatting sqref="B1937:F1937">
     <cfRule type="duplicateValues" dxfId="235" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1947:G1949">
+  <conditionalFormatting sqref="G1944:G1946">
     <cfRule type="duplicateValues" dxfId="234" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1947:F1949">
+  <conditionalFormatting sqref="B1944:F1946">
     <cfRule type="duplicateValues" dxfId="233" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1980:G1987">
+  <conditionalFormatting sqref="G1977:G1984">
     <cfRule type="duplicateValues" dxfId="232" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1980:F1987">
+  <conditionalFormatting sqref="B1977:F1984">
     <cfRule type="duplicateValues" dxfId="231" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1996">
+  <conditionalFormatting sqref="G1993">
     <cfRule type="duplicateValues" dxfId="230" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1996:F1996">
+  <conditionalFormatting sqref="B1993:F1993">
     <cfRule type="duplicateValues" dxfId="229" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2041:G2044 G2022:G2028 G2039 G2033:G2037 G2030:G2031">
+  <conditionalFormatting sqref="G2038:G2041 G2019:G2025 G2036 G2030:G2034 G2027:G2028">
     <cfRule type="duplicateValues" dxfId="228" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2022:F2022 B2041:F2044 B2024:F2028 C2023:F2023 B2039:F2039 B2037:D2038 F2037:F2038 B2033:F2036 B2032:D2032 B2030:F2031 B2029:D2029 F2029">
+  <conditionalFormatting sqref="B2019:F2019 B2038:F2041 B2021:F2025 C2020:F2020 B2036:F2036 B2034:D2035 F2034:F2035 B2030:F2033 B2029:D2029 B2027:F2028 B2026:D2026 F2026">
     <cfRule type="duplicateValues" dxfId="227" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2018">
+  <conditionalFormatting sqref="B2015">
     <cfRule type="duplicateValues" dxfId="226" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G767">
@@ -35782,34 +35887,34 @@
   <conditionalFormatting sqref="B1872:F1872 B1865:F1868 B1869:E1869 B1859:E1863">
     <cfRule type="duplicateValues" dxfId="199" priority="7721"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1950">
+  <conditionalFormatting sqref="G1947">
     <cfRule type="duplicateValues" dxfId="198" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1950">
+  <conditionalFormatting sqref="F1947">
     <cfRule type="duplicateValues" dxfId="197" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1942">
+  <conditionalFormatting sqref="G1939">
     <cfRule type="duplicateValues" dxfId="196" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1942">
+  <conditionalFormatting sqref="F1939">
     <cfRule type="duplicateValues" dxfId="195" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1935">
+  <conditionalFormatting sqref="G1932">
     <cfRule type="duplicateValues" dxfId="194" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1935">
+  <conditionalFormatting sqref="F1932">
     <cfRule type="duplicateValues" dxfId="193" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1929">
+  <conditionalFormatting sqref="G1926">
     <cfRule type="duplicateValues" dxfId="192" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1929">
+  <conditionalFormatting sqref="F1926">
     <cfRule type="duplicateValues" dxfId="191" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1912:G1922">
+  <conditionalFormatting sqref="G1917:G1920 G1910:G1915">
     <cfRule type="duplicateValues" dxfId="190" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1912:F1922">
+  <conditionalFormatting sqref="F1917:F1920 F1910:F1915">
     <cfRule type="duplicateValues" dxfId="189" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1898:G1901">
@@ -36232,7 +36337,7 @@
   <conditionalFormatting sqref="F814">
     <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2120:F1048576 F530:F532 F1897 F671 B802 F1936:F1939 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2045:B2067 B2071:B2119 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1941 F1951:F1979 F1988:F1995 F1997:F2006 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1925:F1928 F1745:F1752 F851:F860 F1943:F1946 F1902:F1911 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2008:F2021 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
+  <conditionalFormatting sqref="F2117:F1048576 F530:F532 F1897 F671 B802 F1933:F1936 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2042:B2064 B2068:B2116 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1938 F1948:F1976 F1985:F1992 F1994:F2003 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1923:F1925 F1745:F1752 F851:F860 F1940:F1943 F1902:F1909 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2005:F2018 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
     <cfRule type="duplicateValues" dxfId="48" priority="15212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663:G664">
@@ -36256,17 +36361,17 @@
   <conditionalFormatting sqref="F1072">
     <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2041:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2039 G2033:G2037 G2030:G2031 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G2028">
+  <conditionalFormatting sqref="G2038:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2036 G2030:G2034 G2027:G2028 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1917:G1923 G1749:G1915 G1926:G2025">
     <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2041:G1048576 G1897 G1951:G2028 G1872:G1875 G1877:G1887 G1923:G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1943:G1949 G1936:G1941 G1930:G1934 G1902:G1911 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2039 G2033:G2037 G2030:G2031 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
+  <conditionalFormatting sqref="G2038:G1048576 G1897 G1948:G2025 G1872:G1875 G1877:G1887 G1921:G1923 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1940:G1946 G1933:G1938 G1927:G1931 G1902:G1909 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2036 G2030:G2034 G2027:G2028 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
     <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2045:G2060 G531:G532 G1897 G1988:G1995 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1923:G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1936:G1939 G1941 G1951:G1979 G1997:G2021 G2062:G2067 G2071:G1048576 G799 G829 G1932:G1933 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1943:G1946 G1902:G1911 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
+  <conditionalFormatting sqref="G2042:G2057 G531:G532 G1897 G1985:G1992 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1921:G1923 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1933:G1936 G1938 G1948:G1976 G1994:G2018 G2059:G2064 G2068:G1048576 G799 G829 G1929:G1930 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1940:G1943 G1902:G1909 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
     <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2019" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
+    <hyperlink ref="G2016" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
     <hyperlink ref="G638" r:id="rId2" xr:uid="{34862EF4-F7F1-4818-B6F4-17938F628487}"/>
     <hyperlink ref="G639" r:id="rId3" xr:uid="{F2A1B2F1-41E2-4FDF-8DE8-AF88EA8283AC}"/>
     <hyperlink ref="F1402" r:id="rId4" tooltip="Permanent Link to Ethereum &amp; Bitcoin : Protocols for $9.3 trillion in value for dead capital?" display="http://www.gogerty.com/ethereum-bitcoin-protocols-for-9-3-trillion-in-value/" xr:uid="{90F13528-E3BE-4889-BB8E-7BCC86B10037}"/>
@@ -36429,7 +36534,7 @@
     <hyperlink ref="F1074" r:id="rId161" display="http://gavinandresen.ninja/ask-a-simple-question" xr:uid="{367C5CC3-3511-4EBF-9CBF-89A173F02CD8}"/>
     <hyperlink ref="G508" r:id="rId162" xr:uid="{BBCA583B-F1A8-46AB-8EF3-B5F9A91605AB}"/>
     <hyperlink ref="F508" r:id="rId163" display="https://offthechain.substack.com/p/bitcoin-fundamentals-continue-to" xr:uid="{0608D2A5-1B59-4FA0-8B9B-590BE83B35E2}"/>
-    <hyperlink ref="F1924" r:id="rId164" display="http://themonetaryfuture.blogspot.com/2011/06/bitcoin-is-economic-singularity.html" xr:uid="{F74A018A-5EC6-4EBC-967C-33FEC83F6F61}"/>
+    <hyperlink ref="F1922" r:id="rId164" display="http://themonetaryfuture.blogspot.com/2011/06/bitcoin-is-economic-singularity.html" xr:uid="{F74A018A-5EC6-4EBC-967C-33FEC83F6F61}"/>
     <hyperlink ref="G1493" r:id="rId165" xr:uid="{B4D4034C-E85D-4DA8-90D9-6CAB057111B0}"/>
     <hyperlink ref="F1458" r:id="rId166" display="http://konrad-graf.squarespace.com/blog1/2014/9/19/bitcoin-magic-fraud-or-sufficiently-advanced-technology.html" xr:uid="{CB367B69-BB84-471B-86AA-6D04A0AB454F}"/>
     <hyperlink ref="F1505" r:id="rId167" display="https://konrad-graf.squarespace.com/blog1/2014/5/20/the-helpful-fable-of-the-bitcoin-duality-models-revisited.html" xr:uid="{49357AE3-64C5-4BF0-893D-5868985DCFF4}"/>
@@ -36707,7 +36812,7 @@
     <hyperlink ref="G1745" r:id="rId439" xr:uid="{DAB62F3B-DAE6-47D9-85A2-18D0D5E417B6}"/>
     <hyperlink ref="G1851" r:id="rId440" xr:uid="{42154D76-3601-4871-94F5-533D73FCAC14}"/>
     <hyperlink ref="G1854" r:id="rId441" xr:uid="{A2D5D59F-1A9E-486F-A739-75D0085DE5CB}"/>
-    <hyperlink ref="G1925" r:id="rId442" xr:uid="{FBA21F1D-1586-428D-B33E-29ADB8F1507B}"/>
+    <hyperlink ref="G1923" r:id="rId442" xr:uid="{FBA21F1D-1586-428D-B33E-29ADB8F1507B}"/>
     <hyperlink ref="G814" r:id="rId443" xr:uid="{9592C351-F3F2-472A-A885-95D436F839F2}"/>
     <hyperlink ref="G824" r:id="rId444" xr:uid="{ADAA69EC-42B1-45FF-BB61-47725B089670}"/>
     <hyperlink ref="G825" r:id="rId445" xr:uid="{47712E4D-BA8B-492B-AE58-BCA39C0FF8CC}"/>
@@ -37006,10 +37111,10 @@
     <hyperlink ref="F302" r:id="rId738" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
     <hyperlink ref="G302" r:id="rId739" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
     <hyperlink ref="G1141" r:id="rId740" location="page=28" display="https://alcor.org/cryonics/Cryonics2016-4.pdf - page=28" xr:uid="{373BE6DF-893C-4B76-86FB-7554DE367903}"/>
-    <hyperlink ref="G2040" r:id="rId741" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
-    <hyperlink ref="G2038" r:id="rId742" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
-    <hyperlink ref="G2032" r:id="rId743" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
-    <hyperlink ref="G2029" r:id="rId744" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
+    <hyperlink ref="G2037" r:id="rId741" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
+    <hyperlink ref="G2035" r:id="rId742" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
+    <hyperlink ref="G2029" r:id="rId743" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
+    <hyperlink ref="G2026" r:id="rId744" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
     <hyperlink ref="G984" r:id="rId745" xr:uid="{491687E0-2017-4889-8B8A-826A9AC9D28E}"/>
     <hyperlink ref="G1142" r:id="rId746" xr:uid="{2DC554A9-DE55-428D-908A-CB3E7F5A5FD6}"/>
     <hyperlink ref="F1142" r:id="rId747" display="https://elaineou.com/2016/08/01/the-value-of-settlement-finality/" xr:uid="{D9B3B78A-ECA9-4FBB-8F6C-AED49862FB91}"/>
@@ -37201,14 +37306,26 @@
     <hyperlink ref="G378" r:id="rId933" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
     <hyperlink ref="G538" r:id="rId934" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
     <hyperlink ref="G539" r:id="rId935" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
-    <hyperlink ref="G1980" r:id="rId936" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
-    <hyperlink ref="G1942" r:id="rId937" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
-    <hyperlink ref="G1935" r:id="rId938" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
-    <hyperlink ref="G1931" r:id="rId939" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
+    <hyperlink ref="G1977" r:id="rId936" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
+    <hyperlink ref="G1939" r:id="rId937" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
+    <hyperlink ref="G1932" r:id="rId938" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
+    <hyperlink ref="G1928" r:id="rId939" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
+    <hyperlink ref="G1926" r:id="rId940" location="selection-129.0-129.70" xr:uid="{F73193B1-3F1B-49EF-AE5F-95D42063A433}"/>
+    <hyperlink ref="G1925" r:id="rId941" display="https://web.archive.org/web/20110529123206/http:/www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/" xr:uid="{27280835-3861-41A2-AFD0-27469D9E3BC8}"/>
+    <hyperlink ref="H1952" r:id="rId942" tooltip="Permalink to The Economics Of Bitcoin – Why Mainstream Economists Lie About Deflation" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/11/the-economics-of-bitcoin-why-mainstream-economist-lie-about-deflation/" xr:uid="{C9BB1019-840A-4C7A-96AB-E6BB3586946F}"/>
+    <hyperlink ref="H1953" r:id="rId943" tooltip="Permalink to The Economics Of Bitcoin – How Bitcoins Act As Money" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/18/the-economics-of-bitcoin-how-bitcoins-act-as-money/" xr:uid="{3D69A025-870E-4057-8C0E-9E1047F58139}"/>
+    <hyperlink ref="H1954" r:id="rId944" tooltip="Permalink to Against The Gold Standard" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/21/against-the-gold-standard/" xr:uid="{2B99D4B0-EE4E-4C71-8B13-A35470FE6FED}"/>
+    <hyperlink ref="H1955" r:id="rId945" tooltip="Permalink to The Economics Of Bitcoin – Doug Casey Gets It Wrong" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/23/the-economics-of-bitcoin-doug-casey-gets-it-wrong/" xr:uid="{6199A485-B113-4D2F-9CEF-1FEF37E8F481}"/>
+    <hyperlink ref="H1956" r:id="rId946" tooltip="Permalink to The Economics Of Bitcoin – Resource Allocation And Interest Rate Distortion" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/06/the-economics-of-bitcoin-resource-allocation-and-interest-rate-distortion/" xr:uid="{2CF4A7B6-D073-4D79-ADDB-65B6CBCDDAA2}"/>
+    <hyperlink ref="H1957" r:id="rId947" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/07/the-economics-of-bitcoin-challenging-mises-regression-theorem/" xr:uid="{1DD820B1-71AB-420F-99E9-1A93A206B2F2}"/>
+    <hyperlink ref="H1958" r:id="rId948" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem – Prof. George Selgin Responds" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/22/the-economics-of-bitcoin-%e2%80%93-challenging-mises%e2%80%99-regression-theorem-prof-george-selgin-responds/" xr:uid="{D9293E01-5E48-4F1B-A3E2-B06E1D0F4AF8}"/>
+    <hyperlink ref="H1959" r:id="rId949" tooltip="Permalink to Why Do People Want A Gold Standard When History Shows Us It Does Not Last?" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/12/01/why-do-people-want-a-gold-standard-when-history-shows-us-it-does-not-last/" xr:uid="{AA57D766-2716-48B5-BC09-108B9712092A}"/>
+    <hyperlink ref="G1927" r:id="rId950" xr:uid="{43C5ECEC-F2C2-410D-85ED-D16C715774CF}"/>
+    <hyperlink ref="G1924" r:id="rId951" xr:uid="{5A8121F1-5905-46DA-BB3D-7159D3CACAF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId940"/>
-  <drawing r:id="rId941"/>
+  <pageSetup orientation="portrait" r:id="rId952"/>
+  <drawing r:id="rId953"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C59BA-5603-4CEB-A57C-4E46FFC59B9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C6A1F-C27C-4E28-A171-2AE19C74DF3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="6900" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-32190" yWindow="10830" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Beautyon!$A$3:$F$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$2042:$G$2143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$2048:$G$2149</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$553</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$562</definedName>
     <definedName name="_Toc4426557" localSheetId="0">Bitcoin!$F$575</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="3242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="3242">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9776,7 +9776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9906,12 +9906,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Garamond"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -10091,7 +10085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10218,9 +10212,6 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -10241,15 +10232,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -10264,8 +10255,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
@@ -10274,13 +10265,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -10290,7 +10284,47 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="303">
+  <dxfs count="307">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13763,11 +13797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
-  <dimension ref="A1:Y2116"/>
+  <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1929" sqref="E1929"/>
+      <pane ySplit="3" topLeftCell="A1898" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1920" sqref="F1920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13896,7 +13930,7 @@
       <c r="E9" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="107" t="s">
         <v>3121</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -13913,7 +13947,7 @@
       <c r="E10" s="56" t="s">
         <v>3124</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="105" t="s">
         <v>3123</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -13930,7 +13964,7 @@
       <c r="E11" s="56" t="s">
         <v>3117</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="105" t="s">
         <v>3125</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -13947,7 +13981,7 @@
       <c r="E12" s="56" t="s">
         <v>3129</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="107" t="s">
         <v>3127</v>
       </c>
       <c r="G12" s="55" t="s">
@@ -13964,7 +13998,7 @@
       <c r="E13" s="56" t="s">
         <v>2363</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="107" t="s">
         <v>3232</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -13981,7 +14015,7 @@
       <c r="E14" s="56" t="s">
         <v>3131</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="107" t="s">
         <v>3132</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -13998,7 +14032,7 @@
       <c r="E15" s="56" t="s">
         <v>2535</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="107" t="s">
         <v>3134</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -14015,7 +14049,7 @@
       <c r="E16" s="56" t="s">
         <v>3137</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="105" t="s">
         <v>3136</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -14032,7 +14066,7 @@
       <c r="E17" s="56" t="s">
         <v>3140</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="105" t="s">
         <v>3139</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -14049,7 +14083,7 @@
       <c r="E18" s="56" t="s">
         <v>3142</v>
       </c>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="105" t="s">
         <v>3144</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -14066,7 +14100,7 @@
       <c r="E19" s="56" t="s">
         <v>3147</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="113" t="s">
         <v>3146</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -14083,7 +14117,7 @@
       <c r="E20" s="56" t="s">
         <v>3150</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="107" t="s">
         <v>3148</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -14100,7 +14134,7 @@
       <c r="E21" s="56" t="s">
         <v>3153</v>
       </c>
-      <c r="F21" s="108" t="s">
+      <c r="F21" s="107" t="s">
         <v>3151</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -14117,7 +14151,7 @@
       <c r="E22" s="56" t="s">
         <v>2937</v>
       </c>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="107" t="s">
         <v>3155</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -14134,7 +14168,7 @@
       <c r="E23" s="56" t="s">
         <v>3158</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="107" t="s">
         <v>3157</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -14151,7 +14185,7 @@
       <c r="E24" s="56" t="s">
         <v>2833</v>
       </c>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="107" t="s">
         <v>3159</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -14168,7 +14202,7 @@
       <c r="E25" s="56" t="s">
         <v>3022</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="107" t="s">
         <v>3161</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -14185,7 +14219,7 @@
       <c r="E26" s="56" t="s">
         <v>3165</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="107" t="s">
         <v>3163</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -14202,7 +14236,7 @@
       <c r="E27" s="56" t="s">
         <v>3168</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="107" t="s">
         <v>3166</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -14219,7 +14253,7 @@
       <c r="E28" s="56" t="s">
         <v>3170</v>
       </c>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="105" t="s">
         <v>3169</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -14236,7 +14270,7 @@
       <c r="E29" s="56" t="s">
         <v>3172</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="107" t="s">
         <v>3174</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -14253,7 +14287,7 @@
       <c r="E30" s="56" t="s">
         <v>3175</v>
       </c>
-      <c r="F30" s="120" t="s">
+      <c r="F30" s="119" t="s">
         <v>3177</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -14270,7 +14304,7 @@
       <c r="E31" s="56" t="s">
         <v>3180</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="107" t="s">
         <v>3178</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -14287,7 +14321,7 @@
       <c r="E32" s="56" t="s">
         <v>3183</v>
       </c>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="107" t="s">
         <v>3181</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -14304,7 +14338,7 @@
       <c r="E33" s="56" t="s">
         <v>3184</v>
       </c>
-      <c r="F33" s="106" t="s">
+      <c r="F33" s="105" t="s">
         <v>3185</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -14321,7 +14355,7 @@
       <c r="E34" s="56" t="s">
         <v>3188</v>
       </c>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="113" t="s">
         <v>3189</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -14338,7 +14372,7 @@
       <c r="E35" s="56" t="s">
         <v>3190</v>
       </c>
-      <c r="F35" s="106" t="s">
+      <c r="F35" s="105" t="s">
         <v>3191</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -14355,7 +14389,7 @@
       <c r="E36" s="56" t="s">
         <v>3140</v>
       </c>
-      <c r="F36" s="106" t="s">
+      <c r="F36" s="105" t="s">
         <v>3194</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -14372,7 +14406,7 @@
       <c r="E37" s="56" t="s">
         <v>1615</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="107" t="s">
         <v>3195</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -14389,7 +14423,7 @@
       <c r="E38" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F38" s="108" t="s">
+      <c r="F38" s="107" t="s">
         <v>3197</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -14406,7 +14440,7 @@
       <c r="E39" s="56" t="s">
         <v>3201</v>
       </c>
-      <c r="F39" s="106" t="s">
+      <c r="F39" s="105" t="s">
         <v>3199</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -14423,7 +14457,7 @@
       <c r="E40" s="56" t="s">
         <v>3204</v>
       </c>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="107" t="s">
         <v>3202</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -14436,7 +14470,7 @@
       <c r="C41" s="75"/>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="106" t="s">
+      <c r="F41" s="105" t="s">
         <v>3220</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -14453,7 +14487,7 @@
       <c r="E42" s="56" t="s">
         <v>3207</v>
       </c>
-      <c r="F42" s="108" t="s">
+      <c r="F42" s="107" t="s">
         <v>3206</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -14470,7 +14504,7 @@
       <c r="E43" s="56" t="s">
         <v>3210</v>
       </c>
-      <c r="F43" s="108" t="s">
+      <c r="F43" s="107" t="s">
         <v>3209</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -14487,7 +14521,7 @@
       <c r="E44" s="56" t="s">
         <v>3184</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="113" t="s">
         <v>3212</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -14506,7 +14540,7 @@
       <c r="E45" s="56" t="s">
         <v>3216</v>
       </c>
-      <c r="F45" s="108" t="s">
+      <c r="F45" s="107" t="s">
         <v>3213</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -14523,7 +14557,7 @@
       <c r="E46" s="56" t="s">
         <v>3219</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="107" t="s">
         <v>3217</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -14538,7 +14572,7 @@
       <c r="E47" s="56" t="s">
         <v>3228</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="107" t="s">
         <v>3226</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -14555,7 +14589,7 @@
       <c r="E48" s="56" t="s">
         <v>3231</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="107" t="s">
         <v>3229</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -14669,7 +14703,7 @@
       <c r="E60" s="56" t="s">
         <v>3117</v>
       </c>
-      <c r="F60" s="108" t="s">
+      <c r="F60" s="107" t="s">
         <v>3115</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -14684,7 +14718,7 @@
       <c r="E61" s="56" t="s">
         <v>3038</v>
       </c>
-      <c r="F61" s="108" t="s">
+      <c r="F61" s="107" t="s">
         <v>3114</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -14697,7 +14731,7 @@
       <c r="C62" s="75"/>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
-      <c r="F62" s="108" t="s">
+      <c r="F62" s="107" t="s">
         <v>3112</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -14712,7 +14746,7 @@
       <c r="C63" s="75"/>
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
-      <c r="F63" s="96" t="s">
+      <c r="F63" s="95" t="s">
         <v>3033</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -14727,7 +14761,7 @@
       <c r="E64" s="56" t="s">
         <v>2353</v>
       </c>
-      <c r="F64" s="119" t="s">
+      <c r="F64" s="118" t="s">
         <v>3035</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -14742,7 +14776,7 @@
       <c r="E65" s="56" t="s">
         <v>3038</v>
       </c>
-      <c r="F65" s="108" t="s">
+      <c r="F65" s="107" t="s">
         <v>3037</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -14755,7 +14789,7 @@
       <c r="C66" s="75"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="108" t="s">
+      <c r="F66" s="107" t="s">
         <v>3039</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -14768,7 +14802,7 @@
       <c r="C67" s="75"/>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="96" t="s">
+      <c r="F67" s="95" t="s">
         <v>3041</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -14781,7 +14815,7 @@
       <c r="C68" s="75"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
-      <c r="F68" s="108" t="s">
+      <c r="F68" s="107" t="s">
         <v>3043</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -14794,7 +14828,7 @@
       <c r="C69" s="75"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="96" t="s">
+      <c r="F69" s="95" t="s">
         <v>3045</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -14807,7 +14841,7 @@
       <c r="C70" s="75"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="108" t="s">
+      <c r="F70" s="107" t="s">
         <v>3048</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -14820,7 +14854,7 @@
       <c r="C71" s="75"/>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="108" t="s">
+      <c r="F71" s="107" t="s">
         <v>3049</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -14833,7 +14867,7 @@
       <c r="C72" s="75"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="108" t="s">
+      <c r="F72" s="107" t="s">
         <v>3053</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -14846,7 +14880,7 @@
       <c r="C73" s="75"/>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
-      <c r="F73" s="96" t="s">
+      <c r="F73" s="95" t="s">
         <v>3055</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -14859,7 +14893,7 @@
       <c r="C74" s="75"/>
       <c r="D74" s="56"/>
       <c r="E74" s="56"/>
-      <c r="F74" s="96" t="s">
+      <c r="F74" s="95" t="s">
         <v>3058</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -14872,7 +14906,7 @@
       <c r="C75" s="75"/>
       <c r="D75" s="56"/>
       <c r="E75" s="56"/>
-      <c r="F75" s="108" t="s">
+      <c r="F75" s="107" t="s">
         <v>3059</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -14885,7 +14919,7 @@
       <c r="C76" s="75"/>
       <c r="D76" s="56"/>
       <c r="E76" s="56"/>
-      <c r="F76" s="108" t="s">
+      <c r="F76" s="107" t="s">
         <v>3062</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -14898,7 +14932,7 @@
       <c r="C77" s="75"/>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
-      <c r="F77" s="96" t="s">
+      <c r="F77" s="95" t="s">
         <v>3063</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -14910,10 +14944,10 @@
       <c r="B78" s="56"/>
       <c r="C78" s="75"/>
       <c r="D78" s="56"/>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="89" t="s">
         <v>2465</v>
       </c>
-      <c r="F78" s="108" t="s">
+      <c r="F78" s="107" t="s">
         <v>3065</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -14926,7 +14960,7 @@
       <c r="C79" s="75"/>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
-      <c r="F79" s="108" t="s">
+      <c r="F79" s="107" t="s">
         <v>3068</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -14939,7 +14973,7 @@
       <c r="C80" s="75"/>
       <c r="D80" s="56"/>
       <c r="E80" s="56"/>
-      <c r="F80" s="108" t="s">
+      <c r="F80" s="107" t="s">
         <v>3069</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -14952,7 +14986,7 @@
       <c r="C81" s="75"/>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
-      <c r="F81" s="96" t="s">
+      <c r="F81" s="95" t="s">
         <v>3071</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -14965,7 +14999,7 @@
       <c r="C82" s="75"/>
       <c r="D82" s="56"/>
       <c r="E82" s="56"/>
-      <c r="F82" s="96" t="s">
+      <c r="F82" s="95" t="s">
         <v>3076</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -14978,7 +15012,7 @@
       <c r="C83" s="75"/>
       <c r="D83" s="56"/>
       <c r="E83" s="56"/>
-      <c r="F83" s="108" t="s">
+      <c r="F83" s="107" t="s">
         <v>3075</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -14991,7 +15025,7 @@
       <c r="C84" s="75"/>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
-      <c r="F84" s="108" t="s">
+      <c r="F84" s="107" t="s">
         <v>3078</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -15019,7 +15053,7 @@
       <c r="E86" s="56" t="s">
         <v>3086</v>
       </c>
-      <c r="F86" s="108" t="s">
+      <c r="F86" s="107" t="s">
         <v>3084</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -15038,7 +15072,7 @@
       <c r="C88" s="75"/>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
-      <c r="F88" s="96" t="s">
+      <c r="F88" s="95" t="s">
         <v>3087</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -15051,7 +15085,7 @@
       <c r="C89" s="75"/>
       <c r="D89" s="56"/>
       <c r="E89" s="56"/>
-      <c r="F89" s="96" t="s">
+      <c r="F89" s="95" t="s">
         <v>3089</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -15064,7 +15098,7 @@
       <c r="C90" s="75"/>
       <c r="D90" s="56"/>
       <c r="E90" s="56"/>
-      <c r="F90" s="108" t="s">
+      <c r="F90" s="107" t="s">
         <v>3091</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -15077,7 +15111,7 @@
       <c r="C91" s="75"/>
       <c r="D91" s="56"/>
       <c r="E91" s="56"/>
-      <c r="F91" s="108" t="s">
+      <c r="F91" s="107" t="s">
         <v>3093</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -15090,7 +15124,7 @@
       <c r="C92" s="75"/>
       <c r="D92" s="56"/>
       <c r="E92" s="56"/>
-      <c r="F92" s="108" t="s">
+      <c r="F92" s="107" t="s">
         <v>3096</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -15103,7 +15137,7 @@
       <c r="C93" s="75"/>
       <c r="D93" s="56"/>
       <c r="E93" s="56"/>
-      <c r="F93" s="96" t="s">
+      <c r="F93" s="95" t="s">
         <v>3098</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -15116,7 +15150,7 @@
       <c r="C94" s="75"/>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
-      <c r="F94" s="96" t="s">
+      <c r="F94" s="95" t="s">
         <v>3099</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -15129,7 +15163,7 @@
       <c r="C95" s="75"/>
       <c r="D95" s="56"/>
       <c r="E95" s="56"/>
-      <c r="F95" s="108" t="s">
+      <c r="F95" s="107" t="s">
         <v>3101</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -15142,7 +15176,7 @@
       <c r="C96" s="75"/>
       <c r="D96" s="56"/>
       <c r="E96" s="56"/>
-      <c r="F96" s="96" t="s">
+      <c r="F96" s="95" t="s">
         <v>3103</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -15155,7 +15189,7 @@
       <c r="C97" s="75"/>
       <c r="D97" s="56"/>
       <c r="E97" s="56"/>
-      <c r="F97" s="96" t="s">
+      <c r="F97" s="95" t="s">
         <v>3105</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -15168,7 +15202,7 @@
       <c r="C98" s="75"/>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
-      <c r="F98" s="108" t="s">
+      <c r="F98" s="107" t="s">
         <v>3107</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -15183,7 +15217,7 @@
       <c r="E99" s="56" t="s">
         <v>1786</v>
       </c>
-      <c r="F99" s="108" t="s">
+      <c r="F99" s="107" t="s">
         <v>3119</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -15282,7 +15316,7 @@
       <c r="C109" s="75"/>
       <c r="D109" s="56"/>
       <c r="E109" s="56"/>
-      <c r="F109" s="114" t="s">
+      <c r="F109" s="113" t="s">
         <v>3024</v>
       </c>
       <c r="G109" s="3" t="s">
@@ -15296,7 +15330,7 @@
       </c>
       <c r="C110" s="75"/>
       <c r="D110" s="56"/>
-      <c r="E110" s="96" t="s">
+      <c r="E110" s="95" t="s">
         <v>2490</v>
       </c>
       <c r="F110" s="3" t="s">
@@ -15316,7 +15350,7 @@
       <c r="E111" s="56" t="s">
         <v>2898</v>
       </c>
-      <c r="F111" s="114" t="s">
+      <c r="F111" s="113" t="s">
         <v>2900</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -15333,7 +15367,7 @@
       <c r="E112" s="56" t="s">
         <v>2901</v>
       </c>
-      <c r="F112" s="108" t="s">
+      <c r="F112" s="107" t="s">
         <v>2904</v>
       </c>
       <c r="G112" s="3" t="s">
@@ -15365,7 +15399,7 @@
       <c r="E114" s="56" t="s">
         <v>1613</v>
       </c>
-      <c r="F114" s="108" t="s">
+      <c r="F114" s="107" t="s">
         <v>2907</v>
       </c>
       <c r="G114" s="3" t="s">
@@ -15379,7 +15413,7 @@
       </c>
       <c r="C115" s="75"/>
       <c r="D115" s="56"/>
-      <c r="E115" s="118" t="s">
+      <c r="E115" s="117" t="s">
         <v>2943</v>
       </c>
       <c r="F115" s="56" t="s">
@@ -15397,7 +15431,7 @@
       <c r="E116" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F116" s="108" t="s">
+      <c r="F116" s="107" t="s">
         <v>2911</v>
       </c>
       <c r="G116" s="3" t="s">
@@ -15412,7 +15446,7 @@
       <c r="E117" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F117" s="108" t="s">
+      <c r="F117" s="107" t="s">
         <v>2909</v>
       </c>
       <c r="G117" s="3" t="s">
@@ -15429,7 +15463,7 @@
       <c r="E118" s="56" t="s">
         <v>2927</v>
       </c>
-      <c r="F118" s="108" t="s">
+      <c r="F118" s="107" t="s">
         <v>2928</v>
       </c>
       <c r="G118" s="3" t="s">
@@ -15446,7 +15480,7 @@
       <c r="E119" s="56" t="s">
         <v>2510</v>
       </c>
-      <c r="F119" s="108" t="s">
+      <c r="F119" s="107" t="s">
         <v>2930</v>
       </c>
       <c r="G119" s="3" t="s">
@@ -15460,7 +15494,7 @@
       </c>
       <c r="C120" s="75"/>
       <c r="D120" s="56"/>
-      <c r="E120" s="96" t="s">
+      <c r="E120" s="95" t="s">
         <v>2934</v>
       </c>
       <c r="F120" s="56" t="s">
@@ -15480,7 +15514,7 @@
       <c r="E121" s="56" t="s">
         <v>2937</v>
       </c>
-      <c r="F121" s="108" t="s">
+      <c r="F121" s="107" t="s">
         <v>2935</v>
       </c>
       <c r="G121" s="3" t="s">
@@ -15497,7 +15531,7 @@
       <c r="E122" s="56" t="s">
         <v>2940</v>
       </c>
-      <c r="F122" s="108" t="s">
+      <c r="F122" s="107" t="s">
         <v>2939</v>
       </c>
       <c r="G122" s="3" t="s">
@@ -15514,7 +15548,7 @@
       <c r="E123" s="56" t="s">
         <v>2946</v>
       </c>
-      <c r="F123" s="108" t="s">
+      <c r="F123" s="107" t="s">
         <v>2944</v>
       </c>
       <c r="G123" s="3" t="s">
@@ -15531,7 +15565,7 @@
       <c r="E124" s="56" t="s">
         <v>2949</v>
       </c>
-      <c r="F124" s="108" t="s">
+      <c r="F124" s="107" t="s">
         <v>2948</v>
       </c>
       <c r="G124" s="3" t="s">
@@ -15545,7 +15579,7 @@
       </c>
       <c r="C125" s="75"/>
       <c r="D125" s="56"/>
-      <c r="E125" s="96" t="s">
+      <c r="E125" s="95" t="s">
         <v>2898</v>
       </c>
       <c r="F125" s="56" t="s">
@@ -15562,7 +15596,7 @@
       </c>
       <c r="C126" s="75"/>
       <c r="D126" s="56"/>
-      <c r="E126" s="96" t="s">
+      <c r="E126" s="95" t="s">
         <v>2917</v>
       </c>
       <c r="F126" s="56" t="s">
@@ -15582,7 +15616,7 @@
       <c r="E127" s="56" t="s">
         <v>2954</v>
       </c>
-      <c r="F127" s="108" t="s">
+      <c r="F127" s="107" t="s">
         <v>2953</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -15599,7 +15633,7 @@
       <c r="E128" s="56" t="s">
         <v>2955</v>
       </c>
-      <c r="F128" s="114" t="s">
+      <c r="F128" s="113" t="s">
         <v>2957</v>
       </c>
       <c r="G128" s="3" t="s">
@@ -15613,7 +15647,7 @@
       </c>
       <c r="C129" s="75"/>
       <c r="D129" s="56"/>
-      <c r="E129" s="96" t="s">
+      <c r="E129" s="95" t="s">
         <v>2972</v>
       </c>
       <c r="F129" s="56" t="s">
@@ -15633,7 +15667,7 @@
       <c r="E130" s="56" t="s">
         <v>2510</v>
       </c>
-      <c r="F130" s="108" t="s">
+      <c r="F130" s="107" t="s">
         <v>3007</v>
       </c>
       <c r="G130" s="3" t="s">
@@ -15650,7 +15684,7 @@
       <c r="E131" s="56" t="s">
         <v>2960</v>
       </c>
-      <c r="F131" s="114" t="s">
+      <c r="F131" s="113" t="s">
         <v>2959</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -15663,7 +15697,7 @@
       <c r="C132" s="75"/>
       <c r="D132" s="56"/>
       <c r="E132" s="56"/>
-      <c r="F132" s="108" t="s">
+      <c r="F132" s="107" t="s">
         <v>2962</v>
       </c>
       <c r="G132" s="3" t="s">
@@ -15677,7 +15711,7 @@
       </c>
       <c r="C133" s="75"/>
       <c r="D133" s="56"/>
-      <c r="E133" s="96" t="s">
+      <c r="E133" s="95" t="s">
         <v>2975</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -15697,7 +15731,7 @@
       <c r="E134" s="56" t="s">
         <v>2981</v>
       </c>
-      <c r="F134" s="114" t="s">
+      <c r="F134" s="113" t="s">
         <v>2979</v>
       </c>
       <c r="G134" s="3" t="s">
@@ -15714,7 +15748,7 @@
       <c r="E135" s="56" t="s">
         <v>2976</v>
       </c>
-      <c r="F135" s="114" t="s">
+      <c r="F135" s="113" t="s">
         <v>2978</v>
       </c>
       <c r="G135" s="3" t="s">
@@ -15728,7 +15762,7 @@
       </c>
       <c r="C136" s="75"/>
       <c r="D136" s="56"/>
-      <c r="E136" s="96" t="s">
+      <c r="E136" s="95" t="s">
         <v>2984</v>
       </c>
       <c r="F136" s="56" t="s">
@@ -15748,7 +15782,7 @@
       <c r="E137" s="56" t="s">
         <v>2985</v>
       </c>
-      <c r="F137" s="108" t="s">
+      <c r="F137" s="107" t="s">
         <v>2987</v>
       </c>
       <c r="G137" s="3" t="s">
@@ -15782,7 +15816,7 @@
       <c r="E139" s="56" t="s">
         <v>2991</v>
       </c>
-      <c r="F139" s="108" t="s">
+      <c r="F139" s="107" t="s">
         <v>2992</v>
       </c>
       <c r="G139" s="3" t="s">
@@ -15796,7 +15830,7 @@
       </c>
       <c r="C140" s="75"/>
       <c r="D140" s="56"/>
-      <c r="E140" s="96" t="s">
+      <c r="E140" s="95" t="s">
         <v>2996</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -15813,10 +15847,10 @@
       </c>
       <c r="C141" s="75"/>
       <c r="D141" s="56"/>
-      <c r="E141" s="96" t="s">
+      <c r="E141" s="95" t="s">
         <v>1729</v>
       </c>
-      <c r="F141" s="96" t="s">
+      <c r="F141" s="95" t="s">
         <v>2997</v>
       </c>
       <c r="G141" s="3" t="s">
@@ -15828,8 +15862,8 @@
       <c r="B142" s="56"/>
       <c r="C142" s="75"/>
       <c r="D142" s="56"/>
-      <c r="E142" s="96"/>
-      <c r="F142" s="96" t="s">
+      <c r="E142" s="95"/>
+      <c r="F142" s="95" t="s">
         <v>3000</v>
       </c>
       <c r="G142" s="3" t="s">
@@ -15843,10 +15877,10 @@
       </c>
       <c r="C143" s="75"/>
       <c r="D143" s="56"/>
-      <c r="E143" s="96" t="s">
+      <c r="E143" s="95" t="s">
         <v>2954</v>
       </c>
-      <c r="F143" s="96" t="s">
+      <c r="F143" s="95" t="s">
         <v>3002</v>
       </c>
       <c r="G143" s="3" t="s">
@@ -15860,7 +15894,7 @@
       </c>
       <c r="C144" s="75"/>
       <c r="D144" s="56"/>
-      <c r="E144" s="96" t="s">
+      <c r="E144" s="95" t="s">
         <v>3005</v>
       </c>
       <c r="F144" s="56" t="s">
@@ -15871,7 +15905,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="86">
+      <c r="B145" s="85">
         <v>43869</v>
       </c>
       <c r="E145" s="56" t="s">
@@ -15889,7 +15923,7 @@
       <c r="B146" s="56"/>
       <c r="C146" s="75"/>
       <c r="D146" s="56"/>
-      <c r="E146" s="96" t="s">
+      <c r="E146" s="95" t="s">
         <v>3011</v>
       </c>
       <c r="F146" s="3" t="s">
@@ -15906,7 +15940,7 @@
       </c>
       <c r="C147" s="75"/>
       <c r="D147" s="56"/>
-      <c r="E147" s="96" t="s">
+      <c r="E147" s="95" t="s">
         <v>3016</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -15923,10 +15957,10 @@
       </c>
       <c r="C148" s="75"/>
       <c r="D148" s="56"/>
-      <c r="E148" s="96" t="s">
+      <c r="E148" s="95" t="s">
         <v>3017</v>
       </c>
-      <c r="F148" s="116" t="s">
+      <c r="F148" s="115" t="s">
         <v>3019</v>
       </c>
       <c r="G148" s="3" t="s">
@@ -15940,7 +15974,7 @@
       </c>
       <c r="C149" s="75"/>
       <c r="D149" s="56"/>
-      <c r="E149" s="96" t="s">
+      <c r="E149" s="95" t="s">
         <v>3022</v>
       </c>
       <c r="F149" s="3" t="s">
@@ -16041,7 +16075,7 @@
       <c r="G159" s="56"/>
     </row>
     <row r="160" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="101" t="s">
+      <c r="A160" s="100" t="s">
         <v>2767</v>
       </c>
       <c r="B160" s="74">
@@ -16050,7 +16084,7 @@
       <c r="C160" s="75"/>
       <c r="D160" s="56"/>
       <c r="E160" s="56"/>
-      <c r="F160" s="108" t="s">
+      <c r="F160" s="107" t="s">
         <v>2765</v>
       </c>
       <c r="G160" s="3" t="s">
@@ -16059,7 +16093,7 @@
     </row>
     <row r="161" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="56"/>
-      <c r="B161" s="86">
+      <c r="B161" s="85">
         <v>43854</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -16077,7 +16111,7 @@
       <c r="C162" s="75"/>
       <c r="D162" s="56"/>
       <c r="E162" s="56"/>
-      <c r="F162" s="108" t="s">
+      <c r="F162" s="107" t="s">
         <v>2779</v>
       </c>
       <c r="G162" s="3" t="s">
@@ -16085,7 +16119,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="101" t="s">
+      <c r="A163" s="100" t="s">
         <v>2767</v>
       </c>
       <c r="B163" s="74">
@@ -16094,7 +16128,7 @@
       <c r="C163" s="75"/>
       <c r="D163" s="56"/>
       <c r="E163" s="56"/>
-      <c r="F163" s="108" t="s">
+      <c r="F163" s="107" t="s">
         <v>2782</v>
       </c>
       <c r="G163" s="3" t="s">
@@ -16111,7 +16145,7 @@
       <c r="E164" s="56" t="s">
         <v>2828</v>
       </c>
-      <c r="F164" s="108" t="s">
+      <c r="F164" s="107" t="s">
         <v>2784</v>
       </c>
       <c r="G164" s="3" t="s">
@@ -16128,7 +16162,7 @@
       <c r="E165" s="56" t="s">
         <v>2828</v>
       </c>
-      <c r="F165" s="108" t="s">
+      <c r="F165" s="107" t="s">
         <v>2785</v>
       </c>
       <c r="G165" s="3" t="s">
@@ -16142,7 +16176,7 @@
       </c>
       <c r="C166" s="75"/>
       <c r="D166" s="56"/>
-      <c r="F166" s="108" t="s">
+      <c r="F166" s="107" t="s">
         <v>2787</v>
       </c>
       <c r="G166" s="3" t="s">
@@ -16159,7 +16193,7 @@
       <c r="E167" s="56" t="s">
         <v>2828</v>
       </c>
-      <c r="F167" s="108" t="s">
+      <c r="F167" s="107" t="s">
         <v>2789</v>
       </c>
       <c r="G167" s="3" t="s">
@@ -16189,7 +16223,7 @@
       <c r="C169" s="75"/>
       <c r="D169" s="56"/>
       <c r="E169" s="56"/>
-      <c r="F169" s="108" t="s">
+      <c r="F169" s="107" t="s">
         <v>2794</v>
       </c>
       <c r="G169" s="3" t="s">
@@ -16202,7 +16236,7 @@
       <c r="C170" s="75"/>
       <c r="D170" s="56"/>
       <c r="E170" s="56"/>
-      <c r="F170" s="108" t="s">
+      <c r="F170" s="107" t="s">
         <v>2796</v>
       </c>
       <c r="G170" s="3" t="s">
@@ -16217,7 +16251,7 @@
       <c r="C171" s="75"/>
       <c r="D171" s="56"/>
       <c r="E171" s="56"/>
-      <c r="F171" s="108" t="s">
+      <c r="F171" s="107" t="s">
         <v>2798</v>
       </c>
       <c r="G171" s="3" t="s">
@@ -16232,7 +16266,7 @@
       <c r="C172" s="75"/>
       <c r="D172" s="56"/>
       <c r="E172" s="56"/>
-      <c r="F172" s="108" t="s">
+      <c r="F172" s="107" t="s">
         <v>2800</v>
       </c>
       <c r="G172" s="3" t="s">
@@ -16247,7 +16281,7 @@
       <c r="C173" s="75"/>
       <c r="D173" s="56"/>
       <c r="E173" s="56"/>
-      <c r="F173" s="108" t="s">
+      <c r="F173" s="107" t="s">
         <v>2802</v>
       </c>
       <c r="G173" s="3" t="s">
@@ -16260,7 +16294,7 @@
       <c r="C174" s="75"/>
       <c r="D174" s="56"/>
       <c r="E174" s="56"/>
-      <c r="F174" s="112" t="s">
+      <c r="F174" s="111" t="s">
         <v>2804</v>
       </c>
       <c r="G174" s="3" t="s">
@@ -16273,7 +16307,7 @@
       <c r="C175" s="75"/>
       <c r="D175" s="56"/>
       <c r="E175" s="56"/>
-      <c r="F175" s="96" t="s">
+      <c r="F175" s="95" t="s">
         <v>2805</v>
       </c>
       <c r="G175" s="3" t="s">
@@ -16286,7 +16320,7 @@
       <c r="C176" s="75"/>
       <c r="D176" s="56"/>
       <c r="E176" s="56"/>
-      <c r="F176" s="114" t="s">
+      <c r="F176" s="113" t="s">
         <v>2807</v>
       </c>
       <c r="G176" s="3" t="s">
@@ -16299,7 +16333,7 @@
       <c r="C177" s="75"/>
       <c r="D177" s="56"/>
       <c r="E177" s="56"/>
-      <c r="F177" s="108" t="s">
+      <c r="F177" s="107" t="s">
         <v>2809</v>
       </c>
       <c r="G177" s="3" t="s">
@@ -16312,7 +16346,7 @@
       <c r="C178" s="75"/>
       <c r="D178" s="56"/>
       <c r="E178" s="56"/>
-      <c r="F178" s="108" t="s">
+      <c r="F178" s="107" t="s">
         <v>2811</v>
       </c>
       <c r="G178" s="3" t="s">
@@ -16325,7 +16359,7 @@
       <c r="C179" s="75"/>
       <c r="D179" s="56"/>
       <c r="E179" s="56"/>
-      <c r="F179" s="115" t="s">
+      <c r="F179" s="114" t="s">
         <v>2814</v>
       </c>
       <c r="G179" s="3" t="s">
@@ -16338,7 +16372,7 @@
       <c r="C180" s="75"/>
       <c r="D180" s="56"/>
       <c r="E180" s="56"/>
-      <c r="F180" s="113" t="s">
+      <c r="F180" s="112" t="s">
         <v>2815</v>
       </c>
       <c r="G180" s="3" t="s">
@@ -16351,7 +16385,7 @@
       <c r="C181" s="75"/>
       <c r="D181" s="56"/>
       <c r="E181" s="56"/>
-      <c r="F181" s="114" t="s">
+      <c r="F181" s="113" t="s">
         <v>2818</v>
       </c>
       <c r="G181" s="3" t="s">
@@ -16364,7 +16398,7 @@
       <c r="C182" s="75"/>
       <c r="D182" s="56"/>
       <c r="E182" s="56"/>
-      <c r="F182" s="115" t="s">
+      <c r="F182" s="114" t="s">
         <v>2791</v>
       </c>
       <c r="G182" s="3" t="s">
@@ -16392,7 +16426,7 @@
       <c r="C184" s="75"/>
       <c r="D184" s="56"/>
       <c r="E184" s="56"/>
-      <c r="F184" s="114" t="s">
+      <c r="F184" s="113" t="s">
         <v>2824</v>
       </c>
       <c r="G184" s="3" t="s">
@@ -16407,7 +16441,7 @@
       <c r="C185" s="75"/>
       <c r="D185" s="56"/>
       <c r="E185" s="56"/>
-      <c r="F185" s="113" t="s">
+      <c r="F185" s="112" t="s">
         <v>2830</v>
       </c>
       <c r="G185" s="3" t="s">
@@ -16420,7 +16454,7 @@
       <c r="C186" s="75"/>
       <c r="D186" s="56"/>
       <c r="E186" s="56"/>
-      <c r="F186" s="111"/>
+      <c r="F186" s="110"/>
       <c r="G186" s="3"/>
     </row>
     <row r="187" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -16429,7 +16463,7 @@
       <c r="C187" s="75"/>
       <c r="D187" s="56"/>
       <c r="E187" s="56"/>
-      <c r="F187" s="111"/>
+      <c r="F187" s="110"/>
       <c r="G187" s="3"/>
     </row>
     <row r="188" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -16438,7 +16472,7 @@
       <c r="C188" s="75"/>
       <c r="D188" s="56"/>
       <c r="E188" s="56"/>
-      <c r="F188" s="111"/>
+      <c r="F188" s="110"/>
       <c r="G188" s="3"/>
     </row>
     <row r="189" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -16451,7 +16485,7 @@
       <c r="E189" s="56" t="s">
         <v>2901</v>
       </c>
-      <c r="F189" s="111" t="s">
+      <c r="F189" s="110" t="s">
         <v>2903</v>
       </c>
       <c r="G189" s="3" t="s">
@@ -16484,7 +16518,7 @@
       <c r="C192" s="75"/>
       <c r="D192" s="56"/>
       <c r="E192" s="56"/>
-      <c r="F192" s="108" t="s">
+      <c r="F192" s="107" t="s">
         <v>2742</v>
       </c>
       <c r="G192" s="3" t="s">
@@ -16499,7 +16533,7 @@
       <c r="C193" s="75"/>
       <c r="D193" s="56"/>
       <c r="E193" s="56"/>
-      <c r="F193" s="108" t="s">
+      <c r="F193" s="107" t="s">
         <v>2738</v>
       </c>
       <c r="G193" s="3" t="s">
@@ -16514,7 +16548,7 @@
       <c r="C194" s="75"/>
       <c r="D194" s="56"/>
       <c r="E194" s="56"/>
-      <c r="F194" s="108" t="s">
+      <c r="F194" s="107" t="s">
         <v>2737</v>
       </c>
       <c r="G194" s="3" t="s">
@@ -16529,7 +16563,7 @@
       <c r="C195" s="75"/>
       <c r="D195" s="56"/>
       <c r="E195" s="56"/>
-      <c r="F195" s="108" t="s">
+      <c r="F195" s="107" t="s">
         <v>2731</v>
       </c>
       <c r="G195" s="3" t="s">
@@ -16619,7 +16653,7 @@
       <c r="C201" s="75"/>
       <c r="D201" s="56"/>
       <c r="E201" s="56"/>
-      <c r="F201" s="107" t="s">
+      <c r="F201" s="106" t="s">
         <v>2719</v>
       </c>
       <c r="G201" s="3" t="s">
@@ -16634,7 +16668,7 @@
       <c r="C202" s="75"/>
       <c r="D202" s="56"/>
       <c r="E202" s="56"/>
-      <c r="F202" s="108" t="s">
+      <c r="F202" s="107" t="s">
         <v>2717</v>
       </c>
       <c r="G202" s="3" t="s">
@@ -16649,7 +16683,7 @@
       <c r="C203" s="75"/>
       <c r="D203" s="56"/>
       <c r="E203" s="56"/>
-      <c r="F203" s="108" t="s">
+      <c r="F203" s="107" t="s">
         <v>2716</v>
       </c>
       <c r="G203" s="3" t="s">
@@ -16664,7 +16698,7 @@
       <c r="C204" s="75"/>
       <c r="D204" s="56"/>
       <c r="E204" s="56"/>
-      <c r="F204" s="108" t="s">
+      <c r="F204" s="107" t="s">
         <v>2710</v>
       </c>
       <c r="G204" s="3" t="s">
@@ -16677,7 +16711,7 @@
       <c r="C205" s="75"/>
       <c r="D205" s="56"/>
       <c r="E205" s="56"/>
-      <c r="F205" s="106" t="s">
+      <c r="F205" s="105" t="s">
         <v>2707</v>
       </c>
       <c r="G205" s="3" t="s">
@@ -16690,7 +16724,7 @@
       <c r="C206" s="75"/>
       <c r="D206" s="56"/>
       <c r="E206" s="56"/>
-      <c r="F206" s="106" t="s">
+      <c r="F206" s="105" t="s">
         <v>2705</v>
       </c>
       <c r="G206" s="3" t="s">
@@ -16703,7 +16737,7 @@
       <c r="C207" s="75"/>
       <c r="D207" s="56"/>
       <c r="E207" s="56"/>
-      <c r="F207" s="106" t="s">
+      <c r="F207" s="105" t="s">
         <v>2703</v>
       </c>
       <c r="G207" s="3" t="s">
@@ -16716,7 +16750,7 @@
       <c r="C208" s="75"/>
       <c r="D208" s="56"/>
       <c r="E208" s="56"/>
-      <c r="F208" s="106" t="s">
+      <c r="F208" s="105" t="s">
         <v>2701</v>
       </c>
       <c r="G208" s="3" t="s">
@@ -16729,7 +16763,7 @@
       <c r="C209" s="75"/>
       <c r="D209" s="56"/>
       <c r="E209" s="56"/>
-      <c r="F209" s="106" t="s">
+      <c r="F209" s="105" t="s">
         <v>2699</v>
       </c>
       <c r="G209" s="3" t="s">
@@ -16761,7 +16795,7 @@
       <c r="C211" s="75"/>
       <c r="D211" s="56"/>
       <c r="E211" s="56"/>
-      <c r="F211" s="108" t="s">
+      <c r="F211" s="107" t="s">
         <v>2712</v>
       </c>
       <c r="G211" s="3" t="s">
@@ -16776,7 +16810,7 @@
       <c r="C212" s="75"/>
       <c r="D212" s="56"/>
       <c r="E212" s="56"/>
-      <c r="F212" s="108" t="s">
+      <c r="F212" s="107" t="s">
         <v>2688</v>
       </c>
       <c r="G212" s="3" t="s">
@@ -16789,7 +16823,7 @@
       <c r="C213" s="75"/>
       <c r="D213" s="56"/>
       <c r="E213" s="56"/>
-      <c r="F213" s="106" t="s">
+      <c r="F213" s="105" t="s">
         <v>2696</v>
       </c>
       <c r="G213" s="3" t="s">
@@ -16797,7 +16831,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="101" t="s">
+      <c r="A214" s="100" t="s">
         <v>2676</v>
       </c>
       <c r="B214" s="74">
@@ -16806,7 +16840,7 @@
       <c r="C214" s="75"/>
       <c r="D214" s="56"/>
       <c r="E214" s="56"/>
-      <c r="F214" s="108" t="s">
+      <c r="F214" s="107" t="s">
         <v>2693</v>
       </c>
       <c r="G214" s="3" t="s">
@@ -16814,14 +16848,14 @@
       </c>
     </row>
     <row r="215" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="101" t="s">
+      <c r="A215" s="100" t="s">
         <v>2676</v>
       </c>
       <c r="B215" s="56"/>
       <c r="C215" s="75"/>
       <c r="D215" s="56"/>
       <c r="E215" s="56"/>
-      <c r="F215" s="108" t="s">
+      <c r="F215" s="107" t="s">
         <v>2692</v>
       </c>
       <c r="G215" s="3" t="s">
@@ -16836,7 +16870,7 @@
       <c r="C216" s="75"/>
       <c r="D216" s="56"/>
       <c r="E216" s="56"/>
-      <c r="F216" s="108" t="s">
+      <c r="F216" s="107" t="s">
         <v>2729</v>
       </c>
       <c r="G216" s="3" t="s">
@@ -16851,7 +16885,7 @@
       <c r="C217" s="75"/>
       <c r="D217" s="56"/>
       <c r="E217" s="56"/>
-      <c r="F217" s="108" t="s">
+      <c r="F217" s="107" t="s">
         <v>2685</v>
       </c>
       <c r="G217" s="55" t="s">
@@ -16866,7 +16900,7 @@
       <c r="C218" s="75"/>
       <c r="D218" s="56"/>
       <c r="E218" s="56"/>
-      <c r="F218" s="109" t="s">
+      <c r="F218" s="108" t="s">
         <v>2683</v>
       </c>
       <c r="G218" s="55" t="s">
@@ -16881,7 +16915,7 @@
       <c r="C219" s="75"/>
       <c r="D219" s="56"/>
       <c r="E219" s="56"/>
-      <c r="F219" s="108" t="s">
+      <c r="F219" s="107" t="s">
         <v>2680</v>
       </c>
       <c r="G219" s="55" t="s">
@@ -16896,7 +16930,7 @@
       <c r="C220" s="75"/>
       <c r="D220" s="56"/>
       <c r="E220" s="56"/>
-      <c r="F220" s="108" t="s">
+      <c r="F220" s="107" t="s">
         <v>2690</v>
       </c>
       <c r="G220" s="3" t="s">
@@ -16947,7 +16981,7 @@
     </row>
     <row r="225" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="56"/>
-      <c r="B225" s="97">
+      <c r="B225" s="96">
         <v>43784</v>
       </c>
       <c r="C225" s="75"/>
@@ -16962,7 +16996,7 @@
     </row>
     <row r="226" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="56"/>
-      <c r="B226" s="91">
+      <c r="B226" s="90">
         <v>43788</v>
       </c>
       <c r="C226" s="75"/>
@@ -16977,7 +17011,7 @@
     </row>
     <row r="227" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="56"/>
-      <c r="B227" s="91">
+      <c r="B227" s="90">
         <v>43782</v>
       </c>
       <c r="C227" s="75"/>
@@ -16991,10 +17025,10 @@
       </c>
     </row>
     <row r="228" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="101" t="s">
+      <c r="A228" s="100" t="s">
         <v>2676</v>
       </c>
-      <c r="B228" s="91">
+      <c r="B228" s="90">
         <v>43782</v>
       </c>
       <c r="C228" s="75"/>
@@ -17009,7 +17043,7 @@
     </row>
     <row r="229" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="56"/>
-      <c r="B229" s="97">
+      <c r="B229" s="96">
         <v>43784</v>
       </c>
       <c r="C229" s="75"/>
@@ -17024,7 +17058,7 @@
     </row>
     <row r="230" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="56"/>
-      <c r="B230" s="91">
+      <c r="B230" s="90">
         <v>43760</v>
       </c>
       <c r="C230" s="75"/>
@@ -17039,7 +17073,7 @@
     </row>
     <row r="231" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="56"/>
-      <c r="B231" s="91">
+      <c r="B231" s="90">
         <v>43781</v>
       </c>
       <c r="C231" s="75"/>
@@ -17054,7 +17088,7 @@
     </row>
     <row r="232" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="56"/>
-      <c r="B232" s="91">
+      <c r="B232" s="90">
         <v>43775</v>
       </c>
       <c r="C232" s="75"/>
@@ -17069,7 +17103,7 @@
     </row>
     <row r="233" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="56"/>
-      <c r="B233" s="97">
+      <c r="B233" s="96">
         <v>43788</v>
       </c>
       <c r="C233" s="75"/>
@@ -17084,7 +17118,7 @@
     </row>
     <row r="234" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="56"/>
-      <c r="B234" s="91">
+      <c r="B234" s="90">
         <v>43786</v>
       </c>
       <c r="C234" s="75"/>
@@ -17099,7 +17133,7 @@
     </row>
     <row r="235" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="56"/>
-      <c r="B235" s="97">
+      <c r="B235" s="96">
         <v>43775</v>
       </c>
       <c r="C235" s="75"/>
@@ -17114,7 +17148,7 @@
     </row>
     <row r="236" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="56"/>
-      <c r="B236" s="91">
+      <c r="B236" s="90">
         <v>43777</v>
       </c>
       <c r="C236" s="75"/>
@@ -17142,7 +17176,7 @@
     </row>
     <row r="238" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="56"/>
-      <c r="B238" s="91">
+      <c r="B238" s="90">
         <v>43777</v>
       </c>
       <c r="C238" s="75"/>
@@ -17157,7 +17191,7 @@
     </row>
     <row r="239" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="56"/>
-      <c r="B239" s="91">
+      <c r="B239" s="90">
         <v>43754</v>
       </c>
       <c r="C239" s="75"/>
@@ -17172,7 +17206,7 @@
     </row>
     <row r="240" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="56"/>
-      <c r="B240" s="91">
+      <c r="B240" s="90">
         <v>43774</v>
       </c>
       <c r="C240" s="75"/>
@@ -17202,7 +17236,7 @@
     </row>
     <row r="242" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="56"/>
-      <c r="B242" s="91">
+      <c r="B242" s="90">
         <v>43775</v>
       </c>
       <c r="C242" s="75"/>
@@ -17217,7 +17251,7 @@
     </row>
     <row r="243" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="56"/>
-      <c r="B243" s="97">
+      <c r="B243" s="96">
         <v>43775</v>
       </c>
       <c r="C243" s="75"/>
@@ -17232,7 +17266,7 @@
     </row>
     <row r="244" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="56"/>
-      <c r="B244" s="91">
+      <c r="B244" s="90">
         <v>43776</v>
       </c>
       <c r="C244" s="75"/>
@@ -17247,7 +17281,7 @@
     </row>
     <row r="245" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="56"/>
-      <c r="B245" s="97">
+      <c r="B245" s="96">
         <v>43767</v>
       </c>
       <c r="C245" s="75"/>
@@ -17274,7 +17308,7 @@
     </row>
     <row r="247" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="56"/>
-      <c r="B247" s="97">
+      <c r="B247" s="96">
         <v>43773</v>
       </c>
       <c r="C247" s="75"/>
@@ -17325,7 +17359,7 @@
     </row>
     <row r="251" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="56"/>
-      <c r="B251" s="91">
+      <c r="B251" s="90">
         <v>43772</v>
       </c>
       <c r="C251" s="75"/>
@@ -17340,7 +17374,7 @@
     </row>
     <row r="252" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="56"/>
-      <c r="B252" s="91">
+      <c r="B252" s="90">
         <v>43769</v>
       </c>
       <c r="C252" s="75"/>
@@ -17355,7 +17389,7 @@
     </row>
     <row r="253" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="56"/>
-      <c r="B253" s="91">
+      <c r="B253" s="90">
         <v>43769</v>
       </c>
       <c r="C253" s="75"/>
@@ -17372,7 +17406,7 @@
     </row>
     <row r="254" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="56"/>
-      <c r="B254" s="91">
+      <c r="B254" s="90">
         <v>43767</v>
       </c>
       <c r="C254" s="75"/>
@@ -17426,7 +17460,7 @@
     </row>
     <row r="259" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="56"/>
-      <c r="B259" s="91">
+      <c r="B259" s="90">
         <v>43763</v>
       </c>
       <c r="C259" s="75"/>
@@ -17443,7 +17477,7 @@
     </row>
     <row r="260" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="56"/>
-      <c r="B260" s="91">
+      <c r="B260" s="90">
         <v>43763</v>
       </c>
       <c r="C260" s="75"/>
@@ -17458,7 +17492,7 @@
     </row>
     <row r="261" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="56"/>
-      <c r="B261" s="91">
+      <c r="B261" s="90">
         <v>43763</v>
       </c>
       <c r="C261" s="75"/>
@@ -17473,7 +17507,7 @@
     </row>
     <row r="262" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="56"/>
-      <c r="B262" s="91">
+      <c r="B262" s="90">
         <v>43756</v>
       </c>
       <c r="C262" s="75"/>
@@ -17488,7 +17522,7 @@
     </row>
     <row r="263" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="56"/>
-      <c r="B263" s="91">
+      <c r="B263" s="90">
         <v>43728</v>
       </c>
       <c r="C263" s="75"/>
@@ -17503,7 +17537,7 @@
     </row>
     <row r="264" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="56"/>
-      <c r="B264" s="91">
+      <c r="B264" s="90">
         <v>43755</v>
       </c>
       <c r="C264" s="75"/>
@@ -17520,7 +17554,7 @@
     </row>
     <row r="265" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="56"/>
-      <c r="B265" s="91">
+      <c r="B265" s="90">
         <v>43755</v>
       </c>
       <c r="C265" s="75"/>
@@ -17537,7 +17571,7 @@
     </row>
     <row r="266" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="56"/>
-      <c r="B266" s="91">
+      <c r="B266" s="90">
         <v>43748</v>
       </c>
       <c r="C266" s="75"/>
@@ -17554,7 +17588,7 @@
     </row>
     <row r="267" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="56"/>
-      <c r="B267" s="97">
+      <c r="B267" s="96">
         <v>43752</v>
       </c>
       <c r="C267" s="75"/>
@@ -17569,7 +17603,7 @@
     </row>
     <row r="268" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="56"/>
-      <c r="B268" s="91">
+      <c r="B268" s="90">
         <v>43746</v>
       </c>
       <c r="C268" s="75"/>
@@ -17591,7 +17625,7 @@
     </row>
     <row r="269" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="56"/>
-      <c r="B269" s="91">
+      <c r="B269" s="90">
         <v>43745</v>
       </c>
       <c r="C269" s="75"/>
@@ -17606,7 +17640,7 @@
     </row>
     <row r="270" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="56"/>
-      <c r="B270" s="91">
+      <c r="B270" s="90">
         <v>43743</v>
       </c>
       <c r="C270" s="75"/>
@@ -17621,7 +17655,7 @@
     </row>
     <row r="271" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="56"/>
-      <c r="B271" s="91">
+      <c r="B271" s="90">
         <v>43743</v>
       </c>
       <c r="C271" s="75"/>
@@ -17636,7 +17670,7 @@
     </row>
     <row r="272" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="56"/>
-      <c r="B272" s="91">
+      <c r="B272" s="90">
         <v>43733</v>
       </c>
       <c r="C272" s="75"/>
@@ -17653,7 +17687,7 @@
     </row>
     <row r="273" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="56"/>
-      <c r="B273" s="91">
+      <c r="B273" s="90">
         <v>43739</v>
       </c>
       <c r="C273" s="75"/>
@@ -17702,7 +17736,7 @@
       <c r="C276" s="75"/>
       <c r="D276" s="56"/>
       <c r="E276" s="56"/>
-      <c r="F276" s="117" t="s">
+      <c r="F276" s="116" t="s">
         <v>2759</v>
       </c>
       <c r="G276" s="3" t="s">
@@ -17726,7 +17760,7 @@
     </row>
     <row r="278" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="56"/>
-      <c r="B278" s="86">
+      <c r="B278" s="85">
         <v>43752</v>
       </c>
       <c r="F278" s="47" t="s">
@@ -17744,7 +17778,7 @@
       <c r="C279" s="75"/>
       <c r="D279" s="56"/>
       <c r="E279" s="56"/>
-      <c r="F279" s="117" t="s">
+      <c r="F279" s="116" t="s">
         <v>2763</v>
       </c>
       <c r="G279" s="3" t="s">
@@ -17761,7 +17795,7 @@
       <c r="E280" s="56" t="s">
         <v>2490</v>
       </c>
-      <c r="F280" s="106" t="s">
+      <c r="F280" s="105" t="s">
         <v>2874</v>
       </c>
       <c r="G280" s="3" t="s">
@@ -17778,7 +17812,7 @@
       <c r="G281" s="55"/>
     </row>
     <row r="282" spans="1:7" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A282" s="94" t="s">
+      <c r="A282" s="93" t="s">
         <v>2465</v>
       </c>
       <c r="B282" s="74">
@@ -17787,7 +17821,7 @@
       <c r="C282" s="75"/>
       <c r="D282" s="56"/>
       <c r="E282" s="56"/>
-      <c r="F282" s="106" t="s">
+      <c r="F282" s="105" t="s">
         <v>2671</v>
       </c>
       <c r="G282" s="55" t="s">
@@ -17814,7 +17848,7 @@
     </row>
     <row r="285" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="56"/>
-      <c r="B285" s="91">
+      <c r="B285" s="90">
         <v>43735</v>
       </c>
       <c r="C285" s="75"/>
@@ -17831,7 +17865,7 @@
     </row>
     <row r="286" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="56"/>
-      <c r="B286" s="91">
+      <c r="B286" s="90">
         <v>43735</v>
       </c>
       <c r="C286" s="75"/>
@@ -17846,7 +17880,7 @@
     </row>
     <row r="287" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="56"/>
-      <c r="B287" s="91">
+      <c r="B287" s="90">
         <v>43733</v>
       </c>
       <c r="C287" s="75"/>
@@ -17860,10 +17894,10 @@
       </c>
     </row>
     <row r="288" spans="1:7" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A288" s="94" t="s">
+      <c r="A288" s="93" t="s">
         <v>2465</v>
       </c>
-      <c r="B288" s="91">
+      <c r="B288" s="90">
         <v>43728</v>
       </c>
       <c r="C288" s="75"/>
@@ -17878,7 +17912,7 @@
     </row>
     <row r="289" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="56"/>
-      <c r="B289" s="91">
+      <c r="B289" s="90">
         <v>43728</v>
       </c>
       <c r="C289" s="75"/>
@@ -17893,7 +17927,7 @@
     </row>
     <row r="290" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="56"/>
-      <c r="B290" s="91">
+      <c r="B290" s="90">
         <v>43719</v>
       </c>
       <c r="C290" s="75"/>
@@ -17908,12 +17942,12 @@
     </row>
     <row r="291" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="56"/>
-      <c r="B291" s="95">
+      <c r="B291" s="94">
         <v>43720</v>
       </c>
       <c r="C291" s="75"/>
       <c r="D291" s="56"/>
-      <c r="E291" s="96" t="s">
+      <c r="E291" s="95" t="s">
         <v>2434</v>
       </c>
       <c r="F291" s="56" t="s">
@@ -17925,7 +17959,7 @@
     </row>
     <row r="292" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="56"/>
-      <c r="B292" s="91">
+      <c r="B292" s="90">
         <v>43724</v>
       </c>
       <c r="C292" s="75"/>
@@ -17933,7 +17967,7 @@
       <c r="E292" s="56" t="s">
         <v>2425</v>
       </c>
-      <c r="F292" s="85" t="s">
+      <c r="F292" s="84" t="s">
         <v>2427</v>
       </c>
       <c r="G292" s="55" t="s">
@@ -17942,7 +17976,7 @@
     </row>
     <row r="293" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="56"/>
-      <c r="B293" s="91">
+      <c r="B293" s="90">
         <v>43721</v>
       </c>
       <c r="C293" s="75"/>
@@ -17959,7 +17993,7 @@
     </row>
     <row r="294" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="56"/>
-      <c r="B294" s="91">
+      <c r="B294" s="90">
         <v>43720</v>
       </c>
       <c r="C294" s="75"/>
@@ -17976,7 +18010,7 @@
     </row>
     <row r="295" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="56"/>
-      <c r="B295" s="91">
+      <c r="B295" s="90">
         <v>43719</v>
       </c>
       <c r="C295" s="75"/>
@@ -18023,7 +18057,7 @@
     </row>
     <row r="298" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="56"/>
-      <c r="B298" s="91">
+      <c r="B298" s="90">
         <v>43714</v>
       </c>
       <c r="C298" s="75"/>
@@ -18038,7 +18072,7 @@
     </row>
     <row r="299" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="56"/>
-      <c r="B299" s="91">
+      <c r="B299" s="90">
         <v>43712</v>
       </c>
       <c r="C299" s="75"/>
@@ -18060,13 +18094,13 @@
       </c>
       <c r="C300" s="75"/>
       <c r="D300" s="56"/>
-      <c r="E300" s="117" t="s">
+      <c r="E300" s="116" t="s">
         <v>1762</v>
       </c>
-      <c r="F300" s="117" t="s">
+      <c r="F300" s="116" t="s">
         <v>3029</v>
       </c>
-      <c r="G300" s="84" t="s">
+      <c r="G300" s="83" t="s">
         <v>3028</v>
       </c>
     </row>
@@ -18095,7 +18129,7 @@
       <c r="E302" s="56" t="s">
         <v>2833</v>
       </c>
-      <c r="F302" s="120" t="s">
+      <c r="F302" s="119" t="s">
         <v>2832</v>
       </c>
       <c r="G302" s="3" t="s">
@@ -18130,7 +18164,7 @@
     </row>
     <row r="305" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="56"/>
-      <c r="B305" s="91">
+      <c r="B305" s="90">
         <v>43701</v>
       </c>
       <c r="C305" s="75"/>
@@ -18147,7 +18181,7 @@
     </row>
     <row r="306" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="56"/>
-      <c r="B306" s="91">
+      <c r="B306" s="90">
         <v>43702</v>
       </c>
       <c r="C306" s="75"/>
@@ -18161,13 +18195,13 @@
       <c r="G306" s="55" t="s">
         <v>2365</v>
       </c>
-      <c r="H306" s="85" t="s">
+      <c r="H306" s="84" t="s">
         <v>2367</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="56"/>
-      <c r="B307" s="89">
+      <c r="B307" s="88">
         <v>43701</v>
       </c>
       <c r="C307" s="75"/>
@@ -18184,7 +18218,7 @@
     </row>
     <row r="308" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="56"/>
-      <c r="B308" s="91">
+      <c r="B308" s="90">
         <v>43694</v>
       </c>
       <c r="C308" s="75"/>
@@ -18201,7 +18235,7 @@
     </row>
     <row r="309" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="56"/>
-      <c r="B309" s="91">
+      <c r="B309" s="90">
         <v>43694</v>
       </c>
       <c r="C309" s="75"/>
@@ -18218,7 +18252,7 @@
     </row>
     <row r="310" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="56"/>
-      <c r="B310" s="91">
+      <c r="B310" s="90">
         <v>43700</v>
       </c>
       <c r="C310" s="75"/>
@@ -18235,7 +18269,7 @@
     </row>
     <row r="311" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="56"/>
-      <c r="B311" s="89">
+      <c r="B311" s="88">
         <v>43699</v>
       </c>
       <c r="C311" s="75"/>
@@ -18250,7 +18284,7 @@
     </row>
     <row r="312" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="56"/>
-      <c r="B312" s="91">
+      <c r="B312" s="90">
         <v>43701</v>
       </c>
       <c r="C312" s="75"/>
@@ -18267,7 +18301,7 @@
     </row>
     <row r="313" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="56"/>
-      <c r="B313" s="91">
+      <c r="B313" s="90">
         <v>43699</v>
       </c>
       <c r="C313" s="75"/>
@@ -18284,7 +18318,7 @@
     </row>
     <row r="314" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="56"/>
-      <c r="B314" s="89">
+      <c r="B314" s="88">
         <v>43697</v>
       </c>
       <c r="C314" s="75"/>
@@ -18299,7 +18333,7 @@
     </row>
     <row r="315" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="56"/>
-      <c r="B315" s="91">
+      <c r="B315" s="90">
         <v>43696</v>
       </c>
       <c r="C315" s="75"/>
@@ -18314,7 +18348,7 @@
     </row>
     <row r="316" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="56"/>
-      <c r="B316" s="91">
+      <c r="B316" s="90">
         <v>43693</v>
       </c>
       <c r="C316" s="75"/>
@@ -18331,7 +18365,7 @@
     </row>
     <row r="317" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="56"/>
-      <c r="B317" s="91">
+      <c r="B317" s="90">
         <v>43688</v>
       </c>
       <c r="C317" s="75"/>
@@ -18348,7 +18382,7 @@
     </row>
     <row r="318" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="56"/>
-      <c r="B318" s="91">
+      <c r="B318" s="90">
         <v>43691</v>
       </c>
       <c r="C318" s="75"/>
@@ -18367,7 +18401,7 @@
       <c r="A319" s="17" t="s">
         <v>1709</v>
       </c>
-      <c r="B319" s="90"/>
+      <c r="B319" s="89"/>
       <c r="C319" s="75"/>
       <c r="D319" s="56"/>
       <c r="E319" s="56"/>
@@ -18380,7 +18414,7 @@
     </row>
     <row r="320" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="56"/>
-      <c r="B320" s="91">
+      <c r="B320" s="90">
         <v>43694</v>
       </c>
       <c r="C320" s="75"/>
@@ -18395,7 +18429,7 @@
     </row>
     <row r="321" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="56"/>
-      <c r="B321" s="88">
+      <c r="B321" s="87">
         <v>43678</v>
       </c>
       <c r="C321" s="75"/>
@@ -18442,7 +18476,7 @@
     </row>
     <row r="324" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="56"/>
-      <c r="B324" s="91">
+      <c r="B324" s="90">
         <v>43684</v>
       </c>
       <c r="C324" s="75"/>
@@ -18459,7 +18493,7 @@
       <c r="A325" s="17" t="s">
         <v>1709</v>
       </c>
-      <c r="B325" s="91">
+      <c r="B325" s="90">
         <v>43679</v>
       </c>
       <c r="C325" s="75"/>
@@ -18474,7 +18508,7 @@
     </row>
     <row r="326" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="56"/>
-      <c r="B326" s="89">
+      <c r="B326" s="88">
         <v>43682</v>
       </c>
       <c r="C326" s="75"/>
@@ -18489,7 +18523,7 @@
     </row>
     <row r="327" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="56"/>
-      <c r="B327" s="89">
+      <c r="B327" s="88">
         <v>43682</v>
       </c>
       <c r="C327" s="75"/>
@@ -18505,10 +18539,10 @@
       </c>
     </row>
     <row r="328" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="85" t="s">
+      <c r="A328" s="84" t="s">
         <v>2379</v>
       </c>
-      <c r="B328" s="91">
+      <c r="B328" s="90">
         <v>43678</v>
       </c>
       <c r="C328" s="75"/>
@@ -18523,7 +18557,7 @@
     </row>
     <row r="329" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="56"/>
-      <c r="B329" s="91">
+      <c r="B329" s="90">
         <v>43678</v>
       </c>
       <c r="C329" s="75"/>
@@ -18540,7 +18574,7 @@
     </row>
     <row r="330" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="56"/>
-      <c r="B330" s="91">
+      <c r="B330" s="90">
         <v>43678</v>
       </c>
       <c r="C330" s="75"/>
@@ -18557,7 +18591,7 @@
     </row>
     <row r="331" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="56"/>
-      <c r="B331" s="91">
+      <c r="B331" s="90">
         <v>43678</v>
       </c>
       <c r="C331" s="75"/>
@@ -18574,7 +18608,7 @@
     </row>
     <row r="332" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="56"/>
-      <c r="B332" s="91">
+      <c r="B332" s="90">
         <v>43686</v>
       </c>
       <c r="C332" s="75"/>
@@ -19032,7 +19066,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="17"/>
-      <c r="B367" s="91">
+      <c r="B367" s="90">
         <v>43671</v>
       </c>
       <c r="C367" s="75"/>
@@ -19052,7 +19086,7 @@
       <c r="B368" s="35">
         <v>43672</v>
       </c>
-      <c r="C368" s="87"/>
+      <c r="C368" s="86"/>
       <c r="D368" s="47"/>
       <c r="E368" s="47" t="s">
         <v>2353</v>
@@ -19543,7 +19577,7 @@
     </row>
     <row r="407" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="27"/>
-      <c r="B407" s="110"/>
+      <c r="B407" s="109"/>
       <c r="C407" s="23"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -19709,7 +19743,7 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B425" s="83">
+      <c r="B425" s="82">
         <v>43611</v>
       </c>
       <c r="F425" t="s">
@@ -19798,7 +19832,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="17"/>
-      <c r="B431" s="93">
+      <c r="B431" s="92">
         <v>43571</v>
       </c>
       <c r="C431" s="20" t="s">
@@ -19815,7 +19849,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="17"/>
-      <c r="B432" s="82">
+      <c r="B432" s="81">
         <v>43557</v>
       </c>
       <c r="C432" s="60"/>
@@ -19832,7 +19866,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="17"/>
-      <c r="B433" s="83">
+      <c r="B433" s="82">
         <v>43572</v>
       </c>
       <c r="F433" t="s">
@@ -19844,7 +19878,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="17"/>
-      <c r="B434" s="83">
+      <c r="B434" s="82">
         <v>43561</v>
       </c>
       <c r="E434" t="s">
@@ -20925,7 +20959,7 @@
     </row>
     <row r="529" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="36"/>
-      <c r="B529" s="93">
+      <c r="B529" s="92">
         <v>43493</v>
       </c>
       <c r="C529" s="45"/>
@@ -20942,7 +20976,7 @@
     </row>
     <row r="530" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="36"/>
-      <c r="B530" s="104">
+      <c r="B530" s="103">
         <v>43489</v>
       </c>
       <c r="C530" s="45" t="s">
@@ -20959,7 +20993,7 @@
     </row>
     <row r="531" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="36"/>
-      <c r="B531" s="93">
+      <c r="B531" s="92">
         <v>43489</v>
       </c>
       <c r="C531" s="45"/>
@@ -20976,7 +21010,7 @@
     </row>
     <row r="532" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="36"/>
-      <c r="B532" s="104">
+      <c r="B532" s="103">
         <v>43481</v>
       </c>
       <c r="C532" s="45" t="s">
@@ -20984,7 +21018,7 @@
       </c>
       <c r="D532" s="36"/>
       <c r="E532" s="36"/>
-      <c r="F532" s="103" t="s">
+      <c r="F532" s="102" t="s">
         <v>1767</v>
       </c>
       <c r="G532" s="55" t="s">
@@ -20993,7 +21027,7 @@
     </row>
     <row r="533" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="36"/>
-      <c r="B533" s="82">
+      <c r="B533" s="81">
         <v>43473</v>
       </c>
       <c r="C533" s="60"/>
@@ -21010,7 +21044,7 @@
     </row>
     <row r="534" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="36"/>
-      <c r="B534" s="82">
+      <c r="B534" s="81">
         <v>43483</v>
       </c>
       <c r="E534" s="36" t="s">
@@ -21028,7 +21062,7 @@
     </row>
     <row r="536" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="36"/>
-      <c r="B536" s="105">
+      <c r="B536" s="104">
         <v>43472</v>
       </c>
       <c r="C536" s="60"/>
@@ -21041,13 +21075,13 @@
     </row>
     <row r="537" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="36"/>
-      <c r="B537" s="82">
+      <c r="B537" s="81">
         <v>43483</v>
       </c>
       <c r="C537" s="60"/>
       <c r="D537" s="60"/>
       <c r="E537" s="60"/>
-      <c r="F537" s="82" t="s">
+      <c r="F537" s="81" t="s">
         <v>1888</v>
       </c>
       <c r="G537" s="3" t="s">
@@ -21092,16 +21126,16 @@
       </c>
     </row>
     <row r="540" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="101" t="s">
+      <c r="A540" s="100" t="s">
         <v>3233</v>
       </c>
-      <c r="B540" s="82">
+      <c r="B540" s="81">
         <v>43475</v>
       </c>
       <c r="C540" s="60"/>
       <c r="D540" s="60"/>
       <c r="E540" s="60"/>
-      <c r="F540" s="82" t="s">
+      <c r="F540" s="81" t="s">
         <v>2752</v>
       </c>
       <c r="G540" s="3" t="s">
@@ -21110,13 +21144,13 @@
     </row>
     <row r="541" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="36"/>
-      <c r="B541" s="86">
+      <c r="B541" s="85">
         <v>43540</v>
       </c>
       <c r="C541" s="60"/>
       <c r="D541" s="60"/>
       <c r="E541" s="60"/>
-      <c r="F541" s="84" t="s">
+      <c r="F541" s="83" t="s">
         <v>2755</v>
       </c>
       <c r="G541" s="3" t="s">
@@ -21125,13 +21159,13 @@
     </row>
     <row r="542" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="36"/>
-      <c r="B542" s="86">
+      <c r="B542" s="85">
         <v>43491</v>
       </c>
       <c r="C542" s="60"/>
       <c r="D542" s="60"/>
       <c r="E542" s="60"/>
-      <c r="F542" s="112" t="s">
+      <c r="F542" s="111" t="s">
         <v>2825</v>
       </c>
       <c r="G542" s="3" t="s">
@@ -21140,7 +21174,7 @@
     </row>
     <row r="543" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="36"/>
-      <c r="B543" s="86">
+      <c r="B543" s="85">
         <v>43519</v>
       </c>
       <c r="C543" s="60"/>
@@ -21148,7 +21182,7 @@
       <c r="E543" s="60" t="s">
         <v>2490</v>
       </c>
-      <c r="F543" s="84" t="s">
+      <c r="F543" s="83" t="s">
         <v>2877</v>
       </c>
       <c r="G543" s="3" t="s">
@@ -21157,7 +21191,7 @@
     </row>
     <row r="544" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="36"/>
-      <c r="B544" s="86"/>
+      <c r="B544" s="85"/>
       <c r="C544" s="60"/>
       <c r="D544" s="60"/>
       <c r="E544" s="60"/>
@@ -21166,7 +21200,7 @@
     </row>
     <row r="545" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="36"/>
-      <c r="B545" s="86"/>
+      <c r="B545" s="85"/>
       <c r="C545" s="60"/>
       <c r="D545" s="60"/>
       <c r="E545" s="60"/>
@@ -21175,7 +21209,7 @@
     </row>
     <row r="546" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="36"/>
-      <c r="B546" s="86"/>
+      <c r="B546" s="85"/>
       <c r="C546" s="60"/>
       <c r="D546" s="60"/>
       <c r="E546" s="60"/>
@@ -21184,7 +21218,7 @@
     </row>
     <row r="547" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="36"/>
-      <c r="B547" s="86"/>
+      <c r="B547" s="85"/>
       <c r="C547" s="60"/>
       <c r="D547" s="60"/>
       <c r="E547" s="60"/>
@@ -21193,7 +21227,7 @@
     </row>
     <row r="548" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="36"/>
-      <c r="B548" s="86"/>
+      <c r="B548" s="85"/>
       <c r="C548" s="60"/>
       <c r="D548" s="60"/>
       <c r="E548" s="60"/>
@@ -21202,7 +21236,7 @@
     </row>
     <row r="549" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="36"/>
-      <c r="B549" s="86"/>
+      <c r="B549" s="85"/>
       <c r="C549" s="60"/>
       <c r="D549" s="60"/>
       <c r="E549" s="60"/>
@@ -22027,7 +22061,7 @@
     </row>
     <row r="606" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="36"/>
-      <c r="B606" s="105">
+      <c r="B606" s="104">
         <v>43502</v>
       </c>
       <c r="C606"/>
@@ -22035,7 +22069,7 @@
       <c r="E606" t="s">
         <v>2257</v>
       </c>
-      <c r="F606" s="102" t="s">
+      <c r="F606" s="101" t="s">
         <v>2260</v>
       </c>
       <c r="G606" s="3" t="s">
@@ -22868,7 +22902,7 @@
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B675" s="83">
+      <c r="B675" s="82">
         <v>43375</v>
       </c>
       <c r="F675" t="s">
@@ -22909,7 +22943,7 @@
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B678" s="83">
+      <c r="B678" s="82">
         <v>43382</v>
       </c>
       <c r="C678" s="11"/>
@@ -23028,18 +23062,18 @@
     </row>
     <row r="689" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
-      <c r="B689" s="82">
+      <c r="B689" s="81">
         <v>43282</v>
       </c>
-      <c r="C689" s="82"/>
-      <c r="D689" s="82" t="s">
+      <c r="C689" s="81"/>
+      <c r="D689" s="81" t="s">
         <v>1703</v>
       </c>
-      <c r="E689" s="82"/>
-      <c r="F689" s="82" t="s">
+      <c r="E689" s="81"/>
+      <c r="F689" s="81" t="s">
         <v>1704</v>
       </c>
-      <c r="G689" s="84" t="s">
+      <c r="G689" s="83" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -24172,7 +24206,7 @@
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B795" s="98">
+      <c r="B795" s="97">
         <v>43264</v>
       </c>
       <c r="C795" s="75"/>
@@ -24364,7 +24398,7 @@
       </c>
     </row>
     <row r="813" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B813" s="82">
+      <c r="B813" s="81">
         <v>43178</v>
       </c>
       <c r="C813" s="60" t="s">
@@ -24384,7 +24418,7 @@
       </c>
     </row>
     <row r="814" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B814" s="83">
+      <c r="B814" s="82">
         <v>43177</v>
       </c>
       <c r="C814" s="21" t="s">
@@ -24453,7 +24487,7 @@
       </c>
     </row>
     <row r="819" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B819" s="83">
+      <c r="B819" s="82">
         <v>43163</v>
       </c>
       <c r="E819" t="s">
@@ -24486,7 +24520,7 @@
       </c>
       <c r="C821" s="53"/>
       <c r="D821" s="46"/>
-      <c r="E821" s="86" t="s">
+      <c r="E821" s="85" t="s">
         <v>2490</v>
       </c>
       <c r="F821" t="s">
@@ -27104,7 +27138,7 @@
       </c>
     </row>
     <row r="1075" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1075" s="83">
+      <c r="B1075" s="82">
         <v>42815</v>
       </c>
       <c r="C1075" s="21" t="s">
@@ -27121,7 +27155,7 @@
       </c>
     </row>
     <row r="1076" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1076" s="83">
+      <c r="B1076" s="82">
         <v>42815</v>
       </c>
       <c r="C1076" s="21" t="s">
@@ -27135,7 +27169,7 @@
       </c>
     </row>
     <row r="1077" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1077" s="86">
+      <c r="B1077" s="85">
         <v>42824</v>
       </c>
       <c r="C1077" s="21" t="s">
@@ -29499,7 +29533,7 @@
       <c r="B1356" s="32">
         <v>42118</v>
       </c>
-      <c r="F1356" s="92" t="s">
+      <c r="F1356" s="91" t="s">
         <v>2460</v>
       </c>
       <c r="G1356" s="3" t="s">
@@ -30823,7 +30857,7 @@
       </c>
     </row>
     <row r="1500" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1500" s="83">
+      <c r="B1500" s="82">
         <v>41820</v>
       </c>
       <c r="E1500" s="56" t="s">
@@ -34398,569 +34432,587 @@
       <c r="C1908" s="23"/>
     </row>
     <row r="1909" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1909" s="56"/>
-      <c r="B1909" s="56"/>
-      <c r="C1909" s="75"/>
+      <c r="A1909" s="11"/>
+      <c r="B1909" s="32"/>
+      <c r="C1909" s="21"/>
+      <c r="D1909"/>
+      <c r="E1909"/>
+      <c r="F1909"/>
+      <c r="G1909" s="3"/>
     </row>
     <row r="1910" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1910" s="56"/>
-      <c r="B1910" s="60">
-        <v>40716</v>
-      </c>
-      <c r="C1910" s="60"/>
-      <c r="D1910" s="60"/>
-      <c r="E1910" s="79" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1910" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G1910" t="s">
-        <v>1941</v>
-      </c>
+      <c r="A1910" s="11"/>
+      <c r="B1910" s="32"/>
+      <c r="C1910" s="21"/>
+      <c r="D1910"/>
+      <c r="E1910"/>
+      <c r="F1910"/>
+      <c r="G1910" s="3"/>
     </row>
     <row r="1911" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1911" s="56"/>
-      <c r="B1911" s="60">
-        <v>40717</v>
-      </c>
-      <c r="C1911" s="60"/>
-      <c r="D1911" s="60"/>
-      <c r="E1911" s="79" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1911" t="s">
-        <v>1945</v>
-      </c>
-      <c r="G1911" t="s">
-        <v>1944</v>
-      </c>
+      <c r="A1911" s="11"/>
+      <c r="B1911" s="32"/>
+      <c r="C1911" s="21"/>
+      <c r="D1911"/>
+      <c r="E1911"/>
+      <c r="F1911"/>
+      <c r="G1911" s="3"/>
     </row>
     <row r="1912" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1912" s="56"/>
-      <c r="B1912" s="60">
-        <v>40714</v>
-      </c>
-      <c r="C1912" s="60"/>
-      <c r="D1912" s="60"/>
-      <c r="E1912" s="79" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1912" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1912" t="s">
-        <v>1912</v>
-      </c>
+      <c r="A1912" s="11"/>
+      <c r="B1912" s="32"/>
+      <c r="C1912" s="21"/>
+      <c r="D1912"/>
+      <c r="E1912"/>
+      <c r="F1912"/>
+      <c r="G1912" s="3"/>
     </row>
     <row r="1913" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1913" s="56"/>
-      <c r="B1913" s="60">
-        <v>40704</v>
-      </c>
-      <c r="C1913" s="60"/>
-      <c r="D1913" s="60"/>
-      <c r="E1913" s="79" t="s">
-        <v>2087</v>
-      </c>
+      <c r="A1913" s="11"/>
+      <c r="B1913" s="32">
+        <v>40695</v>
+      </c>
+      <c r="C1913" s="21"/>
+      <c r="D1913"/>
+      <c r="E1913"/>
       <c r="F1913" t="s">
-        <v>1938</v>
-      </c>
-      <c r="G1913" t="s">
-        <v>1939</v>
+        <v>555</v>
+      </c>
+      <c r="G1913" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="1914" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1914" s="56"/>
       <c r="B1914" s="60">
-        <v>40705</v>
-      </c>
-      <c r="C1914"/>
-      <c r="D1914"/>
-      <c r="E1914" s="60" t="s">
-        <v>2170</v>
+        <v>40716</v>
+      </c>
+      <c r="C1914" s="60"/>
+      <c r="D1914" s="60"/>
+      <c r="E1914" s="79" t="s">
+        <v>2087</v>
       </c>
       <c r="F1914" t="s">
-        <v>2171</v>
+        <v>1940</v>
       </c>
       <c r="G1914" t="s">
-        <v>2172</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1915" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1915" s="56"/>
       <c r="B1915" s="60">
-        <v>40712</v>
-      </c>
-      <c r="C1915"/>
-      <c r="D1915"/>
-      <c r="E1915" s="60" t="s">
-        <v>2170</v>
+        <v>40717</v>
+      </c>
+      <c r="C1915" s="60"/>
+      <c r="D1915" s="60"/>
+      <c r="E1915" s="79" t="s">
+        <v>2087</v>
       </c>
       <c r="F1915" t="s">
-        <v>2183</v>
+        <v>1945</v>
       </c>
       <c r="G1915" t="s">
-        <v>2184</v>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1916" s="56"/>
+      <c r="B1916" s="60">
+        <v>40714</v>
+      </c>
+      <c r="C1916" s="60"/>
+      <c r="D1916" s="60"/>
+      <c r="E1916" s="79" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="1917" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1917" s="56"/>
       <c r="B1917" s="60">
-        <v>40715</v>
-      </c>
-      <c r="C1917"/>
-      <c r="D1917"/>
-      <c r="E1917" s="60" t="s">
-        <v>2170</v>
+        <v>40704</v>
+      </c>
+      <c r="C1917" s="60"/>
+      <c r="D1917" s="60"/>
+      <c r="E1917" s="79" t="s">
+        <v>2087</v>
       </c>
       <c r="F1917" t="s">
-        <v>2178</v>
+        <v>1938</v>
       </c>
       <c r="G1917" t="s">
-        <v>2177</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1918" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1918" s="56"/>
-      <c r="B1918" s="60">
-        <v>40717</v>
-      </c>
-      <c r="C1918"/>
-      <c r="D1918"/>
-      <c r="E1918" s="60" t="s">
-        <v>2170</v>
-      </c>
-      <c r="F1918" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G1918" t="s">
-        <v>2186</v>
-      </c>
+      <c r="B1918" s="60"/>
+      <c r="C1918" s="60"/>
+      <c r="D1918" s="60"/>
+      <c r="E1918" s="79"/>
+      <c r="F1918"/>
+      <c r="G1918"/>
     </row>
     <row r="1919" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1919" s="56"/>
-      <c r="B1919" s="60">
-        <v>40722</v>
-      </c>
-      <c r="C1919"/>
-      <c r="D1919"/>
-      <c r="E1919" s="60" t="s">
+      <c r="B1919" s="60"/>
+      <c r="C1919" s="60"/>
+      <c r="D1919" s="60"/>
+      <c r="E1919" s="79"/>
+      <c r="F1919"/>
+      <c r="G1919"/>
+    </row>
+    <row r="1920" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1920" s="56"/>
+      <c r="B1920" s="60"/>
+      <c r="C1920" s="60"/>
+      <c r="D1920" s="60"/>
+      <c r="E1920" s="79"/>
+      <c r="F1920"/>
+      <c r="G1920"/>
+    </row>
+    <row r="1921" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1921" s="56"/>
+      <c r="B1921" s="60"/>
+      <c r="C1921" s="60"/>
+      <c r="D1921" s="60"/>
+      <c r="E1921" s="79"/>
+      <c r="F1921"/>
+      <c r="G1921"/>
+    </row>
+    <row r="1922" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1922" s="56"/>
+      <c r="B1922" s="60">
+        <v>40705</v>
+      </c>
+      <c r="C1922"/>
+      <c r="D1922"/>
+      <c r="E1922" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1919" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G1919" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1920" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B1920" s="60">
-        <v>40723</v>
-      </c>
-      <c r="C1920"/>
-      <c r="E1920" s="60" t="s">
+      <c r="F1922" s="47" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1923" s="56"/>
+      <c r="B1923" s="60">
+        <v>40712</v>
+      </c>
+      <c r="C1923"/>
+      <c r="D1923"/>
+      <c r="E1923" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1920" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G1920" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1921" s="32">
-        <v>40723</v>
-      </c>
-      <c r="F1921" s="80" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G1921" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1922" s="32">
-        <v>40698</v>
-      </c>
-      <c r="F1922" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G1922" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1923" s="32">
-        <v>40695</v>
-      </c>
-      <c r="F1923" t="s">
-        <v>555</v>
-      </c>
-      <c r="G1923" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1924" s="32"/>
+      <c r="F1923" s="47" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1924" s="56"/>
+      <c r="B1924" s="60">
+        <v>40715</v>
+      </c>
+      <c r="C1924"/>
+      <c r="D1924"/>
       <c r="E1924" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1924" t="s">
-        <v>2173</v>
-      </c>
-      <c r="G1924" s="3" t="s">
-        <v>2174</v>
-      </c>
-      <c r="I1924" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1925" s="32"/>
+      <c r="F1924" s="47" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1925" s="56"/>
+      <c r="B1925" s="60">
+        <v>40717</v>
+      </c>
+      <c r="C1925"/>
+      <c r="D1925"/>
       <c r="E1925" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1925" t="s">
-        <v>3236</v>
-      </c>
-      <c r="G1925" s="3" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1925" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1926" s="56"/>
       <c r="B1926" s="60">
-        <v>40694</v>
+        <v>40722</v>
       </c>
       <c r="C1926"/>
+      <c r="D1926"/>
       <c r="E1926" s="60" t="s">
         <v>2170</v>
       </c>
       <c r="F1926" s="47" t="s">
-        <v>2197</v>
+        <v>2175</v>
       </c>
       <c r="G1926" s="3" t="s">
-        <v>2198</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1927" s="11" t="s">
+        <v>554</v>
+      </c>
       <c r="B1927" s="60">
-        <v>40691</v>
-      </c>
-      <c r="C1927" s="60"/>
-      <c r="D1927" s="60"/>
+        <v>40723</v>
+      </c>
+      <c r="C1927"/>
       <c r="E1927" s="60" t="s">
-        <v>3240</v>
-      </c>
-      <c r="F1927" s="82" t="s">
-        <v>3238</v>
+        <v>2170</v>
+      </c>
+      <c r="F1927" s="47" t="s">
+        <v>2195</v>
       </c>
       <c r="G1927" s="3" t="s">
-        <v>1471</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1928" s="11" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B1928" s="60">
-        <v>40690</v>
-      </c>
-      <c r="C1928" s="60"/>
-      <c r="D1928" s="60"/>
-      <c r="E1928" s="60" t="s">
-        <v>3241</v>
-      </c>
-      <c r="F1928" s="47" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G1928" s="3" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G1929" s="3"/>
+      <c r="B1928" s="32">
+        <v>40698</v>
+      </c>
+      <c r="F1928" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="1930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1930" s="32"/>
-      <c r="F1930" s="9"/>
+      <c r="E1930" s="60" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F1930" s="47" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1930" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1930" t="s">
+        <v>3239</v>
+      </c>
     </row>
     <row r="1931" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1931" s="60">
-        <v>40654</v>
-      </c>
-      <c r="C1931" s="60"/>
-      <c r="D1931" s="60"/>
-      <c r="E1931" s="60"/>
-      <c r="F1931" s="60"/>
-      <c r="G1931" t="s">
-        <v>1441</v>
+      <c r="B1931" s="32"/>
+      <c r="E1931" s="60" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F1931" s="47" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G1931" s="3" t="s">
+        <v>3237</v>
       </c>
     </row>
     <row r="1932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1932" s="60">
-        <v>40649</v>
+        <v>40694</v>
       </c>
       <c r="C1932"/>
       <c r="E1932" s="60" t="s">
-        <v>2200</v>
-      </c>
-      <c r="F1932" t="s">
-        <v>2199</v>
+        <v>2170</v>
+      </c>
+      <c r="F1932" s="47" t="s">
+        <v>2197</v>
       </c>
       <c r="G1932" s="3" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1935" s="13"/>
-      <c r="B1935" s="13"/>
-      <c r="C1935" s="23"/>
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1933" s="60">
+        <v>40691</v>
+      </c>
+      <c r="C1933" s="60"/>
+      <c r="D1933" s="60"/>
+      <c r="E1933" s="60" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1933" s="81" t="s">
+        <v>3238</v>
+      </c>
+      <c r="G1933" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1934" s="11" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B1934" s="60">
+        <v>40690</v>
+      </c>
+      <c r="C1934" s="60"/>
+      <c r="D1934" s="60"/>
+      <c r="E1934" s="60" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F1934" s="47" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1934" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1935" s="3"/>
     </row>
     <row r="1936" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1936" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1936" s="32"/>
+      <c r="F1936" s="9"/>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1937" s="60">
-        <v>40544</v>
+        <v>40654</v>
       </c>
       <c r="C1937" s="60"/>
       <c r="D1937" s="60"/>
       <c r="E1937" s="60"/>
       <c r="F1937" s="60"/>
       <c r="G1937" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1938" s="60">
+        <v>40649</v>
+      </c>
+      <c r="C1938"/>
+      <c r="E1938" s="60" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F1938" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1938" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1941" s="13"/>
+      <c r="B1941" s="13"/>
+      <c r="C1941" s="23"/>
+    </row>
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1942" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1943" s="60">
+        <v>40544</v>
+      </c>
+      <c r="C1943" s="60"/>
+      <c r="D1943" s="60"/>
+      <c r="E1943" s="60"/>
+      <c r="F1943" s="60"/>
+      <c r="G1943" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1938" s="32">
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1944" s="32">
         <v>40560</v>
       </c>
     </row>
-    <row r="1939" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1939" s="60">
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1945" s="60">
         <v>40563</v>
       </c>
-      <c r="C1939"/>
-      <c r="E1939" s="60" t="s">
+      <c r="C1945"/>
+      <c r="E1945" s="60" t="s">
         <v>2202</v>
       </c>
-      <c r="F1939" t="s">
+      <c r="F1945" t="s">
         <v>2203</v>
       </c>
-      <c r="G1939" s="3" t="s">
+      <c r="G1945" s="3" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1944" s="11" t="s">
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1950" s="11" t="s">
         <v>1517</v>
       </c>
-      <c r="B1944" s="60">
+      <c r="B1950" s="60">
         <v>40542</v>
       </c>
-      <c r="C1944" s="60"/>
-      <c r="D1944" s="60"/>
-      <c r="E1944" s="60"/>
-      <c r="F1944" s="60"/>
-      <c r="G1944" t="s">
+      <c r="C1950" s="60"/>
+      <c r="D1950" s="60"/>
+      <c r="E1950" s="60"/>
+      <c r="F1950" s="60"/>
+      <c r="G1950" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1945" s="60"/>
-      <c r="C1945" s="60"/>
-      <c r="D1945" s="60"/>
-      <c r="E1945" s="60"/>
-      <c r="F1945" s="60"/>
-    </row>
-    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1946" s="60">
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1951" s="60"/>
+      <c r="C1951" s="60"/>
+      <c r="D1951" s="60"/>
+      <c r="E1951" s="60"/>
+      <c r="F1951" s="60"/>
+    </row>
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1952" s="60">
         <v>40458</v>
       </c>
-      <c r="C1946" s="60"/>
-      <c r="D1946" s="60"/>
-      <c r="E1946" s="60"/>
-      <c r="F1946" s="60"/>
-      <c r="G1946" t="s">
+      <c r="C1952" s="60"/>
+      <c r="D1952" s="60"/>
+      <c r="E1952" s="60"/>
+      <c r="F1952" s="60"/>
+      <c r="G1952" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1947" s="60">
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1953" s="60">
         <v>40522</v>
       </c>
-      <c r="C1947" s="60"/>
-      <c r="D1947" s="60"/>
-      <c r="E1947" s="79" t="s">
+      <c r="C1953" s="60"/>
+      <c r="D1953" s="60"/>
+      <c r="E1953" s="79" t="s">
         <v>2087</v>
       </c>
-      <c r="F1947" t="s">
+      <c r="F1953" t="s">
         <v>1968</v>
       </c>
-      <c r="G1947" t="s">
+      <c r="G1953" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1951" s="121"/>
-    </row>
-    <row r="1952" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H1952" s="122" t="s">
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1957" s="120"/>
+    </row>
+    <row r="1958" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1958" s="122" t="s">
         <v>2171</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H1953" s="122" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1954" s="11" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H1954" s="122" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H1955" s="122" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H1956" s="122" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H1957" s="122" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="H1958" s="122" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="1959" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="H1959" s="122" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1960" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H1960" s="122" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1961" s="121" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1962" s="121" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1963" s="121" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1964" s="121" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1965" s="121" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1966" s="11" t="s">
         <v>1519</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1964" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1965" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1966" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1967" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1968" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H1969" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1970" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1971" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1972" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1973" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1974" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1975" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1976" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1977" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1972" s="11" t="s">
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1978" s="11" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1977" s="11" t="s">
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1983" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="B1977" s="60">
+      <c r="B1983" s="60">
         <v>40150</v>
       </c>
-      <c r="C1977" s="60"/>
-      <c r="D1977" s="60"/>
-      <c r="E1977" s="60"/>
-      <c r="F1977" s="60"/>
-      <c r="G1977" s="3" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1978" s="60"/>
-      <c r="C1978" s="60"/>
-      <c r="D1978" s="60"/>
-      <c r="E1978" s="60"/>
-      <c r="F1978" s="60"/>
-    </row>
-    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1979" s="60"/>
-      <c r="C1979" s="60"/>
-      <c r="D1979" s="60"/>
-      <c r="E1979" s="60"/>
-      <c r="F1979" s="60"/>
-    </row>
-    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1980" s="60"/>
-      <c r="C1980" s="60"/>
-      <c r="D1980" s="60"/>
-      <c r="E1980" s="60"/>
-      <c r="F1980" s="60"/>
-    </row>
-    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1981" s="60"/>
-      <c r="C1981" s="60"/>
-      <c r="D1981" s="60"/>
-      <c r="E1981" s="60"/>
-      <c r="F1981" s="60"/>
-    </row>
-    <row r="1982" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1982" s="60"/>
-      <c r="C1982" s="60"/>
-      <c r="D1982" s="60"/>
-      <c r="E1982" s="60"/>
-      <c r="F1982" s="60"/>
-    </row>
-    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1983" s="60"/>
       <c r="C1983" s="60"/>
       <c r="D1983" s="60"/>
       <c r="E1983" s="60"/>
       <c r="F1983" s="60"/>
+      <c r="G1983" s="3" t="s">
+        <v>1506</v>
+      </c>
     </row>
     <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1984" s="60"/>
@@ -34970,420 +35022,441 @@
       <c r="F1984" s="60"/>
     </row>
     <row r="1985" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1985" s="11" t="s">
+      <c r="B1985" s="60"/>
+      <c r="C1985" s="60"/>
+      <c r="D1985" s="60"/>
+      <c r="E1985" s="60"/>
+      <c r="F1985" s="60"/>
+    </row>
+    <row r="1986" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1986" s="60"/>
+      <c r="C1986" s="60"/>
+      <c r="D1986" s="60"/>
+      <c r="E1986" s="60"/>
+      <c r="F1986" s="60"/>
+    </row>
+    <row r="1987" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1987" s="60"/>
+      <c r="C1987" s="60"/>
+      <c r="D1987" s="60"/>
+      <c r="E1987" s="60"/>
+      <c r="F1987" s="60"/>
+    </row>
+    <row r="1988" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1988" s="60"/>
+      <c r="C1988" s="60"/>
+      <c r="D1988" s="60"/>
+      <c r="E1988" s="60"/>
+      <c r="F1988" s="60"/>
+    </row>
+    <row r="1989" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1989" s="60"/>
+      <c r="C1989" s="60"/>
+      <c r="D1989" s="60"/>
+      <c r="E1989" s="60"/>
+      <c r="F1989" s="60"/>
+    </row>
+    <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1990" s="60"/>
+      <c r="C1990" s="60"/>
+      <c r="D1990" s="60"/>
+      <c r="E1990" s="60"/>
+      <c r="F1990" s="60"/>
+    </row>
+    <row r="1991" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1991" s="11" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1993" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1993" s="11" t="s">
+    <row r="1999" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1999" s="11" t="s">
         <v>1524</v>
       </c>
-      <c r="B1993" s="60">
+      <c r="B1999" s="60">
         <v>39947</v>
       </c>
-      <c r="C1993" s="60"/>
-      <c r="D1993" s="60"/>
-      <c r="E1993" s="60"/>
-      <c r="F1993" s="60"/>
-      <c r="G1993" t="s">
+      <c r="C1999" s="60"/>
+      <c r="D1999" s="60"/>
+      <c r="E1999" s="60"/>
+      <c r="F1999" s="60"/>
+      <c r="G1999" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="2000" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2000" s="11" t="s">
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2006" s="11" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="2004" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2004" s="100" t="s">
+    <row r="2010" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2010" s="99" t="s">
         <v>2641</v>
       </c>
-      <c r="G2004" t="s">
+      <c r="G2010" t="s">
         <v>2640</v>
       </c>
-      <c r="H2004" t="s">
+      <c r="H2010" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="2006" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2006" t="s">
+    <row r="2012" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2012" t="s">
         <v>2526</v>
       </c>
-      <c r="G2006" t="s">
+      <c r="G2012" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="2015" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2015">
+    <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2021">
         <v>2008</v>
       </c>
-      <c r="B2015" s="60">
+      <c r="B2021" s="60">
         <v>39722</v>
       </c>
-      <c r="F2015" t="s">
+      <c r="F2021" t="s">
         <v>1124</v>
       </c>
-      <c r="G2015" t="s">
+      <c r="G2021" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="2016" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2016">
+    <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2022">
         <v>2002</v>
       </c>
-      <c r="F2016" t="s">
+      <c r="F2022" t="s">
         <v>558</v>
       </c>
-      <c r="G2016" s="3" t="s">
+      <c r="G2022" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="H2016" t="s">
+      <c r="H2022" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2017"/>
-    </row>
-    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2018">
+    <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2023"/>
+    </row>
+    <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2024">
         <v>1982</v>
       </c>
-      <c r="F2018" t="s">
+      <c r="F2024" t="s">
         <v>560</v>
       </c>
-      <c r="G2018" t="s">
+      <c r="G2024" t="s">
         <v>561</v>
       </c>
-      <c r="H2018" t="s">
+      <c r="H2024" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2019" s="60">
-        <v>38930</v>
-      </c>
-      <c r="C2019" s="60"/>
-      <c r="D2019" s="60"/>
-      <c r="E2019" s="60"/>
-      <c r="F2019" s="60"/>
-      <c r="G2019" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2020" t="s">
-        <v>2505</v>
-      </c>
-      <c r="C2020" s="60"/>
-      <c r="D2020" s="60"/>
-      <c r="E2020" s="60"/>
-      <c r="F2020" s="60" t="s">
-        <v>2506</v>
-      </c>
-      <c r="G2020" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2021" s="60">
-        <v>36892</v>
-      </c>
-      <c r="C2021" s="60"/>
-      <c r="D2021" s="60"/>
-      <c r="E2021" s="60"/>
-      <c r="F2021" s="60"/>
-      <c r="G2021" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2022" s="60">
-        <v>36398</v>
-      </c>
-      <c r="C2022" s="60"/>
-      <c r="D2022" s="60"/>
-      <c r="E2022" s="60"/>
-      <c r="F2022" s="60"/>
-      <c r="G2022" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2023" s="60">
-        <v>35704</v>
-      </c>
-      <c r="C2023" s="60"/>
-      <c r="D2023" s="60"/>
-      <c r="E2023" s="60"/>
-      <c r="F2023" s="60"/>
-      <c r="G2023" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2024" s="60">
-        <v>35440</v>
-      </c>
-      <c r="C2024" s="60"/>
-      <c r="D2024" s="60"/>
-      <c r="E2024" s="60"/>
-      <c r="F2024" s="60"/>
-      <c r="G2024" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2025" s="60">
-        <v>35431</v>
+        <v>38930</v>
       </c>
       <c r="C2025" s="60"/>
       <c r="D2025" s="60"/>
       <c r="E2025" s="60"/>
       <c r="F2025" s="60"/>
       <c r="G2025" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2026" s="60">
-        <v>35431</v>
+      <c r="B2026" t="s">
+        <v>2505</v>
       </c>
       <c r="C2026" s="60"/>
       <c r="D2026" s="60"/>
-      <c r="E2026" t="s">
-        <v>2840</v>
-      </c>
+      <c r="E2026" s="60"/>
       <c r="F2026" s="60" t="s">
-        <v>2845</v>
-      </c>
-      <c r="G2026" s="3" t="s">
-        <v>2846</v>
+        <v>2506</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>2507</v>
       </c>
     </row>
     <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2027" s="60">
-        <v>35065</v>
+        <v>36892</v>
       </c>
       <c r="C2027" s="60"/>
       <c r="D2027" s="60"/>
       <c r="E2027" s="60"/>
       <c r="F2027" s="60"/>
       <c r="G2027" t="s">
-        <v>1473</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2028" s="60">
-        <v>34617</v>
+        <v>36398</v>
       </c>
       <c r="C2028" s="60"/>
       <c r="D2028" s="60"/>
       <c r="E2028" s="60"/>
       <c r="F2028" s="60"/>
       <c r="G2028" t="s">
-        <v>1470</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2029" s="60">
-        <v>34587</v>
+        <v>35704</v>
       </c>
       <c r="C2029" s="60"/>
       <c r="D2029" s="60"/>
-      <c r="E2029" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F2029" t="s">
-        <v>2843</v>
-      </c>
-      <c r="G2029" s="3" t="s">
-        <v>2844</v>
+      <c r="E2029" s="60"/>
+      <c r="F2029" s="60"/>
+      <c r="G2029" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2030" s="60">
-        <v>34409</v>
+        <v>35440</v>
       </c>
       <c r="C2030" s="60"/>
       <c r="D2030" s="60"/>
       <c r="E2030" s="60"/>
       <c r="F2030" s="60"/>
       <c r="G2030" t="s">
-        <v>1469</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2031" s="60">
-        <v>34335</v>
+        <v>35431</v>
       </c>
       <c r="C2031" s="60"/>
       <c r="D2031" s="60"/>
       <c r="E2031" s="60"/>
       <c r="F2031" s="60"/>
       <c r="G2031" t="s">
-        <v>1505</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2032" s="60">
-        <v>34283</v>
+        <v>35431</v>
       </c>
       <c r="C2032" s="60"/>
       <c r="D2032" s="60"/>
-      <c r="E2032" s="60"/>
-      <c r="F2032" s="60"/>
-      <c r="G2032" t="s">
-        <v>1478</v>
+      <c r="E2032" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F2032" s="60" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G2032" s="3" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="2033" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2033" s="60">
-        <v>34037</v>
+        <v>35065</v>
       </c>
       <c r="C2033" s="60"/>
       <c r="D2033" s="60"/>
       <c r="E2033" s="60"/>
       <c r="F2033" s="60"/>
       <c r="G2033" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2034" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2034" s="60">
-        <v>33930</v>
+        <v>34617</v>
       </c>
       <c r="C2034" s="60"/>
       <c r="D2034" s="60"/>
-      <c r="E2034" t="s">
-        <v>2840</v>
-      </c>
+      <c r="E2034" s="60"/>
       <c r="F2034" s="60"/>
       <c r="G2034" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2035" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2035" s="60">
-        <v>33848</v>
+        <v>34587</v>
       </c>
       <c r="C2035" s="60"/>
       <c r="D2035" s="60"/>
       <c r="E2035" t="s">
         <v>2840</v>
       </c>
-      <c r="F2035" s="60" t="s">
-        <v>2842</v>
+      <c r="F2035" t="s">
+        <v>2843</v>
       </c>
       <c r="G2035" s="3" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="2036" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2036" s="60">
-        <v>33161</v>
+        <v>34409</v>
       </c>
       <c r="C2036" s="60"/>
       <c r="D2036" s="60"/>
       <c r="E2036" s="60"/>
       <c r="F2036" s="60"/>
       <c r="G2036" t="s">
-        <v>1504</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2037" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2037" s="11">
-        <v>1988</v>
-      </c>
-      <c r="E2037" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F2037" t="s">
-        <v>2839</v>
-      </c>
-      <c r="G2037" s="3" t="s">
-        <v>2838</v>
+      <c r="B2037" s="60">
+        <v>34335</v>
+      </c>
+      <c r="C2037" s="60"/>
+      <c r="D2037" s="60"/>
+      <c r="E2037" s="60"/>
+      <c r="F2037" s="60"/>
+      <c r="G2037" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="2038" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2038" s="60">
-        <v>23177</v>
+        <v>34283</v>
       </c>
       <c r="C2038" s="60"/>
       <c r="D2038" s="60"/>
       <c r="E2038" s="60"/>
       <c r="F2038" s="60"/>
       <c r="G2038" t="s">
-        <v>1503</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2039" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2039" s="60">
-        <v>16711</v>
+        <v>34037</v>
       </c>
       <c r="C2039" s="60"/>
       <c r="D2039" s="60"/>
       <c r="E2039" s="60"/>
       <c r="F2039" s="60"/>
       <c r="G2039" t="s">
-        <v>1492</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2040" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2040" s="60">
-        <v>10228</v>
+        <v>33930</v>
       </c>
       <c r="C2040" s="60"/>
       <c r="D2040" s="60"/>
-      <c r="E2040" s="60"/>
+      <c r="E2040" t="s">
+        <v>2840</v>
+      </c>
       <c r="F2040" s="60"/>
       <c r="G2040" t="s">
-        <v>1491</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="2041" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2041" s="60">
-        <v>4585</v>
+        <v>33848</v>
       </c>
       <c r="C2041" s="60"/>
       <c r="D2041" s="60"/>
-      <c r="E2041" s="60"/>
-      <c r="F2041" s="60"/>
-      <c r="G2041" t="s">
+      <c r="E2041" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F2041" s="60" t="s">
+        <v>2842</v>
+      </c>
+      <c r="G2041" s="3" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="2042" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2042" s="60">
+        <v>33161</v>
+      </c>
+      <c r="C2042" s="60"/>
+      <c r="D2042" s="60"/>
+      <c r="E2042" s="60"/>
+      <c r="F2042" s="60"/>
+      <c r="G2042" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2043" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2043" s="11">
+        <v>1988</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F2043" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G2043" s="3" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="2044" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2044" s="60">
+        <v>23177</v>
+      </c>
+      <c r="C2044" s="60"/>
+      <c r="D2044" s="60"/>
+      <c r="E2044" s="60"/>
+      <c r="F2044" s="60"/>
+      <c r="G2044" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2045" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2045" s="60">
+        <v>16711</v>
+      </c>
+      <c r="C2045" s="60"/>
+      <c r="D2045" s="60"/>
+      <c r="E2045" s="60"/>
+      <c r="F2045" s="60"/>
+      <c r="G2045" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2046" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2046" s="60">
+        <v>10228</v>
+      </c>
+      <c r="C2046" s="60"/>
+      <c r="D2046" s="60"/>
+      <c r="E2046" s="60"/>
+      <c r="F2046" s="60"/>
+      <c r="G2046" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="2047" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2047" s="60">
+        <v>4585</v>
+      </c>
+      <c r="C2047" s="60"/>
+      <c r="D2047" s="60"/>
+      <c r="E2047" s="60"/>
+      <c r="F2047" s="60"/>
+      <c r="G2047" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="2042" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2042" s="60"/>
-    </row>
-    <row r="2043" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2043" s="60"/>
-    </row>
-    <row r="2044" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2044" s="60"/>
-    </row>
-    <row r="2045" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2045" s="60"/>
-    </row>
-    <row r="2046" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2046" s="60"/>
-    </row>
-    <row r="2047" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2047" s="60"/>
     </row>
     <row r="2048" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2048" s="60"/>
-      <c r="G2048" s="3"/>
     </row>
     <row r="2049" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2049" s="60"/>
-      <c r="G2049" s="3"/>
     </row>
     <row r="2050" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2050" s="60"/>
     </row>
     <row r="2051" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2051" s="60"/>
-      <c r="G2051" s="3"/>
     </row>
     <row r="2052" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2052" s="60"/>
@@ -35393,15 +35466,18 @@
     </row>
     <row r="2054" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2054" s="60"/>
+      <c r="G2054" s="3"/>
     </row>
     <row r="2055" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2055" s="60"/>
+      <c r="G2055" s="3"/>
     </row>
     <row r="2056" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2056" s="60"/>
     </row>
     <row r="2057" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2057" s="60"/>
+      <c r="G2057" s="3"/>
     </row>
     <row r="2058" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2058" s="60"/>
@@ -35424,6 +35500,15 @@
     <row r="2064" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2064" s="60"/>
     </row>
+    <row r="2065" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2065" s="60"/>
+    </row>
+    <row r="2066" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2066" s="60"/>
+    </row>
+    <row r="2067" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2067" s="60"/>
+    </row>
     <row r="2068" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2068" s="60"/>
     </row>
@@ -35433,15 +35518,6 @@
     <row r="2070" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2070" s="60"/>
     </row>
-    <row r="2071" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2071" s="60"/>
-    </row>
-    <row r="2072" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2072" s="60"/>
-    </row>
-    <row r="2073" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2073" s="60"/>
-    </row>
     <row r="2074" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2074" s="60"/>
     </row>
@@ -35483,7 +35559,6 @@
     </row>
     <row r="2087" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2087" s="60"/>
-      <c r="G2087" s="3"/>
     </row>
     <row r="2088" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2088" s="60"/>
@@ -35502,6 +35577,7 @@
     </row>
     <row r="2093" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2093" s="60"/>
+      <c r="G2093" s="3"/>
     </row>
     <row r="2094" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2094" s="60"/>
@@ -35572,806 +35648,836 @@
     <row r="2116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2116" s="60"/>
     </row>
+    <row r="2117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2117" s="60"/>
+    </row>
+    <row r="2118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2118" s="60"/>
+    </row>
+    <row r="2119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2119" s="60"/>
+    </row>
+    <row r="2120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2120" s="60"/>
+    </row>
+    <row r="2121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2121" s="60"/>
+    </row>
+    <row r="2122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2122" s="60"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1310">
-    <cfRule type="duplicateValues" dxfId="302" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1098">
-    <cfRule type="duplicateValues" dxfId="301" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F529">
-    <cfRule type="duplicateValues" dxfId="300" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G679:G680">
-    <cfRule type="duplicateValues" dxfId="299" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B679:F680">
-    <cfRule type="duplicateValues" dxfId="298" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G681">
-    <cfRule type="duplicateValues" dxfId="297" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G688">
-    <cfRule type="duplicateValues" dxfId="296" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B688:F688">
-    <cfRule type="duplicateValues" dxfId="295" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G689">
-    <cfRule type="duplicateValues" dxfId="294" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B689:F689">
-    <cfRule type="duplicateValues" dxfId="293" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G773">
-    <cfRule type="duplicateValues" dxfId="292" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B773:F773">
-    <cfRule type="duplicateValues" dxfId="291" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G866">
+    <cfRule type="duplicateValues" dxfId="294" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B866:F866">
+    <cfRule type="duplicateValues" dxfId="293" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G889">
+    <cfRule type="duplicateValues" dxfId="292" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B889:F889">
+    <cfRule type="duplicateValues" dxfId="291" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G904:G905">
     <cfRule type="duplicateValues" dxfId="290" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B866:F866">
+  <conditionalFormatting sqref="B904:F905">
     <cfRule type="duplicateValues" dxfId="289" priority="243"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G889">
+  <conditionalFormatting sqref="G976:G978">
     <cfRule type="duplicateValues" dxfId="288" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B889:F889">
+  <conditionalFormatting sqref="B976:F978">
     <cfRule type="duplicateValues" dxfId="287" priority="241"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G904:G905">
-    <cfRule type="duplicateValues" dxfId="286" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B904:F905">
-    <cfRule type="duplicateValues" dxfId="285" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G976:G978">
-    <cfRule type="duplicateValues" dxfId="284" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B976:F978">
-    <cfRule type="duplicateValues" dxfId="283" priority="237"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G995:G996 G992">
-    <cfRule type="duplicateValues" dxfId="282" priority="3814"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="3818"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B995:F996 B992:F992">
-    <cfRule type="duplicateValues" dxfId="281" priority="3816"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="3820"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1024:G1026 G1028:G1035">
+    <cfRule type="duplicateValues" dxfId="284" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1024:F1024 B1035:F1035 B1025:E1034">
+    <cfRule type="duplicateValues" dxfId="283" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1041">
+    <cfRule type="duplicateValues" dxfId="282" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1041:F1041">
+    <cfRule type="duplicateValues" dxfId="281" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1077:G1078">
     <cfRule type="duplicateValues" dxfId="280" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1024:F1024 B1035:F1035 B1025:E1034">
+  <conditionalFormatting sqref="B1077:B1078 D1078:F1078 D1077:E1077">
     <cfRule type="duplicateValues" dxfId="279" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1041">
+  <conditionalFormatting sqref="G1084">
     <cfRule type="duplicateValues" dxfId="278" priority="228"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1041:F1041">
+  <conditionalFormatting sqref="B1084:F1084">
     <cfRule type="duplicateValues" dxfId="277" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1077:G1078">
+  <conditionalFormatting sqref="G1114">
     <cfRule type="duplicateValues" dxfId="276" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1077:B1078 D1078:F1078 D1077:E1077">
+  <conditionalFormatting sqref="B1114:F1114">
     <cfRule type="duplicateValues" dxfId="275" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1084">
+  <conditionalFormatting sqref="G1148">
     <cfRule type="duplicateValues" dxfId="274" priority="224"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1084:F1084">
+  <conditionalFormatting sqref="B1148:F1148">
     <cfRule type="duplicateValues" dxfId="273" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1114">
+  <conditionalFormatting sqref="G1170:G1171 G1175:G1180">
     <cfRule type="duplicateValues" dxfId="272" priority="222"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1114:F1114">
+  <conditionalFormatting sqref="B1170:F1171 B1175:F1180">
     <cfRule type="duplicateValues" dxfId="271" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1148">
+  <conditionalFormatting sqref="G1185">
     <cfRule type="duplicateValues" dxfId="270" priority="220"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1148:F1148">
+  <conditionalFormatting sqref="B1185:F1185">
     <cfRule type="duplicateValues" dxfId="269" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1170:G1171 G1175:G1180">
+  <conditionalFormatting sqref="G1216">
     <cfRule type="duplicateValues" dxfId="268" priority="218"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1170:F1171 B1175:F1180">
+  <conditionalFormatting sqref="B1216:F1216">
     <cfRule type="duplicateValues" dxfId="267" priority="219"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1185">
-    <cfRule type="duplicateValues" dxfId="266" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1185:F1185">
-    <cfRule type="duplicateValues" dxfId="265" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1216">
-    <cfRule type="duplicateValues" dxfId="264" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1216:F1216">
-    <cfRule type="duplicateValues" dxfId="263" priority="215"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1292">
-    <cfRule type="duplicateValues" dxfId="262" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1292:F1292">
-    <cfRule type="duplicateValues" dxfId="261" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1323">
-    <cfRule type="duplicateValues" dxfId="260" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1323:F1323">
-    <cfRule type="duplicateValues" dxfId="259" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1358">
+    <cfRule type="duplicateValues" dxfId="262" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1358:F1358">
+    <cfRule type="duplicateValues" dxfId="261" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1408">
+    <cfRule type="duplicateValues" dxfId="260" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1408:F1408">
+    <cfRule type="duplicateValues" dxfId="259" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1424:G1425">
     <cfRule type="duplicateValues" dxfId="258" priority="202"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1358:F1358">
+  <conditionalFormatting sqref="B1424:F1425">
     <cfRule type="duplicateValues" dxfId="257" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1408">
+  <conditionalFormatting sqref="G1462:G1466 G1460">
     <cfRule type="duplicateValues" dxfId="256" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1408:F1408">
+  <conditionalFormatting sqref="B1460:F1460 B1462:F1466">
     <cfRule type="duplicateValues" dxfId="255" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1424:G1425">
+  <conditionalFormatting sqref="G1513:G1514">
     <cfRule type="duplicateValues" dxfId="254" priority="198"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1424:F1425">
+  <conditionalFormatting sqref="B1513:F1514">
     <cfRule type="duplicateValues" dxfId="253" priority="199"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1462:G1466 G1460">
+  <conditionalFormatting sqref="G1521:G1522">
     <cfRule type="duplicateValues" dxfId="252" priority="196"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1460:F1460 B1462:F1466">
+  <conditionalFormatting sqref="B1521:F1522">
     <cfRule type="duplicateValues" dxfId="251" priority="197"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1513:G1514">
+  <conditionalFormatting sqref="G1559">
     <cfRule type="duplicateValues" dxfId="250" priority="194"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1513:F1514">
+  <conditionalFormatting sqref="B1559:E1559">
     <cfRule type="duplicateValues" dxfId="249" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1521:G1522">
+  <conditionalFormatting sqref="G1570">
     <cfRule type="duplicateValues" dxfId="248" priority="192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1521:F1522">
+  <conditionalFormatting sqref="B1570:F1570">
     <cfRule type="duplicateValues" dxfId="247" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1559">
+  <conditionalFormatting sqref="G1637">
     <cfRule type="duplicateValues" dxfId="246" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1559:E1559">
+  <conditionalFormatting sqref="B1637:F1637">
     <cfRule type="duplicateValues" dxfId="245" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1570">
+  <conditionalFormatting sqref="G1783">
     <cfRule type="duplicateValues" dxfId="244" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1570:F1570">
+  <conditionalFormatting sqref="B1783:F1783">
     <cfRule type="duplicateValues" dxfId="243" priority="189"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1637">
-    <cfRule type="duplicateValues" dxfId="242" priority="186"/>
+  <conditionalFormatting sqref="G1933:G1934 G1937">
+    <cfRule type="duplicateValues" dxfId="242" priority="4157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1637:F1637">
-    <cfRule type="duplicateValues" dxfId="241" priority="187"/>
+  <conditionalFormatting sqref="B1933:F1933 B1937:F1937 B1934:E1934">
+    <cfRule type="duplicateValues" dxfId="241" priority="4159"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1783">
-    <cfRule type="duplicateValues" dxfId="240" priority="184"/>
+  <conditionalFormatting sqref="G1943">
+    <cfRule type="duplicateValues" dxfId="240" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1783:F1783">
-    <cfRule type="duplicateValues" dxfId="239" priority="185"/>
+  <conditionalFormatting sqref="B1943:F1943">
+    <cfRule type="duplicateValues" dxfId="239" priority="181"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1927:G1928 G1931">
-    <cfRule type="duplicateValues" dxfId="238" priority="4153"/>
+  <conditionalFormatting sqref="G1950:G1952">
+    <cfRule type="duplicateValues" dxfId="238" priority="178"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1927:F1927 B1931:F1931 B1928:E1928">
-    <cfRule type="duplicateValues" dxfId="237" priority="4155"/>
+  <conditionalFormatting sqref="B1950:F1952">
+    <cfRule type="duplicateValues" dxfId="237" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1937">
+  <conditionalFormatting sqref="G1983:G1990">
     <cfRule type="duplicateValues" dxfId="236" priority="176"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1937:F1937">
+  <conditionalFormatting sqref="B1983:F1990">
     <cfRule type="duplicateValues" dxfId="235" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1944:G1946">
+  <conditionalFormatting sqref="G1999">
     <cfRule type="duplicateValues" dxfId="234" priority="174"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1944:F1946">
+  <conditionalFormatting sqref="B1999:F1999">
     <cfRule type="duplicateValues" dxfId="233" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1977:G1984">
+  <conditionalFormatting sqref="G2044:G2047 G2025:G2031 G2042 G2036:G2040 G2033:G2034">
     <cfRule type="duplicateValues" dxfId="232" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1977:F1984">
+  <conditionalFormatting sqref="B2025:F2025 B2044:F2047 B2027:F2031 C2026:F2026 B2042:F2042 B2040:D2041 F2040:F2041 B2036:F2039 B2035:D2035 B2033:F2034 B2032:D2032 F2032">
     <cfRule type="duplicateValues" dxfId="231" priority="173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1993">
-    <cfRule type="duplicateValues" dxfId="230" priority="170"/>
+  <conditionalFormatting sqref="B2021">
+    <cfRule type="duplicateValues" dxfId="230" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1993:F1993">
-    <cfRule type="duplicateValues" dxfId="229" priority="171"/>
+  <conditionalFormatting sqref="G767">
+    <cfRule type="duplicateValues" dxfId="229" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2038:G2041 G2019:G2025 G2036 G2030:G2034 G2027:G2028">
-    <cfRule type="duplicateValues" dxfId="228" priority="168"/>
+  <conditionalFormatting sqref="F767">
+    <cfRule type="duplicateValues" dxfId="228" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2019:F2019 B2038:F2041 B2021:F2025 C2020:F2020 B2036:F2036 B2034:D2035 F2034:F2035 B2030:F2033 B2029:D2029 B2027:F2028 B2026:D2026 F2026">
-    <cfRule type="duplicateValues" dxfId="227" priority="169"/>
+  <conditionalFormatting sqref="F979">
+    <cfRule type="duplicateValues" dxfId="227" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2015">
+  <conditionalFormatting sqref="G979">
     <cfRule type="duplicateValues" dxfId="226" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G767">
-    <cfRule type="duplicateValues" dxfId="225" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F767">
-    <cfRule type="duplicateValues" dxfId="224" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F979">
-    <cfRule type="duplicateValues" dxfId="223" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G979">
-    <cfRule type="duplicateValues" dxfId="222" priority="163"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1019">
-    <cfRule type="duplicateValues" dxfId="221" priority="4803"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="4807"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1019:F1019">
-    <cfRule type="duplicateValues" dxfId="220" priority="4804"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="4808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G844:G848 G826:G827 G800">
-    <cfRule type="duplicateValues" dxfId="219" priority="5066"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="5070"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B844:F848 B826:F827 B800:F800">
-    <cfRule type="duplicateValues" dxfId="218" priority="5069"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="5073"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G725:G726">
-    <cfRule type="duplicateValues" dxfId="217" priority="5195"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="5199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B725:F726">
-    <cfRule type="duplicateValues" dxfId="216" priority="5453"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="5457"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G346:G349">
-    <cfRule type="duplicateValues" dxfId="215" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G758:G759">
-    <cfRule type="duplicateValues" dxfId="214" priority="5580"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="5584"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B758:F759">
-    <cfRule type="duplicateValues" dxfId="213" priority="5582"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="5586"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E350:E363 E365 E368:E369 E378:E381 E371:E376 F370">
-    <cfRule type="duplicateValues" dxfId="212" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G515:G517 G522:G523 G426:G427 G431">
-    <cfRule type="duplicateValues" dxfId="211" priority="5721"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="5725"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G382">
-    <cfRule type="duplicateValues" dxfId="210" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F382">
-    <cfRule type="duplicateValues" dxfId="209" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F808:F812">
-    <cfRule type="containsText" dxfId="208" priority="156" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="212" priority="160" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F808)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F325">
-    <cfRule type="duplicateValues" dxfId="207" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F319">
-    <cfRule type="duplicateValues" dxfId="206" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G319">
-    <cfRule type="duplicateValues" dxfId="205" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G319">
-    <cfRule type="duplicateValues" dxfId="204" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F964">
-    <cfRule type="duplicateValues" dxfId="203" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E669">
+    <cfRule type="duplicateValues" dxfId="206" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1859:F1863">
+    <cfRule type="duplicateValues" dxfId="205" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1872 G1865:G1869 G1859:G1863">
+    <cfRule type="duplicateValues" dxfId="204" priority="7721"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1872:F1872 B1865:F1868 B1869:E1869 B1859:E1863">
+    <cfRule type="duplicateValues" dxfId="203" priority="7725"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1953">
     <cfRule type="duplicateValues" dxfId="202" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1859:F1863">
-    <cfRule type="duplicateValues" dxfId="201" priority="147"/>
+  <conditionalFormatting sqref="F1953">
+    <cfRule type="duplicateValues" dxfId="201" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1872 G1865:G1869 G1859:G1863">
-    <cfRule type="duplicateValues" dxfId="200" priority="7717"/>
+  <conditionalFormatting sqref="G1945">
+    <cfRule type="duplicateValues" dxfId="200" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1872:F1872 B1865:F1868 B1869:E1869 B1859:E1863">
-    <cfRule type="duplicateValues" dxfId="199" priority="7721"/>
+  <conditionalFormatting sqref="F1945">
+    <cfRule type="duplicateValues" dxfId="199" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1947">
+  <conditionalFormatting sqref="G1938">
     <cfRule type="duplicateValues" dxfId="198" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1947">
+  <conditionalFormatting sqref="F1938">
     <cfRule type="duplicateValues" dxfId="197" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1939">
+  <conditionalFormatting sqref="G1932">
     <cfRule type="duplicateValues" dxfId="196" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1939">
+  <conditionalFormatting sqref="F1932">
     <cfRule type="duplicateValues" dxfId="195" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1932">
+  <conditionalFormatting sqref="G1914:G1927">
     <cfRule type="duplicateValues" dxfId="194" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1932">
+  <conditionalFormatting sqref="F1914:F1927">
     <cfRule type="duplicateValues" dxfId="193" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1926">
+  <conditionalFormatting sqref="G1898:G1901">
     <cfRule type="duplicateValues" dxfId="192" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1926">
+  <conditionalFormatting sqref="F1898:F1901">
     <cfRule type="duplicateValues" dxfId="191" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1917:G1920 G1910:G1915">
+  <conditionalFormatting sqref="G1893:G1895 G1889">
     <cfRule type="duplicateValues" dxfId="190" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1917:F1920 F1910:F1915">
+  <conditionalFormatting sqref="F1893:F1895 F1889">
     <cfRule type="duplicateValues" dxfId="189" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1898:G1901">
+  <conditionalFormatting sqref="G1876">
     <cfRule type="duplicateValues" dxfId="188" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1898:F1901">
+  <conditionalFormatting sqref="F1876">
     <cfRule type="duplicateValues" dxfId="187" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1893:G1895 G1889">
+  <conditionalFormatting sqref="G1849:G1850">
     <cfRule type="duplicateValues" dxfId="186" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1893:F1895 F1889">
+  <conditionalFormatting sqref="F1849:F1850">
     <cfRule type="duplicateValues" dxfId="185" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1876">
+  <conditionalFormatting sqref="G1836 G1840:G1841">
     <cfRule type="duplicateValues" dxfId="184" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1876">
+  <conditionalFormatting sqref="F1836 F1840:F1841">
     <cfRule type="duplicateValues" dxfId="183" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1849:G1850">
-    <cfRule type="duplicateValues" dxfId="182" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1849:F1850">
-    <cfRule type="duplicateValues" dxfId="181" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1836 G1840:G1841">
-    <cfRule type="duplicateValues" dxfId="180" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1836 F1840:F1841">
-    <cfRule type="duplicateValues" dxfId="179" priority="126"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1807:G1808">
-    <cfRule type="duplicateValues" dxfId="178" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1807:F1808">
-    <cfRule type="duplicateValues" dxfId="177" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1832">
-    <cfRule type="duplicateValues" dxfId="176" priority="7728"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="7732"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1832:F1832">
-    <cfRule type="duplicateValues" dxfId="175" priority="7729"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="7733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1812:G1814 G1819:G1830">
-    <cfRule type="duplicateValues" dxfId="174" priority="8442"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="8446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1819:F1830 F1812:F1815">
-    <cfRule type="duplicateValues" dxfId="173" priority="8784"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="8788"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1789:G1790">
+    <cfRule type="duplicateValues" dxfId="176" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1789:F1790">
+    <cfRule type="duplicateValues" dxfId="175" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1784:G1787">
+    <cfRule type="duplicateValues" dxfId="174" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1784:F1787">
+    <cfRule type="duplicateValues" dxfId="173" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1759:G1761">
     <cfRule type="duplicateValues" dxfId="172" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1789:F1790">
+  <conditionalFormatting sqref="F1759:F1761">
     <cfRule type="duplicateValues" dxfId="171" priority="120"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1784:G1787">
-    <cfRule type="duplicateValues" dxfId="170" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1784:F1787">
-    <cfRule type="duplicateValues" dxfId="169" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1759:G1761">
-    <cfRule type="duplicateValues" dxfId="168" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1759:F1761">
-    <cfRule type="duplicateValues" dxfId="167" priority="116"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1851 F1715 F1719 F1736">
-    <cfRule type="duplicateValues" dxfId="166" priority="9491"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="9495"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1727:G1735 G1709:G1711 G1717:G1718">
-    <cfRule type="duplicateValues" dxfId="165" priority="9640"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="9644"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1727:F1735 F1709:F1711 F1717:F1718">
-    <cfRule type="duplicateValues" dxfId="164" priority="9643"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="9647"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1668">
-    <cfRule type="duplicateValues" dxfId="163" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1668">
-    <cfRule type="duplicateValues" dxfId="162" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1628">
-    <cfRule type="duplicateValues" dxfId="161" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1628">
-    <cfRule type="duplicateValues" dxfId="160" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1652 G1648:G1649 G1618:G1620">
-    <cfRule type="duplicateValues" dxfId="159" priority="9998"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="10002"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1652 F1648:F1649 F1618:F1620">
-    <cfRule type="duplicateValues" dxfId="158" priority="10001"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="10005"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1583">
+    <cfRule type="duplicateValues" dxfId="161" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1583">
+    <cfRule type="duplicateValues" dxfId="160" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1568:G1569">
+    <cfRule type="duplicateValues" dxfId="159" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1568:F1569">
+    <cfRule type="duplicateValues" dxfId="158" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1551:G1552">
     <cfRule type="duplicateValues" dxfId="157" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1583">
+  <conditionalFormatting sqref="F1551:F1552">
     <cfRule type="duplicateValues" dxfId="156" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1568:G1569">
+  <conditionalFormatting sqref="G1530:G1536">
     <cfRule type="duplicateValues" dxfId="155" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1568:F1569">
+  <conditionalFormatting sqref="F1530:F1536">
     <cfRule type="duplicateValues" dxfId="154" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1551:G1552">
+  <conditionalFormatting sqref="G1516">
     <cfRule type="duplicateValues" dxfId="153" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1551:F1552">
+  <conditionalFormatting sqref="F1516">
     <cfRule type="duplicateValues" dxfId="152" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1530:G1536">
+  <conditionalFormatting sqref="G1494:G1495">
     <cfRule type="duplicateValues" dxfId="151" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1530:F1536">
+  <conditionalFormatting sqref="F1494:F1495">
     <cfRule type="duplicateValues" dxfId="150" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1516">
+  <conditionalFormatting sqref="G1461 G1476 G1469">
     <cfRule type="duplicateValues" dxfId="149" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1516">
+  <conditionalFormatting sqref="F1461 F1476 F1469">
     <cfRule type="duplicateValues" dxfId="148" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1494:G1495">
+  <conditionalFormatting sqref="G1439:G1440">
     <cfRule type="duplicateValues" dxfId="147" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1494:F1495">
+  <conditionalFormatting sqref="F1439:F1440">
     <cfRule type="duplicateValues" dxfId="146" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1461 G1476 G1469">
+  <conditionalFormatting sqref="G1427:G1428">
     <cfRule type="duplicateValues" dxfId="145" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1461 F1476 F1469">
+  <conditionalFormatting sqref="F1427">
     <cfRule type="duplicateValues" dxfId="144" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1439:G1440">
+  <conditionalFormatting sqref="F1428">
     <cfRule type="duplicateValues" dxfId="143" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1439:F1440">
+  <conditionalFormatting sqref="G1409">
     <cfRule type="duplicateValues" dxfId="142" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1427:G1428">
+  <conditionalFormatting sqref="F1409">
     <cfRule type="duplicateValues" dxfId="141" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1427">
+  <conditionalFormatting sqref="G1388:G1393">
     <cfRule type="duplicateValues" dxfId="140" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1428">
+  <conditionalFormatting sqref="F1388:F1393">
     <cfRule type="duplicateValues" dxfId="139" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1409">
+  <conditionalFormatting sqref="G1357">
     <cfRule type="duplicateValues" dxfId="138" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1409">
+  <conditionalFormatting sqref="F1357">
     <cfRule type="duplicateValues" dxfId="137" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1388:G1393">
+  <conditionalFormatting sqref="G1345">
     <cfRule type="duplicateValues" dxfId="136" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1388:F1393">
+  <conditionalFormatting sqref="F1345">
     <cfRule type="duplicateValues" dxfId="135" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1357">
+  <conditionalFormatting sqref="G1324:G1325">
     <cfRule type="duplicateValues" dxfId="134" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1357">
+  <conditionalFormatting sqref="F1324:F1325">
     <cfRule type="duplicateValues" dxfId="133" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1345">
+  <conditionalFormatting sqref="G1306:G1307">
     <cfRule type="duplicateValues" dxfId="132" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1345">
+  <conditionalFormatting sqref="F1306:F1307">
     <cfRule type="duplicateValues" dxfId="131" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1324:G1325">
-    <cfRule type="duplicateValues" dxfId="130" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1324:F1325">
-    <cfRule type="duplicateValues" dxfId="129" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1306:G1307">
-    <cfRule type="duplicateValues" dxfId="128" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1306:F1307">
-    <cfRule type="duplicateValues" dxfId="127" priority="77"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1335:G1337">
-    <cfRule type="duplicateValues" dxfId="126" priority="10002"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1335:F1337">
-    <cfRule type="duplicateValues" dxfId="125" priority="10004"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="10008"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1278 G1271">
-    <cfRule type="duplicateValues" dxfId="124" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1278 F1271">
-    <cfRule type="duplicateValues" dxfId="123" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1227">
-    <cfRule type="duplicateValues" dxfId="122" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1227">
-    <cfRule type="duplicateValues" dxfId="121" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1233:G1236">
-    <cfRule type="duplicateValues" dxfId="120" priority="10005"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="10009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1233:F1236">
-    <cfRule type="duplicateValues" dxfId="119" priority="10006"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="10010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1218:G1221 G1223:G1225">
+    <cfRule type="duplicateValues" dxfId="122" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1218:F1220 F1222:F1225">
+    <cfRule type="duplicateValues" dxfId="121" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1203:G1207">
+    <cfRule type="duplicateValues" dxfId="120" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1203:F1207">
+    <cfRule type="duplicateValues" dxfId="119" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1188:G1197">
     <cfRule type="duplicateValues" dxfId="118" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1218:F1220 F1222:F1225">
+  <conditionalFormatting sqref="F1188:F1197">
     <cfRule type="duplicateValues" dxfId="117" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1203:G1207">
+  <conditionalFormatting sqref="G1172:G1174">
     <cfRule type="duplicateValues" dxfId="116" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1203:F1207">
+  <conditionalFormatting sqref="F1172:F1174">
     <cfRule type="duplicateValues" dxfId="115" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1188:G1197">
+  <conditionalFormatting sqref="G1147">
     <cfRule type="duplicateValues" dxfId="114" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1188:F1197">
+  <conditionalFormatting sqref="F1147">
     <cfRule type="duplicateValues" dxfId="113" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1172:G1174">
+  <conditionalFormatting sqref="G1140">
     <cfRule type="duplicateValues" dxfId="112" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1172:F1174">
+  <conditionalFormatting sqref="F1140">
     <cfRule type="duplicateValues" dxfId="111" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1147">
+  <conditionalFormatting sqref="G1132">
     <cfRule type="duplicateValues" dxfId="110" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1147">
+  <conditionalFormatting sqref="F1132">
     <cfRule type="duplicateValues" dxfId="109" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1140">
+  <conditionalFormatting sqref="G1120:G1121">
     <cfRule type="duplicateValues" dxfId="108" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1140">
+  <conditionalFormatting sqref="F1120:F1121">
     <cfRule type="duplicateValues" dxfId="107" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1132">
+  <conditionalFormatting sqref="G1116:G1117">
     <cfRule type="duplicateValues" dxfId="106" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1132">
+  <conditionalFormatting sqref="F1116:F1117">
     <cfRule type="duplicateValues" dxfId="105" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1120:G1121">
+  <conditionalFormatting sqref="G1111">
     <cfRule type="duplicateValues" dxfId="104" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1120:F1121">
+  <conditionalFormatting sqref="F1111">
     <cfRule type="duplicateValues" dxfId="103" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1116:G1117">
+  <conditionalFormatting sqref="G1100:G1101">
     <cfRule type="duplicateValues" dxfId="102" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1116:F1117">
+  <conditionalFormatting sqref="F1100:F1101">
     <cfRule type="duplicateValues" dxfId="101" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1111">
+  <conditionalFormatting sqref="G1081:G1082">
     <cfRule type="duplicateValues" dxfId="100" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1111">
+  <conditionalFormatting sqref="F1081:F1082">
     <cfRule type="duplicateValues" dxfId="99" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1100:G1101">
-    <cfRule type="duplicateValues" dxfId="98" priority="52"/>
+  <conditionalFormatting sqref="F1048">
+    <cfRule type="duplicateValues" dxfId="98" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1100:F1101">
-    <cfRule type="duplicateValues" dxfId="97" priority="51"/>
+  <conditionalFormatting sqref="G1036:G1038">
+    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1081:G1082">
-    <cfRule type="duplicateValues" dxfId="96" priority="50"/>
+  <conditionalFormatting sqref="F1036:F1038">
+    <cfRule type="duplicateValues" dxfId="96" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1081:F1082">
-    <cfRule type="duplicateValues" dxfId="95" priority="49"/>
+  <conditionalFormatting sqref="G1012:G1018">
+    <cfRule type="duplicateValues" dxfId="95" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1048">
+  <conditionalFormatting sqref="F1012:F1014">
     <cfRule type="duplicateValues" dxfId="94" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1036:G1038">
+  <conditionalFormatting sqref="F1015:F1018">
     <cfRule type="duplicateValues" dxfId="93" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1036:F1038">
+  <conditionalFormatting sqref="G981:G983">
     <cfRule type="duplicateValues" dxfId="92" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1012:G1018">
+  <conditionalFormatting sqref="F981:F983">
     <cfRule type="duplicateValues" dxfId="91" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1012:F1014">
+  <conditionalFormatting sqref="G896">
     <cfRule type="duplicateValues" dxfId="90" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1015:F1018">
+  <conditionalFormatting sqref="F896">
     <cfRule type="duplicateValues" dxfId="89" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G981:G983">
+  <conditionalFormatting sqref="G872:G875">
     <cfRule type="duplicateValues" dxfId="88" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F981:F983">
+  <conditionalFormatting sqref="F872:F875">
     <cfRule type="duplicateValues" dxfId="87" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G896">
+  <conditionalFormatting sqref="G842">
     <cfRule type="duplicateValues" dxfId="86" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F896">
+  <conditionalFormatting sqref="F842">
     <cfRule type="duplicateValues" dxfId="85" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G872:G875">
+  <conditionalFormatting sqref="G830 G833:G839">
     <cfRule type="duplicateValues" dxfId="84" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F872:F875">
+  <conditionalFormatting sqref="F830:F839">
     <cfRule type="duplicateValues" dxfId="83" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G842">
-    <cfRule type="duplicateValues" dxfId="82" priority="34"/>
+  <conditionalFormatting sqref="G815:G818">
+    <cfRule type="duplicateValues" dxfId="82" priority="10442"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F842">
-    <cfRule type="duplicateValues" dxfId="81" priority="33"/>
+  <conditionalFormatting sqref="F815:F823">
+    <cfRule type="duplicateValues" dxfId="81" priority="10444"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G830 G833:G839">
+  <conditionalFormatting sqref="G813">
     <cfRule type="duplicateValues" dxfId="80" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F830:F839">
+  <conditionalFormatting sqref="F813">
     <cfRule type="duplicateValues" dxfId="79" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G815:G818">
-    <cfRule type="duplicateValues" dxfId="78" priority="10438"/>
+  <conditionalFormatting sqref="G782:G789">
+    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F815:F823">
-    <cfRule type="duplicateValues" dxfId="77" priority="10440"/>
+  <conditionalFormatting sqref="F782:F784 F786:F789">
+    <cfRule type="duplicateValues" dxfId="77" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G813">
+  <conditionalFormatting sqref="G672">
     <cfRule type="duplicateValues" dxfId="76" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F813">
+  <conditionalFormatting sqref="F672">
     <cfRule type="duplicateValues" dxfId="75" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G782:G789">
-    <cfRule type="duplicateValues" dxfId="74" priority="26"/>
+  <conditionalFormatting sqref="G536:G537 G607:G608">
+    <cfRule type="duplicateValues" dxfId="74" priority="10445"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F782:F784 F786:F789">
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+  <conditionalFormatting sqref="B536:F537 B540:F540 B607:F608 B541:E549">
+    <cfRule type="duplicateValues" dxfId="73" priority="10447"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G672">
+  <conditionalFormatting sqref="B432:G432">
     <cfRule type="duplicateValues" dxfId="72" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F672">
+  <conditionalFormatting sqref="G416">
     <cfRule type="duplicateValues" dxfId="71" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G536:G537 G607:G608">
-    <cfRule type="duplicateValues" dxfId="70" priority="10441"/>
+  <conditionalFormatting sqref="E416">
+    <cfRule type="duplicateValues" dxfId="70" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B536:F537 B540:F540 B607:F608 B541:E549">
-    <cfRule type="duplicateValues" dxfId="69" priority="10443"/>
+  <conditionalFormatting sqref="F416">
+    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B432:G432">
+  <conditionalFormatting sqref="F366:G366">
     <cfRule type="duplicateValues" dxfId="68" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G416">
+  <conditionalFormatting sqref="F366">
     <cfRule type="duplicateValues" dxfId="67" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E416">
-    <cfRule type="duplicateValues" dxfId="66" priority="18"/>
+  <conditionalFormatting sqref="B851:B858 B820:B822 B814">
+    <cfRule type="duplicateValues" dxfId="66" priority="11460"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F416">
+  <conditionalFormatting sqref="F1320">
     <cfRule type="duplicateValues" dxfId="65" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F366:G366">
-    <cfRule type="duplicateValues" dxfId="64" priority="16"/>
+  <conditionalFormatting sqref="F795">
+    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F366">
-    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
+  <conditionalFormatting sqref="G795">
+    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B851:B858 B820:B822 B814">
-    <cfRule type="duplicateValues" dxfId="62" priority="11456"/>
+  <conditionalFormatting sqref="G795">
+    <cfRule type="duplicateValues" dxfId="62" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1320">
-    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
+  <conditionalFormatting sqref="G795">
+    <cfRule type="duplicateValues" dxfId="61" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F795">
+  <conditionalFormatting sqref="F254">
     <cfRule type="duplicateValues" dxfId="60" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G795">
+  <conditionalFormatting sqref="G254">
     <cfRule type="duplicateValues" dxfId="59" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G795">
+  <conditionalFormatting sqref="G254">
     <cfRule type="duplicateValues" dxfId="58" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G795">
+  <conditionalFormatting sqref="G254">
     <cfRule type="duplicateValues" dxfId="57" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F254">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G254">
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G254">
-    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G254">
-    <cfRule type="duplicateValues" dxfId="53" priority="8"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G533 G606">
-    <cfRule type="duplicateValues" dxfId="52" priority="14317"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="14321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F533 F606">
-    <cfRule type="duplicateValues" dxfId="51" priority="14319"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="14323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F216">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F814">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2117:F1048576 F530:F532 F1897 F671 B802 F1933:F1936 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2042:B2064 B2068:B2116 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1938 F1948:F1976 F1985:F1992 F1994:F2003 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1923:F1925 F1745:F1752 F851:F860 F1940:F1943 F1902:F1909 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2005:F2018 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
-    <cfRule type="duplicateValues" dxfId="48" priority="15212"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G663:G664">
-    <cfRule type="duplicateValues" dxfId="47" priority="15261"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="15265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B663:F664">
-    <cfRule type="duplicateValues" dxfId="46" priority="15262"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="15266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B681:F681">
-    <cfRule type="duplicateValues" dxfId="44" priority="15263"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="15267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1077">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1072">
-    <cfRule type="duplicateValues" dxfId="42" priority="15318"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="15322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1072">
-    <cfRule type="duplicateValues" dxfId="41" priority="15319"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="15323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2038:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2036 G2030:G2034 G2027:G2028 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1917:G1923 G1749:G1915 G1926:G2025">
-    <cfRule type="duplicateValues" dxfId="40" priority="15320"/>
+  <conditionalFormatting sqref="G2044:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2042 G2036:G2040 G2033:G2034 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G1912 G1932:G2031 G1914:G1928">
+    <cfRule type="duplicateValues" dxfId="45" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2038:G1048576 G1897 G1948:G2025 G1872:G1875 G1877:G1887 G1921:G1923 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1940:G1946 G1933:G1938 G1927:G1931 G1902:G1909 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2036 G2030:G2034 G2027:G2028 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
-    <cfRule type="duplicateValues" dxfId="39" priority="15383"/>
+  <conditionalFormatting sqref="G2044:G1048576 G1897 G1954:G2031 G1872:G1875 G1877:G1887 G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1946:G1952 G1939:G1944 G1933:G1937 G1902:G1912 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2042 G2036:G2040 G2033:G2034 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
+    <cfRule type="duplicateValues" dxfId="44" priority="15387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2042:G2057 G531:G532 G1897 G1985:G1992 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1921:G1923 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1933:G1936 G1938 G1948:G1976 G1994:G2018 G2059:G2064 G2068:G1048576 G799 G829 G1929:G1930 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1940:G1943 G1902:G1909 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
-    <cfRule type="duplicateValues" dxfId="38" priority="15532"/>
+  <conditionalFormatting sqref="G2048:G2063 G531:G532 G1897 G1991:G1998 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1939:G1942 G1944 G1954:G1982 G2000:G2024 G2065:G2070 G2074:G1048576 G799 G829 G1935:G1936 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1946:G1949 G1902:G1912 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
+    <cfRule type="duplicateValues" dxfId="43" priority="15536"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2123:F1048576 F530:F532 F1897 F671 B802 F1939:F1942 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2048:B2070 B2074:B2122 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1944 F1954:F1982 F1991:F1998 F2000:F2009 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1930:F1931 F1745:F1752 F851:F860 F1946:F1949 F1902:F1912 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2011:F2024 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
+    <cfRule type="duplicateValues" dxfId="42" priority="15537"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1913">
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1913">
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1913">
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1913">
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2016" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
+    <hyperlink ref="G2022" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
     <hyperlink ref="G638" r:id="rId2" xr:uid="{34862EF4-F7F1-4818-B6F4-17938F628487}"/>
     <hyperlink ref="G639" r:id="rId3" xr:uid="{F2A1B2F1-41E2-4FDF-8DE8-AF88EA8283AC}"/>
     <hyperlink ref="F1402" r:id="rId4" tooltip="Permanent Link to Ethereum &amp; Bitcoin : Protocols for $9.3 trillion in value for dead capital?" display="http://www.gogerty.com/ethereum-bitcoin-protocols-for-9-3-trillion-in-value/" xr:uid="{90F13528-E3BE-4889-BB8E-7BCC86B10037}"/>
@@ -36534,7 +36640,7 @@
     <hyperlink ref="F1074" r:id="rId161" display="http://gavinandresen.ninja/ask-a-simple-question" xr:uid="{367C5CC3-3511-4EBF-9CBF-89A173F02CD8}"/>
     <hyperlink ref="G508" r:id="rId162" xr:uid="{BBCA583B-F1A8-46AB-8EF3-B5F9A91605AB}"/>
     <hyperlink ref="F508" r:id="rId163" display="https://offthechain.substack.com/p/bitcoin-fundamentals-continue-to" xr:uid="{0608D2A5-1B59-4FA0-8B9B-590BE83B35E2}"/>
-    <hyperlink ref="F1922" r:id="rId164" display="http://themonetaryfuture.blogspot.com/2011/06/bitcoin-is-economic-singularity.html" xr:uid="{F74A018A-5EC6-4EBC-967C-33FEC83F6F61}"/>
+    <hyperlink ref="F1928" r:id="rId164" display="http://themonetaryfuture.blogspot.com/2011/06/bitcoin-is-economic-singularity.html" xr:uid="{F74A018A-5EC6-4EBC-967C-33FEC83F6F61}"/>
     <hyperlink ref="G1493" r:id="rId165" xr:uid="{B4D4034C-E85D-4DA8-90D9-6CAB057111B0}"/>
     <hyperlink ref="F1458" r:id="rId166" display="http://konrad-graf.squarespace.com/blog1/2014/9/19/bitcoin-magic-fraud-or-sufficiently-advanced-technology.html" xr:uid="{CB367B69-BB84-471B-86AA-6D04A0AB454F}"/>
     <hyperlink ref="F1505" r:id="rId167" display="https://konrad-graf.squarespace.com/blog1/2014/5/20/the-helpful-fable-of-the-bitcoin-duality-models-revisited.html" xr:uid="{49357AE3-64C5-4BF0-893D-5868985DCFF4}"/>
@@ -36812,520 +36918,522 @@
     <hyperlink ref="G1745" r:id="rId439" xr:uid="{DAB62F3B-DAE6-47D9-85A2-18D0D5E417B6}"/>
     <hyperlink ref="G1851" r:id="rId440" xr:uid="{42154D76-3601-4871-94F5-533D73FCAC14}"/>
     <hyperlink ref="G1854" r:id="rId441" xr:uid="{A2D5D59F-1A9E-486F-A739-75D0085DE5CB}"/>
-    <hyperlink ref="G1923" r:id="rId442" xr:uid="{FBA21F1D-1586-428D-B33E-29ADB8F1507B}"/>
-    <hyperlink ref="G814" r:id="rId443" xr:uid="{9592C351-F3F2-472A-A885-95D436F839F2}"/>
-    <hyperlink ref="G824" r:id="rId444" xr:uid="{ADAA69EC-42B1-45FF-BB61-47725B089670}"/>
-    <hyperlink ref="G825" r:id="rId445" xr:uid="{47712E4D-BA8B-492B-AE58-BCA39C0FF8CC}"/>
-    <hyperlink ref="G826" r:id="rId446" xr:uid="{F01488CE-4800-45D3-A296-94E9103BF0E4}"/>
-    <hyperlink ref="G828" r:id="rId447" xr:uid="{E3E7E7F2-D167-48A3-9237-EAFDD9EC7FB0}"/>
-    <hyperlink ref="G1895" r:id="rId448" xr:uid="{1888FFEE-136E-4F87-90FB-97A3BA77DA79}"/>
-    <hyperlink ref="F1815" r:id="rId449" tooltip="Permanent Link to The problem of too much money" display="http://trilema.com/2012/the-problem-of-too-much-money/" xr:uid="{E6BD1EE1-F418-41EE-8304-77FF8BBAE0E5}"/>
-    <hyperlink ref="F1823" r:id="rId450" tooltip="Permanent Link to The problem with PMBs, ie &quot;Perpetual Mining Bonds&quot;" display="http://trilema.com/2012/the-problem-with-pmbs-ie-perpetual-mining-bonds/" xr:uid="{8B4CC394-E319-4B77-A0D4-3279C0651CBF}"/>
-    <hyperlink ref="F1824" r:id="rId451" tooltip="Permanent Link to The reasons why Bitcoin securities can't be regulated by the SEC" display="http://trilema.com/2012/the-reasons-why-bitcoin-securities-cant-be-regulated-by-the-sec/" xr:uid="{B6CCB366-2CD3-439B-AE50-466BA420A33E}"/>
-    <hyperlink ref="F1825" r:id="rId452" tooltip="Permanent Link to The politics of Bitcoin" display="http://trilema.com/2012/the-politics-of-bitcoin/" xr:uid="{72B21C4B-CDFB-4B97-A421-D2AE2E1F401B}"/>
-    <hyperlink ref="F1826" r:id="rId453" tooltip="Permanent Link to Bribes in Bitcoins" display="http://trilema.com/2012/bribes-in-bitcoins/" xr:uid="{7CAC378C-D4AA-4695-847A-B4D7227C1695}"/>
-    <hyperlink ref="F1827" r:id="rId454" tooltip="Permanent Link to Bitcoin is creating a whole new set of problems" display="http://trilema.com/2012/bitcoin-is-creating-a-whole-new-set-of-problems/" xr:uid="{ECCCAEB9-A9C8-4814-8364-7A173B261450}"/>
-    <hyperlink ref="F1828" r:id="rId455" tooltip="Permanent Link to GPG contracts" display="http://trilema.com/2012/gpg-contracts/" xr:uid="{F064F204-C6AF-4680-ABDE-D0B520E134F6}"/>
-    <hyperlink ref="F1829" r:id="rId456" tooltip="Permanent Link to The Chain of Lol" display="http://trilema.com/2012/the-chain-of-lol/" xr:uid="{DC3897C2-4A18-488E-A926-9A02E50B8B5D}"/>
-    <hyperlink ref="F1830" r:id="rId457" tooltip="Permanent Link to Let's dig a little deeper into this entire deflation &quot;problem&quot;" display="http://trilema.com/2012/lets-dig-a-little-deeper-into-this-entire-deflation-problem/" xr:uid="{6A9E1AE7-3264-45F8-86AB-4D62A86D8B00}"/>
-    <hyperlink ref="F1812" r:id="rId458" tooltip="Permanent Link to Bitcoin and the poor" display="http://trilema.com/2012/bitcoin-and-the-poor/" xr:uid="{432C2484-7920-43BE-BC59-2CA798D45CD5}"/>
-    <hyperlink ref="F1813" r:id="rId459" tooltip="Permanent Link to A message to Bitcoin wanna-be scammers" display="http://trilema.com/2012/a-message-to-bitcoin-wanna-be-scammers/" xr:uid="{AF0C7AFC-60D4-4FB2-9416-7BE080A4262C}"/>
-    <hyperlink ref="F1814" r:id="rId460" tooltip="Permanent Link to What are the Bitcoin market drivers ?" display="http://trilema.com/2012/what-are-the-bitcoin-market-drivers/" xr:uid="{FA1CA42E-C1B6-462E-99BF-1731970B3A9C}"/>
-    <hyperlink ref="F1807" r:id="rId461" tooltip="Permanent Link to Probably the hottest business idea of the moment in BTC..." display="http://trilema.com/2012/probably-the-hottest-business-idea-of-the-moment-in-btc/" xr:uid="{90FBF645-98ED-4F91-A884-5F175EE90256}"/>
-    <hyperlink ref="F1789" r:id="rId462" tooltip="Permanent Link to The question of the year in BTC" display="http://trilema.com/2013/the-question-of-the-year-in-btc/" xr:uid="{1B5061B4-70E3-4B7B-9695-11C8D877D846}"/>
-    <hyperlink ref="F1790" r:id="rId463" tooltip="Permanent Link to How to hedge as a miner" display="http://trilema.com/2013/how-to-hedge-as-a-miner/" xr:uid="{FBFAD56D-51D7-4487-BEF8-BA05CCE6A9F3}"/>
-    <hyperlink ref="F1784" r:id="rId464" tooltip="Permanent Link to Bitcoin prices, Bitcoin inflexibility" display="http://trilema.com/2013/bitcoin-prices-bitcoin-inflexibility/" xr:uid="{8A5C15E8-760D-4D32-9CDF-4CB40654D8FC}"/>
-    <hyperlink ref="F1785" r:id="rId465" tooltip="Permanent Link to Fiat vs Bitcoin, a comparison." display="http://trilema.com/2013/fiat-vs-bitcoin-a-comparison/" xr:uid="{D8AF65C0-7895-478F-B75E-B5B9224FEED1}"/>
-    <hyperlink ref="F1786" r:id="rId466" tooltip="Permanent Link to The Free Cash Machine" display="http://trilema.com/2013/the-free-cash-machine/" xr:uid="{E7AAE722-EBFA-4A43-B49C-286BC79B701B}"/>
-    <hyperlink ref="F1787" r:id="rId467" tooltip="Permanent Link to Permanently elevated plateau" display="http://trilema.com/2013/permanently-elevated-plateau/" xr:uid="{36220AAF-6ABE-442F-B75B-EC3A22AC46CC}"/>
-    <hyperlink ref="F1759" r:id="rId468" tooltip="Permanent Link to Digging through archives yields gold" display="http://trilema.com/2013/digging-through-archives-yields-gold/" xr:uid="{C5276DD0-3081-45B1-A42D-5D4652DB5DA3}"/>
-    <hyperlink ref="F1760" r:id="rId469" tooltip="Permanent Link to Steganography, or the simple yet strong brain wallet" display="http://trilema.com/2013/steganography-or-the-simple-yet-strong-brain-wallet/" xr:uid="{202B16F3-90BB-48A0-8294-1FC9D2DB5942}"/>
-    <hyperlink ref="F1761" r:id="rId470" tooltip="Permanent Link to Strategic superiority - the saga continues" display="http://trilema.com/2013/strategic-superiority-the-saga-continues/" xr:uid="{849FFF10-8839-4A79-BD72-CAB2D8089716}"/>
-    <hyperlink ref="F1727" r:id="rId471" tooltip="Permanent Link to People! Bitcoin is not worth 100+ dollars per. STOP BUYING!" display="http://trilema.com/2013/people-bitcoin-is-not-worth-100-dollars-per-stop-buying/" xr:uid="{8FFF1055-A065-4F0B-87D8-C118F218382D}"/>
-    <hyperlink ref="F1728" r:id="rId472" tooltip="Permanent Link to It's been an epic few days: What happened?" display="http://trilema.com/2013/its-been-an-epic-few-days-what-happened/" xr:uid="{80685439-F3E2-415E-9294-039780EF771E}"/>
-    <hyperlink ref="F1729" r:id="rId473" tooltip="Permanent Link to The broad and the million fireants. A parable." display="http://trilema.com/2013/the-broad-and-the-million-fireants-a-parable/" xr:uid="{4F347966-B767-4383-901C-3E76D42291AF}"/>
-    <hyperlink ref="F1730" r:id="rId474" tooltip="Permanent Link to The Bitcoiner's Press Manual" display="http://trilema.com/2013/the-bitcoiners-press-manual/" xr:uid="{3CB5DC3E-74E2-45B6-A1B4-4845B2D85853}"/>
-    <hyperlink ref="F1731" r:id="rId475" tooltip="Permanent Link to Grave concerns re MtGox" display="http://trilema.com/2013/grave-concerns-re-mtgox/" xr:uid="{447E79C6-5DA2-451D-9671-DB68EA5640C0}"/>
-    <hyperlink ref="F1732" r:id="rId476" tooltip="Permanent Link to In which noobs learn lessons and pay for the privilege" display="http://trilema.com/2013/in-which-noobs-learn-lessons-and-pay-for-the-privilege/" xr:uid="{42602F8E-8596-48B7-980F-A9AEE9C8DFC7}"/>
-    <hyperlink ref="F1733" r:id="rId477" tooltip="Permanent Link to I have a problem which I don't know how to resolve. So do you." display="http://trilema.com/2013/i-have-a-problem-which-i-dont-know-how-to-resolve-so-do-you/" xr:uid="{039719CF-47B3-4807-8E27-3621524A0396}"/>
-    <hyperlink ref="F1734" r:id="rId478" tooltip="Permanent Link to Mind your step." display="http://trilema.com/2013/mind-your-step/" xr:uid="{E89C8844-767A-42FF-A604-C004F6F378EA}"/>
-    <hyperlink ref="F1735" r:id="rId479" tooltip="Permanent Link to The future of Bitcoin regulation" display="http://trilema.com/2013/the-future-of-bitcoin-regulation/" xr:uid="{27E8ED36-66CB-4703-9ED6-573A4F417E60}"/>
-    <hyperlink ref="F1717" r:id="rId480" tooltip="Permanent Link to Some basic discussion of Bitcoin macroeconomy" display="http://trilema.com/2013/some-basic-discussion-of-bitcoin-macroeconomy/" xr:uid="{F11F3337-5C3A-4754-8DCE-D8B83B1D9045}"/>
-    <hyperlink ref="B1709" r:id="rId481" tooltip="Permanent Link to The state, banking and Bitcoin" display="http://trilema.com/2013/the-state-banking-and-bitcoin/" xr:uid="{814BB311-E459-4326-9B1E-33E9080116E8}"/>
-    <hyperlink ref="F1709" r:id="rId482" tooltip="Permanent Link to The state, banking and Bitcoin" display="http://trilema.com/2013/the-state-banking-and-bitcoin/" xr:uid="{EE07D495-F0BF-4272-8F3A-45EEF6B445B3}"/>
-    <hyperlink ref="F1710" r:id="rId483" tooltip="Permanent Link to In re noobs and conventions" display="http://trilema.com/2013/in-re-noobs-and-conventions/" xr:uid="{0B2E7891-87FA-4CDB-9E4C-C4FD5D9222F3}"/>
-    <hyperlink ref="F1668" r:id="rId484" tooltip="Permanent Link to One hundred years of Bitcoin finance" display="http://trilema.com/2013/one-hundred-years-of-bitcoin-finance/" xr:uid="{DC1F99E4-6880-4843-90FF-D5929DF48B4C}"/>
-    <hyperlink ref="F1648" r:id="rId485" tooltip="Permanent Link to Why you need Bitcoin, simply put." display="http://trilema.com/2013/why-you-need-bitcoin-simply-put/" xr:uid="{1D33BE49-F793-480F-9C05-8DA3F8D97C6A}"/>
-    <hyperlink ref="F1649" r:id="rId486" tooltip="Permanent Link to Things that matter these days ; things that don't matter these days." display="http://trilema.com/2013/things-that-matter-these-days-things-that-dont-matter-these-days/" xr:uid="{85691189-83AD-417E-9202-604C3F1A1421}"/>
-    <hyperlink ref="F1618" r:id="rId487" tooltip="Permanent Link to Bitcoin will die" display="http://trilema.com/2013/bitcoin-will-die/" xr:uid="{7CCECB2F-7E55-4FA2-B956-10419447610C}"/>
-    <hyperlink ref="F1628" r:id="rId488" tooltip="Permanent Link to Bitcoin as replacement for the electoral system" display="http://trilema.com/2013/bitcoin-as-replacement-for-the-electoral-system/" xr:uid="{6F473BB0-794C-4EBB-83D0-F1EC3C500809}"/>
-    <hyperlink ref="F1568" r:id="rId489" tooltip="Permanent Link to Guidance : There Is No Such Thing As Bitcoin Taint." display="http://trilema.com/2014/guidance-there-is-no-such-thing-as-bitcoin-taint/" xr:uid="{0E0B14BA-A816-4AF9-9C43-01BCEC5ED3D8}"/>
-    <hyperlink ref="F1551" r:id="rId490" tooltip="Permanent Link to The battlefield of the future" display="http://trilema.com/2014/the-battlefield-of-the-future/" xr:uid="{A6DA12BF-29D6-4AED-B106-19C7999BB961}"/>
-    <hyperlink ref="F1552" r:id="rId491" tooltip="Permanent Link to An era ends today. A new era starts today." display="http://trilema.com/2014/an-era-ends-today-a-new-era-starts-today/" xr:uid="{BD9A507E-57C5-4A3F-84C3-5C45B3600794}"/>
-    <hyperlink ref="F1535" r:id="rId492" tooltip="Permanent Link to A complete theory of economics" display="http://trilema.com/2014/a-complete-theory-of-economics/" xr:uid="{06227438-0492-4F88-AF18-A125AAD1E9DA}"/>
-    <hyperlink ref="F1534" r:id="rId493" tooltip="Permanent Link to The discreet escort, or how Bitcoin makes prostitution unprosecutable" display="http://trilema.com/2014/the-discreet-escort-or-how-bitcoin-makes-prostitution-unprosecutable/" xr:uid="{0414ED8D-5FCC-48DB-86BA-9B2BCC34339E}"/>
-    <hyperlink ref="F1531" r:id="rId494" tooltip="Permanent Link to The sins of the group of posers behind the so called &quot;Bitcoin Foundation&quot;" display="http://trilema.com/2014/the-sins-of-the-group-of-posers-behind-the-so-called-bitcoin-foundation/" xr:uid="{F1BB9CDC-5684-493B-83B3-0771A2F33547}"/>
-    <hyperlink ref="F1516" r:id="rId495" tooltip="Permanent Link to The idea that Bitcoin is a sovereign..." display="http://trilema.com/2014/the-idea-that-bitcoin-is-a-sovereign/" xr:uid="{E4089F18-AF4F-471A-B183-BA9B72151684}"/>
-    <hyperlink ref="G1516" r:id="rId496" xr:uid="{7620D5E1-0056-4BD2-AE0D-A99E52DF3CEC}"/>
-    <hyperlink ref="F1494" r:id="rId497" tooltip="Permanent Link to The problem of enforcement" display="http://trilema.com/2014/the-problem-of-enforcement/" xr:uid="{DF3B092E-75D5-4831-94BC-E85752341FF9}"/>
-    <hyperlink ref="G1492" r:id="rId498" xr:uid="{796BFA37-4AAB-48E4-AC28-94A5D1D207DF}"/>
-    <hyperlink ref="F1476" r:id="rId499" tooltip="Permanent Link to Time for some Bitlicenses of our own." display="http://trilema.com/2014/time-for-some-bitlicenses-of-our-own/" xr:uid="{225AB33B-A43C-4805-B781-75C3EAB83936}"/>
-    <hyperlink ref="F1469" r:id="rId500" tooltip="Permanent Link to The woes of Altcoin, or why there is no such thing as &quot;cryptocurrencies&quot;" display="http://trilema.com/2014/the-woes-of-altcoin-or-why-there-is-no-such-thing-as-cryptocurrencies/" xr:uid="{FD3B43EA-187F-432D-955C-233EA184031B}"/>
-    <hyperlink ref="F1461" r:id="rId501" tooltip="Permanent Link to A humble proposal to Bitcoin miners" display="http://trilema.com/2014/a-humble-proposal-to-bitcoin-miners/" xr:uid="{AF121DC6-378F-4EC7-9BD8-4D5432F700F2}"/>
-    <hyperlink ref="F1439" r:id="rId502" tooltip="Permanent Link to USGavin, the lolcow" display="http://trilema.com/2014/usgavin-the-lolcow/" xr:uid="{3949A12B-621E-473A-BE28-EA4237D3146B}"/>
-    <hyperlink ref="F1440" r:id="rId503" tooltip="Permanent Link to How to deal with pseudoscience ?" display="http://trilema.com/2014/how-to-deal-with-pseudoscience/" xr:uid="{A7EC58AF-A415-4C30-AD7A-A3887033AF07}"/>
-    <hyperlink ref="F1428" r:id="rId504" tooltip="Permanent Link to Actual Bitcoin corporations (ABCs) versus fiat-based frauds trying to masquerade as Bitcoin companies (while masquerading as companies in the first place) on the solid theory that the general public is too stupid to make any difference, " display="http://trilema.com/2014/actual-bitcoin-corporations-abcs-versus-fiat-based-frauds-trying-to-masquerade-as-bitcoin-companies-while-masquerading-as-companies-in-the-first-place-on-the-solid-theory-that-the-general-public-i/" xr:uid="{A3A2A811-4ADA-4662-ADAA-C6F7697BBEBB}"/>
-    <hyperlink ref="F1388" r:id="rId505" tooltip="Permanent Link to If you go on a Bitcoin fork, irrespective which scammer proposes it, you will lose your Bitcoins." display="http://trilema.com/2015/if-you-go-on-a-bitcoin-fork-irrespective-which-scammer-proposes-it-you-will-lose-your-bitcoins/" xr:uid="{C92B5772-316B-449F-9A2D-B93BB1BAE4E2}"/>
-    <hyperlink ref="F1390" r:id="rId506" tooltip="Permanent Link to Let's address some of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-some-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{FFA80CCB-58AB-474A-8867-2D90E1514AC1}"/>
-    <hyperlink ref="F1391" r:id="rId507" tooltip="Permanent Link to Let's address even more of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-even-more-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{4F5AE502-17BA-4DD5-AC94-BA076F6BF57E}"/>
-    <hyperlink ref="F1393" r:id="rId508" tooltip="Permanent Link to Third pass addressing the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/third-pass-addressing-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{5C6BEF3A-0873-4C43-82FA-4EAB7698331D}"/>
-    <hyperlink ref="F1392" r:id="rId509" tooltip="Permanent Link to Ok, so what is Bitcoin disrupting ?" display="http://trilema.com/2015/ok-so-what-is-bitcoin-disrupting/" xr:uid="{D70D05E3-135B-46A1-848C-0C3BB577D1F4}"/>
-    <hyperlink ref="F1307" r:id="rId510" tooltip="Permanent Link to Basic Bitcoin Competency Certification" display="http://trilema.com/2015/basic-bitcoin-competency-certification/" xr:uid="{551D973D-D949-4A37-A932-E90831F8DC56}"/>
-    <hyperlink ref="F1100" r:id="rId511" display="https://junseth.com/post/156343456987/a-brief-history-of-bitcoin" xr:uid="{305E31FF-1680-47BD-B279-C28AC14597E7}"/>
-    <hyperlink ref="F872" r:id="rId512" tooltip="Permanent Link to Integration is bad for Bitcoin." display="http://trilema.com/2017/integration-is-bad-for-bitcoin/" xr:uid="{DA3295AD-0A2C-4C93-BFFD-FE2FB2F15E30}"/>
-    <hyperlink ref="F416" r:id="rId513" tooltip="Permanent Link to I state problems, I receive solutions. A happiness is me." display="http://trilema.com/2013/i-state-problems-i-receive-solutions-a-happiness-is-me/" xr:uid="{78F1E46B-E592-47BC-B5B1-20C21A8CC4D8}"/>
-    <hyperlink ref="F366" r:id="rId514" tooltip="Permanent Link to Bitcoin Recapitulation" display="http://trilema.com/2019/bitcoin-recapitulation/" xr:uid="{FB4B51D6-929E-4DF1-8D1A-F1840C96D229}"/>
-    <hyperlink ref="F1379" r:id="rId515" display="https://jonathanlevin.wordpress.com/2015/03/29/digital-scarcity-what-makes-a-satoshi-on-the-mainchain-worth-having/" xr:uid="{7CE45011-6890-40DA-A707-4B88FF2F6EA9}"/>
-    <hyperlink ref="F1221" r:id="rId516" display="http://hashingit.com/analysis/47-bitcoin-tx-fees" xr:uid="{E1CE598B-53F4-411E-B795-84C28EAA7E88}"/>
-    <hyperlink ref="F1237" r:id="rId517" display="http://hashingit.com/analysis/46-behold-exahash" xr:uid="{B7F3802D-27FD-47D5-80EE-E6A3AF75C8B4}"/>
-    <hyperlink ref="F1270" r:id="rId518" display="http://hashingit.com/analysis/45-blockchain-what-art-thou" xr:uid="{748D4CC1-2A0F-4E69-ABEC-CCD998D8D840}"/>
-    <hyperlink ref="F1269" r:id="rId519" display="http://hashingit.com/analysis/43-waiting-for-blocks-revised" xr:uid="{FF0DC88E-0633-4129-BEE8-1EB1E4BEB33F}"/>
-    <hyperlink ref="F1385" r:id="rId520" display="http://hashingit.com/analysis/41-waiting-for-blocks" xr:uid="{A2C8CF81-2AB6-49E1-87F2-B3DB5D4C53B5}"/>
-    <hyperlink ref="F1430" r:id="rId521" display="http://hashingit.com/analysis/35-the-future-of-bitcoin-transaction-fees" xr:uid="{2034378E-CBB0-4439-9404-F28617424322}"/>
-    <hyperlink ref="F1431" r:id="rId522" display="http://hashingit.com/analysis/34-bitcoin-traffic-bulletin" xr:uid="{CBA7E8F8-73F4-4EF3-BFE1-2E4FB7E17ECB}"/>
-    <hyperlink ref="F1432" r:id="rId523" display="http://hashingit.com/analysis/33-7-transactions-per-second" xr:uid="{56F77F5D-D4E4-4F10-B208-07DEB9BEC04D}"/>
-    <hyperlink ref="F1487" r:id="rId524" display="http://hashingit.com/analysis/32-the-gamblers-guide-to-bitcoin-mining" xr:uid="{63C0E100-C174-4764-A8E1-DD31538C94AF}"/>
-    <hyperlink ref="F1496" r:id="rId525" display="http://hashingit.com/analysis/31-51-percent-of-the-network" xr:uid="{30BCCB7E-1E97-4BDD-A38B-9FAE7A0F7634}"/>
-    <hyperlink ref="F1497" r:id="rId526" display="http://hashingit.com/analysis/30-finding-2016-blocks" xr:uid="{C276839E-A3C4-422A-B5E3-15A8BF7ED8C7}"/>
-    <hyperlink ref="F1498" r:id="rId527" display="http://hashingit.com/analysis/29-lies-damned-lies-and-bitcoin-difficulties" xr:uid="{83C9658C-F972-41B3-B4DF-7FE865BB32E6}"/>
-    <hyperlink ref="F1499" r:id="rId528" display="http://hashingit.com/analysis/18-strange-spikes-revisited" xr:uid="{EC6443D4-9D03-4F80-B56E-B91114340635}"/>
-    <hyperlink ref="F1517" r:id="rId529" display="http://hashingit.com/analysis/27-hash-rate-headaches" xr:uid="{1C027EE9-28BA-4794-94CA-7BADED644EA8}"/>
-    <hyperlink ref="F1537" r:id="rId530" display="http://hashingit.com/analysis/25-prisoners-dilemmas" xr:uid="{E8BF99D6-E46D-4865-B877-A898FCD36EEC}"/>
-    <hyperlink ref="G1537" r:id="rId531" xr:uid="{E900F52B-733F-4DE8-A862-999A19022F53}"/>
-    <hyperlink ref="F1538" r:id="rId532" display="http://hashingit.com/analysis/24-megawatts-of-mining" xr:uid="{13CF7CBE-AFE1-4FAA-AEF2-9CB8B716D5C9}"/>
-    <hyperlink ref="F1539" r:id="rId533" display="http://hashingit.com/analysis/23-the-rewards-for-a-bitcoin-miner" xr:uid="{A4223C56-511B-4059-BB61-3E12AD599718}"/>
-    <hyperlink ref="F1560" r:id="rId534" display="http://hashingit.com/analysis/22-where-next-for-bitcoin-mining-asics" xr:uid="{C58562A3-C60F-439E-855B-87D40B6F4B86}"/>
-    <hyperlink ref="F1561" r:id="rId535" display="http://hashingit.com/analysis/21-chickens-and-eggs" xr:uid="{6663E46B-DA2F-4F9D-A320-CD3A032FF8EB}"/>
-    <hyperlink ref="F1562" r:id="rId536" display="http://hashingit.com/analysis/20-strange-spikes-in-the-bitcoin-price" xr:uid="{55D24341-8DF6-4FE0-A2E0-11EA7584DA94}"/>
-    <hyperlink ref="F1563" r:id="rId537" display="http://hashingit.com/analysis/19-the-bitcoin-runaway-mine-train" xr:uid="{9D601936-B819-46C1-928E-CDA54CA3BA7A}"/>
-    <hyperlink ref="G830" r:id="rId538" xr:uid="{E907C8E7-981D-4315-9DF9-5F9209A28734}"/>
-    <hyperlink ref="G817" r:id="rId539" xr:uid="{5AC44921-91C5-4324-8698-C7E71EBC1EF8}"/>
-    <hyperlink ref="G818" r:id="rId540" xr:uid="{55A3B990-1364-4F8C-BB61-5C5728CE5356}"/>
-    <hyperlink ref="G813" r:id="rId541" xr:uid="{4EAC6694-4857-4E3D-96DD-6AB15011102D}"/>
-    <hyperlink ref="G331" r:id="rId542" xr:uid="{E2563B8E-CAD4-4981-A57A-3F84D626FDBA}"/>
-    <hyperlink ref="G330" r:id="rId543" xr:uid="{FAFE8F40-BBF4-4C70-8404-2FFE0DD76D1A}"/>
-    <hyperlink ref="G318" r:id="rId544" xr:uid="{61564305-3FAD-48E3-8419-728750594BA1}"/>
-    <hyperlink ref="G329" r:id="rId545" xr:uid="{0F199451-94A0-4CB5-A34B-B02DF86BC4A0}"/>
-    <hyperlink ref="G328" r:id="rId546" xr:uid="{7383AF6B-06E6-478C-A143-65DFF466BE32}"/>
-    <hyperlink ref="G327" r:id="rId547" xr:uid="{F948852C-0AAF-46B8-ABD4-933CD18D5A72}"/>
-    <hyperlink ref="G326" r:id="rId548" xr:uid="{B74D72AB-FA7C-439A-AD9D-F43ABCFC5587}"/>
-    <hyperlink ref="G325" r:id="rId549" xr:uid="{813E7CD6-D250-4C82-BE4A-9D54E197D67D}"/>
-    <hyperlink ref="G324" r:id="rId550" xr:uid="{D5BC49E4-F0BD-4ACD-9A03-804CD99204DA}"/>
-    <hyperlink ref="G321" r:id="rId551" xr:uid="{C44DDCA1-C4D5-4FE3-84BC-E663089F50D0}"/>
-    <hyperlink ref="G320" r:id="rId552" xr:uid="{0C20D16D-2FCF-4116-BC10-B93A7A03E2E2}"/>
-    <hyperlink ref="G305" r:id="rId553" xr:uid="{2BDA5184-23C3-4161-84D6-61D7B557587E}"/>
-    <hyperlink ref="G306" r:id="rId554" xr:uid="{39F8BF4C-9A1A-44D5-AC0B-E4D725152DEE}"/>
-    <hyperlink ref="G307" r:id="rId555" xr:uid="{2AD5EB5E-69D7-441D-BB91-9C585FE81D52}"/>
-    <hyperlink ref="G309" r:id="rId556" xr:uid="{4FB56DEF-6130-4A1D-BFC9-159F711DB3F3}"/>
-    <hyperlink ref="G311" r:id="rId557" xr:uid="{2A074457-6C04-41E3-953C-A2B2AFD1C263}"/>
-    <hyperlink ref="G312" r:id="rId558" xr:uid="{9DF64869-3792-49F7-B5EB-E40630824175}"/>
-    <hyperlink ref="G313" r:id="rId559" xr:uid="{82BC628C-3C0C-4CBE-ADE8-DA7AB0219082}"/>
-    <hyperlink ref="G315" r:id="rId560" xr:uid="{CA76BB9D-8AC4-4EE6-B79F-4568859FC668}"/>
-    <hyperlink ref="G317" r:id="rId561" xr:uid="{C240B46C-DC11-4410-BB55-D144DE2985B7}"/>
-    <hyperlink ref="G319" r:id="rId562" xr:uid="{66DC2E89-5085-42D8-BAEE-1C32E66AEFAB}"/>
-    <hyperlink ref="G323" r:id="rId563" xr:uid="{FD55FA5E-ADA8-4A73-AA0A-739AD494BBD2}"/>
-    <hyperlink ref="G294" r:id="rId564" xr:uid="{52332DF9-79D8-4086-BEE5-12DCB0101DAB}"/>
-    <hyperlink ref="G366" r:id="rId565" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
-    <hyperlink ref="G367" r:id="rId566" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
-    <hyperlink ref="G369" r:id="rId567" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
-    <hyperlink ref="G370" r:id="rId568" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
-    <hyperlink ref="G371" r:id="rId569" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
-    <hyperlink ref="G414" r:id="rId570" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
-    <hyperlink ref="G415" r:id="rId571" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
-    <hyperlink ref="G417" r:id="rId572" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
-    <hyperlink ref="G1356" r:id="rId573" xr:uid="{8A899F9E-C813-45BF-91A2-5283ED101704}"/>
-    <hyperlink ref="F1356" r:id="rId574" display="http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world" xr:uid="{B94E0CE3-3372-4C20-AC98-49AB074167C9}"/>
-    <hyperlink ref="G426" r:id="rId575" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
-    <hyperlink ref="G427" r:id="rId576" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
-    <hyperlink ref="G428" r:id="rId577" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
-    <hyperlink ref="G431" r:id="rId578" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
-    <hyperlink ref="G432" r:id="rId579" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
-    <hyperlink ref="G299" r:id="rId580" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
-    <hyperlink ref="G289" r:id="rId581" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
-    <hyperlink ref="G290" r:id="rId582" xr:uid="{DBD6AD6B-351A-4133-B6A4-6B13FFA536DF}"/>
-    <hyperlink ref="G291" r:id="rId583" xr:uid="{F1752B38-25A2-48DA-8DEE-B25CAC8B1254}"/>
-    <hyperlink ref="G292" r:id="rId584" xr:uid="{E2F38E02-83B1-463D-9696-7E4BF035B6A5}"/>
-    <hyperlink ref="G293" r:id="rId585" xr:uid="{F0981388-A434-4006-AAB4-D05BFCDF32AF}"/>
-    <hyperlink ref="G295" r:id="rId586" xr:uid="{FE48F132-F40A-4138-B2A9-A6D1D2E41DEC}"/>
-    <hyperlink ref="G296" r:id="rId587" xr:uid="{E65E5A32-125E-4DBA-821D-72B64CDBD5A7}"/>
-    <hyperlink ref="G297" r:id="rId588" xr:uid="{6E449A4B-C9F1-4B1C-BA89-B254DE288BBB}"/>
-    <hyperlink ref="G298" r:id="rId589" xr:uid="{D46FA922-8B5A-4ADD-9F9E-EA562F602C8B}"/>
-    <hyperlink ref="G286" r:id="rId590" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
-    <hyperlink ref="G287" r:id="rId591" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
-    <hyperlink ref="G285" r:id="rId592" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
-    <hyperlink ref="G1302" r:id="rId593" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
-    <hyperlink ref="F1302" r:id="rId594" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
-    <hyperlink ref="F271" r:id="rId595" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
-    <hyperlink ref="G1673" r:id="rId596" xr:uid="{AE6A7506-FAA8-40BF-9933-6205D7B49D14}"/>
-    <hyperlink ref="G273" r:id="rId597" xr:uid="{360691A1-9054-406D-A096-E2E155D90E23}"/>
-    <hyperlink ref="G272" r:id="rId598" xr:uid="{96DCC9DA-A1BD-45FC-8244-D6716BA1D905}"/>
-    <hyperlink ref="G271" r:id="rId599" xr:uid="{385C8BE1-D7F0-48E1-95A7-0C35818FCCD8}"/>
-    <hyperlink ref="G270" r:id="rId600" xr:uid="{0323B75B-C75B-45D4-AE64-C9F75156D116}"/>
-    <hyperlink ref="G269" r:id="rId601" xr:uid="{44C6C6AA-421A-4803-9A43-7B390874B75A}"/>
-    <hyperlink ref="G268" r:id="rId602" xr:uid="{36FB0BEE-2D83-4AA1-AEFA-57209DE733F1}"/>
-    <hyperlink ref="G267" r:id="rId603" xr:uid="{73C348B9-04F6-41D8-8905-D763E1A13D39}"/>
-    <hyperlink ref="G266" r:id="rId604" xr:uid="{EAB2FAAB-F9E3-4971-B689-D6244C1329F0}"/>
-    <hyperlink ref="G265" r:id="rId605" xr:uid="{7E18E7A6-2610-4C63-B5F9-B9E7D8B1A669}"/>
-    <hyperlink ref="G264" r:id="rId606" xr:uid="{EE7DB71E-900D-4223-AA58-6B8D06C230A1}"/>
-    <hyperlink ref="G263" r:id="rId607" xr:uid="{9A90948C-9E76-401B-832B-F20A9C54C3DE}"/>
-    <hyperlink ref="G262" r:id="rId608" xr:uid="{088B3ADE-B96C-4F3D-93B5-A8F11B2B8513}"/>
-    <hyperlink ref="G261" r:id="rId609" xr:uid="{B167801E-9FA4-47B2-B1CA-7DDECE0FDD6A}"/>
-    <hyperlink ref="G260" r:id="rId610" xr:uid="{2D08E3A2-2FA4-4635-898E-94EE14E975BA}"/>
-    <hyperlink ref="G259" r:id="rId611" xr:uid="{EE92FD94-F43F-47A7-B849-B38AAF7E12A0}"/>
-    <hyperlink ref="G252" r:id="rId612" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
-    <hyperlink ref="G253" r:id="rId613" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
-    <hyperlink ref="G254" r:id="rId614" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
-    <hyperlink ref="F239" r:id="rId615" display="https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance" xr:uid="{5F39B841-CC8B-44F1-A5F2-8EE6146C307D}"/>
-    <hyperlink ref="G251" r:id="rId616" xr:uid="{365B81C8-1751-4B75-9CC6-ECFAC78B1E49}"/>
-    <hyperlink ref="F231" r:id="rId617" display="https://philjbonello.substack.com/p/the-sovereign-individual-investment" xr:uid="{8CFD7459-F16F-4992-83A4-F27DB01EAC66}"/>
-    <hyperlink ref="F230" r:id="rId618" display="https://philjbonello.substack.com/p/digital-money" xr:uid="{FF3386AD-5A01-484E-AB4B-B24938C4AC00}"/>
-    <hyperlink ref="F226" r:id="rId619" display="https://rhythmofbitcoin.substack.com/p/a-cashless-future-is-a-dystopia-without" xr:uid="{07C57689-D3FC-4121-98A6-93F2DAD82C21}"/>
-    <hyperlink ref="G250" r:id="rId620" xr:uid="{2EE1B357-E60C-45B9-9CEE-68544A367F08}"/>
-    <hyperlink ref="G249" r:id="rId621" xr:uid="{E92DAF54-A1CD-407F-9960-FA99A125DE5E}"/>
-    <hyperlink ref="G248" r:id="rId622" xr:uid="{CBF7FC3E-2007-4F4E-AC35-47C052353CBE}"/>
-    <hyperlink ref="G246" r:id="rId623" xr:uid="{DE7704B6-672B-49D1-911E-B490E0050F2F}"/>
-    <hyperlink ref="G245" r:id="rId624" xr:uid="{01E80B7B-6F1A-4A15-AC37-7B6C9C24808C}"/>
-    <hyperlink ref="G244" r:id="rId625" xr:uid="{C8C5819A-91F8-4556-96E4-99ECD0F925B2}"/>
-    <hyperlink ref="G243" r:id="rId626" xr:uid="{B6959887-BE99-41D9-8475-24A70F43AB16}"/>
-    <hyperlink ref="G242" r:id="rId627" xr:uid="{1B36DB34-9CCC-4C2A-A4CA-ACA47E2DE508}"/>
-    <hyperlink ref="G240" r:id="rId628" xr:uid="{921095A8-36CB-410D-9D2A-8973557C47F6}"/>
-    <hyperlink ref="G239" r:id="rId629" xr:uid="{80CD66BD-8117-4B53-923C-29CFF6619C94}"/>
-    <hyperlink ref="G238" r:id="rId630" xr:uid="{BECC4351-03F1-4297-AA29-E33126942591}"/>
-    <hyperlink ref="G236" r:id="rId631" xr:uid="{2D020D98-BF85-4D86-979A-CDC3363E9807}"/>
-    <hyperlink ref="G235" r:id="rId632" xr:uid="{9694C19A-452D-4542-8CBE-95F35257503B}"/>
-    <hyperlink ref="G234" r:id="rId633" xr:uid="{8BA32324-4B77-420B-AE30-515B0BAC5C67}"/>
-    <hyperlink ref="G233" r:id="rId634" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
-    <hyperlink ref="G232" r:id="rId635" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
-    <hyperlink ref="G231" r:id="rId636" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
-    <hyperlink ref="G230" r:id="rId637" xr:uid="{BDF76746-FDBF-44EE-A525-73B909EC9345}"/>
-    <hyperlink ref="G229" r:id="rId638" xr:uid="{3E017625-FCF1-4498-850D-541386E1AB24}"/>
-    <hyperlink ref="G228" r:id="rId639" xr:uid="{9A3F1B72-A7AC-4031-B61B-D0EB83B6E508}"/>
-    <hyperlink ref="G227" r:id="rId640" xr:uid="{63415624-457F-4E97-BFA3-73CCB3525134}"/>
-    <hyperlink ref="G226" r:id="rId641" xr:uid="{D427E119-4BE4-48B1-AE6A-14E352E8709F}"/>
-    <hyperlink ref="G225" r:id="rId642" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
-    <hyperlink ref="G224" r:id="rId643" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
-    <hyperlink ref="G223" r:id="rId644" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
-    <hyperlink ref="G219" r:id="rId645" xr:uid="{336AD68E-287A-41A9-892B-C7A7EC2F3875}"/>
-    <hyperlink ref="F218" r:id="rId646" display="https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets" xr:uid="{5AEA4BED-B8F9-4ED9-BCE6-B7AD163E0E25}"/>
-    <hyperlink ref="G604" r:id="rId647" xr:uid="{172B9B5F-15A2-4067-9D0A-F50246509094}"/>
-    <hyperlink ref="G605" r:id="rId648" xr:uid="{3A5C44CE-3028-4D76-B1A2-240C782D9D6B}"/>
-    <hyperlink ref="G606" r:id="rId649" xr:uid="{CE329330-BEE0-452B-B6A5-B1355BF9EEE2}"/>
-    <hyperlink ref="G537" r:id="rId650" xr:uid="{08D18920-21A9-4404-A48B-A07DF75B331C}"/>
-    <hyperlink ref="G534" r:id="rId651" xr:uid="{8C9DBE65-30FC-4B28-935E-486778F8E344}"/>
-    <hyperlink ref="G533" r:id="rId652" xr:uid="{5BAA8C86-AAF2-4234-BE60-CD25BDFD81CA}"/>
-    <hyperlink ref="G532" r:id="rId653" xr:uid="{FC128AE7-9A38-4A3F-B7C7-7836E27BC89D}"/>
-    <hyperlink ref="G529" r:id="rId654" xr:uid="{FDA452A4-46AC-479B-95A9-DD9D57DE9EFB}"/>
-    <hyperlink ref="G531" r:id="rId655" xr:uid="{D57A42BD-9542-4CC2-B8D3-F8B15AEFAE87}"/>
-    <hyperlink ref="G611" r:id="rId656" xr:uid="{C2640952-F7A6-4365-BB7E-D136EE510DA8}"/>
-    <hyperlink ref="G212" r:id="rId657" xr:uid="{86102DEE-C262-40AC-AA3A-AA1B6C7DDAF9}"/>
-    <hyperlink ref="G220" r:id="rId658" xr:uid="{B5954FC3-5697-43A3-AE30-E5B6D8C8788E}"/>
-    <hyperlink ref="G215" r:id="rId659" xr:uid="{E6764CF0-FCC6-4D80-974C-E7B38CAAA3B6}"/>
-    <hyperlink ref="G214" r:id="rId660" xr:uid="{CFD06610-6E9E-404F-91C2-E4722EA341F2}"/>
-    <hyperlink ref="G213" r:id="rId661" xr:uid="{9E73D04F-2608-4548-9A62-C9C51C67D9AD}"/>
-    <hyperlink ref="G210" r:id="rId662" xr:uid="{3836086A-34C1-4950-92E9-382C10CE6315}"/>
-    <hyperlink ref="G209" r:id="rId663" xr:uid="{4116E953-4CB0-46EA-9EF4-AC2A006D6055}"/>
-    <hyperlink ref="G208" r:id="rId664" xr:uid="{FDC72A5E-9D16-4F48-8BBE-EB19A7095BCA}"/>
-    <hyperlink ref="G207" r:id="rId665" xr:uid="{E7CB9562-26A3-429A-974D-D8B875C87B21}"/>
-    <hyperlink ref="G206" r:id="rId666" xr:uid="{CF61FAB0-56DA-470A-B69D-E571A56CE34D}"/>
-    <hyperlink ref="G205" r:id="rId667" xr:uid="{835AD9B4-65B6-447E-A2D5-18CE8274F57D}"/>
-    <hyperlink ref="G204" r:id="rId668" xr:uid="{3A7FC5F4-38DD-40F9-A42A-209969EA595B}"/>
-    <hyperlink ref="G211" r:id="rId669" xr:uid="{D5A2F61A-E2EF-4F54-9CA9-7D70459CB787}"/>
-    <hyperlink ref="G301" r:id="rId670" xr:uid="{6B1E60FE-BF6B-4F69-B147-E1730B161720}"/>
-    <hyperlink ref="F301" r:id="rId671" display="https://moneyordebt.com/2019/09/24/living-on-satoshi-time-what-block-is-it/" xr:uid="{8A87C366-C909-466D-A2AD-55DDA860CC99}"/>
-    <hyperlink ref="G203" r:id="rId672" xr:uid="{B1B3C0B6-F7FF-417B-91F4-90B38EA4A0EC}"/>
-    <hyperlink ref="G202" r:id="rId673" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
-    <hyperlink ref="G201" r:id="rId674" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
-    <hyperlink ref="G216" r:id="rId675" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
-    <hyperlink ref="G195" r:id="rId676" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
-    <hyperlink ref="G199" r:id="rId677" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
-    <hyperlink ref="G218" r:id="rId678" xr:uid="{5BD8B767-E55B-4DE1-8EB1-A809B6B3C2C8}"/>
-    <hyperlink ref="G217" r:id="rId679" xr:uid="{7DE6CFA3-7232-4268-B4B8-371DB50F73B7}"/>
-    <hyperlink ref="G194" r:id="rId680" xr:uid="{C3B57097-9A10-4E73-BA2A-B8ED621008FE}"/>
-    <hyperlink ref="G193" r:id="rId681" xr:uid="{37F0EED8-90A5-4FA5-BA3D-5F60FE73A720}"/>
-    <hyperlink ref="G200" r:id="rId682" xr:uid="{4F2F6454-5B54-4E19-B32B-FC86FE03C09D}"/>
-    <hyperlink ref="G275" r:id="rId683" xr:uid="{60C630BE-1D43-4D24-A558-276A8332DA20}"/>
-    <hyperlink ref="G198" r:id="rId684" xr:uid="{878B9826-13D1-445C-BD7A-644E472C6AD5}"/>
-    <hyperlink ref="G197" r:id="rId685" xr:uid="{BC93470D-D490-4709-AA72-6AD48B01550B}"/>
-    <hyperlink ref="G196" r:id="rId686" xr:uid="{24F9A067-D956-4257-9844-D1D2198F368E}"/>
-    <hyperlink ref="G192" r:id="rId687" xr:uid="{47027714-DF08-4D30-81B0-CE1310674E38}"/>
-    <hyperlink ref="G820" r:id="rId688" xr:uid="{BEE73C3D-3B0E-46A8-846D-E652700A9FD9}"/>
-    <hyperlink ref="G819" r:id="rId689" xr:uid="{43D48259-60BE-4D1C-9935-601D6F549691}"/>
-    <hyperlink ref="G418" r:id="rId690" xr:uid="{A4262CE5-7163-411A-8ED2-21E61DC5055F}"/>
-    <hyperlink ref="G694" r:id="rId691" xr:uid="{4F343EF9-D324-4F26-810A-724CC7AF35DD}"/>
-    <hyperlink ref="G695" r:id="rId692" xr:uid="{E1CC10E7-F47D-4603-B688-B980CA486D4E}"/>
-    <hyperlink ref="G540" r:id="rId693" xr:uid="{9B09966D-A4CB-47B5-A652-A29CB0AFADCF}"/>
-    <hyperlink ref="G541" r:id="rId694" xr:uid="{2E7F1CF2-C27A-4766-83C5-8ABCB43C7B2F}"/>
-    <hyperlink ref="G433" r:id="rId695" xr:uid="{3699D16B-CA0F-44D7-AC91-3FDAB8EBFFFA}"/>
-    <hyperlink ref="G425" r:id="rId696" xr:uid="{66922EC8-2350-4EC6-9F3E-9CDF08F4DAB3}"/>
-    <hyperlink ref="G276" r:id="rId697" xr:uid="{43284B45-4895-49CE-810D-B4707E43244C}"/>
-    <hyperlink ref="G278" r:id="rId698" xr:uid="{9C3AB0F0-34DC-4574-A55C-B7F545DFD135}"/>
-    <hyperlink ref="G279" r:id="rId699" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
-    <hyperlink ref="G841" r:id="rId700" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
-    <hyperlink ref="G160" r:id="rId701" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
-    <hyperlink ref="G665" r:id="rId702" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
-    <hyperlink ref="G842" r:id="rId703" xr:uid="{44942DCC-A950-45B7-836C-EEA3E136F355}"/>
-    <hyperlink ref="G843" r:id="rId704" xr:uid="{00AC84C7-DFB1-4053-8E88-68BFE3D11151}"/>
-    <hyperlink ref="G161" r:id="rId705" xr:uid="{EC30F85A-C055-431E-B3E3-3BD63F7D214D}"/>
-    <hyperlink ref="G1726" r:id="rId706" xr:uid="{5D96298A-58E3-41B7-B4DC-9DAD3771CC71}"/>
-    <hyperlink ref="J1723" r:id="rId707" xr:uid="{9791AC3C-2F39-4961-BD2B-1151401353FF}"/>
-    <hyperlink ref="G696" r:id="rId708" xr:uid="{0B011FA9-9223-4A99-8917-5B83498DB386}"/>
-    <hyperlink ref="G162" r:id="rId709" xr:uid="{7C29B605-5F4C-400A-B52F-8FC63E297196}"/>
-    <hyperlink ref="G163" r:id="rId710" xr:uid="{5208FDCA-1A58-45BD-B9AD-7A028617ECF9}"/>
-    <hyperlink ref="G164" r:id="rId711" xr:uid="{4D3668AF-AFAC-4E90-97AC-DFFF3F5B9540}"/>
-    <hyperlink ref="G165" r:id="rId712" xr:uid="{D82E676D-4308-423C-A453-D0AA7CA1765C}"/>
-    <hyperlink ref="G166" r:id="rId713" xr:uid="{B4D9F81A-82FD-494A-98DA-983A28DDA382}"/>
-    <hyperlink ref="G167" r:id="rId714" xr:uid="{CC8834A2-9A07-4831-B3A0-711AA95C221C}"/>
-    <hyperlink ref="G168" r:id="rId715" xr:uid="{FB856BB7-EA27-4FC7-A057-0CEFF98290C2}"/>
-    <hyperlink ref="G169" r:id="rId716" xr:uid="{F1EE77A5-7834-49D2-A625-818459729FF9}"/>
-    <hyperlink ref="G170" r:id="rId717" xr:uid="{4980F4A9-4EBA-42AC-9C14-1C8034B91C78}"/>
-    <hyperlink ref="G171" r:id="rId718" xr:uid="{DF5820B6-5EAF-4BE2-BC8D-6B146A2F8BC3}"/>
-    <hyperlink ref="G172" r:id="rId719" xr:uid="{D3E2E418-F680-4E58-859D-33BC23636FB9}"/>
-    <hyperlink ref="G173" r:id="rId720" xr:uid="{6F4B9238-DAE5-4663-AC17-C2D0189EB7C9}"/>
-    <hyperlink ref="G174" r:id="rId721" xr:uid="{EB4C6F11-AD3B-44B1-86C0-C70C033FD120}"/>
-    <hyperlink ref="G176" r:id="rId722" xr:uid="{08DBA553-570F-4996-8F6F-BA0E3D2402DD}"/>
-    <hyperlink ref="G175" r:id="rId723" xr:uid="{EF4A4EBB-CFF2-413F-9435-155B91D3DEA7}"/>
-    <hyperlink ref="G177" r:id="rId724" xr:uid="{8C17A067-C326-43CD-A3E1-F00F59836612}"/>
-    <hyperlink ref="G178" r:id="rId725" xr:uid="{7CEA1302-EBC2-4DAF-A94A-116441AFD331}"/>
-    <hyperlink ref="G179" r:id="rId726" xr:uid="{1F6DFFC8-8DA3-4BDB-8A0C-6140C0E91634}"/>
-    <hyperlink ref="F179" r:id="rId727" display="https://6102bitcoin.com/blog/slice-the-pie/" xr:uid="{E42321F9-1636-47A5-B68F-E00CBD426A1C}"/>
-    <hyperlink ref="G180" r:id="rId728" xr:uid="{6464BD8A-0F8B-4C5C-A42B-1DE3E710919D}"/>
-    <hyperlink ref="G181" r:id="rId729" xr:uid="{12293F5D-4911-4A96-9D79-8D4A2C0256F6}"/>
-    <hyperlink ref="G182" r:id="rId730" xr:uid="{10DE4E02-5CDF-4119-8B93-DC1AD9BF4035}"/>
-    <hyperlink ref="G183" r:id="rId731" xr:uid="{85F9C59B-4D05-420F-B3C5-A1AD24D70BE4}"/>
-    <hyperlink ref="G424" r:id="rId732" xr:uid="{E412D02F-DA30-4678-B2F6-00F947608FE8}"/>
-    <hyperlink ref="G1222" r:id="rId733" xr:uid="{9BD107C9-3E2C-41C6-BBD7-DD3305923136}"/>
-    <hyperlink ref="G184" r:id="rId734" xr:uid="{0BF6221B-A89E-4363-B02B-39C7289FD686}"/>
-    <hyperlink ref="G542" r:id="rId735" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
-    <hyperlink ref="G997" r:id="rId736" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
-    <hyperlink ref="G185" r:id="rId737" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
-    <hyperlink ref="F302" r:id="rId738" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
-    <hyperlink ref="G302" r:id="rId739" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
-    <hyperlink ref="G1141" r:id="rId740" location="page=28" display="https://alcor.org/cryonics/Cryonics2016-4.pdf - page=28" xr:uid="{373BE6DF-893C-4B76-86FB-7554DE367903}"/>
-    <hyperlink ref="G2037" r:id="rId741" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
-    <hyperlink ref="G2035" r:id="rId742" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
-    <hyperlink ref="G2029" r:id="rId743" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
-    <hyperlink ref="G2026" r:id="rId744" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
-    <hyperlink ref="G984" r:id="rId745" xr:uid="{491687E0-2017-4889-8B8A-826A9AC9D28E}"/>
-    <hyperlink ref="G1142" r:id="rId746" xr:uid="{2DC554A9-DE55-428D-908A-CB3E7F5A5FD6}"/>
-    <hyperlink ref="F1142" r:id="rId747" display="https://elaineou.com/2016/08/01/the-value-of-settlement-finality/" xr:uid="{D9B3B78A-ECA9-4FBB-8F6C-AED49862FB91}"/>
-    <hyperlink ref="G849" r:id="rId748" xr:uid="{BB2E7301-F6B0-4C89-8EED-F49311888EA6}"/>
-    <hyperlink ref="G1387" r:id="rId749" xr:uid="{3350084D-DE05-40D9-AEE6-9A60BC228A30}"/>
-    <hyperlink ref="G1133" r:id="rId750" xr:uid="{860B04A8-B710-4886-B293-E2773D4D823A}"/>
-    <hyperlink ref="G1382" r:id="rId751" xr:uid="{34107705-C009-4835-B86D-721D6834F6C8}"/>
-    <hyperlink ref="F110" r:id="rId752" display="https://elaineou.com/2020/01/31/be-afraid-be-very-afraid/" xr:uid="{C131BE6A-6D4F-4D5E-BC6C-73421C733A58}"/>
-    <hyperlink ref="G110" r:id="rId753" xr:uid="{F2757DCE-B0BD-4B5B-8CA8-D8BF62E294D1}"/>
-    <hyperlink ref="G831" r:id="rId754" xr:uid="{111F4C84-D598-4185-BD68-DFF9E70074B6}"/>
-    <hyperlink ref="G718" r:id="rId755" xr:uid="{279BD604-D779-4406-A131-C412EE4A4378}"/>
-    <hyperlink ref="G987" r:id="rId756" xr:uid="{21725A1D-9E7F-41DA-B136-180488844502}"/>
-    <hyperlink ref="F1281" r:id="rId757" display="https://elaineou.com/2015/11/19/the-risk-of-bitcoin-money-laundering/" xr:uid="{D9B90FB2-920D-4EFC-854E-81FDBE232A91}"/>
-    <hyperlink ref="G1281" r:id="rId758" xr:uid="{95EA0955-114A-4EA7-8BC7-8D4684BE37AF}"/>
-    <hyperlink ref="G1624" r:id="rId759" xr:uid="{8CEFAB15-6EDB-4CE4-910B-DABDC4768CC0}"/>
-    <hyperlink ref="F876" r:id="rId760" display="https://elaineou.com/2017/12/16/fiatsplaining-bitcoin/" xr:uid="{BA39BD62-1788-43B5-A2E0-306D0775FDAC}"/>
-    <hyperlink ref="G876" r:id="rId761" xr:uid="{FFD73BA8-F708-43BA-B603-F1B1CDAB5905}"/>
-    <hyperlink ref="G832" r:id="rId762" xr:uid="{4B6480DB-2D11-435E-95D7-A7C7297689BE}"/>
-    <hyperlink ref="G963" r:id="rId763" xr:uid="{4982E959-B2AE-4FAC-91F9-200D0802B3B1}"/>
-    <hyperlink ref="G895" r:id="rId764" xr:uid="{BAF1BC03-9350-46E9-84CD-CF3466DB16E7}"/>
-    <hyperlink ref="G280" r:id="rId765" xr:uid="{2DA6477E-1A1A-4C99-91EF-7702CEA929F2}"/>
-    <hyperlink ref="G674" r:id="rId766" xr:uid="{FB870D63-0886-4F9A-8702-9A8094E12FF9}"/>
-    <hyperlink ref="G543" r:id="rId767" xr:uid="{A722AC40-3F2A-4853-99D4-BB575E9A0D4D}"/>
-    <hyperlink ref="G373" r:id="rId768" xr:uid="{3CEA3009-9D97-4C98-9F0D-73F9C974D302}"/>
-    <hyperlink ref="G1353" r:id="rId769" xr:uid="{B34F2AFA-4ECC-4B28-9152-D4EDC549F1D0}"/>
-    <hyperlink ref="G1138" r:id="rId770" xr:uid="{D2B6258D-957D-4CCF-89E0-B4B9A8B4E72A}"/>
-    <hyperlink ref="F419" r:id="rId771" display="https://elaineou.com/2019/06/28/hackers-and-sphincters/" xr:uid="{4BD479E6-C5F4-4D80-BE5C-D62195573791}"/>
-    <hyperlink ref="G419" r:id="rId772" xr:uid="{1CFAF3B9-62E5-4578-8728-6ED0552609CE}"/>
-    <hyperlink ref="G850" r:id="rId773" xr:uid="{2E666137-D4A8-4AB0-98F8-1C4B353A7727}"/>
-    <hyperlink ref="G1433" r:id="rId774" xr:uid="{2B96C620-3E26-46A2-A991-B82E59DCB498}"/>
-    <hyperlink ref="G1053" r:id="rId775" xr:uid="{BCABDF7B-9F0D-4655-968F-4A86452220A6}"/>
-    <hyperlink ref="F1134" r:id="rId776" display="https://elaineou.com/2016/09/25/corrections-redactable-bitcoin/" xr:uid="{92C601D7-56D9-4CC7-9122-03591EB48E8B}"/>
-    <hyperlink ref="G1134" r:id="rId777" xr:uid="{AA047056-A1B6-4A50-96AA-9913BBE81E0C}"/>
-    <hyperlink ref="G1359" r:id="rId778" xr:uid="{A13CD93B-69BD-422C-B785-AB27891D0E46}"/>
-    <hyperlink ref="G111" r:id="rId779" xr:uid="{6770A1E8-983C-432A-B8F4-91BD5861D598}"/>
-    <hyperlink ref="G189" r:id="rId780" xr:uid="{61984DEF-3D18-4E7E-A02F-7B645F749512}"/>
-    <hyperlink ref="G112" r:id="rId781" xr:uid="{6F6A7382-F223-487E-977C-CD153A2B9D49}"/>
-    <hyperlink ref="F113" r:id="rId782" xr:uid="{DE75B92F-6D00-4FCF-99FD-920BB8A2D0C0}"/>
-    <hyperlink ref="G113" r:id="rId783" xr:uid="{6F029F92-7539-4EEE-A0F0-1A197304E70A}"/>
-    <hyperlink ref="G114" r:id="rId784" xr:uid="{E15F2E94-089E-494F-A3CF-59F9A5510F6A}"/>
-    <hyperlink ref="G117" r:id="rId785" xr:uid="{4FBC2B7C-C61A-4B6A-9D3F-AD2CCC4A9C64}"/>
-    <hyperlink ref="G116" r:id="rId786" xr:uid="{D02BA13C-02FF-4069-8245-E9E27E036C1C}"/>
-    <hyperlink ref="G277" r:id="rId787" xr:uid="{48137A1D-8C01-44EA-B288-076786E1D9A6}"/>
-    <hyperlink ref="G126" r:id="rId788" xr:uid="{C2FA1D09-01F7-4538-B5F4-064666AA3B19}"/>
-    <hyperlink ref="G1027" r:id="rId789" xr:uid="{3B574979-9183-42CD-B504-17A64EDAA8BB}"/>
-    <hyperlink ref="G793" r:id="rId790" xr:uid="{2FE41682-EF02-4D46-8074-3ED8F1CADC57}"/>
-    <hyperlink ref="G1588" r:id="rId791" xr:uid="{D9190EFD-6491-4571-9662-8AB0667F21E5}"/>
-    <hyperlink ref="G1071" r:id="rId792" xr:uid="{DAD3BF46-69BC-43F9-97A8-7E3F3EFC356D}"/>
-    <hyperlink ref="G118" r:id="rId793" xr:uid="{FD419121-B228-49D1-B499-A7A662DF6646}"/>
-    <hyperlink ref="G119" r:id="rId794" xr:uid="{3B14D446-5F59-4477-930E-CA8E6761E727}"/>
-    <hyperlink ref="G120" r:id="rId795" xr:uid="{C4DA82F5-2B78-4EE8-A254-97DEEB61848B}"/>
-    <hyperlink ref="G121" r:id="rId796" xr:uid="{C63C5500-5854-4286-BB52-F5901E2DEA0F}"/>
-    <hyperlink ref="G122" r:id="rId797" xr:uid="{8CD284A1-9C41-452D-AE01-88CC504B5520}"/>
-    <hyperlink ref="G115" r:id="rId798" xr:uid="{1AC1B166-43D4-47CD-B118-E394FA83F3DC}"/>
-    <hyperlink ref="G123" r:id="rId799" xr:uid="{5706C3F4-ACC5-46FD-A23D-5B31CF9515F8}"/>
-    <hyperlink ref="G124" r:id="rId800" xr:uid="{6AC4EA10-2FB3-457F-9B50-EAAF08075A3F}"/>
-    <hyperlink ref="G125" r:id="rId801" xr:uid="{D1E99FF9-F7DA-4582-A8D0-8347FB03C127}"/>
-    <hyperlink ref="G127" r:id="rId802" xr:uid="{0A687D87-F547-4850-8FB2-904969650E87}"/>
-    <hyperlink ref="G128" r:id="rId803" xr:uid="{783E92F7-5F0C-4D4D-9365-1281734F655E}"/>
-    <hyperlink ref="G131" r:id="rId804" xr:uid="{E1069364-F00E-4F1F-8D96-7C18CC97C84B}"/>
-    <hyperlink ref="G132" r:id="rId805" xr:uid="{67E524A5-2701-45A9-96D2-F082C5CE9AE5}"/>
-    <hyperlink ref="G429" r:id="rId806" xr:uid="{42351251-B71C-4420-86A3-3087DC9BF5CB}"/>
-    <hyperlink ref="G1289" r:id="rId807" xr:uid="{A20F32B5-B93A-46B2-8E23-B9C68245F5C4}"/>
-    <hyperlink ref="G420" r:id="rId808" xr:uid="{B078F23E-F55A-42AD-8F7F-9DB1D653903D}"/>
-    <hyperlink ref="G129" r:id="rId809" xr:uid="{66D8F8FB-508C-4975-A9D4-16C026E65B6E}"/>
-    <hyperlink ref="F133" r:id="rId810" display="https://twitter.com/zanepocock/status/1228048061789884422" xr:uid="{3875485F-5856-4F44-9EED-8F8D1F5F2333}"/>
-    <hyperlink ref="G133" r:id="rId811" xr:uid="{AB2C4D36-003C-405E-987A-D2E7CB5E53DF}"/>
-    <hyperlink ref="F135" r:id="rId812" display="https://medium.com/knox-blog/why-bitcoin-is-not-a-security-2ffec2f8d481" xr:uid="{4ACCCBA6-4EAB-46A4-A38F-F54791884BD5}"/>
-    <hyperlink ref="G135" r:id="rId813" xr:uid="{4FC9E997-5718-42D5-AE0E-0B450BF2E0EE}"/>
-    <hyperlink ref="G134" r:id="rId814" xr:uid="{3FCC3103-0362-4654-8F5A-5F7C0ED74302}"/>
-    <hyperlink ref="G136" r:id="rId815" xr:uid="{8DB7F1F0-AAF9-4F7E-88E0-94D3E4828008}"/>
-    <hyperlink ref="G137" r:id="rId816" xr:uid="{E9337E06-B548-44F2-921B-35FF392D6F9B}"/>
-    <hyperlink ref="G138" r:id="rId817" xr:uid="{C6DCFD4E-FFB7-4329-9108-3FB13315CE3F}"/>
-    <hyperlink ref="G139" r:id="rId818" xr:uid="{C7DCBD3A-363B-4F7A-AE44-9CD45405E269}"/>
-    <hyperlink ref="G140" r:id="rId819" xr:uid="{710C97D4-6249-4069-AF8D-CF6781B9C05F}"/>
-    <hyperlink ref="G141" r:id="rId820" xr:uid="{525AD316-B72C-4B8C-A13D-168F10D29118}"/>
-    <hyperlink ref="G142" r:id="rId821" xr:uid="{8D4AE489-E534-48CE-9826-CB928B658ACE}"/>
-    <hyperlink ref="G143" r:id="rId822" xr:uid="{385AF78A-6D5B-4839-94C0-931BCD13DC26}"/>
-    <hyperlink ref="G144" r:id="rId823" xr:uid="{8E56E094-460C-4821-9942-E54C51D4CBE0}"/>
-    <hyperlink ref="G303" r:id="rId824" xr:uid="{3A490527-9C7E-4CA2-BBB0-24BD4557ABF5}"/>
-    <hyperlink ref="G130" r:id="rId825" xr:uid="{530235F3-E621-4CD7-BD94-4466B6548997}"/>
-    <hyperlink ref="G145" r:id="rId826" xr:uid="{A0E4CD8E-BBBC-4A6D-A3DF-5556D5C56AF2}"/>
-    <hyperlink ref="G146" r:id="rId827" xr:uid="{B3CBC04A-D93B-4C7D-964E-E1E0D6F80E19}"/>
-    <hyperlink ref="G147" r:id="rId828" xr:uid="{92A38F1C-A045-407D-BCA0-4A9B876399C7}"/>
-    <hyperlink ref="G148" r:id="rId829" xr:uid="{20805AE9-3960-4740-8C18-4F5F2CABC0B4}"/>
-    <hyperlink ref="G149" r:id="rId830" xr:uid="{818B75D6-6D18-416E-BEA6-CD7AE8BAEE95}"/>
-    <hyperlink ref="G109" r:id="rId831" xr:uid="{408EA5BB-EEC6-467F-980E-43BDCF41646F}"/>
-    <hyperlink ref="G434" r:id="rId832" xr:uid="{53E7C097-E2C6-48EA-B963-4159C0ED21EA}"/>
-    <hyperlink ref="G300" r:id="rId833" xr:uid="{F11B3F97-7283-42C8-9E1C-D47EDE6E2886}"/>
-    <hyperlink ref="G1026" r:id="rId834" xr:uid="{31AE34AB-4FE7-4F41-830E-12DAB5D1D142}"/>
-    <hyperlink ref="G675" r:id="rId835" xr:uid="{11AF1195-59BE-43AB-995C-B10527F76EB0}"/>
-    <hyperlink ref="G844" r:id="rId836" xr:uid="{7055A1D7-703E-4A27-9210-23C0C8029698}"/>
-    <hyperlink ref="G1076" r:id="rId837" xr:uid="{84BB7BB3-D24C-4B05-B7CF-BDC7E257371B}"/>
-    <hyperlink ref="G847" r:id="rId838" xr:uid="{029E66B4-FB45-45A0-993B-F271E2040D5B}"/>
-    <hyperlink ref="G848" r:id="rId839" xr:uid="{1897C62E-CB0B-414F-897B-D68ED6BC0FAE}"/>
-    <hyperlink ref="G63" r:id="rId840" xr:uid="{C5CD6954-C172-4761-8447-B494A83C65F5}"/>
-    <hyperlink ref="G64" r:id="rId841" xr:uid="{CF874628-5106-4BA8-BEB7-2223175983CE}"/>
-    <hyperlink ref="G65" r:id="rId842" xr:uid="{1F3AA423-6380-44AD-A8FB-184808C7EDDF}"/>
-    <hyperlink ref="G66" r:id="rId843" xr:uid="{AD0ADE70-96FD-41DA-9093-048BB85C579C}"/>
-    <hyperlink ref="G67" r:id="rId844" xr:uid="{C0527B1F-C99B-4F64-8C99-B62B9FE54211}"/>
-    <hyperlink ref="G68" r:id="rId845" xr:uid="{679A5008-7B6D-490B-BEC7-EE4EF9271CA5}"/>
-    <hyperlink ref="G69" r:id="rId846" xr:uid="{6E3C155E-6EFF-448A-839C-3BC33B7B5128}"/>
-    <hyperlink ref="G70" r:id="rId847" xr:uid="{215C7B39-CCB4-412E-B49A-89E053C81F23}"/>
-    <hyperlink ref="G71" r:id="rId848" xr:uid="{017BFEB0-1D17-4DC5-92D7-D1F350F4061D}"/>
-    <hyperlink ref="G106" r:id="rId849" xr:uid="{ED5EE03A-9AF8-401B-8FAC-9D92E77E3540}"/>
-    <hyperlink ref="G72" r:id="rId850" xr:uid="{5A92C4CD-10E0-4409-BAB7-369F6622FED2}"/>
-    <hyperlink ref="G73" r:id="rId851" xr:uid="{FD2082D1-6525-4EF9-BDE0-64D078A633D2}"/>
-    <hyperlink ref="G74" r:id="rId852" xr:uid="{B8A54F9D-5027-489D-98D7-5FCDE655C674}"/>
-    <hyperlink ref="G75" r:id="rId853" xr:uid="{07064045-B275-4D19-9188-750B06F6C55A}"/>
-    <hyperlink ref="G76" r:id="rId854" xr:uid="{2476742D-2D51-40FF-A849-E055BD386F3D}"/>
-    <hyperlink ref="G77" r:id="rId855" xr:uid="{A0504223-4473-4320-AD4A-AC4EEA34320C}"/>
-    <hyperlink ref="G78" r:id="rId856" xr:uid="{84D760CA-E6AC-4F1C-89CD-DCDF600E0CC7}"/>
-    <hyperlink ref="G79" r:id="rId857" xr:uid="{346940F8-DC69-4523-A6D7-D6C0891FCA2E}"/>
-    <hyperlink ref="G80" r:id="rId858" xr:uid="{E6C8CACF-62F5-4836-A995-4C1BDDB8C1D5}"/>
-    <hyperlink ref="G81" r:id="rId859" xr:uid="{B558F964-1489-4394-B4AB-00E455B7C061}"/>
-    <hyperlink ref="G82" r:id="rId860" xr:uid="{CD893FB6-F875-4AC4-8718-74823E379F1E}"/>
-    <hyperlink ref="G1202" r:id="rId861" xr:uid="{207F951D-E335-4D46-99DB-AC4BCE002377}"/>
-    <hyperlink ref="G83" r:id="rId862" xr:uid="{78E8B405-DDFE-4523-9C17-E439E7A35F28}"/>
-    <hyperlink ref="G84" r:id="rId863" xr:uid="{AAEE7045-6330-47B9-8475-DB8237DE03A9}"/>
-    <hyperlink ref="G85" r:id="rId864" xr:uid="{6575E818-E0EC-4AA0-B696-5D4A5A0064FE}"/>
-    <hyperlink ref="G737" r:id="rId865" xr:uid="{094A3E5D-774A-4A44-AEE6-B18414CEB11C}"/>
-    <hyperlink ref="G86" r:id="rId866" xr:uid="{DE5762B5-CF8F-46D0-897A-F1904E5BC369}"/>
-    <hyperlink ref="G1500" r:id="rId867" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
-    <hyperlink ref="G88" r:id="rId868" xr:uid="{5C68A9B9-18DC-41F0-8C6D-9E60CE63CB05}"/>
-    <hyperlink ref="G89" r:id="rId869" xr:uid="{4B6A94FC-7D29-4B61-91D2-D3DC6499A189}"/>
-    <hyperlink ref="G90" r:id="rId870" xr:uid="{508B6E8E-A802-44FD-A125-7F731995B4E9}"/>
-    <hyperlink ref="G91" r:id="rId871" xr:uid="{2115F3F4-4000-4EC4-8B61-BF652751FDBC}"/>
-    <hyperlink ref="G92" r:id="rId872" xr:uid="{3643B3BB-DBA0-44C1-A7CA-F218E4880BFE}"/>
-    <hyperlink ref="G93" r:id="rId873" xr:uid="{1E0F9459-375E-4FB2-BE7B-8D11FA7FB11C}"/>
-    <hyperlink ref="G94" r:id="rId874" xr:uid="{FCE80168-1D39-4B3A-A122-76EB477DB067}"/>
-    <hyperlink ref="G95" r:id="rId875" xr:uid="{F2A15B36-F99D-40C5-B0F0-CB4CCBD5F12B}"/>
-    <hyperlink ref="G96" r:id="rId876" xr:uid="{969BC453-5804-4D0F-8AEC-4FB1CF33AB83}"/>
-    <hyperlink ref="G97" r:id="rId877" xr:uid="{AA195322-351D-42B5-8AD9-E29B62FAD157}"/>
-    <hyperlink ref="G98" r:id="rId878" xr:uid="{52C83D6A-C363-4B79-B40C-B7A4C77F6583}"/>
-    <hyperlink ref="G6" r:id="rId879" xr:uid="{33E9A75B-7A5E-4563-BF5A-4D38BCB32A4B}"/>
-    <hyperlink ref="G62" r:id="rId880" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
-    <hyperlink ref="G61" r:id="rId881" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
-    <hyperlink ref="G60" r:id="rId882" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
-    <hyperlink ref="G99" r:id="rId883" xr:uid="{D6336EF7-B909-4B9B-9CD2-6D39BABB29B3}"/>
-    <hyperlink ref="E9" r:id="rId884" display="https://twitter.com/StefenReid" xr:uid="{47FAA099-3DEA-4B79-AA12-803C0A828741}"/>
-    <hyperlink ref="G9" r:id="rId885" xr:uid="{6A7CC8A8-E6D6-4C37-8514-B0D04E76916C}"/>
-    <hyperlink ref="G10" r:id="rId886" xr:uid="{5C871EEA-C84A-4C34-B253-376C512E8FBE}"/>
-    <hyperlink ref="G11" r:id="rId887" xr:uid="{CE4C5B2E-1090-4C6D-9CE3-1960B86FF466}"/>
-    <hyperlink ref="G12" r:id="rId888" xr:uid="{911C22C7-285D-4CA4-883B-70561F32EA38}"/>
-    <hyperlink ref="G13" r:id="rId889" xr:uid="{D36ABD2A-4CCF-4648-8B8F-E126B979E332}"/>
-    <hyperlink ref="G14" r:id="rId890" xr:uid="{41B8C214-456D-4719-BF02-D162957654DD}"/>
-    <hyperlink ref="G15" r:id="rId891" xr:uid="{FF0C74F1-C298-44F0-B293-55E1149DA5E1}"/>
-    <hyperlink ref="G16" r:id="rId892" xr:uid="{11EA88F4-B610-417A-A473-2249A6D9051E}"/>
-    <hyperlink ref="G17" r:id="rId893" xr:uid="{3782AD18-DD2F-44DA-B5C5-19686D3B6BCA}"/>
-    <hyperlink ref="G18" r:id="rId894" xr:uid="{3D81BA85-6ACB-4F0C-B3FC-0723210BD158}"/>
-    <hyperlink ref="G19" r:id="rId895" xr:uid="{86EF274A-30F2-43A7-A1E0-F1E6109FD19D}"/>
-    <hyperlink ref="G20" r:id="rId896" xr:uid="{57913861-B006-46D1-B72B-0A41DBA7C486}"/>
-    <hyperlink ref="G21" r:id="rId897" xr:uid="{DC9DA46D-F978-4547-8FEB-D77D3035E2C8}"/>
-    <hyperlink ref="G22" r:id="rId898" xr:uid="{DB097202-9AF3-4DF3-8037-A80ECC185BF2}"/>
-    <hyperlink ref="G23" r:id="rId899" xr:uid="{EEBC7D17-972E-4C77-8145-A550407166FC}"/>
-    <hyperlink ref="G24" r:id="rId900" xr:uid="{5FE4EB87-F843-4EA2-8B97-7D8D2A2F7DB1}"/>
-    <hyperlink ref="G25" r:id="rId901" xr:uid="{B3A84070-AF96-4DFC-B48A-E4C6839ECC41}"/>
-    <hyperlink ref="G26" r:id="rId902" xr:uid="{8BAF302A-B323-4DF0-B106-39BFB435A483}"/>
-    <hyperlink ref="G27" r:id="rId903" xr:uid="{A8AD6C34-B269-4FC7-9957-97A88241481D}"/>
-    <hyperlink ref="G28" r:id="rId904" xr:uid="{61F553EC-39A9-438B-8D01-97A916DBA451}"/>
-    <hyperlink ref="G29" r:id="rId905" xr:uid="{4CA4151D-E396-4FE9-8EFE-D1139341430F}"/>
-    <hyperlink ref="F30" r:id="rId906" display="https://a16z.com/2020/04/18/its-time-to-build/" xr:uid="{331BD6F2-823C-4A07-9E0B-35ABAEB5DF62}"/>
-    <hyperlink ref="G30" r:id="rId907" xr:uid="{22A6D03D-8B61-438B-8B36-606C401DB34D}"/>
-    <hyperlink ref="G31" r:id="rId908" xr:uid="{779A6D12-986B-48EB-BACB-97B29DE844CF}"/>
-    <hyperlink ref="G32" r:id="rId909" xr:uid="{4626499B-90D1-4703-A9E6-67C6819B2414}"/>
-    <hyperlink ref="G33" r:id="rId910" xr:uid="{1AF722ED-FD5C-4251-B8A1-5A0A3ACA727D}"/>
-    <hyperlink ref="G34" r:id="rId911" xr:uid="{14570975-1183-473F-944D-43F6AA334FA8}"/>
-    <hyperlink ref="G35" r:id="rId912" xr:uid="{4B39DFD6-7D7B-405C-B9F6-F0E65CA1971A}"/>
-    <hyperlink ref="G36" r:id="rId913" xr:uid="{90FA9A91-7FF3-4B3D-90BF-D4CFEC5208A6}"/>
-    <hyperlink ref="G37" r:id="rId914" xr:uid="{C10AF893-F02C-4F66-9680-EFDA51BAFD66}"/>
-    <hyperlink ref="G38" r:id="rId915" xr:uid="{DA8B9B1A-6908-4281-AAD6-502E318ABD00}"/>
-    <hyperlink ref="G39" r:id="rId916" xr:uid="{95C8DB88-5812-4E4A-B28B-E761876E32D7}"/>
-    <hyperlink ref="G40" r:id="rId917" xr:uid="{19D13271-9F80-47D7-9C06-77CA90D68085}"/>
-    <hyperlink ref="G42" r:id="rId918" xr:uid="{8BB9245D-434A-436A-B9AA-10256F56CCCB}"/>
-    <hyperlink ref="G43" r:id="rId919" xr:uid="{AF4EB408-246A-4BD8-A7E9-4F4D4CFB5912}"/>
-    <hyperlink ref="G44" r:id="rId920" xr:uid="{E0A7D83C-28B0-44F2-931F-12A5793506DF}"/>
-    <hyperlink ref="G45" r:id="rId921" xr:uid="{C9616753-B2C0-4C0A-9298-63BD2E321345}"/>
-    <hyperlink ref="G46" r:id="rId922" xr:uid="{7DBF72C5-5E34-4FBD-9552-3F4E11F4155B}"/>
-    <hyperlink ref="G41" r:id="rId923" xr:uid="{7D466483-D40F-4AF1-A73E-3DC53491E3B9}"/>
-    <hyperlink ref="F729" r:id="rId924" display="https://medium.com/@erikcason/crypto-truth-and-power-a3e08a51c77" xr:uid="{3772A21C-74AB-4279-B167-2C3D918B5F55}"/>
-    <hyperlink ref="G729" r:id="rId925" xr:uid="{59B31F42-762A-4A52-A8C5-F2C60B6C80B3}"/>
-    <hyperlink ref="G47" r:id="rId926" xr:uid="{67F2519D-B321-442B-B94E-8E76684CBADE}"/>
-    <hyperlink ref="G48" r:id="rId927" xr:uid="{88AE2CD2-98A0-4F89-B410-23E9F372D919}"/>
-    <hyperlink ref="G779" r:id="rId928" xr:uid="{4C0215E0-167B-42CC-97B0-0477A6D95BAA}"/>
-    <hyperlink ref="G780" r:id="rId929" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
-    <hyperlink ref="G791" r:id="rId930" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
-    <hyperlink ref="G790" r:id="rId931" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
-    <hyperlink ref="G282" r:id="rId932" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
-    <hyperlink ref="G378" r:id="rId933" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
-    <hyperlink ref="G538" r:id="rId934" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
-    <hyperlink ref="G539" r:id="rId935" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
-    <hyperlink ref="G1977" r:id="rId936" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
-    <hyperlink ref="G1939" r:id="rId937" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
-    <hyperlink ref="G1932" r:id="rId938" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
-    <hyperlink ref="G1928" r:id="rId939" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
-    <hyperlink ref="G1926" r:id="rId940" location="selection-129.0-129.70" xr:uid="{F73193B1-3F1B-49EF-AE5F-95D42063A433}"/>
-    <hyperlink ref="G1925" r:id="rId941" display="https://web.archive.org/web/20110529123206/http:/www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/" xr:uid="{27280835-3861-41A2-AFD0-27469D9E3BC8}"/>
-    <hyperlink ref="H1952" r:id="rId942" tooltip="Permalink to The Economics Of Bitcoin – Why Mainstream Economists Lie About Deflation" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/11/the-economics-of-bitcoin-why-mainstream-economist-lie-about-deflation/" xr:uid="{C9BB1019-840A-4C7A-96AB-E6BB3586946F}"/>
-    <hyperlink ref="H1953" r:id="rId943" tooltip="Permalink to The Economics Of Bitcoin – How Bitcoins Act As Money" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/18/the-economics-of-bitcoin-how-bitcoins-act-as-money/" xr:uid="{3D69A025-870E-4057-8C0E-9E1047F58139}"/>
-    <hyperlink ref="H1954" r:id="rId944" tooltip="Permalink to Against The Gold Standard" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/21/against-the-gold-standard/" xr:uid="{2B99D4B0-EE4E-4C71-8B13-A35470FE6FED}"/>
-    <hyperlink ref="H1955" r:id="rId945" tooltip="Permalink to The Economics Of Bitcoin – Doug Casey Gets It Wrong" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/23/the-economics-of-bitcoin-doug-casey-gets-it-wrong/" xr:uid="{6199A485-B113-4D2F-9CEF-1FEF37E8F481}"/>
-    <hyperlink ref="H1956" r:id="rId946" tooltip="Permalink to The Economics Of Bitcoin – Resource Allocation And Interest Rate Distortion" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/06/the-economics-of-bitcoin-resource-allocation-and-interest-rate-distortion/" xr:uid="{2CF4A7B6-D073-4D79-ADDB-65B6CBCDDAA2}"/>
-    <hyperlink ref="H1957" r:id="rId947" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/07/the-economics-of-bitcoin-challenging-mises-regression-theorem/" xr:uid="{1DD820B1-71AB-420F-99E9-1A93A206B2F2}"/>
-    <hyperlink ref="H1958" r:id="rId948" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem – Prof. George Selgin Responds" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/22/the-economics-of-bitcoin-%e2%80%93-challenging-mises%e2%80%99-regression-theorem-prof-george-selgin-responds/" xr:uid="{D9293E01-5E48-4F1B-A3E2-B06E1D0F4AF8}"/>
-    <hyperlink ref="H1959" r:id="rId949" tooltip="Permalink to Why Do People Want A Gold Standard When History Shows Us It Does Not Last?" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/12/01/why-do-people-want-a-gold-standard-when-history-shows-us-it-does-not-last/" xr:uid="{AA57D766-2716-48B5-BC09-108B9712092A}"/>
-    <hyperlink ref="G1927" r:id="rId950" xr:uid="{43C5ECEC-F2C2-410D-85ED-D16C715774CF}"/>
-    <hyperlink ref="G1924" r:id="rId951" xr:uid="{5A8121F1-5905-46DA-BB3D-7159D3CACAF8}"/>
+    <hyperlink ref="G814" r:id="rId442" xr:uid="{9592C351-F3F2-472A-A885-95D436F839F2}"/>
+    <hyperlink ref="G824" r:id="rId443" xr:uid="{ADAA69EC-42B1-45FF-BB61-47725B089670}"/>
+    <hyperlink ref="G825" r:id="rId444" xr:uid="{47712E4D-BA8B-492B-AE58-BCA39C0FF8CC}"/>
+    <hyperlink ref="G826" r:id="rId445" xr:uid="{F01488CE-4800-45D3-A296-94E9103BF0E4}"/>
+    <hyperlink ref="G828" r:id="rId446" xr:uid="{E3E7E7F2-D167-48A3-9237-EAFDD9EC7FB0}"/>
+    <hyperlink ref="G1895" r:id="rId447" xr:uid="{1888FFEE-136E-4F87-90FB-97A3BA77DA79}"/>
+    <hyperlink ref="F1815" r:id="rId448" tooltip="Permanent Link to The problem of too much money" display="http://trilema.com/2012/the-problem-of-too-much-money/" xr:uid="{E6BD1EE1-F418-41EE-8304-77FF8BBAE0E5}"/>
+    <hyperlink ref="F1823" r:id="rId449" tooltip="Permanent Link to The problem with PMBs, ie &quot;Perpetual Mining Bonds&quot;" display="http://trilema.com/2012/the-problem-with-pmbs-ie-perpetual-mining-bonds/" xr:uid="{8B4CC394-E319-4B77-A0D4-3279C0651CBF}"/>
+    <hyperlink ref="F1824" r:id="rId450" tooltip="Permanent Link to The reasons why Bitcoin securities can't be regulated by the SEC" display="http://trilema.com/2012/the-reasons-why-bitcoin-securities-cant-be-regulated-by-the-sec/" xr:uid="{B6CCB366-2CD3-439B-AE50-466BA420A33E}"/>
+    <hyperlink ref="F1825" r:id="rId451" tooltip="Permanent Link to The politics of Bitcoin" display="http://trilema.com/2012/the-politics-of-bitcoin/" xr:uid="{72B21C4B-CDFB-4B97-A421-D2AE2E1F401B}"/>
+    <hyperlink ref="F1826" r:id="rId452" tooltip="Permanent Link to Bribes in Bitcoins" display="http://trilema.com/2012/bribes-in-bitcoins/" xr:uid="{7CAC378C-D4AA-4695-847A-B4D7227C1695}"/>
+    <hyperlink ref="F1827" r:id="rId453" tooltip="Permanent Link to Bitcoin is creating a whole new set of problems" display="http://trilema.com/2012/bitcoin-is-creating-a-whole-new-set-of-problems/" xr:uid="{ECCCAEB9-A9C8-4814-8364-7A173B261450}"/>
+    <hyperlink ref="F1828" r:id="rId454" tooltip="Permanent Link to GPG contracts" display="http://trilema.com/2012/gpg-contracts/" xr:uid="{F064F204-C6AF-4680-ABDE-D0B520E134F6}"/>
+    <hyperlink ref="F1829" r:id="rId455" tooltip="Permanent Link to The Chain of Lol" display="http://trilema.com/2012/the-chain-of-lol/" xr:uid="{DC3897C2-4A18-488E-A926-9A02E50B8B5D}"/>
+    <hyperlink ref="F1830" r:id="rId456" tooltip="Permanent Link to Let's dig a little deeper into this entire deflation &quot;problem&quot;" display="http://trilema.com/2012/lets-dig-a-little-deeper-into-this-entire-deflation-problem/" xr:uid="{6A9E1AE7-3264-45F8-86AB-4D62A86D8B00}"/>
+    <hyperlink ref="F1812" r:id="rId457" tooltip="Permanent Link to Bitcoin and the poor" display="http://trilema.com/2012/bitcoin-and-the-poor/" xr:uid="{432C2484-7920-43BE-BC59-2CA798D45CD5}"/>
+    <hyperlink ref="F1813" r:id="rId458" tooltip="Permanent Link to A message to Bitcoin wanna-be scammers" display="http://trilema.com/2012/a-message-to-bitcoin-wanna-be-scammers/" xr:uid="{AF0C7AFC-60D4-4FB2-9416-7BE080A4262C}"/>
+    <hyperlink ref="F1814" r:id="rId459" tooltip="Permanent Link to What are the Bitcoin market drivers ?" display="http://trilema.com/2012/what-are-the-bitcoin-market-drivers/" xr:uid="{FA1CA42E-C1B6-462E-99BF-1731970B3A9C}"/>
+    <hyperlink ref="F1807" r:id="rId460" tooltip="Permanent Link to Probably the hottest business idea of the moment in BTC..." display="http://trilema.com/2012/probably-the-hottest-business-idea-of-the-moment-in-btc/" xr:uid="{90FBF645-98ED-4F91-A884-5F175EE90256}"/>
+    <hyperlink ref="F1789" r:id="rId461" tooltip="Permanent Link to The question of the year in BTC" display="http://trilema.com/2013/the-question-of-the-year-in-btc/" xr:uid="{1B5061B4-70E3-4B7B-9695-11C8D877D846}"/>
+    <hyperlink ref="F1790" r:id="rId462" tooltip="Permanent Link to How to hedge as a miner" display="http://trilema.com/2013/how-to-hedge-as-a-miner/" xr:uid="{FBFAD56D-51D7-4487-BEF8-BA05CCE6A9F3}"/>
+    <hyperlink ref="F1784" r:id="rId463" tooltip="Permanent Link to Bitcoin prices, Bitcoin inflexibility" display="http://trilema.com/2013/bitcoin-prices-bitcoin-inflexibility/" xr:uid="{8A5C15E8-760D-4D32-9CDF-4CB40654D8FC}"/>
+    <hyperlink ref="F1785" r:id="rId464" tooltip="Permanent Link to Fiat vs Bitcoin, a comparison." display="http://trilema.com/2013/fiat-vs-bitcoin-a-comparison/" xr:uid="{D8AF65C0-7895-478F-B75E-B5B9224FEED1}"/>
+    <hyperlink ref="F1786" r:id="rId465" tooltip="Permanent Link to The Free Cash Machine" display="http://trilema.com/2013/the-free-cash-machine/" xr:uid="{E7AAE722-EBFA-4A43-B49C-286BC79B701B}"/>
+    <hyperlink ref="F1787" r:id="rId466" tooltip="Permanent Link to Permanently elevated plateau" display="http://trilema.com/2013/permanently-elevated-plateau/" xr:uid="{36220AAF-6ABE-442F-B75B-EC3A22AC46CC}"/>
+    <hyperlink ref="F1759" r:id="rId467" tooltip="Permanent Link to Digging through archives yields gold" display="http://trilema.com/2013/digging-through-archives-yields-gold/" xr:uid="{C5276DD0-3081-45B1-A42D-5D4652DB5DA3}"/>
+    <hyperlink ref="F1760" r:id="rId468" tooltip="Permanent Link to Steganography, or the simple yet strong brain wallet" display="http://trilema.com/2013/steganography-or-the-simple-yet-strong-brain-wallet/" xr:uid="{202B16F3-90BB-48A0-8294-1FC9D2DB5942}"/>
+    <hyperlink ref="F1761" r:id="rId469" tooltip="Permanent Link to Strategic superiority - the saga continues" display="http://trilema.com/2013/strategic-superiority-the-saga-continues/" xr:uid="{849FFF10-8839-4A79-BD72-CAB2D8089716}"/>
+    <hyperlink ref="F1727" r:id="rId470" tooltip="Permanent Link to People! Bitcoin is not worth 100+ dollars per. STOP BUYING!" display="http://trilema.com/2013/people-bitcoin-is-not-worth-100-dollars-per-stop-buying/" xr:uid="{8FFF1055-A065-4F0B-87D8-C118F218382D}"/>
+    <hyperlink ref="F1728" r:id="rId471" tooltip="Permanent Link to It's been an epic few days: What happened?" display="http://trilema.com/2013/its-been-an-epic-few-days-what-happened/" xr:uid="{80685439-F3E2-415E-9294-039780EF771E}"/>
+    <hyperlink ref="F1729" r:id="rId472" tooltip="Permanent Link to The broad and the million fireants. A parable." display="http://trilema.com/2013/the-broad-and-the-million-fireants-a-parable/" xr:uid="{4F347966-B767-4383-901C-3E76D42291AF}"/>
+    <hyperlink ref="F1730" r:id="rId473" tooltip="Permanent Link to The Bitcoiner's Press Manual" display="http://trilema.com/2013/the-bitcoiners-press-manual/" xr:uid="{3CB5DC3E-74E2-45B6-A1B4-4845B2D85853}"/>
+    <hyperlink ref="F1731" r:id="rId474" tooltip="Permanent Link to Grave concerns re MtGox" display="http://trilema.com/2013/grave-concerns-re-mtgox/" xr:uid="{447E79C6-5DA2-451D-9671-DB68EA5640C0}"/>
+    <hyperlink ref="F1732" r:id="rId475" tooltip="Permanent Link to In which noobs learn lessons and pay for the privilege" display="http://trilema.com/2013/in-which-noobs-learn-lessons-and-pay-for-the-privilege/" xr:uid="{42602F8E-8596-48B7-980F-A9AEE9C8DFC7}"/>
+    <hyperlink ref="F1733" r:id="rId476" tooltip="Permanent Link to I have a problem which I don't know how to resolve. So do you." display="http://trilema.com/2013/i-have-a-problem-which-i-dont-know-how-to-resolve-so-do-you/" xr:uid="{039719CF-47B3-4807-8E27-3621524A0396}"/>
+    <hyperlink ref="F1734" r:id="rId477" tooltip="Permanent Link to Mind your step." display="http://trilema.com/2013/mind-your-step/" xr:uid="{E89C8844-767A-42FF-A604-C004F6F378EA}"/>
+    <hyperlink ref="F1735" r:id="rId478" tooltip="Permanent Link to The future of Bitcoin regulation" display="http://trilema.com/2013/the-future-of-bitcoin-regulation/" xr:uid="{27E8ED36-66CB-4703-9ED6-573A4F417E60}"/>
+    <hyperlink ref="F1717" r:id="rId479" tooltip="Permanent Link to Some basic discussion of Bitcoin macroeconomy" display="http://trilema.com/2013/some-basic-discussion-of-bitcoin-macroeconomy/" xr:uid="{F11F3337-5C3A-4754-8DCE-D8B83B1D9045}"/>
+    <hyperlink ref="B1709" r:id="rId480" tooltip="Permanent Link to The state, banking and Bitcoin" display="http://trilema.com/2013/the-state-banking-and-bitcoin/" xr:uid="{814BB311-E459-4326-9B1E-33E9080116E8}"/>
+    <hyperlink ref="F1709" r:id="rId481" tooltip="Permanent Link to The state, banking and Bitcoin" display="http://trilema.com/2013/the-state-banking-and-bitcoin/" xr:uid="{EE07D495-F0BF-4272-8F3A-45EEF6B445B3}"/>
+    <hyperlink ref="F1710" r:id="rId482" tooltip="Permanent Link to In re noobs and conventions" display="http://trilema.com/2013/in-re-noobs-and-conventions/" xr:uid="{0B2E7891-87FA-4CDB-9E4C-C4FD5D9222F3}"/>
+    <hyperlink ref="F1668" r:id="rId483" tooltip="Permanent Link to One hundred years of Bitcoin finance" display="http://trilema.com/2013/one-hundred-years-of-bitcoin-finance/" xr:uid="{DC1F99E4-6880-4843-90FF-D5929DF48B4C}"/>
+    <hyperlink ref="F1648" r:id="rId484" tooltip="Permanent Link to Why you need Bitcoin, simply put." display="http://trilema.com/2013/why-you-need-bitcoin-simply-put/" xr:uid="{1D33BE49-F793-480F-9C05-8DA3F8D97C6A}"/>
+    <hyperlink ref="F1649" r:id="rId485" tooltip="Permanent Link to Things that matter these days ; things that don't matter these days." display="http://trilema.com/2013/things-that-matter-these-days-things-that-dont-matter-these-days/" xr:uid="{85691189-83AD-417E-9202-604C3F1A1421}"/>
+    <hyperlink ref="F1618" r:id="rId486" tooltip="Permanent Link to Bitcoin will die" display="http://trilema.com/2013/bitcoin-will-die/" xr:uid="{7CCECB2F-7E55-4FA2-B956-10419447610C}"/>
+    <hyperlink ref="F1628" r:id="rId487" tooltip="Permanent Link to Bitcoin as replacement for the electoral system" display="http://trilema.com/2013/bitcoin-as-replacement-for-the-electoral-system/" xr:uid="{6F473BB0-794C-4EBB-83D0-F1EC3C500809}"/>
+    <hyperlink ref="F1568" r:id="rId488" tooltip="Permanent Link to Guidance : There Is No Such Thing As Bitcoin Taint." display="http://trilema.com/2014/guidance-there-is-no-such-thing-as-bitcoin-taint/" xr:uid="{0E0B14BA-A816-4AF9-9C43-01BCEC5ED3D8}"/>
+    <hyperlink ref="F1551" r:id="rId489" tooltip="Permanent Link to The battlefield of the future" display="http://trilema.com/2014/the-battlefield-of-the-future/" xr:uid="{A6DA12BF-29D6-4AED-B106-19C7999BB961}"/>
+    <hyperlink ref="F1552" r:id="rId490" tooltip="Permanent Link to An era ends today. A new era starts today." display="http://trilema.com/2014/an-era-ends-today-a-new-era-starts-today/" xr:uid="{BD9A507E-57C5-4A3F-84C3-5C45B3600794}"/>
+    <hyperlink ref="F1535" r:id="rId491" tooltip="Permanent Link to A complete theory of economics" display="http://trilema.com/2014/a-complete-theory-of-economics/" xr:uid="{06227438-0492-4F88-AF18-A125AAD1E9DA}"/>
+    <hyperlink ref="F1534" r:id="rId492" tooltip="Permanent Link to The discreet escort, or how Bitcoin makes prostitution unprosecutable" display="http://trilema.com/2014/the-discreet-escort-or-how-bitcoin-makes-prostitution-unprosecutable/" xr:uid="{0414ED8D-5FCC-48DB-86BA-9B2BCC34339E}"/>
+    <hyperlink ref="F1531" r:id="rId493" tooltip="Permanent Link to The sins of the group of posers behind the so called &quot;Bitcoin Foundation&quot;" display="http://trilema.com/2014/the-sins-of-the-group-of-posers-behind-the-so-called-bitcoin-foundation/" xr:uid="{F1BB9CDC-5684-493B-83B3-0771A2F33547}"/>
+    <hyperlink ref="F1516" r:id="rId494" tooltip="Permanent Link to The idea that Bitcoin is a sovereign..." display="http://trilema.com/2014/the-idea-that-bitcoin-is-a-sovereign/" xr:uid="{E4089F18-AF4F-471A-B183-BA9B72151684}"/>
+    <hyperlink ref="G1516" r:id="rId495" xr:uid="{7620D5E1-0056-4BD2-AE0D-A99E52DF3CEC}"/>
+    <hyperlink ref="F1494" r:id="rId496" tooltip="Permanent Link to The problem of enforcement" display="http://trilema.com/2014/the-problem-of-enforcement/" xr:uid="{DF3B092E-75D5-4831-94BC-E85752341FF9}"/>
+    <hyperlink ref="G1492" r:id="rId497" xr:uid="{796BFA37-4AAB-48E4-AC28-94A5D1D207DF}"/>
+    <hyperlink ref="F1476" r:id="rId498" tooltip="Permanent Link to Time for some Bitlicenses of our own." display="http://trilema.com/2014/time-for-some-bitlicenses-of-our-own/" xr:uid="{225AB33B-A43C-4805-B781-75C3EAB83936}"/>
+    <hyperlink ref="F1469" r:id="rId499" tooltip="Permanent Link to The woes of Altcoin, or why there is no such thing as &quot;cryptocurrencies&quot;" display="http://trilema.com/2014/the-woes-of-altcoin-or-why-there-is-no-such-thing-as-cryptocurrencies/" xr:uid="{FD3B43EA-187F-432D-955C-233EA184031B}"/>
+    <hyperlink ref="F1461" r:id="rId500" tooltip="Permanent Link to A humble proposal to Bitcoin miners" display="http://trilema.com/2014/a-humble-proposal-to-bitcoin-miners/" xr:uid="{AF121DC6-378F-4EC7-9BD8-4D5432F700F2}"/>
+    <hyperlink ref="F1439" r:id="rId501" tooltip="Permanent Link to USGavin, the lolcow" display="http://trilema.com/2014/usgavin-the-lolcow/" xr:uid="{3949A12B-621E-473A-BE28-EA4237D3146B}"/>
+    <hyperlink ref="F1440" r:id="rId502" tooltip="Permanent Link to How to deal with pseudoscience ?" display="http://trilema.com/2014/how-to-deal-with-pseudoscience/" xr:uid="{A7EC58AF-A415-4C30-AD7A-A3887033AF07}"/>
+    <hyperlink ref="F1428" r:id="rId503" tooltip="Permanent Link to Actual Bitcoin corporations (ABCs) versus fiat-based frauds trying to masquerade as Bitcoin companies (while masquerading as companies in the first place) on the solid theory that the general public is too stupid to make any difference, " display="http://trilema.com/2014/actual-bitcoin-corporations-abcs-versus-fiat-based-frauds-trying-to-masquerade-as-bitcoin-companies-while-masquerading-as-companies-in-the-first-place-on-the-solid-theory-that-the-general-public-i/" xr:uid="{A3A2A811-4ADA-4662-ADAA-C6F7697BBEBB}"/>
+    <hyperlink ref="F1388" r:id="rId504" tooltip="Permanent Link to If you go on a Bitcoin fork, irrespective which scammer proposes it, you will lose your Bitcoins." display="http://trilema.com/2015/if-you-go-on-a-bitcoin-fork-irrespective-which-scammer-proposes-it-you-will-lose-your-bitcoins/" xr:uid="{C92B5772-316B-449F-9A2D-B93BB1BAE4E2}"/>
+    <hyperlink ref="F1390" r:id="rId505" tooltip="Permanent Link to Let's address some of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-some-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{FFA80CCB-58AB-474A-8867-2D90E1514AC1}"/>
+    <hyperlink ref="F1391" r:id="rId506" tooltip="Permanent Link to Let's address even more of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-even-more-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{4F5AE502-17BA-4DD5-AC94-BA076F6BF57E}"/>
+    <hyperlink ref="F1393" r:id="rId507" tooltip="Permanent Link to Third pass addressing the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/third-pass-addressing-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{5C6BEF3A-0873-4C43-82FA-4EAB7698331D}"/>
+    <hyperlink ref="F1392" r:id="rId508" tooltip="Permanent Link to Ok, so what is Bitcoin disrupting ?" display="http://trilema.com/2015/ok-so-what-is-bitcoin-disrupting/" xr:uid="{D70D05E3-135B-46A1-848C-0C3BB577D1F4}"/>
+    <hyperlink ref="F1307" r:id="rId509" tooltip="Permanent Link to Basic Bitcoin Competency Certification" display="http://trilema.com/2015/basic-bitcoin-competency-certification/" xr:uid="{551D973D-D949-4A37-A932-E90831F8DC56}"/>
+    <hyperlink ref="F1100" r:id="rId510" display="https://junseth.com/post/156343456987/a-brief-history-of-bitcoin" xr:uid="{305E31FF-1680-47BD-B279-C28AC14597E7}"/>
+    <hyperlink ref="F872" r:id="rId511" tooltip="Permanent Link to Integration is bad for Bitcoin." display="http://trilema.com/2017/integration-is-bad-for-bitcoin/" xr:uid="{DA3295AD-0A2C-4C93-BFFD-FE2FB2F15E30}"/>
+    <hyperlink ref="F416" r:id="rId512" tooltip="Permanent Link to I state problems, I receive solutions. A happiness is me." display="http://trilema.com/2013/i-state-problems-i-receive-solutions-a-happiness-is-me/" xr:uid="{78F1E46B-E592-47BC-B5B1-20C21A8CC4D8}"/>
+    <hyperlink ref="F366" r:id="rId513" tooltip="Permanent Link to Bitcoin Recapitulation" display="http://trilema.com/2019/bitcoin-recapitulation/" xr:uid="{FB4B51D6-929E-4DF1-8D1A-F1840C96D229}"/>
+    <hyperlink ref="F1379" r:id="rId514" display="https://jonathanlevin.wordpress.com/2015/03/29/digital-scarcity-what-makes-a-satoshi-on-the-mainchain-worth-having/" xr:uid="{7CE45011-6890-40DA-A707-4B88FF2F6EA9}"/>
+    <hyperlink ref="F1221" r:id="rId515" display="http://hashingit.com/analysis/47-bitcoin-tx-fees" xr:uid="{E1CE598B-53F4-411E-B795-84C28EAA7E88}"/>
+    <hyperlink ref="F1237" r:id="rId516" display="http://hashingit.com/analysis/46-behold-exahash" xr:uid="{B7F3802D-27FD-47D5-80EE-E6A3AF75C8B4}"/>
+    <hyperlink ref="F1270" r:id="rId517" display="http://hashingit.com/analysis/45-blockchain-what-art-thou" xr:uid="{748D4CC1-2A0F-4E69-ABEC-CCD998D8D840}"/>
+    <hyperlink ref="F1269" r:id="rId518" display="http://hashingit.com/analysis/43-waiting-for-blocks-revised" xr:uid="{FF0DC88E-0633-4129-BEE8-1EB1E4BEB33F}"/>
+    <hyperlink ref="F1385" r:id="rId519" display="http://hashingit.com/analysis/41-waiting-for-blocks" xr:uid="{A2C8CF81-2AB6-49E1-87F2-B3DB5D4C53B5}"/>
+    <hyperlink ref="F1430" r:id="rId520" display="http://hashingit.com/analysis/35-the-future-of-bitcoin-transaction-fees" xr:uid="{2034378E-CBB0-4439-9404-F28617424322}"/>
+    <hyperlink ref="F1431" r:id="rId521" display="http://hashingit.com/analysis/34-bitcoin-traffic-bulletin" xr:uid="{CBA7E8F8-73F4-4EF3-BFE1-2E4FB7E17ECB}"/>
+    <hyperlink ref="F1432" r:id="rId522" display="http://hashingit.com/analysis/33-7-transactions-per-second" xr:uid="{56F77F5D-D4E4-4F10-B208-07DEB9BEC04D}"/>
+    <hyperlink ref="F1487" r:id="rId523" display="http://hashingit.com/analysis/32-the-gamblers-guide-to-bitcoin-mining" xr:uid="{63C0E100-C174-4764-A8E1-DD31538C94AF}"/>
+    <hyperlink ref="F1496" r:id="rId524" display="http://hashingit.com/analysis/31-51-percent-of-the-network" xr:uid="{30BCCB7E-1E97-4BDD-A38B-9FAE7A0F7634}"/>
+    <hyperlink ref="F1497" r:id="rId525" display="http://hashingit.com/analysis/30-finding-2016-blocks" xr:uid="{C276839E-A3C4-422A-B5E3-15A8BF7ED8C7}"/>
+    <hyperlink ref="F1498" r:id="rId526" display="http://hashingit.com/analysis/29-lies-damned-lies-and-bitcoin-difficulties" xr:uid="{83C9658C-F972-41B3-B4DF-7FE865BB32E6}"/>
+    <hyperlink ref="F1499" r:id="rId527" display="http://hashingit.com/analysis/18-strange-spikes-revisited" xr:uid="{EC6443D4-9D03-4F80-B56E-B91114340635}"/>
+    <hyperlink ref="F1517" r:id="rId528" display="http://hashingit.com/analysis/27-hash-rate-headaches" xr:uid="{1C027EE9-28BA-4794-94CA-7BADED644EA8}"/>
+    <hyperlink ref="F1537" r:id="rId529" display="http://hashingit.com/analysis/25-prisoners-dilemmas" xr:uid="{E8BF99D6-E46D-4865-B877-A898FCD36EEC}"/>
+    <hyperlink ref="G1537" r:id="rId530" xr:uid="{E900F52B-733F-4DE8-A862-999A19022F53}"/>
+    <hyperlink ref="F1538" r:id="rId531" display="http://hashingit.com/analysis/24-megawatts-of-mining" xr:uid="{13CF7CBE-AFE1-4FAA-AEF2-9CB8B716D5C9}"/>
+    <hyperlink ref="F1539" r:id="rId532" display="http://hashingit.com/analysis/23-the-rewards-for-a-bitcoin-miner" xr:uid="{A4223C56-511B-4059-BB61-3E12AD599718}"/>
+    <hyperlink ref="F1560" r:id="rId533" display="http://hashingit.com/analysis/22-where-next-for-bitcoin-mining-asics" xr:uid="{C58562A3-C60F-439E-855B-87D40B6F4B86}"/>
+    <hyperlink ref="F1561" r:id="rId534" display="http://hashingit.com/analysis/21-chickens-and-eggs" xr:uid="{6663E46B-DA2F-4F9D-A320-CD3A032FF8EB}"/>
+    <hyperlink ref="F1562" r:id="rId535" display="http://hashingit.com/analysis/20-strange-spikes-in-the-bitcoin-price" xr:uid="{55D24341-8DF6-4FE0-A2E0-11EA7584DA94}"/>
+    <hyperlink ref="F1563" r:id="rId536" display="http://hashingit.com/analysis/19-the-bitcoin-runaway-mine-train" xr:uid="{9D601936-B819-46C1-928E-CDA54CA3BA7A}"/>
+    <hyperlink ref="G830" r:id="rId537" xr:uid="{E907C8E7-981D-4315-9DF9-5F9209A28734}"/>
+    <hyperlink ref="G817" r:id="rId538" xr:uid="{5AC44921-91C5-4324-8698-C7E71EBC1EF8}"/>
+    <hyperlink ref="G818" r:id="rId539" xr:uid="{55A3B990-1364-4F8C-BB61-5C5728CE5356}"/>
+    <hyperlink ref="G813" r:id="rId540" xr:uid="{4EAC6694-4857-4E3D-96DD-6AB15011102D}"/>
+    <hyperlink ref="G331" r:id="rId541" xr:uid="{E2563B8E-CAD4-4981-A57A-3F84D626FDBA}"/>
+    <hyperlink ref="G330" r:id="rId542" xr:uid="{FAFE8F40-BBF4-4C70-8404-2FFE0DD76D1A}"/>
+    <hyperlink ref="G318" r:id="rId543" xr:uid="{61564305-3FAD-48E3-8419-728750594BA1}"/>
+    <hyperlink ref="G329" r:id="rId544" xr:uid="{0F199451-94A0-4CB5-A34B-B02DF86BC4A0}"/>
+    <hyperlink ref="G328" r:id="rId545" xr:uid="{7383AF6B-06E6-478C-A143-65DFF466BE32}"/>
+    <hyperlink ref="G327" r:id="rId546" xr:uid="{F948852C-0AAF-46B8-ABD4-933CD18D5A72}"/>
+    <hyperlink ref="G326" r:id="rId547" xr:uid="{B74D72AB-FA7C-439A-AD9D-F43ABCFC5587}"/>
+    <hyperlink ref="G325" r:id="rId548" xr:uid="{813E7CD6-D250-4C82-BE4A-9D54E197D67D}"/>
+    <hyperlink ref="G324" r:id="rId549" xr:uid="{D5BC49E4-F0BD-4ACD-9A03-804CD99204DA}"/>
+    <hyperlink ref="G321" r:id="rId550" xr:uid="{C44DDCA1-C4D5-4FE3-84BC-E663089F50D0}"/>
+    <hyperlink ref="G320" r:id="rId551" xr:uid="{0C20D16D-2FCF-4116-BC10-B93A7A03E2E2}"/>
+    <hyperlink ref="G305" r:id="rId552" xr:uid="{2BDA5184-23C3-4161-84D6-61D7B557587E}"/>
+    <hyperlink ref="G306" r:id="rId553" xr:uid="{39F8BF4C-9A1A-44D5-AC0B-E4D725152DEE}"/>
+    <hyperlink ref="G307" r:id="rId554" xr:uid="{2AD5EB5E-69D7-441D-BB91-9C585FE81D52}"/>
+    <hyperlink ref="G309" r:id="rId555" xr:uid="{4FB56DEF-6130-4A1D-BFC9-159F711DB3F3}"/>
+    <hyperlink ref="G311" r:id="rId556" xr:uid="{2A074457-6C04-41E3-953C-A2B2AFD1C263}"/>
+    <hyperlink ref="G312" r:id="rId557" xr:uid="{9DF64869-3792-49F7-B5EB-E40630824175}"/>
+    <hyperlink ref="G313" r:id="rId558" xr:uid="{82BC628C-3C0C-4CBE-ADE8-DA7AB0219082}"/>
+    <hyperlink ref="G315" r:id="rId559" xr:uid="{CA76BB9D-8AC4-4EE6-B79F-4568859FC668}"/>
+    <hyperlink ref="G317" r:id="rId560" xr:uid="{C240B46C-DC11-4410-BB55-D144DE2985B7}"/>
+    <hyperlink ref="G319" r:id="rId561" xr:uid="{66DC2E89-5085-42D8-BAEE-1C32E66AEFAB}"/>
+    <hyperlink ref="G323" r:id="rId562" xr:uid="{FD55FA5E-ADA8-4A73-AA0A-739AD494BBD2}"/>
+    <hyperlink ref="G294" r:id="rId563" xr:uid="{52332DF9-79D8-4086-BEE5-12DCB0101DAB}"/>
+    <hyperlink ref="G366" r:id="rId564" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
+    <hyperlink ref="G367" r:id="rId565" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
+    <hyperlink ref="G369" r:id="rId566" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
+    <hyperlink ref="G370" r:id="rId567" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
+    <hyperlink ref="G371" r:id="rId568" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
+    <hyperlink ref="G414" r:id="rId569" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
+    <hyperlink ref="G415" r:id="rId570" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
+    <hyperlink ref="G417" r:id="rId571" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
+    <hyperlink ref="G1356" r:id="rId572" xr:uid="{8A899F9E-C813-45BF-91A2-5283ED101704}"/>
+    <hyperlink ref="F1356" r:id="rId573" display="http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world" xr:uid="{B94E0CE3-3372-4C20-AC98-49AB074167C9}"/>
+    <hyperlink ref="G426" r:id="rId574" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
+    <hyperlink ref="G427" r:id="rId575" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
+    <hyperlink ref="G428" r:id="rId576" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
+    <hyperlink ref="G431" r:id="rId577" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
+    <hyperlink ref="G432" r:id="rId578" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
+    <hyperlink ref="G299" r:id="rId579" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
+    <hyperlink ref="G289" r:id="rId580" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
+    <hyperlink ref="G290" r:id="rId581" xr:uid="{DBD6AD6B-351A-4133-B6A4-6B13FFA536DF}"/>
+    <hyperlink ref="G291" r:id="rId582" xr:uid="{F1752B38-25A2-48DA-8DEE-B25CAC8B1254}"/>
+    <hyperlink ref="G292" r:id="rId583" xr:uid="{E2F38E02-83B1-463D-9696-7E4BF035B6A5}"/>
+    <hyperlink ref="G293" r:id="rId584" xr:uid="{F0981388-A434-4006-AAB4-D05BFCDF32AF}"/>
+    <hyperlink ref="G295" r:id="rId585" xr:uid="{FE48F132-F40A-4138-B2A9-A6D1D2E41DEC}"/>
+    <hyperlink ref="G296" r:id="rId586" xr:uid="{E65E5A32-125E-4DBA-821D-72B64CDBD5A7}"/>
+    <hyperlink ref="G297" r:id="rId587" xr:uid="{6E449A4B-C9F1-4B1C-BA89-B254DE288BBB}"/>
+    <hyperlink ref="G298" r:id="rId588" xr:uid="{D46FA922-8B5A-4ADD-9F9E-EA562F602C8B}"/>
+    <hyperlink ref="G286" r:id="rId589" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
+    <hyperlink ref="G287" r:id="rId590" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
+    <hyperlink ref="G285" r:id="rId591" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
+    <hyperlink ref="G1302" r:id="rId592" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
+    <hyperlink ref="F1302" r:id="rId593" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
+    <hyperlink ref="F271" r:id="rId594" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
+    <hyperlink ref="G1673" r:id="rId595" xr:uid="{AE6A7506-FAA8-40BF-9933-6205D7B49D14}"/>
+    <hyperlink ref="G273" r:id="rId596" xr:uid="{360691A1-9054-406D-A096-E2E155D90E23}"/>
+    <hyperlink ref="G272" r:id="rId597" xr:uid="{96DCC9DA-A1BD-45FC-8244-D6716BA1D905}"/>
+    <hyperlink ref="G271" r:id="rId598" xr:uid="{385C8BE1-D7F0-48E1-95A7-0C35818FCCD8}"/>
+    <hyperlink ref="G270" r:id="rId599" xr:uid="{0323B75B-C75B-45D4-AE64-C9F75156D116}"/>
+    <hyperlink ref="G269" r:id="rId600" xr:uid="{44C6C6AA-421A-4803-9A43-7B390874B75A}"/>
+    <hyperlink ref="G268" r:id="rId601" xr:uid="{36FB0BEE-2D83-4AA1-AEFA-57209DE733F1}"/>
+    <hyperlink ref="G267" r:id="rId602" xr:uid="{73C348B9-04F6-41D8-8905-D763E1A13D39}"/>
+    <hyperlink ref="G266" r:id="rId603" xr:uid="{EAB2FAAB-F9E3-4971-B689-D6244C1329F0}"/>
+    <hyperlink ref="G265" r:id="rId604" xr:uid="{7E18E7A6-2610-4C63-B5F9-B9E7D8B1A669}"/>
+    <hyperlink ref="G264" r:id="rId605" xr:uid="{EE7DB71E-900D-4223-AA58-6B8D06C230A1}"/>
+    <hyperlink ref="G263" r:id="rId606" xr:uid="{9A90948C-9E76-401B-832B-F20A9C54C3DE}"/>
+    <hyperlink ref="G262" r:id="rId607" xr:uid="{088B3ADE-B96C-4F3D-93B5-A8F11B2B8513}"/>
+    <hyperlink ref="G261" r:id="rId608" xr:uid="{B167801E-9FA4-47B2-B1CA-7DDECE0FDD6A}"/>
+    <hyperlink ref="G260" r:id="rId609" xr:uid="{2D08E3A2-2FA4-4635-898E-94EE14E975BA}"/>
+    <hyperlink ref="G259" r:id="rId610" xr:uid="{EE92FD94-F43F-47A7-B849-B38AAF7E12A0}"/>
+    <hyperlink ref="G252" r:id="rId611" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
+    <hyperlink ref="G253" r:id="rId612" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
+    <hyperlink ref="G254" r:id="rId613" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
+    <hyperlink ref="F239" r:id="rId614" display="https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance" xr:uid="{5F39B841-CC8B-44F1-A5F2-8EE6146C307D}"/>
+    <hyperlink ref="G251" r:id="rId615" xr:uid="{365B81C8-1751-4B75-9CC6-ECFAC78B1E49}"/>
+    <hyperlink ref="F231" r:id="rId616" display="https://philjbonello.substack.com/p/the-sovereign-individual-investment" xr:uid="{8CFD7459-F16F-4992-83A4-F27DB01EAC66}"/>
+    <hyperlink ref="F230" r:id="rId617" display="https://philjbonello.substack.com/p/digital-money" xr:uid="{FF3386AD-5A01-484E-AB4B-B24938C4AC00}"/>
+    <hyperlink ref="F226" r:id="rId618" display="https://rhythmofbitcoin.substack.com/p/a-cashless-future-is-a-dystopia-without" xr:uid="{07C57689-D3FC-4121-98A6-93F2DAD82C21}"/>
+    <hyperlink ref="G250" r:id="rId619" xr:uid="{2EE1B357-E60C-45B9-9CEE-68544A367F08}"/>
+    <hyperlink ref="G249" r:id="rId620" xr:uid="{E92DAF54-A1CD-407F-9960-FA99A125DE5E}"/>
+    <hyperlink ref="G248" r:id="rId621" xr:uid="{CBF7FC3E-2007-4F4E-AC35-47C052353CBE}"/>
+    <hyperlink ref="G246" r:id="rId622" xr:uid="{DE7704B6-672B-49D1-911E-B490E0050F2F}"/>
+    <hyperlink ref="G245" r:id="rId623" xr:uid="{01E80B7B-6F1A-4A15-AC37-7B6C9C24808C}"/>
+    <hyperlink ref="G244" r:id="rId624" xr:uid="{C8C5819A-91F8-4556-96E4-99ECD0F925B2}"/>
+    <hyperlink ref="G243" r:id="rId625" xr:uid="{B6959887-BE99-41D9-8475-24A70F43AB16}"/>
+    <hyperlink ref="G242" r:id="rId626" xr:uid="{1B36DB34-9CCC-4C2A-A4CA-ACA47E2DE508}"/>
+    <hyperlink ref="G240" r:id="rId627" xr:uid="{921095A8-36CB-410D-9D2A-8973557C47F6}"/>
+    <hyperlink ref="G239" r:id="rId628" xr:uid="{80CD66BD-8117-4B53-923C-29CFF6619C94}"/>
+    <hyperlink ref="G238" r:id="rId629" xr:uid="{BECC4351-03F1-4297-AA29-E33126942591}"/>
+    <hyperlink ref="G236" r:id="rId630" xr:uid="{2D020D98-BF85-4D86-979A-CDC3363E9807}"/>
+    <hyperlink ref="G235" r:id="rId631" xr:uid="{9694C19A-452D-4542-8CBE-95F35257503B}"/>
+    <hyperlink ref="G234" r:id="rId632" xr:uid="{8BA32324-4B77-420B-AE30-515B0BAC5C67}"/>
+    <hyperlink ref="G233" r:id="rId633" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
+    <hyperlink ref="G232" r:id="rId634" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
+    <hyperlink ref="G231" r:id="rId635" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
+    <hyperlink ref="G230" r:id="rId636" xr:uid="{BDF76746-FDBF-44EE-A525-73B909EC9345}"/>
+    <hyperlink ref="G229" r:id="rId637" xr:uid="{3E017625-FCF1-4498-850D-541386E1AB24}"/>
+    <hyperlink ref="G228" r:id="rId638" xr:uid="{9A3F1B72-A7AC-4031-B61B-D0EB83B6E508}"/>
+    <hyperlink ref="G227" r:id="rId639" xr:uid="{63415624-457F-4E97-BFA3-73CCB3525134}"/>
+    <hyperlink ref="G226" r:id="rId640" xr:uid="{D427E119-4BE4-48B1-AE6A-14E352E8709F}"/>
+    <hyperlink ref="G225" r:id="rId641" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
+    <hyperlink ref="G224" r:id="rId642" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
+    <hyperlink ref="G223" r:id="rId643" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
+    <hyperlink ref="G219" r:id="rId644" xr:uid="{336AD68E-287A-41A9-892B-C7A7EC2F3875}"/>
+    <hyperlink ref="F218" r:id="rId645" display="https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets" xr:uid="{5AEA4BED-B8F9-4ED9-BCE6-B7AD163E0E25}"/>
+    <hyperlink ref="G604" r:id="rId646" xr:uid="{172B9B5F-15A2-4067-9D0A-F50246509094}"/>
+    <hyperlink ref="G605" r:id="rId647" xr:uid="{3A5C44CE-3028-4D76-B1A2-240C782D9D6B}"/>
+    <hyperlink ref="G606" r:id="rId648" xr:uid="{CE329330-BEE0-452B-B6A5-B1355BF9EEE2}"/>
+    <hyperlink ref="G537" r:id="rId649" xr:uid="{08D18920-21A9-4404-A48B-A07DF75B331C}"/>
+    <hyperlink ref="G534" r:id="rId650" xr:uid="{8C9DBE65-30FC-4B28-935E-486778F8E344}"/>
+    <hyperlink ref="G533" r:id="rId651" xr:uid="{5BAA8C86-AAF2-4234-BE60-CD25BDFD81CA}"/>
+    <hyperlink ref="G532" r:id="rId652" xr:uid="{FC128AE7-9A38-4A3F-B7C7-7836E27BC89D}"/>
+    <hyperlink ref="G529" r:id="rId653" xr:uid="{FDA452A4-46AC-479B-95A9-DD9D57DE9EFB}"/>
+    <hyperlink ref="G531" r:id="rId654" xr:uid="{D57A42BD-9542-4CC2-B8D3-F8B15AEFAE87}"/>
+    <hyperlink ref="G611" r:id="rId655" xr:uid="{C2640952-F7A6-4365-BB7E-D136EE510DA8}"/>
+    <hyperlink ref="G212" r:id="rId656" xr:uid="{86102DEE-C262-40AC-AA3A-AA1B6C7DDAF9}"/>
+    <hyperlink ref="G220" r:id="rId657" xr:uid="{B5954FC3-5697-43A3-AE30-E5B6D8C8788E}"/>
+    <hyperlink ref="G215" r:id="rId658" xr:uid="{E6764CF0-FCC6-4D80-974C-E7B38CAAA3B6}"/>
+    <hyperlink ref="G214" r:id="rId659" xr:uid="{CFD06610-6E9E-404F-91C2-E4722EA341F2}"/>
+    <hyperlink ref="G213" r:id="rId660" xr:uid="{9E73D04F-2608-4548-9A62-C9C51C67D9AD}"/>
+    <hyperlink ref="G210" r:id="rId661" xr:uid="{3836086A-34C1-4950-92E9-382C10CE6315}"/>
+    <hyperlink ref="G209" r:id="rId662" xr:uid="{4116E953-4CB0-46EA-9EF4-AC2A006D6055}"/>
+    <hyperlink ref="G208" r:id="rId663" xr:uid="{FDC72A5E-9D16-4F48-8BBE-EB19A7095BCA}"/>
+    <hyperlink ref="G207" r:id="rId664" xr:uid="{E7CB9562-26A3-429A-974D-D8B875C87B21}"/>
+    <hyperlink ref="G206" r:id="rId665" xr:uid="{CF61FAB0-56DA-470A-B69D-E571A56CE34D}"/>
+    <hyperlink ref="G205" r:id="rId666" xr:uid="{835AD9B4-65B6-447E-A2D5-18CE8274F57D}"/>
+    <hyperlink ref="G204" r:id="rId667" xr:uid="{3A7FC5F4-38DD-40F9-A42A-209969EA595B}"/>
+    <hyperlink ref="G211" r:id="rId668" xr:uid="{D5A2F61A-E2EF-4F54-9CA9-7D70459CB787}"/>
+    <hyperlink ref="G301" r:id="rId669" xr:uid="{6B1E60FE-BF6B-4F69-B147-E1730B161720}"/>
+    <hyperlink ref="F301" r:id="rId670" display="https://moneyordebt.com/2019/09/24/living-on-satoshi-time-what-block-is-it/" xr:uid="{8A87C366-C909-466D-A2AD-55DDA860CC99}"/>
+    <hyperlink ref="G203" r:id="rId671" xr:uid="{B1B3C0B6-F7FF-417B-91F4-90B38EA4A0EC}"/>
+    <hyperlink ref="G202" r:id="rId672" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
+    <hyperlink ref="G201" r:id="rId673" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
+    <hyperlink ref="G216" r:id="rId674" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
+    <hyperlink ref="G195" r:id="rId675" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
+    <hyperlink ref="G199" r:id="rId676" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
+    <hyperlink ref="G218" r:id="rId677" xr:uid="{5BD8B767-E55B-4DE1-8EB1-A809B6B3C2C8}"/>
+    <hyperlink ref="G217" r:id="rId678" xr:uid="{7DE6CFA3-7232-4268-B4B8-371DB50F73B7}"/>
+    <hyperlink ref="G194" r:id="rId679" xr:uid="{C3B57097-9A10-4E73-BA2A-B8ED621008FE}"/>
+    <hyperlink ref="G193" r:id="rId680" xr:uid="{37F0EED8-90A5-4FA5-BA3D-5F60FE73A720}"/>
+    <hyperlink ref="G200" r:id="rId681" xr:uid="{4F2F6454-5B54-4E19-B32B-FC86FE03C09D}"/>
+    <hyperlink ref="G275" r:id="rId682" xr:uid="{60C630BE-1D43-4D24-A558-276A8332DA20}"/>
+    <hyperlink ref="G198" r:id="rId683" xr:uid="{878B9826-13D1-445C-BD7A-644E472C6AD5}"/>
+    <hyperlink ref="G197" r:id="rId684" xr:uid="{BC93470D-D490-4709-AA72-6AD48B01550B}"/>
+    <hyperlink ref="G196" r:id="rId685" xr:uid="{24F9A067-D956-4257-9844-D1D2198F368E}"/>
+    <hyperlink ref="G192" r:id="rId686" xr:uid="{47027714-DF08-4D30-81B0-CE1310674E38}"/>
+    <hyperlink ref="G820" r:id="rId687" xr:uid="{BEE73C3D-3B0E-46A8-846D-E652700A9FD9}"/>
+    <hyperlink ref="G819" r:id="rId688" xr:uid="{43D48259-60BE-4D1C-9935-601D6F549691}"/>
+    <hyperlink ref="G418" r:id="rId689" xr:uid="{A4262CE5-7163-411A-8ED2-21E61DC5055F}"/>
+    <hyperlink ref="G694" r:id="rId690" xr:uid="{4F343EF9-D324-4F26-810A-724CC7AF35DD}"/>
+    <hyperlink ref="G695" r:id="rId691" xr:uid="{E1CC10E7-F47D-4603-B688-B980CA486D4E}"/>
+    <hyperlink ref="G540" r:id="rId692" xr:uid="{9B09966D-A4CB-47B5-A652-A29CB0AFADCF}"/>
+    <hyperlink ref="G541" r:id="rId693" xr:uid="{2E7F1CF2-C27A-4766-83C5-8ABCB43C7B2F}"/>
+    <hyperlink ref="G433" r:id="rId694" xr:uid="{3699D16B-CA0F-44D7-AC91-3FDAB8EBFFFA}"/>
+    <hyperlink ref="G425" r:id="rId695" xr:uid="{66922EC8-2350-4EC6-9F3E-9CDF08F4DAB3}"/>
+    <hyperlink ref="G276" r:id="rId696" xr:uid="{43284B45-4895-49CE-810D-B4707E43244C}"/>
+    <hyperlink ref="G278" r:id="rId697" xr:uid="{9C3AB0F0-34DC-4574-A55C-B7F545DFD135}"/>
+    <hyperlink ref="G279" r:id="rId698" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
+    <hyperlink ref="G841" r:id="rId699" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
+    <hyperlink ref="G160" r:id="rId700" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
+    <hyperlink ref="G665" r:id="rId701" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
+    <hyperlink ref="G842" r:id="rId702" xr:uid="{44942DCC-A950-45B7-836C-EEA3E136F355}"/>
+    <hyperlink ref="G843" r:id="rId703" xr:uid="{00AC84C7-DFB1-4053-8E88-68BFE3D11151}"/>
+    <hyperlink ref="G161" r:id="rId704" xr:uid="{EC30F85A-C055-431E-B3E3-3BD63F7D214D}"/>
+    <hyperlink ref="G1726" r:id="rId705" xr:uid="{5D96298A-58E3-41B7-B4DC-9DAD3771CC71}"/>
+    <hyperlink ref="J1723" r:id="rId706" xr:uid="{9791AC3C-2F39-4961-BD2B-1151401353FF}"/>
+    <hyperlink ref="G696" r:id="rId707" xr:uid="{0B011FA9-9223-4A99-8917-5B83498DB386}"/>
+    <hyperlink ref="G162" r:id="rId708" xr:uid="{7C29B605-5F4C-400A-B52F-8FC63E297196}"/>
+    <hyperlink ref="G163" r:id="rId709" xr:uid="{5208FDCA-1A58-45BD-B9AD-7A028617ECF9}"/>
+    <hyperlink ref="G164" r:id="rId710" xr:uid="{4D3668AF-AFAC-4E90-97AC-DFFF3F5B9540}"/>
+    <hyperlink ref="G165" r:id="rId711" xr:uid="{D82E676D-4308-423C-A453-D0AA7CA1765C}"/>
+    <hyperlink ref="G166" r:id="rId712" xr:uid="{B4D9F81A-82FD-494A-98DA-983A28DDA382}"/>
+    <hyperlink ref="G167" r:id="rId713" xr:uid="{CC8834A2-9A07-4831-B3A0-711AA95C221C}"/>
+    <hyperlink ref="G168" r:id="rId714" xr:uid="{FB856BB7-EA27-4FC7-A057-0CEFF98290C2}"/>
+    <hyperlink ref="G169" r:id="rId715" xr:uid="{F1EE77A5-7834-49D2-A625-818459729FF9}"/>
+    <hyperlink ref="G170" r:id="rId716" xr:uid="{4980F4A9-4EBA-42AC-9C14-1C8034B91C78}"/>
+    <hyperlink ref="G171" r:id="rId717" xr:uid="{DF5820B6-5EAF-4BE2-BC8D-6B146A2F8BC3}"/>
+    <hyperlink ref="G172" r:id="rId718" xr:uid="{D3E2E418-F680-4E58-859D-33BC23636FB9}"/>
+    <hyperlink ref="G173" r:id="rId719" xr:uid="{6F4B9238-DAE5-4663-AC17-C2D0189EB7C9}"/>
+    <hyperlink ref="G174" r:id="rId720" xr:uid="{EB4C6F11-AD3B-44B1-86C0-C70C033FD120}"/>
+    <hyperlink ref="G176" r:id="rId721" xr:uid="{08DBA553-570F-4996-8F6F-BA0E3D2402DD}"/>
+    <hyperlink ref="G175" r:id="rId722" xr:uid="{EF4A4EBB-CFF2-413F-9435-155B91D3DEA7}"/>
+    <hyperlink ref="G177" r:id="rId723" xr:uid="{8C17A067-C326-43CD-A3E1-F00F59836612}"/>
+    <hyperlink ref="G178" r:id="rId724" xr:uid="{7CEA1302-EBC2-4DAF-A94A-116441AFD331}"/>
+    <hyperlink ref="G179" r:id="rId725" xr:uid="{1F6DFFC8-8DA3-4BDB-8A0C-6140C0E91634}"/>
+    <hyperlink ref="F179" r:id="rId726" display="https://6102bitcoin.com/blog/slice-the-pie/" xr:uid="{E42321F9-1636-47A5-B68F-E00CBD426A1C}"/>
+    <hyperlink ref="G180" r:id="rId727" xr:uid="{6464BD8A-0F8B-4C5C-A42B-1DE3E710919D}"/>
+    <hyperlink ref="G181" r:id="rId728" xr:uid="{12293F5D-4911-4A96-9D79-8D4A2C0256F6}"/>
+    <hyperlink ref="G182" r:id="rId729" xr:uid="{10DE4E02-5CDF-4119-8B93-DC1AD9BF4035}"/>
+    <hyperlink ref="G183" r:id="rId730" xr:uid="{85F9C59B-4D05-420F-B3C5-A1AD24D70BE4}"/>
+    <hyperlink ref="G424" r:id="rId731" xr:uid="{E412D02F-DA30-4678-B2F6-00F947608FE8}"/>
+    <hyperlink ref="G1222" r:id="rId732" xr:uid="{9BD107C9-3E2C-41C6-BBD7-DD3305923136}"/>
+    <hyperlink ref="G184" r:id="rId733" xr:uid="{0BF6221B-A89E-4363-B02B-39C7289FD686}"/>
+    <hyperlink ref="G542" r:id="rId734" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
+    <hyperlink ref="G997" r:id="rId735" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
+    <hyperlink ref="G185" r:id="rId736" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
+    <hyperlink ref="F302" r:id="rId737" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
+    <hyperlink ref="G302" r:id="rId738" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
+    <hyperlink ref="G1141" r:id="rId739" location="page=28" display="https://alcor.org/cryonics/Cryonics2016-4.pdf - page=28" xr:uid="{373BE6DF-893C-4B76-86FB-7554DE367903}"/>
+    <hyperlink ref="G2043" r:id="rId740" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
+    <hyperlink ref="G2041" r:id="rId741" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
+    <hyperlink ref="G2035" r:id="rId742" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
+    <hyperlink ref="G2032" r:id="rId743" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
+    <hyperlink ref="G984" r:id="rId744" xr:uid="{491687E0-2017-4889-8B8A-826A9AC9D28E}"/>
+    <hyperlink ref="G1142" r:id="rId745" xr:uid="{2DC554A9-DE55-428D-908A-CB3E7F5A5FD6}"/>
+    <hyperlink ref="F1142" r:id="rId746" display="https://elaineou.com/2016/08/01/the-value-of-settlement-finality/" xr:uid="{D9B3B78A-ECA9-4FBB-8F6C-AED49862FB91}"/>
+    <hyperlink ref="G849" r:id="rId747" xr:uid="{BB2E7301-F6B0-4C89-8EED-F49311888EA6}"/>
+    <hyperlink ref="G1387" r:id="rId748" xr:uid="{3350084D-DE05-40D9-AEE6-9A60BC228A30}"/>
+    <hyperlink ref="G1133" r:id="rId749" xr:uid="{860B04A8-B710-4886-B293-E2773D4D823A}"/>
+    <hyperlink ref="G1382" r:id="rId750" xr:uid="{34107705-C009-4835-B86D-721D6834F6C8}"/>
+    <hyperlink ref="F110" r:id="rId751" display="https://elaineou.com/2020/01/31/be-afraid-be-very-afraid/" xr:uid="{C131BE6A-6D4F-4D5E-BC6C-73421C733A58}"/>
+    <hyperlink ref="G110" r:id="rId752" xr:uid="{F2757DCE-B0BD-4B5B-8CA8-D8BF62E294D1}"/>
+    <hyperlink ref="G831" r:id="rId753" xr:uid="{111F4C84-D598-4185-BD68-DFF9E70074B6}"/>
+    <hyperlink ref="G718" r:id="rId754" xr:uid="{279BD604-D779-4406-A131-C412EE4A4378}"/>
+    <hyperlink ref="G987" r:id="rId755" xr:uid="{21725A1D-9E7F-41DA-B136-180488844502}"/>
+    <hyperlink ref="F1281" r:id="rId756" display="https://elaineou.com/2015/11/19/the-risk-of-bitcoin-money-laundering/" xr:uid="{D9B90FB2-920D-4EFC-854E-81FDBE232A91}"/>
+    <hyperlink ref="G1281" r:id="rId757" xr:uid="{95EA0955-114A-4EA7-8BC7-8D4684BE37AF}"/>
+    <hyperlink ref="G1624" r:id="rId758" xr:uid="{8CEFAB15-6EDB-4CE4-910B-DABDC4768CC0}"/>
+    <hyperlink ref="F876" r:id="rId759" display="https://elaineou.com/2017/12/16/fiatsplaining-bitcoin/" xr:uid="{BA39BD62-1788-43B5-A2E0-306D0775FDAC}"/>
+    <hyperlink ref="G876" r:id="rId760" xr:uid="{FFD73BA8-F708-43BA-B603-F1B1CDAB5905}"/>
+    <hyperlink ref="G832" r:id="rId761" xr:uid="{4B6480DB-2D11-435E-95D7-A7C7297689BE}"/>
+    <hyperlink ref="G963" r:id="rId762" xr:uid="{4982E959-B2AE-4FAC-91F9-200D0802B3B1}"/>
+    <hyperlink ref="G895" r:id="rId763" xr:uid="{BAF1BC03-9350-46E9-84CD-CF3466DB16E7}"/>
+    <hyperlink ref="G280" r:id="rId764" xr:uid="{2DA6477E-1A1A-4C99-91EF-7702CEA929F2}"/>
+    <hyperlink ref="G674" r:id="rId765" xr:uid="{FB870D63-0886-4F9A-8702-9A8094E12FF9}"/>
+    <hyperlink ref="G543" r:id="rId766" xr:uid="{A722AC40-3F2A-4853-99D4-BB575E9A0D4D}"/>
+    <hyperlink ref="G373" r:id="rId767" xr:uid="{3CEA3009-9D97-4C98-9F0D-73F9C974D302}"/>
+    <hyperlink ref="G1353" r:id="rId768" xr:uid="{B34F2AFA-4ECC-4B28-9152-D4EDC549F1D0}"/>
+    <hyperlink ref="G1138" r:id="rId769" xr:uid="{D2B6258D-957D-4CCF-89E0-B4B9A8B4E72A}"/>
+    <hyperlink ref="F419" r:id="rId770" display="https://elaineou.com/2019/06/28/hackers-and-sphincters/" xr:uid="{4BD479E6-C5F4-4D80-BE5C-D62195573791}"/>
+    <hyperlink ref="G419" r:id="rId771" xr:uid="{1CFAF3B9-62E5-4578-8728-6ED0552609CE}"/>
+    <hyperlink ref="G850" r:id="rId772" xr:uid="{2E666137-D4A8-4AB0-98F8-1C4B353A7727}"/>
+    <hyperlink ref="G1433" r:id="rId773" xr:uid="{2B96C620-3E26-46A2-A991-B82E59DCB498}"/>
+    <hyperlink ref="G1053" r:id="rId774" xr:uid="{BCABDF7B-9F0D-4655-968F-4A86452220A6}"/>
+    <hyperlink ref="F1134" r:id="rId775" display="https://elaineou.com/2016/09/25/corrections-redactable-bitcoin/" xr:uid="{92C601D7-56D9-4CC7-9122-03591EB48E8B}"/>
+    <hyperlink ref="G1134" r:id="rId776" xr:uid="{AA047056-A1B6-4A50-96AA-9913BBE81E0C}"/>
+    <hyperlink ref="G1359" r:id="rId777" xr:uid="{A13CD93B-69BD-422C-B785-AB27891D0E46}"/>
+    <hyperlink ref="G111" r:id="rId778" xr:uid="{6770A1E8-983C-432A-B8F4-91BD5861D598}"/>
+    <hyperlink ref="G189" r:id="rId779" xr:uid="{61984DEF-3D18-4E7E-A02F-7B645F749512}"/>
+    <hyperlink ref="G112" r:id="rId780" xr:uid="{6F6A7382-F223-487E-977C-CD153A2B9D49}"/>
+    <hyperlink ref="F113" r:id="rId781" xr:uid="{DE75B92F-6D00-4FCF-99FD-920BB8A2D0C0}"/>
+    <hyperlink ref="G113" r:id="rId782" xr:uid="{6F029F92-7539-4EEE-A0F0-1A197304E70A}"/>
+    <hyperlink ref="G114" r:id="rId783" xr:uid="{E15F2E94-089E-494F-A3CF-59F9A5510F6A}"/>
+    <hyperlink ref="G117" r:id="rId784" xr:uid="{4FBC2B7C-C61A-4B6A-9D3F-AD2CCC4A9C64}"/>
+    <hyperlink ref="G116" r:id="rId785" xr:uid="{D02BA13C-02FF-4069-8245-E9E27E036C1C}"/>
+    <hyperlink ref="G277" r:id="rId786" xr:uid="{48137A1D-8C01-44EA-B288-076786E1D9A6}"/>
+    <hyperlink ref="G126" r:id="rId787" xr:uid="{C2FA1D09-01F7-4538-B5F4-064666AA3B19}"/>
+    <hyperlink ref="G1027" r:id="rId788" xr:uid="{3B574979-9183-42CD-B504-17A64EDAA8BB}"/>
+    <hyperlink ref="G793" r:id="rId789" xr:uid="{2FE41682-EF02-4D46-8074-3ED8F1CADC57}"/>
+    <hyperlink ref="G1588" r:id="rId790" xr:uid="{D9190EFD-6491-4571-9662-8AB0667F21E5}"/>
+    <hyperlink ref="G1071" r:id="rId791" xr:uid="{DAD3BF46-69BC-43F9-97A8-7E3F3EFC356D}"/>
+    <hyperlink ref="G118" r:id="rId792" xr:uid="{FD419121-B228-49D1-B499-A7A662DF6646}"/>
+    <hyperlink ref="G119" r:id="rId793" xr:uid="{3B14D446-5F59-4477-930E-CA8E6761E727}"/>
+    <hyperlink ref="G120" r:id="rId794" xr:uid="{C4DA82F5-2B78-4EE8-A254-97DEEB61848B}"/>
+    <hyperlink ref="G121" r:id="rId795" xr:uid="{C63C5500-5854-4286-BB52-F5901E2DEA0F}"/>
+    <hyperlink ref="G122" r:id="rId796" xr:uid="{8CD284A1-9C41-452D-AE01-88CC504B5520}"/>
+    <hyperlink ref="G115" r:id="rId797" xr:uid="{1AC1B166-43D4-47CD-B118-E394FA83F3DC}"/>
+    <hyperlink ref="G123" r:id="rId798" xr:uid="{5706C3F4-ACC5-46FD-A23D-5B31CF9515F8}"/>
+    <hyperlink ref="G124" r:id="rId799" xr:uid="{6AC4EA10-2FB3-457F-9B50-EAAF08075A3F}"/>
+    <hyperlink ref="G125" r:id="rId800" xr:uid="{D1E99FF9-F7DA-4582-A8D0-8347FB03C127}"/>
+    <hyperlink ref="G127" r:id="rId801" xr:uid="{0A687D87-F547-4850-8FB2-904969650E87}"/>
+    <hyperlink ref="G128" r:id="rId802" xr:uid="{783E92F7-5F0C-4D4D-9365-1281734F655E}"/>
+    <hyperlink ref="G131" r:id="rId803" xr:uid="{E1069364-F00E-4F1F-8D96-7C18CC97C84B}"/>
+    <hyperlink ref="G132" r:id="rId804" xr:uid="{67E524A5-2701-45A9-96D2-F082C5CE9AE5}"/>
+    <hyperlink ref="G429" r:id="rId805" xr:uid="{42351251-B71C-4420-86A3-3087DC9BF5CB}"/>
+    <hyperlink ref="G1289" r:id="rId806" xr:uid="{A20F32B5-B93A-46B2-8E23-B9C68245F5C4}"/>
+    <hyperlink ref="G420" r:id="rId807" xr:uid="{B078F23E-F55A-42AD-8F7F-9DB1D653903D}"/>
+    <hyperlink ref="G129" r:id="rId808" xr:uid="{66D8F8FB-508C-4975-A9D4-16C026E65B6E}"/>
+    <hyperlink ref="F133" r:id="rId809" display="https://twitter.com/zanepocock/status/1228048061789884422" xr:uid="{3875485F-5856-4F44-9EED-8F8D1F5F2333}"/>
+    <hyperlink ref="G133" r:id="rId810" xr:uid="{AB2C4D36-003C-405E-987A-D2E7CB5E53DF}"/>
+    <hyperlink ref="F135" r:id="rId811" display="https://medium.com/knox-blog/why-bitcoin-is-not-a-security-2ffec2f8d481" xr:uid="{4ACCCBA6-4EAB-46A4-A38F-F54791884BD5}"/>
+    <hyperlink ref="G135" r:id="rId812" xr:uid="{4FC9E997-5718-42D5-AE0E-0B450BF2E0EE}"/>
+    <hyperlink ref="G134" r:id="rId813" xr:uid="{3FCC3103-0362-4654-8F5A-5F7C0ED74302}"/>
+    <hyperlink ref="G136" r:id="rId814" xr:uid="{8DB7F1F0-AAF9-4F7E-88E0-94D3E4828008}"/>
+    <hyperlink ref="G137" r:id="rId815" xr:uid="{E9337E06-B548-44F2-921B-35FF392D6F9B}"/>
+    <hyperlink ref="G138" r:id="rId816" xr:uid="{C6DCFD4E-FFB7-4329-9108-3FB13315CE3F}"/>
+    <hyperlink ref="G139" r:id="rId817" xr:uid="{C7DCBD3A-363B-4F7A-AE44-9CD45405E269}"/>
+    <hyperlink ref="G140" r:id="rId818" xr:uid="{710C97D4-6249-4069-AF8D-CF6781B9C05F}"/>
+    <hyperlink ref="G141" r:id="rId819" xr:uid="{525AD316-B72C-4B8C-A13D-168F10D29118}"/>
+    <hyperlink ref="G142" r:id="rId820" xr:uid="{8D4AE489-E534-48CE-9826-CB928B658ACE}"/>
+    <hyperlink ref="G143" r:id="rId821" xr:uid="{385AF78A-6D5B-4839-94C0-931BCD13DC26}"/>
+    <hyperlink ref="G144" r:id="rId822" xr:uid="{8E56E094-460C-4821-9942-E54C51D4CBE0}"/>
+    <hyperlink ref="G303" r:id="rId823" xr:uid="{3A490527-9C7E-4CA2-BBB0-24BD4557ABF5}"/>
+    <hyperlink ref="G130" r:id="rId824" xr:uid="{530235F3-E621-4CD7-BD94-4466B6548997}"/>
+    <hyperlink ref="G145" r:id="rId825" xr:uid="{A0E4CD8E-BBBC-4A6D-A3DF-5556D5C56AF2}"/>
+    <hyperlink ref="G146" r:id="rId826" xr:uid="{B3CBC04A-D93B-4C7D-964E-E1E0D6F80E19}"/>
+    <hyperlink ref="G147" r:id="rId827" xr:uid="{92A38F1C-A045-407D-BCA0-4A9B876399C7}"/>
+    <hyperlink ref="G148" r:id="rId828" xr:uid="{20805AE9-3960-4740-8C18-4F5F2CABC0B4}"/>
+    <hyperlink ref="G149" r:id="rId829" xr:uid="{818B75D6-6D18-416E-BEA6-CD7AE8BAEE95}"/>
+    <hyperlink ref="G109" r:id="rId830" xr:uid="{408EA5BB-EEC6-467F-980E-43BDCF41646F}"/>
+    <hyperlink ref="G434" r:id="rId831" xr:uid="{53E7C097-E2C6-48EA-B963-4159C0ED21EA}"/>
+    <hyperlink ref="G300" r:id="rId832" xr:uid="{F11B3F97-7283-42C8-9E1C-D47EDE6E2886}"/>
+    <hyperlink ref="G1026" r:id="rId833" xr:uid="{31AE34AB-4FE7-4F41-830E-12DAB5D1D142}"/>
+    <hyperlink ref="G675" r:id="rId834" xr:uid="{11AF1195-59BE-43AB-995C-B10527F76EB0}"/>
+    <hyperlink ref="G844" r:id="rId835" xr:uid="{7055A1D7-703E-4A27-9210-23C0C8029698}"/>
+    <hyperlink ref="G1076" r:id="rId836" xr:uid="{84BB7BB3-D24C-4B05-B7CF-BDC7E257371B}"/>
+    <hyperlink ref="G847" r:id="rId837" xr:uid="{029E66B4-FB45-45A0-993B-F271E2040D5B}"/>
+    <hyperlink ref="G848" r:id="rId838" xr:uid="{1897C62E-CB0B-414F-897B-D68ED6BC0FAE}"/>
+    <hyperlink ref="G63" r:id="rId839" xr:uid="{C5CD6954-C172-4761-8447-B494A83C65F5}"/>
+    <hyperlink ref="G64" r:id="rId840" xr:uid="{CF874628-5106-4BA8-BEB7-2223175983CE}"/>
+    <hyperlink ref="G65" r:id="rId841" xr:uid="{1F3AA423-6380-44AD-A8FB-184808C7EDDF}"/>
+    <hyperlink ref="G66" r:id="rId842" xr:uid="{AD0ADE70-96FD-41DA-9093-048BB85C579C}"/>
+    <hyperlink ref="G67" r:id="rId843" xr:uid="{C0527B1F-C99B-4F64-8C99-B62B9FE54211}"/>
+    <hyperlink ref="G68" r:id="rId844" xr:uid="{679A5008-7B6D-490B-BEC7-EE4EF9271CA5}"/>
+    <hyperlink ref="G69" r:id="rId845" xr:uid="{6E3C155E-6EFF-448A-839C-3BC33B7B5128}"/>
+    <hyperlink ref="G70" r:id="rId846" xr:uid="{215C7B39-CCB4-412E-B49A-89E053C81F23}"/>
+    <hyperlink ref="G71" r:id="rId847" xr:uid="{017BFEB0-1D17-4DC5-92D7-D1F350F4061D}"/>
+    <hyperlink ref="G106" r:id="rId848" xr:uid="{ED5EE03A-9AF8-401B-8FAC-9D92E77E3540}"/>
+    <hyperlink ref="G72" r:id="rId849" xr:uid="{5A92C4CD-10E0-4409-BAB7-369F6622FED2}"/>
+    <hyperlink ref="G73" r:id="rId850" xr:uid="{FD2082D1-6525-4EF9-BDE0-64D078A633D2}"/>
+    <hyperlink ref="G74" r:id="rId851" xr:uid="{B8A54F9D-5027-489D-98D7-5FCDE655C674}"/>
+    <hyperlink ref="G75" r:id="rId852" xr:uid="{07064045-B275-4D19-9188-750B06F6C55A}"/>
+    <hyperlink ref="G76" r:id="rId853" xr:uid="{2476742D-2D51-40FF-A849-E055BD386F3D}"/>
+    <hyperlink ref="G77" r:id="rId854" xr:uid="{A0504223-4473-4320-AD4A-AC4EEA34320C}"/>
+    <hyperlink ref="G78" r:id="rId855" xr:uid="{84D760CA-E6AC-4F1C-89CD-DCDF600E0CC7}"/>
+    <hyperlink ref="G79" r:id="rId856" xr:uid="{346940F8-DC69-4523-A6D7-D6C0891FCA2E}"/>
+    <hyperlink ref="G80" r:id="rId857" xr:uid="{E6C8CACF-62F5-4836-A995-4C1BDDB8C1D5}"/>
+    <hyperlink ref="G81" r:id="rId858" xr:uid="{B558F964-1489-4394-B4AB-00E455B7C061}"/>
+    <hyperlink ref="G82" r:id="rId859" xr:uid="{CD893FB6-F875-4AC4-8718-74823E379F1E}"/>
+    <hyperlink ref="G1202" r:id="rId860" xr:uid="{207F951D-E335-4D46-99DB-AC4BCE002377}"/>
+    <hyperlink ref="G83" r:id="rId861" xr:uid="{78E8B405-DDFE-4523-9C17-E439E7A35F28}"/>
+    <hyperlink ref="G84" r:id="rId862" xr:uid="{AAEE7045-6330-47B9-8475-DB8237DE03A9}"/>
+    <hyperlink ref="G85" r:id="rId863" xr:uid="{6575E818-E0EC-4AA0-B696-5D4A5A0064FE}"/>
+    <hyperlink ref="G737" r:id="rId864" xr:uid="{094A3E5D-774A-4A44-AEE6-B18414CEB11C}"/>
+    <hyperlink ref="G86" r:id="rId865" xr:uid="{DE5762B5-CF8F-46D0-897A-F1904E5BC369}"/>
+    <hyperlink ref="G1500" r:id="rId866" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
+    <hyperlink ref="G88" r:id="rId867" xr:uid="{5C68A9B9-18DC-41F0-8C6D-9E60CE63CB05}"/>
+    <hyperlink ref="G89" r:id="rId868" xr:uid="{4B6A94FC-7D29-4B61-91D2-D3DC6499A189}"/>
+    <hyperlink ref="G90" r:id="rId869" xr:uid="{508B6E8E-A802-44FD-A125-7F731995B4E9}"/>
+    <hyperlink ref="G91" r:id="rId870" xr:uid="{2115F3F4-4000-4EC4-8B61-BF652751FDBC}"/>
+    <hyperlink ref="G92" r:id="rId871" xr:uid="{3643B3BB-DBA0-44C1-A7CA-F218E4880BFE}"/>
+    <hyperlink ref="G93" r:id="rId872" xr:uid="{1E0F9459-375E-4FB2-BE7B-8D11FA7FB11C}"/>
+    <hyperlink ref="G94" r:id="rId873" xr:uid="{FCE80168-1D39-4B3A-A122-76EB477DB067}"/>
+    <hyperlink ref="G95" r:id="rId874" xr:uid="{F2A15B36-F99D-40C5-B0F0-CB4CCBD5F12B}"/>
+    <hyperlink ref="G96" r:id="rId875" xr:uid="{969BC453-5804-4D0F-8AEC-4FB1CF33AB83}"/>
+    <hyperlink ref="G97" r:id="rId876" xr:uid="{AA195322-351D-42B5-8AD9-E29B62FAD157}"/>
+    <hyperlink ref="G98" r:id="rId877" xr:uid="{52C83D6A-C363-4B79-B40C-B7A4C77F6583}"/>
+    <hyperlink ref="G6" r:id="rId878" xr:uid="{33E9A75B-7A5E-4563-BF5A-4D38BCB32A4B}"/>
+    <hyperlink ref="G62" r:id="rId879" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
+    <hyperlink ref="G61" r:id="rId880" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
+    <hyperlink ref="G60" r:id="rId881" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
+    <hyperlink ref="G99" r:id="rId882" xr:uid="{D6336EF7-B909-4B9B-9CD2-6D39BABB29B3}"/>
+    <hyperlink ref="E9" r:id="rId883" display="https://twitter.com/StefenReid" xr:uid="{47FAA099-3DEA-4B79-AA12-803C0A828741}"/>
+    <hyperlink ref="G9" r:id="rId884" xr:uid="{6A7CC8A8-E6D6-4C37-8514-B0D04E76916C}"/>
+    <hyperlink ref="G10" r:id="rId885" xr:uid="{5C871EEA-C84A-4C34-B253-376C512E8FBE}"/>
+    <hyperlink ref="G11" r:id="rId886" xr:uid="{CE4C5B2E-1090-4C6D-9CE3-1960B86FF466}"/>
+    <hyperlink ref="G12" r:id="rId887" xr:uid="{911C22C7-285D-4CA4-883B-70561F32EA38}"/>
+    <hyperlink ref="G13" r:id="rId888" xr:uid="{D36ABD2A-4CCF-4648-8B8F-E126B979E332}"/>
+    <hyperlink ref="G14" r:id="rId889" xr:uid="{41B8C214-456D-4719-BF02-D162957654DD}"/>
+    <hyperlink ref="G15" r:id="rId890" xr:uid="{FF0C74F1-C298-44F0-B293-55E1149DA5E1}"/>
+    <hyperlink ref="G16" r:id="rId891" xr:uid="{11EA88F4-B610-417A-A473-2249A6D9051E}"/>
+    <hyperlink ref="G17" r:id="rId892" xr:uid="{3782AD18-DD2F-44DA-B5C5-19686D3B6BCA}"/>
+    <hyperlink ref="G18" r:id="rId893" xr:uid="{3D81BA85-6ACB-4F0C-B3FC-0723210BD158}"/>
+    <hyperlink ref="G19" r:id="rId894" xr:uid="{86EF274A-30F2-43A7-A1E0-F1E6109FD19D}"/>
+    <hyperlink ref="G20" r:id="rId895" xr:uid="{57913861-B006-46D1-B72B-0A41DBA7C486}"/>
+    <hyperlink ref="G21" r:id="rId896" xr:uid="{DC9DA46D-F978-4547-8FEB-D77D3035E2C8}"/>
+    <hyperlink ref="G22" r:id="rId897" xr:uid="{DB097202-9AF3-4DF3-8037-A80ECC185BF2}"/>
+    <hyperlink ref="G23" r:id="rId898" xr:uid="{EEBC7D17-972E-4C77-8145-A550407166FC}"/>
+    <hyperlink ref="G24" r:id="rId899" xr:uid="{5FE4EB87-F843-4EA2-8B97-7D8D2A2F7DB1}"/>
+    <hyperlink ref="G25" r:id="rId900" xr:uid="{B3A84070-AF96-4DFC-B48A-E4C6839ECC41}"/>
+    <hyperlink ref="G26" r:id="rId901" xr:uid="{8BAF302A-B323-4DF0-B106-39BFB435A483}"/>
+    <hyperlink ref="G27" r:id="rId902" xr:uid="{A8AD6C34-B269-4FC7-9957-97A88241481D}"/>
+    <hyperlink ref="G28" r:id="rId903" xr:uid="{61F553EC-39A9-438B-8D01-97A916DBA451}"/>
+    <hyperlink ref="G29" r:id="rId904" xr:uid="{4CA4151D-E396-4FE9-8EFE-D1139341430F}"/>
+    <hyperlink ref="F30" r:id="rId905" display="https://a16z.com/2020/04/18/its-time-to-build/" xr:uid="{331BD6F2-823C-4A07-9E0B-35ABAEB5DF62}"/>
+    <hyperlink ref="G30" r:id="rId906" xr:uid="{22A6D03D-8B61-438B-8B36-606C401DB34D}"/>
+    <hyperlink ref="G31" r:id="rId907" xr:uid="{779A6D12-986B-48EB-BACB-97B29DE844CF}"/>
+    <hyperlink ref="G32" r:id="rId908" xr:uid="{4626499B-90D1-4703-A9E6-67C6819B2414}"/>
+    <hyperlink ref="G33" r:id="rId909" xr:uid="{1AF722ED-FD5C-4251-B8A1-5A0A3ACA727D}"/>
+    <hyperlink ref="G34" r:id="rId910" xr:uid="{14570975-1183-473F-944D-43F6AA334FA8}"/>
+    <hyperlink ref="G35" r:id="rId911" xr:uid="{4B39DFD6-7D7B-405C-B9F6-F0E65CA1971A}"/>
+    <hyperlink ref="G36" r:id="rId912" xr:uid="{90FA9A91-7FF3-4B3D-90BF-D4CFEC5208A6}"/>
+    <hyperlink ref="G37" r:id="rId913" xr:uid="{C10AF893-F02C-4F66-9680-EFDA51BAFD66}"/>
+    <hyperlink ref="G38" r:id="rId914" xr:uid="{DA8B9B1A-6908-4281-AAD6-502E318ABD00}"/>
+    <hyperlink ref="G39" r:id="rId915" xr:uid="{95C8DB88-5812-4E4A-B28B-E761876E32D7}"/>
+    <hyperlink ref="G40" r:id="rId916" xr:uid="{19D13271-9F80-47D7-9C06-77CA90D68085}"/>
+    <hyperlink ref="G42" r:id="rId917" xr:uid="{8BB9245D-434A-436A-B9AA-10256F56CCCB}"/>
+    <hyperlink ref="G43" r:id="rId918" xr:uid="{AF4EB408-246A-4BD8-A7E9-4F4D4CFB5912}"/>
+    <hyperlink ref="G44" r:id="rId919" xr:uid="{E0A7D83C-28B0-44F2-931F-12A5793506DF}"/>
+    <hyperlink ref="G45" r:id="rId920" xr:uid="{C9616753-B2C0-4C0A-9298-63BD2E321345}"/>
+    <hyperlink ref="G46" r:id="rId921" xr:uid="{7DBF72C5-5E34-4FBD-9552-3F4E11F4155B}"/>
+    <hyperlink ref="G41" r:id="rId922" xr:uid="{7D466483-D40F-4AF1-A73E-3DC53491E3B9}"/>
+    <hyperlink ref="F729" r:id="rId923" display="https://medium.com/@erikcason/crypto-truth-and-power-a3e08a51c77" xr:uid="{3772A21C-74AB-4279-B167-2C3D918B5F55}"/>
+    <hyperlink ref="G729" r:id="rId924" xr:uid="{59B31F42-762A-4A52-A8C5-F2C60B6C80B3}"/>
+    <hyperlink ref="G47" r:id="rId925" xr:uid="{67F2519D-B321-442B-B94E-8E76684CBADE}"/>
+    <hyperlink ref="G48" r:id="rId926" xr:uid="{88AE2CD2-98A0-4F89-B410-23E9F372D919}"/>
+    <hyperlink ref="G779" r:id="rId927" xr:uid="{4C0215E0-167B-42CC-97B0-0477A6D95BAA}"/>
+    <hyperlink ref="G780" r:id="rId928" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
+    <hyperlink ref="G791" r:id="rId929" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
+    <hyperlink ref="G790" r:id="rId930" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
+    <hyperlink ref="G282" r:id="rId931" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
+    <hyperlink ref="G378" r:id="rId932" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
+    <hyperlink ref="G538" r:id="rId933" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
+    <hyperlink ref="G539" r:id="rId934" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
+    <hyperlink ref="G1983" r:id="rId935" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
+    <hyperlink ref="G1945" r:id="rId936" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
+    <hyperlink ref="G1938" r:id="rId937" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
+    <hyperlink ref="G1934" r:id="rId938" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
+    <hyperlink ref="G1932" r:id="rId939" location="selection-129.0-129.70" xr:uid="{F73193B1-3F1B-49EF-AE5F-95D42063A433}"/>
+    <hyperlink ref="G1931" r:id="rId940" display="https://web.archive.org/web/20110529123206/http:/www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/" xr:uid="{27280835-3861-41A2-AFD0-27469D9E3BC8}"/>
+    <hyperlink ref="H1958" r:id="rId941" tooltip="Permalink to The Economics Of Bitcoin – Why Mainstream Economists Lie About Deflation" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/11/the-economics-of-bitcoin-why-mainstream-economist-lie-about-deflation/" xr:uid="{C9BB1019-840A-4C7A-96AB-E6BB3586946F}"/>
+    <hyperlink ref="H1959" r:id="rId942" tooltip="Permalink to The Economics Of Bitcoin – How Bitcoins Act As Money" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/18/the-economics-of-bitcoin-how-bitcoins-act-as-money/" xr:uid="{3D69A025-870E-4057-8C0E-9E1047F58139}"/>
+    <hyperlink ref="H1960" r:id="rId943" tooltip="Permalink to Against The Gold Standard" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/21/against-the-gold-standard/" xr:uid="{2B99D4B0-EE4E-4C71-8B13-A35470FE6FED}"/>
+    <hyperlink ref="H1961" r:id="rId944" tooltip="Permalink to The Economics Of Bitcoin – Doug Casey Gets It Wrong" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/23/the-economics-of-bitcoin-doug-casey-gets-it-wrong/" xr:uid="{6199A485-B113-4D2F-9CEF-1FEF37E8F481}"/>
+    <hyperlink ref="H1962" r:id="rId945" tooltip="Permalink to The Economics Of Bitcoin – Resource Allocation And Interest Rate Distortion" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/06/the-economics-of-bitcoin-resource-allocation-and-interest-rate-distortion/" xr:uid="{2CF4A7B6-D073-4D79-ADDB-65B6CBCDDAA2}"/>
+    <hyperlink ref="H1963" r:id="rId946" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/07/the-economics-of-bitcoin-challenging-mises-regression-theorem/" xr:uid="{1DD820B1-71AB-420F-99E9-1A93A206B2F2}"/>
+    <hyperlink ref="H1964" r:id="rId947" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem – Prof. George Selgin Responds" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/22/the-economics-of-bitcoin-%e2%80%93-challenging-mises%e2%80%99-regression-theorem-prof-george-selgin-responds/" xr:uid="{D9293E01-5E48-4F1B-A3E2-B06E1D0F4AF8}"/>
+    <hyperlink ref="H1965" r:id="rId948" tooltip="Permalink to Why Do People Want A Gold Standard When History Shows Us It Does Not Last?" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/12/01/why-do-people-want-a-gold-standard-when-history-shows-us-it-does-not-last/" xr:uid="{AA57D766-2716-48B5-BC09-108B9712092A}"/>
+    <hyperlink ref="G1933" r:id="rId949" xr:uid="{43C5ECEC-F2C2-410D-85ED-D16C715774CF}"/>
+    <hyperlink ref="G1930" r:id="rId950" xr:uid="{5A8121F1-5905-46DA-BB3D-7159D3CACAF8}"/>
+    <hyperlink ref="G1913" r:id="rId951" xr:uid="{0B30952E-9B18-496C-BC2D-39DB37DFE9DC}"/>
+    <hyperlink ref="G1927" r:id="rId952" location="selection-443.1-443.38" xr:uid="{0E2080D5-495C-4240-92C0-E4DF77F6715C}"/>
+    <hyperlink ref="G1926" r:id="rId953" xr:uid="{3DF16003-B2EA-4BE5-91D2-C8F8800A9B34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId952"/>
-  <drawing r:id="rId953"/>
+  <pageSetup orientation="portrait" r:id="rId954"/>
+  <drawing r:id="rId955"/>
 </worksheet>
 </file>
 
@@ -37344,7 +37452,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>2577</v>
       </c>
     </row>
@@ -37352,7 +37460,7 @@
       <c r="C4" t="s">
         <v>2578</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -37360,7 +37468,7 @@
       <c r="C5" t="s">
         <v>2580</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>2581</v>
       </c>
     </row>
@@ -37368,7 +37476,7 @@
       <c r="C6" t="s">
         <v>2582</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -37376,7 +37484,7 @@
       <c r="C7" t="s">
         <v>2585</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="98" t="s">
         <v>2584</v>
       </c>
     </row>
@@ -37384,7 +37492,7 @@
       <c r="C8" t="s">
         <v>2587</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="98" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -37392,7 +37500,7 @@
       <c r="C9" t="s">
         <v>2589</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="98" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -37400,7 +37508,7 @@
       <c r="C10" t="s">
         <v>2595</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>2594</v>
       </c>
     </row>
@@ -37408,7 +37516,7 @@
       <c r="C11" t="s">
         <v>2591</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -37416,12 +37524,12 @@
       <c r="C12" t="s">
         <v>2592</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="98" t="s">
         <v>2593</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="98" t="s">
         <v>2596</v>
       </c>
     </row>
@@ -37429,7 +37537,7 @@
       <c r="C15" t="s">
         <v>2598</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="98" t="s">
         <v>2597</v>
       </c>
     </row>
@@ -37437,7 +37545,7 @@
       <c r="C16" t="s">
         <v>2599</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="98" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -37445,7 +37553,7 @@
       <c r="C17" t="s">
         <v>2602</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="98" t="s">
         <v>2601</v>
       </c>
     </row>
@@ -37453,7 +37561,7 @@
       <c r="C18" t="s">
         <v>2603</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="98" t="s">
         <v>2604</v>
       </c>
     </row>
@@ -37461,7 +37569,7 @@
       <c r="C19" t="s">
         <v>2606</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="98" t="s">
         <v>2605</v>
       </c>
     </row>
@@ -37469,7 +37577,7 @@
       <c r="C20" t="s">
         <v>2608</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>2607</v>
       </c>
     </row>
@@ -37477,7 +37585,7 @@
       <c r="C21" t="s">
         <v>2610</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="98" t="s">
         <v>2609</v>
       </c>
     </row>
@@ -37485,7 +37593,7 @@
       <c r="C22" t="s">
         <v>2612</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="98" t="s">
         <v>2611</v>
       </c>
     </row>
@@ -37493,7 +37601,7 @@
       <c r="C23" t="s">
         <v>2614</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="98" t="s">
         <v>2613</v>
       </c>
     </row>
@@ -37501,12 +37609,12 @@
       <c r="C24" t="s">
         <v>2616</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="98" t="s">
         <v>2615</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="98" t="s">
         <v>2617</v>
       </c>
     </row>
@@ -37514,7 +37622,7 @@
       <c r="C27" t="s">
         <v>2619</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="98" t="s">
         <v>2618</v>
       </c>
     </row>
@@ -37522,7 +37630,7 @@
       <c r="C28" t="s">
         <v>2620</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="98" t="s">
         <v>2621</v>
       </c>
     </row>
@@ -37530,7 +37638,7 @@
       <c r="C29" t="s">
         <v>2623</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="98" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -37538,7 +37646,7 @@
       <c r="C30" t="s">
         <v>2625</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="98" t="s">
         <v>2624</v>
       </c>
     </row>
@@ -37546,7 +37654,7 @@
       <c r="C31" t="s">
         <v>2626</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="98" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -37554,7 +37662,7 @@
       <c r="C32" t="s">
         <v>2629</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="98" t="s">
         <v>2628</v>
       </c>
     </row>
@@ -37562,7 +37670,7 @@
       <c r="C33" t="s">
         <v>2631</v>
       </c>
-      <c r="D33" s="99" t="s">
+      <c r="D33" s="98" t="s">
         <v>2630</v>
       </c>
     </row>
@@ -37570,7 +37678,7 @@
       <c r="C34" t="s">
         <v>2632</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="98" t="s">
         <v>2633</v>
       </c>
     </row>
@@ -37578,7 +37686,7 @@
       <c r="C35" t="s">
         <v>2635</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="98" t="s">
         <v>2634</v>
       </c>
     </row>
@@ -37586,7 +37694,7 @@
       <c r="C36" t="s">
         <v>2637</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="98" t="s">
         <v>2636</v>
       </c>
     </row>
@@ -37594,7 +37702,7 @@
       <c r="C37" t="s">
         <v>2639</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="98" t="s">
         <v>2638</v>
       </c>
     </row>
@@ -37626,7 +37734,7 @@
       <c r="E1" s="78" t="s">
         <v>2103</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="80" t="s">
         <v>2102</v>
       </c>
     </row>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C6A1F-C27C-4E28-A171-2AE19C74DF3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CB39F-4840-4D4D-894B-2673A6BCF4D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32190" yWindow="10830" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="3242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="3245">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9770,6 +9770,15 @@
   </si>
   <si>
     <t>Gwern</t>
+  </si>
+  <si>
+    <t>Ryan Dickherber</t>
+  </si>
+  <si>
+    <t>Alternative Bitcoins in a Market of Currencies</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20110524144933/http://astrohacker.com/ahc/sister-alternative-different-species-bitcoins/</t>
   </si>
 </sst>
 </file>
@@ -10087,7 +10096,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10276,6 +10285,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13800,8 +13812,8 @@
   <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1898" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1920" sqref="F1920"/>
+      <pane ySplit="3" topLeftCell="A1910" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1939" sqref="F1939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34345,7 +34357,7 @@
       <c r="F1894" t="s">
         <v>2193</v>
       </c>
-      <c r="G1894" t="s">
+      <c r="G1894" s="3" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -34391,7 +34403,7 @@
       <c r="F1899" t="s">
         <v>2189</v>
       </c>
-      <c r="G1899" t="s">
+      <c r="G1899" s="3" t="s">
         <v>2190</v>
       </c>
     </row>
@@ -34406,7 +34418,7 @@
       <c r="F1900" t="s">
         <v>2191</v>
       </c>
-      <c r="G1900" t="s">
+      <c r="G1900" s="3" t="s">
         <v>2192</v>
       </c>
     </row>
@@ -34693,11 +34705,28 @@
       <c r="B1928" s="32">
         <v>40698</v>
       </c>
-      <c r="F1928" s="9" t="s">
+      <c r="E1928" s="60" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F1928" s="123" t="s">
         <v>1083</v>
       </c>
       <c r="G1928" t="s">
         <v>1084</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1929" s="32">
+        <v>40681</v>
+      </c>
+      <c r="E1929" s="60" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F1929" s="47" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G1929" s="3" t="s">
+        <v>3244</v>
       </c>
     </row>
     <row r="1930" spans="1:9" x14ac:dyDescent="0.25">
@@ -37430,10 +37459,14 @@
     <hyperlink ref="G1913" r:id="rId951" xr:uid="{0B30952E-9B18-496C-BC2D-39DB37DFE9DC}"/>
     <hyperlink ref="G1927" r:id="rId952" location="selection-443.1-443.38" xr:uid="{0E2080D5-495C-4240-92C0-E4DF77F6715C}"/>
     <hyperlink ref="G1926" r:id="rId953" xr:uid="{3DF16003-B2EA-4BE5-91D2-C8F8800A9B34}"/>
+    <hyperlink ref="G1899" r:id="rId954" xr:uid="{7AEE7714-1D23-4A8C-86B2-813D552EBCE2}"/>
+    <hyperlink ref="G1900" r:id="rId955" xr:uid="{90D40E3D-2813-4D2A-B1A3-097C4805AE69}"/>
+    <hyperlink ref="G1894" r:id="rId956" xr:uid="{2DE39767-0E7A-4E32-82B5-EC9A3AE85838}"/>
+    <hyperlink ref="G1929" r:id="rId957" display="https://web.archive.org/web/20110524144933/http:/astrohacker.com/ahc/sister-alternative-different-species-bitcoins/" xr:uid="{F27F3105-90F9-4F5D-9D44-63BC2B58A90C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId954"/>
-  <drawing r:id="rId955"/>
+  <pageSetup orientation="portrait" r:id="rId958"/>
+  <drawing r:id="rId959"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76CB39F-4840-4D4D-894B-2673A6BCF4D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A700B-29C8-4BBC-A436-E78B205ADCC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32190" yWindow="10830" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="3245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="3269">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9779,6 +9779,78 @@
   </si>
   <si>
     <t>https://web.archive.org/web/20110524144933/http://astrohacker.com/ahc/sister-alternative-different-species-bitcoins/</t>
+  </si>
+  <si>
+    <t>http://themonetaryfuture.blogspot.com/2013/04/bitcoin-obliterates-state-theory-of.html</t>
+  </si>
+  <si>
+    <t>Bitcoin Obliterates "The State Theory Of Money"</t>
+  </si>
+  <si>
+    <t>Jon Matonis</t>
+  </si>
+  <si>
+    <t>https://themonetaryfuture.blogspot.com/2013/05/the-elephant-in-payments-room.html</t>
+  </si>
+  <si>
+    <t>The Elephant In The Payments Room</t>
+  </si>
+  <si>
+    <t>Aaron Lasher</t>
+  </si>
+  <si>
+    <t>Bitcoin provides an opportunity to expose financial regulation as political favoritism and not consumer protection</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2013/04/27/bitcoin-provides-an-opportunity-to-expose-financial-regulation-as-political-favoritism-and-not-consumer-protection/</t>
+  </si>
+  <si>
+    <t>Credit cards vs. Bitcoin (Part One)</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2014/10/20/credit-cards-vs-bitcoin-part-one/</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2014/10/21/credit-cards-vs-bitcoin-part-two/</t>
+  </si>
+  <si>
+    <t>Credit cards vs. Bitcoin (Part Two)</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2014/04/14/ive-got-a-psychological-disorder-its-called-hoarding-bitcoins-and-its-making-you-rich/</t>
+  </si>
+  <si>
+    <t>I’ve got a psychological disorder. It’s called hoarding bitcoins, and it’s making you rich.</t>
+  </si>
+  <si>
+    <t>Is your bank solvent? How Bitcoin cuts through the 30-year fog of financial complacency</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2013/12/11/is-your-bank-solvent-how-bitcoin-cuts-through-the-30-year-fog-of-financial-complacency/</t>
+  </si>
+  <si>
+    <t>Blockchain technology and bitcoin the currency cannot be separated, and it’s time to settle this issue</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2014/12/05/blockchain-technology-and-bitcoin-the-currency-cannot-be-separated-and-its-time-to-settle-this-issue/</t>
+  </si>
+  <si>
+    <t>“Proof of reserves,” born out of tragedy, will slowly become the global gold standard for financial auditing</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2014/10/23/proof-of-reserves-born-out-of-tragedy-will-slowly-become-the-global-gold-standard-for-financial-auditing/</t>
+  </si>
+  <si>
+    <t>Prediction for a future event: “The Spike”</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2013/05/13/prediction-for-a-future-event-the-spike/</t>
+  </si>
+  <si>
+    <t>Bitcoin reminds us to choose our own destiny</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2013/06/01/bitcoin-reminds-us-to-choose-our-own-destiny/</t>
   </si>
 </sst>
 </file>
@@ -13812,8 +13884,8 @@
   <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1910" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1939" sqref="F1939"/>
+      <pane ySplit="3" topLeftCell="A1685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1711" sqref="G1711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30062,8 +30134,18 @@
       </c>
     </row>
     <row r="1411" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1411" s="32"/>
-      <c r="F1411" s="9"/>
+      <c r="B1411" s="32">
+        <v>41978</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1411" s="9" t="s">
+        <v>3261</v>
+      </c>
+      <c r="G1411" s="3" t="s">
+        <v>3262</v>
+      </c>
     </row>
     <row r="1412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1412" s="32"/>
@@ -30307,13 +30389,46 @@
       <c r="F1435" s="9"/>
     </row>
     <row r="1436" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F1436" s="9"/>
+      <c r="B1436" s="32">
+        <v>41935</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1436" s="9" t="s">
+        <v>3263</v>
+      </c>
+      <c r="G1436" s="3" t="s">
+        <v>3264</v>
+      </c>
     </row>
     <row r="1437" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F1437" s="9"/>
+      <c r="B1437" s="32">
+        <v>41933</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1437" s="9" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G1437" s="3" t="s">
+        <v>3255</v>
+      </c>
     </row>
     <row r="1438" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F1438" s="9"/>
+      <c r="B1438" s="32">
+        <v>41932</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1438" s="9" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G1438" s="3" t="s">
+        <v>3254</v>
+      </c>
     </row>
     <row r="1439" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1439" s="60">
@@ -31080,8 +31195,18 @@
       <c r="F1519" s="9"/>
     </row>
     <row r="1520" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1520" s="32"/>
-      <c r="F1520" s="9"/>
+      <c r="B1520" s="32">
+        <v>41743</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1520" s="9" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G1520" s="3" t="s">
+        <v>3257</v>
+      </c>
     </row>
     <row r="1521" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1521" s="60">
@@ -31950,7 +32075,18 @@
       <c r="B1606" s="32"/>
     </row>
     <row r="1607" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1607" s="32"/>
+      <c r="B1607" s="32">
+        <v>41619</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>3259</v>
+      </c>
+      <c r="G1607" s="3" t="s">
+        <v>3260</v>
+      </c>
     </row>
     <row r="1608" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1608" s="32">
@@ -32811,12 +32947,44 @@
       </c>
     </row>
     <row r="1711" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1711" s="60"/>
+      <c r="B1711" s="60">
+        <v>41426</v>
+      </c>
       <c r="C1711"/>
-      <c r="E1711" s="60"/>
+      <c r="E1711" s="60" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>3267</v>
+      </c>
+      <c r="G1711" s="3" t="s">
+        <v>3268</v>
+      </c>
     </row>
     <row r="1715" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1715" s="32"/>
+      <c r="B1715" s="32">
+        <v>41407</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G1715" s="3" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E1716" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F1716" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G1716" s="3" t="s">
+        <v>3248</v>
+      </c>
     </row>
     <row r="1717" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1717" s="60">
@@ -32873,6 +33041,20 @@
         <v>2776</v>
       </c>
     </row>
+    <row r="1725" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1725" s="32">
+        <v>41391</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G1725" s="3" t="s">
+        <v>3252</v>
+      </c>
+    </row>
     <row r="1726" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1726" s="32">
         <v>41388</v>
@@ -33166,7 +33348,15 @@
     </row>
     <row r="1748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1748" s="32"/>
-      <c r="G1748" s="3"/>
+      <c r="E1748" s="60" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G1748" s="3" t="s">
+        <v>3245</v>
+      </c>
     </row>
     <row r="1752" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1752" s="13"/>
@@ -34266,6 +34456,9 @@
     <row r="1878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1878" s="32">
         <v>40872</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>3247</v>
       </c>
       <c r="F1878" s="9" t="s">
         <v>2025</v>
@@ -34711,7 +34904,7 @@
       <c r="F1928" s="123" t="s">
         <v>1083</v>
       </c>
-      <c r="G1928" t="s">
+      <c r="G1928" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -34805,9 +34998,6 @@
       <c r="G1934" s="3" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="1935" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G1935" s="3"/>
     </row>
     <row r="1936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1936" s="32"/>
@@ -35891,7 +36081,7 @@
   <conditionalFormatting sqref="G1933:G1934 G1937">
     <cfRule type="duplicateValues" dxfId="242" priority="4157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1933:F1933 B1937:F1937 B1934:E1934">
+  <conditionalFormatting sqref="E1748 B1933:F1933 B1937:F1937 B1934:E1934">
     <cfRule type="duplicateValues" dxfId="241" priority="4159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1943">
@@ -36109,7 +36299,7 @@
   <conditionalFormatting sqref="F1851 F1715 F1719 F1736">
     <cfRule type="duplicateValues" dxfId="170" priority="9495"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1727:G1735 G1709:G1711 G1717:G1718">
+  <conditionalFormatting sqref="G1727:G1735 G1709:G1710 G1717:G1718">
     <cfRule type="duplicateValues" dxfId="169" priority="9644"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1727:F1735 F1709:F1711 F1717:F1718">
@@ -36481,16 +36671,16 @@
   <conditionalFormatting sqref="F1072">
     <cfRule type="duplicateValues" dxfId="46" priority="15323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2044:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2042 G2036:G2040 G2033:G2034 G985:G986 G851:G875 G1388:G1432 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1725 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1499 G1501:G1587 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1623 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G1912 G1932:G2031 G1914:G1928">
+  <conditionalFormatting sqref="G2044:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2042 G2036:G2040 G2033:G2034 G985:G986 G851:G875 G1388:G1410 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1710 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1435 G1501:G1519 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1606 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G1912 G1932:G1934 G1914:G1928 G1936:G2031 G1717:G1724 G1439:G1499 G1521:G1587 G1608:G1623 G1412:G1432 G1712:G1714">
     <cfRule type="duplicateValues" dxfId="45" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2044:G1048576 G1897 G1954:G2031 G1872:G1875 G1877:G1887 G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1715 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1946:G1952 G1939:G1944 G1933:G1937 G1902:G1912 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1529 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410:G1426 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2042 G2036:G2040 G2033:G2034 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1438 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1617 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758">
+  <conditionalFormatting sqref="G2044:G1048576 G1897 G1954:G2031 G1872:G1875 G1877:G1887 G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1946:G1952 G1939:G1944 G1933:G1934 G1902:G1912 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1519 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2042 G2036:G2040 G2033:G2034 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1435 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1606 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758 G1936:G1937 G1521:G1529 G1608:G1617 G1412:G1426">
     <cfRule type="duplicateValues" dxfId="44" priority="15387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2048:G2063 G531:G532 G1897 G1991:G1998 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1715 G1719 G1590:G1595 G1615 G1600:G1612 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410:G1419 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1939:G1942 G1944 G1954:G1982 G2000:G2024 G2065:G2070 G2074:G1048576 G799 G829 G1935:G1936 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1946:G1949 G1902:G1912 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1520 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1438 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59">
+  <conditionalFormatting sqref="G2048:G2063 G531:G532 G1897 G1991:G1998 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1719 G1590:G1595 G1615 G1600:G1606 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1939:G1942 G1944 G1954:G1982 G2000:G2024 G2065:G2070 G2074:G1048576 G799 G829 G1936 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1946:G1949 G1902:G1912 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1519 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1435 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59 G1608:G1612 G1412:G1419">
     <cfRule type="duplicateValues" dxfId="43" priority="15536"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2123:F1048576 F530:F532 F1897 F671 B802 F1939:F1942 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2048:B2070 B2074:B2122 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1944 F1954:F1982 F1991:F1998 F2000:F2009 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1930:F1931 F1745:F1752 F851:F860 F1946:F1949 F1902:F1912 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2011:F2024 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
+  <conditionalFormatting sqref="F2123:F1048576 F530:F532 F1897 F671 B802 F1939:F1942 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2048:B2070 B2074:B2122 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1944 F1954:F1982 F1991:F1998 F2000:F2009 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1930:F1931 F1745:F1747 F1749:F1752 F851:F860 F1946:F1949 F1902:F1912 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2011:F2024 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
     <cfRule type="duplicateValues" dxfId="42" priority="15537"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1913">
@@ -37463,10 +37653,22 @@
     <hyperlink ref="G1900" r:id="rId955" xr:uid="{90D40E3D-2813-4D2A-B1A3-097C4805AE69}"/>
     <hyperlink ref="G1894" r:id="rId956" xr:uid="{2DE39767-0E7A-4E32-82B5-EC9A3AE85838}"/>
     <hyperlink ref="G1929" r:id="rId957" display="https://web.archive.org/web/20110524144933/http:/astrohacker.com/ahc/sister-alternative-different-species-bitcoins/" xr:uid="{F27F3105-90F9-4F5D-9D44-63BC2B58A90C}"/>
+    <hyperlink ref="G1928" r:id="rId958" xr:uid="{7D377A8D-5D6F-4288-8B32-9FD87B23E964}"/>
+    <hyperlink ref="G1748" r:id="rId959" xr:uid="{E05D0CC9-7FF2-4873-B625-3F00A328FCEF}"/>
+    <hyperlink ref="G1716" r:id="rId960" xr:uid="{EB6A2DA7-7E68-4698-9CED-86D438EA2400}"/>
+    <hyperlink ref="G1725" r:id="rId961" xr:uid="{246ADE12-B394-471A-985D-035DBF9455F5}"/>
+    <hyperlink ref="G1438" r:id="rId962" xr:uid="{CF872A43-3BEC-4A9B-9D39-FC8996A06E12}"/>
+    <hyperlink ref="G1437" r:id="rId963" xr:uid="{329B8FD7-7A4B-473D-8CF0-AF22D295C8A6}"/>
+    <hyperlink ref="G1520" r:id="rId964" xr:uid="{E02A49FF-C24E-4073-ACA3-4F8486C0827B}"/>
+    <hyperlink ref="G1607" r:id="rId965" xr:uid="{E2E8B56D-C095-487A-AA65-9394E0309361}"/>
+    <hyperlink ref="G1411" r:id="rId966" xr:uid="{6D0D1F2F-3EE8-4D7C-92F8-A9D2FB392FD6}"/>
+    <hyperlink ref="G1436" r:id="rId967" xr:uid="{6D8E33E5-03A3-4527-88A2-9EAE1411E426}"/>
+    <hyperlink ref="G1715" r:id="rId968" xr:uid="{EC49F2BB-9C25-4C38-A069-1227C3ECC87D}"/>
+    <hyperlink ref="G1711" r:id="rId969" xr:uid="{F4939B9B-2D52-44F9-B235-BDDD1C8095FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId958"/>
-  <drawing r:id="rId959"/>
+  <pageSetup orientation="portrait" r:id="rId970"/>
+  <drawing r:id="rId971"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A700B-29C8-4BBC-A436-E78B205ADCC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F2C4C-9EAC-4DBB-8B72-970D7BC67129}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32190" yWindow="10830" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="3269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="3275">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9851,6 +9851,24 @@
   </si>
   <si>
     <t>https://chralash.wordpress.com/2013/06/01/bitcoin-reminds-us-to-choose-our-own-destiny/</t>
+  </si>
+  <si>
+    <t>https://chralash.wordpress.com/2013/04/17/how-bitcoin-will-protect-the-poor/</t>
+  </si>
+  <si>
+    <t>How Bitcoin will protect the poor</t>
+  </si>
+  <si>
+    <t>http://realvirtualcurrency.com/archives</t>
+  </si>
+  <si>
+    <t>aaron lasher blog archives</t>
+  </si>
+  <si>
+    <t>Digital Cash &amp; Monetary Freedom</t>
+  </si>
+  <si>
+    <t>http://oz.stern.nyu.edu/fall99/readings/digicash/</t>
   </si>
 </sst>
 </file>
@@ -10168,7 +10186,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10361,6 +10379,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -13884,8 +13903,8 @@
   <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1711" sqref="G1711"/>
+      <pane ySplit="3" topLeftCell="A2018" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2024" sqref="F2024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33037,8 +33056,28 @@
       </c>
     </row>
     <row r="1723" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F1723" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="G1723" s="124" t="s">
+        <v>3271</v>
+      </c>
       <c r="J1723" s="3" t="s">
         <v>2776</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1724" s="32">
+        <v>41381</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G1724" s="3" t="s">
+        <v>3269</v>
       </c>
     </row>
     <row r="1725" spans="2:10" x14ac:dyDescent="0.25">
@@ -33110,7 +33149,7 @@
       <c r="F1729" t="s">
         <v>2138</v>
       </c>
-      <c r="G1729" t="s">
+      <c r="G1729" s="3" t="s">
         <v>2139</v>
       </c>
     </row>
@@ -35675,7 +35714,18 @@
       <c r="B2050" s="60"/>
     </row>
     <row r="2051" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2051" s="60"/>
+      <c r="B2051" s="60">
+        <v>34790</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F2051" t="s">
+        <v>3273</v>
+      </c>
+      <c r="G2051" s="3" t="s">
+        <v>3274</v>
+      </c>
     </row>
     <row r="2052" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2052" s="60"/>
@@ -36671,13 +36721,13 @@
   <conditionalFormatting sqref="F1072">
     <cfRule type="duplicateValues" dxfId="46" priority="15323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2044:G1048576 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2042 G2036:G2040 G2033:G2034 G985:G986 G851:G875 G1388:G1410 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1710 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1435 G1501:G1519 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1606 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G1912 G1932:G1934 G1914:G1928 G1936:G2031 G1717:G1724 G1439:G1499 G1521:G1587 G1608:G1623 G1412:G1432 G1712:G1714">
+  <conditionalFormatting sqref="G2044:G2050 G1357:G1358 G791:G792 F790 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G298:G299 G225:G241 G243:G245 F242 G247 G295 G796:G818 G281:G292 G221:G222 G304:G372 G821:G830 G697:G712 G603:G608 G611:G664 G666:G673 G719:G728 G550:G593 G435:G539 G426:G428 G1727:G1747 G1223:G1280 G998:G1026 G1143:G1201 G2042 G2036:G2040 G2033:G2034 G985:G986 G851:G875 G1388:G1410 G1135:G1137 G1383:G1386 G833:G848 G988:G996 G1282:G1288 G1625:G1710 G877:G894 G964:G983 G896:G962 G374:G417 G1354:G1355 G1139:G1140 G1434:G1435 G1501:G1519 G1054:G1070 G1360:G1381 G675:G693 G1028:G1052 G794 G1589:G1606 G1072:G1132 G159 G430:G432 G1290:G1352 F66 G104:G105 G107 G1203:G1221 G738:G789 G8 G12 G58:G59 G730:G736 G1749:G1912 G1932:G1934 G1914:G1928 G1936:G2031 G1717:G1722 G1439:G1499 G1521:G1587 G1608:G1623 G1412:G1432 G1712:G1714 G2052:G1048576">
     <cfRule type="duplicateValues" dxfId="45" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2044:G1048576 G1897 G1954:G2031 G1872:G1875 G1877:G1887 G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1946:G1952 G1939:G1944 G1933:G1934 G1902:G1912 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1519 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2042 G2036:G2040 G2033:G2034 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1435 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1606 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758 G1936:G1937 G1521:G1529 G1608:G1617 G1412:G1426">
+  <conditionalFormatting sqref="G2044:G2050 G1897 G1954:G2031 G1872:G1875 G1877:G1887 G1928 G677:G681 G958:G962 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G298:G299 G337:G338 G340:G345 G350:G363 G522:G532 G662:G664 G668:G671 G426:G428 G775:G776 G730:G736 G697:G712 G685:G693 G765:G771 G780:G781 G799:G800 G778 G807:G812 G1006:G1011 G1272:G1276 G1462:G1468 G1470:G1475 G1621:G1623 G1719 G1831:G1835 G1865:G1869 G1846:G1848 G1004 G773 H1426 G383:G412 G414:G415 G802:G805 G320:G335 G1946:G1952 G1939:G1944 G1933:G1934 G1902:G1912 G1851:G1863 G1842:G1844 G1839 G1809:G1810 G1791:G1806 G1788 G1762:G1783 G1736:G1747 G1669:G1708 G1656:G1667 G1629:G1647 G1584:G1587 G1570:G1582 G1553:G1559 G1566:G1567 G1537:G1550 G1517:G1519 G1496:G1499 G1501:G1515 G1479:G1493 G1441:G1460 G1429:G1432 G1410 G1394:G1408 G1358 G1346:G1352 G1326:G1344 G1308:G1323 G1279:G1280 G1228:G1270 G1226 G1208:G1217 G1198:G1201 G1175:G1187 G1148:G1171 G1143:G1146 G1135:G1137 G1122:G1131 G1118:G1119 G1112:G1115 G1102:G1110 G1083:G1099 G1073:G1080 G1049:G1052 G1039:G1047 G1019:G1026 G985:G986 G897:G956 G877:G894 G843:G848 G851:G871 G821:G829 G814 G840:G841 G791:G792 F790 G607:G608 G611:G612 G614:G659 G603:G605 G536:G539 G435:G517 G365 G367:G372 H306 G295 G796:G797 G281:G292 G221:G222 G304:G318 G719:G726 G550:G593 G998:G1002 G2042 G2036:G2040 G2033:G2034 G1383:G1386 G988:G996 G1282:G1288 G1625:G1627 G964:G980 G374:G381 G1354:G1355 G1139 G1434:G1435 G1054:G1070 G1360:G1381 G1028:G1035 G794 G1589:G1606 G159 G430:G431 G1290:G1305 F66 G104:G105 G107 G738:G763 G8 G12 G58:G59 G1749:G1758 G1936:G1937 G1521:G1529 G1608:G1617 G1412:G1426 G2052:G1048576">
     <cfRule type="duplicateValues" dxfId="44" priority="15387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2048:G2063 G531:G532 G1897 G1991:G1998 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1719 G1590:G1595 G1615 G1600:G1606 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1939:G1942 G1944 G1954:G1982 G2000:G2024 G2065:G2070 G2074:G1048576 G799 G829 G1936 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1946:G1949 G1902:G1912 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1519 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1435 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59 G1608:G1612 G1412:G1419">
+  <conditionalFormatting sqref="G2048:G2050 G531:G532 G1897 G1991:G1998 G671 G802:G805 G662 G1873:G1875 G1877:G1887 G1928 G1805:G1806 G699:G708 G910:G912 G1801 G1659:G1663 G1678:G1705 G1708 G1719 G1590:G1595 G1615 G1600:G1606 G1598 G1347 G1395:G1405 G1407 G1166:G1169 G1163 G1042:G1047 G1143:G1146 G1039 G255:G274 G251:G253 G1:G5 G191 F160 G217:G219 G377 G225:G241 G243:G245 F242 G247 G298:G299 G510:G514 G550 G488:G507 G991 G993 G780 G775:G776 G771 G765:G766 G1553:G1557 G1529 G1453:G1459 G1488:G1493 G1318:G1322 G1308:G1312 G1314:G1316 G1231:G1232 G1280 G1364:G1372 G1377:G1381 G1755:G1758 G1629:G1636 G1501 G1503:G1505 G1508 G1510:G1512 G1769:G1774 G1777:G1782 G1788 G1793:G1799 G1740:G1746 G1665:G1667 G1446:G1451 G1079:G1080 G1099 G1274 G1475 G1423 G1291 G1212:G1215 G1472:G1473 G975 G1074 G1187 G1645 G1749:G1752 G1763 G914:G916 G918:G922 G924:G956 G958:G962 G1110 G1300:G1302 G999:G1002 G1006:G1011 G1051:G1052 G1004 G888 G899 G901:G903 G863:G865 G867:G871 G769 G753:G757 G730:G735 G524:G525 G980 G1020:G1023 G1085 G1115 G1149:G1159 G1181:G1184 G1217 G1237:G1270 G1293:G1298 G1326:G1334 G1410 G1467:G1468 G1470 G1515 G1523:G1527 G1638:G1643 G1831 G1833:G1835 G1846:G1848 G1939:G1942 G1944 G1954:G1982 G2000:G2024 G2065:G2070 G2074:G1048576 G799 G829 G1936 G552:G593 G527:G529 G611:G612 G538:G539 G614:G655 G657:G659 G685 G738:G750 G720:G723 G796:G797 G807:G812 G778 G1426:H1426 G851:G860 G821:G825 G814 G320:G333 G367 G1946:G1949 G1902:G1912 G1851:G1858 G1842:G1844 G1839 G1809:G1810 G1791 G1736:G1738 G1669:G1674 G1538:G1550 G1517:G1519 G1496 G1479:G1485 G1441:G1444 G1429:G1432 G1228:G1229 G1226 G1208 G1198:G1201 G1135:G1136 G1122:G1131 G1118:G1119 G1112:G1113 G1102:G1107 G1083 G985:G986 G877:G882 G843 G840:G841 G603:G605 H306 G295 G281:G292 G221:G222 G304:G318 G1383:G1386 G988:G989 G1282:G1288 G964:G973 G1434:G1435 G1054:G1070 G159 F66 G104:G105 G107 G8 G12 G58:G59 G1608:G1612 G1412:G1419 G2052:G2063">
     <cfRule type="duplicateValues" dxfId="43" priority="15536"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2123:F1048576 F530:F532 F1897 F671 B802 F1939:F1942 F1833:F1835 F1846:F1848 F1852:F1858 F699:F710 F910:F912 F1508 G1528 F1042:F1047 F1166:F1168 F1410:F1417 F1163 F255:F262 F251:F253 F1:F18 F162:F173 F665 F377 F225 F243:F245 F247 F298:F300 F509 F527:F528 F550 F488:F507 F886:F887 F914:F916 F918:F922 F899:F903 F780 F775:F776 F771 F753:F757 F730:F735 F765:F766 F864:F865 F867:F871 F862 F1629:F1630 F1755:F1758 F1778 F1797:F1799 F1804:F1806 F1801:F1802 F1590:F1595 F1615 F1600:F1609 F1598 F1472:F1473 F1475 F1488:F1490 F1669:F1674 F1540:F1550 F1553 F1555 F1646 F1442:F1443 F1453:F1457 F1311:F1316 F1318:F1319 F1398:F1403 F1405 F1421:F1423 F1449 F1419 F1384 F1378 F928:F956 F958:F963 F1254:F1268 F1279:F1280 F1112:F1113 F1762:F1764 F1771 F1347 F1363:F1375 F1349 F1340 F1102:F1109 B2048:B2070 B2074:B2122 B744 F1459 F1492:F1493 F1503 F993:F994 F991 F987:F989 F1143:F1146 F1154:F1159 F1468 F1678:F1684 F1687:F1704 F1773:F1774 F1226 F1322 F1212:F1215 F1273 F1187 F745:F750 F799 F829 F803:F805 F999:F1002 F1006:F1011 F1051:F1052 F1004 F1039 F1020:F1023 F1115 F1149:F1150 F1293:F1301 F1308:F1309 F1326:F1334 F1429 F1873:F1875 F1944 F1954:F1982 F1991:F1998 F2000:F2009 F768:F769 F552:F593 F611:F612 F538:F539 F614:F655 F657:F659 F662 F668 F685 F965:F973 F738:F743 F720:F723 F796:F797 F808:F812 F823:F825 F367 F326 F328:F333 F849 F320:F324 F318 F1884:F1887 F1930:F1931 F1745:F1747 F1749:F1752 F851:F860 F1946:F1949 F1902:F1912 F1842:F1844 F1839 F1809:F1810 F1656:F1665 F1479:F1485 F1208 F1198:F1202 F1133 F1122:F1131 F1118:F1119 F1049 F877:F882 F843 F840:F841 F603:F605 F1380:F1382 F1386:F1387 F1433:F1438 F534 F1303:F1305 F272:F274 F276:F277 F264:F270 F279:F295 F240:F241 F2011:F2024 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F304:F316 F201:F209 F217 F177:F178 F190:F195 F112 F1282:F1288 F1054:F1071 F1135:F1136 F114:F127 F129:F130 F132 F1290:F1291 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1500:F1501 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
@@ -37665,10 +37715,14 @@
     <hyperlink ref="G1436" r:id="rId967" xr:uid="{6D8E33E5-03A3-4527-88A2-9EAE1411E426}"/>
     <hyperlink ref="G1715" r:id="rId968" xr:uid="{EC49F2BB-9C25-4C38-A069-1227C3ECC87D}"/>
     <hyperlink ref="G1711" r:id="rId969" xr:uid="{F4939B9B-2D52-44F9-B235-BDDD1C8095FA}"/>
+    <hyperlink ref="G1724" r:id="rId970" xr:uid="{8EEEC6E4-A631-4FCA-AC98-6FC26FB8C671}"/>
+    <hyperlink ref="G1729" r:id="rId971" location="selection-7.0-7.46" xr:uid="{8921A850-5F88-40A1-8692-234CCC7E9226}"/>
+    <hyperlink ref="G1723" r:id="rId972" xr:uid="{A45F2285-A491-4A50-8B98-2AF0FD12BF16}"/>
+    <hyperlink ref="G2051" r:id="rId973" xr:uid="{AB6820CE-8E74-428F-ABC6-AD46608CE6A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId970"/>
-  <drawing r:id="rId971"/>
+  <pageSetup orientation="portrait" r:id="rId974"/>
+  <drawing r:id="rId975"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F2C4C-9EAC-4DBB-8B72-970D7BC67129}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768E542-5CD9-4722-BFE7-2991039E6D88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32190" yWindow="10830" windowWidth="22980" windowHeight="22785" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-26325" yWindow="11985" windowWidth="18765" windowHeight="11175" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -13903,8 +13903,8 @@
   <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A2018" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2024" sqref="F2024"/>
+      <pane ySplit="3" topLeftCell="A1892" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1903" sqref="F1903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13914,7 +13914,7 @@
     <col min="3" max="3" width="3.28515625" style="21" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
+    <col min="6" max="6" width="110.42578125" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" customWidth="1"/>
     <col min="8" max="8" width="46.7109375" customWidth="1"/>
   </cols>
@@ -34632,7 +34632,7 @@
       <c r="E1899" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1899" t="s">
+      <c r="F1899" s="47" t="s">
         <v>2189</v>
       </c>
       <c r="G1899" s="3" t="s">
@@ -34647,7 +34647,7 @@
       <c r="E1900" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1900" t="s">
+      <c r="F1900" s="47" t="s">
         <v>2191</v>
       </c>
       <c r="G1900" s="3" t="s">
@@ -34739,7 +34739,7 @@
       <c r="F1914" t="s">
         <v>1940</v>
       </c>
-      <c r="G1914" t="s">
+      <c r="G1914" s="3" t="s">
         <v>1941</v>
       </c>
     </row>
@@ -35720,7 +35720,7 @@
       <c r="E2051" t="s">
         <v>3247</v>
       </c>
-      <c r="F2051" t="s">
+      <c r="F2051" s="47" t="s">
         <v>3273</v>
       </c>
       <c r="G2051" s="3" t="s">
@@ -37719,10 +37719,11 @@
     <hyperlink ref="G1729" r:id="rId971" location="selection-7.0-7.46" xr:uid="{8921A850-5F88-40A1-8692-234CCC7E9226}"/>
     <hyperlink ref="G1723" r:id="rId972" xr:uid="{A45F2285-A491-4A50-8B98-2AF0FD12BF16}"/>
     <hyperlink ref="G2051" r:id="rId973" xr:uid="{AB6820CE-8E74-428F-ABC6-AD46608CE6A2}"/>
+    <hyperlink ref="G1914" r:id="rId974" xr:uid="{94005A37-6C72-426F-B246-0AB9EA5D27FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId974"/>
-  <drawing r:id="rId975"/>
+  <pageSetup orientation="portrait" r:id="rId975"/>
+  <drawing r:id="rId976"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768E542-5CD9-4722-BFE7-2991039E6D88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7041E-FC2F-4A99-81DE-473CEC7071C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26325" yWindow="11985" windowWidth="18765" windowHeight="11175" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Beautyon!$A$3:$F$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$F$2048:$G$2149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$A$3:$I$2122</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$553</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$562</definedName>
     <definedName name="_Toc4426557" localSheetId="0">Bitcoin!$F$575</definedName>
@@ -13903,8 +13903,8 @@
   <dimension ref="A1:Y2122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1903" sqref="F1903"/>
+      <pane ySplit="3" topLeftCell="A1420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1425" sqref="F1425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2DD88-0495-4B7D-915B-E575456217F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C5529C-ED94-4428-A342-5412338825C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="7230" windowWidth="21090" windowHeight="11505" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="11850" yWindow="6795" windowWidth="28635" windowHeight="19575" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="3278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="3288">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -9878,6 +9878,36 @@
   </si>
   <si>
     <t>https://medium.com/capriole/hash-ribbons-bitcoin-bottoms-60da13095836</t>
+  </si>
+  <si>
+    <t>Pete Dashinski</t>
+  </si>
+  <si>
+    <t>We're Leading You Away From Golden Calves And Towards Happiness</t>
+  </si>
+  <si>
+    <t>http://www.contravex.com/2014/10/01/were-leading-you-away-from-golden-calves-and-towards-happiness-2/</t>
+  </si>
+  <si>
+    <t>http://www.contravex.com/2014/04/18/ishmael/</t>
+  </si>
+  <si>
+    <t>Ishmael</t>
+  </si>
+  <si>
+    <t>The Wallet Inspector’s Promise</t>
+  </si>
+  <si>
+    <t>contravex.com/2014/02/27/the-wallet-inspectors-promise/</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>This Is The Bitcoin Empire. This Is The New Yasa</t>
+  </si>
+  <si>
+    <t>http://www.contravex.com/2014/08/07/this-is-the-bitcoin-empire-this-is-the-new-yasa/</t>
   </si>
 </sst>
 </file>
@@ -10060,7 +10090,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10155,6 +10185,12 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -10195,7 +10231,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10389,6 +10425,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -13496,7 +13536,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>555587</xdr:colOff>
+      <xdr:colOff>555586</xdr:colOff>
       <xdr:row>1394</xdr:row>
       <xdr:rowOff>93901</xdr:rowOff>
     </xdr:to>
@@ -13912,8 +13952,8 @@
   <dimension ref="A1:Y2126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
+      <pane ySplit="3" topLeftCell="A1474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1505" sqref="F1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13924,7 +13964,7 @@
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="110.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="7" max="7" width="80" customWidth="1"/>
     <col min="8" max="8" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29006,7 +29046,7 @@
       <c r="D1278" s="49" t="s">
         <v>1011</v>
       </c>
-      <c r="F1278" s="9" t="s">
+      <c r="F1278" s="126" t="s">
         <v>1026</v>
       </c>
       <c r="G1278" t="s">
@@ -29845,6 +29885,12 @@
       <c r="B1381" s="32">
         <v>42071</v>
       </c>
+      <c r="D1381" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>3278</v>
+      </c>
       <c r="F1381" s="9" t="s">
         <v>1020</v>
       </c>
@@ -29895,7 +29941,7 @@
       <c r="B1387" s="32">
         <v>42046</v>
       </c>
-      <c r="F1387" s="9" t="s">
+      <c r="F1387" s="126" t="s">
         <v>1019</v>
       </c>
       <c r="G1387" t="s">
@@ -30075,6 +30121,9 @@
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1401" s="32">
         <v>42016</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>46</v>
       </c>
       <c r="F1401" s="9" t="s">
         <v>1006</v>
@@ -30256,6 +30305,9 @@
       <c r="B1422" s="32">
         <v>41967</v>
       </c>
+      <c r="C1422" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="F1422" s="9" t="s">
         <v>1014</v>
       </c>
@@ -30656,8 +30708,18 @@
       </c>
     </row>
     <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1454" s="32"/>
-      <c r="F1454" s="9"/>
+      <c r="B1454" s="32">
+        <v>41913</v>
+      </c>
+      <c r="C1454" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1454" s="50" t="s">
+        <v>3279</v>
+      </c>
+      <c r="G1454" s="3" t="s">
+        <v>3280</v>
+      </c>
     </row>
     <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1455" s="32"/>
@@ -30846,6 +30908,20 @@
         <v>1273</v>
       </c>
     </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1476" s="32">
+        <v>41858</v>
+      </c>
+      <c r="C1476" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1476" s="50" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G1476" s="3" t="s">
+        <v>3287</v>
+      </c>
+    </row>
     <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1479" s="32">
         <v>41824</v>
@@ -30945,7 +31021,7 @@
       <c r="F1495" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="G1495" t="s">
+      <c r="G1495" s="3" t="s">
         <v>965</v>
       </c>
     </row>
@@ -31067,6 +31143,23 @@
       </c>
       <c r="G1504" s="3" t="s">
         <v>1931</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1505" s="32">
+        <v>41796</v>
+      </c>
+      <c r="C1505" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F1505" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="G1505" s="3" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="1507" spans="2:8" x14ac:dyDescent="0.25">
@@ -31263,8 +31356,21 @@
       <c r="F1522" s="9"/>
     </row>
     <row r="1523" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1523" s="32"/>
-      <c r="F1523" s="9"/>
+      <c r="B1523" s="32">
+        <v>41747</v>
+      </c>
+      <c r="C1523" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F1523" s="9" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G1523" s="3" t="s">
+        <v>3281</v>
+      </c>
     </row>
     <row r="1524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1524" s="32">
@@ -31665,6 +31771,9 @@
       <c r="B1559" s="32">
         <v>41715</v>
       </c>
+      <c r="C1559" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="F1559" s="9" t="s">
         <v>1191</v>
       </c>
@@ -31792,8 +31901,21 @@
       <c r="F1570" s="9"/>
     </row>
     <row r="1571" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1571" s="32"/>
-      <c r="F1571" s="9"/>
+      <c r="B1571" s="32">
+        <v>41697</v>
+      </c>
+      <c r="C1571" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F1571" s="50" t="s">
+        <v>3283</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>3284</v>
+      </c>
     </row>
     <row r="1572" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1572" s="60">
@@ -32758,7 +32880,7 @@
       <c r="E1677" t="s">
         <v>2407</v>
       </c>
-      <c r="F1677" s="9" t="s">
+      <c r="F1677" s="123" t="s">
         <v>2406</v>
       </c>
       <c r="G1677" s="3" t="s">
@@ -32770,7 +32892,7 @@
     </row>
     <row r="1678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1678" s="9"/>
-      <c r="G1678" t="s">
+      <c r="G1678" s="3" t="s">
         <v>2538</v>
       </c>
       <c r="H1678" t="s">
@@ -34639,7 +34761,7 @@
       <c r="E1898" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1898" t="s">
+      <c r="F1898" s="47" t="s">
         <v>2193</v>
       </c>
       <c r="G1898" s="3" t="s">
@@ -34685,7 +34807,7 @@
       <c r="E1903" s="60" t="s">
         <v>2170</v>
       </c>
-      <c r="F1903" s="47" t="s">
+      <c r="F1903" s="125" t="s">
         <v>2189</v>
       </c>
       <c r="G1903" s="3" t="s">
@@ -36774,16 +36896,16 @@
   <conditionalFormatting sqref="F1076">
     <cfRule type="duplicateValues" dxfId="46" priority="15323"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2048:G2054 G1361:G1362 G795:G796 F794 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G302:G303 G225:G241 G243:G245 F242 G247 G299 G800:G822 G285:G296 G221:G222 G308:G376 G825:G834 G701:G716 G607:G612 G615:G668 G670:G677 G723:G732 G554:G597 G439:G543 G430:G432 G1731:G1751 G1227:G1284 G1002:G1030 G1147:G1205 G2046 G2040:G2044 G2037:G2038 G989:G990 G855:G879 G1392:G1414 G1139:G1141 G1387:G1390 G837:G852 G992:G1000 G1286:G1292 G1629:G1714 G881:G898 G968:G987 G900:G966 G378:G421 G1358:G1359 G1143:G1144 G1438:G1439 G1505:G1523 G1058:G1074 G1364:G1385 G679:G697 G1032:G1056 G798 G1593:G1610 G1076:G1136 G159 G434:G436 G1294:G1356 F66 G104:G105 G107 G1207:G1225 G742:G793 G8 G12 G58:G59 G734:G740 G1753:G1916 G1936:G1938 G1918:G1932 G1940:G2035 G1721:G1726 G1443:G1503 G1525:G1591 G1612:G1627 G1416:G1436 G1716:G1718 G2056:G1048576">
+  <conditionalFormatting sqref="G2048:G2054 G1361:G1362 G795:G796 F794 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G302:G303 G225:G241 G243:G245 F242 G247 G299 G800:G822 G285:G296 G221:G222 G308:G376 G825:G834 G701:G716 G607:G612 G615:G668 G670:G677 G723:G732 G554:G597 G439:G543 G430:G432 G1731:G1751 G1227:G1284 G1002:G1030 G1147:G1205 G2046 G2040:G2044 G2037:G2038 G989:G990 G855:G879 G1392:G1414 G1139:G1141 G1387:G1390 G837:G852 G992:G1000 G1286:G1292 G1629:G1714 G881:G898 G968:G987 G900:G966 G378:G421 G1358:G1359 G1143:G1144 G1438:G1439 G1506:G1522 G1058:G1074 G1364:G1385 G679:G697 G1032:G1056 G798 G1593:G1610 G1076:G1136 G159 G434:G436 G1294:G1356 F66 G104:G105 G107 G1207:G1225 G742:G793 G8 G12 G58:G59 G734:G740 G1753:G1916 G1936:G1938 G1918:G1932 G1940:G2035 G1721:G1726 G1443:G1453 G1525:G1591 G1612:G1627 G1416:G1436 G1716:G1718 G2056:G1048576 G1455:G1475 G1477:G1503">
     <cfRule type="duplicateValues" dxfId="45" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2048:G2054 G1901 G1958:G2035 G1876:G1879 G1881:G1891 G1932 G681:G685 G962:G966 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G302:G303 G341:G342 G344:G349 G354:G367 G526:G536 G666:G668 G672:G675 G430:G432 G779:G780 G734:G740 G701:G716 G689:G697 G769:G775 G784:G785 G803:G804 G782 G811:G816 G1010:G1015 G1276:G1280 G1466:G1472 G1474:G1479 G1625:G1627 G1723 G1835:G1839 G1869:G1873 G1850:G1852 G1008 G777 H1430 G387:G416 G418:G419 G806:G809 G324:G339 G1950:G1956 G1943:G1948 G1937:G1938 G1906:G1916 G1855:G1867 G1846:G1848 G1843 G1813:G1814 G1795:G1810 G1792 G1766:G1787 G1740:G1751 G1673:G1712 G1660:G1671 G1633:G1651 G1588:G1591 G1574:G1586 G1557:G1563 G1570:G1571 G1541:G1554 G1521:G1523 G1500:G1503 G1505:G1519 G1483:G1497 G1445:G1464 G1433:G1436 G1414 G1398:G1412 G1362 G1350:G1356 G1330:G1348 G1312:G1327 G1283:G1284 G1232:G1274 G1230 G1212:G1221 G1202:G1205 G1179:G1191 G1152:G1175 G1147:G1150 G1139:G1141 G1126:G1135 G1122:G1123 G1116:G1119 G1106:G1114 G1087:G1103 G1077:G1084 G1053:G1056 G1043:G1051 G1023:G1030 G989:G990 G901:G960 G881:G898 G847:G852 G855:G875 G825:G833 G818 G844:G845 G795:G796 F794 G611:G612 G615:G616 G618:G663 G607:G609 G540:G543 G439:G521 G369 G371:G376 H310 G299 G800:G801 G285:G296 G221:G222 G308:G322 G723:G730 G554:G597 G1002:G1006 G2046 G2040:G2044 G2037:G2038 G1387:G1390 G992:G1000 G1286:G1292 G1629:G1631 G968:G984 G378:G385 G1358:G1359 G1143 G1438:G1439 G1058:G1074 G1364:G1385 G1032:G1039 G798 G1593:G1610 G159 G434:G435 G1294:G1309 F66 G104:G105 G107 G742:G767 G8 G12 G58:G59 G1753:G1762 G1940:G1941 G1525:G1533 G1612:G1621 G1416:G1430 G2056:G1048576">
+  <conditionalFormatting sqref="G2048:G2054 G1901 G1958:G2035 G1876:G1879 G1881:G1891 G1932 G681:G685 G962:G966 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G225:G241 G243:G245 F242 G247 G302:G303 G341:G342 G344:G349 G354:G367 G526:G536 G666:G668 G672:G675 G430:G432 G779:G780 G734:G740 G701:G716 G689:G697 G769:G775 G784:G785 G803:G804 G782 G811:G816 G1010:G1015 G1276:G1280 G1466:G1472 G1474:G1475 G1625:G1627 G1723 G1835:G1839 G1869:G1873 G1850:G1852 G1008 G777 H1430 G387:G416 G418:G419 G806:G809 G324:G339 G1950:G1956 G1943:G1948 G1937:G1938 G1906:G1916 G1855:G1867 G1846:G1848 G1843 G1813:G1814 G1795:G1810 G1792 G1766:G1787 G1740:G1751 G1673:G1712 G1660:G1671 G1633:G1651 G1588:G1591 G1574:G1586 G1557:G1563 G1570:G1571 G1541:G1554 G1521:G1522 G1500:G1503 G1506:G1519 G1483:G1497 G1445:G1453 G1433:G1436 G1414 G1398:G1412 G1362 G1350:G1356 G1330:G1348 G1312:G1327 G1283:G1284 G1232:G1274 G1230 G1212:G1221 G1202:G1205 G1179:G1191 G1152:G1175 G1147:G1150 G1139:G1141 G1126:G1135 G1122:G1123 G1116:G1119 G1106:G1114 G1087:G1103 G1077:G1084 G1053:G1056 G1043:G1051 G1023:G1030 G989:G990 G901:G960 G881:G898 G847:G852 G855:G875 G825:G833 G818 G844:G845 G795:G796 F794 G611:G612 G615:G616 G618:G663 G607:G609 G540:G543 G439:G521 G369 G371:G376 H310 G299 G800:G801 G285:G296 G221:G222 G308:G322 G723:G730 G554:G597 G1002:G1006 G2046 G2040:G2044 G2037:G2038 G1387:G1390 G992:G1000 G1286:G1292 G1629:G1631 G968:G984 G378:G385 G1358:G1359 G1143 G1438:G1439 G1058:G1074 G1364:G1385 G1032:G1039 G798 G1593:G1610 G159 G434:G435 G1294:G1309 F66 G104:G105 G107 G742:G767 G8 G12 G58:G59 G1753:G1762 G1940:G1941 G1525:G1533 G1612:G1621 G1416:G1430 G2056:G1048576 G1455:G1464 G1477:G1479">
     <cfRule type="duplicateValues" dxfId="44" priority="15387"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2052:G2054 G535:G536 G1901 G1995:G2002 G675 G806:G809 G666 G1877:G1879 G1881:G1891 G1932 G1809:G1810 G703:G712 G914:G916 G1805 G1663:G1667 G1682:G1709 G1712 G1723 G1594:G1599 G1619 G1604:G1610 G1602 G1351 G1399:G1409 G1411 G1170:G1173 G1167 G1046:G1051 G1147:G1150 G1043 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G381 G225:G241 G243:G245 F242 G247 G302:G303 G514:G518 G554 G492:G511 G995 G997 G784 G779:G780 G775 G769:G770 G1557:G1561 G1533 G1457:G1463 G1492:G1497 G1322:G1326 G1312:G1316 G1318:G1320 G1235:G1236 G1284 G1368:G1376 G1381:G1385 G1759:G1762 G1633:G1640 G1505 G1507:G1509 G1512 G1514:G1516 G1773:G1778 G1781:G1786 G1792 G1797:G1803 G1744:G1750 G1669:G1671 G1450:G1455 G1083:G1084 G1103 G1278 G1479 G1427 G1295 G1216:G1219 G1476:G1477 G979 G1078 G1191 G1649 G1753:G1756 G1767 G918:G920 G922:G926 G928:G960 G962:G966 G1114 G1304:G1306 G1003:G1006 G1010:G1015 G1055:G1056 G1008 G892 G903 G905:G907 G867:G869 G871:G875 G773 G757:G761 G734:G739 G528:G529 G984 G1024:G1027 G1089 G1119 G1153:G1163 G1185:G1188 G1221 G1241:G1274 G1297:G1302 G1330:G1338 G1414 G1471:G1472 G1474 G1519 G1527:G1531 G1642:G1647 G1835 G1837:G1839 G1850:G1852 G1943:G1946 G1948 G1958:G1986 G2004:G2028 G2069:G2074 G2078:G1048576 G803 G833 G1940 G556:G597 G531:G533 G615:G616 G542:G543 G618:G659 G661:G663 G689 G742:G754 G724:G727 G800:G801 G811:G816 G782 G1430:H1430 G855:G864 G825:G829 G818 G324:G337 G371 G1950:G1953 G1906:G1916 G1855:G1862 G1846:G1848 G1843 G1813:G1814 G1795 G1740:G1742 G1673:G1678 G1542:G1554 G1521:G1523 G1500 G1483:G1489 G1445:G1448 G1433:G1436 G1232:G1233 G1230 G1212 G1202:G1205 G1139:G1140 G1126:G1135 G1122:G1123 G1116:G1117 G1106:G1111 G1087 G989:G990 G881:G886 G847 G844:G845 G607:G609 H310 G299 G285:G296 G221:G222 G308:G322 G1387:G1390 G992:G993 G1286:G1292 G968:G977 G1438:G1439 G1058:G1074 G159 F66 G104:G105 G107 G8 G12 G58:G59 G1612:G1616 G1416:G1423 G2056:G2067">
+  <conditionalFormatting sqref="G2052:G2054 G535:G536 G1901 G1995:G2002 G675 G806:G809 G666 G1877:G1879 G1881:G1891 G1932 G1809:G1810 G703:G712 G914:G916 G1805 G1663:G1667 G1682:G1709 G1712 G1723 G1594:G1599 G1619 G1604:G1610 G1602 G1351 G1399:G1409 G1411 G1170:G1173 G1167 G1046:G1051 G1147:G1150 G1043 G255:G277 G251:G253 G1:G5 G191 F160 G217:G219 G381 G225:G241 G243:G245 F242 G247 G302:G303 G514:G518 G554 G492:G511 G995 G997 G784 G779:G780 G775 G769:G770 G1557:G1561 G1533 G1457:G1463 G1492:G1497 G1322:G1326 G1312:G1316 G1318:G1320 G1235:G1236 G1284 G1368:G1376 G1381:G1385 G1759:G1762 G1633:G1640 G1507:G1509 G1512 G1514:G1516 G1773:G1778 G1781:G1786 G1792 G1797:G1803 G1744:G1750 G1669:G1671 G1450:G1453 G1083:G1084 G1103 G1278 G1479 G1427 G1295 G1216:G1219 G1477 G979 G1078 G1191 G1649 G1753:G1756 G1767 G918:G920 G922:G926 G928:G960 G962:G966 G1114 G1304:G1306 G1003:G1006 G1010:G1015 G1055:G1056 G1008 G892 G903 G905:G907 G867:G869 G871:G875 G773 G757:G761 G734:G739 G528:G529 G984 G1024:G1027 G1089 G1119 G1153:G1163 G1185:G1188 G1221 G1241:G1274 G1297:G1302 G1330:G1338 G1414 G1471:G1472 G1474 G1519 G1527:G1531 G1642:G1647 G1835 G1837:G1839 G1850:G1852 G1943:G1946 G1948 G1958:G1986 G2004:G2028 G2069:G2074 G2078:G1048576 G803 G833 G1940 G556:G597 G531:G533 G615:G616 G542:G543 G618:G659 G661:G663 G689 G742:G754 G724:G727 G800:G801 G811:G816 G782 G1430:H1430 G855:G864 G825:G829 G818 G324:G337 G371 G1950:G1953 G1906:G1916 G1855:G1862 G1846:G1848 G1843 G1813:G1814 G1795 G1740:G1742 G1673:G1678 G1542:G1554 G1521:G1522 G1500 G1483:G1489 G1445:G1448 G1433:G1436 G1232:G1233 G1230 G1212 G1202:G1205 G1139:G1140 G1126:G1135 G1122:G1123 G1116:G1117 G1106:G1111 G1087 G989:G990 G881:G886 G847 G844:G845 G607:G609 H310 G299 G285:G296 G221:G222 G308:G322 G1387:G1390 G992:G993 G1286:G1292 G968:G977 G1438:G1439 G1058:G1074 G159 F66 G104:G105 G107 G8 G12 G58:G59 G1612:G1616 G1416:G1423 G2056:G2067 G1455">
     <cfRule type="duplicateValues" dxfId="43" priority="15536"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2127:F1048576 F534:F536 F1901 F675 B806 F1943:F1946 F1837:F1839 F1850:F1852 F1856:F1862 F703:F714 F914:F916 F1512 G1532 F1046:F1051 F1170:F1172 F1414:F1421 F1167 F255:F262 F251:F253 F1:F18 F162:F173 F669 F381 F225 F243:F245 F247 F302:F304 F513 F531:F532 F554 F492:F511 F890:F891 F918:F920 F922:F926 F903:F907 F784 F779:F780 F775 F757:F761 F734:F739 F769:F770 F868:F869 F871:F875 F866 F1633:F1634 F1759:F1762 F1782 F1801:F1803 F1808:F1810 F1805:F1806 F1594:F1599 F1619 F1604:F1613 F1602 F1476:F1477 F1479 F1492:F1494 F1673:F1678 F1544:F1554 F1557 F1559 F1650 F1446:F1447 F1457:F1461 F1315:F1320 F1322:F1323 F1402:F1407 F1409 F1425:F1427 F1453 F1423 F1388 F1382 F932:F960 F962:F967 F1258:F1272 F1283:F1284 F1116:F1117 F1766:F1768 F1775 F1351 F1367:F1379 F1353 F1344 F1106:F1113 B2052:B2074 B2078:B2126 B748 F1463 F1496:F1497 F1507 F997:F998 F995 F991:F993 F1147:F1150 F1158:F1163 F1472 F1682:F1688 F1691:F1708 F1777:F1778 F1230 F1326 F1216:F1219 F1277 F1191 F749:F754 F803 F833 F807:F809 F1003:F1006 F1010:F1015 F1055:F1056 F1008 F1043 F1024:F1027 F1119 F1153:F1154 F1297:F1305 F1312:F1313 F1330:F1338 F1433 F1877:F1879 F1948 F1958:F1986 F1995:F2002 F2004:F2013 F772:F773 F556:F597 F615:F616 F542:F543 F618:F659 F661:F663 F666 F672 F689 F969:F977 F742:F747 F724:F727 F800:F801 F812:F816 F827:F829 F371 F330 F332:F337 F853 F324:F328 F322 F1888:F1891 F1934:F1935 F1749:F1751 F1753:F1756 F855:F864 F1950:F1953 F1906:F1916 F1846:F1848 F1843 F1813:F1814 F1660:F1669 F1483:F1489 F1212 F1202:F1206 F1137 F1126:F1135 F1122:F1123 F1053 F881:F886 F847 F844:F845 F607:F609 F1384:F1386 F1390:F1391 F1437:F1442 F538 F1307:F1309 F272:F278 F280:F281 F264:F270 F283:F299 F240:F241 F2015:F2028 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F308:F320 F201:F209 F217 F177:F178 F190:F195 F112 F1286:F1292 F1058:F1075 F1139:F1140 F114:F127 F129:F130 F132 F1294:F1295 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1504:F1505 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
+  <conditionalFormatting sqref="F2127:F1048576 F534:F536 F1901 F675 B806 F1943:F1946 F1837:F1839 F1850:F1852 F1856:F1862 F703:F714 F914:F916 F1512 G1532 F1046:F1051 F1170:F1172 F1414:F1421 F1167 F255:F262 F251:F253 F1:F18 F162:F173 F669 F381 F225 F243:F245 F247 F302:F304 F513 F531:F532 F554 F492:F511 F890:F891 F918:F920 F922:F926 F903:F907 F784 F779:F780 F775 F757:F761 F734:F739 F769:F770 F868:F869 F871:F875 F866 F1633:F1634 F1759:F1762 F1782 F1801:F1803 F1808:F1810 F1805:F1806 F1594:F1599 F1619 F1604:F1613 F1602 F1477 F1479 F1492:F1494 F1673:F1678 F1544:F1554 F1557 F1559 F1650 F1446:F1447 F1457:F1461 F1315:F1320 F1322:F1323 F1402:F1407 F1409 F1425:F1427 F1453 F1423 F1388 F1382 F932:F960 F962:F967 F1258:F1272 F1283:F1284 F1116:F1117 F1766:F1768 F1775 F1351 F1367:F1379 F1353 F1344 F1106:F1113 B2052:B2074 B2078:B2126 B748 F1463 F1496:F1497 F1507 F997:F998 F995 F991:F993 F1147:F1150 F1158:F1163 F1472 F1682:F1688 F1691:F1708 F1777:F1778 F1230 F1326 F1216:F1219 F1277 F1191 F749:F754 F803 F833 F807:F809 F1003:F1006 F1010:F1015 F1055:F1056 F1008 F1043 F1024:F1027 F1119 F1153:F1154 F1297:F1305 F1312:F1313 F1330:F1338 F1433 F1877:F1879 F1948 F1958:F1986 F1995:F2002 F2004:F2013 F772:F773 F556:F597 F615:F616 F542:F543 F618:F659 F661:F663 F666 F672 F689 F969:F977 F742:F747 F724:F727 F800:F801 F812:F816 F827:F829 F371 F330 F332:F337 F853 F324:F328 F322 F1888:F1891 F1934:F1935 F1749:F1751 F1753:F1756 F855:F864 F1950:F1953 F1906:F1916 F1846:F1848 F1843 F1813:F1814 F1660:F1669 F1483:F1489 F1212 F1202:F1206 F1137 F1126:F1135 F1122:F1123 F1053 F881:F886 F847 F844:F845 F607:F609 F1384:F1386 F1390:F1391 F1437:F1442 F538 F1307:F1309 F272:F278 F280:F281 F264:F270 F283:F299 F240:F241 F2015:F2028 F234:F235 F232 F227:F229 F237:F238 F219:F222 F211:F215 F308:F320 F201:F209 F217 F177:F178 F190:F195 F112 F1286:F1292 F1058:F1075 F1139:F1140 F114:F127 F129:F130 F132 F1294:F1295 F136:F137 F139 F141:F144 F159 F67:F86 F88:F100 F1504 F102:F108 F20:F29 F31:F33 F35:F43 F45:F65">
     <cfRule type="duplicateValues" dxfId="42" priority="15537"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1917">
@@ -37286,498 +37408,508 @@
     <hyperlink ref="F1653" r:id="rId485" tooltip="Permanent Link to Things that matter these days ; things that don't matter these days." display="http://trilema.com/2013/things-that-matter-these-days-things-that-dont-matter-these-days/" xr:uid="{85691189-83AD-417E-9202-604C3F1A1421}"/>
     <hyperlink ref="F1622" r:id="rId486" tooltip="Permanent Link to Bitcoin will die" display="http://trilema.com/2013/bitcoin-will-die/" xr:uid="{7CCECB2F-7E55-4FA2-B956-10419447610C}"/>
     <hyperlink ref="F1632" r:id="rId487" tooltip="Permanent Link to Bitcoin as replacement for the electoral system" display="http://trilema.com/2013/bitcoin-as-replacement-for-the-electoral-system/" xr:uid="{6F473BB0-794C-4EBB-83D0-F1EC3C500809}"/>
-    <hyperlink ref="F1572" r:id="rId488" tooltip="Permanent Link to Guidance : There Is No Such Thing As Bitcoin Taint." display="http://trilema.com/2014/guidance-there-is-no-such-thing-as-bitcoin-taint/" xr:uid="{0E0B14BA-A816-4AF9-9C43-01BCEC5ED3D8}"/>
-    <hyperlink ref="F1555" r:id="rId489" tooltip="Permanent Link to The battlefield of the future" display="http://trilema.com/2014/the-battlefield-of-the-future/" xr:uid="{A6DA12BF-29D6-4AED-B106-19C7999BB961}"/>
-    <hyperlink ref="F1556" r:id="rId490" tooltip="Permanent Link to An era ends today. A new era starts today." display="http://trilema.com/2014/an-era-ends-today-a-new-era-starts-today/" xr:uid="{BD9A507E-57C5-4A3F-84C3-5C45B3600794}"/>
-    <hyperlink ref="F1539" r:id="rId491" tooltip="Permanent Link to A complete theory of economics" display="http://trilema.com/2014/a-complete-theory-of-economics/" xr:uid="{06227438-0492-4F88-AF18-A125AAD1E9DA}"/>
-    <hyperlink ref="F1538" r:id="rId492" tooltip="Permanent Link to The discreet escort, or how Bitcoin makes prostitution unprosecutable" display="http://trilema.com/2014/the-discreet-escort-or-how-bitcoin-makes-prostitution-unprosecutable/" xr:uid="{0414ED8D-5FCC-48DB-86BA-9B2BCC34339E}"/>
-    <hyperlink ref="F1535" r:id="rId493" tooltip="Permanent Link to The sins of the group of posers behind the so called &quot;Bitcoin Foundation&quot;" display="http://trilema.com/2014/the-sins-of-the-group-of-posers-behind-the-so-called-bitcoin-foundation/" xr:uid="{F1BB9CDC-5684-493B-83B3-0771A2F33547}"/>
-    <hyperlink ref="F1520" r:id="rId494" tooltip="Permanent Link to The idea that Bitcoin is a sovereign..." display="http://trilema.com/2014/the-idea-that-bitcoin-is-a-sovereign/" xr:uid="{E4089F18-AF4F-471A-B183-BA9B72151684}"/>
-    <hyperlink ref="G1520" r:id="rId495" xr:uid="{7620D5E1-0056-4BD2-AE0D-A99E52DF3CEC}"/>
-    <hyperlink ref="F1498" r:id="rId496" tooltip="Permanent Link to The problem of enforcement" display="http://trilema.com/2014/the-problem-of-enforcement/" xr:uid="{DF3B092E-75D5-4831-94BC-E85752341FF9}"/>
-    <hyperlink ref="G1496" r:id="rId497" xr:uid="{796BFA37-4AAB-48E4-AC28-94A5D1D207DF}"/>
-    <hyperlink ref="F1480" r:id="rId498" tooltip="Permanent Link to Time for some Bitlicenses of our own." display="http://trilema.com/2014/time-for-some-bitlicenses-of-our-own/" xr:uid="{225AB33B-A43C-4805-B781-75C3EAB83936}"/>
-    <hyperlink ref="F1473" r:id="rId499" tooltip="Permanent Link to The woes of Altcoin, or why there is no such thing as &quot;cryptocurrencies&quot;" display="http://trilema.com/2014/the-woes-of-altcoin-or-why-there-is-no-such-thing-as-cryptocurrencies/" xr:uid="{FD3B43EA-187F-432D-955C-233EA184031B}"/>
-    <hyperlink ref="F1465" r:id="rId500" tooltip="Permanent Link to A humble proposal to Bitcoin miners" display="http://trilema.com/2014/a-humble-proposal-to-bitcoin-miners/" xr:uid="{AF121DC6-378F-4EC7-9BD8-4D5432F700F2}"/>
-    <hyperlink ref="F1443" r:id="rId501" tooltip="Permanent Link to USGavin, the lolcow" display="http://trilema.com/2014/usgavin-the-lolcow/" xr:uid="{3949A12B-621E-473A-BE28-EA4237D3146B}"/>
-    <hyperlink ref="F1444" r:id="rId502" tooltip="Permanent Link to How to deal with pseudoscience ?" display="http://trilema.com/2014/how-to-deal-with-pseudoscience/" xr:uid="{A7EC58AF-A415-4C30-AD7A-A3887033AF07}"/>
-    <hyperlink ref="F1432" r:id="rId503" tooltip="Permanent Link to Actual Bitcoin corporations (ABCs) versus fiat-based frauds trying to masquerade as Bitcoin companies (while masquerading as companies in the first place) on the solid theory that the general public is too stupid to make any difference, " display="http://trilema.com/2014/actual-bitcoin-corporations-abcs-versus-fiat-based-frauds-trying-to-masquerade-as-bitcoin-companies-while-masquerading-as-companies-in-the-first-place-on-the-solid-theory-that-the-general-public-i/" xr:uid="{A3A2A811-4ADA-4662-ADAA-C6F7697BBEBB}"/>
-    <hyperlink ref="F1392" r:id="rId504" tooltip="Permanent Link to If you go on a Bitcoin fork, irrespective which scammer proposes it, you will lose your Bitcoins." display="http://trilema.com/2015/if-you-go-on-a-bitcoin-fork-irrespective-which-scammer-proposes-it-you-will-lose-your-bitcoins/" xr:uid="{C92B5772-316B-449F-9A2D-B93BB1BAE4E2}"/>
-    <hyperlink ref="F1394" r:id="rId505" tooltip="Permanent Link to Let's address some of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-some-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{FFA80CCB-58AB-474A-8867-2D90E1514AC1}"/>
-    <hyperlink ref="F1395" r:id="rId506" tooltip="Permanent Link to Let's address even more of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-even-more-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{4F5AE502-17BA-4DD5-AC94-BA076F6BF57E}"/>
-    <hyperlink ref="F1397" r:id="rId507" tooltip="Permanent Link to Third pass addressing the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/third-pass-addressing-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{5C6BEF3A-0873-4C43-82FA-4EAB7698331D}"/>
-    <hyperlink ref="F1396" r:id="rId508" tooltip="Permanent Link to Ok, so what is Bitcoin disrupting ?" display="http://trilema.com/2015/ok-so-what-is-bitcoin-disrupting/" xr:uid="{D70D05E3-135B-46A1-848C-0C3BB577D1F4}"/>
-    <hyperlink ref="F1311" r:id="rId509" tooltip="Permanent Link to Basic Bitcoin Competency Certification" display="http://trilema.com/2015/basic-bitcoin-competency-certification/" xr:uid="{551D973D-D949-4A37-A932-E90831F8DC56}"/>
-    <hyperlink ref="F1104" r:id="rId510" display="https://junseth.com/post/156343456987/a-brief-history-of-bitcoin" xr:uid="{305E31FF-1680-47BD-B279-C28AC14597E7}"/>
-    <hyperlink ref="F876" r:id="rId511" tooltip="Permanent Link to Integration is bad for Bitcoin." display="http://trilema.com/2017/integration-is-bad-for-bitcoin/" xr:uid="{DA3295AD-0A2C-4C93-BFFD-FE2FB2F15E30}"/>
-    <hyperlink ref="F420" r:id="rId512" tooltip="Permanent Link to I state problems, I receive solutions. A happiness is me." display="http://trilema.com/2013/i-state-problems-i-receive-solutions-a-happiness-is-me/" xr:uid="{78F1E46B-E592-47BC-B5B1-20C21A8CC4D8}"/>
-    <hyperlink ref="F370" r:id="rId513" tooltip="Permanent Link to Bitcoin Recapitulation" display="http://trilema.com/2019/bitcoin-recapitulation/" xr:uid="{FB4B51D6-929E-4DF1-8D1A-F1840C96D229}"/>
-    <hyperlink ref="F1383" r:id="rId514" display="https://jonathanlevin.wordpress.com/2015/03/29/digital-scarcity-what-makes-a-satoshi-on-the-mainchain-worth-having/" xr:uid="{7CE45011-6890-40DA-A707-4B88FF2F6EA9}"/>
-    <hyperlink ref="F1225" r:id="rId515" display="http://hashingit.com/analysis/47-bitcoin-tx-fees" xr:uid="{E1CE598B-53F4-411E-B795-84C28EAA7E88}"/>
-    <hyperlink ref="F1241" r:id="rId516" display="http://hashingit.com/analysis/46-behold-exahash" xr:uid="{B7F3802D-27FD-47D5-80EE-E6A3AF75C8B4}"/>
-    <hyperlink ref="F1274" r:id="rId517" display="http://hashingit.com/analysis/45-blockchain-what-art-thou" xr:uid="{748D4CC1-2A0F-4E69-ABEC-CCD998D8D840}"/>
-    <hyperlink ref="F1273" r:id="rId518" display="http://hashingit.com/analysis/43-waiting-for-blocks-revised" xr:uid="{FF0DC88E-0633-4129-BEE8-1EB1E4BEB33F}"/>
-    <hyperlink ref="F1389" r:id="rId519" display="http://hashingit.com/analysis/41-waiting-for-blocks" xr:uid="{A2C8CF81-2AB6-49E1-87F2-B3DB5D4C53B5}"/>
-    <hyperlink ref="F1434" r:id="rId520" display="http://hashingit.com/analysis/35-the-future-of-bitcoin-transaction-fees" xr:uid="{2034378E-CBB0-4439-9404-F28617424322}"/>
-    <hyperlink ref="F1435" r:id="rId521" display="http://hashingit.com/analysis/34-bitcoin-traffic-bulletin" xr:uid="{CBA7E8F8-73F4-4EF3-BFE1-2E4FB7E17ECB}"/>
-    <hyperlink ref="F1436" r:id="rId522" display="http://hashingit.com/analysis/33-7-transactions-per-second" xr:uid="{56F77F5D-D4E4-4F10-B208-07DEB9BEC04D}"/>
-    <hyperlink ref="F1491" r:id="rId523" display="http://hashingit.com/analysis/32-the-gamblers-guide-to-bitcoin-mining" xr:uid="{63C0E100-C174-4764-A8E1-DD31538C94AF}"/>
-    <hyperlink ref="F1500" r:id="rId524" display="http://hashingit.com/analysis/31-51-percent-of-the-network" xr:uid="{30BCCB7E-1E97-4BDD-A38B-9FAE7A0F7634}"/>
-    <hyperlink ref="F1501" r:id="rId525" display="http://hashingit.com/analysis/30-finding-2016-blocks" xr:uid="{C276839E-A3C4-422A-B5E3-15A8BF7ED8C7}"/>
-    <hyperlink ref="F1502" r:id="rId526" display="http://hashingit.com/analysis/29-lies-damned-lies-and-bitcoin-difficulties" xr:uid="{83C9658C-F972-41B3-B4DF-7FE865BB32E6}"/>
-    <hyperlink ref="F1503" r:id="rId527" display="http://hashingit.com/analysis/18-strange-spikes-revisited" xr:uid="{EC6443D4-9D03-4F80-B56E-B91114340635}"/>
-    <hyperlink ref="F1521" r:id="rId528" display="http://hashingit.com/analysis/27-hash-rate-headaches" xr:uid="{1C027EE9-28BA-4794-94CA-7BADED644EA8}"/>
-    <hyperlink ref="F1541" r:id="rId529" display="http://hashingit.com/analysis/25-prisoners-dilemmas" xr:uid="{E8BF99D6-E46D-4865-B877-A898FCD36EEC}"/>
-    <hyperlink ref="G1541" r:id="rId530" xr:uid="{E900F52B-733F-4DE8-A862-999A19022F53}"/>
-    <hyperlink ref="F1542" r:id="rId531" display="http://hashingit.com/analysis/24-megawatts-of-mining" xr:uid="{13CF7CBE-AFE1-4FAA-AEF2-9CB8B716D5C9}"/>
-    <hyperlink ref="F1543" r:id="rId532" display="http://hashingit.com/analysis/23-the-rewards-for-a-bitcoin-miner" xr:uid="{A4223C56-511B-4059-BB61-3E12AD599718}"/>
-    <hyperlink ref="F1564" r:id="rId533" display="http://hashingit.com/analysis/22-where-next-for-bitcoin-mining-asics" xr:uid="{C58562A3-C60F-439E-855B-87D40B6F4B86}"/>
-    <hyperlink ref="F1565" r:id="rId534" display="http://hashingit.com/analysis/21-chickens-and-eggs" xr:uid="{6663E46B-DA2F-4F9D-A320-CD3A032FF8EB}"/>
-    <hyperlink ref="F1566" r:id="rId535" display="http://hashingit.com/analysis/20-strange-spikes-in-the-bitcoin-price" xr:uid="{55D24341-8DF6-4FE0-A2E0-11EA7584DA94}"/>
-    <hyperlink ref="F1567" r:id="rId536" display="http://hashingit.com/analysis/19-the-bitcoin-runaway-mine-train" xr:uid="{9D601936-B819-46C1-928E-CDA54CA3BA7A}"/>
-    <hyperlink ref="G834" r:id="rId537" xr:uid="{E907C8E7-981D-4315-9DF9-5F9209A28734}"/>
-    <hyperlink ref="G821" r:id="rId538" xr:uid="{5AC44921-91C5-4324-8698-C7E71EBC1EF8}"/>
-    <hyperlink ref="G822" r:id="rId539" xr:uid="{55A3B990-1364-4F8C-BB61-5C5728CE5356}"/>
-    <hyperlink ref="G817" r:id="rId540" xr:uid="{4EAC6694-4857-4E3D-96DD-6AB15011102D}"/>
-    <hyperlink ref="G335" r:id="rId541" xr:uid="{E2563B8E-CAD4-4981-A57A-3F84D626FDBA}"/>
-    <hyperlink ref="G334" r:id="rId542" xr:uid="{FAFE8F40-BBF4-4C70-8404-2FFE0DD76D1A}"/>
-    <hyperlink ref="G322" r:id="rId543" xr:uid="{61564305-3FAD-48E3-8419-728750594BA1}"/>
-    <hyperlink ref="G333" r:id="rId544" xr:uid="{0F199451-94A0-4CB5-A34B-B02DF86BC4A0}"/>
-    <hyperlink ref="G332" r:id="rId545" xr:uid="{7383AF6B-06E6-478C-A143-65DFF466BE32}"/>
-    <hyperlink ref="G331" r:id="rId546" xr:uid="{F948852C-0AAF-46B8-ABD4-933CD18D5A72}"/>
-    <hyperlink ref="G330" r:id="rId547" xr:uid="{B74D72AB-FA7C-439A-AD9D-F43ABCFC5587}"/>
-    <hyperlink ref="G329" r:id="rId548" xr:uid="{813E7CD6-D250-4C82-BE4A-9D54E197D67D}"/>
-    <hyperlink ref="G328" r:id="rId549" xr:uid="{D5BC49E4-F0BD-4ACD-9A03-804CD99204DA}"/>
-    <hyperlink ref="G325" r:id="rId550" xr:uid="{C44DDCA1-C4D5-4FE3-84BC-E663089F50D0}"/>
-    <hyperlink ref="G324" r:id="rId551" xr:uid="{0C20D16D-2FCF-4116-BC10-B93A7A03E2E2}"/>
-    <hyperlink ref="G309" r:id="rId552" xr:uid="{2BDA5184-23C3-4161-84D6-61D7B557587E}"/>
-    <hyperlink ref="G310" r:id="rId553" xr:uid="{39F8BF4C-9A1A-44D5-AC0B-E4D725152DEE}"/>
-    <hyperlink ref="G311" r:id="rId554" xr:uid="{2AD5EB5E-69D7-441D-BB91-9C585FE81D52}"/>
-    <hyperlink ref="G313" r:id="rId555" xr:uid="{4FB56DEF-6130-4A1D-BFC9-159F711DB3F3}"/>
-    <hyperlink ref="G315" r:id="rId556" xr:uid="{2A074457-6C04-41E3-953C-A2B2AFD1C263}"/>
-    <hyperlink ref="G316" r:id="rId557" xr:uid="{9DF64869-3792-49F7-B5EB-E40630824175}"/>
-    <hyperlink ref="G317" r:id="rId558" xr:uid="{82BC628C-3C0C-4CBE-ADE8-DA7AB0219082}"/>
-    <hyperlink ref="G319" r:id="rId559" xr:uid="{CA76BB9D-8AC4-4EE6-B79F-4568859FC668}"/>
-    <hyperlink ref="G321" r:id="rId560" xr:uid="{C240B46C-DC11-4410-BB55-D144DE2985B7}"/>
-    <hyperlink ref="G323" r:id="rId561" xr:uid="{66DC2E89-5085-42D8-BAEE-1C32E66AEFAB}"/>
-    <hyperlink ref="G327" r:id="rId562" xr:uid="{FD55FA5E-ADA8-4A73-AA0A-739AD494BBD2}"/>
-    <hyperlink ref="G298" r:id="rId563" xr:uid="{52332DF9-79D8-4086-BEE5-12DCB0101DAB}"/>
-    <hyperlink ref="G370" r:id="rId564" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
-    <hyperlink ref="G371" r:id="rId565" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
-    <hyperlink ref="G373" r:id="rId566" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
-    <hyperlink ref="G374" r:id="rId567" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
-    <hyperlink ref="G375" r:id="rId568" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
-    <hyperlink ref="G418" r:id="rId569" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
-    <hyperlink ref="G419" r:id="rId570" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
-    <hyperlink ref="G421" r:id="rId571" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
-    <hyperlink ref="G1360" r:id="rId572" xr:uid="{8A899F9E-C813-45BF-91A2-5283ED101704}"/>
-    <hyperlink ref="F1360" r:id="rId573" display="http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world" xr:uid="{B94E0CE3-3372-4C20-AC98-49AB074167C9}"/>
-    <hyperlink ref="G430" r:id="rId574" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
-    <hyperlink ref="G431" r:id="rId575" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
-    <hyperlink ref="G432" r:id="rId576" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
-    <hyperlink ref="G435" r:id="rId577" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
-    <hyperlink ref="G436" r:id="rId578" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
-    <hyperlink ref="G303" r:id="rId579" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
-    <hyperlink ref="G293" r:id="rId580" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
-    <hyperlink ref="G294" r:id="rId581" xr:uid="{DBD6AD6B-351A-4133-B6A4-6B13FFA536DF}"/>
-    <hyperlink ref="G295" r:id="rId582" xr:uid="{F1752B38-25A2-48DA-8DEE-B25CAC8B1254}"/>
-    <hyperlink ref="G296" r:id="rId583" xr:uid="{E2F38E02-83B1-463D-9696-7E4BF035B6A5}"/>
-    <hyperlink ref="G297" r:id="rId584" xr:uid="{F0981388-A434-4006-AAB4-D05BFCDF32AF}"/>
-    <hyperlink ref="G299" r:id="rId585" xr:uid="{FE48F132-F40A-4138-B2A9-A6D1D2E41DEC}"/>
-    <hyperlink ref="G300" r:id="rId586" xr:uid="{E65E5A32-125E-4DBA-821D-72B64CDBD5A7}"/>
-    <hyperlink ref="G301" r:id="rId587" xr:uid="{6E449A4B-C9F1-4B1C-BA89-B254DE288BBB}"/>
-    <hyperlink ref="G302" r:id="rId588" xr:uid="{D46FA922-8B5A-4ADD-9F9E-EA562F602C8B}"/>
-    <hyperlink ref="G290" r:id="rId589" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
-    <hyperlink ref="G291" r:id="rId590" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
-    <hyperlink ref="G289" r:id="rId591" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
-    <hyperlink ref="G1306" r:id="rId592" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
-    <hyperlink ref="F1306" r:id="rId593" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
-    <hyperlink ref="F271" r:id="rId594" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
-    <hyperlink ref="G1677" r:id="rId595" xr:uid="{AE6A7506-FAA8-40BF-9933-6205D7B49D14}"/>
-    <hyperlink ref="G273" r:id="rId596" xr:uid="{360691A1-9054-406D-A096-E2E155D90E23}"/>
-    <hyperlink ref="G272" r:id="rId597" xr:uid="{96DCC9DA-A1BD-45FC-8244-D6716BA1D905}"/>
-    <hyperlink ref="G271" r:id="rId598" xr:uid="{385C8BE1-D7F0-48E1-95A7-0C35818FCCD8}"/>
-    <hyperlink ref="G270" r:id="rId599" xr:uid="{0323B75B-C75B-45D4-AE64-C9F75156D116}"/>
-    <hyperlink ref="G269" r:id="rId600" xr:uid="{44C6C6AA-421A-4803-9A43-7B390874B75A}"/>
-    <hyperlink ref="G268" r:id="rId601" xr:uid="{36FB0BEE-2D83-4AA1-AEFA-57209DE733F1}"/>
-    <hyperlink ref="G267" r:id="rId602" xr:uid="{73C348B9-04F6-41D8-8905-D763E1A13D39}"/>
-    <hyperlink ref="G266" r:id="rId603" xr:uid="{EAB2FAAB-F9E3-4971-B689-D6244C1329F0}"/>
-    <hyperlink ref="G265" r:id="rId604" xr:uid="{7E18E7A6-2610-4C63-B5F9-B9E7D8B1A669}"/>
-    <hyperlink ref="G264" r:id="rId605" xr:uid="{EE7DB71E-900D-4223-AA58-6B8D06C230A1}"/>
-    <hyperlink ref="G263" r:id="rId606" xr:uid="{9A90948C-9E76-401B-832B-F20A9C54C3DE}"/>
-    <hyperlink ref="G262" r:id="rId607" xr:uid="{088B3ADE-B96C-4F3D-93B5-A8F11B2B8513}"/>
-    <hyperlink ref="G261" r:id="rId608" xr:uid="{B167801E-9FA4-47B2-B1CA-7DDECE0FDD6A}"/>
-    <hyperlink ref="G260" r:id="rId609" xr:uid="{2D08E3A2-2FA4-4635-898E-94EE14E975BA}"/>
-    <hyperlink ref="G259" r:id="rId610" xr:uid="{EE92FD94-F43F-47A7-B849-B38AAF7E12A0}"/>
-    <hyperlink ref="G252" r:id="rId611" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
-    <hyperlink ref="G253" r:id="rId612" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
-    <hyperlink ref="G254" r:id="rId613" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
-    <hyperlink ref="F239" r:id="rId614" display="https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance" xr:uid="{5F39B841-CC8B-44F1-A5F2-8EE6146C307D}"/>
-    <hyperlink ref="G251" r:id="rId615" xr:uid="{365B81C8-1751-4B75-9CC6-ECFAC78B1E49}"/>
-    <hyperlink ref="F231" r:id="rId616" display="https://philjbonello.substack.com/p/the-sovereign-individual-investment" xr:uid="{8CFD7459-F16F-4992-83A4-F27DB01EAC66}"/>
-    <hyperlink ref="F230" r:id="rId617" display="https://philjbonello.substack.com/p/digital-money" xr:uid="{FF3386AD-5A01-484E-AB4B-B24938C4AC00}"/>
-    <hyperlink ref="F226" r:id="rId618" display="https://rhythmofbitcoin.substack.com/p/a-cashless-future-is-a-dystopia-without" xr:uid="{07C57689-D3FC-4121-98A6-93F2DAD82C21}"/>
-    <hyperlink ref="G250" r:id="rId619" xr:uid="{2EE1B357-E60C-45B9-9CEE-68544A367F08}"/>
-    <hyperlink ref="G249" r:id="rId620" xr:uid="{E92DAF54-A1CD-407F-9960-FA99A125DE5E}"/>
-    <hyperlink ref="G248" r:id="rId621" xr:uid="{CBF7FC3E-2007-4F4E-AC35-47C052353CBE}"/>
-    <hyperlink ref="G246" r:id="rId622" xr:uid="{DE7704B6-672B-49D1-911E-B490E0050F2F}"/>
-    <hyperlink ref="G245" r:id="rId623" xr:uid="{01E80B7B-6F1A-4A15-AC37-7B6C9C24808C}"/>
-    <hyperlink ref="G244" r:id="rId624" xr:uid="{C8C5819A-91F8-4556-96E4-99ECD0F925B2}"/>
-    <hyperlink ref="G243" r:id="rId625" xr:uid="{B6959887-BE99-41D9-8475-24A70F43AB16}"/>
-    <hyperlink ref="G242" r:id="rId626" xr:uid="{1B36DB34-9CCC-4C2A-A4CA-ACA47E2DE508}"/>
-    <hyperlink ref="G240" r:id="rId627" xr:uid="{921095A8-36CB-410D-9D2A-8973557C47F6}"/>
-    <hyperlink ref="G239" r:id="rId628" xr:uid="{80CD66BD-8117-4B53-923C-29CFF6619C94}"/>
-    <hyperlink ref="G238" r:id="rId629" xr:uid="{BECC4351-03F1-4297-AA29-E33126942591}"/>
-    <hyperlink ref="G236" r:id="rId630" xr:uid="{2D020D98-BF85-4D86-979A-CDC3363E9807}"/>
-    <hyperlink ref="G235" r:id="rId631" xr:uid="{9694C19A-452D-4542-8CBE-95F35257503B}"/>
-    <hyperlink ref="G234" r:id="rId632" xr:uid="{8BA32324-4B77-420B-AE30-515B0BAC5C67}"/>
-    <hyperlink ref="G233" r:id="rId633" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
-    <hyperlink ref="G232" r:id="rId634" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
-    <hyperlink ref="G231" r:id="rId635" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
-    <hyperlink ref="G230" r:id="rId636" xr:uid="{BDF76746-FDBF-44EE-A525-73B909EC9345}"/>
-    <hyperlink ref="G229" r:id="rId637" xr:uid="{3E017625-FCF1-4498-850D-541386E1AB24}"/>
-    <hyperlink ref="G228" r:id="rId638" xr:uid="{9A3F1B72-A7AC-4031-B61B-D0EB83B6E508}"/>
-    <hyperlink ref="G227" r:id="rId639" xr:uid="{63415624-457F-4E97-BFA3-73CCB3525134}"/>
-    <hyperlink ref="G226" r:id="rId640" xr:uid="{D427E119-4BE4-48B1-AE6A-14E352E8709F}"/>
-    <hyperlink ref="G225" r:id="rId641" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
-    <hyperlink ref="G224" r:id="rId642" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
-    <hyperlink ref="G223" r:id="rId643" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
-    <hyperlink ref="G219" r:id="rId644" xr:uid="{336AD68E-287A-41A9-892B-C7A7EC2F3875}"/>
-    <hyperlink ref="F218" r:id="rId645" display="https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets" xr:uid="{5AEA4BED-B8F9-4ED9-BCE6-B7AD163E0E25}"/>
-    <hyperlink ref="G608" r:id="rId646" xr:uid="{172B9B5F-15A2-4067-9D0A-F50246509094}"/>
-    <hyperlink ref="G609" r:id="rId647" xr:uid="{3A5C44CE-3028-4D76-B1A2-240C782D9D6B}"/>
-    <hyperlink ref="G610" r:id="rId648" xr:uid="{CE329330-BEE0-452B-B6A5-B1355BF9EEE2}"/>
-    <hyperlink ref="G541" r:id="rId649" xr:uid="{08D18920-21A9-4404-A48B-A07DF75B331C}"/>
-    <hyperlink ref="G538" r:id="rId650" xr:uid="{8C9DBE65-30FC-4B28-935E-486778F8E344}"/>
-    <hyperlink ref="G537" r:id="rId651" xr:uid="{5BAA8C86-AAF2-4234-BE60-CD25BDFD81CA}"/>
-    <hyperlink ref="G536" r:id="rId652" xr:uid="{FC128AE7-9A38-4A3F-B7C7-7836E27BC89D}"/>
-    <hyperlink ref="G533" r:id="rId653" xr:uid="{FDA452A4-46AC-479B-95A9-DD9D57DE9EFB}"/>
-    <hyperlink ref="G535" r:id="rId654" xr:uid="{D57A42BD-9542-4CC2-B8D3-F8B15AEFAE87}"/>
-    <hyperlink ref="G615" r:id="rId655" xr:uid="{C2640952-F7A6-4365-BB7E-D136EE510DA8}"/>
-    <hyperlink ref="G212" r:id="rId656" xr:uid="{86102DEE-C262-40AC-AA3A-AA1B6C7DDAF9}"/>
-    <hyperlink ref="G220" r:id="rId657" xr:uid="{B5954FC3-5697-43A3-AE30-E5B6D8C8788E}"/>
-    <hyperlink ref="G215" r:id="rId658" xr:uid="{E6764CF0-FCC6-4D80-974C-E7B38CAAA3B6}"/>
-    <hyperlink ref="G214" r:id="rId659" xr:uid="{CFD06610-6E9E-404F-91C2-E4722EA341F2}"/>
-    <hyperlink ref="G213" r:id="rId660" xr:uid="{9E73D04F-2608-4548-9A62-C9C51C67D9AD}"/>
-    <hyperlink ref="G210" r:id="rId661" xr:uid="{3836086A-34C1-4950-92E9-382C10CE6315}"/>
-    <hyperlink ref="G209" r:id="rId662" xr:uid="{4116E953-4CB0-46EA-9EF4-AC2A006D6055}"/>
-    <hyperlink ref="G208" r:id="rId663" xr:uid="{FDC72A5E-9D16-4F48-8BBE-EB19A7095BCA}"/>
-    <hyperlink ref="G207" r:id="rId664" xr:uid="{E7CB9562-26A3-429A-974D-D8B875C87B21}"/>
-    <hyperlink ref="G206" r:id="rId665" xr:uid="{CF61FAB0-56DA-470A-B69D-E571A56CE34D}"/>
-    <hyperlink ref="G205" r:id="rId666" xr:uid="{835AD9B4-65B6-447E-A2D5-18CE8274F57D}"/>
-    <hyperlink ref="G204" r:id="rId667" xr:uid="{3A7FC5F4-38DD-40F9-A42A-209969EA595B}"/>
-    <hyperlink ref="G211" r:id="rId668" xr:uid="{D5A2F61A-E2EF-4F54-9CA9-7D70459CB787}"/>
-    <hyperlink ref="G305" r:id="rId669" xr:uid="{6B1E60FE-BF6B-4F69-B147-E1730B161720}"/>
-    <hyperlink ref="F305" r:id="rId670" display="https://moneyordebt.com/2019/09/24/living-on-satoshi-time-what-block-is-it/" xr:uid="{8A87C366-C909-466D-A2AD-55DDA860CC99}"/>
-    <hyperlink ref="G203" r:id="rId671" xr:uid="{B1B3C0B6-F7FF-417B-91F4-90B38EA4A0EC}"/>
-    <hyperlink ref="G202" r:id="rId672" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
-    <hyperlink ref="G201" r:id="rId673" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
-    <hyperlink ref="G216" r:id="rId674" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
-    <hyperlink ref="G195" r:id="rId675" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
-    <hyperlink ref="G199" r:id="rId676" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
-    <hyperlink ref="G218" r:id="rId677" xr:uid="{5BD8B767-E55B-4DE1-8EB1-A809B6B3C2C8}"/>
-    <hyperlink ref="G217" r:id="rId678" xr:uid="{7DE6CFA3-7232-4268-B4B8-371DB50F73B7}"/>
-    <hyperlink ref="G194" r:id="rId679" xr:uid="{C3B57097-9A10-4E73-BA2A-B8ED621008FE}"/>
-    <hyperlink ref="G193" r:id="rId680" xr:uid="{37F0EED8-90A5-4FA5-BA3D-5F60FE73A720}"/>
-    <hyperlink ref="G200" r:id="rId681" xr:uid="{4F2F6454-5B54-4E19-B32B-FC86FE03C09D}"/>
-    <hyperlink ref="G279" r:id="rId682" xr:uid="{60C630BE-1D43-4D24-A558-276A8332DA20}"/>
-    <hyperlink ref="G198" r:id="rId683" xr:uid="{878B9826-13D1-445C-BD7A-644E472C6AD5}"/>
-    <hyperlink ref="G197" r:id="rId684" xr:uid="{BC93470D-D490-4709-AA72-6AD48B01550B}"/>
-    <hyperlink ref="G196" r:id="rId685" xr:uid="{24F9A067-D956-4257-9844-D1D2198F368E}"/>
-    <hyperlink ref="G192" r:id="rId686" xr:uid="{47027714-DF08-4D30-81B0-CE1310674E38}"/>
-    <hyperlink ref="G824" r:id="rId687" xr:uid="{BEE73C3D-3B0E-46A8-846D-E652700A9FD9}"/>
-    <hyperlink ref="G823" r:id="rId688" xr:uid="{43D48259-60BE-4D1C-9935-601D6F549691}"/>
-    <hyperlink ref="G422" r:id="rId689" xr:uid="{A4262CE5-7163-411A-8ED2-21E61DC5055F}"/>
-    <hyperlink ref="G698" r:id="rId690" xr:uid="{4F343EF9-D324-4F26-810A-724CC7AF35DD}"/>
-    <hyperlink ref="G699" r:id="rId691" xr:uid="{E1CC10E7-F47D-4603-B688-B980CA486D4E}"/>
-    <hyperlink ref="G544" r:id="rId692" xr:uid="{9B09966D-A4CB-47B5-A652-A29CB0AFADCF}"/>
-    <hyperlink ref="G545" r:id="rId693" xr:uid="{2E7F1CF2-C27A-4766-83C5-8ABCB43C7B2F}"/>
-    <hyperlink ref="G437" r:id="rId694" xr:uid="{3699D16B-CA0F-44D7-AC91-3FDAB8EBFFFA}"/>
-    <hyperlink ref="G429" r:id="rId695" xr:uid="{66922EC8-2350-4EC6-9F3E-9CDF08F4DAB3}"/>
-    <hyperlink ref="G280" r:id="rId696" xr:uid="{43284B45-4895-49CE-810D-B4707E43244C}"/>
-    <hyperlink ref="G282" r:id="rId697" xr:uid="{9C3AB0F0-34DC-4574-A55C-B7F545DFD135}"/>
-    <hyperlink ref="G283" r:id="rId698" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
-    <hyperlink ref="G845" r:id="rId699" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
-    <hyperlink ref="G160" r:id="rId700" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
-    <hyperlink ref="G669" r:id="rId701" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
-    <hyperlink ref="G846" r:id="rId702" xr:uid="{44942DCC-A950-45B7-836C-EEA3E136F355}"/>
-    <hyperlink ref="G847" r:id="rId703" xr:uid="{00AC84C7-DFB1-4053-8E88-68BFE3D11151}"/>
-    <hyperlink ref="G161" r:id="rId704" xr:uid="{EC30F85A-C055-431E-B3E3-3BD63F7D214D}"/>
-    <hyperlink ref="G1730" r:id="rId705" xr:uid="{5D96298A-58E3-41B7-B4DC-9DAD3771CC71}"/>
-    <hyperlink ref="J1727" r:id="rId706" xr:uid="{9791AC3C-2F39-4961-BD2B-1151401353FF}"/>
-    <hyperlink ref="G700" r:id="rId707" xr:uid="{0B011FA9-9223-4A99-8917-5B83498DB386}"/>
-    <hyperlink ref="G162" r:id="rId708" xr:uid="{7C29B605-5F4C-400A-B52F-8FC63E297196}"/>
-    <hyperlink ref="G163" r:id="rId709" xr:uid="{5208FDCA-1A58-45BD-B9AD-7A028617ECF9}"/>
-    <hyperlink ref="G164" r:id="rId710" xr:uid="{4D3668AF-AFAC-4E90-97AC-DFFF3F5B9540}"/>
-    <hyperlink ref="G165" r:id="rId711" xr:uid="{D82E676D-4308-423C-A453-D0AA7CA1765C}"/>
-    <hyperlink ref="G166" r:id="rId712" xr:uid="{B4D9F81A-82FD-494A-98DA-983A28DDA382}"/>
-    <hyperlink ref="G167" r:id="rId713" xr:uid="{CC8834A2-9A07-4831-B3A0-711AA95C221C}"/>
-    <hyperlink ref="G168" r:id="rId714" xr:uid="{FB856BB7-EA27-4FC7-A057-0CEFF98290C2}"/>
-    <hyperlink ref="G169" r:id="rId715" xr:uid="{F1EE77A5-7834-49D2-A625-818459729FF9}"/>
-    <hyperlink ref="G170" r:id="rId716" xr:uid="{4980F4A9-4EBA-42AC-9C14-1C8034B91C78}"/>
-    <hyperlink ref="G171" r:id="rId717" xr:uid="{DF5820B6-5EAF-4BE2-BC8D-6B146A2F8BC3}"/>
-    <hyperlink ref="G172" r:id="rId718" xr:uid="{D3E2E418-F680-4E58-859D-33BC23636FB9}"/>
-    <hyperlink ref="G173" r:id="rId719" xr:uid="{6F4B9238-DAE5-4663-AC17-C2D0189EB7C9}"/>
-    <hyperlink ref="G174" r:id="rId720" xr:uid="{EB4C6F11-AD3B-44B1-86C0-C70C033FD120}"/>
-    <hyperlink ref="G176" r:id="rId721" xr:uid="{08DBA553-570F-4996-8F6F-BA0E3D2402DD}"/>
-    <hyperlink ref="G175" r:id="rId722" xr:uid="{EF4A4EBB-CFF2-413F-9435-155B91D3DEA7}"/>
-    <hyperlink ref="G177" r:id="rId723" xr:uid="{8C17A067-C326-43CD-A3E1-F00F59836612}"/>
-    <hyperlink ref="G178" r:id="rId724" xr:uid="{7CEA1302-EBC2-4DAF-A94A-116441AFD331}"/>
-    <hyperlink ref="G179" r:id="rId725" xr:uid="{1F6DFFC8-8DA3-4BDB-8A0C-6140C0E91634}"/>
-    <hyperlink ref="F179" r:id="rId726" display="https://6102bitcoin.com/blog/slice-the-pie/" xr:uid="{E42321F9-1636-47A5-B68F-E00CBD426A1C}"/>
-    <hyperlink ref="G180" r:id="rId727" xr:uid="{6464BD8A-0F8B-4C5C-A42B-1DE3E710919D}"/>
-    <hyperlink ref="G181" r:id="rId728" xr:uid="{12293F5D-4911-4A96-9D79-8D4A2C0256F6}"/>
-    <hyperlink ref="G182" r:id="rId729" xr:uid="{10DE4E02-5CDF-4119-8B93-DC1AD9BF4035}"/>
-    <hyperlink ref="G183" r:id="rId730" xr:uid="{85F9C59B-4D05-420F-B3C5-A1AD24D70BE4}"/>
-    <hyperlink ref="G428" r:id="rId731" xr:uid="{E412D02F-DA30-4678-B2F6-00F947608FE8}"/>
-    <hyperlink ref="G1226" r:id="rId732" xr:uid="{9BD107C9-3E2C-41C6-BBD7-DD3305923136}"/>
-    <hyperlink ref="G184" r:id="rId733" xr:uid="{0BF6221B-A89E-4363-B02B-39C7289FD686}"/>
-    <hyperlink ref="G546" r:id="rId734" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
-    <hyperlink ref="G1001" r:id="rId735" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
-    <hyperlink ref="G185" r:id="rId736" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
-    <hyperlink ref="F306" r:id="rId737" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
-    <hyperlink ref="G306" r:id="rId738" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
-    <hyperlink ref="G1145" r:id="rId739" location="page=28" display="https://alcor.org/cryonics/Cryonics2016-4.pdf - page=28" xr:uid="{373BE6DF-893C-4B76-86FB-7554DE367903}"/>
-    <hyperlink ref="G2047" r:id="rId740" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
-    <hyperlink ref="G2045" r:id="rId741" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
-    <hyperlink ref="G2039" r:id="rId742" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
-    <hyperlink ref="G2036" r:id="rId743" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
-    <hyperlink ref="G988" r:id="rId744" xr:uid="{491687E0-2017-4889-8B8A-826A9AC9D28E}"/>
-    <hyperlink ref="G1146" r:id="rId745" xr:uid="{2DC554A9-DE55-428D-908A-CB3E7F5A5FD6}"/>
-    <hyperlink ref="F1146" r:id="rId746" display="https://elaineou.com/2016/08/01/the-value-of-settlement-finality/" xr:uid="{D9B3B78A-ECA9-4FBB-8F6C-AED49862FB91}"/>
-    <hyperlink ref="G853" r:id="rId747" xr:uid="{BB2E7301-F6B0-4C89-8EED-F49311888EA6}"/>
-    <hyperlink ref="G1391" r:id="rId748" xr:uid="{3350084D-DE05-40D9-AEE6-9A60BC228A30}"/>
-    <hyperlink ref="G1137" r:id="rId749" xr:uid="{860B04A8-B710-4886-B293-E2773D4D823A}"/>
-    <hyperlink ref="G1386" r:id="rId750" xr:uid="{34107705-C009-4835-B86D-721D6834F6C8}"/>
-    <hyperlink ref="F110" r:id="rId751" display="https://elaineou.com/2020/01/31/be-afraid-be-very-afraid/" xr:uid="{C131BE6A-6D4F-4D5E-BC6C-73421C733A58}"/>
-    <hyperlink ref="G110" r:id="rId752" xr:uid="{F2757DCE-B0BD-4B5B-8CA8-D8BF62E294D1}"/>
-    <hyperlink ref="G835" r:id="rId753" xr:uid="{111F4C84-D598-4185-BD68-DFF9E70074B6}"/>
-    <hyperlink ref="G722" r:id="rId754" xr:uid="{279BD604-D779-4406-A131-C412EE4A4378}"/>
-    <hyperlink ref="G991" r:id="rId755" xr:uid="{21725A1D-9E7F-41DA-B136-180488844502}"/>
-    <hyperlink ref="F1285" r:id="rId756" display="https://elaineou.com/2015/11/19/the-risk-of-bitcoin-money-laundering/" xr:uid="{D9B90FB2-920D-4EFC-854E-81FDBE232A91}"/>
-    <hyperlink ref="G1285" r:id="rId757" xr:uid="{95EA0955-114A-4EA7-8BC7-8D4684BE37AF}"/>
-    <hyperlink ref="G1628" r:id="rId758" xr:uid="{8CEFAB15-6EDB-4CE4-910B-DABDC4768CC0}"/>
-    <hyperlink ref="F880" r:id="rId759" display="https://elaineou.com/2017/12/16/fiatsplaining-bitcoin/" xr:uid="{BA39BD62-1788-43B5-A2E0-306D0775FDAC}"/>
-    <hyperlink ref="G880" r:id="rId760" xr:uid="{FFD73BA8-F708-43BA-B603-F1B1CDAB5905}"/>
-    <hyperlink ref="G836" r:id="rId761" xr:uid="{4B6480DB-2D11-435E-95D7-A7C7297689BE}"/>
-    <hyperlink ref="G967" r:id="rId762" xr:uid="{4982E959-B2AE-4FAC-91F9-200D0802B3B1}"/>
-    <hyperlink ref="G899" r:id="rId763" xr:uid="{BAF1BC03-9350-46E9-84CD-CF3466DB16E7}"/>
-    <hyperlink ref="G284" r:id="rId764" xr:uid="{2DA6477E-1A1A-4C99-91EF-7702CEA929F2}"/>
-    <hyperlink ref="G678" r:id="rId765" xr:uid="{FB870D63-0886-4F9A-8702-9A8094E12FF9}"/>
-    <hyperlink ref="G547" r:id="rId766" xr:uid="{A722AC40-3F2A-4853-99D4-BB575E9A0D4D}"/>
-    <hyperlink ref="G377" r:id="rId767" xr:uid="{3CEA3009-9D97-4C98-9F0D-73F9C974D302}"/>
-    <hyperlink ref="G1357" r:id="rId768" xr:uid="{B34F2AFA-4ECC-4B28-9152-D4EDC549F1D0}"/>
-    <hyperlink ref="G1142" r:id="rId769" xr:uid="{D2B6258D-957D-4CCF-89E0-B4B9A8B4E72A}"/>
-    <hyperlink ref="F423" r:id="rId770" display="https://elaineou.com/2019/06/28/hackers-and-sphincters/" xr:uid="{4BD479E6-C5F4-4D80-BE5C-D62195573791}"/>
-    <hyperlink ref="G423" r:id="rId771" xr:uid="{1CFAF3B9-62E5-4578-8728-6ED0552609CE}"/>
-    <hyperlink ref="G854" r:id="rId772" xr:uid="{2E666137-D4A8-4AB0-98F8-1C4B353A7727}"/>
-    <hyperlink ref="G1437" r:id="rId773" xr:uid="{2B96C620-3E26-46A2-A991-B82E59DCB498}"/>
-    <hyperlink ref="G1057" r:id="rId774" xr:uid="{BCABDF7B-9F0D-4655-968F-4A86452220A6}"/>
-    <hyperlink ref="F1138" r:id="rId775" display="https://elaineou.com/2016/09/25/corrections-redactable-bitcoin/" xr:uid="{92C601D7-56D9-4CC7-9122-03591EB48E8B}"/>
-    <hyperlink ref="G1138" r:id="rId776" xr:uid="{AA047056-A1B6-4A50-96AA-9913BBE81E0C}"/>
-    <hyperlink ref="G1363" r:id="rId777" xr:uid="{A13CD93B-69BD-422C-B785-AB27891D0E46}"/>
-    <hyperlink ref="G111" r:id="rId778" xr:uid="{6770A1E8-983C-432A-B8F4-91BD5861D598}"/>
-    <hyperlink ref="G189" r:id="rId779" xr:uid="{61984DEF-3D18-4E7E-A02F-7B645F749512}"/>
-    <hyperlink ref="G112" r:id="rId780" xr:uid="{6F6A7382-F223-487E-977C-CD153A2B9D49}"/>
-    <hyperlink ref="F113" r:id="rId781" xr:uid="{DE75B92F-6D00-4FCF-99FD-920BB8A2D0C0}"/>
-    <hyperlink ref="G113" r:id="rId782" xr:uid="{6F029F92-7539-4EEE-A0F0-1A197304E70A}"/>
-    <hyperlink ref="G114" r:id="rId783" xr:uid="{E15F2E94-089E-494F-A3CF-59F9A5510F6A}"/>
-    <hyperlink ref="G117" r:id="rId784" xr:uid="{4FBC2B7C-C61A-4B6A-9D3F-AD2CCC4A9C64}"/>
-    <hyperlink ref="G116" r:id="rId785" xr:uid="{D02BA13C-02FF-4069-8245-E9E27E036C1C}"/>
-    <hyperlink ref="G281" r:id="rId786" xr:uid="{48137A1D-8C01-44EA-B288-076786E1D9A6}"/>
-    <hyperlink ref="G126" r:id="rId787" xr:uid="{C2FA1D09-01F7-4538-B5F4-064666AA3B19}"/>
-    <hyperlink ref="G1031" r:id="rId788" xr:uid="{3B574979-9183-42CD-B504-17A64EDAA8BB}"/>
-    <hyperlink ref="G797" r:id="rId789" xr:uid="{2FE41682-EF02-4D46-8074-3ED8F1CADC57}"/>
-    <hyperlink ref="G1592" r:id="rId790" xr:uid="{D9190EFD-6491-4571-9662-8AB0667F21E5}"/>
-    <hyperlink ref="G1075" r:id="rId791" xr:uid="{DAD3BF46-69BC-43F9-97A8-7E3F3EFC356D}"/>
-    <hyperlink ref="G118" r:id="rId792" xr:uid="{FD419121-B228-49D1-B499-A7A662DF6646}"/>
-    <hyperlink ref="G119" r:id="rId793" xr:uid="{3B14D446-5F59-4477-930E-CA8E6761E727}"/>
-    <hyperlink ref="G120" r:id="rId794" xr:uid="{C4DA82F5-2B78-4EE8-A254-97DEEB61848B}"/>
-    <hyperlink ref="G121" r:id="rId795" xr:uid="{C63C5500-5854-4286-BB52-F5901E2DEA0F}"/>
-    <hyperlink ref="G122" r:id="rId796" xr:uid="{8CD284A1-9C41-452D-AE01-88CC504B5520}"/>
-    <hyperlink ref="G115" r:id="rId797" xr:uid="{1AC1B166-43D4-47CD-B118-E394FA83F3DC}"/>
-    <hyperlink ref="G123" r:id="rId798" xr:uid="{5706C3F4-ACC5-46FD-A23D-5B31CF9515F8}"/>
-    <hyperlink ref="G124" r:id="rId799" xr:uid="{6AC4EA10-2FB3-457F-9B50-EAAF08075A3F}"/>
-    <hyperlink ref="G125" r:id="rId800" xr:uid="{D1E99FF9-F7DA-4582-A8D0-8347FB03C127}"/>
-    <hyperlink ref="G127" r:id="rId801" xr:uid="{0A687D87-F547-4850-8FB2-904969650E87}"/>
-    <hyperlink ref="G128" r:id="rId802" xr:uid="{783E92F7-5F0C-4D4D-9365-1281734F655E}"/>
-    <hyperlink ref="G131" r:id="rId803" xr:uid="{E1069364-F00E-4F1F-8D96-7C18CC97C84B}"/>
-    <hyperlink ref="G132" r:id="rId804" xr:uid="{67E524A5-2701-45A9-96D2-F082C5CE9AE5}"/>
-    <hyperlink ref="G433" r:id="rId805" xr:uid="{42351251-B71C-4420-86A3-3087DC9BF5CB}"/>
-    <hyperlink ref="G1293" r:id="rId806" xr:uid="{A20F32B5-B93A-46B2-8E23-B9C68245F5C4}"/>
-    <hyperlink ref="G424" r:id="rId807" xr:uid="{B078F23E-F55A-42AD-8F7F-9DB1D653903D}"/>
-    <hyperlink ref="G129" r:id="rId808" xr:uid="{66D8F8FB-508C-4975-A9D4-16C026E65B6E}"/>
-    <hyperlink ref="F133" r:id="rId809" display="https://twitter.com/zanepocock/status/1228048061789884422" xr:uid="{3875485F-5856-4F44-9EED-8F8D1F5F2333}"/>
-    <hyperlink ref="G133" r:id="rId810" xr:uid="{AB2C4D36-003C-405E-987A-D2E7CB5E53DF}"/>
-    <hyperlink ref="F135" r:id="rId811" display="https://medium.com/knox-blog/why-bitcoin-is-not-a-security-2ffec2f8d481" xr:uid="{4ACCCBA6-4EAB-46A4-A38F-F54791884BD5}"/>
-    <hyperlink ref="G135" r:id="rId812" xr:uid="{4FC9E997-5718-42D5-AE0E-0B450BF2E0EE}"/>
-    <hyperlink ref="G134" r:id="rId813" xr:uid="{3FCC3103-0362-4654-8F5A-5F7C0ED74302}"/>
-    <hyperlink ref="G136" r:id="rId814" xr:uid="{8DB7F1F0-AAF9-4F7E-88E0-94D3E4828008}"/>
-    <hyperlink ref="G137" r:id="rId815" xr:uid="{E9337E06-B548-44F2-921B-35FF392D6F9B}"/>
-    <hyperlink ref="G138" r:id="rId816" xr:uid="{C6DCFD4E-FFB7-4329-9108-3FB13315CE3F}"/>
-    <hyperlink ref="G139" r:id="rId817" xr:uid="{C7DCBD3A-363B-4F7A-AE44-9CD45405E269}"/>
-    <hyperlink ref="G140" r:id="rId818" xr:uid="{710C97D4-6249-4069-AF8D-CF6781B9C05F}"/>
-    <hyperlink ref="G141" r:id="rId819" xr:uid="{525AD316-B72C-4B8C-A13D-168F10D29118}"/>
-    <hyperlink ref="G142" r:id="rId820" xr:uid="{8D4AE489-E534-48CE-9826-CB928B658ACE}"/>
-    <hyperlink ref="G143" r:id="rId821" xr:uid="{385AF78A-6D5B-4839-94C0-931BCD13DC26}"/>
-    <hyperlink ref="G144" r:id="rId822" xr:uid="{8E56E094-460C-4821-9942-E54C51D4CBE0}"/>
-    <hyperlink ref="G307" r:id="rId823" xr:uid="{3A490527-9C7E-4CA2-BBB0-24BD4557ABF5}"/>
-    <hyperlink ref="G130" r:id="rId824" xr:uid="{530235F3-E621-4CD7-BD94-4466B6548997}"/>
-    <hyperlink ref="G145" r:id="rId825" xr:uid="{A0E4CD8E-BBBC-4A6D-A3DF-5556D5C56AF2}"/>
-    <hyperlink ref="G146" r:id="rId826" xr:uid="{B3CBC04A-D93B-4C7D-964E-E1E0D6F80E19}"/>
-    <hyperlink ref="G147" r:id="rId827" xr:uid="{92A38F1C-A045-407D-BCA0-4A9B876399C7}"/>
-    <hyperlink ref="G148" r:id="rId828" xr:uid="{20805AE9-3960-4740-8C18-4F5F2CABC0B4}"/>
-    <hyperlink ref="G149" r:id="rId829" xr:uid="{818B75D6-6D18-416E-BEA6-CD7AE8BAEE95}"/>
-    <hyperlink ref="G109" r:id="rId830" xr:uid="{408EA5BB-EEC6-467F-980E-43BDCF41646F}"/>
-    <hyperlink ref="G438" r:id="rId831" xr:uid="{53E7C097-E2C6-48EA-B963-4159C0ED21EA}"/>
-    <hyperlink ref="G304" r:id="rId832" xr:uid="{F11B3F97-7283-42C8-9E1C-D47EDE6E2886}"/>
-    <hyperlink ref="G1030" r:id="rId833" xr:uid="{31AE34AB-4FE7-4F41-830E-12DAB5D1D142}"/>
-    <hyperlink ref="G679" r:id="rId834" xr:uid="{11AF1195-59BE-43AB-995C-B10527F76EB0}"/>
-    <hyperlink ref="G848" r:id="rId835" xr:uid="{7055A1D7-703E-4A27-9210-23C0C8029698}"/>
-    <hyperlink ref="G1080" r:id="rId836" xr:uid="{84BB7BB3-D24C-4B05-B7CF-BDC7E257371B}"/>
-    <hyperlink ref="G851" r:id="rId837" xr:uid="{029E66B4-FB45-45A0-993B-F271E2040D5B}"/>
-    <hyperlink ref="G852" r:id="rId838" xr:uid="{1897C62E-CB0B-414F-897B-D68ED6BC0FAE}"/>
-    <hyperlink ref="G63" r:id="rId839" xr:uid="{C5CD6954-C172-4761-8447-B494A83C65F5}"/>
-    <hyperlink ref="G64" r:id="rId840" xr:uid="{CF874628-5106-4BA8-BEB7-2223175983CE}"/>
-    <hyperlink ref="G65" r:id="rId841" xr:uid="{1F3AA423-6380-44AD-A8FB-184808C7EDDF}"/>
-    <hyperlink ref="G66" r:id="rId842" xr:uid="{AD0ADE70-96FD-41DA-9093-048BB85C579C}"/>
-    <hyperlink ref="G67" r:id="rId843" xr:uid="{C0527B1F-C99B-4F64-8C99-B62B9FE54211}"/>
-    <hyperlink ref="G68" r:id="rId844" xr:uid="{679A5008-7B6D-490B-BEC7-EE4EF9271CA5}"/>
-    <hyperlink ref="G69" r:id="rId845" xr:uid="{6E3C155E-6EFF-448A-839C-3BC33B7B5128}"/>
-    <hyperlink ref="G70" r:id="rId846" xr:uid="{215C7B39-CCB4-412E-B49A-89E053C81F23}"/>
-    <hyperlink ref="G71" r:id="rId847" xr:uid="{017BFEB0-1D17-4DC5-92D7-D1F350F4061D}"/>
-    <hyperlink ref="G106" r:id="rId848" xr:uid="{ED5EE03A-9AF8-401B-8FAC-9D92E77E3540}"/>
-    <hyperlink ref="G72" r:id="rId849" xr:uid="{5A92C4CD-10E0-4409-BAB7-369F6622FED2}"/>
-    <hyperlink ref="G73" r:id="rId850" xr:uid="{FD2082D1-6525-4EF9-BDE0-64D078A633D2}"/>
-    <hyperlink ref="G74" r:id="rId851" xr:uid="{B8A54F9D-5027-489D-98D7-5FCDE655C674}"/>
-    <hyperlink ref="G75" r:id="rId852" xr:uid="{07064045-B275-4D19-9188-750B06F6C55A}"/>
-    <hyperlink ref="G76" r:id="rId853" xr:uid="{2476742D-2D51-40FF-A849-E055BD386F3D}"/>
-    <hyperlink ref="G77" r:id="rId854" xr:uid="{A0504223-4473-4320-AD4A-AC4EEA34320C}"/>
-    <hyperlink ref="G78" r:id="rId855" xr:uid="{84D760CA-E6AC-4F1C-89CD-DCDF600E0CC7}"/>
-    <hyperlink ref="G79" r:id="rId856" xr:uid="{346940F8-DC69-4523-A6D7-D6C0891FCA2E}"/>
-    <hyperlink ref="G80" r:id="rId857" xr:uid="{E6C8CACF-62F5-4836-A995-4C1BDDB8C1D5}"/>
-    <hyperlink ref="G81" r:id="rId858" xr:uid="{B558F964-1489-4394-B4AB-00E455B7C061}"/>
-    <hyperlink ref="G82" r:id="rId859" xr:uid="{CD893FB6-F875-4AC4-8718-74823E379F1E}"/>
-    <hyperlink ref="G1206" r:id="rId860" xr:uid="{207F951D-E335-4D46-99DB-AC4BCE002377}"/>
-    <hyperlink ref="G83" r:id="rId861" xr:uid="{78E8B405-DDFE-4523-9C17-E439E7A35F28}"/>
-    <hyperlink ref="G84" r:id="rId862" xr:uid="{AAEE7045-6330-47B9-8475-DB8237DE03A9}"/>
-    <hyperlink ref="G85" r:id="rId863" xr:uid="{6575E818-E0EC-4AA0-B696-5D4A5A0064FE}"/>
-    <hyperlink ref="G741" r:id="rId864" xr:uid="{094A3E5D-774A-4A44-AEE6-B18414CEB11C}"/>
-    <hyperlink ref="G86" r:id="rId865" xr:uid="{DE5762B5-CF8F-46D0-897A-F1904E5BC369}"/>
-    <hyperlink ref="G1504" r:id="rId866" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
-    <hyperlink ref="G88" r:id="rId867" xr:uid="{5C68A9B9-18DC-41F0-8C6D-9E60CE63CB05}"/>
-    <hyperlink ref="G89" r:id="rId868" xr:uid="{4B6A94FC-7D29-4B61-91D2-D3DC6499A189}"/>
-    <hyperlink ref="G90" r:id="rId869" xr:uid="{508B6E8E-A802-44FD-A125-7F731995B4E9}"/>
-    <hyperlink ref="G91" r:id="rId870" xr:uid="{2115F3F4-4000-4EC4-8B61-BF652751FDBC}"/>
-    <hyperlink ref="G92" r:id="rId871" xr:uid="{3643B3BB-DBA0-44C1-A7CA-F218E4880BFE}"/>
-    <hyperlink ref="G93" r:id="rId872" xr:uid="{1E0F9459-375E-4FB2-BE7B-8D11FA7FB11C}"/>
-    <hyperlink ref="G94" r:id="rId873" xr:uid="{FCE80168-1D39-4B3A-A122-76EB477DB067}"/>
-    <hyperlink ref="G95" r:id="rId874" xr:uid="{F2A15B36-F99D-40C5-B0F0-CB4CCBD5F12B}"/>
-    <hyperlink ref="G96" r:id="rId875" xr:uid="{969BC453-5804-4D0F-8AEC-4FB1CF33AB83}"/>
-    <hyperlink ref="G97" r:id="rId876" xr:uid="{AA195322-351D-42B5-8AD9-E29B62FAD157}"/>
-    <hyperlink ref="G98" r:id="rId877" xr:uid="{52C83D6A-C363-4B79-B40C-B7A4C77F6583}"/>
-    <hyperlink ref="G6" r:id="rId878" xr:uid="{33E9A75B-7A5E-4563-BF5A-4D38BCB32A4B}"/>
-    <hyperlink ref="G62" r:id="rId879" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
-    <hyperlink ref="G61" r:id="rId880" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
-    <hyperlink ref="G60" r:id="rId881" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
-    <hyperlink ref="G99" r:id="rId882" xr:uid="{D6336EF7-B909-4B9B-9CD2-6D39BABB29B3}"/>
-    <hyperlink ref="E9" r:id="rId883" display="https://twitter.com/StefenReid" xr:uid="{47FAA099-3DEA-4B79-AA12-803C0A828741}"/>
-    <hyperlink ref="G9" r:id="rId884" xr:uid="{6A7CC8A8-E6D6-4C37-8514-B0D04E76916C}"/>
-    <hyperlink ref="G10" r:id="rId885" xr:uid="{5C871EEA-C84A-4C34-B253-376C512E8FBE}"/>
-    <hyperlink ref="G11" r:id="rId886" xr:uid="{CE4C5B2E-1090-4C6D-9CE3-1960B86FF466}"/>
-    <hyperlink ref="G12" r:id="rId887" xr:uid="{911C22C7-285D-4CA4-883B-70561F32EA38}"/>
-    <hyperlink ref="G13" r:id="rId888" xr:uid="{D36ABD2A-4CCF-4648-8B8F-E126B979E332}"/>
-    <hyperlink ref="G14" r:id="rId889" xr:uid="{41B8C214-456D-4719-BF02-D162957654DD}"/>
-    <hyperlink ref="G15" r:id="rId890" xr:uid="{FF0C74F1-C298-44F0-B293-55E1149DA5E1}"/>
-    <hyperlink ref="G16" r:id="rId891" xr:uid="{11EA88F4-B610-417A-A473-2249A6D9051E}"/>
-    <hyperlink ref="G17" r:id="rId892" xr:uid="{3782AD18-DD2F-44DA-B5C5-19686D3B6BCA}"/>
-    <hyperlink ref="G18" r:id="rId893" xr:uid="{3D81BA85-6ACB-4F0C-B3FC-0723210BD158}"/>
-    <hyperlink ref="G19" r:id="rId894" xr:uid="{86EF274A-30F2-43A7-A1E0-F1E6109FD19D}"/>
-    <hyperlink ref="G20" r:id="rId895" xr:uid="{57913861-B006-46D1-B72B-0A41DBA7C486}"/>
-    <hyperlink ref="G21" r:id="rId896" xr:uid="{DC9DA46D-F978-4547-8FEB-D77D3035E2C8}"/>
-    <hyperlink ref="G22" r:id="rId897" xr:uid="{DB097202-9AF3-4DF3-8037-A80ECC185BF2}"/>
-    <hyperlink ref="G23" r:id="rId898" xr:uid="{EEBC7D17-972E-4C77-8145-A550407166FC}"/>
-    <hyperlink ref="G24" r:id="rId899" xr:uid="{5FE4EB87-F843-4EA2-8B97-7D8D2A2F7DB1}"/>
-    <hyperlink ref="G25" r:id="rId900" xr:uid="{B3A84070-AF96-4DFC-B48A-E4C6839ECC41}"/>
-    <hyperlink ref="G26" r:id="rId901" xr:uid="{8BAF302A-B323-4DF0-B106-39BFB435A483}"/>
-    <hyperlink ref="G27" r:id="rId902" xr:uid="{A8AD6C34-B269-4FC7-9957-97A88241481D}"/>
-    <hyperlink ref="G28" r:id="rId903" xr:uid="{61F553EC-39A9-438B-8D01-97A916DBA451}"/>
-    <hyperlink ref="G29" r:id="rId904" xr:uid="{4CA4151D-E396-4FE9-8EFE-D1139341430F}"/>
-    <hyperlink ref="F30" r:id="rId905" display="https://a16z.com/2020/04/18/its-time-to-build/" xr:uid="{331BD6F2-823C-4A07-9E0B-35ABAEB5DF62}"/>
-    <hyperlink ref="G30" r:id="rId906" xr:uid="{22A6D03D-8B61-438B-8B36-606C401DB34D}"/>
-    <hyperlink ref="G31" r:id="rId907" xr:uid="{779A6D12-986B-48EB-BACB-97B29DE844CF}"/>
-    <hyperlink ref="G32" r:id="rId908" xr:uid="{4626499B-90D1-4703-A9E6-67C6819B2414}"/>
-    <hyperlink ref="G33" r:id="rId909" xr:uid="{1AF722ED-FD5C-4251-B8A1-5A0A3ACA727D}"/>
-    <hyperlink ref="G34" r:id="rId910" xr:uid="{14570975-1183-473F-944D-43F6AA334FA8}"/>
-    <hyperlink ref="G35" r:id="rId911" xr:uid="{4B39DFD6-7D7B-405C-B9F6-F0E65CA1971A}"/>
-    <hyperlink ref="G36" r:id="rId912" xr:uid="{90FA9A91-7FF3-4B3D-90BF-D4CFEC5208A6}"/>
-    <hyperlink ref="G37" r:id="rId913" xr:uid="{C10AF893-F02C-4F66-9680-EFDA51BAFD66}"/>
-    <hyperlink ref="G38" r:id="rId914" xr:uid="{DA8B9B1A-6908-4281-AAD6-502E318ABD00}"/>
-    <hyperlink ref="G39" r:id="rId915" xr:uid="{95C8DB88-5812-4E4A-B28B-E761876E32D7}"/>
-    <hyperlink ref="G40" r:id="rId916" xr:uid="{19D13271-9F80-47D7-9C06-77CA90D68085}"/>
-    <hyperlink ref="G42" r:id="rId917" xr:uid="{8BB9245D-434A-436A-B9AA-10256F56CCCB}"/>
-    <hyperlink ref="G43" r:id="rId918" xr:uid="{AF4EB408-246A-4BD8-A7E9-4F4D4CFB5912}"/>
-    <hyperlink ref="G44" r:id="rId919" xr:uid="{E0A7D83C-28B0-44F2-931F-12A5793506DF}"/>
-    <hyperlink ref="G45" r:id="rId920" xr:uid="{C9616753-B2C0-4C0A-9298-63BD2E321345}"/>
-    <hyperlink ref="G46" r:id="rId921" xr:uid="{7DBF72C5-5E34-4FBD-9552-3F4E11F4155B}"/>
-    <hyperlink ref="G41" r:id="rId922" xr:uid="{7D466483-D40F-4AF1-A73E-3DC53491E3B9}"/>
-    <hyperlink ref="F733" r:id="rId923" display="https://medium.com/@erikcason/crypto-truth-and-power-a3e08a51c77" xr:uid="{3772A21C-74AB-4279-B167-2C3D918B5F55}"/>
-    <hyperlink ref="G733" r:id="rId924" xr:uid="{59B31F42-762A-4A52-A8C5-F2C60B6C80B3}"/>
-    <hyperlink ref="G47" r:id="rId925" xr:uid="{67F2519D-B321-442B-B94E-8E76684CBADE}"/>
-    <hyperlink ref="G48" r:id="rId926" xr:uid="{88AE2CD2-98A0-4F89-B410-23E9F372D919}"/>
-    <hyperlink ref="G783" r:id="rId927" xr:uid="{4C0215E0-167B-42CC-97B0-0477A6D95BAA}"/>
-    <hyperlink ref="G784" r:id="rId928" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
-    <hyperlink ref="G795" r:id="rId929" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
-    <hyperlink ref="G794" r:id="rId930" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
-    <hyperlink ref="G286" r:id="rId931" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
-    <hyperlink ref="G382" r:id="rId932" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
-    <hyperlink ref="G542" r:id="rId933" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
-    <hyperlink ref="G543" r:id="rId934" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
-    <hyperlink ref="G1987" r:id="rId935" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
-    <hyperlink ref="G1949" r:id="rId936" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
-    <hyperlink ref="G1942" r:id="rId937" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
-    <hyperlink ref="G1938" r:id="rId938" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
-    <hyperlink ref="G1936" r:id="rId939" location="selection-129.0-129.70" xr:uid="{F73193B1-3F1B-49EF-AE5F-95D42063A433}"/>
-    <hyperlink ref="G1935" r:id="rId940" display="https://web.archive.org/web/20110529123206/http:/www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/" xr:uid="{27280835-3861-41A2-AFD0-27469D9E3BC8}"/>
-    <hyperlink ref="H1962" r:id="rId941" tooltip="Permalink to The Economics Of Bitcoin – Why Mainstream Economists Lie About Deflation" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/11/the-economics-of-bitcoin-why-mainstream-economist-lie-about-deflation/" xr:uid="{C9BB1019-840A-4C7A-96AB-E6BB3586946F}"/>
-    <hyperlink ref="H1963" r:id="rId942" tooltip="Permalink to The Economics Of Bitcoin – How Bitcoins Act As Money" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/18/the-economics-of-bitcoin-how-bitcoins-act-as-money/" xr:uid="{3D69A025-870E-4057-8C0E-9E1047F58139}"/>
-    <hyperlink ref="H1964" r:id="rId943" tooltip="Permalink to Against The Gold Standard" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/21/against-the-gold-standard/" xr:uid="{2B99D4B0-EE4E-4C71-8B13-A35470FE6FED}"/>
-    <hyperlink ref="H1965" r:id="rId944" tooltip="Permalink to The Economics Of Bitcoin – Doug Casey Gets It Wrong" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/23/the-economics-of-bitcoin-doug-casey-gets-it-wrong/" xr:uid="{6199A485-B113-4D2F-9CEF-1FEF37E8F481}"/>
-    <hyperlink ref="H1966" r:id="rId945" tooltip="Permalink to The Economics Of Bitcoin – Resource Allocation And Interest Rate Distortion" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/06/the-economics-of-bitcoin-resource-allocation-and-interest-rate-distortion/" xr:uid="{2CF4A7B6-D073-4D79-ADDB-65B6CBCDDAA2}"/>
-    <hyperlink ref="H1967" r:id="rId946" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/07/the-economics-of-bitcoin-challenging-mises-regression-theorem/" xr:uid="{1DD820B1-71AB-420F-99E9-1A93A206B2F2}"/>
-    <hyperlink ref="H1968" r:id="rId947" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem – Prof. George Selgin Responds" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/22/the-economics-of-bitcoin-%e2%80%93-challenging-mises%e2%80%99-regression-theorem-prof-george-selgin-responds/" xr:uid="{D9293E01-5E48-4F1B-A3E2-B06E1D0F4AF8}"/>
-    <hyperlink ref="H1969" r:id="rId948" tooltip="Permalink to Why Do People Want A Gold Standard When History Shows Us It Does Not Last?" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/12/01/why-do-people-want-a-gold-standard-when-history-shows-us-it-does-not-last/" xr:uid="{AA57D766-2716-48B5-BC09-108B9712092A}"/>
-    <hyperlink ref="G1937" r:id="rId949" xr:uid="{43C5ECEC-F2C2-410D-85ED-D16C715774CF}"/>
-    <hyperlink ref="G1934" r:id="rId950" xr:uid="{5A8121F1-5905-46DA-BB3D-7159D3CACAF8}"/>
-    <hyperlink ref="G1917" r:id="rId951" xr:uid="{0B30952E-9B18-496C-BC2D-39DB37DFE9DC}"/>
-    <hyperlink ref="G1931" r:id="rId952" location="selection-443.1-443.38" xr:uid="{0E2080D5-495C-4240-92C0-E4DF77F6715C}"/>
-    <hyperlink ref="G1930" r:id="rId953" xr:uid="{3DF16003-B2EA-4BE5-91D2-C8F8800A9B34}"/>
-    <hyperlink ref="G1903" r:id="rId954" xr:uid="{7AEE7714-1D23-4A8C-86B2-813D552EBCE2}"/>
-    <hyperlink ref="G1904" r:id="rId955" xr:uid="{90D40E3D-2813-4D2A-B1A3-097C4805AE69}"/>
-    <hyperlink ref="G1898" r:id="rId956" xr:uid="{2DE39767-0E7A-4E32-82B5-EC9A3AE85838}"/>
-    <hyperlink ref="G1933" r:id="rId957" display="https://web.archive.org/web/20110524144933/http:/astrohacker.com/ahc/sister-alternative-different-species-bitcoins/" xr:uid="{F27F3105-90F9-4F5D-9D44-63BC2B58A90C}"/>
-    <hyperlink ref="G1932" r:id="rId958" xr:uid="{7D377A8D-5D6F-4288-8B32-9FD87B23E964}"/>
-    <hyperlink ref="G1752" r:id="rId959" xr:uid="{E05D0CC9-7FF2-4873-B625-3F00A328FCEF}"/>
-    <hyperlink ref="G1720" r:id="rId960" xr:uid="{EB6A2DA7-7E68-4698-9CED-86D438EA2400}"/>
-    <hyperlink ref="G1729" r:id="rId961" xr:uid="{246ADE12-B394-471A-985D-035DBF9455F5}"/>
-    <hyperlink ref="G1442" r:id="rId962" xr:uid="{CF872A43-3BEC-4A9B-9D39-FC8996A06E12}"/>
-    <hyperlink ref="G1441" r:id="rId963" xr:uid="{329B8FD7-7A4B-473D-8CF0-AF22D295C8A6}"/>
-    <hyperlink ref="G1524" r:id="rId964" xr:uid="{E02A49FF-C24E-4073-ACA3-4F8486C0827B}"/>
-    <hyperlink ref="G1611" r:id="rId965" xr:uid="{E2E8B56D-C095-487A-AA65-9394E0309361}"/>
-    <hyperlink ref="G1415" r:id="rId966" xr:uid="{6D0D1F2F-3EE8-4D7C-92F8-A9D2FB392FD6}"/>
-    <hyperlink ref="G1440" r:id="rId967" xr:uid="{6D8E33E5-03A3-4527-88A2-9EAE1411E426}"/>
-    <hyperlink ref="G1719" r:id="rId968" xr:uid="{EC49F2BB-9C25-4C38-A069-1227C3ECC87D}"/>
-    <hyperlink ref="G1715" r:id="rId969" xr:uid="{F4939B9B-2D52-44F9-B235-BDDD1C8095FA}"/>
-    <hyperlink ref="G1728" r:id="rId970" xr:uid="{8EEEC6E4-A631-4FCA-AC98-6FC26FB8C671}"/>
-    <hyperlink ref="G1733" r:id="rId971" location="selection-7.0-7.46" xr:uid="{8921A850-5F88-40A1-8692-234CCC7E9226}"/>
-    <hyperlink ref="G1727" r:id="rId972" xr:uid="{A45F2285-A491-4A50-8B98-2AF0FD12BF16}"/>
-    <hyperlink ref="G2055" r:id="rId973" xr:uid="{AB6820CE-8E74-428F-ABC6-AD46608CE6A2}"/>
-    <hyperlink ref="G1918" r:id="rId974" xr:uid="{94005A37-6C72-426F-B246-0AB9EA5D27FD}"/>
-    <hyperlink ref="G278" r:id="rId975" xr:uid="{F183CD77-B11A-4DC4-AC58-FFB295D33EE1}"/>
+    <hyperlink ref="F1555" r:id="rId488" tooltip="Permanent Link to The battlefield of the future" display="http://trilema.com/2014/the-battlefield-of-the-future/" xr:uid="{A6DA12BF-29D6-4AED-B106-19C7999BB961}"/>
+    <hyperlink ref="F1556" r:id="rId489" tooltip="Permanent Link to An era ends today. A new era starts today." display="http://trilema.com/2014/an-era-ends-today-a-new-era-starts-today/" xr:uid="{BD9A507E-57C5-4A3F-84C3-5C45B3600794}"/>
+    <hyperlink ref="F1539" r:id="rId490" tooltip="Permanent Link to A complete theory of economics" display="http://trilema.com/2014/a-complete-theory-of-economics/" xr:uid="{06227438-0492-4F88-AF18-A125AAD1E9DA}"/>
+    <hyperlink ref="F1538" r:id="rId491" tooltip="Permanent Link to The discreet escort, or how Bitcoin makes prostitution unprosecutable" display="http://trilema.com/2014/the-discreet-escort-or-how-bitcoin-makes-prostitution-unprosecutable/" xr:uid="{0414ED8D-5FCC-48DB-86BA-9B2BCC34339E}"/>
+    <hyperlink ref="F1535" r:id="rId492" tooltip="Permanent Link to The sins of the group of posers behind the so called &quot;Bitcoin Foundation&quot;" display="http://trilema.com/2014/the-sins-of-the-group-of-posers-behind-the-so-called-bitcoin-foundation/" xr:uid="{F1BB9CDC-5684-493B-83B3-0771A2F33547}"/>
+    <hyperlink ref="F1520" r:id="rId493" tooltip="Permanent Link to The idea that Bitcoin is a sovereign..." display="http://trilema.com/2014/the-idea-that-bitcoin-is-a-sovereign/" xr:uid="{E4089F18-AF4F-471A-B183-BA9B72151684}"/>
+    <hyperlink ref="G1520" r:id="rId494" xr:uid="{7620D5E1-0056-4BD2-AE0D-A99E52DF3CEC}"/>
+    <hyperlink ref="F1498" r:id="rId495" tooltip="Permanent Link to The problem of enforcement" display="http://trilema.com/2014/the-problem-of-enforcement/" xr:uid="{DF3B092E-75D5-4831-94BC-E85752341FF9}"/>
+    <hyperlink ref="G1496" r:id="rId496" xr:uid="{796BFA37-4AAB-48E4-AC28-94A5D1D207DF}"/>
+    <hyperlink ref="F1480" r:id="rId497" tooltip="Permanent Link to Time for some Bitlicenses of our own." display="http://trilema.com/2014/time-for-some-bitlicenses-of-our-own/" xr:uid="{225AB33B-A43C-4805-B781-75C3EAB83936}"/>
+    <hyperlink ref="F1473" r:id="rId498" tooltip="Permanent Link to The woes of Altcoin, or why there is no such thing as &quot;cryptocurrencies&quot;" display="http://trilema.com/2014/the-woes-of-altcoin-or-why-there-is-no-such-thing-as-cryptocurrencies/" xr:uid="{FD3B43EA-187F-432D-955C-233EA184031B}"/>
+    <hyperlink ref="F1465" r:id="rId499" tooltip="Permanent Link to A humble proposal to Bitcoin miners" display="http://trilema.com/2014/a-humble-proposal-to-bitcoin-miners/" xr:uid="{AF121DC6-378F-4EC7-9BD8-4D5432F700F2}"/>
+    <hyperlink ref="F1443" r:id="rId500" tooltip="Permanent Link to USGavin, the lolcow" display="http://trilema.com/2014/usgavin-the-lolcow/" xr:uid="{3949A12B-621E-473A-BE28-EA4237D3146B}"/>
+    <hyperlink ref="F1444" r:id="rId501" tooltip="Permanent Link to How to deal with pseudoscience ?" display="http://trilema.com/2014/how-to-deal-with-pseudoscience/" xr:uid="{A7EC58AF-A415-4C30-AD7A-A3887033AF07}"/>
+    <hyperlink ref="F1432" r:id="rId502" tooltip="Permanent Link to Actual Bitcoin corporations (ABCs) versus fiat-based frauds trying to masquerade as Bitcoin companies (while masquerading as companies in the first place) on the solid theory that the general public is too stupid to make any difference, " display="http://trilema.com/2014/actual-bitcoin-corporations-abcs-versus-fiat-based-frauds-trying-to-masquerade-as-bitcoin-companies-while-masquerading-as-companies-in-the-first-place-on-the-solid-theory-that-the-general-public-i/" xr:uid="{A3A2A811-4ADA-4662-ADAA-C6F7697BBEBB}"/>
+    <hyperlink ref="F1392" r:id="rId503" tooltip="Permanent Link to If you go on a Bitcoin fork, irrespective which scammer proposes it, you will lose your Bitcoins." display="http://trilema.com/2015/if-you-go-on-a-bitcoin-fork-irrespective-which-scammer-proposes-it-you-will-lose-your-bitcoins/" xr:uid="{C92B5772-316B-449F-9A2D-B93BB1BAE4E2}"/>
+    <hyperlink ref="F1394" r:id="rId504" tooltip="Permanent Link to Let's address some of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-some-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{FFA80CCB-58AB-474A-8867-2D90E1514AC1}"/>
+    <hyperlink ref="F1395" r:id="rId505" tooltip="Permanent Link to Let's address even more of the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/lets-address-even-more-of-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{4F5AE502-17BA-4DD5-AC94-BA076F6BF57E}"/>
+    <hyperlink ref="F1397" r:id="rId506" tooltip="Permanent Link to Third pass addressing the more common pseudo-arguments raised by the very stupid people that like the Gavin scamcoin proposal" display="http://trilema.com/2015/third-pass-addressing-the-more-common-pseudo-arguments-raised-by-the-very-stupid-people-that-like-the-gavin-scamcoin-proposal/" xr:uid="{5C6BEF3A-0873-4C43-82FA-4EAB7698331D}"/>
+    <hyperlink ref="F1396" r:id="rId507" tooltip="Permanent Link to Ok, so what is Bitcoin disrupting ?" display="http://trilema.com/2015/ok-so-what-is-bitcoin-disrupting/" xr:uid="{D70D05E3-135B-46A1-848C-0C3BB577D1F4}"/>
+    <hyperlink ref="F1311" r:id="rId508" tooltip="Permanent Link to Basic Bitcoin Competency Certification" display="http://trilema.com/2015/basic-bitcoin-competency-certification/" xr:uid="{551D973D-D949-4A37-A932-E90831F8DC56}"/>
+    <hyperlink ref="F1104" r:id="rId509" display="https://junseth.com/post/156343456987/a-brief-history-of-bitcoin" xr:uid="{305E31FF-1680-47BD-B279-C28AC14597E7}"/>
+    <hyperlink ref="F876" r:id="rId510" tooltip="Permanent Link to Integration is bad for Bitcoin." display="http://trilema.com/2017/integration-is-bad-for-bitcoin/" xr:uid="{DA3295AD-0A2C-4C93-BFFD-FE2FB2F15E30}"/>
+    <hyperlink ref="F420" r:id="rId511" tooltip="Permanent Link to I state problems, I receive solutions. A happiness is me." display="http://trilema.com/2013/i-state-problems-i-receive-solutions-a-happiness-is-me/" xr:uid="{78F1E46B-E592-47BC-B5B1-20C21A8CC4D8}"/>
+    <hyperlink ref="F370" r:id="rId512" tooltip="Permanent Link to Bitcoin Recapitulation" display="http://trilema.com/2019/bitcoin-recapitulation/" xr:uid="{FB4B51D6-929E-4DF1-8D1A-F1840C96D229}"/>
+    <hyperlink ref="F1383" r:id="rId513" display="https://jonathanlevin.wordpress.com/2015/03/29/digital-scarcity-what-makes-a-satoshi-on-the-mainchain-worth-having/" xr:uid="{7CE45011-6890-40DA-A707-4B88FF2F6EA9}"/>
+    <hyperlink ref="F1225" r:id="rId514" display="http://hashingit.com/analysis/47-bitcoin-tx-fees" xr:uid="{E1CE598B-53F4-411E-B795-84C28EAA7E88}"/>
+    <hyperlink ref="F1241" r:id="rId515" display="http://hashingit.com/analysis/46-behold-exahash" xr:uid="{B7F3802D-27FD-47D5-80EE-E6A3AF75C8B4}"/>
+    <hyperlink ref="F1274" r:id="rId516" display="http://hashingit.com/analysis/45-blockchain-what-art-thou" xr:uid="{748D4CC1-2A0F-4E69-ABEC-CCD998D8D840}"/>
+    <hyperlink ref="F1273" r:id="rId517" display="http://hashingit.com/analysis/43-waiting-for-blocks-revised" xr:uid="{FF0DC88E-0633-4129-BEE8-1EB1E4BEB33F}"/>
+    <hyperlink ref="F1389" r:id="rId518" display="http://hashingit.com/analysis/41-waiting-for-blocks" xr:uid="{A2C8CF81-2AB6-49E1-87F2-B3DB5D4C53B5}"/>
+    <hyperlink ref="F1434" r:id="rId519" display="http://hashingit.com/analysis/35-the-future-of-bitcoin-transaction-fees" xr:uid="{2034378E-CBB0-4439-9404-F28617424322}"/>
+    <hyperlink ref="F1435" r:id="rId520" display="http://hashingit.com/analysis/34-bitcoin-traffic-bulletin" xr:uid="{CBA7E8F8-73F4-4EF3-BFE1-2E4FB7E17ECB}"/>
+    <hyperlink ref="F1436" r:id="rId521" display="http://hashingit.com/analysis/33-7-transactions-per-second" xr:uid="{56F77F5D-D4E4-4F10-B208-07DEB9BEC04D}"/>
+    <hyperlink ref="F1491" r:id="rId522" display="http://hashingit.com/analysis/32-the-gamblers-guide-to-bitcoin-mining" xr:uid="{63C0E100-C174-4764-A8E1-DD31538C94AF}"/>
+    <hyperlink ref="F1500" r:id="rId523" display="http://hashingit.com/analysis/31-51-percent-of-the-network" xr:uid="{30BCCB7E-1E97-4BDD-A38B-9FAE7A0F7634}"/>
+    <hyperlink ref="F1501" r:id="rId524" display="http://hashingit.com/analysis/30-finding-2016-blocks" xr:uid="{C276839E-A3C4-422A-B5E3-15A8BF7ED8C7}"/>
+    <hyperlink ref="F1502" r:id="rId525" display="http://hashingit.com/analysis/29-lies-damned-lies-and-bitcoin-difficulties" xr:uid="{83C9658C-F972-41B3-B4DF-7FE865BB32E6}"/>
+    <hyperlink ref="F1503" r:id="rId526" display="http://hashingit.com/analysis/18-strange-spikes-revisited" xr:uid="{EC6443D4-9D03-4F80-B56E-B91114340635}"/>
+    <hyperlink ref="F1521" r:id="rId527" display="http://hashingit.com/analysis/27-hash-rate-headaches" xr:uid="{1C027EE9-28BA-4794-94CA-7BADED644EA8}"/>
+    <hyperlink ref="F1541" r:id="rId528" display="http://hashingit.com/analysis/25-prisoners-dilemmas" xr:uid="{E8BF99D6-E46D-4865-B877-A898FCD36EEC}"/>
+    <hyperlink ref="G1541" r:id="rId529" xr:uid="{E900F52B-733F-4DE8-A862-999A19022F53}"/>
+    <hyperlink ref="F1542" r:id="rId530" display="http://hashingit.com/analysis/24-megawatts-of-mining" xr:uid="{13CF7CBE-AFE1-4FAA-AEF2-9CB8B716D5C9}"/>
+    <hyperlink ref="F1543" r:id="rId531" display="http://hashingit.com/analysis/23-the-rewards-for-a-bitcoin-miner" xr:uid="{A4223C56-511B-4059-BB61-3E12AD599718}"/>
+    <hyperlink ref="F1564" r:id="rId532" display="http://hashingit.com/analysis/22-where-next-for-bitcoin-mining-asics" xr:uid="{C58562A3-C60F-439E-855B-87D40B6F4B86}"/>
+    <hyperlink ref="F1565" r:id="rId533" display="http://hashingit.com/analysis/21-chickens-and-eggs" xr:uid="{6663E46B-DA2F-4F9D-A320-CD3A032FF8EB}"/>
+    <hyperlink ref="F1566" r:id="rId534" display="http://hashingit.com/analysis/20-strange-spikes-in-the-bitcoin-price" xr:uid="{55D24341-8DF6-4FE0-A2E0-11EA7584DA94}"/>
+    <hyperlink ref="F1567" r:id="rId535" display="http://hashingit.com/analysis/19-the-bitcoin-runaway-mine-train" xr:uid="{9D601936-B819-46C1-928E-CDA54CA3BA7A}"/>
+    <hyperlink ref="G834" r:id="rId536" xr:uid="{E907C8E7-981D-4315-9DF9-5F9209A28734}"/>
+    <hyperlink ref="G821" r:id="rId537" xr:uid="{5AC44921-91C5-4324-8698-C7E71EBC1EF8}"/>
+    <hyperlink ref="G822" r:id="rId538" xr:uid="{55A3B990-1364-4F8C-BB61-5C5728CE5356}"/>
+    <hyperlink ref="G817" r:id="rId539" xr:uid="{4EAC6694-4857-4E3D-96DD-6AB15011102D}"/>
+    <hyperlink ref="G335" r:id="rId540" xr:uid="{E2563B8E-CAD4-4981-A57A-3F84D626FDBA}"/>
+    <hyperlink ref="G334" r:id="rId541" xr:uid="{FAFE8F40-BBF4-4C70-8404-2FFE0DD76D1A}"/>
+    <hyperlink ref="G322" r:id="rId542" xr:uid="{61564305-3FAD-48E3-8419-728750594BA1}"/>
+    <hyperlink ref="G333" r:id="rId543" xr:uid="{0F199451-94A0-4CB5-A34B-B02DF86BC4A0}"/>
+    <hyperlink ref="G332" r:id="rId544" xr:uid="{7383AF6B-06E6-478C-A143-65DFF466BE32}"/>
+    <hyperlink ref="G331" r:id="rId545" xr:uid="{F948852C-0AAF-46B8-ABD4-933CD18D5A72}"/>
+    <hyperlink ref="G330" r:id="rId546" xr:uid="{B74D72AB-FA7C-439A-AD9D-F43ABCFC5587}"/>
+    <hyperlink ref="G329" r:id="rId547" xr:uid="{813E7CD6-D250-4C82-BE4A-9D54E197D67D}"/>
+    <hyperlink ref="G328" r:id="rId548" xr:uid="{D5BC49E4-F0BD-4ACD-9A03-804CD99204DA}"/>
+    <hyperlink ref="G325" r:id="rId549" xr:uid="{C44DDCA1-C4D5-4FE3-84BC-E663089F50D0}"/>
+    <hyperlink ref="G324" r:id="rId550" xr:uid="{0C20D16D-2FCF-4116-BC10-B93A7A03E2E2}"/>
+    <hyperlink ref="G309" r:id="rId551" xr:uid="{2BDA5184-23C3-4161-84D6-61D7B557587E}"/>
+    <hyperlink ref="G310" r:id="rId552" xr:uid="{39F8BF4C-9A1A-44D5-AC0B-E4D725152DEE}"/>
+    <hyperlink ref="G311" r:id="rId553" xr:uid="{2AD5EB5E-69D7-441D-BB91-9C585FE81D52}"/>
+    <hyperlink ref="G313" r:id="rId554" xr:uid="{4FB56DEF-6130-4A1D-BFC9-159F711DB3F3}"/>
+    <hyperlink ref="G315" r:id="rId555" xr:uid="{2A074457-6C04-41E3-953C-A2B2AFD1C263}"/>
+    <hyperlink ref="G316" r:id="rId556" xr:uid="{9DF64869-3792-49F7-B5EB-E40630824175}"/>
+    <hyperlink ref="G317" r:id="rId557" xr:uid="{82BC628C-3C0C-4CBE-ADE8-DA7AB0219082}"/>
+    <hyperlink ref="G319" r:id="rId558" xr:uid="{CA76BB9D-8AC4-4EE6-B79F-4568859FC668}"/>
+    <hyperlink ref="G321" r:id="rId559" xr:uid="{C240B46C-DC11-4410-BB55-D144DE2985B7}"/>
+    <hyperlink ref="G323" r:id="rId560" xr:uid="{66DC2E89-5085-42D8-BAEE-1C32E66AEFAB}"/>
+    <hyperlink ref="G327" r:id="rId561" xr:uid="{FD55FA5E-ADA8-4A73-AA0A-739AD494BBD2}"/>
+    <hyperlink ref="G298" r:id="rId562" xr:uid="{52332DF9-79D8-4086-BEE5-12DCB0101DAB}"/>
+    <hyperlink ref="G370" r:id="rId563" location="selection-21.5-21.60" xr:uid="{63CD0252-D1F4-4D8E-8DB4-ADD49D7B898B}"/>
+    <hyperlink ref="G371" r:id="rId564" xr:uid="{36842729-B5D7-4D09-936D-D8139231011D}"/>
+    <hyperlink ref="G373" r:id="rId565" xr:uid="{7557690C-0983-477C-B2FF-73859A99BB58}"/>
+    <hyperlink ref="G374" r:id="rId566" xr:uid="{22BEB62C-3FED-42E9-8971-A7944FF697C0}"/>
+    <hyperlink ref="G375" r:id="rId567" xr:uid="{838B6720-3C4C-405D-A3B2-E7CB1BFDF6EA}"/>
+    <hyperlink ref="G418" r:id="rId568" xr:uid="{C7F34F49-E6A9-4423-80F2-AEB8979AC987}"/>
+    <hyperlink ref="G419" r:id="rId569" xr:uid="{8E6D2674-B92A-4AAB-A4C4-0EB0480269C9}"/>
+    <hyperlink ref="G421" r:id="rId570" xr:uid="{669EAFEA-0ABF-4F26-BC13-24046CCD2697}"/>
+    <hyperlink ref="G1360" r:id="rId571" xr:uid="{8A899F9E-C813-45BF-91A2-5283ED101704}"/>
+    <hyperlink ref="F1360" r:id="rId572" display="http://cascadianhacker.com/24_bitcoin-needs-no-changes-to-destroy-your-world" xr:uid="{B94E0CE3-3372-4C20-AC98-49AB074167C9}"/>
+    <hyperlink ref="G430" r:id="rId573" xr:uid="{EC59A1D9-036E-455E-BC03-151ECDC45822}"/>
+    <hyperlink ref="G431" r:id="rId574" xr:uid="{60361D7E-CB2C-4D01-9676-0A1CA7732514}"/>
+    <hyperlink ref="G432" r:id="rId575" xr:uid="{48E1B211-8603-42F1-BE2B-08570DFA4927}"/>
+    <hyperlink ref="G435" r:id="rId576" xr:uid="{D5CB41FD-8887-413C-AB7D-3F155F4B9DAB}"/>
+    <hyperlink ref="G436" r:id="rId577" xr:uid="{F2A40C6F-C753-4F6F-82DA-A51317679CFE}"/>
+    <hyperlink ref="G303" r:id="rId578" xr:uid="{E610AEE7-DB72-4239-87B5-3FB834BC0B45}"/>
+    <hyperlink ref="G293" r:id="rId579" xr:uid="{7390EC1E-F1DC-4A04-A07E-78211EEBD053}"/>
+    <hyperlink ref="G294" r:id="rId580" xr:uid="{DBD6AD6B-351A-4133-B6A4-6B13FFA536DF}"/>
+    <hyperlink ref="G295" r:id="rId581" xr:uid="{F1752B38-25A2-48DA-8DEE-B25CAC8B1254}"/>
+    <hyperlink ref="G296" r:id="rId582" xr:uid="{E2F38E02-83B1-463D-9696-7E4BF035B6A5}"/>
+    <hyperlink ref="G297" r:id="rId583" xr:uid="{F0981388-A434-4006-AAB4-D05BFCDF32AF}"/>
+    <hyperlink ref="G299" r:id="rId584" xr:uid="{FE48F132-F40A-4138-B2A9-A6D1D2E41DEC}"/>
+    <hyperlink ref="G300" r:id="rId585" xr:uid="{E65E5A32-125E-4DBA-821D-72B64CDBD5A7}"/>
+    <hyperlink ref="G301" r:id="rId586" xr:uid="{6E449A4B-C9F1-4B1C-BA89-B254DE288BBB}"/>
+    <hyperlink ref="G302" r:id="rId587" xr:uid="{D46FA922-8B5A-4ADD-9F9E-EA562F602C8B}"/>
+    <hyperlink ref="G290" r:id="rId588" xr:uid="{BBD2ED7F-DC66-4429-8342-A848A79E5F43}"/>
+    <hyperlink ref="G291" r:id="rId589" xr:uid="{F1BA586A-9042-425A-B36D-217215FF2FAB}"/>
+    <hyperlink ref="G289" r:id="rId590" xr:uid="{31FB2CF2-15EC-4EFE-9419-AC4B18661E34}"/>
+    <hyperlink ref="G1306" r:id="rId591" xr:uid="{A54AC1B6-CF27-42C3-ACB2-D35B92E478CA}"/>
+    <hyperlink ref="F1306" r:id="rId592" display="https://bitcoin.stackexchange.com/questions/38994/will-there-be-21-million-bitcoins-eventually" xr:uid="{24400D47-04E7-4F3F-BBFD-233286138F28}"/>
+    <hyperlink ref="F271" r:id="rId593" display="https://www.reddit.com/r/Bitcoin/comments/ddddfl/question_on_the_vulnerability_of_bitcoin/" xr:uid="{94B7489E-AB9C-4351-9359-A5D4094C29EE}"/>
+    <hyperlink ref="G1677" r:id="rId594" xr:uid="{AE6A7506-FAA8-40BF-9933-6205D7B49D14}"/>
+    <hyperlink ref="G273" r:id="rId595" xr:uid="{360691A1-9054-406D-A096-E2E155D90E23}"/>
+    <hyperlink ref="G272" r:id="rId596" xr:uid="{96DCC9DA-A1BD-45FC-8244-D6716BA1D905}"/>
+    <hyperlink ref="G271" r:id="rId597" xr:uid="{385C8BE1-D7F0-48E1-95A7-0C35818FCCD8}"/>
+    <hyperlink ref="G270" r:id="rId598" xr:uid="{0323B75B-C75B-45D4-AE64-C9F75156D116}"/>
+    <hyperlink ref="G269" r:id="rId599" xr:uid="{44C6C6AA-421A-4803-9A43-7B390874B75A}"/>
+    <hyperlink ref="G268" r:id="rId600" xr:uid="{36FB0BEE-2D83-4AA1-AEFA-57209DE733F1}"/>
+    <hyperlink ref="G267" r:id="rId601" xr:uid="{73C348B9-04F6-41D8-8905-D763E1A13D39}"/>
+    <hyperlink ref="G266" r:id="rId602" xr:uid="{EAB2FAAB-F9E3-4971-B689-D6244C1329F0}"/>
+    <hyperlink ref="G265" r:id="rId603" xr:uid="{7E18E7A6-2610-4C63-B5F9-B9E7D8B1A669}"/>
+    <hyperlink ref="G264" r:id="rId604" xr:uid="{EE7DB71E-900D-4223-AA58-6B8D06C230A1}"/>
+    <hyperlink ref="G263" r:id="rId605" xr:uid="{9A90948C-9E76-401B-832B-F20A9C54C3DE}"/>
+    <hyperlink ref="G262" r:id="rId606" xr:uid="{088B3ADE-B96C-4F3D-93B5-A8F11B2B8513}"/>
+    <hyperlink ref="G261" r:id="rId607" xr:uid="{B167801E-9FA4-47B2-B1CA-7DDECE0FDD6A}"/>
+    <hyperlink ref="G260" r:id="rId608" xr:uid="{2D08E3A2-2FA4-4635-898E-94EE14E975BA}"/>
+    <hyperlink ref="G259" r:id="rId609" xr:uid="{EE92FD94-F43F-47A7-B849-B38AAF7E12A0}"/>
+    <hyperlink ref="G252" r:id="rId610" xr:uid="{1841D87B-D3AC-42F5-BCC5-DE38601F9440}"/>
+    <hyperlink ref="G253" r:id="rId611" xr:uid="{5DCE7D1D-6FC5-4941-92A5-DBD7B9A6A748}"/>
+    <hyperlink ref="G254" r:id="rId612" xr:uid="{62C29AB2-D947-4696-B778-52F67A86C5F7}"/>
+    <hyperlink ref="F239" r:id="rId613" display="https://bitcoin.stackexchange.com/questions/91049/why-does-hashing-public-keys-not-actually-provide-any-quantum-resistance" xr:uid="{5F39B841-CC8B-44F1-A5F2-8EE6146C307D}"/>
+    <hyperlink ref="G251" r:id="rId614" xr:uid="{365B81C8-1751-4B75-9CC6-ECFAC78B1E49}"/>
+    <hyperlink ref="F231" r:id="rId615" display="https://philjbonello.substack.com/p/the-sovereign-individual-investment" xr:uid="{8CFD7459-F16F-4992-83A4-F27DB01EAC66}"/>
+    <hyperlink ref="F230" r:id="rId616" display="https://philjbonello.substack.com/p/digital-money" xr:uid="{FF3386AD-5A01-484E-AB4B-B24938C4AC00}"/>
+    <hyperlink ref="F226" r:id="rId617" display="https://rhythmofbitcoin.substack.com/p/a-cashless-future-is-a-dystopia-without" xr:uid="{07C57689-D3FC-4121-98A6-93F2DAD82C21}"/>
+    <hyperlink ref="G250" r:id="rId618" xr:uid="{2EE1B357-E60C-45B9-9CEE-68544A367F08}"/>
+    <hyperlink ref="G249" r:id="rId619" xr:uid="{E92DAF54-A1CD-407F-9960-FA99A125DE5E}"/>
+    <hyperlink ref="G248" r:id="rId620" xr:uid="{CBF7FC3E-2007-4F4E-AC35-47C052353CBE}"/>
+    <hyperlink ref="G246" r:id="rId621" xr:uid="{DE7704B6-672B-49D1-911E-B490E0050F2F}"/>
+    <hyperlink ref="G245" r:id="rId622" xr:uid="{01E80B7B-6F1A-4A15-AC37-7B6C9C24808C}"/>
+    <hyperlink ref="G244" r:id="rId623" xr:uid="{C8C5819A-91F8-4556-96E4-99ECD0F925B2}"/>
+    <hyperlink ref="G243" r:id="rId624" xr:uid="{B6959887-BE99-41D9-8475-24A70F43AB16}"/>
+    <hyperlink ref="G242" r:id="rId625" xr:uid="{1B36DB34-9CCC-4C2A-A4CA-ACA47E2DE508}"/>
+    <hyperlink ref="G240" r:id="rId626" xr:uid="{921095A8-36CB-410D-9D2A-8973557C47F6}"/>
+    <hyperlink ref="G239" r:id="rId627" xr:uid="{80CD66BD-8117-4B53-923C-29CFF6619C94}"/>
+    <hyperlink ref="G238" r:id="rId628" xr:uid="{BECC4351-03F1-4297-AA29-E33126942591}"/>
+    <hyperlink ref="G236" r:id="rId629" xr:uid="{2D020D98-BF85-4D86-979A-CDC3363E9807}"/>
+    <hyperlink ref="G235" r:id="rId630" xr:uid="{9694C19A-452D-4542-8CBE-95F35257503B}"/>
+    <hyperlink ref="G234" r:id="rId631" xr:uid="{8BA32324-4B77-420B-AE30-515B0BAC5C67}"/>
+    <hyperlink ref="G233" r:id="rId632" xr:uid="{CA901CDA-AA33-4404-8E90-E65862240FF4}"/>
+    <hyperlink ref="G232" r:id="rId633" xr:uid="{6AEA8A91-D4FF-47EE-BC53-922B454872F5}"/>
+    <hyperlink ref="G231" r:id="rId634" xr:uid="{C4FFEF05-D021-426C-A9AE-342A125B43B7}"/>
+    <hyperlink ref="G230" r:id="rId635" xr:uid="{BDF76746-FDBF-44EE-A525-73B909EC9345}"/>
+    <hyperlink ref="G229" r:id="rId636" xr:uid="{3E017625-FCF1-4498-850D-541386E1AB24}"/>
+    <hyperlink ref="G228" r:id="rId637" xr:uid="{9A3F1B72-A7AC-4031-B61B-D0EB83B6E508}"/>
+    <hyperlink ref="G227" r:id="rId638" xr:uid="{63415624-457F-4E97-BFA3-73CCB3525134}"/>
+    <hyperlink ref="G226" r:id="rId639" xr:uid="{D427E119-4BE4-48B1-AE6A-14E352E8709F}"/>
+    <hyperlink ref="G225" r:id="rId640" xr:uid="{9FEF12A9-2792-4E9F-B142-67EAF3F36AE6}"/>
+    <hyperlink ref="G224" r:id="rId641" xr:uid="{C8886B2D-1222-4799-A804-5509D773D910}"/>
+    <hyperlink ref="G223" r:id="rId642" xr:uid="{8DC532C3-812A-45E4-BA9F-4368388C8CB4}"/>
+    <hyperlink ref="G219" r:id="rId643" xr:uid="{336AD68E-287A-41A9-892B-C7A7EC2F3875}"/>
+    <hyperlink ref="F218" r:id="rId644" display="https://offthechain.substack.com/p/bitcoins-missionaries-vs-wall-streets" xr:uid="{5AEA4BED-B8F9-4ED9-BCE6-B7AD163E0E25}"/>
+    <hyperlink ref="G608" r:id="rId645" xr:uid="{172B9B5F-15A2-4067-9D0A-F50246509094}"/>
+    <hyperlink ref="G609" r:id="rId646" xr:uid="{3A5C44CE-3028-4D76-B1A2-240C782D9D6B}"/>
+    <hyperlink ref="G610" r:id="rId647" xr:uid="{CE329330-BEE0-452B-B6A5-B1355BF9EEE2}"/>
+    <hyperlink ref="G541" r:id="rId648" xr:uid="{08D18920-21A9-4404-A48B-A07DF75B331C}"/>
+    <hyperlink ref="G538" r:id="rId649" xr:uid="{8C9DBE65-30FC-4B28-935E-486778F8E344}"/>
+    <hyperlink ref="G537" r:id="rId650" xr:uid="{5BAA8C86-AAF2-4234-BE60-CD25BDFD81CA}"/>
+    <hyperlink ref="G536" r:id="rId651" xr:uid="{FC128AE7-9A38-4A3F-B7C7-7836E27BC89D}"/>
+    <hyperlink ref="G533" r:id="rId652" xr:uid="{FDA452A4-46AC-479B-95A9-DD9D57DE9EFB}"/>
+    <hyperlink ref="G535" r:id="rId653" xr:uid="{D57A42BD-9542-4CC2-B8D3-F8B15AEFAE87}"/>
+    <hyperlink ref="G615" r:id="rId654" xr:uid="{C2640952-F7A6-4365-BB7E-D136EE510DA8}"/>
+    <hyperlink ref="G212" r:id="rId655" xr:uid="{86102DEE-C262-40AC-AA3A-AA1B6C7DDAF9}"/>
+    <hyperlink ref="G220" r:id="rId656" xr:uid="{B5954FC3-5697-43A3-AE30-E5B6D8C8788E}"/>
+    <hyperlink ref="G215" r:id="rId657" xr:uid="{E6764CF0-FCC6-4D80-974C-E7B38CAAA3B6}"/>
+    <hyperlink ref="G214" r:id="rId658" xr:uid="{CFD06610-6E9E-404F-91C2-E4722EA341F2}"/>
+    <hyperlink ref="G213" r:id="rId659" xr:uid="{9E73D04F-2608-4548-9A62-C9C51C67D9AD}"/>
+    <hyperlink ref="G210" r:id="rId660" xr:uid="{3836086A-34C1-4950-92E9-382C10CE6315}"/>
+    <hyperlink ref="G209" r:id="rId661" xr:uid="{4116E953-4CB0-46EA-9EF4-AC2A006D6055}"/>
+    <hyperlink ref="G208" r:id="rId662" xr:uid="{FDC72A5E-9D16-4F48-8BBE-EB19A7095BCA}"/>
+    <hyperlink ref="G207" r:id="rId663" xr:uid="{E7CB9562-26A3-429A-974D-D8B875C87B21}"/>
+    <hyperlink ref="G206" r:id="rId664" xr:uid="{CF61FAB0-56DA-470A-B69D-E571A56CE34D}"/>
+    <hyperlink ref="G205" r:id="rId665" xr:uid="{835AD9B4-65B6-447E-A2D5-18CE8274F57D}"/>
+    <hyperlink ref="G204" r:id="rId666" xr:uid="{3A7FC5F4-38DD-40F9-A42A-209969EA595B}"/>
+    <hyperlink ref="G211" r:id="rId667" xr:uid="{D5A2F61A-E2EF-4F54-9CA9-7D70459CB787}"/>
+    <hyperlink ref="G305" r:id="rId668" xr:uid="{6B1E60FE-BF6B-4F69-B147-E1730B161720}"/>
+    <hyperlink ref="F305" r:id="rId669" display="https://moneyordebt.com/2019/09/24/living-on-satoshi-time-what-block-is-it/" xr:uid="{8A87C366-C909-466D-A2AD-55DDA860CC99}"/>
+    <hyperlink ref="G203" r:id="rId670" xr:uid="{B1B3C0B6-F7FF-417B-91F4-90B38EA4A0EC}"/>
+    <hyperlink ref="G202" r:id="rId671" xr:uid="{F8B2D732-F4CA-4D6F-8875-15C166A37F7D}"/>
+    <hyperlink ref="G201" r:id="rId672" xr:uid="{40C6A598-2692-4F1D-964B-F70DD31C5CED}"/>
+    <hyperlink ref="G216" r:id="rId673" xr:uid="{BE92E195-953F-4CAC-8375-DC7373EE0C77}"/>
+    <hyperlink ref="G195" r:id="rId674" xr:uid="{B617D06C-9A10-4286-B01A-89EDC1AC9CA7}"/>
+    <hyperlink ref="G199" r:id="rId675" xr:uid="{80BE8E42-EA8D-4AE5-AFFB-6841744EB4FB}"/>
+    <hyperlink ref="G218" r:id="rId676" xr:uid="{5BD8B767-E55B-4DE1-8EB1-A809B6B3C2C8}"/>
+    <hyperlink ref="G217" r:id="rId677" xr:uid="{7DE6CFA3-7232-4268-B4B8-371DB50F73B7}"/>
+    <hyperlink ref="G194" r:id="rId678" xr:uid="{C3B57097-9A10-4E73-BA2A-B8ED621008FE}"/>
+    <hyperlink ref="G193" r:id="rId679" xr:uid="{37F0EED8-90A5-4FA5-BA3D-5F60FE73A720}"/>
+    <hyperlink ref="G200" r:id="rId680" xr:uid="{4F2F6454-5B54-4E19-B32B-FC86FE03C09D}"/>
+    <hyperlink ref="G279" r:id="rId681" xr:uid="{60C630BE-1D43-4D24-A558-276A8332DA20}"/>
+    <hyperlink ref="G198" r:id="rId682" xr:uid="{878B9826-13D1-445C-BD7A-644E472C6AD5}"/>
+    <hyperlink ref="G197" r:id="rId683" xr:uid="{BC93470D-D490-4709-AA72-6AD48B01550B}"/>
+    <hyperlink ref="G196" r:id="rId684" xr:uid="{24F9A067-D956-4257-9844-D1D2198F368E}"/>
+    <hyperlink ref="G192" r:id="rId685" xr:uid="{47027714-DF08-4D30-81B0-CE1310674E38}"/>
+    <hyperlink ref="G824" r:id="rId686" xr:uid="{BEE73C3D-3B0E-46A8-846D-E652700A9FD9}"/>
+    <hyperlink ref="G823" r:id="rId687" xr:uid="{43D48259-60BE-4D1C-9935-601D6F549691}"/>
+    <hyperlink ref="G422" r:id="rId688" xr:uid="{A4262CE5-7163-411A-8ED2-21E61DC5055F}"/>
+    <hyperlink ref="G698" r:id="rId689" xr:uid="{4F343EF9-D324-4F26-810A-724CC7AF35DD}"/>
+    <hyperlink ref="G699" r:id="rId690" xr:uid="{E1CC10E7-F47D-4603-B688-B980CA486D4E}"/>
+    <hyperlink ref="G544" r:id="rId691" xr:uid="{9B09966D-A4CB-47B5-A652-A29CB0AFADCF}"/>
+    <hyperlink ref="G545" r:id="rId692" xr:uid="{2E7F1CF2-C27A-4766-83C5-8ABCB43C7B2F}"/>
+    <hyperlink ref="G437" r:id="rId693" xr:uid="{3699D16B-CA0F-44D7-AC91-3FDAB8EBFFFA}"/>
+    <hyperlink ref="G429" r:id="rId694" xr:uid="{66922EC8-2350-4EC6-9F3E-9CDF08F4DAB3}"/>
+    <hyperlink ref="G280" r:id="rId695" xr:uid="{43284B45-4895-49CE-810D-B4707E43244C}"/>
+    <hyperlink ref="G282" r:id="rId696" xr:uid="{9C3AB0F0-34DC-4574-A55C-B7F545DFD135}"/>
+    <hyperlink ref="G283" r:id="rId697" xr:uid="{58095F66-FEC3-4D24-807B-606273B467DD}"/>
+    <hyperlink ref="G845" r:id="rId698" xr:uid="{B87B304F-C7C9-42A5-B522-0FCDB71287A3}"/>
+    <hyperlink ref="G160" r:id="rId699" xr:uid="{9E8640C3-7989-4269-B8BD-B5617148BBFC}"/>
+    <hyperlink ref="G669" r:id="rId700" xr:uid="{261759AC-F6B0-4C30-B083-5739A5A1FD4E}"/>
+    <hyperlink ref="G846" r:id="rId701" xr:uid="{44942DCC-A950-45B7-836C-EEA3E136F355}"/>
+    <hyperlink ref="G847" r:id="rId702" xr:uid="{00AC84C7-DFB1-4053-8E88-68BFE3D11151}"/>
+    <hyperlink ref="G161" r:id="rId703" xr:uid="{EC30F85A-C055-431E-B3E3-3BD63F7D214D}"/>
+    <hyperlink ref="G1730" r:id="rId704" xr:uid="{5D96298A-58E3-41B7-B4DC-9DAD3771CC71}"/>
+    <hyperlink ref="J1727" r:id="rId705" xr:uid="{9791AC3C-2F39-4961-BD2B-1151401353FF}"/>
+    <hyperlink ref="G700" r:id="rId706" xr:uid="{0B011FA9-9223-4A99-8917-5B83498DB386}"/>
+    <hyperlink ref="G162" r:id="rId707" xr:uid="{7C29B605-5F4C-400A-B52F-8FC63E297196}"/>
+    <hyperlink ref="G163" r:id="rId708" xr:uid="{5208FDCA-1A58-45BD-B9AD-7A028617ECF9}"/>
+    <hyperlink ref="G164" r:id="rId709" xr:uid="{4D3668AF-AFAC-4E90-97AC-DFFF3F5B9540}"/>
+    <hyperlink ref="G165" r:id="rId710" xr:uid="{D82E676D-4308-423C-A453-D0AA7CA1765C}"/>
+    <hyperlink ref="G166" r:id="rId711" xr:uid="{B4D9F81A-82FD-494A-98DA-983A28DDA382}"/>
+    <hyperlink ref="G167" r:id="rId712" xr:uid="{CC8834A2-9A07-4831-B3A0-711AA95C221C}"/>
+    <hyperlink ref="G168" r:id="rId713" xr:uid="{FB856BB7-EA27-4FC7-A057-0CEFF98290C2}"/>
+    <hyperlink ref="G169" r:id="rId714" xr:uid="{F1EE77A5-7834-49D2-A625-818459729FF9}"/>
+    <hyperlink ref="G170" r:id="rId715" xr:uid="{4980F4A9-4EBA-42AC-9C14-1C8034B91C78}"/>
+    <hyperlink ref="G171" r:id="rId716" xr:uid="{DF5820B6-5EAF-4BE2-BC8D-6B146A2F8BC3}"/>
+    <hyperlink ref="G172" r:id="rId717" xr:uid="{D3E2E418-F680-4E58-859D-33BC23636FB9}"/>
+    <hyperlink ref="G173" r:id="rId718" xr:uid="{6F4B9238-DAE5-4663-AC17-C2D0189EB7C9}"/>
+    <hyperlink ref="G174" r:id="rId719" xr:uid="{EB4C6F11-AD3B-44B1-86C0-C70C033FD120}"/>
+    <hyperlink ref="G176" r:id="rId720" xr:uid="{08DBA553-570F-4996-8F6F-BA0E3D2402DD}"/>
+    <hyperlink ref="G175" r:id="rId721" xr:uid="{EF4A4EBB-CFF2-413F-9435-155B91D3DEA7}"/>
+    <hyperlink ref="G177" r:id="rId722" xr:uid="{8C17A067-C326-43CD-A3E1-F00F59836612}"/>
+    <hyperlink ref="G178" r:id="rId723" xr:uid="{7CEA1302-EBC2-4DAF-A94A-116441AFD331}"/>
+    <hyperlink ref="G179" r:id="rId724" xr:uid="{1F6DFFC8-8DA3-4BDB-8A0C-6140C0E91634}"/>
+    <hyperlink ref="F179" r:id="rId725" display="https://6102bitcoin.com/blog/slice-the-pie/" xr:uid="{E42321F9-1636-47A5-B68F-E00CBD426A1C}"/>
+    <hyperlink ref="G180" r:id="rId726" xr:uid="{6464BD8A-0F8B-4C5C-A42B-1DE3E710919D}"/>
+    <hyperlink ref="G181" r:id="rId727" xr:uid="{12293F5D-4911-4A96-9D79-8D4A2C0256F6}"/>
+    <hyperlink ref="G182" r:id="rId728" xr:uid="{10DE4E02-5CDF-4119-8B93-DC1AD9BF4035}"/>
+    <hyperlink ref="G183" r:id="rId729" xr:uid="{85F9C59B-4D05-420F-B3C5-A1AD24D70BE4}"/>
+    <hyperlink ref="G428" r:id="rId730" xr:uid="{E412D02F-DA30-4678-B2F6-00F947608FE8}"/>
+    <hyperlink ref="G1226" r:id="rId731" xr:uid="{9BD107C9-3E2C-41C6-BBD7-DD3305923136}"/>
+    <hyperlink ref="G184" r:id="rId732" xr:uid="{0BF6221B-A89E-4363-B02B-39C7289FD686}"/>
+    <hyperlink ref="G546" r:id="rId733" xr:uid="{A1AB9497-6D04-46EB-921F-64DC7F1BF005}"/>
+    <hyperlink ref="G1001" r:id="rId734" xr:uid="{00770038-51D1-44DF-A318-928FE20F236E}"/>
+    <hyperlink ref="G185" r:id="rId735" xr:uid="{70E867CE-B044-4FB9-A31C-DB373DFF8214}"/>
+    <hyperlink ref="F306" r:id="rId736" display="https://medium.com/@ben_kaufman/the-substance-of-money-f22e45cdc272" xr:uid="{280C9388-8E34-4120-BDB3-F173B9DAA938}"/>
+    <hyperlink ref="G306" r:id="rId737" xr:uid="{2E95F65E-7EE9-4C1C-A6A8-56F0B26DB552}"/>
+    <hyperlink ref="G1145" r:id="rId738" location="page=28" display="https://alcor.org/cryonics/Cryonics2016-4.pdf - page=28" xr:uid="{373BE6DF-893C-4B76-86FB-7554DE367903}"/>
+    <hyperlink ref="G2047" r:id="rId739" xr:uid="{D0A22BAE-A460-49CB-B778-979406C23093}"/>
+    <hyperlink ref="G2045" r:id="rId740" xr:uid="{C7D09F69-65E9-4CFC-BD7D-A301A017A82D}"/>
+    <hyperlink ref="G2039" r:id="rId741" xr:uid="{D263CC0C-ADE4-496E-84BF-A23606A045B7}"/>
+    <hyperlink ref="G2036" r:id="rId742" xr:uid="{3DAB5C8C-7716-4430-8DB9-0A8C84AC5D2A}"/>
+    <hyperlink ref="G988" r:id="rId743" xr:uid="{491687E0-2017-4889-8B8A-826A9AC9D28E}"/>
+    <hyperlink ref="G1146" r:id="rId744" xr:uid="{2DC554A9-DE55-428D-908A-CB3E7F5A5FD6}"/>
+    <hyperlink ref="F1146" r:id="rId745" display="https://elaineou.com/2016/08/01/the-value-of-settlement-finality/" xr:uid="{D9B3B78A-ECA9-4FBB-8F6C-AED49862FB91}"/>
+    <hyperlink ref="G853" r:id="rId746" xr:uid="{BB2E7301-F6B0-4C89-8EED-F49311888EA6}"/>
+    <hyperlink ref="G1391" r:id="rId747" xr:uid="{3350084D-DE05-40D9-AEE6-9A60BC228A30}"/>
+    <hyperlink ref="G1137" r:id="rId748" xr:uid="{860B04A8-B710-4886-B293-E2773D4D823A}"/>
+    <hyperlink ref="G1386" r:id="rId749" xr:uid="{34107705-C009-4835-B86D-721D6834F6C8}"/>
+    <hyperlink ref="F110" r:id="rId750" display="https://elaineou.com/2020/01/31/be-afraid-be-very-afraid/" xr:uid="{C131BE6A-6D4F-4D5E-BC6C-73421C733A58}"/>
+    <hyperlink ref="G110" r:id="rId751" xr:uid="{F2757DCE-B0BD-4B5B-8CA8-D8BF62E294D1}"/>
+    <hyperlink ref="G835" r:id="rId752" xr:uid="{111F4C84-D598-4185-BD68-DFF9E70074B6}"/>
+    <hyperlink ref="G722" r:id="rId753" xr:uid="{279BD604-D779-4406-A131-C412EE4A4378}"/>
+    <hyperlink ref="G991" r:id="rId754" xr:uid="{21725A1D-9E7F-41DA-B136-180488844502}"/>
+    <hyperlink ref="F1285" r:id="rId755" display="https://elaineou.com/2015/11/19/the-risk-of-bitcoin-money-laundering/" xr:uid="{D9B90FB2-920D-4EFC-854E-81FDBE232A91}"/>
+    <hyperlink ref="G1285" r:id="rId756" xr:uid="{95EA0955-114A-4EA7-8BC7-8D4684BE37AF}"/>
+    <hyperlink ref="G1628" r:id="rId757" xr:uid="{8CEFAB15-6EDB-4CE4-910B-DABDC4768CC0}"/>
+    <hyperlink ref="F880" r:id="rId758" display="https://elaineou.com/2017/12/16/fiatsplaining-bitcoin/" xr:uid="{BA39BD62-1788-43B5-A2E0-306D0775FDAC}"/>
+    <hyperlink ref="G880" r:id="rId759" xr:uid="{FFD73BA8-F708-43BA-B603-F1B1CDAB5905}"/>
+    <hyperlink ref="G836" r:id="rId760" xr:uid="{4B6480DB-2D11-435E-95D7-A7C7297689BE}"/>
+    <hyperlink ref="G967" r:id="rId761" xr:uid="{4982E959-B2AE-4FAC-91F9-200D0802B3B1}"/>
+    <hyperlink ref="G899" r:id="rId762" xr:uid="{BAF1BC03-9350-46E9-84CD-CF3466DB16E7}"/>
+    <hyperlink ref="G284" r:id="rId763" xr:uid="{2DA6477E-1A1A-4C99-91EF-7702CEA929F2}"/>
+    <hyperlink ref="G678" r:id="rId764" xr:uid="{FB870D63-0886-4F9A-8702-9A8094E12FF9}"/>
+    <hyperlink ref="G547" r:id="rId765" xr:uid="{A722AC40-3F2A-4853-99D4-BB575E9A0D4D}"/>
+    <hyperlink ref="G377" r:id="rId766" xr:uid="{3CEA3009-9D97-4C98-9F0D-73F9C974D302}"/>
+    <hyperlink ref="G1357" r:id="rId767" xr:uid="{B34F2AFA-4ECC-4B28-9152-D4EDC549F1D0}"/>
+    <hyperlink ref="G1142" r:id="rId768" xr:uid="{D2B6258D-957D-4CCF-89E0-B4B9A8B4E72A}"/>
+    <hyperlink ref="F423" r:id="rId769" display="https://elaineou.com/2019/06/28/hackers-and-sphincters/" xr:uid="{4BD479E6-C5F4-4D80-BE5C-D62195573791}"/>
+    <hyperlink ref="G423" r:id="rId770" xr:uid="{1CFAF3B9-62E5-4578-8728-6ED0552609CE}"/>
+    <hyperlink ref="G854" r:id="rId771" xr:uid="{2E666137-D4A8-4AB0-98F8-1C4B353A7727}"/>
+    <hyperlink ref="G1437" r:id="rId772" xr:uid="{2B96C620-3E26-46A2-A991-B82E59DCB498}"/>
+    <hyperlink ref="G1057" r:id="rId773" xr:uid="{BCABDF7B-9F0D-4655-968F-4A86452220A6}"/>
+    <hyperlink ref="F1138" r:id="rId774" display="https://elaineou.com/2016/09/25/corrections-redactable-bitcoin/" xr:uid="{92C601D7-56D9-4CC7-9122-03591EB48E8B}"/>
+    <hyperlink ref="G1138" r:id="rId775" xr:uid="{AA047056-A1B6-4A50-96AA-9913BBE81E0C}"/>
+    <hyperlink ref="G1363" r:id="rId776" xr:uid="{A13CD93B-69BD-422C-B785-AB27891D0E46}"/>
+    <hyperlink ref="G111" r:id="rId777" xr:uid="{6770A1E8-983C-432A-B8F4-91BD5861D598}"/>
+    <hyperlink ref="G189" r:id="rId778" xr:uid="{61984DEF-3D18-4E7E-A02F-7B645F749512}"/>
+    <hyperlink ref="G112" r:id="rId779" xr:uid="{6F6A7382-F223-487E-977C-CD153A2B9D49}"/>
+    <hyperlink ref="F113" r:id="rId780" xr:uid="{DE75B92F-6D00-4FCF-99FD-920BB8A2D0C0}"/>
+    <hyperlink ref="G113" r:id="rId781" xr:uid="{6F029F92-7539-4EEE-A0F0-1A197304E70A}"/>
+    <hyperlink ref="G114" r:id="rId782" xr:uid="{E15F2E94-089E-494F-A3CF-59F9A5510F6A}"/>
+    <hyperlink ref="G117" r:id="rId783" xr:uid="{4FBC2B7C-C61A-4B6A-9D3F-AD2CCC4A9C64}"/>
+    <hyperlink ref="G116" r:id="rId784" xr:uid="{D02BA13C-02FF-4069-8245-E9E27E036C1C}"/>
+    <hyperlink ref="G281" r:id="rId785" xr:uid="{48137A1D-8C01-44EA-B288-076786E1D9A6}"/>
+    <hyperlink ref="G126" r:id="rId786" xr:uid="{C2FA1D09-01F7-4538-B5F4-064666AA3B19}"/>
+    <hyperlink ref="G1031" r:id="rId787" xr:uid="{3B574979-9183-42CD-B504-17A64EDAA8BB}"/>
+    <hyperlink ref="G797" r:id="rId788" xr:uid="{2FE41682-EF02-4D46-8074-3ED8F1CADC57}"/>
+    <hyperlink ref="G1592" r:id="rId789" xr:uid="{D9190EFD-6491-4571-9662-8AB0667F21E5}"/>
+    <hyperlink ref="G1075" r:id="rId790" xr:uid="{DAD3BF46-69BC-43F9-97A8-7E3F3EFC356D}"/>
+    <hyperlink ref="G118" r:id="rId791" xr:uid="{FD419121-B228-49D1-B499-A7A662DF6646}"/>
+    <hyperlink ref="G119" r:id="rId792" xr:uid="{3B14D446-5F59-4477-930E-CA8E6761E727}"/>
+    <hyperlink ref="G120" r:id="rId793" xr:uid="{C4DA82F5-2B78-4EE8-A254-97DEEB61848B}"/>
+    <hyperlink ref="G121" r:id="rId794" xr:uid="{C63C5500-5854-4286-BB52-F5901E2DEA0F}"/>
+    <hyperlink ref="G122" r:id="rId795" xr:uid="{8CD284A1-9C41-452D-AE01-88CC504B5520}"/>
+    <hyperlink ref="G115" r:id="rId796" xr:uid="{1AC1B166-43D4-47CD-B118-E394FA83F3DC}"/>
+    <hyperlink ref="G123" r:id="rId797" xr:uid="{5706C3F4-ACC5-46FD-A23D-5B31CF9515F8}"/>
+    <hyperlink ref="G124" r:id="rId798" xr:uid="{6AC4EA10-2FB3-457F-9B50-EAAF08075A3F}"/>
+    <hyperlink ref="G125" r:id="rId799" xr:uid="{D1E99FF9-F7DA-4582-A8D0-8347FB03C127}"/>
+    <hyperlink ref="G127" r:id="rId800" xr:uid="{0A687D87-F547-4850-8FB2-904969650E87}"/>
+    <hyperlink ref="G128" r:id="rId801" xr:uid="{783E92F7-5F0C-4D4D-9365-1281734F655E}"/>
+    <hyperlink ref="G131" r:id="rId802" xr:uid="{E1069364-F00E-4F1F-8D96-7C18CC97C84B}"/>
+    <hyperlink ref="G132" r:id="rId803" xr:uid="{67E524A5-2701-45A9-96D2-F082C5CE9AE5}"/>
+    <hyperlink ref="G433" r:id="rId804" xr:uid="{42351251-B71C-4420-86A3-3087DC9BF5CB}"/>
+    <hyperlink ref="G1293" r:id="rId805" xr:uid="{A20F32B5-B93A-46B2-8E23-B9C68245F5C4}"/>
+    <hyperlink ref="G424" r:id="rId806" xr:uid="{B078F23E-F55A-42AD-8F7F-9DB1D653903D}"/>
+    <hyperlink ref="G129" r:id="rId807" xr:uid="{66D8F8FB-508C-4975-A9D4-16C026E65B6E}"/>
+    <hyperlink ref="F133" r:id="rId808" display="https://twitter.com/zanepocock/status/1228048061789884422" xr:uid="{3875485F-5856-4F44-9EED-8F8D1F5F2333}"/>
+    <hyperlink ref="G133" r:id="rId809" xr:uid="{AB2C4D36-003C-405E-987A-D2E7CB5E53DF}"/>
+    <hyperlink ref="F135" r:id="rId810" display="https://medium.com/knox-blog/why-bitcoin-is-not-a-security-2ffec2f8d481" xr:uid="{4ACCCBA6-4EAB-46A4-A38F-F54791884BD5}"/>
+    <hyperlink ref="G135" r:id="rId811" xr:uid="{4FC9E997-5718-42D5-AE0E-0B450BF2E0EE}"/>
+    <hyperlink ref="G134" r:id="rId812" xr:uid="{3FCC3103-0362-4654-8F5A-5F7C0ED74302}"/>
+    <hyperlink ref="G136" r:id="rId813" xr:uid="{8DB7F1F0-AAF9-4F7E-88E0-94D3E4828008}"/>
+    <hyperlink ref="G137" r:id="rId814" xr:uid="{E9337E06-B548-44F2-921B-35FF392D6F9B}"/>
+    <hyperlink ref="G138" r:id="rId815" xr:uid="{C6DCFD4E-FFB7-4329-9108-3FB13315CE3F}"/>
+    <hyperlink ref="G139" r:id="rId816" xr:uid="{C7DCBD3A-363B-4F7A-AE44-9CD45405E269}"/>
+    <hyperlink ref="G140" r:id="rId817" xr:uid="{710C97D4-6249-4069-AF8D-CF6781B9C05F}"/>
+    <hyperlink ref="G141" r:id="rId818" xr:uid="{525AD316-B72C-4B8C-A13D-168F10D29118}"/>
+    <hyperlink ref="G142" r:id="rId819" xr:uid="{8D4AE489-E534-48CE-9826-CB928B658ACE}"/>
+    <hyperlink ref="G143" r:id="rId820" xr:uid="{385AF78A-6D5B-4839-94C0-931BCD13DC26}"/>
+    <hyperlink ref="G144" r:id="rId821" xr:uid="{8E56E094-460C-4821-9942-E54C51D4CBE0}"/>
+    <hyperlink ref="G307" r:id="rId822" xr:uid="{3A490527-9C7E-4CA2-BBB0-24BD4557ABF5}"/>
+    <hyperlink ref="G130" r:id="rId823" xr:uid="{530235F3-E621-4CD7-BD94-4466B6548997}"/>
+    <hyperlink ref="G145" r:id="rId824" xr:uid="{A0E4CD8E-BBBC-4A6D-A3DF-5556D5C56AF2}"/>
+    <hyperlink ref="G146" r:id="rId825" xr:uid="{B3CBC04A-D93B-4C7D-964E-E1E0D6F80E19}"/>
+    <hyperlink ref="G147" r:id="rId826" xr:uid="{92A38F1C-A045-407D-BCA0-4A9B876399C7}"/>
+    <hyperlink ref="G148" r:id="rId827" xr:uid="{20805AE9-3960-4740-8C18-4F5F2CABC0B4}"/>
+    <hyperlink ref="G149" r:id="rId828" xr:uid="{818B75D6-6D18-416E-BEA6-CD7AE8BAEE95}"/>
+    <hyperlink ref="G109" r:id="rId829" xr:uid="{408EA5BB-EEC6-467F-980E-43BDCF41646F}"/>
+    <hyperlink ref="G438" r:id="rId830" xr:uid="{53E7C097-E2C6-48EA-B963-4159C0ED21EA}"/>
+    <hyperlink ref="G304" r:id="rId831" xr:uid="{F11B3F97-7283-42C8-9E1C-D47EDE6E2886}"/>
+    <hyperlink ref="G1030" r:id="rId832" xr:uid="{31AE34AB-4FE7-4F41-830E-12DAB5D1D142}"/>
+    <hyperlink ref="G679" r:id="rId833" xr:uid="{11AF1195-59BE-43AB-995C-B10527F76EB0}"/>
+    <hyperlink ref="G848" r:id="rId834" xr:uid="{7055A1D7-703E-4A27-9210-23C0C8029698}"/>
+    <hyperlink ref="G1080" r:id="rId835" xr:uid="{84BB7BB3-D24C-4B05-B7CF-BDC7E257371B}"/>
+    <hyperlink ref="G851" r:id="rId836" xr:uid="{029E66B4-FB45-45A0-993B-F271E2040D5B}"/>
+    <hyperlink ref="G852" r:id="rId837" xr:uid="{1897C62E-CB0B-414F-897B-D68ED6BC0FAE}"/>
+    <hyperlink ref="G63" r:id="rId838" xr:uid="{C5CD6954-C172-4761-8447-B494A83C65F5}"/>
+    <hyperlink ref="G64" r:id="rId839" xr:uid="{CF874628-5106-4BA8-BEB7-2223175983CE}"/>
+    <hyperlink ref="G65" r:id="rId840" xr:uid="{1F3AA423-6380-44AD-A8FB-184808C7EDDF}"/>
+    <hyperlink ref="G66" r:id="rId841" xr:uid="{AD0ADE70-96FD-41DA-9093-048BB85C579C}"/>
+    <hyperlink ref="G67" r:id="rId842" xr:uid="{C0527B1F-C99B-4F64-8C99-B62B9FE54211}"/>
+    <hyperlink ref="G68" r:id="rId843" xr:uid="{679A5008-7B6D-490B-BEC7-EE4EF9271CA5}"/>
+    <hyperlink ref="G69" r:id="rId844" xr:uid="{6E3C155E-6EFF-448A-839C-3BC33B7B5128}"/>
+    <hyperlink ref="G70" r:id="rId845" xr:uid="{215C7B39-CCB4-412E-B49A-89E053C81F23}"/>
+    <hyperlink ref="G71" r:id="rId846" xr:uid="{017BFEB0-1D17-4DC5-92D7-D1F350F4061D}"/>
+    <hyperlink ref="G106" r:id="rId847" xr:uid="{ED5EE03A-9AF8-401B-8FAC-9D92E77E3540}"/>
+    <hyperlink ref="G72" r:id="rId848" xr:uid="{5A92C4CD-10E0-4409-BAB7-369F6622FED2}"/>
+    <hyperlink ref="G73" r:id="rId849" xr:uid="{FD2082D1-6525-4EF9-BDE0-64D078A633D2}"/>
+    <hyperlink ref="G74" r:id="rId850" xr:uid="{B8A54F9D-5027-489D-98D7-5FCDE655C674}"/>
+    <hyperlink ref="G75" r:id="rId851" xr:uid="{07064045-B275-4D19-9188-750B06F6C55A}"/>
+    <hyperlink ref="G76" r:id="rId852" xr:uid="{2476742D-2D51-40FF-A849-E055BD386F3D}"/>
+    <hyperlink ref="G77" r:id="rId853" xr:uid="{A0504223-4473-4320-AD4A-AC4EEA34320C}"/>
+    <hyperlink ref="G78" r:id="rId854" xr:uid="{84D760CA-E6AC-4F1C-89CD-DCDF600E0CC7}"/>
+    <hyperlink ref="G79" r:id="rId855" xr:uid="{346940F8-DC69-4523-A6D7-D6C0891FCA2E}"/>
+    <hyperlink ref="G80" r:id="rId856" xr:uid="{E6C8CACF-62F5-4836-A995-4C1BDDB8C1D5}"/>
+    <hyperlink ref="G81" r:id="rId857" xr:uid="{B558F964-1489-4394-B4AB-00E455B7C061}"/>
+    <hyperlink ref="G82" r:id="rId858" xr:uid="{CD893FB6-F875-4AC4-8718-74823E379F1E}"/>
+    <hyperlink ref="G1206" r:id="rId859" xr:uid="{207F951D-E335-4D46-99DB-AC4BCE002377}"/>
+    <hyperlink ref="G83" r:id="rId860" xr:uid="{78E8B405-DDFE-4523-9C17-E439E7A35F28}"/>
+    <hyperlink ref="G84" r:id="rId861" xr:uid="{AAEE7045-6330-47B9-8475-DB8237DE03A9}"/>
+    <hyperlink ref="G85" r:id="rId862" xr:uid="{6575E818-E0EC-4AA0-B696-5D4A5A0064FE}"/>
+    <hyperlink ref="G741" r:id="rId863" xr:uid="{094A3E5D-774A-4A44-AEE6-B18414CEB11C}"/>
+    <hyperlink ref="G86" r:id="rId864" xr:uid="{DE5762B5-CF8F-46D0-897A-F1904E5BC369}"/>
+    <hyperlink ref="G1504" r:id="rId865" xr:uid="{B5B84827-61A4-482A-A84E-F3043B5FE0DB}"/>
+    <hyperlink ref="G88" r:id="rId866" xr:uid="{5C68A9B9-18DC-41F0-8C6D-9E60CE63CB05}"/>
+    <hyperlink ref="G89" r:id="rId867" xr:uid="{4B6A94FC-7D29-4B61-91D2-D3DC6499A189}"/>
+    <hyperlink ref="G90" r:id="rId868" xr:uid="{508B6E8E-A802-44FD-A125-7F731995B4E9}"/>
+    <hyperlink ref="G91" r:id="rId869" xr:uid="{2115F3F4-4000-4EC4-8B61-BF652751FDBC}"/>
+    <hyperlink ref="G92" r:id="rId870" xr:uid="{3643B3BB-DBA0-44C1-A7CA-F218E4880BFE}"/>
+    <hyperlink ref="G93" r:id="rId871" xr:uid="{1E0F9459-375E-4FB2-BE7B-8D11FA7FB11C}"/>
+    <hyperlink ref="G94" r:id="rId872" xr:uid="{FCE80168-1D39-4B3A-A122-76EB477DB067}"/>
+    <hyperlink ref="G95" r:id="rId873" xr:uid="{F2A15B36-F99D-40C5-B0F0-CB4CCBD5F12B}"/>
+    <hyperlink ref="G96" r:id="rId874" xr:uid="{969BC453-5804-4D0F-8AEC-4FB1CF33AB83}"/>
+    <hyperlink ref="G97" r:id="rId875" xr:uid="{AA195322-351D-42B5-8AD9-E29B62FAD157}"/>
+    <hyperlink ref="G98" r:id="rId876" xr:uid="{52C83D6A-C363-4B79-B40C-B7A4C77F6583}"/>
+    <hyperlink ref="G6" r:id="rId877" xr:uid="{33E9A75B-7A5E-4563-BF5A-4D38BCB32A4B}"/>
+    <hyperlink ref="G62" r:id="rId878" xr:uid="{FD15A20A-9D35-4752-B771-956C3779D1E9}"/>
+    <hyperlink ref="G61" r:id="rId879" xr:uid="{943F50A3-1AAC-4D4E-B23F-058CBB084B8A}"/>
+    <hyperlink ref="G60" r:id="rId880" xr:uid="{DBA652BA-D554-4A80-BF3B-8E0B1DA991DB}"/>
+    <hyperlink ref="G99" r:id="rId881" xr:uid="{D6336EF7-B909-4B9B-9CD2-6D39BABB29B3}"/>
+    <hyperlink ref="E9" r:id="rId882" display="https://twitter.com/StefenReid" xr:uid="{47FAA099-3DEA-4B79-AA12-803C0A828741}"/>
+    <hyperlink ref="G9" r:id="rId883" xr:uid="{6A7CC8A8-E6D6-4C37-8514-B0D04E76916C}"/>
+    <hyperlink ref="G10" r:id="rId884" xr:uid="{5C871EEA-C84A-4C34-B253-376C512E8FBE}"/>
+    <hyperlink ref="G11" r:id="rId885" xr:uid="{CE4C5B2E-1090-4C6D-9CE3-1960B86FF466}"/>
+    <hyperlink ref="G12" r:id="rId886" xr:uid="{911C22C7-285D-4CA4-883B-70561F32EA38}"/>
+    <hyperlink ref="G13" r:id="rId887" xr:uid="{D36ABD2A-4CCF-4648-8B8F-E126B979E332}"/>
+    <hyperlink ref="G14" r:id="rId888" xr:uid="{41B8C214-456D-4719-BF02-D162957654DD}"/>
+    <hyperlink ref="G15" r:id="rId889" xr:uid="{FF0C74F1-C298-44F0-B293-55E1149DA5E1}"/>
+    <hyperlink ref="G16" r:id="rId890" xr:uid="{11EA88F4-B610-417A-A473-2249A6D9051E}"/>
+    <hyperlink ref="G17" r:id="rId891" xr:uid="{3782AD18-DD2F-44DA-B5C5-19686D3B6BCA}"/>
+    <hyperlink ref="G18" r:id="rId892" xr:uid="{3D81BA85-6ACB-4F0C-B3FC-0723210BD158}"/>
+    <hyperlink ref="G19" r:id="rId893" xr:uid="{86EF274A-30F2-43A7-A1E0-F1E6109FD19D}"/>
+    <hyperlink ref="G20" r:id="rId894" xr:uid="{57913861-B006-46D1-B72B-0A41DBA7C486}"/>
+    <hyperlink ref="G21" r:id="rId895" xr:uid="{DC9DA46D-F978-4547-8FEB-D77D3035E2C8}"/>
+    <hyperlink ref="G22" r:id="rId896" xr:uid="{DB097202-9AF3-4DF3-8037-A80ECC185BF2}"/>
+    <hyperlink ref="G23" r:id="rId897" xr:uid="{EEBC7D17-972E-4C77-8145-A550407166FC}"/>
+    <hyperlink ref="G24" r:id="rId898" xr:uid="{5FE4EB87-F843-4EA2-8B97-7D8D2A2F7DB1}"/>
+    <hyperlink ref="G25" r:id="rId899" xr:uid="{B3A84070-AF96-4DFC-B48A-E4C6839ECC41}"/>
+    <hyperlink ref="G26" r:id="rId900" xr:uid="{8BAF302A-B323-4DF0-B106-39BFB435A483}"/>
+    <hyperlink ref="G27" r:id="rId901" xr:uid="{A8AD6C34-B269-4FC7-9957-97A88241481D}"/>
+    <hyperlink ref="G28" r:id="rId902" xr:uid="{61F553EC-39A9-438B-8D01-97A916DBA451}"/>
+    <hyperlink ref="G29" r:id="rId903" xr:uid="{4CA4151D-E396-4FE9-8EFE-D1139341430F}"/>
+    <hyperlink ref="F30" r:id="rId904" display="https://a16z.com/2020/04/18/its-time-to-build/" xr:uid="{331BD6F2-823C-4A07-9E0B-35ABAEB5DF62}"/>
+    <hyperlink ref="G30" r:id="rId905" xr:uid="{22A6D03D-8B61-438B-8B36-606C401DB34D}"/>
+    <hyperlink ref="G31" r:id="rId906" xr:uid="{779A6D12-986B-48EB-BACB-97B29DE844CF}"/>
+    <hyperlink ref="G32" r:id="rId907" xr:uid="{4626499B-90D1-4703-A9E6-67C6819B2414}"/>
+    <hyperlink ref="G33" r:id="rId908" xr:uid="{1AF722ED-FD5C-4251-B8A1-5A0A3ACA727D}"/>
+    <hyperlink ref="G34" r:id="rId909" xr:uid="{14570975-1183-473F-944D-43F6AA334FA8}"/>
+    <hyperlink ref="G35" r:id="rId910" xr:uid="{4B39DFD6-7D7B-405C-B9F6-F0E65CA1971A}"/>
+    <hyperlink ref="G36" r:id="rId911" xr:uid="{90FA9A91-7FF3-4B3D-90BF-D4CFEC5208A6}"/>
+    <hyperlink ref="G37" r:id="rId912" xr:uid="{C10AF893-F02C-4F66-9680-EFDA51BAFD66}"/>
+    <hyperlink ref="G38" r:id="rId913" xr:uid="{DA8B9B1A-6908-4281-AAD6-502E318ABD00}"/>
+    <hyperlink ref="G39" r:id="rId914" xr:uid="{95C8DB88-5812-4E4A-B28B-E761876E32D7}"/>
+    <hyperlink ref="G40" r:id="rId915" xr:uid="{19D13271-9F80-47D7-9C06-77CA90D68085}"/>
+    <hyperlink ref="G42" r:id="rId916" xr:uid="{8BB9245D-434A-436A-B9AA-10256F56CCCB}"/>
+    <hyperlink ref="G43" r:id="rId917" xr:uid="{AF4EB408-246A-4BD8-A7E9-4F4D4CFB5912}"/>
+    <hyperlink ref="G44" r:id="rId918" xr:uid="{E0A7D83C-28B0-44F2-931F-12A5793506DF}"/>
+    <hyperlink ref="G45" r:id="rId919" xr:uid="{C9616753-B2C0-4C0A-9298-63BD2E321345}"/>
+    <hyperlink ref="G46" r:id="rId920" xr:uid="{7DBF72C5-5E34-4FBD-9552-3F4E11F4155B}"/>
+    <hyperlink ref="G41" r:id="rId921" xr:uid="{7D466483-D40F-4AF1-A73E-3DC53491E3B9}"/>
+    <hyperlink ref="F733" r:id="rId922" display="https://medium.com/@erikcason/crypto-truth-and-power-a3e08a51c77" xr:uid="{3772A21C-74AB-4279-B167-2C3D918B5F55}"/>
+    <hyperlink ref="G733" r:id="rId923" xr:uid="{59B31F42-762A-4A52-A8C5-F2C60B6C80B3}"/>
+    <hyperlink ref="G47" r:id="rId924" xr:uid="{67F2519D-B321-442B-B94E-8E76684CBADE}"/>
+    <hyperlink ref="G48" r:id="rId925" xr:uid="{88AE2CD2-98A0-4F89-B410-23E9F372D919}"/>
+    <hyperlink ref="G783" r:id="rId926" xr:uid="{4C0215E0-167B-42CC-97B0-0477A6D95BAA}"/>
+    <hyperlink ref="G784" r:id="rId927" xr:uid="{9BFB3C7E-1359-4E46-B0B0-4EE4CC3E8080}"/>
+    <hyperlink ref="G795" r:id="rId928" xr:uid="{3D685C14-E60D-4C59-A48C-A5F4296976CB}"/>
+    <hyperlink ref="G794" r:id="rId929" xr:uid="{EF7C35EB-0A04-4158-A085-441126EC8FF9}"/>
+    <hyperlink ref="G286" r:id="rId930" xr:uid="{B99BAE27-AAB2-47A9-9F4A-7EDCF7CB90B5}"/>
+    <hyperlink ref="G382" r:id="rId931" xr:uid="{0FA39D24-A74D-4E0B-9954-35C8EB358F9B}"/>
+    <hyperlink ref="G542" r:id="rId932" xr:uid="{E0794B51-4D9B-4105-8BD1-245CF0DA28ED}"/>
+    <hyperlink ref="G543" r:id="rId933" xr:uid="{BF29696B-7089-475D-8EED-D934B4CD6209}"/>
+    <hyperlink ref="G1987" r:id="rId934" xr:uid="{7CF94B29-CB84-456A-ACBA-54EAADB75F23}"/>
+    <hyperlink ref="G1949" r:id="rId935" location="selection-289.0-289.61" xr:uid="{7FB0C45A-B11F-4DD0-97F3-D89217028F3B}"/>
+    <hyperlink ref="G1942" r:id="rId936" location="selection-433.0-433.54" xr:uid="{B84B2909-7C83-48E7-9A56-3A924008D309}"/>
+    <hyperlink ref="G1938" r:id="rId937" xr:uid="{69DEE7AB-0117-424C-8FAF-5A8A3F7DFCCD}"/>
+    <hyperlink ref="G1936" r:id="rId938" location="selection-129.0-129.70" xr:uid="{F73193B1-3F1B-49EF-AE5F-95D42063A433}"/>
+    <hyperlink ref="G1935" r:id="rId939" display="https://web.archive.org/web/20110529123206/http:/www.libertariannews.org/2011/05/26/the-most-dangerous-creation-in-the-history-of-man/" xr:uid="{27280835-3861-41A2-AFD0-27469D9E3BC8}"/>
+    <hyperlink ref="H1962" r:id="rId940" tooltip="Permalink to The Economics Of Bitcoin – Why Mainstream Economists Lie About Deflation" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/11/the-economics-of-bitcoin-why-mainstream-economist-lie-about-deflation/" xr:uid="{C9BB1019-840A-4C7A-96AB-E6BB3586946F}"/>
+    <hyperlink ref="H1963" r:id="rId941" tooltip="Permalink to The Economics Of Bitcoin – How Bitcoins Act As Money" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/18/the-economics-of-bitcoin-how-bitcoins-act-as-money/" xr:uid="{3D69A025-870E-4057-8C0E-9E1047F58139}"/>
+    <hyperlink ref="H1964" r:id="rId942" tooltip="Permalink to Against The Gold Standard" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/21/against-the-gold-standard/" xr:uid="{2B99D4B0-EE4E-4C71-8B13-A35470FE6FED}"/>
+    <hyperlink ref="H1965" r:id="rId943" tooltip="Permalink to The Economics Of Bitcoin – Doug Casey Gets It Wrong" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/06/23/the-economics-of-bitcoin-doug-casey-gets-it-wrong/" xr:uid="{6199A485-B113-4D2F-9CEF-1FEF37E8F481}"/>
+    <hyperlink ref="H1966" r:id="rId944" tooltip="Permalink to The Economics Of Bitcoin – Resource Allocation And Interest Rate Distortion" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/06/the-economics-of-bitcoin-resource-allocation-and-interest-rate-distortion/" xr:uid="{2CF4A7B6-D073-4D79-ADDB-65B6CBCDDAA2}"/>
+    <hyperlink ref="H1967" r:id="rId945" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/07/the-economics-of-bitcoin-challenging-mises-regression-theorem/" xr:uid="{1DD820B1-71AB-420F-99E9-1A93A206B2F2}"/>
+    <hyperlink ref="H1968" r:id="rId946" tooltip="Permalink to The Economics Of Bitcoin – Challenging Mises’ Regression Theorem – Prof. George Selgin Responds" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/07/22/the-economics-of-bitcoin-%e2%80%93-challenging-mises%e2%80%99-regression-theorem-prof-george-selgin-responds/" xr:uid="{D9293E01-5E48-4F1B-A3E2-B06E1D0F4AF8}"/>
+    <hyperlink ref="H1969" r:id="rId947" tooltip="Permalink to Why Do People Want A Gold Standard When History Shows Us It Does Not Last?" display="https://archive.is/o/z6Q1/www.libertariannews.org/2011/12/01/why-do-people-want-a-gold-standard-when-history-shows-us-it-does-not-last/" xr:uid="{AA57D766-2716-48B5-BC09-108B9712092A}"/>
+    <hyperlink ref="G1937" r:id="rId948" xr:uid="{43C5ECEC-F2C2-410D-85ED-D16C715774CF}"/>
+    <hyperlink ref="G1934" r:id="rId949" xr:uid="{5A8121F1-5905-46DA-BB3D-7159D3CACAF8}"/>
+    <hyperlink ref="G1917" r:id="rId950" xr:uid="{0B30952E-9B18-496C-BC2D-39DB37DFE9DC}"/>
+    <hyperlink ref="G1931" r:id="rId951" location="selection-443.1-443.38" xr:uid="{0E2080D5-495C-4240-92C0-E4DF77F6715C}"/>
+    <hyperlink ref="G1930" r:id="rId952" xr:uid="{3DF16003-B2EA-4BE5-91D2-C8F8800A9B34}"/>
+    <hyperlink ref="G1903" r:id="rId953" xr:uid="{7AEE7714-1D23-4A8C-86B2-813D552EBCE2}"/>
+    <hyperlink ref="G1904" r:id="rId954" xr:uid="{90D40E3D-2813-4D2A-B1A3-097C4805AE69}"/>
+    <hyperlink ref="G1898" r:id="rId955" xr:uid="{2DE39767-0E7A-4E32-82B5-EC9A3AE85838}"/>
+    <hyperlink ref="G1933" r:id="rId956" display="https://web.archive.org/web/20110524144933/http:/astrohacker.com/ahc/sister-alternative-different-species-bitcoins/" xr:uid="{F27F3105-90F9-4F5D-9D44-63BC2B58A90C}"/>
+    <hyperlink ref="G1932" r:id="rId957" xr:uid="{7D377A8D-5D6F-4288-8B32-9FD87B23E964}"/>
+    <hyperlink ref="G1752" r:id="rId958" xr:uid="{E05D0CC9-7FF2-4873-B625-3F00A328FCEF}"/>
+    <hyperlink ref="G1720" r:id="rId959" xr:uid="{EB6A2DA7-7E68-4698-9CED-86D438EA2400}"/>
+    <hyperlink ref="G1729" r:id="rId960" xr:uid="{246ADE12-B394-471A-985D-035DBF9455F5}"/>
+    <hyperlink ref="G1442" r:id="rId961" xr:uid="{CF872A43-3BEC-4A9B-9D39-FC8996A06E12}"/>
+    <hyperlink ref="G1441" r:id="rId962" xr:uid="{329B8FD7-7A4B-473D-8CF0-AF22D295C8A6}"/>
+    <hyperlink ref="G1524" r:id="rId963" xr:uid="{E02A49FF-C24E-4073-ACA3-4F8486C0827B}"/>
+    <hyperlink ref="G1611" r:id="rId964" xr:uid="{E2E8B56D-C095-487A-AA65-9394E0309361}"/>
+    <hyperlink ref="G1415" r:id="rId965" xr:uid="{6D0D1F2F-3EE8-4D7C-92F8-A9D2FB392FD6}"/>
+    <hyperlink ref="G1440" r:id="rId966" xr:uid="{6D8E33E5-03A3-4527-88A2-9EAE1411E426}"/>
+    <hyperlink ref="G1719" r:id="rId967" xr:uid="{EC49F2BB-9C25-4C38-A069-1227C3ECC87D}"/>
+    <hyperlink ref="G1715" r:id="rId968" xr:uid="{F4939B9B-2D52-44F9-B235-BDDD1C8095FA}"/>
+    <hyperlink ref="G1728" r:id="rId969" xr:uid="{8EEEC6E4-A631-4FCA-AC98-6FC26FB8C671}"/>
+    <hyperlink ref="G1733" r:id="rId970" location="selection-7.0-7.46" xr:uid="{8921A850-5F88-40A1-8692-234CCC7E9226}"/>
+    <hyperlink ref="G1727" r:id="rId971" xr:uid="{A45F2285-A491-4A50-8B98-2AF0FD12BF16}"/>
+    <hyperlink ref="G2055" r:id="rId972" xr:uid="{AB6820CE-8E74-428F-ABC6-AD46608CE6A2}"/>
+    <hyperlink ref="G1918" r:id="rId973" xr:uid="{94005A37-6C72-426F-B246-0AB9EA5D27FD}"/>
+    <hyperlink ref="G278" r:id="rId974" xr:uid="{F183CD77-B11A-4DC4-AC58-FFB295D33EE1}"/>
+    <hyperlink ref="G1678" r:id="rId975" xr:uid="{DC4ADEE9-213D-4351-AA93-E7333AAC82BA}"/>
+    <hyperlink ref="F1454" r:id="rId976" tooltip="Permalink to We're Leading You Away From Golden Calves And Towards Happiness" display="http://www.contravex.com/2014/10/01/were-leading-you-away-from-golden-calves-and-towards-happiness-2/" xr:uid="{4DFD3D93-B412-4C99-BBEC-DF19608A71B7}"/>
+    <hyperlink ref="G1454" r:id="rId977" xr:uid="{0DBF6521-F929-4013-B704-188E8B8B2D99}"/>
+    <hyperlink ref="G1523" r:id="rId978" xr:uid="{783E6D79-C4CC-4A9B-991C-05FB215E23E5}"/>
+    <hyperlink ref="F1572" r:id="rId979" tooltip="Permanent Link to Guidance : There Is No Such Thing As Bitcoin Taint." display="http://trilema.com/2014/guidance-there-is-no-such-thing-as-bitcoin-taint/" xr:uid="{0E0B14BA-A816-4AF9-9C43-01BCEC5ED3D8}"/>
+    <hyperlink ref="F1571" r:id="rId980" tooltip="Permalink to The Wallet Inspector’s Promise" display="http://www.contravex.com/2014/02/27/the-wallet-inspectors-promise/" xr:uid="{D1A430A1-DF57-4CC1-885F-F287914AD3E7}"/>
+    <hyperlink ref="F1476" r:id="rId981" tooltip="Permalink to This Is The Bitcoin Empire. This Is The New Yasa" display="http://www.contravex.com/2014/08/07/this-is-the-bitcoin-empire-this-is-the-new-yasa/" xr:uid="{3280C815-B5B9-4901-B902-F1BD5ABC2F75}"/>
+    <hyperlink ref="G1476" r:id="rId982" xr:uid="{FE1B8327-4FEF-4586-AB95-CA27297594D4}"/>
+    <hyperlink ref="G1495" r:id="rId983" xr:uid="{289C5E2B-DD12-4B2B-BFD3-95C6E2DF603E}"/>
+    <hyperlink ref="F1505" r:id="rId984" tooltip="Permalink to Does Time Back Bitcoin or Does Bitcoin Back Time?" display="http://www.contravex.com/2014/06/05/does-time-back-bitcoin-or-does-bitcoin-back-time/" xr:uid="{89CE40B7-2D45-44DC-AE7E-2C91A3C2D21A}"/>
+    <hyperlink ref="G1505" r:id="rId985" xr:uid="{DB748444-CAA1-46A0-AF00-959CD92ADDE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId976"/>
-  <drawing r:id="rId977"/>
+  <pageSetup orientation="portrait" r:id="rId986"/>
+  <drawing r:id="rId987"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3713D0-AC58-4116-B007-D9363F7A41D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32057FEC-1A87-48AF-A52C-E00CB6D69328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4913" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="3398">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10229,6 +10229,15 @@
   </si>
   <si>
     <t>Why Bitcoin might not survive a Bitcoin Standard</t>
+  </si>
+  <si>
+    <t>ASKED</t>
+  </si>
+  <si>
+    <t>Need to add Marcel burgers complete series on PlanB's work</t>
+  </si>
+  <si>
+    <t>4 part series</t>
   </si>
 </sst>
 </file>
@@ -10760,7 +10769,17 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="307">
+  <dxfs count="308">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14276,8 +14295,8 @@
   <dimension ref="A1:Y2172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14583,13 +14602,19 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="89" t="s">
+        <v>3391</v>
+      </c>
       <c r="B23" s="56"/>
       <c r="C23" s="75"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="56" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>3397</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
@@ -14630,7 +14655,7 @@
       <c r="E27" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="47" t="s">
         <v>3394</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -14647,7 +14672,7 @@
       <c r="E28" s="56" t="s">
         <v>3022</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="95" t="s">
         <v>3341</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -14660,11 +14685,13 @@
         <v>43966</v>
       </c>
       <c r="C29" s="75"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="56" t="s">
+        <v>3395</v>
+      </c>
       <c r="E29" s="56" t="s">
         <v>3022</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="116" t="s">
         <v>3323</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -14681,7 +14708,7 @@
       <c r="E30" s="56" t="s">
         <v>3022</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="95" t="s">
         <v>3289</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -14694,11 +14721,13 @@
         <v>43972</v>
       </c>
       <c r="C31" s="75"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="56" t="s">
+        <v>3395</v>
+      </c>
       <c r="E31" s="56" t="s">
         <v>3216</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="116" t="s">
         <v>3291</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -14717,7 +14746,7 @@
       <c r="E32" s="56" t="s">
         <v>1762</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="116" t="s">
         <v>3292</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -14757,7 +14786,7 @@
       <c r="E34" s="56" t="s">
         <v>3299</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="95" t="s">
         <v>3297</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -14776,7 +14805,7 @@
       <c r="E35" s="56" t="s">
         <v>3302</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="116" t="s">
         <v>3300</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -14989,7 +15018,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="74">
         <v>43966</v>
       </c>
@@ -37242,813 +37271,816 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1360">
+    <cfRule type="duplicateValues" dxfId="307" priority="272"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1148">
     <cfRule type="duplicateValues" dxfId="306" priority="271"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1148">
-    <cfRule type="duplicateValues" dxfId="305" priority="270"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F579">
-    <cfRule type="duplicateValues" dxfId="304" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G729:G730">
-    <cfRule type="duplicateValues" dxfId="303" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B729:F730">
-    <cfRule type="duplicateValues" dxfId="302" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="duplicateValues" dxfId="301" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G738">
-    <cfRule type="duplicateValues" dxfId="300" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B738:F738">
-    <cfRule type="duplicateValues" dxfId="299" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="duplicateValues" dxfId="298" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B739:F739">
-    <cfRule type="duplicateValues" dxfId="297" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G823">
-    <cfRule type="duplicateValues" dxfId="296" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B823:F823">
-    <cfRule type="duplicateValues" dxfId="295" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G916">
-    <cfRule type="duplicateValues" dxfId="294" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B916:F916">
-    <cfRule type="duplicateValues" dxfId="293" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G939">
-    <cfRule type="duplicateValues" dxfId="292" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B939:F939">
-    <cfRule type="duplicateValues" dxfId="291" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G954:G955">
-    <cfRule type="duplicateValues" dxfId="290" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B954:F955">
-    <cfRule type="duplicateValues" dxfId="289" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1026:G1028">
-    <cfRule type="duplicateValues" dxfId="288" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1026:F1028">
-    <cfRule type="duplicateValues" dxfId="287" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1045:G1046 G1042">
-    <cfRule type="duplicateValues" dxfId="286" priority="3818"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="3819"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1045:F1046 B1042:F1042">
-    <cfRule type="duplicateValues" dxfId="285" priority="3820"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="3821"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1074:G1076 G1078:G1085">
-    <cfRule type="duplicateValues" dxfId="284" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1074:F1074 B1085:F1085 B1075:E1084">
-    <cfRule type="duplicateValues" dxfId="283" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1091">
-    <cfRule type="duplicateValues" dxfId="282" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1091:F1091">
-    <cfRule type="duplicateValues" dxfId="281" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1127:G1128">
-    <cfRule type="duplicateValues" dxfId="280" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1127:B1128 D1128:F1128 D1127:E1127">
-    <cfRule type="duplicateValues" dxfId="279" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1134">
-    <cfRule type="duplicateValues" dxfId="278" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1134:F1134">
-    <cfRule type="duplicateValues" dxfId="277" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1164">
-    <cfRule type="duplicateValues" dxfId="276" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1164:F1164">
-    <cfRule type="duplicateValues" dxfId="275" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1198">
-    <cfRule type="duplicateValues" dxfId="274" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1198:F1198">
-    <cfRule type="duplicateValues" dxfId="273" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1220:G1221 G1225:G1230">
-    <cfRule type="duplicateValues" dxfId="272" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1220:F1221 B1225:F1230">
-    <cfRule type="duplicateValues" dxfId="271" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1235">
-    <cfRule type="duplicateValues" dxfId="270" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1235:F1235">
-    <cfRule type="duplicateValues" dxfId="269" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1266">
-    <cfRule type="duplicateValues" dxfId="268" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1266:F1266">
-    <cfRule type="duplicateValues" dxfId="267" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1342">
-    <cfRule type="duplicateValues" dxfId="266" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1342:F1342">
-    <cfRule type="duplicateValues" dxfId="265" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1373">
-    <cfRule type="duplicateValues" dxfId="264" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1373:F1373">
-    <cfRule type="duplicateValues" dxfId="263" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1408">
-    <cfRule type="duplicateValues" dxfId="262" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1408:F1408">
-    <cfRule type="duplicateValues" dxfId="261" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458">
-    <cfRule type="duplicateValues" dxfId="260" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1458:F1458">
-    <cfRule type="duplicateValues" dxfId="259" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1475">
-    <cfRule type="duplicateValues" dxfId="258" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1474:F1475">
-    <cfRule type="duplicateValues" dxfId="257" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1512:G1515 G1510">
-    <cfRule type="duplicateValues" dxfId="256" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1510:F1510 B1512:F1515 B1516:E1516">
-    <cfRule type="duplicateValues" dxfId="255" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1563:G1564">
-    <cfRule type="duplicateValues" dxfId="254" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1563:F1564">
-    <cfRule type="duplicateValues" dxfId="253" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571:G1572">
-    <cfRule type="duplicateValues" dxfId="252" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1571:F1572">
-    <cfRule type="duplicateValues" dxfId="251" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1609">
-    <cfRule type="duplicateValues" dxfId="250" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1609:E1609">
-    <cfRule type="duplicateValues" dxfId="249" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1620">
-    <cfRule type="duplicateValues" dxfId="248" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1620:F1620">
-    <cfRule type="duplicateValues" dxfId="247" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687">
-    <cfRule type="duplicateValues" dxfId="246" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1687:F1687">
-    <cfRule type="duplicateValues" dxfId="245" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1833">
-    <cfRule type="duplicateValues" dxfId="244" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1833:F1833">
-    <cfRule type="duplicateValues" dxfId="243" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1983:G1984 G1987">
-    <cfRule type="duplicateValues" dxfId="242" priority="4157"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="4158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1798 B1983:F1983 B1987:F1987 B1984:E1984">
-    <cfRule type="duplicateValues" dxfId="241" priority="4159"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="4160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1993">
-    <cfRule type="duplicateValues" dxfId="240" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1993:F1993">
-    <cfRule type="duplicateValues" dxfId="239" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2000:G2002">
-    <cfRule type="duplicateValues" dxfId="238" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2000:F2002">
-    <cfRule type="duplicateValues" dxfId="237" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2033:G2040">
-    <cfRule type="duplicateValues" dxfId="236" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2033:F2040">
-    <cfRule type="duplicateValues" dxfId="235" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2049">
-    <cfRule type="duplicateValues" dxfId="234" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2049:F2049">
-    <cfRule type="duplicateValues" dxfId="233" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2097 G2075:G2081 G2092 G2086:G2090 G2083:G2084">
-    <cfRule type="duplicateValues" dxfId="232" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2075:F2075 B2094:F2097 B2077:F2081 C2076:F2076 B2092:F2092 B2090:D2091 F2090:F2091 B2086:F2089 B2085:D2085 B2083:F2084 B2082:D2082 F2082">
-    <cfRule type="duplicateValues" dxfId="231" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2071">
-    <cfRule type="duplicateValues" dxfId="230" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G817">
-    <cfRule type="duplicateValues" dxfId="229" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F817">
-    <cfRule type="duplicateValues" dxfId="228" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1029">
+    <cfRule type="duplicateValues" dxfId="228" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1029">
     <cfRule type="duplicateValues" dxfId="227" priority="168"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1029">
-    <cfRule type="duplicateValues" dxfId="226" priority="167"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1069">
-    <cfRule type="duplicateValues" dxfId="225" priority="4807"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="4808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1069:F1069">
-    <cfRule type="duplicateValues" dxfId="224" priority="4808"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="4809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G894:G898 G876:G877 G850">
-    <cfRule type="duplicateValues" dxfId="223" priority="5070"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="5071"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B894:F898 B876:F877 B850:F850">
-    <cfRule type="duplicateValues" dxfId="222" priority="5073"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="5074"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G775:G776">
-    <cfRule type="duplicateValues" dxfId="221" priority="5199"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="5200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B775:F776">
-    <cfRule type="duplicateValues" dxfId="220" priority="5457"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="5458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G396:G399">
-    <cfRule type="duplicateValues" dxfId="219" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G808:G809">
-    <cfRule type="duplicateValues" dxfId="218" priority="5584"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="5585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808:F809">
-    <cfRule type="duplicateValues" dxfId="217" priority="5586"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="5587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E400:E413 E415 E418:E419 E428:E431 E421:E426 F420">
-    <cfRule type="duplicateValues" dxfId="216" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G565:G567 G572:G573 G476:G477 G481">
-    <cfRule type="duplicateValues" dxfId="215" priority="5725"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="5726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G432">
-    <cfRule type="duplicateValues" dxfId="214" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F432">
-    <cfRule type="duplicateValues" dxfId="213" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F858:F862">
-    <cfRule type="containsText" dxfId="212" priority="160" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="213" priority="161" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F858)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="211" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="duplicateValues" dxfId="210" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="duplicateValues" dxfId="209" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="duplicateValues" dxfId="208" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1014">
+    <cfRule type="duplicateValues" dxfId="208" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E719">
     <cfRule type="duplicateValues" dxfId="207" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E719">
-    <cfRule type="duplicateValues" dxfId="206" priority="153"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1909:F1913">
-    <cfRule type="duplicateValues" dxfId="205" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922 G1915:G1919 G1909:G1913">
-    <cfRule type="duplicateValues" dxfId="204" priority="7721"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="7722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1922:F1922 B1915:F1918 B1919:E1919 B1909:E1913">
-    <cfRule type="duplicateValues" dxfId="203" priority="7725"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="7726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2003">
+    <cfRule type="duplicateValues" dxfId="203" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2003">
     <cfRule type="duplicateValues" dxfId="202" priority="149"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2003">
+  <conditionalFormatting sqref="G1995">
     <cfRule type="duplicateValues" dxfId="201" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1995">
+  <conditionalFormatting sqref="F1995">
     <cfRule type="duplicateValues" dxfId="200" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1995">
+  <conditionalFormatting sqref="G1988">
     <cfRule type="duplicateValues" dxfId="199" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1988">
+  <conditionalFormatting sqref="F1988">
     <cfRule type="duplicateValues" dxfId="198" priority="145"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1988">
+  <conditionalFormatting sqref="G1982">
     <cfRule type="duplicateValues" dxfId="197" priority="144"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1982">
+  <conditionalFormatting sqref="F1982">
     <cfRule type="duplicateValues" dxfId="196" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1982">
+  <conditionalFormatting sqref="G1964:G1977">
     <cfRule type="duplicateValues" dxfId="195" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1964:G1977">
+  <conditionalFormatting sqref="F1964:F1977">
     <cfRule type="duplicateValues" dxfId="194" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1964:F1977">
+  <conditionalFormatting sqref="G1948:G1951">
     <cfRule type="duplicateValues" dxfId="193" priority="140"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1948:G1951">
+  <conditionalFormatting sqref="F1948:F1951">
     <cfRule type="duplicateValues" dxfId="192" priority="139"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1948:F1951">
+  <conditionalFormatting sqref="G1943:G1945 G1939">
     <cfRule type="duplicateValues" dxfId="191" priority="138"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1943:G1945 G1939">
+  <conditionalFormatting sqref="F1943:F1945 F1939">
     <cfRule type="duplicateValues" dxfId="190" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1943:F1945 F1939">
+  <conditionalFormatting sqref="G1926">
     <cfRule type="duplicateValues" dxfId="189" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1926">
+  <conditionalFormatting sqref="F1926">
     <cfRule type="duplicateValues" dxfId="188" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1926">
+  <conditionalFormatting sqref="G1899:G1900">
     <cfRule type="duplicateValues" dxfId="187" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1899:G1900">
+  <conditionalFormatting sqref="F1899:F1900">
     <cfRule type="duplicateValues" dxfId="186" priority="133"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1899:F1900">
+  <conditionalFormatting sqref="G1886 G1890:G1891">
     <cfRule type="duplicateValues" dxfId="185" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1886 G1890:G1891">
+  <conditionalFormatting sqref="F1886 F1890:F1891">
     <cfRule type="duplicateValues" dxfId="184" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1886 F1890:F1891">
-    <cfRule type="duplicateValues" dxfId="183" priority="130"/>
+  <conditionalFormatting sqref="G1857:G1858">
+    <cfRule type="duplicateValues" dxfId="183" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1857:G1858">
+  <conditionalFormatting sqref="F1857:F1858">
     <cfRule type="duplicateValues" dxfId="182" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1857:F1858">
-    <cfRule type="duplicateValues" dxfId="181" priority="126"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1882">
-    <cfRule type="duplicateValues" dxfId="180" priority="7732"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="7733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1882:F1882">
-    <cfRule type="duplicateValues" dxfId="179" priority="7733"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="7734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1862:G1864 G1869:G1880">
-    <cfRule type="duplicateValues" dxfId="178" priority="8446"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="8447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1869:F1880 F1862:F1865">
-    <cfRule type="duplicateValues" dxfId="177" priority="8788"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="8789"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1839:G1840">
+    <cfRule type="duplicateValues" dxfId="177" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1839:F1840">
     <cfRule type="duplicateValues" dxfId="176" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1839:F1840">
+  <conditionalFormatting sqref="G1834:G1837">
     <cfRule type="duplicateValues" dxfId="175" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1834:G1837">
+  <conditionalFormatting sqref="F1834:F1837">
     <cfRule type="duplicateValues" dxfId="174" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1834:F1837">
+  <conditionalFormatting sqref="G1809:G1811">
     <cfRule type="duplicateValues" dxfId="173" priority="122"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1809:G1811">
+  <conditionalFormatting sqref="F1809:F1811">
     <cfRule type="duplicateValues" dxfId="172" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1809:F1811">
-    <cfRule type="duplicateValues" dxfId="171" priority="120"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1901 F1765 F1769 F1786">
-    <cfRule type="duplicateValues" dxfId="170" priority="9495"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="9496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1785 G1759:G1760 G1767:G1768">
-    <cfRule type="duplicateValues" dxfId="169" priority="9644"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="9645"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1777:F1785 F1759:F1761 F1767:F1768">
-    <cfRule type="duplicateValues" dxfId="168" priority="9647"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="9648"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718">
+    <cfRule type="duplicateValues" dxfId="168" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1718">
     <cfRule type="duplicateValues" dxfId="167" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1718">
-    <cfRule type="duplicateValues" dxfId="166" priority="116"/>
+  <conditionalFormatting sqref="G1678">
+    <cfRule type="duplicateValues" dxfId="166" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1678">
+  <conditionalFormatting sqref="F1678">
     <cfRule type="duplicateValues" dxfId="165" priority="113"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1678">
-    <cfRule type="duplicateValues" dxfId="164" priority="112"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1702 G1698:G1699 G1668:G1670">
-    <cfRule type="duplicateValues" dxfId="163" priority="10002"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="10003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1702 F1698:F1699 F1668:F1670">
-    <cfRule type="duplicateValues" dxfId="162" priority="10005"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="10006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1633">
+    <cfRule type="duplicateValues" dxfId="162" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1633">
     <cfRule type="duplicateValues" dxfId="161" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1633">
+  <conditionalFormatting sqref="G1618:G1619">
     <cfRule type="duplicateValues" dxfId="160" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1618:G1619">
+  <conditionalFormatting sqref="F1618:F1619">
     <cfRule type="duplicateValues" dxfId="159" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1618:F1619">
+  <conditionalFormatting sqref="G1601:G1602">
     <cfRule type="duplicateValues" dxfId="158" priority="108"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1601:G1602">
+  <conditionalFormatting sqref="F1601:F1602">
     <cfRule type="duplicateValues" dxfId="157" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1601:F1602">
+  <conditionalFormatting sqref="G1580:G1586">
     <cfRule type="duplicateValues" dxfId="156" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1580:G1586">
+  <conditionalFormatting sqref="F1580:F1586">
     <cfRule type="duplicateValues" dxfId="155" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1580:F1586">
+  <conditionalFormatting sqref="G1566">
     <cfRule type="duplicateValues" dxfId="154" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1566">
+  <conditionalFormatting sqref="F1566">
     <cfRule type="duplicateValues" dxfId="153" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1566">
+  <conditionalFormatting sqref="G1544:G1545">
     <cfRule type="duplicateValues" dxfId="152" priority="102"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1544:G1545">
+  <conditionalFormatting sqref="F1544:F1545">
     <cfRule type="duplicateValues" dxfId="151" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1544:F1545">
+  <conditionalFormatting sqref="G1511 G1526 G1519">
     <cfRule type="duplicateValues" dxfId="150" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1511 G1526 G1519">
+  <conditionalFormatting sqref="F1511 F1526 F1519">
     <cfRule type="duplicateValues" dxfId="149" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1511 F1526 F1519">
+  <conditionalFormatting sqref="G1489:G1490">
     <cfRule type="duplicateValues" dxfId="148" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1489:G1490">
+  <conditionalFormatting sqref="F1489:F1490">
     <cfRule type="duplicateValues" dxfId="147" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1489:F1490">
+  <conditionalFormatting sqref="G1477:G1478">
     <cfRule type="duplicateValues" dxfId="146" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1477:G1478">
+  <conditionalFormatting sqref="F1477">
     <cfRule type="duplicateValues" dxfId="145" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1477">
+  <conditionalFormatting sqref="F1478">
     <cfRule type="duplicateValues" dxfId="144" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1478">
+  <conditionalFormatting sqref="G1459">
     <cfRule type="duplicateValues" dxfId="143" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1459">
+  <conditionalFormatting sqref="F1459">
     <cfRule type="duplicateValues" dxfId="142" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1459">
+  <conditionalFormatting sqref="G1438:G1443">
     <cfRule type="duplicateValues" dxfId="141" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1438:G1443">
+  <conditionalFormatting sqref="F1438:F1443">
     <cfRule type="duplicateValues" dxfId="140" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1438:F1443">
+  <conditionalFormatting sqref="G1407">
     <cfRule type="duplicateValues" dxfId="139" priority="89"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1407">
+  <conditionalFormatting sqref="F1407">
     <cfRule type="duplicateValues" dxfId="138" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1407">
+  <conditionalFormatting sqref="G1395">
     <cfRule type="duplicateValues" dxfId="137" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1395">
+  <conditionalFormatting sqref="F1395">
     <cfRule type="duplicateValues" dxfId="136" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1395">
+  <conditionalFormatting sqref="G1374:G1375">
     <cfRule type="duplicateValues" dxfId="135" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1374:G1375">
+  <conditionalFormatting sqref="F1374:F1375">
     <cfRule type="duplicateValues" dxfId="134" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1374:F1375">
+  <conditionalFormatting sqref="G1356:G1357">
     <cfRule type="duplicateValues" dxfId="133" priority="83"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1356:G1357">
+  <conditionalFormatting sqref="F1356:F1357">
     <cfRule type="duplicateValues" dxfId="132" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1356:F1357">
-    <cfRule type="duplicateValues" dxfId="131" priority="81"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1385:G1387">
-    <cfRule type="duplicateValues" dxfId="130" priority="10006"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="10007"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1385:F1387">
-    <cfRule type="duplicateValues" dxfId="129" priority="10008"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="10009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1328 G1321">
+    <cfRule type="duplicateValues" dxfId="129" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1328 F1321">
     <cfRule type="duplicateValues" dxfId="128" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1328 F1321">
+  <conditionalFormatting sqref="G1277">
     <cfRule type="duplicateValues" dxfId="127" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1277">
+  <conditionalFormatting sqref="F1277">
     <cfRule type="duplicateValues" dxfId="126" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1277">
-    <cfRule type="duplicateValues" dxfId="125" priority="77"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1283:G1286">
-    <cfRule type="duplicateValues" dxfId="124" priority="10009"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="10010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1283:F1286">
-    <cfRule type="duplicateValues" dxfId="123" priority="10010"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="10011"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1268:G1271 G1273:G1275">
+    <cfRule type="duplicateValues" dxfId="123" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1268:F1270 F1272:F1275">
     <cfRule type="duplicateValues" dxfId="122" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1268:F1270 F1272:F1275">
+  <conditionalFormatting sqref="G1253:G1257">
     <cfRule type="duplicateValues" dxfId="121" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1253:G1257">
+  <conditionalFormatting sqref="F1253:F1257">
     <cfRule type="duplicateValues" dxfId="120" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1253:F1257">
+  <conditionalFormatting sqref="G1238:G1247">
     <cfRule type="duplicateValues" dxfId="119" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1238:G1247">
+  <conditionalFormatting sqref="F1238:F1247">
     <cfRule type="duplicateValues" dxfId="118" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1238:F1247">
+  <conditionalFormatting sqref="G1222:G1224">
     <cfRule type="duplicateValues" dxfId="117" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1222:G1224">
+  <conditionalFormatting sqref="F1222:F1224">
     <cfRule type="duplicateValues" dxfId="116" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1222:F1224">
+  <conditionalFormatting sqref="G1197">
     <cfRule type="duplicateValues" dxfId="115" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1197">
+  <conditionalFormatting sqref="F1197">
     <cfRule type="duplicateValues" dxfId="114" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1197">
+  <conditionalFormatting sqref="G1190">
     <cfRule type="duplicateValues" dxfId="113" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1190">
+  <conditionalFormatting sqref="F1190">
     <cfRule type="duplicateValues" dxfId="112" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1190">
+  <conditionalFormatting sqref="G1182">
     <cfRule type="duplicateValues" dxfId="111" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1182">
+  <conditionalFormatting sqref="F1182">
     <cfRule type="duplicateValues" dxfId="110" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1182">
+  <conditionalFormatting sqref="G1170:G1171">
     <cfRule type="duplicateValues" dxfId="109" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1170:G1171">
+  <conditionalFormatting sqref="F1170:F1171">
     <cfRule type="duplicateValues" dxfId="108" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1170:F1171">
+  <conditionalFormatting sqref="G1166:G1167">
     <cfRule type="duplicateValues" dxfId="107" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1166:G1167">
+  <conditionalFormatting sqref="F1166:F1167">
     <cfRule type="duplicateValues" dxfId="106" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1166:F1167">
+  <conditionalFormatting sqref="G1161">
     <cfRule type="duplicateValues" dxfId="105" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1161">
+  <conditionalFormatting sqref="F1161">
     <cfRule type="duplicateValues" dxfId="104" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1161">
+  <conditionalFormatting sqref="G1150:G1151">
     <cfRule type="duplicateValues" dxfId="103" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1150:G1151">
+  <conditionalFormatting sqref="F1150:F1151">
     <cfRule type="duplicateValues" dxfId="102" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1150:F1151">
+  <conditionalFormatting sqref="G1131:G1132">
     <cfRule type="duplicateValues" dxfId="101" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1131:G1132">
+  <conditionalFormatting sqref="F1131:F1132">
     <cfRule type="duplicateValues" dxfId="100" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1131:F1132">
-    <cfRule type="duplicateValues" dxfId="99" priority="53"/>
+  <conditionalFormatting sqref="F1098">
+    <cfRule type="duplicateValues" dxfId="99" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1098">
+  <conditionalFormatting sqref="G1086:G1088">
     <cfRule type="duplicateValues" dxfId="98" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1086:G1088">
+  <conditionalFormatting sqref="F1086:F1088">
     <cfRule type="duplicateValues" dxfId="97" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1086:F1088">
+  <conditionalFormatting sqref="G1062:G1068">
     <cfRule type="duplicateValues" dxfId="96" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1062:G1068">
+  <conditionalFormatting sqref="F1062:F1064">
     <cfRule type="duplicateValues" dxfId="95" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1062:F1064">
+  <conditionalFormatting sqref="F1065:F1068">
     <cfRule type="duplicateValues" dxfId="94" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1065:F1068">
+  <conditionalFormatting sqref="G1031:G1033">
     <cfRule type="duplicateValues" dxfId="93" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1031:G1033">
+  <conditionalFormatting sqref="F1031:F1033">
     <cfRule type="duplicateValues" dxfId="92" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1031:F1033">
+  <conditionalFormatting sqref="G946">
     <cfRule type="duplicateValues" dxfId="91" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G946">
+  <conditionalFormatting sqref="F946">
     <cfRule type="duplicateValues" dxfId="90" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F946">
+  <conditionalFormatting sqref="G922:G925">
     <cfRule type="duplicateValues" dxfId="89" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G922:G925">
+  <conditionalFormatting sqref="F922:F925">
     <cfRule type="duplicateValues" dxfId="88" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F922:F925">
+  <conditionalFormatting sqref="G892">
     <cfRule type="duplicateValues" dxfId="87" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G892">
+  <conditionalFormatting sqref="F892">
     <cfRule type="duplicateValues" dxfId="86" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F892">
+  <conditionalFormatting sqref="G880 G883:G889">
     <cfRule type="duplicateValues" dxfId="85" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G880 G883:G889">
+  <conditionalFormatting sqref="F880:F889">
     <cfRule type="duplicateValues" dxfId="84" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F880:F889">
-    <cfRule type="duplicateValues" dxfId="83" priority="35"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G865:G868">
-    <cfRule type="duplicateValues" dxfId="82" priority="10442"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="10443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F865:F873">
-    <cfRule type="duplicateValues" dxfId="81" priority="10444"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="10445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G863">
+    <cfRule type="duplicateValues" dxfId="81" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F863">
     <cfRule type="duplicateValues" dxfId="80" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F863">
+  <conditionalFormatting sqref="G832:G839">
     <cfRule type="duplicateValues" dxfId="79" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G832:G839">
+  <conditionalFormatting sqref="F832:F834 F836:F839">
     <cfRule type="duplicateValues" dxfId="78" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F832:F834 F836:F839">
+  <conditionalFormatting sqref="G722">
     <cfRule type="duplicateValues" dxfId="77" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G722">
+  <conditionalFormatting sqref="F722">
     <cfRule type="duplicateValues" dxfId="76" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F722">
-    <cfRule type="duplicateValues" dxfId="75" priority="27"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G586:G587 G657:G658">
-    <cfRule type="duplicateValues" dxfId="74" priority="10445"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="10446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:F587 B590:F590 B657:F658 B591:E599">
-    <cfRule type="duplicateValues" dxfId="73" priority="10447"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="10448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B482:G482">
+    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G466">
     <cfRule type="duplicateValues" dxfId="72" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G466">
+  <conditionalFormatting sqref="E466">
     <cfRule type="duplicateValues" dxfId="71" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E466">
+  <conditionalFormatting sqref="F466">
     <cfRule type="duplicateValues" dxfId="70" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F466">
+  <conditionalFormatting sqref="F416:G416">
     <cfRule type="duplicateValues" dxfId="69" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F416:G416">
+  <conditionalFormatting sqref="F416">
     <cfRule type="duplicateValues" dxfId="68" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F416">
-    <cfRule type="duplicateValues" dxfId="67" priority="19"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B901:B908 B870:B872 B864">
-    <cfRule type="duplicateValues" dxfId="66" priority="11460"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="11461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1370">
-    <cfRule type="duplicateValues" dxfId="65" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F845">
-    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="63" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="62" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="61" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="59" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="58" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="57" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G583 G656">
-    <cfRule type="duplicateValues" dxfId="56" priority="14321"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="14322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F583 F656">
-    <cfRule type="duplicateValues" dxfId="55" priority="14323"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="14324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F864">
     <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F864">
-    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="duplicateValues" dxfId="52" priority="15265"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="15266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B713:F714">
-    <cfRule type="duplicateValues" dxfId="51" priority="15266"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="15267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B731:F731">
-    <cfRule type="duplicateValues" dxfId="49" priority="15267"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="15268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1127">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122">
-    <cfRule type="duplicateValues" dxfId="47" priority="15322"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="15323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1122">
-    <cfRule type="duplicateValues" dxfId="46" priority="15323"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="15324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1251 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1012 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1978 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081">
-    <cfRule type="duplicateValues" dxfId="45" priority="15324"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="15325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2100 G1947 G2004:G2065 G1922:G1925 G1927:G1937 G1978 G727:G731 G1008:G1012 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G271:G287 G289:G291 F288 G293 G348:G349 G387:G388 G390:G395 G400:G413 G572:G582 G712:G714 G718:G721 G476:G478 G825:G826 G780:G786 G747:G762 G735:G743 G815:G821 G830:G831 G849:G850 G828 G857:G862 G1056:G1061 G1322:G1326 G1512:G1515 G1520:G1521 G1671:G1673 G1769 G1881:G1885 G1915:G1919 G1896:G1898 G1054 G823 H1476 G433:G462 G464:G465 G852:G855 G370:G385 G1996:G2002 G1989:G1994 G1983:G1984 G1952:G1962 G1901:G1913 G1892:G1894 G1889 G1859:G1860 G1841:G1856 G1838 G1812:G1833 G1786:G1797 G1719:G1758 G1706:G1717 G1679:G1697 G1634:G1637 G1620:G1632 G1603:G1609 G1616:G1617 G1587:G1600 G1567:G1568 G1546:G1549 G1552:G1565 G1529:G1543 G1491:G1499 G1479:G1482 G1460 G1444:G1458 G1408 G1396:G1402 G1376:G1394 G1358:G1373 G1329:G1330 G1278:G1320 G1276 G1258:G1267 G1248:G1251 G1225:G1237 G1198:G1221 G1193:G1196 G1185:G1187 G1172:G1181 G1168:G1169 G1162:G1165 G1152:G1160 G1133:G1149 G1123:G1130 G1099:G1102 G1089:G1097 G1069:G1076 G1035:G1036 G947:G1006 G927:G944 G893:G898 G901:G921 G871:G879 G864 G890:G891 G841 F840 G657:G658 G661:G662 G664:G709 G653:G655 G586:G589 G485:G567 G415 G417:G422 H356 G345 G846:G847 G331:G342 G267:G268 G354:G368 G769:G776 G600:G643 G1048:G1052 G2092 G2086:G2090 G2083:G2084 G1433:G1436 G1038:G1046 G1332:G1338 G1675:G1677 G1014:G1030 G424:G431 G1404:G1405 G1189 G1484:G1485 G1104:G1120 G1410:G1431 G1078:G1085 G844 G1639:G1656 G205 G480:G481 G1340:G1355 F112 G150:G151 G153 G788:G813 G54 G58 G104:G105 G1799:G1808 G1986:G1987 G1571:G1579 G1658:G1667 G1462:G1465 G2102:G1048576 G1501:G1510 G1523:G1525 G1467:G1476 G1517:G1518 G2068:G2081">
-    <cfRule type="duplicateValues" dxfId="44" priority="15387"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="15388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2098:G2100 G581:G582 G1947 G2041:G2048 G721 G852:G855 G712 G1923:G1925 G1927:G1937 G1978 G1855:G1856 G749:G758 G960:G962 G1851 G1709:G1713 G1728:G1755 G1758 G1769 G1640:G1645 G1665 G1650:G1656 G1648 G1397 G1445:G1455 G1457 G1216:G1219 G1213 G1092:G1097 G1193:G1196 G1089 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G427 G271:G287 G289:G291 F288 G293 G348:G349 G560:G564 G600 G538:G557 G1041 G1043 G830 G825:G826 G821 G815:G816 G1603:G1607 G1579 G1503:G1509 G1538:G1543 G1368:G1372 G1358:G1362 G1364:G1366 G1281:G1282 G1330 G1414:G1422 G1427:G1431 G1805:G1808 G1679:G1686 G1553:G1555 G1558 G1560:G1562 G1819:G1824 G1827:G1832 G1838 G1843:G1849 G1790:G1796 G1715:G1717 G1496:G1499 G1129:G1130 G1149 G1324 G1525 G1473 G1341 G1262:G1265 G1523 G1025 G1124 G1237 G1695 G1799:G1802 G1813 G964:G966 G968:G972 G974:G1006 G1008:G1012 G1160 G1350:G1352 G1049:G1052 G1056:G1061 G1101:G1102 G1054 G938 G949 G951:G953 G913:G915 G917:G921 G819 G803:G807 G780:G785 G574:G575 G1030 G1070:G1073 G1135 G1165 G1199:G1209 G1231:G1234 G1267 G1287:G1320 G1343:G1348 G1376:G1384 G1460 G1517:G1518 G1520 G1565 G1573:G1577 G1688:G1693 G1881 G1883:G1885 G1896:G1898 G1989:G1992 G1994 G2004:G2032 G2050:G2065 G2115:G2120 G2124:G1048576 G849 G879 G1986 G602:G643 G577:G579 G661:G662 G588:G589 G664:G705 G707:G709 G735 G788:G800 G770:G773 G846:G847 G857:G862 G828 G1476:H1476 G901:G910 G871:G875 G864 G370:G383 G417 G1996:G1999 G1952:G1962 G1901:G1908 G1892:G1894 G1889 G1859:G1860 G1841 G1786:G1788 G1719:G1724 G1588:G1600 G1567:G1568 G1546 G1529:G1535 G1491:G1494 G1479:G1482 G1278:G1279 G1276 G1258 G1248:G1251 G1185:G1186 G1172:G1181 G1168:G1169 G1162:G1163 G1152:G1157 G1133 G1035:G1036 G927:G932 G893 G890:G891 G653:G655 H356 G345 G331:G342 G267:G268 G354:G368 G1433:G1436 G1038:G1039 G1332:G1338 G1014:G1023 G1484:G1485 G1104:G1120 G205 F112 G150:G151 G153 G54 G58 G104:G105 G1658:G1662 G1462:G1465 G2102:G2113 G1501 G1467:G1469 G2068:G2074">
-    <cfRule type="duplicateValues" dxfId="43" priority="15536"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="15537"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2173:F1048576 F580:F582 F1947 F721 B852 F1989:F1992 F1883:F1885 F1896:F1898 F1902:F1908 F749:F760 F960:F962 F1558 G1578 F1092:F1097 F1216:F1218 F1460:F1467 F1213 F301:F308 F297:F299 F208:F219 F715 F427 F271 F289:F291 F293 F348:F350 F559 F577:F578 F600 F538:F557 F936:F937 F964:F966 F968:F972 F949:F953 F830 F825:F826 F821 F803:F807 F780:F785 F815:F816 F914:F915 F917:F921 F912 F1679:F1680 F1805:F1808 F1828 F1847:F1849 F1854:F1856 F1851:F1852 F1640:F1645 F1665 F1650:F1659 F1648 F1523 F1525 F1538:F1540 F1719:F1724 F1590:F1600 F1603 F1605 F1696 F1492:F1493 F1503:F1507 F1361:F1366 F1368:F1369 F1448:F1453 F1455 F1471:F1473 F1499 F1469 F1434 F1428 F978:F1006 F1008:F1013 F1304:F1318 F1329:F1330 F1162:F1163 F1812:F1814 F1821 F1397 F1413:F1425 F1399 F1390 F1152:F1159 B2098:B2120 B2124:B2172 B794 F1509 F1542:F1543 F1553 F1043:F1044 F1041 F1037:F1039 F1193:F1196 F1204:F1209 F1518 F1728:F1734 F1737:F1754 F1823:F1824 F1276 F1372 F1262:F1265 F1323 F1237 F795:F800 F849 F879 F853:F855 F1049:F1052 F1056:F1061 F1101:F1102 F1054 F1089 F1070:F1073 F1165 F1199:F1200 F1343:F1351 F1358:F1359 F1376:F1384 F1479 F1923:F1925 F1994 F2004:F2032 F2041:F2048 F2050:F2059 F818:F819 F602:F643 F661:F662 F588:F589 F664:F705 F707:F709 F712 F735 F1015:F1023 F788:F793 F770:F773 F846:F847 F858:F862 F873:F875 F417 F376 F378:F383 F899 F370:F374 F368 F1934:F1937 F1980:F1981 F1795:F1797 F1799:F1802 F901:F910 F1996:F1999 F1952:F1962 F1892:F1894 F1889 F1859:F1860 F1706:F1715 F1529:F1535 F1258 F1248:F1252 F1183 F1172:F1181 F1168:F1169 F1099 F927:F932 F893 F890:F891 F653:F655 F1430:F1432 F1436:F1437 F1483:F1488 F584 F1353:F1355 F318:F324 F326:F327 F310:F316 F329:F345 F286:F287 F2061:F2074 F280:F281 F278 F273:F275 F283:F284 F265:F268 F257:F261 F354:F366 F247:F255 F263 F223:F224 F236:F241 F158 F1332:F1338 F1104:F1121 F1185:F1186 F160:F173 F175:F176 F178 F1340:F1341 F182:F183 F185 F187:F190 F205 F113:F132 F134:F146 F1550 F148:F154 F66:F75 F77:F79 F81:F89 F91:F111 F42:F43 F717:F718 F28:F40 F45:F64 F842 F723 F1:F26">
-    <cfRule type="duplicateValues" dxfId="42" priority="15537"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="15538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1963">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2072" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -42030,25 +42062,25 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E177:F1048576 E1:F3 F4:F43 F45:F141 F143:F174 F176">
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E96 E177:E1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E148">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E174">
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:F175">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" xr:uid="{0E2C5374-AC71-44BB-B699-D388328F7EE0}"/>
@@ -44333,80 +44365,80 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G52">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F52">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G83">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F83">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F106">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G106">
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F122 F124">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F151">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F141">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F152">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" xr:uid="{D2498515-12E3-4313-8BEB-4779B44A87F1}"/>
@@ -44586,27 +44618,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 F7">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{C20CE396-70CC-4013-91C5-39B81FBF07EF}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32057FEC-1A87-48AF-A52C-E00CB6D69328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42733142-437A-473B-94ED-494DF4D79205}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="5895" yWindow="2025" windowWidth="26640" windowHeight="27675" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -14296,7 +14296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14655,7 +14655,7 @@
       <c r="E27" s="56" t="s">
         <v>2404</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="6" t="s">
         <v>3394</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -14691,7 +14691,7 @@
       <c r="E29" s="56" t="s">
         <v>3022</v>
       </c>
-      <c r="F29" s="116" t="s">
+      <c r="F29" s="107" t="s">
         <v>3323</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -14727,7 +14727,7 @@
       <c r="E31" s="56" t="s">
         <v>3216</v>
       </c>
-      <c r="F31" s="116" t="s">
+      <c r="F31" s="107" t="s">
         <v>3291</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -14746,7 +14746,7 @@
       <c r="E32" s="56" t="s">
         <v>1762</v>
       </c>
-      <c r="F32" s="116" t="s">
+      <c r="F32" s="107" t="s">
         <v>3292</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -14805,7 +14805,7 @@
       <c r="E35" s="56" t="s">
         <v>3302</v>
       </c>
-      <c r="F35" s="116" t="s">
+      <c r="F35" s="107" t="s">
         <v>3300</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -14824,7 +14824,7 @@
       <c r="E36" s="3" t="s">
         <v>3305</v>
       </c>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="107" t="s">
         <v>3304</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -14896,7 +14896,7 @@
       <c r="E40" s="56" t="s">
         <v>3317</v>
       </c>
-      <c r="F40" s="116" t="s">
+      <c r="F40" s="107" t="s">
         <v>3315</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -14915,7 +14915,7 @@
       <c r="E41" s="56" t="s">
         <v>3320</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="113" t="s">
         <v>3319</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -14953,7 +14953,7 @@
       <c r="E43" s="56" t="s">
         <v>3330</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="107" t="s">
         <v>3328</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -14972,7 +14972,7 @@
       <c r="E44" s="56" t="s">
         <v>2901</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="113" t="s">
         <v>3337</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -14991,7 +14991,7 @@
       <c r="E45" s="56" t="s">
         <v>3340</v>
       </c>
-      <c r="F45" s="116" t="s">
+      <c r="F45" s="107" t="s">
         <v>3338</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -15010,7 +15010,7 @@
       <c r="E46" s="56" t="s">
         <v>2940</v>
       </c>
-      <c r="F46" s="116" t="s">
+      <c r="F46" s="107" t="s">
         <v>3343</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -15048,7 +15048,7 @@
       <c r="E48" s="3" t="s">
         <v>3352</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="107" t="s">
         <v>3351</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -15067,7 +15067,7 @@
       <c r="E49" s="56" t="s">
         <v>3357</v>
       </c>
-      <c r="F49" s="116" t="s">
+      <c r="F49" s="107" t="s">
         <v>3358</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -15086,7 +15086,7 @@
       <c r="E50" s="56" t="s">
         <v>3362</v>
       </c>
-      <c r="F50" s="116" t="s">
+      <c r="F50" s="107" t="s">
         <v>3360</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -15105,7 +15105,7 @@
       <c r="E51" s="56" t="s">
         <v>2353</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="107" t="s">
         <v>3364</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -38080,7 +38080,7 @@
     <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2072" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -42062,25 +42062,25 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E177:F1048576 E1:F3 F4:F43 F45:F141 F143:F174 F176">
-    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E96 E177:E1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E148">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E174">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:F175">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" xr:uid="{0E2C5374-AC71-44BB-B699-D388328F7EE0}"/>
@@ -44365,80 +44365,80 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F3">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G52">
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F52">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G83">
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F83">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F106">
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:G106">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F122 F124">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G122 G124">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F151">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F125:F141">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G141">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F152">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G152">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" xr:uid="{D2498515-12E3-4313-8BEB-4779B44A87F1}"/>
@@ -44618,27 +44618,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 F7">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{C20CE396-70CC-4013-91C5-39B81FBF07EF}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42733142-437A-473B-94ED-494DF4D79205}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2485D7-DDFB-4164-A5EB-307F579C5741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="2025" windowWidth="26640" windowHeight="27675" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="17370" yWindow="1545" windowWidth="26640" windowHeight="26655" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4922" uniqueCount="3402">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10238,6 +10238,18 @@
   </si>
   <si>
     <t>4 part series</t>
+  </si>
+  <si>
+    <t>https://economicsandliberty.wordpress.com/2011/06/04/further-observations-on-bitcoin-digital-currencies-privacy-and-liberty/</t>
+  </si>
+  <si>
+    <t>Further Observations on Bitcoin, Digital Currencies, Privacy and Liberty</t>
+  </si>
+  <si>
+    <t>Anthony Freeman</t>
+  </si>
+  <si>
+    <t>Email Sent</t>
   </si>
 </sst>
 </file>
@@ -10561,7 +10573,7 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10762,6 +10774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -14295,8 +14308,8 @@
   <dimension ref="A1:Y2172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="3" topLeftCell="A1942" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1957" sqref="F1957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14688,7 +14701,7 @@
       <c r="D29" s="56" t="s">
         <v>3395</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="107" t="s">
         <v>3022</v>
       </c>
       <c r="F29" s="107" t="s">
@@ -14724,7 +14737,7 @@
       <c r="D31" s="56" t="s">
         <v>3395</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="107" t="s">
         <v>3216</v>
       </c>
       <c r="F31" s="107" t="s">
@@ -14743,7 +14756,7 @@
       <c r="D32" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="107" t="s">
         <v>1762</v>
       </c>
       <c r="F32" s="107" t="s">
@@ -14802,7 +14815,7 @@
       <c r="D35" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="107" t="s">
         <v>3302</v>
       </c>
       <c r="F35" s="107" t="s">
@@ -14821,7 +14834,7 @@
       <c r="D36" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="113" t="s">
         <v>3305</v>
       </c>
       <c r="F36" s="107" t="s">
@@ -14893,7 +14906,7 @@
       <c r="D40" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="107" t="s">
         <v>3317</v>
       </c>
       <c r="F40" s="107" t="s">
@@ -14912,7 +14925,7 @@
       <c r="D41" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="107" t="s">
         <v>3320</v>
       </c>
       <c r="F41" s="113" t="s">
@@ -14969,7 +14982,7 @@
       <c r="D44" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="107" t="s">
         <v>2901</v>
       </c>
       <c r="F44" s="113" t="s">
@@ -14988,7 +15001,7 @@
       <c r="D45" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="107" t="s">
         <v>3340</v>
       </c>
       <c r="F45" s="107" t="s">
@@ -15007,7 +15020,7 @@
       <c r="D46" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="107" t="s">
         <v>2940</v>
       </c>
       <c r="F46" s="107" t="s">
@@ -15064,7 +15077,7 @@
       <c r="D49" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="107" t="s">
         <v>3357</v>
       </c>
       <c r="F49" s="107" t="s">
@@ -15083,7 +15096,7 @@
       <c r="D50" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="107" t="s">
         <v>3362</v>
       </c>
       <c r="F50" s="107" t="s">
@@ -15102,7 +15115,7 @@
       <c r="D51" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="107" t="s">
         <v>2353</v>
       </c>
       <c r="F51" s="107" t="s">
@@ -36062,7 +36075,7 @@
       <c r="E1965" s="79" t="s">
         <v>2087</v>
       </c>
-      <c r="F1965" t="s">
+      <c r="F1965" s="7" t="s">
         <v>1945</v>
       </c>
       <c r="G1965" t="s">
@@ -36099,7 +36112,7 @@
       <c r="F1967" t="s">
         <v>1938</v>
       </c>
-      <c r="G1967" t="s">
+      <c r="G1967" s="3" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -36121,14 +36134,23 @@
       <c r="F1969"/>
       <c r="G1969"/>
     </row>
-    <row r="1970" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1970" s="56"/>
-      <c r="B1970" s="60"/>
-      <c r="C1970" s="60"/>
-      <c r="D1970" s="60"/>
-      <c r="E1970" s="79"/>
-      <c r="F1970"/>
-      <c r="G1970"/>
+      <c r="B1970" s="60">
+        <v>40698</v>
+      </c>
+      <c r="C1970" s="60" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E1970" s="128" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F1970" s="50" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G1970" s="3" t="s">
+        <v>3398</v>
+      </c>
     </row>
     <row r="1971" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1971" s="56"/>
@@ -37608,10 +37630,10 @@
   <conditionalFormatting sqref="F1982">
     <cfRule type="duplicateValues" dxfId="196" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1964:G1977">
+  <conditionalFormatting sqref="G1964:G1969 G1971:G1977">
     <cfRule type="duplicateValues" dxfId="195" priority="142"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1964:F1977">
+  <conditionalFormatting sqref="F1964:F1969 F1971:F1977">
     <cfRule type="duplicateValues" dxfId="194" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1948:G1951">
@@ -38055,7 +38077,7 @@
   <conditionalFormatting sqref="F1122">
     <cfRule type="duplicateValues" dxfId="47" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1251 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1012 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1978 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081">
+  <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1251 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1012 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1969 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081 G1971:G1978">
     <cfRule type="duplicateValues" dxfId="46" priority="15325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2100 G1947 G2004:G2065 G1922:G1925 G1927:G1937 G1978 G727:G731 G1008:G1012 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G271:G287 G289:G291 F288 G293 G348:G349 G387:G388 G390:G395 G400:G413 G572:G582 G712:G714 G718:G721 G476:G478 G825:G826 G780:G786 G747:G762 G735:G743 G815:G821 G830:G831 G849:G850 G828 G857:G862 G1056:G1061 G1322:G1326 G1512:G1515 G1520:G1521 G1671:G1673 G1769 G1881:G1885 G1915:G1919 G1896:G1898 G1054 G823 H1476 G433:G462 G464:G465 G852:G855 G370:G385 G1996:G2002 G1989:G1994 G1983:G1984 G1952:G1962 G1901:G1913 G1892:G1894 G1889 G1859:G1860 G1841:G1856 G1838 G1812:G1833 G1786:G1797 G1719:G1758 G1706:G1717 G1679:G1697 G1634:G1637 G1620:G1632 G1603:G1609 G1616:G1617 G1587:G1600 G1567:G1568 G1546:G1549 G1552:G1565 G1529:G1543 G1491:G1499 G1479:G1482 G1460 G1444:G1458 G1408 G1396:G1402 G1376:G1394 G1358:G1373 G1329:G1330 G1278:G1320 G1276 G1258:G1267 G1248:G1251 G1225:G1237 G1198:G1221 G1193:G1196 G1185:G1187 G1172:G1181 G1168:G1169 G1162:G1165 G1152:G1160 G1133:G1149 G1123:G1130 G1099:G1102 G1089:G1097 G1069:G1076 G1035:G1036 G947:G1006 G927:G944 G893:G898 G901:G921 G871:G879 G864 G890:G891 G841 F840 G657:G658 G661:G662 G664:G709 G653:G655 G586:G589 G485:G567 G415 G417:G422 H356 G345 G846:G847 G331:G342 G267:G268 G354:G368 G769:G776 G600:G643 G1048:G1052 G2092 G2086:G2090 G2083:G2084 G1433:G1436 G1038:G1046 G1332:G1338 G1675:G1677 G1014:G1030 G424:G431 G1404:G1405 G1189 G1484:G1485 G1104:G1120 G1410:G1431 G1078:G1085 G844 G1639:G1656 G205 G480:G481 G1340:G1355 F112 G150:G151 G153 G788:G813 G54 G58 G104:G105 G1799:G1808 G1986:G1987 G1571:G1579 G1658:G1667 G1462:G1465 G2102:G1048576 G1501:G1510 G1523:G1525 G1467:G1476 G1517:G1518 G2068:G2081">
@@ -39105,10 +39127,13 @@
     <hyperlink ref="G2067" r:id="rId1020" xr:uid="{B6FFA508-F8DB-4C6C-B89B-1C36BFE2AA6A}"/>
     <hyperlink ref="G2066" r:id="rId1021" xr:uid="{0733FD5D-57E6-438C-86D5-D396018F3BA9}"/>
     <hyperlink ref="G27" r:id="rId1022" xr:uid="{0AD8B231-67EE-486E-87AA-3562EF894651}"/>
+    <hyperlink ref="G1967" r:id="rId1023" xr:uid="{85175E5C-82A8-4BC7-A603-3B08AB1B4330}"/>
+    <hyperlink ref="G1970" r:id="rId1024" xr:uid="{5A103258-8EDF-435F-8D71-A9A438308C44}"/>
+    <hyperlink ref="F1970" r:id="rId1025" display="https://economicsandliberty.wordpress.com/2011/06/04/further-observations-on-bitcoin-digital-currencies-privacy-and-liberty/" xr:uid="{B98B1CFB-896D-4D49-8752-0FF30D82131F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1023"/>
-  <drawing r:id="rId1024"/>
+  <pageSetup orientation="portrait" r:id="rId1026"/>
+  <drawing r:id="rId1027"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2485D7-DDFB-4164-A5EB-307F579C5741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3C82E7-7876-40D3-9D3F-0487BD3454D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="1545" windowWidth="26640" windowHeight="26655" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="18210" yWindow="3015" windowWidth="22275" windowHeight="11550" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -14308,8 +14308,8 @@
   <dimension ref="A1:Y2172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1942" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1957" sqref="F1957"/>
+      <pane ySplit="3" topLeftCell="A1804" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3C82E7-7876-40D3-9D3F-0487BD3454D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE9B0B-3A8C-4FBB-A548-F39B5401F238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18210" yWindow="3015" windowWidth="22275" windowHeight="11550" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="3480" yWindow="1830" windowWidth="52635" windowHeight="19695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
-    <sheet name="BTC Theory" sheetId="5" r:id="rId2"/>
-    <sheet name="Beautyon" sheetId="4" r:id="rId3"/>
-    <sheet name="Other Articles" sheetId="2" r:id="rId4"/>
-    <sheet name="Formal Papers" sheetId="3" r:id="rId5"/>
+    <sheet name="TMSR" sheetId="6" r:id="rId2"/>
+    <sheet name="BTC Theory" sheetId="5" r:id="rId3"/>
+    <sheet name="Beautyon" sheetId="4" r:id="rId4"/>
+    <sheet name="Other Articles" sheetId="2" r:id="rId5"/>
+    <sheet name="Formal Papers" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Beautyon!$A$3:$F$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Beautyon!$A$3:$F$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitcoin!$A$3:$I$2172</definedName>
     <definedName name="_Toc4426525" localSheetId="0">Bitcoin!$F$603</definedName>
     <definedName name="_Toc4426535" localSheetId="0">Bitcoin!$F$612</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4922" uniqueCount="3402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="3406">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10250,6 +10251,18 @@
   </si>
   <si>
     <t>Email Sent</t>
+  </si>
+  <si>
+    <t>TMSR Blogs</t>
+  </si>
+  <si>
+    <t>Rusty Russel</t>
+  </si>
+  <si>
+    <t>57 Varieties of Pyrite: Exchanges Are Now The Enemy of Bitcoin</t>
+  </si>
+  <si>
+    <t>https://rusty.ozlabs.org/?p=607</t>
   </si>
 </sst>
 </file>
@@ -10782,7 +10795,17 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="308">
+  <dxfs count="309">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14308,8 +14331,8 @@
   <dimension ref="A1:Y2172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1804" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,16 +14447,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="89" t="s">
+        <v>3391</v>
+      </c>
       <c r="B8" s="56"/>
       <c r="C8" s="75"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56" t="s">
-        <v>3368</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3367</v>
+        <v>3396</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14442,12 +14467,6 @@
       <c r="C9" s="75"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3369</v>
-      </c>
     </row>
     <row r="10" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -14455,24 +14474,22 @@
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3370</v>
-      </c>
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="74">
+        <v>43978</v>
+      </c>
       <c r="C11" s="75"/>
       <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56" t="s">
-        <v>3381</v>
+      <c r="E11" s="56" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>3404</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>3371</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14481,12 +14498,6 @@
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
-      <c r="F12" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3372</v>
-      </c>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -14494,12 +14505,6 @@
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3373</v>
-      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -14507,12 +14512,6 @@
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3374</v>
-      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
@@ -14520,12 +14519,6 @@
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3375</v>
-      </c>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
@@ -14533,12 +14526,6 @@
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3376</v>
-      </c>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
@@ -14546,12 +14533,6 @@
       <c r="C17" s="75"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3377</v>
-      </c>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
@@ -14559,12 +14540,6 @@
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3378</v>
-      </c>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
@@ -14572,12 +14547,6 @@
       <c r="C19" s="75"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>3379</v>
-      </c>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
@@ -14585,12 +14554,6 @@
       <c r="C20" s="75"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
-      <c r="F20" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3370</v>
-      </c>
     </row>
     <row r="21" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
@@ -14598,12 +14561,6 @@
       <c r="C21" s="75"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
-      <c r="F21" s="56" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3380</v>
-      </c>
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
@@ -14614,21 +14571,7 @@
       <c r="F22" s="56"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>3391</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56" t="s">
-        <v>3396</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>3397</v>
-      </c>
-    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
@@ -37293,816 +37236,816 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1360">
-    <cfRule type="duplicateValues" dxfId="307" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1148">
-    <cfRule type="duplicateValues" dxfId="306" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F579">
-    <cfRule type="duplicateValues" dxfId="305" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G729:G730">
-    <cfRule type="duplicateValues" dxfId="304" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B729:F730">
-    <cfRule type="duplicateValues" dxfId="303" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G731">
-    <cfRule type="duplicateValues" dxfId="302" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G738">
-    <cfRule type="duplicateValues" dxfId="301" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B738:F738">
-    <cfRule type="duplicateValues" dxfId="300" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G739">
-    <cfRule type="duplicateValues" dxfId="299" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B739:F739">
-    <cfRule type="duplicateValues" dxfId="298" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G823">
-    <cfRule type="duplicateValues" dxfId="297" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B823:F823">
-    <cfRule type="duplicateValues" dxfId="296" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G916">
-    <cfRule type="duplicateValues" dxfId="295" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B916:F916">
-    <cfRule type="duplicateValues" dxfId="294" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G939">
-    <cfRule type="duplicateValues" dxfId="293" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="245"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B939:F939">
-    <cfRule type="duplicateValues" dxfId="292" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G954:G955">
-    <cfRule type="duplicateValues" dxfId="291" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B954:F955">
-    <cfRule type="duplicateValues" dxfId="290" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1026:G1028">
-    <cfRule type="duplicateValues" dxfId="289" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1026:F1028">
-    <cfRule type="duplicateValues" dxfId="288" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1045:G1046 G1042">
-    <cfRule type="duplicateValues" dxfId="287" priority="3819"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="3819"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1045:F1046 B1042:F1042">
-    <cfRule type="duplicateValues" dxfId="286" priority="3821"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="3821"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1074:G1076 G1078:G1085">
-    <cfRule type="duplicateValues" dxfId="285" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="235"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1074:F1074 B1085:F1085 B1075:E1084">
-    <cfRule type="duplicateValues" dxfId="284" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1091">
-    <cfRule type="duplicateValues" dxfId="283" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1091:F1091">
-    <cfRule type="duplicateValues" dxfId="282" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1127:G1128">
-    <cfRule type="duplicateValues" dxfId="281" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1127:B1128 D1128:F1128 D1127:E1127">
-    <cfRule type="duplicateValues" dxfId="280" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1134">
-    <cfRule type="duplicateValues" dxfId="279" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1134:F1134">
-    <cfRule type="duplicateValues" dxfId="278" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1164">
-    <cfRule type="duplicateValues" dxfId="277" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1164:F1164">
-    <cfRule type="duplicateValues" dxfId="276" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1198">
-    <cfRule type="duplicateValues" dxfId="275" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1198:F1198">
-    <cfRule type="duplicateValues" dxfId="274" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1220:G1221 G1225:G1230">
-    <cfRule type="duplicateValues" dxfId="273" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1220:F1221 B1225:F1230">
-    <cfRule type="duplicateValues" dxfId="272" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1235">
-    <cfRule type="duplicateValues" dxfId="271" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1235:F1235">
-    <cfRule type="duplicateValues" dxfId="270" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1266">
-    <cfRule type="duplicateValues" dxfId="269" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1266:F1266">
-    <cfRule type="duplicateValues" dxfId="268" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1342">
-    <cfRule type="duplicateValues" dxfId="267" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1342:F1342">
-    <cfRule type="duplicateValues" dxfId="266" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1373">
-    <cfRule type="duplicateValues" dxfId="265" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1373:F1373">
-    <cfRule type="duplicateValues" dxfId="264" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1408">
-    <cfRule type="duplicateValues" dxfId="263" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1408:F1408">
-    <cfRule type="duplicateValues" dxfId="262" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1458">
-    <cfRule type="duplicateValues" dxfId="261" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1458:F1458">
-    <cfRule type="duplicateValues" dxfId="260" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1474:G1475">
-    <cfRule type="duplicateValues" dxfId="259" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1474:F1475">
-    <cfRule type="duplicateValues" dxfId="258" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1512:G1515 G1510">
-    <cfRule type="duplicateValues" dxfId="257" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1510:F1510 B1512:F1515 B1516:E1516">
-    <cfRule type="duplicateValues" dxfId="256" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1563:G1564">
-    <cfRule type="duplicateValues" dxfId="255" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1563:F1564">
-    <cfRule type="duplicateValues" dxfId="254" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1571:G1572">
-    <cfRule type="duplicateValues" dxfId="253" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1571:F1572">
-    <cfRule type="duplicateValues" dxfId="252" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1609">
-    <cfRule type="duplicateValues" dxfId="251" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1609:E1609">
-    <cfRule type="duplicateValues" dxfId="250" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1620">
-    <cfRule type="duplicateValues" dxfId="249" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1620:F1620">
-    <cfRule type="duplicateValues" dxfId="248" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1687">
-    <cfRule type="duplicateValues" dxfId="247" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1687:F1687">
-    <cfRule type="duplicateValues" dxfId="246" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1833">
-    <cfRule type="duplicateValues" dxfId="245" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1833:F1833">
-    <cfRule type="duplicateValues" dxfId="244" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1983:G1984 G1987">
-    <cfRule type="duplicateValues" dxfId="243" priority="4158"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="4158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1798 B1983:F1983 B1987:F1987 B1984:E1984">
-    <cfRule type="duplicateValues" dxfId="242" priority="4160"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="4160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1993">
-    <cfRule type="duplicateValues" dxfId="241" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1993:F1993">
-    <cfRule type="duplicateValues" dxfId="240" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2000:G2002">
-    <cfRule type="duplicateValues" dxfId="239" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2000:F2002">
-    <cfRule type="duplicateValues" dxfId="238" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2033:G2040">
-    <cfRule type="duplicateValues" dxfId="237" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2033:F2040">
-    <cfRule type="duplicateValues" dxfId="236" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2049">
-    <cfRule type="duplicateValues" dxfId="235" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2049:F2049">
-    <cfRule type="duplicateValues" dxfId="234" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2097 G2075:G2081 G2092 G2086:G2090 G2083:G2084">
-    <cfRule type="duplicateValues" dxfId="233" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2075:F2075 B2094:F2097 B2077:F2081 C2076:F2076 B2092:F2092 B2090:D2091 F2090:F2091 B2086:F2089 B2085:D2085 B2083:F2084 B2082:D2082 F2082">
-    <cfRule type="duplicateValues" dxfId="232" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2071">
-    <cfRule type="duplicateValues" dxfId="231" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G817">
-    <cfRule type="duplicateValues" dxfId="230" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F817">
-    <cfRule type="duplicateValues" dxfId="229" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1029">
-    <cfRule type="duplicateValues" dxfId="228" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1029">
-    <cfRule type="duplicateValues" dxfId="227" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1069">
-    <cfRule type="duplicateValues" dxfId="226" priority="4808"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="4808"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1069:F1069">
-    <cfRule type="duplicateValues" dxfId="225" priority="4809"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="4809"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G894:G898 G876:G877 G850">
-    <cfRule type="duplicateValues" dxfId="224" priority="5071"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="5071"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B894:F898 B876:F877 B850:F850">
-    <cfRule type="duplicateValues" dxfId="223" priority="5074"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="5074"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G775:G776">
-    <cfRule type="duplicateValues" dxfId="222" priority="5200"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="5200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B775:F776">
-    <cfRule type="duplicateValues" dxfId="221" priority="5458"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="5458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G396:G399">
-    <cfRule type="duplicateValues" dxfId="220" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G808:G809">
-    <cfRule type="duplicateValues" dxfId="219" priority="5585"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="5585"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B808:F809">
-    <cfRule type="duplicateValues" dxfId="218" priority="5587"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="5587"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E400:E413 E415 E418:E419 E428:E431 E421:E426 F420">
-    <cfRule type="duplicateValues" dxfId="217" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G565:G567 G572:G573 G476:G477 G481">
-    <cfRule type="duplicateValues" dxfId="216" priority="5726"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="5726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G432">
-    <cfRule type="duplicateValues" dxfId="215" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F432">
-    <cfRule type="duplicateValues" dxfId="214" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F858:F862">
-    <cfRule type="containsText" dxfId="213" priority="161" operator="containsText" text="bitcoin">
+    <cfRule type="containsText" dxfId="214" priority="161" operator="containsText" text="bitcoin">
       <formula>NOT(ISERROR(SEARCH("bitcoin",F858)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375">
-    <cfRule type="duplicateValues" dxfId="212" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F369">
-    <cfRule type="duplicateValues" dxfId="211" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="duplicateValues" dxfId="210" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G369">
-    <cfRule type="duplicateValues" dxfId="209" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1014">
-    <cfRule type="duplicateValues" dxfId="208" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E719">
-    <cfRule type="duplicateValues" dxfId="207" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1909:F1913">
-    <cfRule type="duplicateValues" dxfId="206" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1922 G1915:G1919 G1909:G1913">
-    <cfRule type="duplicateValues" dxfId="205" priority="7722"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="7722"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1922:F1922 B1915:F1918 B1919:E1919 B1909:E1913">
-    <cfRule type="duplicateValues" dxfId="204" priority="7726"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="7726"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2003">
-    <cfRule type="duplicateValues" dxfId="203" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2003">
-    <cfRule type="duplicateValues" dxfId="202" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1995">
-    <cfRule type="duplicateValues" dxfId="201" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1995">
-    <cfRule type="duplicateValues" dxfId="200" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1988">
-    <cfRule type="duplicateValues" dxfId="199" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1988">
-    <cfRule type="duplicateValues" dxfId="198" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1982">
-    <cfRule type="duplicateValues" dxfId="197" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1982">
-    <cfRule type="duplicateValues" dxfId="196" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1964:G1969 G1971:G1977">
-    <cfRule type="duplicateValues" dxfId="195" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1964:F1969 F1971:F1977">
-    <cfRule type="duplicateValues" dxfId="194" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1948:G1951">
-    <cfRule type="duplicateValues" dxfId="193" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1948:F1951">
-    <cfRule type="duplicateValues" dxfId="192" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1943:G1945 G1939">
-    <cfRule type="duplicateValues" dxfId="191" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1943:F1945 F1939">
-    <cfRule type="duplicateValues" dxfId="190" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1926">
-    <cfRule type="duplicateValues" dxfId="189" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1926">
-    <cfRule type="duplicateValues" dxfId="188" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1899:G1900">
-    <cfRule type="duplicateValues" dxfId="187" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1899:F1900">
-    <cfRule type="duplicateValues" dxfId="186" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1886 G1890:G1891">
-    <cfRule type="duplicateValues" dxfId="185" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1886 F1890:F1891">
-    <cfRule type="duplicateValues" dxfId="184" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1857:G1858">
-    <cfRule type="duplicateValues" dxfId="183" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1857:F1858">
-    <cfRule type="duplicateValues" dxfId="182" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1882">
-    <cfRule type="duplicateValues" dxfId="181" priority="7733"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="7733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1882:F1882">
-    <cfRule type="duplicateValues" dxfId="180" priority="7734"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="7734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1862:G1864 G1869:G1880">
-    <cfRule type="duplicateValues" dxfId="179" priority="8447"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="8447"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1869:F1880 F1862:F1865">
-    <cfRule type="duplicateValues" dxfId="178" priority="8789"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="8789"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1839:G1840">
-    <cfRule type="duplicateValues" dxfId="177" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1839:F1840">
-    <cfRule type="duplicateValues" dxfId="176" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1834:G1837">
-    <cfRule type="duplicateValues" dxfId="175" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1834:F1837">
-    <cfRule type="duplicateValues" dxfId="174" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1809:G1811">
-    <cfRule type="duplicateValues" dxfId="173" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1809:F1811">
-    <cfRule type="duplicateValues" dxfId="172" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1901 F1765 F1769 F1786">
-    <cfRule type="duplicateValues" dxfId="171" priority="9496"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="9496"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1777:G1785 G1759:G1760 G1767:G1768">
-    <cfRule type="duplicateValues" dxfId="170" priority="9645"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="9645"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1777:F1785 F1759:F1761 F1767:F1768">
-    <cfRule type="duplicateValues" dxfId="169" priority="9648"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="9648"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1718">
-    <cfRule type="duplicateValues" dxfId="168" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1718">
-    <cfRule type="duplicateValues" dxfId="167" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1678">
-    <cfRule type="duplicateValues" dxfId="166" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1678">
-    <cfRule type="duplicateValues" dxfId="165" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1702 G1698:G1699 G1668:G1670">
-    <cfRule type="duplicateValues" dxfId="164" priority="10003"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="10003"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1702 F1698:F1699 F1668:F1670">
-    <cfRule type="duplicateValues" dxfId="163" priority="10006"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="10006"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1633">
-    <cfRule type="duplicateValues" dxfId="162" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1633">
-    <cfRule type="duplicateValues" dxfId="161" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1618:G1619">
-    <cfRule type="duplicateValues" dxfId="160" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1618:F1619">
-    <cfRule type="duplicateValues" dxfId="159" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1601:G1602">
-    <cfRule type="duplicateValues" dxfId="158" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1601:F1602">
-    <cfRule type="duplicateValues" dxfId="157" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1580:G1586">
-    <cfRule type="duplicateValues" dxfId="156" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1580:F1586">
-    <cfRule type="duplicateValues" dxfId="155" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1566">
-    <cfRule type="duplicateValues" dxfId="154" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1566">
-    <cfRule type="duplicateValues" dxfId="153" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1544:G1545">
-    <cfRule type="duplicateValues" dxfId="152" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1544:F1545">
-    <cfRule type="duplicateValues" dxfId="151" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1511 G1526 G1519">
-    <cfRule type="duplicateValues" dxfId="150" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1511 F1526 F1519">
-    <cfRule type="duplicateValues" dxfId="149" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1489:G1490">
-    <cfRule type="duplicateValues" dxfId="148" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1489:F1490">
-    <cfRule type="duplicateValues" dxfId="147" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1477:G1478">
-    <cfRule type="duplicateValues" dxfId="146" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1477">
-    <cfRule type="duplicateValues" dxfId="145" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1478">
-    <cfRule type="duplicateValues" dxfId="144" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1459">
-    <cfRule type="duplicateValues" dxfId="143" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1459">
-    <cfRule type="duplicateValues" dxfId="142" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1438:G1443">
-    <cfRule type="duplicateValues" dxfId="141" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1438:F1443">
-    <cfRule type="duplicateValues" dxfId="140" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1407">
-    <cfRule type="duplicateValues" dxfId="139" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1407">
-    <cfRule type="duplicateValues" dxfId="138" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1395">
-    <cfRule type="duplicateValues" dxfId="137" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1395">
-    <cfRule type="duplicateValues" dxfId="136" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1374:G1375">
-    <cfRule type="duplicateValues" dxfId="135" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1374:F1375">
-    <cfRule type="duplicateValues" dxfId="134" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1356:G1357">
-    <cfRule type="duplicateValues" dxfId="133" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1356:F1357">
-    <cfRule type="duplicateValues" dxfId="132" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1385:G1387">
-    <cfRule type="duplicateValues" dxfId="131" priority="10007"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="10007"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1385:F1387">
-    <cfRule type="duplicateValues" dxfId="130" priority="10009"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="10009"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1328 G1321">
-    <cfRule type="duplicateValues" dxfId="129" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1328 F1321">
-    <cfRule type="duplicateValues" dxfId="128" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1277">
-    <cfRule type="duplicateValues" dxfId="127" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1277">
-    <cfRule type="duplicateValues" dxfId="126" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1283:G1286">
-    <cfRule type="duplicateValues" dxfId="125" priority="10010"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="10010"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1283:F1286">
-    <cfRule type="duplicateValues" dxfId="124" priority="10011"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="10011"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1268:G1271 G1273:G1275">
-    <cfRule type="duplicateValues" dxfId="123" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1268:F1270 F1272:F1275">
-    <cfRule type="duplicateValues" dxfId="122" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1253:G1257">
-    <cfRule type="duplicateValues" dxfId="121" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1253:F1257">
-    <cfRule type="duplicateValues" dxfId="120" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1238:G1247">
-    <cfRule type="duplicateValues" dxfId="119" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1238:F1247">
-    <cfRule type="duplicateValues" dxfId="118" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1222:G1224">
-    <cfRule type="duplicateValues" dxfId="117" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1222:F1224">
-    <cfRule type="duplicateValues" dxfId="116" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1197">
-    <cfRule type="duplicateValues" dxfId="115" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1197">
-    <cfRule type="duplicateValues" dxfId="114" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1190">
-    <cfRule type="duplicateValues" dxfId="113" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1190">
-    <cfRule type="duplicateValues" dxfId="112" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1182">
-    <cfRule type="duplicateValues" dxfId="111" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1182">
-    <cfRule type="duplicateValues" dxfId="110" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1170:G1171">
-    <cfRule type="duplicateValues" dxfId="109" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1170:F1171">
-    <cfRule type="duplicateValues" dxfId="108" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1166:G1167">
-    <cfRule type="duplicateValues" dxfId="107" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1166:F1167">
-    <cfRule type="duplicateValues" dxfId="106" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1161">
-    <cfRule type="duplicateValues" dxfId="105" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1161">
-    <cfRule type="duplicateValues" dxfId="104" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1150:G1151">
-    <cfRule type="duplicateValues" dxfId="103" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1150:F1151">
-    <cfRule type="duplicateValues" dxfId="102" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1131:G1132">
-    <cfRule type="duplicateValues" dxfId="101" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1131:F1132">
-    <cfRule type="duplicateValues" dxfId="100" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1098">
-    <cfRule type="duplicateValues" dxfId="99" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1086:G1088">
-    <cfRule type="duplicateValues" dxfId="98" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1086:F1088">
-    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1062:G1068">
-    <cfRule type="duplicateValues" dxfId="96" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1062:F1064">
-    <cfRule type="duplicateValues" dxfId="95" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1065:F1068">
-    <cfRule type="duplicateValues" dxfId="94" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1031:G1033">
-    <cfRule type="duplicateValues" dxfId="93" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1031:F1033">
-    <cfRule type="duplicateValues" dxfId="92" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G946">
-    <cfRule type="duplicateValues" dxfId="91" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F946">
-    <cfRule type="duplicateValues" dxfId="90" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G922:G925">
-    <cfRule type="duplicateValues" dxfId="89" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F922:F925">
-    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G892">
-    <cfRule type="duplicateValues" dxfId="87" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F892">
-    <cfRule type="duplicateValues" dxfId="86" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G880 G883:G889">
-    <cfRule type="duplicateValues" dxfId="85" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F880:F889">
-    <cfRule type="duplicateValues" dxfId="84" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G865:G868">
-    <cfRule type="duplicateValues" dxfId="83" priority="10443"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="10443"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F865:F873">
-    <cfRule type="duplicateValues" dxfId="82" priority="10445"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="10445"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G863">
-    <cfRule type="duplicateValues" dxfId="81" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F863">
-    <cfRule type="duplicateValues" dxfId="80" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G832:G839">
-    <cfRule type="duplicateValues" dxfId="79" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F832:F834 F836:F839">
-    <cfRule type="duplicateValues" dxfId="78" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G722">
-    <cfRule type="duplicateValues" dxfId="77" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F722">
-    <cfRule type="duplicateValues" dxfId="76" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G586:G587 G657:G658">
-    <cfRule type="duplicateValues" dxfId="75" priority="10446"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="10446"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:F587 B590:F590 B657:F658 B591:E599">
-    <cfRule type="duplicateValues" dxfId="74" priority="10448"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="10448"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B482:G482">
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466">
-    <cfRule type="duplicateValues" dxfId="72" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E466">
-    <cfRule type="duplicateValues" dxfId="71" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F466">
-    <cfRule type="duplicateValues" dxfId="70" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F416:G416">
-    <cfRule type="duplicateValues" dxfId="69" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F416">
-    <cfRule type="duplicateValues" dxfId="68" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B901:B908 B870:B872 B864">
-    <cfRule type="duplicateValues" dxfId="67" priority="11461"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="11461"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1370">
-    <cfRule type="duplicateValues" dxfId="66" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F845">
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="64" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="63" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G845">
-    <cfRule type="duplicateValues" dxfId="62" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G300">
-    <cfRule type="duplicateValues" dxfId="58" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G583 G656">
-    <cfRule type="duplicateValues" dxfId="57" priority="14322"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="14322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F583 F656">
-    <cfRule type="duplicateValues" dxfId="56" priority="14324"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="14324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F864">
-    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G713:G714">
-    <cfRule type="duplicateValues" dxfId="53" priority="15266"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="15266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B713:F714">
-    <cfRule type="duplicateValues" dxfId="52" priority="15267"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="15267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B731:F731">
-    <cfRule type="duplicateValues" dxfId="50" priority="15268"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="15268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1127">
-    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1122">
-    <cfRule type="duplicateValues" dxfId="48" priority="15323"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="15323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1122">
-    <cfRule type="duplicateValues" dxfId="47" priority="15324"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="15324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1251 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1012 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1969 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081 G1971:G1978">
-    <cfRule type="duplicateValues" dxfId="46" priority="15325"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="15325"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:G2100 G1947 G2004:G2065 G1922:G1925 G1927:G1937 G1978 G727:G731 G1008:G1012 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G271:G287 G289:G291 F288 G293 G348:G349 G387:G388 G390:G395 G400:G413 G572:G582 G712:G714 G718:G721 G476:G478 G825:G826 G780:G786 G747:G762 G735:G743 G815:G821 G830:G831 G849:G850 G828 G857:G862 G1056:G1061 G1322:G1326 G1512:G1515 G1520:G1521 G1671:G1673 G1769 G1881:G1885 G1915:G1919 G1896:G1898 G1054 G823 H1476 G433:G462 G464:G465 G852:G855 G370:G385 G1996:G2002 G1989:G1994 G1983:G1984 G1952:G1962 G1901:G1913 G1892:G1894 G1889 G1859:G1860 G1841:G1856 G1838 G1812:G1833 G1786:G1797 G1719:G1758 G1706:G1717 G1679:G1697 G1634:G1637 G1620:G1632 G1603:G1609 G1616:G1617 G1587:G1600 G1567:G1568 G1546:G1549 G1552:G1565 G1529:G1543 G1491:G1499 G1479:G1482 G1460 G1444:G1458 G1408 G1396:G1402 G1376:G1394 G1358:G1373 G1329:G1330 G1278:G1320 G1276 G1258:G1267 G1248:G1251 G1225:G1237 G1198:G1221 G1193:G1196 G1185:G1187 G1172:G1181 G1168:G1169 G1162:G1165 G1152:G1160 G1133:G1149 G1123:G1130 G1099:G1102 G1089:G1097 G1069:G1076 G1035:G1036 G947:G1006 G927:G944 G893:G898 G901:G921 G871:G879 G864 G890:G891 G841 F840 G657:G658 G661:G662 G664:G709 G653:G655 G586:G589 G485:G567 G415 G417:G422 H356 G345 G846:G847 G331:G342 G267:G268 G354:G368 G769:G776 G600:G643 G1048:G1052 G2092 G2086:G2090 G2083:G2084 G1433:G1436 G1038:G1046 G1332:G1338 G1675:G1677 G1014:G1030 G424:G431 G1404:G1405 G1189 G1484:G1485 G1104:G1120 G1410:G1431 G1078:G1085 G844 G1639:G1656 G205 G480:G481 G1340:G1355 F112 G150:G151 G153 G788:G813 G54 G58 G104:G105 G1799:G1808 G1986:G1987 G1571:G1579 G1658:G1667 G1462:G1465 G2102:G1048576 G1501:G1510 G1523:G1525 G1467:G1476 G1517:G1518 G2068:G2081">
-    <cfRule type="duplicateValues" dxfId="45" priority="15388"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="15388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2098:G2100 G581:G582 G1947 G2041:G2048 G721 G852:G855 G712 G1923:G1925 G1927:G1937 G1978 G1855:G1856 G749:G758 G960:G962 G1851 G1709:G1713 G1728:G1755 G1758 G1769 G1640:G1645 G1665 G1650:G1656 G1648 G1397 G1445:G1455 G1457 G1216:G1219 G1213 G1092:G1097 G1193:G1196 G1089 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G427 G271:G287 G289:G291 F288 G293 G348:G349 G560:G564 G600 G538:G557 G1041 G1043 G830 G825:G826 G821 G815:G816 G1603:G1607 G1579 G1503:G1509 G1538:G1543 G1368:G1372 G1358:G1362 G1364:G1366 G1281:G1282 G1330 G1414:G1422 G1427:G1431 G1805:G1808 G1679:G1686 G1553:G1555 G1558 G1560:G1562 G1819:G1824 G1827:G1832 G1838 G1843:G1849 G1790:G1796 G1715:G1717 G1496:G1499 G1129:G1130 G1149 G1324 G1525 G1473 G1341 G1262:G1265 G1523 G1025 G1124 G1237 G1695 G1799:G1802 G1813 G964:G966 G968:G972 G974:G1006 G1008:G1012 G1160 G1350:G1352 G1049:G1052 G1056:G1061 G1101:G1102 G1054 G938 G949 G951:G953 G913:G915 G917:G921 G819 G803:G807 G780:G785 G574:G575 G1030 G1070:G1073 G1135 G1165 G1199:G1209 G1231:G1234 G1267 G1287:G1320 G1343:G1348 G1376:G1384 G1460 G1517:G1518 G1520 G1565 G1573:G1577 G1688:G1693 G1881 G1883:G1885 G1896:G1898 G1989:G1992 G1994 G2004:G2032 G2050:G2065 G2115:G2120 G2124:G1048576 G849 G879 G1986 G602:G643 G577:G579 G661:G662 G588:G589 G664:G705 G707:G709 G735 G788:G800 G770:G773 G846:G847 G857:G862 G828 G1476:H1476 G901:G910 G871:G875 G864 G370:G383 G417 G1996:G1999 G1952:G1962 G1901:G1908 G1892:G1894 G1889 G1859:G1860 G1841 G1786:G1788 G1719:G1724 G1588:G1600 G1567:G1568 G1546 G1529:G1535 G1491:G1494 G1479:G1482 G1278:G1279 G1276 G1258 G1248:G1251 G1185:G1186 G1172:G1181 G1168:G1169 G1162:G1163 G1152:G1157 G1133 G1035:G1036 G927:G932 G893 G890:G891 G653:G655 H356 G345 G331:G342 G267:G268 G354:G368 G1433:G1436 G1038:G1039 G1332:G1338 G1014:G1023 G1484:G1485 G1104:G1120 G205 F112 G150:G151 G153 G54 G58 G104:G105 G1658:G1662 G1462:G1465 G2102:G2113 G1501 G1467:G1469 G2068:G2074">
-    <cfRule type="duplicateValues" dxfId="44" priority="15537"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="15537"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2173:F1048576 F580:F582 F1947 F721 B852 F1989:F1992 F1883:F1885 F1896:F1898 F1902:F1908 F749:F760 F960:F962 F1558 G1578 F1092:F1097 F1216:F1218 F1460:F1467 F1213 F301:F308 F297:F299 F208:F219 F715 F427 F271 F289:F291 F293 F348:F350 F559 F577:F578 F600 F538:F557 F936:F937 F964:F966 F968:F972 F949:F953 F830 F825:F826 F821 F803:F807 F780:F785 F815:F816 F914:F915 F917:F921 F912 F1679:F1680 F1805:F1808 F1828 F1847:F1849 F1854:F1856 F1851:F1852 F1640:F1645 F1665 F1650:F1659 F1648 F1523 F1525 F1538:F1540 F1719:F1724 F1590:F1600 F1603 F1605 F1696 F1492:F1493 F1503:F1507 F1361:F1366 F1368:F1369 F1448:F1453 F1455 F1471:F1473 F1499 F1469 F1434 F1428 F978:F1006 F1008:F1013 F1304:F1318 F1329:F1330 F1162:F1163 F1812:F1814 F1821 F1397 F1413:F1425 F1399 F1390 F1152:F1159 B2098:B2120 B2124:B2172 B794 F1509 F1542:F1543 F1553 F1043:F1044 F1041 F1037:F1039 F1193:F1196 F1204:F1209 F1518 F1728:F1734 F1737:F1754 F1823:F1824 F1276 F1372 F1262:F1265 F1323 F1237 F795:F800 F849 F879 F853:F855 F1049:F1052 F1056:F1061 F1101:F1102 F1054 F1089 F1070:F1073 F1165 F1199:F1200 F1343:F1351 F1358:F1359 F1376:F1384 F1479 F1923:F1925 F1994 F2004:F2032 F2041:F2048 F2050:F2059 F818:F819 F602:F643 F661:F662 F588:F589 F664:F705 F707:F709 F712 F735 F1015:F1023 F788:F793 F770:F773 F846:F847 F858:F862 F873:F875 F417 F376 F378:F383 F899 F370:F374 F368 F1934:F1937 F1980:F1981 F1795:F1797 F1799:F1802 F901:F910 F1996:F1999 F1952:F1962 F1892:F1894 F1889 F1859:F1860 F1706:F1715 F1529:F1535 F1258 F1248:F1252 F1183 F1172:F1181 F1168:F1169 F1099 F927:F932 F893 F890:F891 F653:F655 F1430:F1432 F1436:F1437 F1483:F1488 F584 F1353:F1355 F318:F324 F326:F327 F310:F316 F329:F345 F286:F287 F2061:F2074 F280:F281 F278 F273:F275 F283:F284 F265:F268 F257:F261 F354:F366 F247:F255 F263 F223:F224 F236:F241 F158 F1332:F1338 F1104:F1121 F1185:F1186 F160:F173 F175:F176 F178 F1340:F1341 F182:F183 F185 F187:F190 F205 F113:F132 F134:F146 F1550 F148:F154 F66:F75 F77:F79 F81:F89 F91:F111 F42:F43 F717:F718 F28:F40 F45:F64 F842 F723 F1:F26">
-    <cfRule type="duplicateValues" dxfId="43" priority="15538"/>
+  <conditionalFormatting sqref="F2173:F1048576 F580:F582 F1947 F721 B852 F1989:F1992 F1883:F1885 F1896:F1898 F1902:F1908 F749:F760 F960:F962 F1558 G1578 F1092:F1097 F1216:F1218 F1460:F1467 F1213 F301:F308 F297:F299 F208:F219 F715 F427 F271 F289:F291 F293 F348:F350 F559 F577:F578 F600 F538:F557 F936:F937 F964:F966 F968:F972 F949:F953 F830 F825:F826 F821 F803:F807 F780:F785 F815:F816 F914:F915 F917:F921 F912 F1679:F1680 F1805:F1808 F1828 F1847:F1849 F1854:F1856 F1851:F1852 F1640:F1645 F1665 F1650:F1659 F1648 F1523 F1525 F1538:F1540 F1719:F1724 F1590:F1600 F1603 F1605 F1696 F1492:F1493 F1503:F1507 F1361:F1366 F1368:F1369 F1448:F1453 F1455 F1471:F1473 F1499 F1469 F1434 F1428 F978:F1006 F1008:F1013 F1304:F1318 F1329:F1330 F1162:F1163 F1812:F1814 F1821 F1397 F1413:F1425 F1399 F1390 F1152:F1159 B2098:B2120 B2124:B2172 B794 F1509 F1542:F1543 F1553 F1043:F1044 F1041 F1037:F1039 F1193:F1196 F1204:F1209 F1518 F1728:F1734 F1737:F1754 F1823:F1824 F1276 F1372 F1262:F1265 F1323 F1237 F795:F800 F849 F879 F853:F855 F1049:F1052 F1056:F1061 F1101:F1102 F1054 F1089 F1070:F1073 F1165 F1199:F1200 F1343:F1351 F1358:F1359 F1376:F1384 F1479 F1923:F1925 F1994 F2004:F2032 F2041:F2048 F2050:F2059 F818:F819 F602:F643 F661:F662 F588:F589 F664:F705 F707:F709 F712 F735 F1015:F1023 F788:F793 F770:F773 F846:F847 F858:F862 F873:F875 F417 F376 F378:F383 F899 F370:F374 F368 F1934:F1937 F1980:F1981 F1795:F1797 F1799:F1802 F901:F910 F1996:F1999 F1952:F1962 F1892:F1894 F1889 F1859:F1860 F1706:F1715 F1529:F1535 F1258 F1248:F1252 F1183 F1172:F1181 F1168:F1169 F1099 F927:F932 F893 F890:F891 F653:F655 F1430:F1432 F1436:F1437 F1483:F1488 F584 F1353:F1355 F318:F324 F326:F327 F310:F316 F329:F345 F286:F287 F2061:F2074 F280:F281 F278 F273:F275 F283:F284 F265:F268 F257:F261 F354:F366 F247:F255 F263 F223:F224 F236:F241 F158 F1332:F1338 F1104:F1121 F1185:F1186 F160:F173 F175:F176 F178 F1340:F1341 F182:F183 F185 F187:F190 F205 F113:F132 F134:F146 F1550 F148:F154 F66:F75 F77:F79 F81:F89 F91:F111 F42:F43 F717:F718 F28:F40 F45:F64 F842 F723 F24:F26 F1:F8 F22">
+    <cfRule type="duplicateValues" dxfId="44" priority="15538"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1963">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1963">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2072" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -39123,13 +39066,13 @@
     <hyperlink ref="G51" r:id="rId1016" xr:uid="{A3AAAA26-B09B-4F92-9FFB-9B2C1AEDFB9C}"/>
     <hyperlink ref="F1516" r:id="rId1017" tooltip="Permanent Link to On selling bitcoin, the idea." display="http://thewhet.net/2014/08/on-selling-bitcoin-the-idea/" xr:uid="{73500B89-6D2B-44F7-930B-E6B1A9A32521}"/>
     <hyperlink ref="G1516" r:id="rId1018" xr:uid="{272874E1-0504-4C08-A337-BE91232C48F9}"/>
-    <hyperlink ref="G8" r:id="rId1019" xr:uid="{5549BA96-D05D-4B55-B82B-F4BC08E697A0}"/>
-    <hyperlink ref="G2067" r:id="rId1020" xr:uid="{B6FFA508-F8DB-4C6C-B89B-1C36BFE2AA6A}"/>
-    <hyperlink ref="G2066" r:id="rId1021" xr:uid="{0733FD5D-57E6-438C-86D5-D396018F3BA9}"/>
-    <hyperlink ref="G27" r:id="rId1022" xr:uid="{0AD8B231-67EE-486E-87AA-3562EF894651}"/>
-    <hyperlink ref="G1967" r:id="rId1023" xr:uid="{85175E5C-82A8-4BC7-A603-3B08AB1B4330}"/>
-    <hyperlink ref="G1970" r:id="rId1024" xr:uid="{5A103258-8EDF-435F-8D71-A9A438308C44}"/>
-    <hyperlink ref="F1970" r:id="rId1025" display="https://economicsandliberty.wordpress.com/2011/06/04/further-observations-on-bitcoin-digital-currencies-privacy-and-liberty/" xr:uid="{B98B1CFB-896D-4D49-8752-0FF30D82131F}"/>
+    <hyperlink ref="G2067" r:id="rId1019" xr:uid="{B6FFA508-F8DB-4C6C-B89B-1C36BFE2AA6A}"/>
+    <hyperlink ref="G2066" r:id="rId1020" xr:uid="{0733FD5D-57E6-438C-86D5-D396018F3BA9}"/>
+    <hyperlink ref="G27" r:id="rId1021" xr:uid="{0AD8B231-67EE-486E-87AA-3562EF894651}"/>
+    <hyperlink ref="G1967" r:id="rId1022" xr:uid="{85175E5C-82A8-4BC7-A603-3B08AB1B4330}"/>
+    <hyperlink ref="G1970" r:id="rId1023" xr:uid="{5A103258-8EDF-435F-8D71-A9A438308C44}"/>
+    <hyperlink ref="F1970" r:id="rId1024" display="https://economicsandliberty.wordpress.com/2011/06/04/further-observations-on-bitcoin-digital-currencies-privacy-and-liberty/" xr:uid="{B98B1CFB-896D-4D49-8752-0FF30D82131F}"/>
+    <hyperlink ref="G11" r:id="rId1025" xr:uid="{99E666DE-789C-49A9-9E5A-5C0AD69208C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1026"/>
@@ -39138,16 +39081,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E5BED-1E1E-4DBA-908F-8E269998423F}">
-  <dimension ref="C3:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF6CC8-4095-4641-947D-1561A3BD8C4C}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="56" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="56" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B17">
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{5549BA96-D05D-4B55-B82B-F4BC08E697A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E5BED-1E1E-4DBA-908F-8E269998423F}">
+  <dimension ref="C3:D37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="87.85546875" customWidth="1"/>
     <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39411,7 +39496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3B6BD-D660-40F9-A99C-EA5220986F4F}">
   <dimension ref="A1:F177"/>
   <sheetViews>
@@ -42182,7 +42267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E29D8-AE95-413C-9C43-D79E15372FC2}">
   <dimension ref="A1:G153"/>
   <sheetViews>
@@ -44555,7 +44640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE0EE7-0DB3-4B65-AB70-EECE9B373108}">
   <dimension ref="A4:H9"/>
   <sheetViews>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE9B0B-3A8C-4FBB-A548-F39B5401F238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81A7F9-8D17-4F96-AC0B-286F757F8C70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1830" windowWidth="52635" windowHeight="19695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="16680" yWindow="945" windowWidth="28515" windowHeight="19695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="3406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="3424">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10263,6 +10263,60 @@
   </si>
   <si>
     <t>https://rusty.ozlabs.org/?p=607</t>
+  </si>
+  <si>
+    <t>https://medium.com/breathe-publication/a-dance-with-infinity-980bd8e9a781</t>
+  </si>
+  <si>
+    <t>Guess My Bitcoin Private Key</t>
+  </si>
+  <si>
+    <t>https://twitter.com/kerbleski</t>
+  </si>
+  <si>
+    <t>https://coldbit.com/can-bip-39-passphrase-be-cracked/</t>
+  </si>
+  <si>
+    <t>Can BIP-39 passphrase be cracked ?</t>
+  </si>
+  <si>
+    <t>ColdBit</t>
+  </si>
+  <si>
+    <t>The physics of brute force</t>
+  </si>
+  <si>
+    <t>https://pthree.org/2016/06/19/the-physics-of-brute-force/</t>
+  </si>
+  <si>
+    <t>Mining for the Streets </t>
+  </si>
+  <si>
+    <t>https://keybase.pub/diverterbtc/Mining%20for%20the%20Streets%20(4)%20(1).pdf</t>
+  </si>
+  <si>
+    <t>The Dos and Don'ts of Bitcoin Key Management</t>
+  </si>
+  <si>
+    <t>https://blog.keys.casa/the-dos-and-donts-of-bitcoin-key-management/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/diverternokyc</t>
+  </si>
+  <si>
+    <t>https://thisisnewmoney.substack.com/p/a-peaceful-protest-opt-out-buy-bitcoin</t>
+  </si>
+  <si>
+    <t>A Peaceful Protest: Opt-Out, Buy Bitcoin</t>
+  </si>
+  <si>
+    <t>https://twitter.com/callmethebear</t>
+  </si>
+  <si>
+    <t>https://www.blockwaresolutions.com/research-and-publications/mining-bitcoin-vs-buy-amp-hold-bitcoin-which-is-the-optimal-strategy-to-capture-the-long-term-opportunity</t>
+  </si>
+  <si>
+    <t>Mining Bitcoin vs Buy &amp; Hold Bitcoin – Which is the Optimal Strategy to Capture the Long-Term Opportunity?</t>
   </si>
 </sst>
 </file>
@@ -14332,7 +14386,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14497,28 +14551,60 @@
       <c r="B12" s="56"/>
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3415</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="75"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3417</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="E14" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>3420</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3419</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="74">
+        <v>43953</v>
+      </c>
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
+      <c r="F15" s="46" t="s">
+        <v>3423</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3422</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
@@ -20936,9 +21022,18 @@
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B471" s="32"/>
-      <c r="F471" s="3"/>
-      <c r="G471" s="3"/>
+      <c r="B471" s="32">
+        <v>43626</v>
+      </c>
+      <c r="E471" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>3409</v>
+      </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
@@ -27176,6 +27271,20 @@
         <v>572</v>
       </c>
     </row>
+    <row r="1012" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1012" s="32">
+        <v>43006</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>3406</v>
+      </c>
+    </row>
     <row r="1013" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1013" s="32">
         <v>42994</v>
@@ -29296,11 +29405,18 @@
       </c>
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1225" s="60"/>
+      <c r="B1225" s="60">
+        <v>42540</v>
+      </c>
       <c r="C1225" s="60"/>
       <c r="D1225" s="60"/>
       <c r="E1225" s="60"/>
-      <c r="F1225" s="60"/>
+      <c r="F1225" s="60" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G1225" s="3" t="s">
+        <v>3413</v>
+      </c>
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1226" s="60"/>
@@ -37337,7 +37453,7 @@
   <conditionalFormatting sqref="B1198:F1198">
     <cfRule type="duplicateValues" dxfId="275" priority="226"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1220:G1221 G1225:G1230">
+  <conditionalFormatting sqref="G1220:G1221 G1226:G1230">
     <cfRule type="duplicateValues" dxfId="274" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1220:F1221 B1225:F1230">
@@ -38020,13 +38136,13 @@
   <conditionalFormatting sqref="F1122">
     <cfRule type="duplicateValues" dxfId="48" priority="15324"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1251 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1012 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1969 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081 G1971:G1978">
+  <conditionalFormatting sqref="G2094:G2100 G1407:G1408 G841 F840 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G348:G349 G271:G287 G289:G291 F288 G293 G345 G846:G868 G331:G342 G267:G268 G354:G422 G871:G880 G747:G762 G653:G658 G661:G714 G718:G722 G716 G769:G778 G600:G643 G485:G589 G476:G478 G1777:G1797 G1273:G1330 G1048:G1076 G1193:G1224 G2092 G2086:G2090 G2083:G2084 G1035:G1036 G901:G925 G1438:G1460 G1185:G1187 G1433:G1436 G883:G898 G1038:G1046 G1332:G1338 G1675:G1760 G927:G944 G1014:G1033 G946:G1011 G424:G467 G1404:G1405 G1189:G1190 G1484:G1485 G1552:G1568 G1104:G1120 G1410:G1431 G725:G743 G1078:G1102 G844 G1639:G1656 G1122:G1182 G205 G480:G482 G1340:G1402 F112 G150:G151 G153 G1253:G1271 G788:G839 G54 G58 G104:G105 G780:G786 G1799:G1962 G1982:G1984 G1964:G1969 G1986:G2065 G1767:G1772 G1489:G1499 G1571:G1637 G1658:G1673 G1462:G1465 G1762:G1764 G2102:G1048576 G1501:G1515 G1523:G1549 G1467:G1482 G1517:G1521 G2068:G2081 G1971:G1978 G1226:G1251">
     <cfRule type="duplicateValues" dxfId="47" priority="15325"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2094:G2100 G1947 G2004:G2065 G1922:G1925 G1927:G1937 G1978 G727:G731 G1008:G1012 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G271:G287 G289:G291 F288 G293 G348:G349 G387:G388 G390:G395 G400:G413 G572:G582 G712:G714 G718:G721 G476:G478 G825:G826 G780:G786 G747:G762 G735:G743 G815:G821 G830:G831 G849:G850 G828 G857:G862 G1056:G1061 G1322:G1326 G1512:G1515 G1520:G1521 G1671:G1673 G1769 G1881:G1885 G1915:G1919 G1896:G1898 G1054 G823 H1476 G433:G462 G464:G465 G852:G855 G370:G385 G1996:G2002 G1989:G1994 G1983:G1984 G1952:G1962 G1901:G1913 G1892:G1894 G1889 G1859:G1860 G1841:G1856 G1838 G1812:G1833 G1786:G1797 G1719:G1758 G1706:G1717 G1679:G1697 G1634:G1637 G1620:G1632 G1603:G1609 G1616:G1617 G1587:G1600 G1567:G1568 G1546:G1549 G1552:G1565 G1529:G1543 G1491:G1499 G1479:G1482 G1460 G1444:G1458 G1408 G1396:G1402 G1376:G1394 G1358:G1373 G1329:G1330 G1278:G1320 G1276 G1258:G1267 G1248:G1251 G1225:G1237 G1198:G1221 G1193:G1196 G1185:G1187 G1172:G1181 G1168:G1169 G1162:G1165 G1152:G1160 G1133:G1149 G1123:G1130 G1099:G1102 G1089:G1097 G1069:G1076 G1035:G1036 G947:G1006 G927:G944 G893:G898 G901:G921 G871:G879 G864 G890:G891 G841 F840 G657:G658 G661:G662 G664:G709 G653:G655 G586:G589 G485:G567 G415 G417:G422 H356 G345 G846:G847 G331:G342 G267:G268 G354:G368 G769:G776 G600:G643 G1048:G1052 G2092 G2086:G2090 G2083:G2084 G1433:G1436 G1038:G1046 G1332:G1338 G1675:G1677 G1014:G1030 G424:G431 G1404:G1405 G1189 G1484:G1485 G1104:G1120 G1410:G1431 G1078:G1085 G844 G1639:G1656 G205 G480:G481 G1340:G1355 F112 G150:G151 G153 G788:G813 G54 G58 G104:G105 G1799:G1808 G1986:G1987 G1571:G1579 G1658:G1667 G1462:G1465 G2102:G1048576 G1501:G1510 G1523:G1525 G1467:G1476 G1517:G1518 G2068:G2081">
+  <conditionalFormatting sqref="G2094:G2100 G1947 G2004:G2065 G1922:G1925 G1927:G1937 G1978 G727:G731 G1008:G1011 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G271:G287 G289:G291 F288 G293 G348:G349 G387:G388 G390:G395 G400:G413 G572:G582 G712:G714 G718:G721 G476:G478 G825:G826 G780:G786 G747:G762 G735:G743 G815:G821 G830:G831 G849:G850 G828 G857:G862 G1056:G1061 G1322:G1326 G1512:G1515 G1520:G1521 G1671:G1673 G1769 G1881:G1885 G1915:G1919 G1896:G1898 G1054 G823 H1476 G433:G462 G464:G465 G852:G855 G370:G385 G1996:G2002 G1989:G1994 G1983:G1984 G1952:G1962 G1901:G1913 G1892:G1894 G1889 G1859:G1860 G1841:G1856 G1838 G1812:G1833 G1786:G1797 G1719:G1758 G1706:G1717 G1679:G1697 G1634:G1637 G1620:G1632 G1603:G1609 G1616:G1617 G1587:G1600 G1567:G1568 G1546:G1549 G1552:G1565 G1529:G1543 G1491:G1499 G1479:G1482 G1460 G1444:G1458 G1408 G1396:G1402 G1376:G1394 G1358:G1373 G1329:G1330 G1278:G1320 G1276 G1258:G1267 G1248:G1251 G1226:G1237 G1198:G1221 G1193:G1196 G1185:G1187 G1172:G1181 G1168:G1169 G1162:G1165 G1152:G1160 G1133:G1149 G1123:G1130 G1099:G1102 G1089:G1097 G1069:G1076 G1035:G1036 G947:G1006 G927:G944 G893:G898 G901:G921 G871:G879 G864 G890:G891 G841 F840 G657:G658 G661:G662 G664:G709 G653:G655 G586:G589 G485:G567 G415 G417:G422 H356 G345 G846:G847 G331:G342 G267:G268 G354:G368 G769:G776 G600:G643 G1048:G1052 G2092 G2086:G2090 G2083:G2084 G1433:G1436 G1038:G1046 G1332:G1338 G1675:G1677 G1014:G1030 G424:G431 G1404:G1405 G1189 G1484:G1485 G1104:G1120 G1410:G1431 G1078:G1085 G844 G1639:G1656 G205 G480:G481 G1340:G1355 F112 G150:G151 G153 G788:G813 G54 G58 G104:G105 G1799:G1808 G1986:G1987 G1571:G1579 G1658:G1667 G1462:G1465 G2102:G1048576 G1501:G1510 G1523:G1525 G1467:G1476 G1517:G1518 G2068:G2081">
     <cfRule type="duplicateValues" dxfId="46" priority="15388"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2098:G2100 G581:G582 G1947 G2041:G2048 G721 G852:G855 G712 G1923:G1925 G1927:G1937 G1978 G1855:G1856 G749:G758 G960:G962 G1851 G1709:G1713 G1728:G1755 G1758 G1769 G1640:G1645 G1665 G1650:G1656 G1648 G1397 G1445:G1455 G1457 G1216:G1219 G1213 G1092:G1097 G1193:G1196 G1089 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G427 G271:G287 G289:G291 F288 G293 G348:G349 G560:G564 G600 G538:G557 G1041 G1043 G830 G825:G826 G821 G815:G816 G1603:G1607 G1579 G1503:G1509 G1538:G1543 G1368:G1372 G1358:G1362 G1364:G1366 G1281:G1282 G1330 G1414:G1422 G1427:G1431 G1805:G1808 G1679:G1686 G1553:G1555 G1558 G1560:G1562 G1819:G1824 G1827:G1832 G1838 G1843:G1849 G1790:G1796 G1715:G1717 G1496:G1499 G1129:G1130 G1149 G1324 G1525 G1473 G1341 G1262:G1265 G1523 G1025 G1124 G1237 G1695 G1799:G1802 G1813 G964:G966 G968:G972 G974:G1006 G1008:G1012 G1160 G1350:G1352 G1049:G1052 G1056:G1061 G1101:G1102 G1054 G938 G949 G951:G953 G913:G915 G917:G921 G819 G803:G807 G780:G785 G574:G575 G1030 G1070:G1073 G1135 G1165 G1199:G1209 G1231:G1234 G1267 G1287:G1320 G1343:G1348 G1376:G1384 G1460 G1517:G1518 G1520 G1565 G1573:G1577 G1688:G1693 G1881 G1883:G1885 G1896:G1898 G1989:G1992 G1994 G2004:G2032 G2050:G2065 G2115:G2120 G2124:G1048576 G849 G879 G1986 G602:G643 G577:G579 G661:G662 G588:G589 G664:G705 G707:G709 G735 G788:G800 G770:G773 G846:G847 G857:G862 G828 G1476:H1476 G901:G910 G871:G875 G864 G370:G383 G417 G1996:G1999 G1952:G1962 G1901:G1908 G1892:G1894 G1889 G1859:G1860 G1841 G1786:G1788 G1719:G1724 G1588:G1600 G1567:G1568 G1546 G1529:G1535 G1491:G1494 G1479:G1482 G1278:G1279 G1276 G1258 G1248:G1251 G1185:G1186 G1172:G1181 G1168:G1169 G1162:G1163 G1152:G1157 G1133 G1035:G1036 G927:G932 G893 G890:G891 G653:G655 H356 G345 G331:G342 G267:G268 G354:G368 G1433:G1436 G1038:G1039 G1332:G1338 G1014:G1023 G1484:G1485 G1104:G1120 G205 F112 G150:G151 G153 G54 G58 G104:G105 G1658:G1662 G1462:G1465 G2102:G2113 G1501 G1467:G1469 G2068:G2074">
+  <conditionalFormatting sqref="G2098:G2100 G581:G582 G1947 G2041:G2048 G721 G852:G855 G712 G1923:G1925 G1927:G1937 G1978 G1855:G1856 G749:G758 G960:G962 G1851 G1709:G1713 G1728:G1755 G1758 G1769 G1640:G1645 G1665 G1650:G1656 G1648 G1397 G1445:G1455 G1457 G1216:G1219 G1213 G1092:G1097 G1193:G1196 G1089 G301:G323 G297:G299 G1:G5 G237 F206 G263:G265 G427 G271:G287 G289:G291 F288 G293 G348:G349 G560:G564 G600 G538:G557 G1041 G1043 G830 G825:G826 G821 G815:G816 G1603:G1607 G1579 G1503:G1509 G1538:G1543 G1368:G1372 G1358:G1362 G1364:G1366 G1281:G1282 G1330 G1414:G1422 G1427:G1431 G1805:G1808 G1679:G1686 G1553:G1555 G1558 G1560:G1562 G1819:G1824 G1827:G1832 G1838 G1843:G1849 G1790:G1796 G1715:G1717 G1496:G1499 G1129:G1130 G1149 G1324 G1525 G1473 G1341 G1262:G1265 G1523 G1025 G1124 G1237 G1695 G1799:G1802 G1813 G964:G966 G968:G972 G974:G1006 G1008:G1011 G1160 G1350:G1352 G1049:G1052 G1056:G1061 G1101:G1102 G1054 G938 G949 G951:G953 G913:G915 G917:G921 G819 G803:G807 G780:G785 G574:G575 G1030 G1070:G1073 G1135 G1165 G1199:G1209 G1231:G1234 G1267 G1287:G1320 G1343:G1348 G1376:G1384 G1460 G1517:G1518 G1520 G1565 G1573:G1577 G1688:G1693 G1881 G1883:G1885 G1896:G1898 G1989:G1992 G1994 G2004:G2032 G2050:G2065 G2115:G2120 G2124:G1048576 G849 G879 G1986 G602:G643 G577:G579 G661:G662 G588:G589 G664:G705 G707:G709 G735 G788:G800 G770:G773 G846:G847 G857:G862 G828 G1476:H1476 G901:G910 G871:G875 G864 G370:G383 G417 G1996:G1999 G1952:G1962 G1901:G1908 G1892:G1894 G1889 G1859:G1860 G1841 G1786:G1788 G1719:G1724 G1588:G1600 G1567:G1568 G1546 G1529:G1535 G1491:G1494 G1479:G1482 G1278:G1279 G1276 G1258 G1248:G1251 G1185:G1186 G1172:G1181 G1168:G1169 G1162:G1163 G1152:G1157 G1133 G1035:G1036 G927:G932 G893 G890:G891 G653:G655 H356 G345 G331:G342 G267:G268 G354:G368 G1433:G1436 G1038:G1039 G1332:G1338 G1014:G1023 G1484:G1485 G1104:G1120 G205 F112 G150:G151 G153 G54 G58 G104:G105 G1658:G1662 G1462:G1465 G2102:G2113 G1501 G1467:G1469 G2068:G2074">
     <cfRule type="duplicateValues" dxfId="45" priority="15537"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2173:F1048576 F580:F582 F1947 F721 B852 F1989:F1992 F1883:F1885 F1896:F1898 F1902:F1908 F749:F760 F960:F962 F1558 G1578 F1092:F1097 F1216:F1218 F1460:F1467 F1213 F301:F308 F297:F299 F208:F219 F715 F427 F271 F289:F291 F293 F348:F350 F559 F577:F578 F600 F538:F557 F936:F937 F964:F966 F968:F972 F949:F953 F830 F825:F826 F821 F803:F807 F780:F785 F815:F816 F914:F915 F917:F921 F912 F1679:F1680 F1805:F1808 F1828 F1847:F1849 F1854:F1856 F1851:F1852 F1640:F1645 F1665 F1650:F1659 F1648 F1523 F1525 F1538:F1540 F1719:F1724 F1590:F1600 F1603 F1605 F1696 F1492:F1493 F1503:F1507 F1361:F1366 F1368:F1369 F1448:F1453 F1455 F1471:F1473 F1499 F1469 F1434 F1428 F978:F1006 F1008:F1013 F1304:F1318 F1329:F1330 F1162:F1163 F1812:F1814 F1821 F1397 F1413:F1425 F1399 F1390 F1152:F1159 B2098:B2120 B2124:B2172 B794 F1509 F1542:F1543 F1553 F1043:F1044 F1041 F1037:F1039 F1193:F1196 F1204:F1209 F1518 F1728:F1734 F1737:F1754 F1823:F1824 F1276 F1372 F1262:F1265 F1323 F1237 F795:F800 F849 F879 F853:F855 F1049:F1052 F1056:F1061 F1101:F1102 F1054 F1089 F1070:F1073 F1165 F1199:F1200 F1343:F1351 F1358:F1359 F1376:F1384 F1479 F1923:F1925 F1994 F2004:F2032 F2041:F2048 F2050:F2059 F818:F819 F602:F643 F661:F662 F588:F589 F664:F705 F707:F709 F712 F735 F1015:F1023 F788:F793 F770:F773 F846:F847 F858:F862 F873:F875 F417 F376 F378:F383 F899 F370:F374 F368 F1934:F1937 F1980:F1981 F1795:F1797 F1799:F1802 F901:F910 F1996:F1999 F1952:F1962 F1892:F1894 F1889 F1859:F1860 F1706:F1715 F1529:F1535 F1258 F1248:F1252 F1183 F1172:F1181 F1168:F1169 F1099 F927:F932 F893 F890:F891 F653:F655 F1430:F1432 F1436:F1437 F1483:F1488 F584 F1353:F1355 F318:F324 F326:F327 F310:F316 F329:F345 F286:F287 F2061:F2074 F280:F281 F278 F273:F275 F283:F284 F265:F268 F257:F261 F354:F366 F247:F255 F263 F223:F224 F236:F241 F158 F1332:F1338 F1104:F1121 F1185:F1186 F160:F173 F175:F176 F178 F1340:F1341 F182:F183 F185 F187:F190 F205 F113:F132 F134:F146 F1550 F148:F154 F66:F75 F77:F79 F81:F89 F91:F111 F42:F43 F717:F718 F28:F40 F45:F64 F842 F723 F24:F26 F1:F8 F22">
@@ -39073,10 +39189,20 @@
     <hyperlink ref="G1970" r:id="rId1023" xr:uid="{5A103258-8EDF-435F-8D71-A9A438308C44}"/>
     <hyperlink ref="F1970" r:id="rId1024" display="https://economicsandliberty.wordpress.com/2011/06/04/further-observations-on-bitcoin-digital-currencies-privacy-and-liberty/" xr:uid="{B98B1CFB-896D-4D49-8752-0FF30D82131F}"/>
     <hyperlink ref="G11" r:id="rId1025" xr:uid="{99E666DE-789C-49A9-9E5A-5C0AD69208C2}"/>
+    <hyperlink ref="G1012" r:id="rId1026" xr:uid="{0F4B7E11-5D14-4EBD-94C5-D4A7038DF2DF}"/>
+    <hyperlink ref="E1012" r:id="rId1027" xr:uid="{8F4EDB99-9A06-4FB1-8432-B1A35ACD7802}"/>
+    <hyperlink ref="G471" r:id="rId1028" xr:uid="{FB6301C5-7510-403F-945E-DD7C3439424C}"/>
+    <hyperlink ref="G1225" r:id="rId1029" xr:uid="{ED57FF19-4484-4745-AE71-7ADBBD426735}"/>
+    <hyperlink ref="G12" r:id="rId1030" display="https://keybase.pub/diverterbtc/Mining for the Streets (4) (1).pdf" xr:uid="{392D0D4E-8620-4F17-B449-81A015636FCE}"/>
+    <hyperlink ref="G13" r:id="rId1031" xr:uid="{F323EB16-FB54-401F-AD90-EB1FDDF98C0E}"/>
+    <hyperlink ref="E12" r:id="rId1032" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
+    <hyperlink ref="G14" r:id="rId1033" xr:uid="{284DDBCF-3AD8-4E00-8FCD-6EEDBDA88482}"/>
+    <hyperlink ref="E14" r:id="rId1034" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
+    <hyperlink ref="G15" r:id="rId1035" xr:uid="{92EF7B45-4D36-46AA-BF5D-F04E454FF846}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1026"/>
-  <drawing r:id="rId1027"/>
+  <pageSetup orientation="portrait" r:id="rId1036"/>
+  <drawing r:id="rId1037"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81A7F9-8D17-4F96-AC0B-286F757F8C70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6306EDA-9669-4F66-9781-D5147559A3E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="945" windowWidth="28515" windowHeight="19695" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-21090" yWindow="9450" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="3424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="3430">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10317,6 +10317,24 @@
   </si>
   <si>
     <t>Mining Bitcoin vs Buy &amp; Hold Bitcoin – Which is the Optimal Strategy to Capture the Long-Term Opportunity?</t>
+  </si>
+  <si>
+    <t>Diverter</t>
+  </si>
+  <si>
+    <t>Mining for the streets</t>
+  </si>
+  <si>
+    <t>https://keybase.pub/diverterbtc/</t>
+  </si>
+  <si>
+    <t>Karo Zagorus</t>
+  </si>
+  <si>
+    <t>Bitcoin and the Trust Problem - Is Bitcoin adoption accelerated by the abuse of trust?</t>
+  </si>
+  <si>
+    <t>https://keybase.pub/karozagorus/</t>
   </si>
 </sst>
 </file>
@@ -14384,9 +14402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14650,14 +14668,40 @@
     </row>
     <row r="22" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
+      <c r="B22" s="74">
+        <v>43990</v>
+      </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D22" s="56" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F22" s="116" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="85">
+        <v>43986</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>3428</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
     <row r="24" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
@@ -39199,10 +39243,12 @@
     <hyperlink ref="G14" r:id="rId1033" xr:uid="{284DDBCF-3AD8-4E00-8FCD-6EEDBDA88482}"/>
     <hyperlink ref="E14" r:id="rId1034" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
     <hyperlink ref="G15" r:id="rId1035" xr:uid="{92EF7B45-4D36-46AA-BF5D-F04E454FF846}"/>
+    <hyperlink ref="G22" r:id="rId1036" xr:uid="{727F9314-1534-431B-9EB1-B11FC2CD4AE5}"/>
+    <hyperlink ref="G23" r:id="rId1037" xr:uid="{0C6D50E9-DDF3-44EF-8F8E-03E8AD59EFEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1036"/>
-  <drawing r:id="rId1037"/>
+  <pageSetup orientation="portrait" r:id="rId1038"/>
+  <drawing r:id="rId1039"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA0B62-7863-40A6-81D8-8206B4D21E54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9840C-181F-49CA-A1B1-E3CB216D9CCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="4635" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="3472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5014" uniqueCount="3472">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10427,9 +10427,6 @@
     <t>Solairis</t>
   </si>
   <si>
-    <t>Adam Pokornicky</t>
-  </si>
-  <si>
     <t>https://degaia.co/anarchy-and-monarchy-a-natural-state/</t>
   </si>
   <si>
@@ -10461,6 +10458,9 @@
   </si>
   <si>
     <t>Matt Huang</t>
+  </si>
+  <si>
+    <t>ASked</t>
   </si>
 </sst>
 </file>
@@ -14529,9 +14529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14680,7 +14680,9 @@
         <v>43978</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="56" t="s">
+        <v>3389</v>
+      </c>
       <c r="E11" s="56" t="s">
         <v>3403</v>
       </c>
@@ -14695,7 +14697,9 @@
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="75"/>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56" t="s">
+        <v>3389</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>3418</v>
       </c>
@@ -14710,7 +14714,9 @@
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="75"/>
-      <c r="D13" s="56"/>
+      <c r="D13" s="56" t="s">
+        <v>2344</v>
+      </c>
       <c r="E13" s="56" t="s">
         <v>3140</v>
       </c>
@@ -14725,7 +14731,9 @@
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>3389</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>3421</v>
       </c>
@@ -14744,7 +14752,7 @@
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="54" t="s">
         <v>3423</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -14755,7 +14763,9 @@
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="56" t="s">
+        <v>3471</v>
+      </c>
       <c r="E16" s="56" t="s">
         <v>3432</v>
       </c>
@@ -14770,7 +14780,9 @@
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="56"/>
+      <c r="D17" s="56" t="s">
+        <v>3393</v>
+      </c>
       <c r="E17" s="56" t="s">
         <v>3434</v>
       </c>
@@ -14787,7 +14799,9 @@
         <v>43998</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="56"/>
+      <c r="D18" s="56" t="s">
+        <v>3389</v>
+      </c>
       <c r="E18" s="56" t="s">
         <v>3437</v>
       </c>
@@ -14802,7 +14816,9 @@
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="56" t="s">
+        <v>3471</v>
+      </c>
       <c r="E19" s="56" t="s">
         <v>3441</v>
       </c>
@@ -14817,7 +14833,9 @@
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="56" t="s">
+        <v>3471</v>
+      </c>
       <c r="E20" s="56" t="s">
         <v>3022</v>
       </c>
@@ -14864,7 +14882,9 @@
         <v>43994</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>2344</v>
+      </c>
       <c r="E23" s="56" t="s">
         <v>2353</v>
       </c>
@@ -14881,7 +14901,9 @@
         <v>43992</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="56" t="s">
+        <v>841</v>
+      </c>
       <c r="E24" s="56" t="s">
         <v>3453</v>
       </c>
@@ -14896,7 +14918,9 @@
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="56" t="s">
+        <v>3393</v>
+      </c>
       <c r="E25" s="56" t="s">
         <v>3456</v>
       </c>
@@ -14911,7 +14935,9 @@
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="75"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="56" t="s">
+        <v>3388</v>
+      </c>
       <c r="E26" s="56" t="s">
         <v>3459</v>
       </c>
@@ -14927,59 +14953,58 @@
       <c r="B27" s="56"/>
       <c r="C27" s="75"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
-        <v>3460</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>3420</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3419</v>
-      </c>
+      <c r="E27" s="56"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="56" t="s">
+        <v>3393</v>
+      </c>
       <c r="E28" s="56" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="56" t="s">
+        <v>3393</v>
+      </c>
       <c r="E29" s="56" t="s">
         <v>2404</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="75"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="56" t="s">
+        <v>3389</v>
+      </c>
       <c r="E30" s="56" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14988,13 +15013,13 @@
       <c r="C31" s="75"/>
       <c r="D31" s="56"/>
       <c r="E31" s="3" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="F31" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -39638,16 +39663,15 @@
     <hyperlink ref="G24" r:id="rId1046" xr:uid="{0E2717CD-80C9-4174-864E-E3FFDB0F0941}"/>
     <hyperlink ref="G25" r:id="rId1047" xr:uid="{917D10BE-ECEB-47E9-8A1F-6E7F13921634}"/>
     <hyperlink ref="G26" r:id="rId1048" xr:uid="{AAFB602C-8B94-4CB6-8742-4C3DD3C9926C}"/>
-    <hyperlink ref="G27" r:id="rId1049" xr:uid="{3F3A5812-36AF-411E-B467-A3432A34351B}"/>
-    <hyperlink ref="G28" r:id="rId1050" xr:uid="{AFDBE02D-6748-42C4-9910-899C1106027E}"/>
-    <hyperlink ref="G29" r:id="rId1051" xr:uid="{B06DC344-D370-498A-AB7D-0F9F2C083031}"/>
-    <hyperlink ref="G30" r:id="rId1052" xr:uid="{93BAA977-83E3-4DCB-B2F6-675DCBC86657}"/>
-    <hyperlink ref="G31" r:id="rId1053" xr:uid="{C9993388-5401-4845-8994-96B157355F9F}"/>
-    <hyperlink ref="E31" r:id="rId1054" display="https://twitter.com/matthuang" xr:uid="{1261F23A-52D3-4E5E-8AD4-5C851DC40DF3}"/>
+    <hyperlink ref="G28" r:id="rId1049" xr:uid="{AFDBE02D-6748-42C4-9910-899C1106027E}"/>
+    <hyperlink ref="G29" r:id="rId1050" xr:uid="{B06DC344-D370-498A-AB7D-0F9F2C083031}"/>
+    <hyperlink ref="G30" r:id="rId1051" xr:uid="{93BAA977-83E3-4DCB-B2F6-675DCBC86657}"/>
+    <hyperlink ref="G31" r:id="rId1052" xr:uid="{C9993388-5401-4845-8994-96B157355F9F}"/>
+    <hyperlink ref="E31" r:id="rId1053" display="https://twitter.com/matthuang" xr:uid="{1261F23A-52D3-4E5E-8AD4-5C851DC40DF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1055"/>
-  <drawing r:id="rId1056"/>
+  <pageSetup orientation="portrait" r:id="rId1054"/>
+  <drawing r:id="rId1055"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EFA6D-1307-49F0-9064-27443EC928E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDDCC1-8DA5-4CE9-9616-450D9E5794B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1455" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="3475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="3479">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10470,6 +10470,18 @@
   </si>
   <si>
     <t>https://twitter.com/JohnCantrell97</t>
+  </si>
+  <si>
+    <t>https://twitter.com/zanepocock/status/1273688563138379776</t>
+  </si>
+  <si>
+    <t>Bitcoin's Town Square</t>
+  </si>
+  <si>
+    <t>Karo</t>
+  </si>
+  <si>
+    <t>Thesis</t>
   </si>
 </sst>
 </file>
@@ -14538,9 +14550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14700,7 +14712,9 @@
       <c r="A12" s="89"/>
       <c r="B12" s="56"/>
       <c r="C12" s="75"/>
-      <c r="D12" s="56"/>
+      <c r="D12" s="56" t="s">
+        <v>2344</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>3474</v>
       </c>
@@ -14715,8 +14729,18 @@
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="75"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="D13" s="56" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3475</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -14746,20 +14770,6 @@
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="56" t="s">
-        <v>3389</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3418</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>3414</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3415</v>
-      </c>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
@@ -15068,7 +15078,7 @@
       <c r="E35" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="47" t="s">
         <v>3469</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -15079,16 +15089,32 @@
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="75"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="56" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>3415</v>
+      </c>
     </row>
     <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="75"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
+      <c r="D37" s="56" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>3477</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>3478</v>
+      </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -39690,9 +39716,9 @@
     <hyperlink ref="E1033" r:id="rId1020" xr:uid="{8F4EDB99-9A06-4FB1-8432-B1A35ACD7802}"/>
     <hyperlink ref="G492" r:id="rId1021" xr:uid="{FB6301C5-7510-403F-945E-DD7C3439424C}"/>
     <hyperlink ref="G1246" r:id="rId1022" xr:uid="{ED57FF19-4484-4745-AE71-7ADBBD426735}"/>
-    <hyperlink ref="G16" r:id="rId1023" display="https://keybase.pub/diverterbtc/Mining for the Streets (4) (1).pdf" xr:uid="{392D0D4E-8620-4F17-B449-81A015636FCE}"/>
+    <hyperlink ref="G36" r:id="rId1023" display="https://keybase.pub/diverterbtc/Mining for the Streets (4) (1).pdf" xr:uid="{392D0D4E-8620-4F17-B449-81A015636FCE}"/>
     <hyperlink ref="G17" r:id="rId1024" xr:uid="{F323EB16-FB54-401F-AD90-EB1FDDF98C0E}"/>
-    <hyperlink ref="E16" r:id="rId1025" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
+    <hyperlink ref="E36" r:id="rId1025" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
     <hyperlink ref="G18" r:id="rId1026" xr:uid="{284DDBCF-3AD8-4E00-8FCD-6EEDBDA88482}"/>
     <hyperlink ref="E18" r:id="rId1027" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
     <hyperlink ref="G19" r:id="rId1028" xr:uid="{92EF7B45-4D36-46AA-BF5D-F04E454FF846}"/>
@@ -39723,10 +39749,11 @@
     <hyperlink ref="E35" r:id="rId1053" display="https://twitter.com/matthuang" xr:uid="{1261F23A-52D3-4E5E-8AD4-5C851DC40DF3}"/>
     <hyperlink ref="G12" r:id="rId1054" xr:uid="{5BBBA501-C1E5-49A3-9741-AFC191D28AB8}"/>
     <hyperlink ref="E12" r:id="rId1055" xr:uid="{B6A05775-194B-4CF1-9030-B1D1EE6E2517}"/>
+    <hyperlink ref="G13" r:id="rId1056" xr:uid="{9E8CDE46-0FF6-4B44-AC44-EEDB287AE7F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1056"/>
-  <drawing r:id="rId1057"/>
+  <pageSetup orientation="portrait" r:id="rId1057"/>
+  <drawing r:id="rId1058"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFDDCC1-8DA5-4CE9-9616-450D9E5794B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFEE75-C8EE-4F51-88DF-849A26E19C6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1455" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14552,7 +14552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14825,7 +14825,7 @@
       <c r="B20" s="56"/>
       <c r="C20" s="75"/>
       <c r="D20" s="56" t="s">
-        <v>3471</v>
+        <v>2344</v>
       </c>
       <c r="E20" s="56" t="s">
         <v>3432</v>
@@ -15061,7 +15061,7 @@
       <c r="E34" s="56" t="s">
         <v>3467</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="47" t="s">
         <v>3466</v>
       </c>
       <c r="G34" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F596B5BE-E93E-467A-9F70-833FDAF4077A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763F48AE-D124-4C59-8C48-5DE807ADD361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14552,7 +14552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15002,7 +15002,7 @@
       <c r="E30" s="56" t="s">
         <v>3459</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>3457</v>
       </c>
       <c r="G30" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763F48AE-D124-4C59-8C48-5DE807ADD361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9392CD0-046C-4A80-A545-643087D5381E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14552,7 +14552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14949,7 +14949,7 @@
       <c r="E27" s="56" t="s">
         <v>2353</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="47" t="s">
         <v>3450</v>
       </c>
       <c r="G27" s="3" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFEE75-C8EE-4F51-88DF-849A26E19C6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF67480-625D-4AC3-B222-7841718A12EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1455" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="22830" yWindow="2760" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="3478">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10458,9 +10458,6 @@
   </si>
   <si>
     <t>Matt Huang</t>
-  </si>
-  <si>
-    <t>ASked</t>
   </si>
   <si>
     <t>https://medium.com/@johncantrell97/how-i-checked-over-1-trillion-mnemonics-in-30-hours-to-win-a-bitcoin-635fe051a752</t>
@@ -14552,7 +14549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14716,13 +14713,13 @@
         <v>2344</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14736,10 +14733,10 @@
         <v>2981</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14878,7 +14875,7 @@
       <c r="B23" s="56"/>
       <c r="C23" s="75"/>
       <c r="D23" s="56" t="s">
-        <v>3471</v>
+        <v>2344</v>
       </c>
       <c r="E23" s="56" t="s">
         <v>3441</v>
@@ -15022,7 +15019,7 @@
       <c r="B32" s="56"/>
       <c r="C32" s="75"/>
       <c r="D32" s="56" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
       <c r="E32" s="56" t="s">
         <v>3462</v>
@@ -15110,10 +15107,10 @@
         <v>3389</v>
       </c>
       <c r="E37" s="56" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F37" s="47" t="s">
         <v>3477</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>3478</v>
       </c>
       <c r="G37" s="3"/>
     </row>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6D625-9D16-4314-8199-78A7FE39C343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E01F1E-CA31-42E1-B672-62E54F86C001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24495" yWindow="2070" windowWidth="19155" windowHeight="14910" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14549,7 +14549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15037,33 +15037,33 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="56" t="s">
-        <v>841</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>3449</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>3448</v>
+        <v>3389</v>
+      </c>
+      <c r="E31" s="116" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>3460</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>3447</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="75"/>
-      <c r="D32" s="56" t="s">
-        <v>3393</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>3452</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>3451</v>
+      <c r="D32" s="116" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E32" s="116" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>3441</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>3450</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15071,16 +15071,16 @@
       <c r="B33" s="56"/>
       <c r="C33" s="75"/>
       <c r="D33" s="56" t="s">
-        <v>3393</v>
+        <v>841</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>2404</v>
+        <v>3449</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>3460</v>
+        <v>3448</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>3459</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15088,52 +15088,44 @@
       <c r="B34" s="56"/>
       <c r="C34" s="75"/>
       <c r="D34" s="56" t="s">
-        <v>2344</v>
+        <v>3393</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>3140</v>
+        <v>3452</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>3416</v>
+        <v>3451</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>3417</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="95" t="s">
         <v>2344</v>
       </c>
-      <c r="E35" s="56" t="s">
-        <v>3022</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>3441</v>
+      <c r="E35" s="95" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>3416</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>3440</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
       <c r="C36" s="75"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="75"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
@@ -38619,8 +38611,8 @@
   <conditionalFormatting sqref="G8:G11">
     <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2185:F1048576 F592:F594 F1959 F733 B864 F2001:F2004 F1895:F1897 F1908:F1910 F1914:F1920 F761:F772 F972:F974 F1570 G1590 F1104:F1109 F1228:F1230 F1472:F1479 F1225 F313:F320 F309:F311 F220:F231 F727 F439 F283 F301:F303 F305 F360:F362 F571 F589:F590 F612 F550:F569 F948:F949 F976:F978 F980:F984 F961:F965 F842 F837:F838 F833 F815:F819 F792:F797 F827:F828 F926:F927 F929:F933 F924 F1691:F1692 F1817:F1820 F1840 F1859:F1861 F1866:F1868 F1863:F1864 F1652:F1657 F1677 F1662:F1671 F1660 F1535 F1537 F1550:F1552 F1731:F1736 F1602:F1612 F1615 F1617 F1708 F1504:F1505 F1515:F1519 F1373:F1378 F1380:F1381 F1460:F1465 F1467 F1483:F1485 F1511 F1481 F1446 F1440 F990:F1018 F1020:F1025 F1316:F1330 F1341:F1342 F1174:F1175 F1824:F1826 F1833 F1409 F1425:F1437 F1411 F1402 F1164:F1171 B2110:B2132 B2136:B2184 B806 F1521 F1554:F1555 F1565 F1055:F1056 F1053 F1049:F1051 F1205:F1208 F1216:F1221 F1530 F1740:F1746 F1749:F1766 F1835:F1836 F1288 F1384 F1274:F1277 F1335 F1249 F807:F812 F861 F891 F865:F867 F1061:F1064 F1068:F1073 F1113:F1114 F1066 F1101 F1082:F1085 F1177 F1211:F1212 F1355:F1363 F1370:F1371 F1388:F1396 F1491 F1935:F1937 F2006 F2016:F2044 F2053:F2060 F2062:F2071 F830:F831 F614:F655 F673:F674 F600:F601 F676:F717 F719:F721 F724 F747 F1027:F1035 F800:F805 F782:F785 F858:F859 F870:F874 F885:F887 F429 F388 F390:F395 F911 F382:F386 F380 F1946:F1949 F1992:F1993 F1807:F1809 F1811:F1814 F913:F922 F2008:F2011 F1964:F1974 F1904:F1906 F1901 F1871:F1872 F1718:F1727 F1541:F1547 F1270 F1260:F1264 F1195 F1184:F1193 F1180:F1181 F1111 F939:F944 F905 F902:F903 F665:F667 F1442:F1444 F1448:F1449 F1495:F1500 F596 F1365:F1367 F330:F336 F338:F339 F322:F328 F341:F357 F298:F299 F2073:F2086 F292:F293 F290 F285:F287 F295:F296 F277:F280 F269:F273 F366:F378 F259:F267 F275 F235:F236 F248:F253 F170 F1344:F1350 F1116:F1133 F1197:F1198 F172:F185 F187:F188 F190 F1352:F1353 F194:F195 F197 F199:F202 F217 F125:F144 F146:F158 F1562 F160:F166 F78:F87 F89:F91 F93:F101 F103:F123 F54:F55 F729:F730 F40:F52 F57:F76 F854 F735 F36:F38 F1:F12 F29">
-    <cfRule type="duplicateValues" dxfId="39" priority="16003"/>
+  <conditionalFormatting sqref="F2185:F1048576 F592:F594 F1959 F733 B864 F2001:F2004 F1895:F1897 F1908:F1910 F1914:F1920 F761:F772 F972:F974 F1570 G1590 F1104:F1109 F1228:F1230 F1472:F1479 F1225 F313:F320 F309:F311 F220:F231 F727 F439 F283 F301:F303 F305 F360:F362 F571 F589:F590 F612 F550:F569 F948:F949 F976:F978 F980:F984 F961:F965 F842 F837:F838 F833 F815:F819 F792:F797 F827:F828 F926:F927 F929:F933 F924 F1691:F1692 F1817:F1820 F1840 F1859:F1861 F1866:F1868 F1863:F1864 F1652:F1657 F1677 F1662:F1671 F1660 F1535 F1537 F1550:F1552 F1731:F1736 F1602:F1612 F1615 F1617 F1708 F1504:F1505 F1515:F1519 F1373:F1378 F1380:F1381 F1460:F1465 F1467 F1483:F1485 F1511 F1481 F1446 F1440 F990:F1018 F1020:F1025 F1316:F1330 F1341:F1342 F1174:F1175 F1824:F1826 F1833 F1409 F1425:F1437 F1411 F1402 F1164:F1171 B2110:B2132 B2136:B2184 B806 F1521 F1554:F1555 F1565 F1055:F1056 F1053 F1049:F1051 F1205:F1208 F1216:F1221 F1530 F1740:F1746 F1749:F1766 F1835:F1836 F1288 F1384 F1274:F1277 F1335 F1249 F807:F812 F861 F891 F865:F867 F1061:F1064 F1068:F1073 F1113:F1114 F1066 F1101 F1082:F1085 F1177 F1211:F1212 F1355:F1363 F1370:F1371 F1388:F1396 F1491 F1935:F1937 F2006 F2016:F2044 F2053:F2060 F2062:F2071 F830:F831 F614:F655 F673:F674 F600:F601 F676:F717 F719:F721 F724 F747 F1027:F1035 F800:F805 F782:F785 F858:F859 F870:F874 F885:F887 F429 F388 F390:F395 F911 F382:F386 F380 F1946:F1949 F1992:F1993 F1807:F1809 F1811:F1814 F913:F922 F2008:F2011 F1964:F1974 F1904:F1906 F1901 F1871:F1872 F1718:F1727 F1541:F1547 F1270 F1260:F1264 F1195 F1184:F1193 F1180:F1181 F1111 F939:F944 F905 F902:F903 F665:F667 F1442:F1444 F1448:F1449 F1495:F1500 F596 F1365:F1367 F330:F336 F338:F339 F322:F328 F341:F357 F298:F299 F2073:F2086 F292:F293 F290 F285:F287 F295:F296 F277:F280 F269:F273 F366:F378 F259:F267 F275 F235:F236 F248:F253 F170 F1344:F1350 F1116:F1133 F1197:F1198 F172:F185 F187:F188 F190 F1352:F1353 F194:F195 F197 F199:F202 F217 F125:F144 F146:F158 F1562 F160:F166 F78:F87 F89:F91 F93:F101 F103:F123 F54:F55 F729:F730 F40:F52 F57:F76 F854 F735 F38 F1:F12 F29">
+    <cfRule type="duplicateValues" dxfId="39" priority="16468"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2084" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -39646,7 +39638,7 @@
     <hyperlink ref="G483" r:id="rId1021" xr:uid="{FB6301C5-7510-403F-945E-DD7C3439424C}"/>
     <hyperlink ref="G1237" r:id="rId1022" xr:uid="{ED57FF19-4484-4745-AE71-7ADBBD426735}"/>
     <hyperlink ref="G27" r:id="rId1023" display="https://keybase.pub/diverterbtc/Mining for the Streets (4) (1).pdf" xr:uid="{392D0D4E-8620-4F17-B449-81A015636FCE}"/>
-    <hyperlink ref="G34" r:id="rId1024" xr:uid="{F323EB16-FB54-401F-AD90-EB1FDDF98C0E}"/>
+    <hyperlink ref="G35" r:id="rId1024" xr:uid="{F323EB16-FB54-401F-AD90-EB1FDDF98C0E}"/>
     <hyperlink ref="E27" r:id="rId1025" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
     <hyperlink ref="G16" r:id="rId1026" xr:uid="{284DDBCF-3AD8-4E00-8FCD-6EEDBDA88482}"/>
     <hyperlink ref="E16" r:id="rId1027" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
@@ -39663,14 +39655,14 @@
     <hyperlink ref="G18" r:id="rId1038" xr:uid="{FF4CC0BA-2D9A-4E79-9E1D-48D3DD35B80F}"/>
     <hyperlink ref="G19" r:id="rId1039" xr:uid="{88E962BA-5FDD-4387-BBD8-01959DD6E26C}"/>
     <hyperlink ref="G20" r:id="rId1040" xr:uid="{1218E294-9255-474D-873B-454F6AD984CD}"/>
-    <hyperlink ref="G35" r:id="rId1041" xr:uid="{E90CA45E-BE0A-432F-932C-4A26ED9BF2EE}"/>
+    <hyperlink ref="G32" r:id="rId1041" xr:uid="{E90CA45E-BE0A-432F-932C-4A26ED9BF2EE}"/>
     <hyperlink ref="G21" r:id="rId1042" xr:uid="{5A1B23DA-E48E-4F22-804F-5CD765EEDA74}"/>
     <hyperlink ref="G22" r:id="rId1043" xr:uid="{7DB6A7A0-37B0-4111-80F6-92A150A7C4E2}"/>
-    <hyperlink ref="G31" r:id="rId1044" xr:uid="{0E2717CD-80C9-4174-864E-E3FFDB0F0941}"/>
-    <hyperlink ref="G32" r:id="rId1045" xr:uid="{917D10BE-ECEB-47E9-8A1F-6E7F13921634}"/>
+    <hyperlink ref="G33" r:id="rId1044" xr:uid="{0E2717CD-80C9-4174-864E-E3FFDB0F0941}"/>
+    <hyperlink ref="G34" r:id="rId1045" xr:uid="{917D10BE-ECEB-47E9-8A1F-6E7F13921634}"/>
     <hyperlink ref="G23" r:id="rId1046" xr:uid="{AAFB602C-8B94-4CB6-8742-4C3DD3C9926C}"/>
     <hyperlink ref="G24" r:id="rId1047" xr:uid="{AFDBE02D-6748-42C4-9910-899C1106027E}"/>
-    <hyperlink ref="G33" r:id="rId1048" xr:uid="{B06DC344-D370-498A-AB7D-0F9F2C083031}"/>
+    <hyperlink ref="G31" r:id="rId1048" xr:uid="{B06DC344-D370-498A-AB7D-0F9F2C083031}"/>
     <hyperlink ref="G25" r:id="rId1049" xr:uid="{93BAA977-83E3-4DCB-B2F6-675DCBC86657}"/>
     <hyperlink ref="G26" r:id="rId1050" xr:uid="{C9993388-5401-4845-8994-96B157355F9F}"/>
     <hyperlink ref="E26" r:id="rId1051" display="https://twitter.com/matthuang" xr:uid="{1261F23A-52D3-4E5E-8AD4-5C851DC40DF3}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FA13A-02FE-4A53-B142-34BCEEEF45A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD60C09-12C2-4A45-B07D-AE879C865B1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24255" yWindow="2385" windowWidth="31185" windowHeight="24525" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="3480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5028" uniqueCount="3482">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10485,6 +10485,12 @@
   </si>
   <si>
     <t>https://medium.com/@stevegbarbour/there-will-be-bitcoin-d02d486a5d6b</t>
+  </si>
+  <si>
+    <t>https://keepingstock.net/bitcoin-refuses-to-centralize-1c2a50182d28</t>
+  </si>
+  <si>
+    <t>Bitcoin Refuses to Centralize</t>
   </si>
 </sst>
 </file>
@@ -14554,8 +14560,8 @@
   <dimension ref="A1:Y2201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="3" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B797" sqref="B797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25327,8 +25333,15 @@
       <c r="G795" s="3"/>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B796" s="32"/>
-      <c r="G796" s="3"/>
+      <c r="B796" s="32">
+        <v>43339</v>
+      </c>
+      <c r="F796" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>3480</v>
+      </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B797" s="32">
@@ -39834,10 +39847,11 @@
     <hyperlink ref="G30" r:id="rId1054" xr:uid="{9E8CDE46-0FF6-4B44-AC44-EEDB287AE7F3}"/>
     <hyperlink ref="G31" r:id="rId1055" xr:uid="{A00BF69D-D5A1-4ABB-B259-88F6AC82F63F}"/>
     <hyperlink ref="G11" r:id="rId1056" xr:uid="{23FF0243-209A-47D3-8F52-222CDC681AFB}"/>
+    <hyperlink ref="G796" r:id="rId1057" xr:uid="{1C6AA2BE-1B2F-4C8B-B544-7FF2C7EFE406}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1057"/>
-  <drawing r:id="rId1058"/>
+  <pageSetup orientation="portrait" r:id="rId1058"/>
+  <drawing r:id="rId1059"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD60C09-12C2-4A45-B07D-AE879C865B1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98CF9D-A658-4848-9F50-686B282322BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24255" yWindow="2385" windowWidth="31185" windowHeight="24525" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5028" uniqueCount="3482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="3484">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10301,18 +10301,12 @@
     <t>https://blog.keys.casa/the-dos-and-donts-of-bitcoin-key-management/</t>
   </si>
   <si>
-    <t>https://twitter.com/diverternokyc</t>
-  </si>
-  <si>
     <t>https://thisisnewmoney.substack.com/p/a-peaceful-protest-opt-out-buy-bitcoin</t>
   </si>
   <si>
     <t>A Peaceful Protest: Opt-Out, Buy Bitcoin</t>
   </si>
   <si>
-    <t>https://twitter.com/callmethebear</t>
-  </si>
-  <si>
     <t>Diverter</t>
   </si>
   <si>
@@ -10457,9 +10451,6 @@
     <t>How I checked over 1 trillion mnemonics in 30 hours to win a bitcoin</t>
   </si>
   <si>
-    <t>https://twitter.com/JohnCantrell97</t>
-  </si>
-  <si>
     <t>https://twitter.com/zanepocock/status/1273688563138379776</t>
   </si>
   <si>
@@ -10491,6 +10482,21 @@
   </si>
   <si>
     <t>Bitcoin Refuses to Centralize</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>sentr</t>
+  </si>
+  <si>
+    <t>Adam P</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Sent</t>
   </si>
 </sst>
 </file>
@@ -14560,8 +14566,8 @@
   <dimension ref="A1:Y2201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B797" sqref="B797"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14715,10 +14721,10 @@
         <v>1613</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14877,50 +14883,56 @@
     <row r="29" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="75"/>
+      <c r="C29" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D29" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E29" s="83" t="s">
-        <v>3470</v>
-      </c>
-      <c r="F29" s="116" t="s">
-        <v>3469</v>
+      <c r="E29" s="113" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>3467</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="75"/>
+      <c r="C30" s="75" t="s">
+        <v>3480</v>
+      </c>
       <c r="D30" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E30" s="116" t="s">
+      <c r="E30" s="107" t="s">
         <v>2981</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>3472</v>
+      <c r="F30" s="6" t="s">
+        <v>3469</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="116" t="s">
-        <v>3477</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>3475</v>
+      <c r="E31" s="107" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>3472</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14932,10 +14944,10 @@
       <c r="D32" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E32" s="116" t="s">
+      <c r="E32" s="107" t="s">
         <v>3403</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="6" t="s">
         <v>3404</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -14945,52 +14957,58 @@
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="75"/>
+      <c r="C33" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D33" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E33" s="83" t="s">
-        <v>3421</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>3420</v>
+      <c r="E33" s="113" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>3419</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="75"/>
+      <c r="C34" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D34" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E34" s="116" t="s">
-        <v>3430</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>3429</v>
+      <c r="E34" s="107" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>3427</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="75"/>
+      <c r="C35" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D35" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E35" s="116" t="s">
-        <v>3432</v>
-      </c>
-      <c r="F35" s="47" t="s">
+      <c r="E35" s="107" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>3431</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3433</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15002,46 +15020,50 @@
       <c r="D36" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E36" s="116" t="s">
-        <v>3435</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>3436</v>
+      <c r="E36" s="107" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>3434</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="75"/>
+      <c r="C37" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D37" s="56" t="s">
-        <v>3467</v>
-      </c>
-      <c r="E37" s="116" t="s">
-        <v>3439</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>3438</v>
+        <v>3465</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>3436</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="75"/>
+      <c r="C38" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D38" s="56"/>
-      <c r="E38" s="116" t="s">
-        <v>3444</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>3443</v>
+      <c r="E38" s="107" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>3441</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15049,86 +15071,96 @@
       <c r="B39" s="129">
         <v>43994</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D39" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E39" s="116" t="s">
+      <c r="E39" s="107" t="s">
         <v>2353</v>
       </c>
-      <c r="F39" s="47" t="s">
-        <v>3446</v>
+      <c r="F39" s="6" t="s">
+        <v>3444</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="75"/>
+      <c r="C40" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D40" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E40" s="116" t="s">
-        <v>3455</v>
-      </c>
-      <c r="F40" s="47" t="s">
+      <c r="E40" s="107" t="s">
         <v>3453</v>
       </c>
+      <c r="F40" s="6" t="s">
+        <v>3451</v>
+      </c>
       <c r="G40" s="3" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
-      <c r="C41" s="75"/>
+      <c r="C41" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D41" s="56" t="s">
         <v>3393</v>
       </c>
-      <c r="E41" s="116" t="s">
-        <v>3458</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>3457</v>
+      <c r="E41" s="107" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>3455</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="B42" s="56"/>
-      <c r="C42" s="75"/>
+      <c r="C42" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D42" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E42" s="116" t="s">
-        <v>3463</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>3462</v>
+      <c r="E42" s="107" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>3460</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
-      <c r="C43" s="75"/>
+      <c r="C43" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D43" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E43" s="83" t="s">
-        <v>3466</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>3465</v>
+      <c r="E43" s="113" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>3463</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15138,10 +15170,10 @@
       <c r="D44" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E44" s="83" t="s">
-        <v>3418</v>
-      </c>
-      <c r="F44" s="47" t="s">
+      <c r="E44" s="113" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>3414</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -15155,11 +15187,11 @@
       <c r="D45" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E45" s="116" t="s">
-        <v>3473</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>3474</v>
+      <c r="E45" s="107" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>3471</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -15168,18 +15200,20 @@
       <c r="B46" s="74">
         <v>43990</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D46" s="56" t="s">
         <v>3395</v>
       </c>
-      <c r="E46" s="116" t="s">
+      <c r="E46" s="107" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F46" s="107" t="s">
+        <v>3421</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>3422</v>
-      </c>
-      <c r="F46" s="116" t="s">
-        <v>3423</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3424</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15189,14 +15223,14 @@
       <c r="D47" s="46" t="s">
         <v>3395</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="6" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>3425</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>3426</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3427</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15204,35 +15238,39 @@
       <c r="B48" s="74">
         <v>43992</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="75" t="s">
+        <v>3479</v>
+      </c>
       <c r="D48" s="56" t="s">
         <v>3389</v>
       </c>
-      <c r="E48" s="116" t="s">
+      <c r="E48" s="107" t="s">
         <v>2404</v>
       </c>
-      <c r="F48" s="47" t="s">
-        <v>3460</v>
+      <c r="F48" s="6" t="s">
+        <v>3458</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="116" t="s">
+      <c r="C49" s="75" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D49" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E49" s="116" t="s">
+      <c r="E49" s="107" t="s">
         <v>3022</v>
       </c>
-      <c r="F49" s="47" t="s">
-        <v>3441</v>
+      <c r="F49" s="6" t="s">
+        <v>3439</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15243,13 +15281,13 @@
         <v>841</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15260,13 +15298,13 @@
         <v>3393</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -25337,10 +25375,10 @@
         <v>43339</v>
       </c>
       <c r="F796" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="G796" s="3" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
@@ -39815,9 +39853,9 @@
     <hyperlink ref="G1254" r:id="rId1022" xr:uid="{ED57FF19-4484-4745-AE71-7ADBBD426735}"/>
     <hyperlink ref="G44" r:id="rId1023" display="https://keybase.pub/diverterbtc/Mining for the Streets (4) (1).pdf" xr:uid="{392D0D4E-8620-4F17-B449-81A015636FCE}"/>
     <hyperlink ref="G52" r:id="rId1024" xr:uid="{F323EB16-FB54-401F-AD90-EB1FDDF98C0E}"/>
-    <hyperlink ref="E44" r:id="rId1025" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
+    <hyperlink ref="E44" r:id="rId1025" display="https://twitter.com/diverternokyc" xr:uid="{212F43F9-2BD1-4738-B9D8-E31C2C4E3D94}"/>
     <hyperlink ref="G33" r:id="rId1026" xr:uid="{284DDBCF-3AD8-4E00-8FCD-6EEDBDA88482}"/>
-    <hyperlink ref="E33" r:id="rId1027" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
+    <hyperlink ref="E33" r:id="rId1027" display="https://twitter.com/callmethebear" xr:uid="{156DDAF7-F2DC-4D43-96FC-5D8DD68AF463}"/>
     <hyperlink ref="G34" r:id="rId1028" xr:uid="{5FF57BFC-E8EA-48AC-A7E9-9CE4F804D2CA}"/>
     <hyperlink ref="G47" r:id="rId1029" xr:uid="{0C6D50E9-DDF3-44EF-8F8E-03E8AD59EFEA}"/>
     <hyperlink ref="G46" r:id="rId1030" xr:uid="{727F9314-1534-431B-9EB1-B11FC2CD4AE5}"/>
@@ -39843,7 +39881,7 @@
     <hyperlink ref="G43" r:id="rId1050" xr:uid="{C9993388-5401-4845-8994-96B157355F9F}"/>
     <hyperlink ref="E43" r:id="rId1051" display="https://twitter.com/matthuang" xr:uid="{1261F23A-52D3-4E5E-8AD4-5C851DC40DF3}"/>
     <hyperlink ref="G29" r:id="rId1052" xr:uid="{5BBBA501-C1E5-49A3-9741-AFC191D28AB8}"/>
-    <hyperlink ref="E29" r:id="rId1053" xr:uid="{B6A05775-194B-4CF1-9030-B1D1EE6E2517}"/>
+    <hyperlink ref="E29" r:id="rId1053" display="https://twitter.com/JohnCantrell97" xr:uid="{B6A05775-194B-4CF1-9030-B1D1EE6E2517}"/>
     <hyperlink ref="G30" r:id="rId1054" xr:uid="{9E8CDE46-0FF6-4B44-AC44-EEDB287AE7F3}"/>
     <hyperlink ref="G31" r:id="rId1055" xr:uid="{A00BF69D-D5A1-4ABB-B259-88F6AC82F63F}"/>
     <hyperlink ref="G11" r:id="rId1056" xr:uid="{23FF0243-209A-47D3-8F52-222CDC681AFB}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA397398-A055-418C-936F-AD6583EC142D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCEEB8-DBE3-49CF-84E5-DFB54909FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="9960" windowWidth="23010" windowHeight="13620" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="4560" yWindow="2400" windowWidth="22365" windowHeight="12525" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_Toc4426568" localSheetId="0">'Other Articles'!$F$32</definedName>
     <definedName name="_Toc4426574" localSheetId="0">'Other Articles'!$F$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="3525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="3525">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -14710,7 +14712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14937,7 +14939,9 @@
       <c r="C19" s="75" t="s">
         <v>3388</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="56" t="s">
+        <v>2344</v>
+      </c>
       <c r="E19" s="56" t="s">
         <v>1613</v>
       </c>
@@ -15142,7 +15146,9 @@
       <c r="C30" s="75" t="s">
         <v>3388</v>
       </c>
-      <c r="D30" s="56"/>
+      <c r="D30" s="56" t="s">
+        <v>2344</v>
+      </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56" t="s">
         <v>3518</v>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCEEB8-DBE3-49CF-84E5-DFB54909FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA644B9-4561-496D-B967-E6F120795FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2400" windowWidth="22365" windowHeight="12525" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="3525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5118" uniqueCount="3526">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10603,9 +10603,6 @@
     <t>Bitcoin is a weapon</t>
   </si>
   <si>
-    <t>Lucho mask</t>
-  </si>
-  <si>
     <t>https://ark-invest.com/analyst-research/bitcoin-myths/</t>
   </si>
   <si>
@@ -10622,6 +10619,12 @@
   </si>
   <si>
     <t>https://medium.com/@americanhodl/soft-money-soft-minds-79449d92b6f3</t>
+  </si>
+  <si>
+    <t>Lucho</t>
+  </si>
+  <si>
+    <t>V Mask</t>
   </si>
 </sst>
 </file>
@@ -14711,8 +14714,8 @@
   <dimension ref="A1:Y2212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14911,8 +14914,12 @@
       <c r="B16" s="56"/>
       <c r="C16" s="75"/>
       <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>3490</v>
+      </c>
       <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14942,7 +14949,7 @@
       <c r="D19" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="116" t="s">
         <v>1613</v>
       </c>
       <c r="F19" s="56" t="s">
@@ -14961,13 +14968,13 @@
       <c r="D20" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="116" t="s">
         <v>3488</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="55" t="s">
         <v>3487</v>
       </c>
     </row>
@@ -14980,7 +14987,7 @@
       <c r="D21" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="116" t="s">
         <v>3488</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -14999,12 +15006,6 @@
       <c r="D22" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3491</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>3490</v>
-      </c>
       <c r="G22" s="56" t="s">
         <v>3489</v>
       </c>
@@ -15018,7 +15019,7 @@
       <c r="D23" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="116" t="s">
         <v>3496</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -15037,7 +15038,7 @@
       <c r="D24" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="116" t="s">
         <v>3499</v>
       </c>
       <c r="F24" s="56" t="s">
@@ -15056,13 +15057,13 @@
       <c r="D25" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="116" t="s">
         <v>3502</v>
       </c>
       <c r="F25" s="56" t="s">
         <v>3500</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="55" t="s">
         <v>3501</v>
       </c>
     </row>
@@ -15149,9 +15150,11 @@
       <c r="D30" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="56" t="s">
+        <v>3524</v>
+      </c>
       <c r="F30" s="56" t="s">
-        <v>3518</v>
+        <v>3525</v>
       </c>
       <c r="G30" s="56"/>
     </row>
@@ -15168,10 +15171,10 @@
         <v>1793</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15187,10 +15190,10 @@
         <v>3117</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -15201,13 +15204,13 @@
         <v>3512</v>
       </c>
       <c r="E33" s="56" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F33" s="56" t="s">
         <v>3522</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="G33" s="56" t="s">
         <v>3523</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>3524</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -39204,7 +39207,7 @@
   <conditionalFormatting sqref="F2003">
     <cfRule type="duplicateValues" dxfId="43" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F1:F19 F53 F22 F26:F36">
+  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F1:F19 F53 F26:F36">
     <cfRule type="duplicateValues" dxfId="42" priority="16470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
@@ -40276,13 +40279,15 @@
     <hyperlink ref="G803" r:id="rId1057" xr:uid="{1C6AA2BE-1B2F-4C8B-B544-7FF2C7EFE406}"/>
     <hyperlink ref="F21" r:id="rId1058" display="https://old.reddit.com/r/Bitcoin/comments/hqzp14/technical_the_path_to_taproot_activation/" xr:uid="{58F3B510-8F40-4495-BA49-9E0A33590C9A}"/>
     <hyperlink ref="F20" r:id="rId1059" display="https://old.reddit.com/r/Bitcoin/comments/hrlpnc/technical_taproot_why_activate/" xr:uid="{B2BB5B9E-FF01-4486-8090-676FE907CECE}"/>
-    <hyperlink ref="E22" r:id="rId1060" display="https://twitter.com/dannydiekroeger" xr:uid="{E267CFDF-E340-4DC3-8868-1F50A2388984}"/>
+    <hyperlink ref="E16" r:id="rId1060" display="https://twitter.com/dannydiekroeger" xr:uid="{E267CFDF-E340-4DC3-8868-1F50A2388984}"/>
     <hyperlink ref="F23" r:id="rId1061" display="https://bitcoin.clarkmoody.com/posts/ten-years-bitcoin-market-data" xr:uid="{5DE544D1-9063-45A9-B1EA-F36591706F00}"/>
     <hyperlink ref="G24" r:id="rId1062" xr:uid="{E3E232E5-E200-4C2D-98DE-C1C1BBEA155E}"/>
+    <hyperlink ref="G20" r:id="rId1063" xr:uid="{55CC0937-4F15-483A-8573-49BA8FD577D1}"/>
+    <hyperlink ref="G25" r:id="rId1064" xr:uid="{076F2D6C-0845-4368-BF5B-F6D828B38452}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1063"/>
-  <drawing r:id="rId1064"/>
+  <pageSetup orientation="portrait" r:id="rId1065"/>
+  <drawing r:id="rId1066"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA644B9-4561-496D-B967-E6F120795FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EF95A-D7DB-4A32-9593-96619D7DE65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14714,8 +14714,8 @@
   <dimension ref="A1:Y2212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15076,13 +15076,13 @@
       <c r="D26" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="116" t="s">
         <v>3503</v>
       </c>
       <c r="F26" s="56" t="s">
         <v>3504</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="55" t="s">
         <v>3505</v>
       </c>
     </row>
@@ -15095,13 +15095,13 @@
       <c r="D27" s="56" t="s">
         <v>2344</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="116" t="s">
         <v>3509</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>3508</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="55" t="s">
         <v>3507</v>
       </c>
     </row>
@@ -15118,7 +15118,7 @@
       <c r="F28" s="56" t="s">
         <v>3511</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="55" t="s">
         <v>3510</v>
       </c>
     </row>
@@ -15131,13 +15131,13 @@
       <c r="D29" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="116" t="s">
         <v>3513</v>
       </c>
       <c r="F29" s="56" t="s">
         <v>3515</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="55" t="s">
         <v>3514</v>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       <c r="F31" s="56" t="s">
         <v>3518</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="55" t="s">
         <v>3518</v>
       </c>
     </row>
@@ -40284,10 +40284,15 @@
     <hyperlink ref="G24" r:id="rId1062" xr:uid="{E3E232E5-E200-4C2D-98DE-C1C1BBEA155E}"/>
     <hyperlink ref="G20" r:id="rId1063" xr:uid="{55CC0937-4F15-483A-8573-49BA8FD577D1}"/>
     <hyperlink ref="G25" r:id="rId1064" xr:uid="{076F2D6C-0845-4368-BF5B-F6D828B38452}"/>
+    <hyperlink ref="G26" r:id="rId1065" xr:uid="{FEC3C662-2DC1-44BB-880B-48C09B1F2390}"/>
+    <hyperlink ref="G27" r:id="rId1066" xr:uid="{7CCC2506-DE98-4056-AD91-D35A4BAC4040}"/>
+    <hyperlink ref="G28" r:id="rId1067" xr:uid="{CB4DDBC9-C466-4B05-BE52-DBD2BDE9579B}"/>
+    <hyperlink ref="G29" r:id="rId1068" xr:uid="{05330B77-F7FC-471A-B624-A7BA15141941}"/>
+    <hyperlink ref="G31" r:id="rId1069" xr:uid="{FAF827B2-190C-4698-83C0-ED4CF02CE10E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1065"/>
-  <drawing r:id="rId1066"/>
+  <pageSetup orientation="portrait" r:id="rId1070"/>
+  <drawing r:id="rId1071"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EF95A-D7DB-4A32-9593-96619D7DE65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD4F16-BB91-4621-89FF-49043EC60962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14714,8 +14714,8 @@
   <dimension ref="A1:Y2212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15167,7 +15167,7 @@
       <c r="D31" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="116" t="s">
         <v>1793</v>
       </c>
       <c r="F31" s="56" t="s">
@@ -15186,13 +15186,13 @@
       <c r="D32" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="116" t="s">
         <v>3117</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>3520</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="55" t="s">
         <v>3519</v>
       </c>
     </row>
@@ -15203,13 +15203,13 @@
       <c r="D33" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="116" t="s">
         <v>3521</v>
       </c>
       <c r="F33" s="56" t="s">
         <v>3522</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="55" t="s">
         <v>3523</v>
       </c>
     </row>
@@ -40289,10 +40289,12 @@
     <hyperlink ref="G28" r:id="rId1067" xr:uid="{CB4DDBC9-C466-4B05-BE52-DBD2BDE9579B}"/>
     <hyperlink ref="G29" r:id="rId1068" xr:uid="{05330B77-F7FC-471A-B624-A7BA15141941}"/>
     <hyperlink ref="G31" r:id="rId1069" xr:uid="{FAF827B2-190C-4698-83C0-ED4CF02CE10E}"/>
+    <hyperlink ref="G32" r:id="rId1070" xr:uid="{7ABF923F-C7E1-4BB1-A3E5-8228DBBA1D29}"/>
+    <hyperlink ref="G33" r:id="rId1071" xr:uid="{81568CCE-DB74-4B91-97E9-EB75FF97C777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1070"/>
-  <drawing r:id="rId1071"/>
+  <pageSetup orientation="portrait" r:id="rId1072"/>
+  <drawing r:id="rId1073"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD4F16-BB91-4621-89FF-49043EC60962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA1FEC-27D9-4379-B39A-B582BB0F918F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="4380" yWindow="1320" windowWidth="22365" windowHeight="24660" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5118" uniqueCount="3526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="3529">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10625,6 +10625,15 @@
   </si>
   <si>
     <t>V Mask</t>
+  </si>
+  <si>
+    <t>The Alchemy of Hashpower, Part I.</t>
+  </si>
+  <si>
+    <t>Leo Zhang &amp; Karthik Venkatesh</t>
+  </si>
+  <si>
+    <t>https://www.aniccaresearch.tech/blog/the-alchemy-of-hashpower-part-i</t>
   </si>
 </sst>
 </file>
@@ -14713,9 +14722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14879,7 +14888,6 @@
       <c r="C12" s="75"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14936,9 +14944,15 @@
       <c r="B18" s="56"/>
       <c r="C18" s="75"/>
       <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>3528</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
@@ -39207,7 +39221,7 @@
   <conditionalFormatting sqref="F2003">
     <cfRule type="duplicateValues" dxfId="43" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F1:F19 F53 F26:F36">
+  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F1:F11 F13:F19 F53 F26:F36">
     <cfRule type="duplicateValues" dxfId="42" priority="16470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
@@ -39216,7 +39230,7 @@
   <conditionalFormatting sqref="F24">
     <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G18 G20:G35">
+  <conditionalFormatting sqref="G8:G17 E18 G20:G35">
     <cfRule type="duplicateValues" dxfId="39" priority="17017"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA1FEC-27D9-4379-B39A-B582BB0F918F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610A02B-C8B0-415B-83F8-A3DD286070FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1320" windowWidth="22365" windowHeight="24660" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="3529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="3538">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10634,6 +10634,33 @@
   </si>
   <si>
     <t>https://www.aniccaresearch.tech/blog/the-alchemy-of-hashpower-part-i</t>
+  </si>
+  <si>
+    <t>https://medium.com/quantum-economics/bitcoin-separating-money-from-state-f6418cab2731</t>
+  </si>
+  <si>
+    <t>Bitcoin: Separating Money From State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked </t>
+  </si>
+  <si>
+    <t>https://www.growingyournetworth.com/bitcoin_founding_fathers/</t>
+  </si>
+  <si>
+    <t>Bitcoin &amp; The Founding Fathers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/IDFinancial</t>
+  </si>
+  <si>
+    <t>Bitcoin vs Your Dollar</t>
+  </si>
+  <si>
+    <t>https://anthonypappas.substack.com/p/bitcoin-vs-your-dollar</t>
+  </si>
+  <si>
+    <t>Anthony Pappas</t>
   </si>
 </sst>
 </file>
@@ -14724,7 +14751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14904,18 +14931,30 @@
       <c r="B14" s="56"/>
       <c r="C14" s="75"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="E14" s="56" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>3536</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="75"/>
       <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="56" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>3533</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
@@ -14933,18 +14972,32 @@
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="75" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>3529</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="75" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E18" s="116" t="s">
         <v>3527</v>
       </c>
       <c r="F18" s="56" t="s">

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D610A02B-C8B0-415B-83F8-A3DD286070FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5357B54-8F5D-44ED-AAB7-20E12694ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="3538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5139" uniqueCount="3541">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10661,6 +10661,15 @@
   </si>
   <si>
     <t>Anthony Pappas</t>
+  </si>
+  <si>
+    <t>Bitcoin mining has the potential to save distressed heavy industrial businesses</t>
+  </si>
+  <si>
+    <t>https://medium.com/@MnAMike/bitcoin-mining-has-the-potential-to-save-distressed-heavy-industrial-businesses-3a3679984f92</t>
+  </si>
+  <si>
+    <t>Michael and Harry</t>
   </si>
 </sst>
 </file>
@@ -14749,21 +14758,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="80" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -14896,8 +14905,12 @@
       <c r="B10" s="56"/>
       <c r="C10" s="75"/>
       <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>3490</v>
+      </c>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -14920,11 +14933,21 @@
     <row r="13" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="C13" s="75" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>3538</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>3539</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
@@ -14956,19 +14979,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="3" t="s">
-        <v>3491</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>3490</v>
-      </c>
-      <c r="G16" s="56"/>
-    </row>
+    <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
@@ -14978,13 +14989,13 @@
       <c r="D17" s="56" t="s">
         <v>3512</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="116" t="s">
         <v>3340</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>3530</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>3529</v>
       </c>
     </row>
@@ -39274,7 +39285,7 @@
   <conditionalFormatting sqref="F2003">
     <cfRule type="duplicateValues" dxfId="43" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F1:F11 F13:F19 F53 F26:F36">
+  <conditionalFormatting sqref="F2213:F1048576 F616:F618 F1987 F757 B892 F2029:F2032 F1923:F1925 F1936:F1938 F1942:F1948 F785:F796 F1000:F1002 F1598 G1618 F1132:F1137 F1256:F1258 F1500:F1507 F1253 F337:F344 F333:F335 F244:F255 F751 F463 F307 F325:F327 F329 F384:F386 F595 F613:F614 F636 F574:F593 F976:F977 F1004:F1006 F1008:F1012 F989:F993 F866 F861:F862 F857 F839:F843 F816:F821 F851:F852 F954:F955 F957:F961 F952 F1719:F1720 F1845:F1848 F1868 F1887:F1889 F1894:F1896 F1891:F1892 F1680:F1685 F1705 F1690:F1699 F1688 F1563 F1565 F1578:F1580 F1759:F1764 F1630:F1640 F1643 F1645 F1736 F1532:F1533 F1543:F1547 F1401:F1406 F1408:F1409 F1488:F1493 F1495 F1511:F1513 F1539 F1509 F1474 F1468 F1018:F1046 F1048:F1053 F1344:F1358 F1369:F1370 F1202:F1203 F1852:F1854 F1861 F1437 F1453:F1465 F1439 F1430 F1192:F1199 B2138:B2160 B2164:B2212 B830 F1549 F1582:F1583 F1593 F1083:F1084 F1081 F1077:F1079 F1233:F1236 F1244:F1249 F1558 F1768:F1774 F1777:F1794 F1863:F1864 F1316 F1412 F1302:F1305 F1363 F1277 F831:F836 F889 F919 F893:F895 F1089:F1092 F1096:F1101 F1141:F1142 F1094 F1129 F1110:F1113 F1205 F1239:F1240 F1383:F1391 F1398:F1399 F1416:F1424 F1519 F1963:F1965 F2034 F2044:F2072 F2081:F2088 F2090:F2099 F854:F855 F638:F679 F697:F698 F624:F625 F700:F741 F743:F745 F748 F771 F1055:F1063 F824:F829 F806:F809 F886:F887 F898:F902 F913:F915 F453 F412 F414:F419 F939 F406:F410 F404 F1974:F1977 F2020:F2021 F1835:F1837 F1839:F1842 F941:F950 F2036:F2039 F1992:F2002 F1932:F1934 F1929 F1899:F1900 F1746:F1755 F1569:F1575 F1298 F1288:F1292 F1223 F1212:F1221 F1208:F1209 F1139 F967:F972 F933 F930:F931 F689:F691 F1470:F1472 F1476:F1477 F1523:F1528 F620 F1393:F1395 F354:F360 F362:F363 F346:F352 F365:F381 F322:F323 F2101:F2114 F316:F317 F314 F309:F311 F319:F320 F301:F304 F293:F297 F390:F402 F283:F291 F299 F259:F260 F272:F277 F194 F1372:F1378 F1144:F1161 F1225:F1226 F196:F209 F211:F212 F214 F1380:F1381 F218:F219 F221 F223:F226 F241 F149:F168 F170:F182 F1590 F184:F190 F102:F111 F113:F115 F117:F125 F127:F147 F78:F79 F753:F754 F64:F76 F81:F100 F882 F759 F62 F13:F15 F17:F19 F1:F11 F53 F26:F36">
     <cfRule type="duplicateValues" dxfId="42" priority="16470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
@@ -39283,7 +39294,7 @@
   <conditionalFormatting sqref="F24">
     <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G17 E18 G20:G35">
+  <conditionalFormatting sqref="G8:G15 G17 E18 G20:G35">
     <cfRule type="duplicateValues" dxfId="39" priority="17017"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -40346,7 +40357,7 @@
     <hyperlink ref="G803" r:id="rId1057" xr:uid="{1C6AA2BE-1B2F-4C8B-B544-7FF2C7EFE406}"/>
     <hyperlink ref="F21" r:id="rId1058" display="https://old.reddit.com/r/Bitcoin/comments/hqzp14/technical_the_path_to_taproot_activation/" xr:uid="{58F3B510-8F40-4495-BA49-9E0A33590C9A}"/>
     <hyperlink ref="F20" r:id="rId1059" display="https://old.reddit.com/r/Bitcoin/comments/hrlpnc/technical_taproot_why_activate/" xr:uid="{B2BB5B9E-FF01-4486-8090-676FE907CECE}"/>
-    <hyperlink ref="E16" r:id="rId1060" display="https://twitter.com/dannydiekroeger" xr:uid="{E267CFDF-E340-4DC3-8868-1F50A2388984}"/>
+    <hyperlink ref="E10" r:id="rId1060" display="https://twitter.com/dannydiekroeger" xr:uid="{E267CFDF-E340-4DC3-8868-1F50A2388984}"/>
     <hyperlink ref="F23" r:id="rId1061" display="https://bitcoin.clarkmoody.com/posts/ten-years-bitcoin-market-data" xr:uid="{5DE544D1-9063-45A9-B1EA-F36591706F00}"/>
     <hyperlink ref="G24" r:id="rId1062" xr:uid="{E3E232E5-E200-4C2D-98DE-C1C1BBEA155E}"/>
     <hyperlink ref="G20" r:id="rId1063" xr:uid="{55CC0937-4F15-483A-8573-49BA8FD577D1}"/>
@@ -40358,10 +40369,11 @@
     <hyperlink ref="G31" r:id="rId1069" xr:uid="{FAF827B2-190C-4698-83C0-ED4CF02CE10E}"/>
     <hyperlink ref="G32" r:id="rId1070" xr:uid="{7ABF923F-C7E1-4BB1-A3E5-8228DBBA1D29}"/>
     <hyperlink ref="G33" r:id="rId1071" xr:uid="{81568CCE-DB74-4B91-97E9-EB75FF97C777}"/>
+    <hyperlink ref="G17" r:id="rId1072" xr:uid="{FF44DF48-DBBA-465E-8C69-77748D578BC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1072"/>
-  <drawing r:id="rId1073"/>
+  <pageSetup orientation="portrait" r:id="rId1073"/>
+  <drawing r:id="rId1074"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5357B54-8F5D-44ED-AAB7-20E12694ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB95D36-AD6B-4456-9BBF-BDE0F34DB548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -14760,7 +14760,7 @@
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4877718-AF53-4BCD-A7BD-C127BFBBB25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68461DCE-3554-4AAF-A02D-6A2E1E618AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="2550" windowWidth="37830" windowHeight="14355" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="12345" yWindow="4140" windowWidth="23550" windowHeight="14355" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5142" uniqueCount="3541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="3543">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10670,6 +10670,12 @@
   </si>
   <si>
     <t>https://medium.com/datadriveninvestor/do-not-buy-bitcoin-75da73226530</t>
+  </si>
+  <si>
+    <t>https://medium.com/@dergigi/true-names-not-required-fc6647dfe24a</t>
+  </si>
+  <si>
+    <t>true names not required</t>
   </si>
 </sst>
 </file>
@@ -14769,9 +14775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2218"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1036" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1053" sqref="A1053"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14971,9 +14977,15 @@
       <c r="B15" s="110"/>
       <c r="C15" s="65"/>
       <c r="D15" s="53"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>3541</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5440381-F822-415E-B1BA-61896E9B13CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FADC2B-291C-44B4-9AE9-FE65A14D28D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="3105" yWindow="11775" windowWidth="34575" windowHeight="18090" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5190" uniqueCount="3577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="3579">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10750,12 +10750,6 @@
     <t>Billy MCAdoo</t>
   </si>
   <si>
-    <t>https://medium.com/@bjdweck/two-heads-are-better-than-one-de6df5562535</t>
-  </si>
-  <si>
-    <t>Two Heads Are Better than One</t>
-  </si>
-  <si>
     <t>OLD</t>
   </si>
   <si>
@@ -10778,6 +10772,18 @@
   </si>
   <si>
     <t>Hal article</t>
+  </si>
+  <si>
+    <t>askedf</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>https://medium.com/breez-technology/lightning-is-the-better-way-to-hodl-72f1ee50aa06</t>
+  </si>
+  <si>
+    <t>Roy</t>
   </si>
 </sst>
 </file>
@@ -14868,9 +14874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B6C246-D6A2-4BF9-AE3B-4BBC0C939A7A}">
   <dimension ref="A1:Y2246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15054,13 +15060,13 @@
       <c r="A14" s="53"/>
       <c r="B14" s="110"/>
       <c r="C14" s="65" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="F14" s="53" t="s">
         <v>1870</v>
@@ -15118,37 +15124,47 @@
       <c r="A20" s="53"/>
       <c r="B20" s="110"/>
       <c r="C20" s="65"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3578</v>
+      </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="G20" s="53" t="s">
+        <v>3577</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="110"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="53" t="s">
+        <v>2344</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="53" t="s">
-        <v>3576</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>3575</v>
+        <v>3574</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>3573</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="110"/>
       <c r="C22" s="65"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="43" t="s">
+        <v>3388</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>2408</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>3510</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>3574</v>
+      <c r="G22" s="52" t="s">
+        <v>3572</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15157,13 +15173,13 @@
       <c r="C23" s="65"/>
       <c r="D23" s="53"/>
       <c r="E23" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>3570</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>3571</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>3572</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>3573</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15172,25 +15188,23 @@
       <c r="C24" s="65"/>
       <c r="D24" s="53"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="53" t="s">
-        <v>3568</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>3567</v>
-      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="110"/>
       <c r="C25" s="65"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="53" t="s">
+        <v>3511</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>3566</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>3565</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="52" t="s">
         <v>3564</v>
       </c>
     </row>
@@ -15198,14 +15212,16 @@
       <c r="A26" s="53"/>
       <c r="B26" s="110"/>
       <c r="C26" s="65"/>
-      <c r="D26" s="53"/>
+      <c r="D26" s="53" t="s">
+        <v>3479</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>3348</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>3510</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="52" t="s">
         <v>3563</v>
       </c>
     </row>
@@ -15215,14 +15231,16 @@
         <v>44057</v>
       </c>
       <c r="C27" s="65"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="53" t="s">
+        <v>2344</v>
+      </c>
       <c r="E27" s="3" t="s">
         <v>3562</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>3561</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="52" t="s">
         <v>3560</v>
       </c>
     </row>
@@ -15232,14 +15250,16 @@
         <v>44060</v>
       </c>
       <c r="C28" s="65"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="53" t="s">
+        <v>3575</v>
+      </c>
       <c r="E28" s="3" t="s">
         <v>3559</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>3558</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>3557</v>
       </c>
     </row>
@@ -15249,14 +15269,16 @@
         <v>44049</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="53"/>
+      <c r="D29" s="53" t="s">
+        <v>3575</v>
+      </c>
       <c r="E29" s="3" t="s">
         <v>1762</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>3556</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>3555</v>
       </c>
     </row>
@@ -15264,14 +15286,16 @@
       <c r="A30" s="53"/>
       <c r="B30" s="110"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="53" t="s">
+        <v>3575</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>2431</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>3547</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>3546</v>
       </c>
     </row>
@@ -15281,14 +15305,16 @@
       </c>
       <c r="B31" s="110"/>
       <c r="C31" s="65"/>
-      <c r="D31" s="53"/>
+      <c r="D31" s="53" t="s">
+        <v>3575</v>
+      </c>
       <c r="E31" s="3" t="s">
         <v>3545</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>3544</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>3543</v>
       </c>
     </row>
@@ -15303,7 +15329,7 @@
       <c r="F32" s="53" t="s">
         <v>3539</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>3540</v>
       </c>
     </row>
@@ -15311,14 +15337,16 @@
       <c r="A33" s="53"/>
       <c r="B33" s="110"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="53"/>
+      <c r="D33" s="53" t="s">
+        <v>3576</v>
+      </c>
       <c r="E33" s="3" t="s">
         <v>1786</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>3542</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>3541</v>
       </c>
     </row>
@@ -15326,14 +15354,16 @@
       <c r="A34" s="53"/>
       <c r="B34" s="110"/>
       <c r="C34" s="65"/>
-      <c r="D34" s="53"/>
+      <c r="D34" s="53" t="s">
+        <v>2344</v>
+      </c>
       <c r="E34" s="3" t="s">
         <v>2470</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>3549</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="52" t="s">
         <v>3548</v>
       </c>
     </row>
@@ -40733,10 +40763,23 @@
     <hyperlink ref="G66" r:id="rId1070" xr:uid="{7ABF923F-C7E1-4BB1-A3E5-8228DBBA1D29}"/>
     <hyperlink ref="G67" r:id="rId1071" xr:uid="{81568CCE-DB74-4B91-97E9-EB75FF97C777}"/>
     <hyperlink ref="G51" r:id="rId1072" xr:uid="{FF44DF48-DBBA-465E-8C69-77748D578BC4}"/>
+    <hyperlink ref="G21" r:id="rId1073" xr:uid="{DB415521-1D23-420A-8294-BD047D44A4B6}"/>
+    <hyperlink ref="G22" r:id="rId1074" xr:uid="{99D1F644-AFF6-4E93-959E-51F3FA3B3542}"/>
+    <hyperlink ref="G23" r:id="rId1075" xr:uid="{CC1EFEB6-DAB0-4B4D-B1F5-D778A586A148}"/>
+    <hyperlink ref="G25" r:id="rId1076" xr:uid="{23F96977-170A-4FA8-B625-3E6AB6CDC33F}"/>
+    <hyperlink ref="G26" r:id="rId1077" xr:uid="{1665A247-8B2D-48EC-A168-4A25F3A50883}"/>
+    <hyperlink ref="G27" r:id="rId1078" xr:uid="{AC0D0CE1-2D78-4058-A757-14DCF23D2E17}"/>
+    <hyperlink ref="G28" r:id="rId1079" xr:uid="{B985768F-7F57-4336-B3E7-5B38278F1AC1}"/>
+    <hyperlink ref="G29" r:id="rId1080" xr:uid="{40B2CF03-1764-46B0-AB5D-353336B88BE3}"/>
+    <hyperlink ref="G30" r:id="rId1081" xr:uid="{4D4430EC-F9E5-4757-9E58-7666BB90E5BE}"/>
+    <hyperlink ref="G31" r:id="rId1082" xr:uid="{413574A7-CCDA-4B50-B258-9F7045E57160}"/>
+    <hyperlink ref="G32" r:id="rId1083" xr:uid="{5D6E15E0-7B55-4D3E-9372-21BE17E76733}"/>
+    <hyperlink ref="G33" r:id="rId1084" xr:uid="{3B112879-2D05-41A6-9EA1-7468B1A18B7F}"/>
+    <hyperlink ref="G34" r:id="rId1085" xr:uid="{F55CAEA2-05B5-4175-A8C3-08DB2BBB91EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1073"/>
-  <drawing r:id="rId1074"/>
+  <pageSetup orientation="portrait" r:id="rId1086"/>
+  <drawing r:id="rId1087"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FADC2B-291C-44B4-9AE9-FE65A14D28D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143945C-6591-4E8C-8839-FAC6EDDE33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="11775" windowWidth="34575" windowHeight="18090" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -14875,8 +14875,8 @@
   <dimension ref="A1:Y2246"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15125,13 +15125,13 @@
       <c r="B20" s="110"/>
       <c r="C20" s="65"/>
       <c r="D20" s="53" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E20" s="92" t="s">
         <v>3578</v>
       </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="52" t="s">
         <v>3577</v>
       </c>
     </row>
@@ -15142,7 +15142,7 @@
       <c r="D21" s="53" t="s">
         <v>2344</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="53" t="s">
         <v>3574</v>
       </c>
@@ -15155,9 +15155,9 @@
       <c r="B22" s="110"/>
       <c r="C22" s="65"/>
       <c r="D22" s="43" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>2408</v>
       </c>
       <c r="F22" s="53" t="s">
@@ -15198,7 +15198,7 @@
       <c r="D25" s="53" t="s">
         <v>3511</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="92" t="s">
         <v>3566</v>
       </c>
       <c r="F25" s="53" t="s">
@@ -15213,9 +15213,9 @@
       <c r="B26" s="110"/>
       <c r="C26" s="65"/>
       <c r="D26" s="53" t="s">
-        <v>3479</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E26" s="92" t="s">
         <v>3348</v>
       </c>
       <c r="F26" s="53" t="s">
@@ -15234,7 +15234,7 @@
       <c r="D27" s="53" t="s">
         <v>2344</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="92" t="s">
         <v>3562</v>
       </c>
       <c r="F27" s="53" t="s">
@@ -15251,9 +15251,9 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="53" t="s">
-        <v>3575</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E28" s="92" t="s">
         <v>3559</v>
       </c>
       <c r="F28" s="53" t="s">
@@ -15270,9 +15270,9 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="53" t="s">
-        <v>3575</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E29" s="92" t="s">
         <v>1762</v>
       </c>
       <c r="F29" s="53" t="s">
@@ -15287,9 +15287,9 @@
       <c r="B30" s="110"/>
       <c r="C30" s="65"/>
       <c r="D30" s="53" t="s">
-        <v>3575</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E30" s="92" t="s">
         <v>2431</v>
       </c>
       <c r="F30" s="53" t="s">
@@ -15357,7 +15357,7 @@
       <c r="D34" s="53" t="s">
         <v>2344</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="92" t="s">
         <v>2470</v>
       </c>
       <c r="F34" s="53" t="s">
@@ -40776,10 +40776,11 @@
     <hyperlink ref="G32" r:id="rId1083" xr:uid="{5D6E15E0-7B55-4D3E-9372-21BE17E76733}"/>
     <hyperlink ref="G33" r:id="rId1084" xr:uid="{3B112879-2D05-41A6-9EA1-7468B1A18B7F}"/>
     <hyperlink ref="G34" r:id="rId1085" xr:uid="{F55CAEA2-05B5-4175-A8C3-08DB2BBB91EA}"/>
+    <hyperlink ref="G20" r:id="rId1086" xr:uid="{10451FA6-BADA-410B-95F2-FF8C018BDCC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1086"/>
-  <drawing r:id="rId1087"/>
+  <pageSetup orientation="portrait" r:id="rId1087"/>
+  <drawing r:id="rId1088"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143945C-6591-4E8C-8839-FAC6EDDE33AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010461-7619-42AF-B2EB-69E821B8BB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -14875,8 +14875,8 @@
   <dimension ref="A1:Y2246"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="3" topLeftCell="A1460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1455" sqref="G1455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32372,7 +32372,7 @@
       <c r="F1469" t="s">
         <v>2015</v>
       </c>
-      <c r="G1469" t="s">
+      <c r="G1469" s="3" t="s">
         <v>2014</v>
       </c>
     </row>
@@ -40777,10 +40777,11 @@
     <hyperlink ref="G33" r:id="rId1084" xr:uid="{3B112879-2D05-41A6-9EA1-7468B1A18B7F}"/>
     <hyperlink ref="G34" r:id="rId1085" xr:uid="{F55CAEA2-05B5-4175-A8C3-08DB2BBB91EA}"/>
     <hyperlink ref="G20" r:id="rId1086" xr:uid="{10451FA6-BADA-410B-95F2-FF8C018BDCC4}"/>
+    <hyperlink ref="G1469" r:id="rId1087" xr:uid="{016B3785-A2D1-49C8-95B6-22006CAA01FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1087"/>
-  <drawing r:id="rId1088"/>
+  <pageSetup orientation="portrait" r:id="rId1088"/>
+  <drawing r:id="rId1089"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA9F21-2258-4B54-9212-17C1A498ADEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562FDD45-2C71-4DAB-AE98-C5E07E2E1B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="4470" windowWidth="17295" windowHeight="18285" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="16110" yWindow="10155" windowWidth="17295" windowHeight="18285" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="3633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5267" uniqueCount="3636">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10946,6 +10946,15 @@
   </si>
   <si>
     <t>https://twitter.com/yassineARK/status/1301649482619269120</t>
+  </si>
+  <si>
+    <t>Why we may fail Lightning</t>
+  </si>
+  <si>
+    <t>https://medium.com/@antoine.riard/why-we-may-fail-lightning-ee3692de1a55</t>
+  </si>
+  <si>
+    <t>Antoine Riard</t>
   </si>
 </sst>
 </file>
@@ -15037,8 +15046,8 @@
   <dimension ref="A1:Y2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15591,9 +15600,15 @@
       <c r="B39" s="110"/>
       <c r="C39" s="65"/>
       <c r="D39" s="53"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="E39" s="3" t="s">
+        <v>3635</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>3633</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>3634</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562FDD45-2C71-4DAB-AE98-C5E07E2E1B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADBEE0-735A-4C27-A2DE-29B3BF156D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="10155" windowWidth="17295" windowHeight="18285" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5267" uniqueCount="3636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="3631">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10807,12 +10807,6 @@
     <t>https://twitter.com/brian_trollz/status/1306361998586806273</t>
   </si>
   <si>
-    <t>On Bitcoin’s UX</t>
-  </si>
-  <si>
-    <t>https://www.swanbitcoin.com/on-bitcoins-ux/</t>
-  </si>
-  <si>
     <t>The Alchemy of Hashpower, Part II.</t>
   </si>
   <si>
@@ -10873,12 +10867,6 @@
     <t>Eledctric Capital</t>
   </si>
   <si>
-    <t>Bitcoin and the printing press</t>
-  </si>
-  <si>
-    <t>https://twitter.com/anilsaidso/status/1301538993654214656</t>
-  </si>
-  <si>
     <t>A Monetary Layer For The Internet</t>
   </si>
   <si>
@@ -10942,12 +10930,6 @@
     <t>https://twitter.com/dannydiekroeger/status/1300154226123984896</t>
   </si>
   <si>
-    <t>Bitcoin: A Novel Economic Institution</t>
-  </si>
-  <si>
-    <t>https://twitter.com/yassineARK/status/1301649482619269120</t>
-  </si>
-  <si>
     <t>Why we may fail Lightning</t>
   </si>
   <si>
@@ -10955,6 +10937,9 @@
   </si>
   <si>
     <t>Antoine Riard</t>
+  </si>
+  <si>
+    <t>asked via irc</t>
   </si>
 </sst>
 </file>
@@ -15047,7 +15032,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15203,20 +15188,36 @@
     <row r="11" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="110"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="65" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>3567</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="110"/>
       <c r="C12" s="65"/>
       <c r="D12" s="53"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="E12" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>3598</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>3599</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
@@ -15224,26 +15225,24 @@
       <c r="C13" s="65"/>
       <c r="D13" s="53"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>3619</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="110"/>
-      <c r="C14" s="65" t="s">
-        <v>3567</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>3567</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>3568</v>
+        <v>3562</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>1870</v>
+        <v>3623</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>1869</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15271,8 +15270,12 @@
       <c r="B17" s="110">
         <v>44075</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>3581</v>
       </c>
@@ -15286,25 +15289,33 @@
     <row r="18" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="110"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="3" t="s">
-        <v>3585</v>
+      <c r="C18" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>3362</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>3583</v>
+        <v>3551</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>3584</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="110"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="65" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>1786</v>
+        <v>3588</v>
       </c>
       <c r="F19" s="53" t="s">
         <v>3586</v>
@@ -15318,16 +15329,20 @@
         <v>3554</v>
       </c>
       <c r="B20" s="110"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53" t="s">
-        <v>3362</v>
+      <c r="C20" s="65" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3578</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>3551</v>
+        <v>3589</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>3550</v>
+        <v>3590</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>3552</v>
@@ -15336,279 +15351,262 @@
     <row r="21" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="110"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>3590</v>
+        <v>3296</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>3588</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>3589</v>
+        <v>3591</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>3592</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="110"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>3578</v>
+        <v>2535</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="110"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>3296</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>3593</v>
+        <v>3601</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>3594</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="3" t="s">
-        <v>2535</v>
-      </c>
+      <c r="C24" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="53" t="s">
-        <v>3596</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>3595</v>
+        <v>3625</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>3626</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="110"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>3599</v>
+        <v>3562</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>3597</v>
+        <v>3606</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>3598</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="110"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>3362</v>
+        <v>3499</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>3600</v>
+        <v>3611</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>3601</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="110"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E27" s="3" t="s">
-        <v>3602</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>3603</v>
+        <v>3614</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3613</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>3604</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="110"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="3" t="s">
-        <v>3607</v>
+      <c r="C28" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3617</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>3605</v>
+        <v>3616</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>3606</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="110"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3597</v>
+      </c>
       <c r="F29" s="53" t="s">
-        <v>3608</v>
+        <v>3595</v>
       </c>
       <c r="G29" s="53" t="s">
-        <v>3609</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="110"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>3562</v>
+        <v>3622</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>3610</v>
+        <v>3621</v>
       </c>
       <c r="G30" s="53" t="s">
-        <v>3611</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="110"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="65" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>3630</v>
+      </c>
       <c r="E31" s="3" t="s">
-        <v>3499</v>
+        <v>3629</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>3615</v>
+        <v>3627</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>3614</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="110"/>
       <c r="C32" s="65"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="53" t="s">
+        <v>3388</v>
+      </c>
       <c r="E32" s="3" t="s">
-        <v>3618</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3617</v>
+        <v>3585</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>3583</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>3616</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="110"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="53"/>
-      <c r="E33" t="s">
-        <v>3621</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>3620</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>3619</v>
-      </c>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="110"/>
       <c r="C34" s="65"/>
       <c r="D34" s="53"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>3605</v>
+      </c>
       <c r="F34" s="53" t="s">
-        <v>3622</v>
+        <v>3603</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>3623</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="110"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="3" t="s">
-        <v>3626</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>3625</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>3624</v>
-      </c>
     </row>
     <row r="36" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="110"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="3" t="s">
-        <v>3562</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>3627</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>3628</v>
-      </c>
     </row>
     <row r="37" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="110"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="53" t="s">
-        <v>3629</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>3630</v>
-      </c>
     </row>
     <row r="38" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="110"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="3"/>
-      <c r="F38" t="s">
-        <v>3631</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3632</v>
-      </c>
     </row>
     <row r="39" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="110"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="3" t="s">
-        <v>3635</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>3633</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>3634</v>
-      </c>
     </row>
     <row r="40" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
@@ -26330,10 +26328,10 @@
         <v>43405</v>
       </c>
       <c r="F818" t="s">
-        <v>3612</v>
+        <v>3608</v>
       </c>
       <c r="G818" t="s">
-        <v>3613</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
@@ -40268,17 +40266,17 @@
   <conditionalFormatting sqref="F2069">
     <cfRule type="duplicateValues" dxfId="43" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2279:F1048576 F678:F680 F2053 F823 B958 F2095:F2098 F1989:F1991 F2002:F2004 F2008:F2014 F851:F862 F1066:F1068 F1664 G1684 F1198:F1203 F1322:F1324 F1566:F1573 F1319 F399:F406 F395:F397 F306:F317 F813:F817 F525 F369 F387:F389 F391 F446:F448 F657 F675:F676 F698 F636:F655 F1042:F1043 F1070:F1072 F1074:F1078 F1055:F1059 F932 F927:F928 F923 F905:F909 F882:F887 F917:F918 F1020:F1021 F1023:F1027 F1018 F1785:F1786 F1911:F1914 F1934 F1953:F1955 F1960:F1962 F1957:F1958 F1746:F1751 F1771 F1756:F1765 F1754 F1629 F1631 F1644:F1646 F1825:F1830 F1696:F1706 F1709 F1711 F1802 F1598:F1599 F1609:F1613 F1467:F1472 F1474:F1475 F1554:F1559 F1561 F1577:F1579 F1605 F1575 F1540 F1534 F1084:F1112 F1114:F1119 F1410:F1424 F1435:F1436 F1268:F1269 F1918:F1920 F1927 F1503 F1519:F1531 F1505 F1496 F1258:F1265 B2204:B2226 B2230:B2278 B896 F1615 F1648:F1649 F1659 F1149:F1150 F1147 F1143:F1145 F1299:F1302 F1310:F1315 F1624 F1834:F1840 F1843:F1860 F1929:F1930 F1382 F1478 F1368:F1371 F1429 F1343 F897:F902 F955 F985 F959:F961 F1155:F1158 F1162:F1167 F1207:F1208 F1160 F1195 F1176:F1179 F1271 F1305:F1306 F1449:F1457 F1464:F1465 F1482:F1490 F1585 F2029:F2031 F2100 F2110:F2138 F2147:F2154 F2156:F2165 F920:F921 F700:F741 F759:F760 F686:F687 F762:F803 F805:F807 F810 F837 F1121:F1129 F890:F895 F872:F875 F952:F953 F964:F968 F979:F981 F515 F474 F476:F481 F1005 F468:F472 F466 F2040:F2043 F2086:F2087 F1901:F1903 F1905:F1908 F1007:F1016 F2102:F2105 F2058:F2068 F1998:F2000 F1995 F1965:F1966 F1812:F1821 F1635:F1641 F1364 F1354:F1358 F1289 F1278:F1287 F1274:F1275 F1205 F1033:F1038 F999 F996:F997 F751:F753 F1536:F1538 F1542:F1543 F1589:F1594 F682 F1459:F1461 F416:F422 F424:F425 F408:F414 F427:F443 F384:F385 F2167:F2180 F378:F379 F376 F371:F373 F381:F382 F363:F366 F355:F359 F452:F464 F345:F353 F361 F321:F322 F334:F339 F256 F1438:F1444 F1210:F1227 F1291:F1292 F258:F271 F273:F274 F276 F1446:F1447 F280:F281 F283 F285:F288 F303 F211:F230 F232:F244 F1656 F246:F252 F164:F173 F175:F177 F179:F187 F189:F209 F140:F141 F819:F820 F126:F138 F143:F162 F948 F825 F124 F75:F77 F79:F81 F64:F67 F69:F73 F1:F31 F115 F88:F98 F33:F37 F39:F62">
-    <cfRule type="duplicateValues" dxfId="42" priority="16470"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20 G64:G67 G69:G77 G8:G37 G79 E80 G82:G97 G39:G62">
-    <cfRule type="duplicateValues" dxfId="39" priority="17017"/>
+  <conditionalFormatting sqref="F28:F32 F2279:F1048576 F678:F680 F2053 F823 B958 F2095:F2098 F1989:F1991 F2002:F2004 F2008:F2014 F851:F862 F1066:F1068 F1664 G1684 F1198:F1203 F1322:F1324 F1566:F1573 F1319 F399:F406 F395:F397 F306:F317 F813:F817 F525 F369 F387:F389 F391 F446:F448 F657 F675:F676 F698 F636:F655 F1042:F1043 F1070:F1072 F1074:F1078 F1055:F1059 F932 F927:F928 F923 F905:F909 F882:F887 F917:F918 F1020:F1021 F1023:F1027 F1018 F1785:F1786 F1911:F1914 F1934 F1953:F1955 F1960:F1962 F1957:F1958 F1746:F1751 F1771 F1756:F1765 F1754 F1629 F1631 F1644:F1646 F1825:F1830 F1696:F1706 F1709 F1711 F1802 F1598:F1599 F1609:F1613 F1467:F1472 F1474:F1475 F1554:F1559 F1561 F1577:F1579 F1605 F1575 F1540 F1534 F1084:F1112 F1114:F1119 F1410:F1424 F1435:F1436 F1268:F1269 F1918:F1920 F1927 F1503 F1519:F1531 F1505 F1496 F1258:F1265 B2204:B2226 B2230:B2278 B896 F1615 F1648:F1649 F1659 F1149:F1150 F1147 F1143:F1145 F1299:F1302 F1310:F1315 F1624 F1834:F1840 F1843:F1860 F1929:F1930 F1382 F1478 F1368:F1371 F1429 F1343 F897:F902 F955 F985 F959:F961 F1155:F1158 F1162:F1167 F1207:F1208 F1160 F1195 F1176:F1179 F1271 F1305:F1306 F1449:F1457 F1464:F1465 F1482:F1490 F1585 F2029:F2031 F2100 F2110:F2138 F2147:F2154 F2156:F2165 F920:F921 F700:F741 F759:F760 F686:F687 F762:F803 F805:F807 F810 F837 F1121:F1129 F890:F895 F872:F875 F952:F953 F964:F968 F979:F981 F515 F474 F476:F481 F1005 F468:F472 F466 F2040:F2043 F2086:F2087 F1901:F1903 F1905:F1908 F1007:F1016 F2102:F2105 F2058:F2068 F1998:F2000 F1995 F1965:F1966 F1812:F1821 F1635:F1641 F1364 F1354:F1358 F1289 F1278:F1287 F1274:F1275 F1205 F1033:F1038 F999 F996:F997 F751:F753 F1536:F1538 F1542:F1543 F1589:F1594 F682 F1459:F1461 F416:F422 F424:F425 F408:F414 F427:F443 F384:F385 F2167:F2180 F378:F379 F376 F371:F373 F381:F382 F363:F366 F355:F359 F452:F464 F345:F353 F361 F321:F322 F334:F339 F256 F1438:F1444 F1210:F1227 F1291:F1292 F258:F271 F273:F274 F276 F1446:F1447 F280:F281 F283 F285:F288 F303 F211:F230 F232:F244 F1656 F246:F252 F164:F173 F175:F177 F179:F187 F189:F209 F140:F141 F819:F820 F126:F138 F143:F162 F948 F825 F124 F75:F77 F79:F81 F64:F67 F69:F73 F115 F88:F98 F1:F26 F34 F40:F62">
+    <cfRule type="duplicateValues" dxfId="40" priority="18870"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34 I20 G64:G67 G69:G77 G8:G32 G79 E80 G82:G97 G40:G62">
+    <cfRule type="duplicateValues" dxfId="39" priority="19099"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2178" r:id="rId1" xr:uid="{AFBF76FE-3273-4E28-8D18-C9B13B903D61}"/>
@@ -41368,10 +41366,13 @@
     <hyperlink ref="G62" r:id="rId1085" xr:uid="{F55CAEA2-05B5-4175-A8C3-08DB2BBB91EA}"/>
     <hyperlink ref="G48" r:id="rId1086" xr:uid="{10451FA6-BADA-410B-95F2-FF8C018BDCC4}"/>
     <hyperlink ref="G1501" r:id="rId1087" xr:uid="{016B3785-A2D1-49C8-95B6-22006CAA01FA}"/>
+    <hyperlink ref="G21" r:id="rId1088" xr:uid="{2A6630DE-0EDD-4576-BD74-0F22939D51CA}"/>
+    <hyperlink ref="E30" r:id="rId1089" xr:uid="{292C776E-9E76-4AD7-B867-2F77EB68D2F5}"/>
+    <hyperlink ref="G24" r:id="rId1090" xr:uid="{848BBFB9-7BF2-4184-8508-F36F5463607B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1088"/>
-  <drawing r:id="rId1089"/>
+  <pageSetup orientation="portrait" r:id="rId1091"/>
+  <drawing r:id="rId1092"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADBEE0-735A-4C27-A2DE-29B3BF156D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F720E8-D20A-4187-8515-37DFB299F937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -15032,7 +15032,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15276,13 +15276,13 @@
       <c r="D17" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="92" t="s">
         <v>3581</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>3580</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>3579</v>
       </c>
     </row>
@@ -15295,13 +15295,13 @@
       <c r="D18" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="87" t="s">
         <v>3362</v>
       </c>
       <c r="F18" s="53" t="s">
         <v>3551</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>3550</v>
       </c>
     </row>
@@ -41369,10 +41369,12 @@
     <hyperlink ref="G21" r:id="rId1088" xr:uid="{2A6630DE-0EDD-4576-BD74-0F22939D51CA}"/>
     <hyperlink ref="E30" r:id="rId1089" xr:uid="{292C776E-9E76-4AD7-B867-2F77EB68D2F5}"/>
     <hyperlink ref="G24" r:id="rId1090" xr:uid="{848BBFB9-7BF2-4184-8508-F36F5463607B}"/>
+    <hyperlink ref="G17" r:id="rId1091" xr:uid="{4F913B93-FCCF-434E-B366-212A802200DF}"/>
+    <hyperlink ref="G18" r:id="rId1092" xr:uid="{84C70725-8004-419A-A6A2-BC890C240B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1091"/>
-  <drawing r:id="rId1092"/>
+  <pageSetup orientation="portrait" r:id="rId1093"/>
+  <drawing r:id="rId1094"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F720E8-D20A-4187-8515-37DFB299F937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC1E99-74F5-4D57-854E-7850D942886D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5282" uniqueCount="3626">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10856,21 +10856,6 @@
   </si>
   <si>
     <t>https://twitter.com/giacomozucco/status/1305828218067456000</t>
-  </si>
-  <si>
-    <t>The Case for Collaboration: Why the US Government and Crypto Ecosystem Must Work Together</t>
-  </si>
-  <si>
-    <t>https://medium.com/electric-capital/the-case-for-collaboration-why-the-us-government-and-crypto-ecosystem-must-work-together-4de0e97396a</t>
-  </si>
-  <si>
-    <t>Eledctric Capital</t>
-  </si>
-  <si>
-    <t>A Monetary Layer For The Internet</t>
-  </si>
-  <si>
-    <t>https://bitcoinmagazine.com/articles/a-monetary-layer-for-the-internet</t>
   </si>
   <si>
     <t>Crypto-Current, An Introduction to Bitcoin and Philosophy</t>
@@ -15031,8 +15016,8 @@
   <dimension ref="A1:Y2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15226,10 +15211,10 @@
       <c r="D13" s="53"/>
       <c r="E13" s="3"/>
       <c r="F13" s="53" t="s">
-        <v>3618</v>
+        <v>3613</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>3619</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15239,10 +15224,10 @@
         <v>3562</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>3623</v>
+        <v>3618</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>3624</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15276,7 +15261,7 @@
       <c r="D17" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E17" s="92" t="s">
+      <c r="E17" s="72" t="s">
         <v>3581</v>
       </c>
       <c r="F17" s="53" t="s">
@@ -15295,7 +15280,7 @@
       <c r="D18" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="95" t="s">
         <v>3362</v>
       </c>
       <c r="F18" s="53" t="s">
@@ -15314,13 +15299,13 @@
       <c r="D19" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="72" t="s">
         <v>3588</v>
       </c>
       <c r="F19" s="53" t="s">
         <v>3586</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="52" t="s">
         <v>3587</v>
       </c>
     </row>
@@ -15335,13 +15320,13 @@
       <c r="D20" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="72" t="s">
         <v>3578</v>
       </c>
       <c r="F20" s="53" t="s">
         <v>3589</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="52" t="s">
         <v>3590</v>
       </c>
       <c r="I20" s="53" t="s">
@@ -15357,7 +15342,7 @@
       <c r="D21" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="72" t="s">
         <v>3296</v>
       </c>
       <c r="F21" s="53" t="s">
@@ -15376,13 +15361,13 @@
       <c r="D22" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="72" t="s">
         <v>2535</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>3594</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="52" t="s">
         <v>3593</v>
       </c>
     </row>
@@ -15395,13 +15380,13 @@
       <c r="D23" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="72" t="s">
         <v>3600</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>3601</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52" t="s">
         <v>3602</v>
       </c>
     </row>
@@ -15414,32 +15399,22 @@
       <c r="D24" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="53" t="s">
-        <v>3625</v>
+        <v>3620</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>3626</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="110"/>
-      <c r="C25" s="65" t="s">
-        <v>3511</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3562</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>3606</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>3607</v>
-      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
@@ -15450,14 +15425,14 @@
       <c r="D26" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="72" t="s">
         <v>3499</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>3611</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>3610</v>
+        <v>3606</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>3605</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15469,14 +15444,14 @@
       <c r="D27" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3614</v>
+      <c r="E27" s="72" t="s">
+        <v>3609</v>
       </c>
       <c r="F27" t="s">
-        <v>3613</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>3612</v>
+        <v>3608</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>3607</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15488,14 +15463,14 @@
       <c r="D28" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E28" t="s">
-        <v>3617</v>
+      <c r="E28" s="44" t="s">
+        <v>3612</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>3616</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>3615</v>
+        <v>3611</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>3610</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15507,13 +15482,13 @@
       <c r="D29" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="72" t="s">
         <v>3597</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>3595</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>3596</v>
       </c>
     </row>
@@ -15523,14 +15498,14 @@
       <c r="D30" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>3622</v>
+      <c r="E30" s="72" t="s">
+        <v>3617</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>3621</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>3620</v>
+        <v>3616</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>3615</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15540,16 +15515,16 @@
         <v>3511</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>3630</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3629</v>
+        <v>3625</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>3624</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>3627</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>3628</v>
+        <v>3622</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>3623</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -15559,34 +15534,29 @@
       <c r="D32" s="53" t="s">
         <v>3388</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="72" t="s">
         <v>3585</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>3583</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>3584</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="110"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="110"/>
       <c r="C34" s="65"/>
       <c r="D34" s="53"/>
-      <c r="E34" s="3" t="s">
-        <v>3605</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>3603</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>3604</v>
-      </c>
+      <c r="E34" s="72"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
@@ -26328,10 +26298,10 @@
         <v>43405</v>
       </c>
       <c r="F818" t="s">
-        <v>3608</v>
+        <v>3603</v>
       </c>
       <c r="G818" t="s">
-        <v>3609</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
@@ -41371,10 +41341,21 @@
     <hyperlink ref="G24" r:id="rId1090" xr:uid="{848BBFB9-7BF2-4184-8508-F36F5463607B}"/>
     <hyperlink ref="G17" r:id="rId1091" xr:uid="{4F913B93-FCCF-434E-B366-212A802200DF}"/>
     <hyperlink ref="G18" r:id="rId1092" xr:uid="{84C70725-8004-419A-A6A2-BC890C240B13}"/>
+    <hyperlink ref="G19" r:id="rId1093" xr:uid="{A772749F-CE23-448D-B775-209EFC0A09CB}"/>
+    <hyperlink ref="G20" r:id="rId1094" xr:uid="{35E56658-43ED-4E46-8F95-F9D8787616F4}"/>
+    <hyperlink ref="G22" r:id="rId1095" xr:uid="{AFE5066A-24B2-44BC-B64E-2EC5D2CDFF72}"/>
+    <hyperlink ref="G23" r:id="rId1096" xr:uid="{E86C4698-6975-400B-9F34-70011B0B037B}"/>
+    <hyperlink ref="G26" r:id="rId1097" xr:uid="{967315EB-81D2-490C-AD53-C9D62BADF1ED}"/>
+    <hyperlink ref="G27" r:id="rId1098" xr:uid="{B9C49732-447C-4C4E-9FDE-985B383E153F}"/>
+    <hyperlink ref="G28" r:id="rId1099" xr:uid="{A5C6EC0C-46F4-4A65-9BC5-6FCDB5AAE74C}"/>
+    <hyperlink ref="G29" r:id="rId1100" xr:uid="{DA891EEC-67CD-4B23-87F5-861A91651D81}"/>
+    <hyperlink ref="G30" r:id="rId1101" xr:uid="{3B309C58-BA6B-4DF9-ADB1-B2BCFA2279D9}"/>
+    <hyperlink ref="G31" r:id="rId1102" xr:uid="{603A75BA-A121-428A-BAE3-6F760202D21D}"/>
+    <hyperlink ref="G32" r:id="rId1103" xr:uid="{24C73803-9955-4ABC-9ACE-E8651BF78BE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1093"/>
-  <drawing r:id="rId1094"/>
+  <pageSetup orientation="portrait" r:id="rId1104"/>
+  <drawing r:id="rId1105"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC1E99-74F5-4D57-854E-7850D942886D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44743EBF-6ABE-4FD0-82D6-D9AC00A63629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -15016,8 +15016,8 @@
   <dimension ref="A1:Y2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44743EBF-6ABE-4FD0-82D6-D9AC00A63629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FC7A4-E267-4E47-8251-18BEA77B1DEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3386004-856F-49FD-8B4B-AC56A84FFCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A49F798-10D9-4F51-BAFB-5A6FF6C9834D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
+    <workbookView xWindow="18465" yWindow="1605" windowWidth="27090" windowHeight="22425" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="3629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="3653">
   <si>
     <t>Crypto Words</t>
   </si>
@@ -10934,6 +10934,78 @@
   </si>
   <si>
     <t>Murch</t>
+  </si>
+  <si>
+    <t>https://medium.com/@manuelpolavieja/the-intrinsic-value-of-bitcoin-ii-40f8d9f48c73</t>
+  </si>
+  <si>
+    <t>The “intrinsic” value of Bitcoin (II)</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ManuelPolavieja</t>
+  </si>
+  <si>
+    <t>https://bitcoinmagazine.com/articles/introducing-cbpi-a-new-way-to-measure-bitcoin-network-electrical-consumption</t>
+  </si>
+  <si>
+    <t>Introducing CBPI: A New Way To Measure Bitcoin Network Electrical Consumption</t>
+  </si>
+  <si>
+    <t>tyler bain</t>
+  </si>
+  <si>
+    <t>https://estudiobitcoin.com/do-you-trust-your-seed-dont-generate-it-yourself/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/lunaticoin</t>
+  </si>
+  <si>
+    <t>🇬🇧 Do you trust your seed? Don’t!</t>
+  </si>
+  <si>
+    <t>https://medium.com/@OB1Company/scaling-bitcoin-9366988972b6#.gzvdvkbjo</t>
+  </si>
+  <si>
+    <t>Scaling Bitcoin</t>
+  </si>
+  <si>
+    <t>https://medium.com/coinmonks/bitcoin-lockdowns-9a4f41a6a6ff</t>
+  </si>
+  <si>
+    <t>Bitcoin and Lockdowns</t>
+  </si>
+  <si>
+    <t>https://www.brandonquittem.com/bitcoin-rhythms-of-history/</t>
+  </si>
+  <si>
+    <t>Bitcoin and the Rhythms of History</t>
+  </si>
+  <si>
+    <t>https://aclend76.medium.com/bitcoin-as-an-antidote-to-despair-a-psychological-formulation-dbe61b639214</t>
+  </si>
+  <si>
+    <t>Bitcoin as an Antidote to Despair: A Psychological Formulation</t>
+  </si>
+  <si>
+    <t>Aaron Clendenin</t>
+  </si>
+  <si>
+    <t>http://www.erisian.com.au/wordpress/2020/10/26/activating-soft-forks-in-bitcoin</t>
+  </si>
+  <si>
+    <t>Activating Soft forks in Bitcoin</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ajtowns</t>
+  </si>
+  <si>
+    <t>SD Lerner</t>
+  </si>
+  <si>
+    <t>Re: A mistery hidden in the Genesis Block</t>
+  </si>
+  <si>
+    <t>https://bitcointalk.org/index.php?topic=172009.msg1790805#msg1790805</t>
   </si>
 </sst>
 </file>
@@ -15025,8 +15097,8 @@
   <dimension ref="A1:Y2298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="3" topLeftCell="A1885" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1927" sqref="G1927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15257,30 +15329,54 @@
     <row r="16" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="110"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="3" t="s">
+        <v>3631</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="110"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>3633</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>3632</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="110"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="3" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>3637</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>3635</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="110"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>3641</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
@@ -15293,29 +15389,51 @@
       <c r="A21" s="53"/>
       <c r="B21" s="110"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="53" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>3638</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="110"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="E22" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>3643</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="110"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="E23" s="3" t="s">
+        <v>3646</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>3645</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>3644</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="110"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="E24" s="3" t="s">
+        <v>3649</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>3648</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>3647</v>
+      </c>
     </row>
     <row r="25" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
@@ -37022,6 +37140,20 @@
       </c>
       <c r="G1924" s="3" t="s">
         <v>3245</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1925" s="31">
+        <v>41374</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F1925" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="G1925" s="3" t="s">
+        <v>3652</v>
       </c>
     </row>
     <row r="1928" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -40372,13 +40504,13 @@
   <conditionalFormatting sqref="F1248">
     <cfRule type="duplicateValues" dxfId="50" priority="15326"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2220:G2226 G1533:G1534 G967 F966 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G466:G467 G389:G405 G407:G409 F406 G411 G463 G972:G994 G449:G460 G385:G386 G472:G540 G997:G1006 G869:G884 G771:G776 G779:G832 G840:G844 G838 G891:G900 G718:G761 G603:G707 G594:G596 G1903:G1923 G1399:G1456 G1174:G1202 G1319:G1350 G2218 G2212:G2216 G2209:G2210 G1161:G1162 G1027:G1051 G1564:G1586 G1311:G1313 G1559:G1562 G1009:G1024 G1164:G1172 G1458:G1464 G1801:G1886 G1053:G1070 G1140:G1159 G1072:G1137 G542:G585 G1530:G1531 G1315:G1316 G1610:G1611 G1678:G1694 G1230:G1246 G1536:G1557 G847:G865 G1204:G1228 G970 G1765:G1782 G1248:G1308 G323 G598:G600 G1466:G1528 F230 G268:G269 G271 G1379:G1397 G910:G965 G172 G176 G222:G223 G902:G908 G1925:G2088 G2108:G2110 G2090:G2095 G2112:G2191 G1893:G1898 G1615:G1625 G1697:G1763 G1784:G1799 G1588:G1591 G1888:G1890 G2228:G1048576 G1627:G1641 G1649:G1675 G1593:G1608 G1643:G1647 G2194:G2207 G2097:G2104 G1352:G1377">
+  <conditionalFormatting sqref="G2220:G2226 G1533:G1534 G967 F966 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G466:G467 G389:G405 G407:G409 F406 G411 G463 G972:G994 G449:G460 G385:G386 G472:G540 G997:G1006 G869:G884 G771:G776 G779:G832 G840:G844 G838 G891:G900 G718:G761 G603:G707 G594:G596 G1903:G1923 G1399:G1456 G1174:G1202 G1319:G1350 G2218 G2212:G2216 G2209:G2210 G1161:G1162 G1027:G1051 G1564:G1586 G1311:G1313 G1559:G1562 G1009:G1024 G1164:G1172 G1458:G1464 G1801:G1886 G1053:G1070 G1140:G1159 G1072:G1137 G542:G585 G1530:G1531 G1315:G1316 G1610:G1611 G1678:G1694 G1230:G1246 G1536:G1557 G847:G865 G1204:G1228 G970 G1765:G1782 G1248:G1308 G323 G598:G600 G1466:G1528 F230 G268:G269 G271 G1379:G1397 G910:G965 G172 G176 G222:G223 G902:G908 G1926:G2088 G2108:G2110 G2090:G2095 G2112:G2191 G1893:G1898 G1615:G1625 G1697:G1763 G1784:G1799 G1588:G1591 G1888:G1890 G2228:G1048576 G1627:G1641 G1649:G1675 G1593:G1608 G1643:G1647 G2194:G2207 G2097:G2104 G1352:G1377">
     <cfRule type="duplicateValues" dxfId="49" priority="15327"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2220:G2226 G2073 G2130:G2191 G2048:G2051 G2053:G2063 G2104 G849:G853 G1134:G1137 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G389:G405 G407:G409 F406 G411 G466:G467 G505:G506 G508:G513 G518:G531 G690:G700 G830:G832 G840:G843 G594:G596 G947:G948 G902:G908 G869:G884 G857:G865 G937:G943 G952:G953 G975:G976 G950 G983:G988 G1182:G1187 G1448:G1452 G1638:G1641 G1646:G1647 G1797:G1799 G1895 G2007:G2011 G2041:G2045 G2022:G2024 G1180 G945 H1602 G551:G580 G582:G583 G978:G981 G488:G503 G2122:G2128 G2115:G2120 G2109:G2110 G2078:G2088 G2027:G2039 G2018:G2020 G2015 G1985:G1986 G1967:G1982 G1964 G1938:G1959 G1912:G1923 G1845:G1884 G1832:G1843 G1805:G1823 G1760:G1763 G1746:G1758 G1729:G1735 G1742:G1743 G1713:G1726 G1693:G1694 G1672:G1675 G1678:G1691 G1655:G1669 G1617:G1625 G1605:G1608 G1586 G1570:G1584 G1534 G1522:G1528 G1502:G1520 G1484:G1499 G1455:G1456 G1404:G1446 G1402 G1384:G1393 G1374:G1377 G1352:G1363 G1324:G1347 G1319:G1322 G1311:G1313 G1298:G1307 G1294:G1295 G1288:G1291 G1278:G1286 G1259:G1275 G1249:G1256 G1225:G1228 G1215:G1223 G1195:G1202 G1161:G1162 G1073:G1132 G1053:G1070 G1019:G1024 G1027:G1047 G997:G1005 G990 G1016:G1017 G967 F966 G775:G776 G779:G780 G782:G827 G771:G773 G704:G707 G603:G685 G533 G535:G540 H474 G463 G972:G973 G449:G460 G385:G386 G472:G486 G891:G898 G718:G761 G1174:G1178 G2218 G2212:G2216 G2209:G2210 G1559:G1562 G1164:G1172 G1458:G1464 G1801:G1803 G1140:G1156 G542:G549 G1530:G1531 G1315 G1610:G1611 G1230:G1246 G1536:G1557 G1204:G1211 G970 G1765:G1782 G323 G598:G599 G1466:G1481 F230 G268:G269 G271 G910:G935 G172 G176 G222:G223 G1925:G1934 G2112:G2113 G1697:G1705 G1784:G1793 G1588:G1591 G2228:G1048576 G1627:G1636 G1649:G1651 G1593:G1602 G1643:G1644 G2194:G2207">
+  <conditionalFormatting sqref="G2220:G2226 G2073 G2130:G2191 G2048:G2051 G2053:G2063 G2104 G849:G853 G1134:G1137 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G389:G405 G407:G409 F406 G411 G466:G467 G505:G506 G508:G513 G518:G531 G690:G700 G830:G832 G840:G843 G594:G596 G947:G948 G902:G908 G869:G884 G857:G865 G937:G943 G952:G953 G975:G976 G950 G983:G988 G1182:G1187 G1448:G1452 G1638:G1641 G1646:G1647 G1797:G1799 G1895 G2007:G2011 G2041:G2045 G2022:G2024 G1180 G945 H1602 G551:G580 G582:G583 G978:G981 G488:G503 G2122:G2128 G2115:G2120 G2109:G2110 G2078:G2088 G2027:G2039 G2018:G2020 G2015 G1985:G1986 G1967:G1982 G1964 G1938:G1959 G1912:G1923 G1845:G1884 G1832:G1843 G1805:G1823 G1760:G1763 G1746:G1758 G1729:G1735 G1742:G1743 G1713:G1726 G1693:G1694 G1672:G1675 G1678:G1691 G1655:G1669 G1617:G1625 G1605:G1608 G1586 G1570:G1584 G1534 G1522:G1528 G1502:G1520 G1484:G1499 G1455:G1456 G1404:G1446 G1402 G1384:G1393 G1374:G1377 G1352:G1363 G1324:G1347 G1319:G1322 G1311:G1313 G1298:G1307 G1294:G1295 G1288:G1291 G1278:G1286 G1259:G1275 G1249:G1256 G1225:G1228 G1215:G1223 G1195:G1202 G1161:G1162 G1073:G1132 G1053:G1070 G1019:G1024 G1027:G1047 G997:G1005 G990 G1016:G1017 G967 F966 G775:G776 G779:G780 G782:G827 G771:G773 G704:G707 G603:G685 G533 G535:G540 H474 G463 G972:G973 G449:G460 G385:G386 G472:G486 G891:G898 G718:G761 G1174:G1178 G2218 G2212:G2216 G2209:G2210 G1559:G1562 G1164:G1172 G1458:G1464 G1801:G1803 G1140:G1156 G542:G549 G1530:G1531 G1315 G1610:G1611 G1230:G1246 G1536:G1557 G1204:G1211 G970 G1765:G1782 G323 G598:G599 G1466:G1481 F230 G268:G269 G271 G910:G935 G172 G176 G222:G223 G1926:G1934 G2112:G2113 G1697:G1705 G1784:G1793 G1588:G1591 G2228:G1048576 G1627:G1636 G1649:G1651 G1593:G1602 G1643:G1644 G2194:G2207">
     <cfRule type="duplicateValues" dxfId="48" priority="15390"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2224:G2226 G699:G700 G2073 G2167:G2174 G843 G978:G981 G830 G2049:G2051 G2053:G2063 G2104 G1981:G1982 G871:G880 G1086:G1088 G1977 G1835:G1839 G1854:G1881 G1884 G1895 G1766:G1771 G1791 G1776:G1782 G1774 G1523 G1571:G1581 G1583 G1342:G1345 G1339 G1218:G1223 G1319:G1322 G1215 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G545 G389:G405 G407:G409 F406 G411 G466:G467 G678:G682 G718 G656:G675 G1167 G1169 G952 G947:G948 G943 G937:G938 G1729:G1733 G1705 G1629:G1635 G1664:G1669 G1494:G1498 G1484:G1488 G1490:G1492 G1407:G1408 G1456 G1540:G1548 G1553:G1557 G1931:G1934 G1805:G1812 G1679:G1681 G1684 G1686:G1688 G1945:G1950 G1953:G1958 G1964 G1969:G1975 G1916:G1922 G1841:G1843 G1622:G1625 G1255:G1256 G1275 G1450 G1651 G1599 G1467 G1388:G1391 G1649 G1151 G1250 G1363 G1821 G1925:G1928 G1939 G1090:G1092 G1094:G1098 G1100:G1132 G1134:G1137 G1286 G1476:G1478 G1175:G1178 G1182:G1187 G1227:G1228 G1180 G1064 G1075 G1077:G1079 G1039:G1041 G1043:G1047 G941 G925:G929 G902:G907 G692:G693 G1156 G1196:G1199 G1261 G1291 G1325:G1335 G1357:G1360 G1393 G1413:G1446 G1469:G1474 G1502:G1510 G1586 G1643:G1644 G1646 G1691 G1699:G1703 G1814:G1819 G2007 G2009:G2011 G2022:G2024 G2115:G2118 G2120 G2130:G2158 G2176:G2191 G2241:G2246 G2250:G1048576 G975 G1005 G2112 G720:G761 G695:G697 G779:G780 G706:G707 G782:G823 G825:G827 G857 G910:G922 G892:G895 G972:G973 G983:G988 G950 G1602:H1602 G1027:G1036 G997:G1001 G990 G488:G501 G535 G2122:G2125 G2078:G2088 G2027:G2034 G2018:G2020 G2015 G1985:G1986 G1967 G1912:G1914 G1845:G1850 G1714:G1726 G1693:G1694 G1672 G1655:G1661 G1617:G1620 G1605:G1608 G1404:G1405 G1402 G1384 G1374:G1377 G1311:G1312 G1298:G1307 G1294:G1295 G1288:G1289 G1278:G1283 G1259 G1161:G1162 G1053:G1058 G1019 G1016:G1017 G771:G773 H474 G463 G449:G460 G385:G386 G472:G486 G1559:G1562 G1164:G1165 G1458:G1464 G1140:G1149 G1610:G1611 G1230:G1246 G323 F230 G268:G269 G271 G172 G176 G222:G223 G1784:G1788 G1588:G1591 G2228:G2239 G1627 G1593:G1595 G2194:G2200">
+  <conditionalFormatting sqref="G2224:G2226 G699:G700 G2073 G2167:G2174 G843 G978:G981 G830 G2049:G2051 G2053:G2063 G2104 G1981:G1982 G871:G880 G1086:G1088 G1977 G1835:G1839 G1854:G1881 G1884 G1895 G1766:G1771 G1791 G1776:G1782 G1774 G1523 G1571:G1581 G1583 G1342:G1345 G1339 G1218:G1223 G1319:G1322 G1215 G419:G441 G415:G417 G1:G5 G355 F324 G381:G383 G545 G389:G405 G407:G409 F406 G411 G466:G467 G678:G682 G718 G656:G675 G1167 G1169 G952 G947:G948 G943 G937:G938 G1729:G1733 G1705 G1629:G1635 G1664:G1669 G1494:G1498 G1484:G1488 G1490:G1492 G1407:G1408 G1456 G1540:G1548 G1553:G1557 G1931:G1934 G1805:G1812 G1679:G1681 G1684 G1686:G1688 G1945:G1950 G1953:G1958 G1964 G1969:G1975 G1916:G1922 G1841:G1843 G1622:G1625 G1255:G1256 G1275 G1450 G1651 G1599 G1467 G1388:G1391 G1649 G1151 G1250 G1363 G1821 G1926:G1928 G1939 G1090:G1092 G1094:G1098 G1100:G1132 G1134:G1137 G1286 G1476:G1478 G1175:G1178 G1182:G1187 G1227:G1228 G1180 G1064 G1075 G1077:G1079 G1039:G1041 G1043:G1047 G941 G925:G929 G902:G907 G692:G693 G1156 G1196:G1199 G1261 G1291 G1325:G1335 G1357:G1360 G1393 G1413:G1446 G1469:G1474 G1502:G1510 G1586 G1643:G1644 G1646 G1691 G1699:G1703 G1814:G1819 G2007 G2009:G2011 G2022:G2024 G2115:G2118 G2120 G2130:G2158 G2176:G2191 G2241:G2246 G2250:G1048576 G975 G1005 G2112 G720:G761 G695:G697 G779:G780 G706:G707 G782:G823 G825:G827 G857 G910:G922 G892:G895 G972:G973 G983:G988 G950 G1602:H1602 G1027:G1036 G997:G1001 G990 G488:G501 G535 G2122:G2125 G2078:G2088 G2027:G2034 G2018:G2020 G2015 G1985:G1986 G1967 G1912:G1914 G1845:G1850 G1714:G1726 G1693:G1694 G1672 G1655:G1661 G1617:G1620 G1605:G1608 G1404:G1405 G1402 G1384 G1374:G1377 G1311:G1312 G1298:G1307 G1294:G1295 G1288:G1289 G1278:G1283 G1259 G1161:G1162 G1053:G1058 G1019 G1016:G1017 G771:G773 H474 G463 G449:G460 G385:G386 G472:G486 G1559:G1562 G1164:G1165 G1458:G1464 G1140:G1149 G1610:G1611 G1230:G1246 G323 F230 G268:G269 G271 G172 G176 G222:G223 G1784:G1788 G1588:G1591 G2228:G2239 G1627 G1593:G1595 G2194:G2200">
     <cfRule type="duplicateValues" dxfId="47" priority="15539"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2089">
@@ -40399,7 +40531,7 @@
   <conditionalFormatting sqref="F106">
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F52 F2299:F1048576 F698:F700 F2073 F843 B978 F2115:F2118 F2009:F2011 F2022:F2024 F2028:F2034 F871:F882 F1086:F1088 F1684 G1704 F1218:F1223 F1342:F1344 F1586:F1593 F1339 F419:F426 F415:F417 F326:F337 F833:F837 F545 F389 F407:F409 F411 F466:F468 F677 F695:F696 F718 F656:F675 F1062:F1063 F1090:F1092 F1094:F1098 F1075:F1079 F952 F947:F948 F943 F925:F929 F902:F907 F937:F938 F1040:F1041 F1043:F1047 F1038 F1805:F1806 F1931:F1934 F1954 F1973:F1975 F1980:F1982 F1977:F1978 F1766:F1771 F1791 F1776:F1785 F1774 F1649 F1651 F1664:F1666 F1845:F1850 F1716:F1726 F1729 F1731 F1822 F1618:F1619 F1629:F1633 F1487:F1492 F1494:F1495 F1574:F1579 F1581 F1597:F1599 F1625 F1595 F1560 F1554 F1104:F1132 F1134:F1139 F1430:F1444 F1455:F1456 F1288:F1289 F1938:F1940 F1947 F1523 F1539:F1551 F1525 F1516 F1278:F1285 B2224:B2246 B2250:B2298 B916 F1635 F1668:F1669 F1679 F1169:F1170 F1167 F1163:F1165 F1319:F1322 F1330:F1335 F1644 F1854:F1860 F1863:F1880 F1949:F1950 F1402 F1498 F1388:F1391 F1449 F1363 F917:F922 F975 F1005 F979:F981 F1175:F1178 F1182:F1187 F1227:F1228 F1180 F1215 F1196:F1199 F1291 F1325:F1326 F1469:F1477 F1484:F1485 F1502:F1510 F1605 F2049:F2051 F2120 F2130:F2158 F2167:F2174 F2176:F2185 F940:F941 F720:F761 F779:F780 F706:F707 F782:F823 F825:F827 F830 F857 F1141:F1149 F910:F915 F892:F895 F972:F973 F984:F988 F999:F1001 F535 F494 F496:F501 F1025 F488:F492 F486 F2060:F2063 F2106:F2107 F1921:F1923 F1925:F1928 F1027:F1036 F2122:F2125 F2078:F2088 F2018:F2020 F2015 F1985:F1986 F1832:F1841 F1655:F1661 F1384 F1374:F1378 F1309 F1298:F1307 F1294:F1295 F1225 F1053:F1058 F1019 F1016:F1017 F771:F773 F1556:F1558 F1562:F1563 F1609:F1614 F702 F1479:F1481 F436:F442 F444:F445 F428:F434 F447:F463 F404:F405 F2187:F2200 F398:F399 F396 F391:F393 F401:F402 F383:F386 F375:F379 F472:F484 F365:F373 F381 F341:F342 F354:F359 F276 F1458:F1464 F1230:F1247 F1311:F1312 F278:F291 F293:F294 F296 F1466:F1467 F300:F301 F303 F305:F308 F323 F231:F250 F252:F264 F1676 F266:F272 F184:F193 F195:F197 F199:F207 F209:F229 F160:F161 F839:F840 F146:F158 F163:F182 F968 F845 F144 F95:F97 F99:F101 F84:F87 F89:F93 F135 F108:F118 F1:F46 F54 F60:F82">
+  <conditionalFormatting sqref="F48:F52 F2299:F1048576 F698:F700 F2073 F843 B978 F2115:F2118 F2009:F2011 F2022:F2024 F2028:F2034 F871:F882 F1086:F1088 F1684 G1704 F1218:F1223 F1342:F1344 F1586:F1593 F1339 F419:F426 F415:F417 F326:F337 F833:F837 F545 F389 F407:F409 F411 F466:F468 F677 F695:F696 F718 F656:F675 F1062:F1063 F1090:F1092 F1094:F1098 F1075:F1079 F952 F947:F948 F943 F925:F929 F902:F907 F937:F938 F1040:F1041 F1043:F1047 F1038 F1805:F1806 F1931:F1934 F1954 F1973:F1975 F1980:F1982 F1977:F1978 F1766:F1771 F1791 F1776:F1785 F1774 F1649 F1651 F1664:F1666 F1845:F1850 F1716:F1726 F1729 F1731 F1822 F1618:F1619 F1629:F1633 F1487:F1492 F1494:F1495 F1574:F1579 F1581 F1597:F1599 F1625 F1595 F1560 F1554 F1104:F1132 F1134:F1139 F1430:F1444 F1455:F1456 F1288:F1289 F1938:F1940 F1947 F1523 F1539:F1551 F1525 F1516 F1278:F1285 B2224:B2246 B2250:B2298 B916 F1635 F1668:F1669 F1679 F1169:F1170 F1167 F1163:F1165 F1319:F1322 F1330:F1335 F1644 F1854:F1860 F1863:F1880 F1949:F1950 F1402 F1498 F1388:F1391 F1449 F1363 F917:F922 F975 F1005 F979:F981 F1175:F1178 F1182:F1187 F1227:F1228 F1180 F1215 F1196:F1199 F1291 F1325:F1326 F1469:F1477 F1484:F1485 F1502:F1510 F1605 F2049:F2051 F2120 F2130:F2158 F2167:F2174 F2176:F2185 F940:F941 F720:F761 F779:F780 F706:F707 F782:F823 F825:F827 F830 F857 F1141:F1149 F910:F915 F892:F895 F972:F973 F984:F988 F999:F1001 F535 F494 F496:F501 F1025 F488:F492 F486 F2060:F2063 F2106:F2107 F1921:F1923 F1926:F1928 F1027:F1036 F2122:F2125 F2078:F2088 F2018:F2020 F2015 F1985:F1986 F1832:F1841 F1655:F1661 F1384 F1374:F1378 F1309 F1298:F1307 F1294:F1295 F1225 F1053:F1058 F1019 F1016:F1017 F771:F773 F1556:F1558 F1562:F1563 F1609:F1614 F702 F1479:F1481 F436:F442 F444:F445 F428:F434 F447:F463 F404:F405 F2187:F2200 F398:F399 F396 F391:F393 F401:F402 F383:F386 F375:F379 F472:F484 F365:F373 F381 F341:F342 F354:F359 F276 F1458:F1464 F1230:F1247 F1311:F1312 F278:F291 F293:F294 F296 F1466:F1467 F300:F301 F303 F305:F308 F323 F231:F250 F252:F264 F1676 F266:F272 F184:F193 F195:F197 F199:F207 F209:F229 F160:F161 F839:F840 F146:F158 F163:F182 F968 F845 F144 F95:F97 F99:F101 F84:F87 F89:F93 F135 F108:F118 F1:F46 F54 F60:F82">
     <cfRule type="duplicateValues" dxfId="40" priority="18870"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54 I40 G84:G87 G89:G97 G8:G52 G99 E100 G102:G117 G60:G82">
@@ -41509,10 +41641,11 @@
     <hyperlink ref="G50" r:id="rId1101" xr:uid="{3B309C58-BA6B-4DF9-ADB1-B2BCFA2279D9}"/>
     <hyperlink ref="G51" r:id="rId1102" xr:uid="{603A75BA-A121-428A-BAE3-6F760202D21D}"/>
     <hyperlink ref="G52" r:id="rId1103" xr:uid="{24C73803-9955-4ABC-9ACE-E8651BF78BE1}"/>
+    <hyperlink ref="F1925" r:id="rId1104" location="msg1790805" display="https://bitcointalk.org/index.php?topic=172009.msg1790805 - msg1790805" xr:uid="{F05D9BE1-C6FC-4ECD-8CD1-3C4F6C1AC4F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1104"/>
-  <drawing r:id="rId1105"/>
+  <pageSetup orientation="portrait" r:id="rId1105"/>
+  <drawing r:id="rId1106"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\bitcoinwords.github.io\assets\queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D4B5D-65F1-46C7-BD7A-6EA6EAAE3FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EB0F09-D8AE-4100-9109-9019FD4F9CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="900" windowWidth="19980" windowHeight="29085" tabRatio="379" xr2:uid="{EBFBCC73-6F96-4847-B539-8607B30873C6}"/>
   </bookViews>
@@ -15303,7 +15303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15639,7 +15639,7 @@
       <c r="D28" t="s">
         <v>2344</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="86" t="s">
         <v>3660</v>
       </c>
       <c r="F28" s="35" t="s">
@@ -15658,7 +15658,7 @@
       <c r="D29" t="s">
         <v>2344</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="35" t="s">
         <v>3667</v>
       </c>
@@ -15675,7 +15675,7 @@
       <c r="D30" t="s">
         <v>2344</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="35" t="s">
         <v>1762</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="D31" t="s">
         <v>2344</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="86" t="s">
         <v>3231</v>
       </c>
       <c r="F31" s="35" t="s">
@@ -15711,7 +15711,7 @@
       <c r="D32" t="s">
         <v>2344</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="86" t="s">
         <v>3672</v>
       </c>
       <c r="F32" s="35" t="s">
@@ -15730,7 +15730,7 @@
       <c r="D33" t="s">
         <v>2344</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="6" t="s">
         <v>3657</v>
       </c>
       <c r="F33" t="s">
@@ -15749,7 +15749,7 @@
       <c r="D34" t="s">
         <v>2344</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="86" t="s">
         <v>3362</v>
       </c>
       <c r="F34" s="35" t="s">
@@ -15765,7 +15765,7 @@
         <v>44105</v>
       </c>
       <c r="C35"/>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="86" t="s">
         <v>3632</v>
       </c>
       <c r="F35" s="35" t="s">
@@ -15782,7 +15782,7 @@
       <c r="D36" t="s">
         <v>3389</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="86" t="s">
         <v>3629</v>
       </c>
       <c r="F36" s="35" t="s">
@@ -15799,7 +15799,7 @@
       <c r="D37" t="s">
         <v>3388</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="86" t="s">
         <v>3626</v>
       </c>
       <c r="F37" s="35" t="s">
@@ -15811,22 +15811,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="123">
-        <v>44105</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
-        <v>3388</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>3647</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>3646</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>3645</v>
-      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
@@ -15837,7 +15822,7 @@
       <c r="D39" t="s">
         <v>3669</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="86" t="s">
         <v>3644</v>
       </c>
       <c r="F39" s="35" t="s">
@@ -15857,11 +15842,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
-      <c r="B41" s="123"/>
+      <c r="B41" s="123">
+        <v>44105</v>
+      </c>
       <c r="C41"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="49"/>
+      <c r="D41" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>3646</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>3645</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
@@ -40789,10 +40785,10 @@
   <conditionalFormatting sqref="G28">
     <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61 F2308:F1048576 F707:F709 F2082 F852 B987 F2124:F2127 F2018:F2020 F2031:F2033 F2037:F2043 F880:F891 F1095:F1097 F1693 G1713 F1227:F1232 F1351:F1353 F1595:F1602 F1348 F428:F435 F424:F426 F335:F346 F842:F846 F554 F398 F416:F418 F420 F475:F477 F686 F704:F705 F727 F665:F684 F1071:F1072 F1099:F1101 F1103:F1107 F1084:F1088 F961 F956:F957 F952 F934:F938 F911:F916 F946:F947 F1049:F1050 F1052:F1056 F1047 F1814:F1815 F1940:F1943 F1963 F1982:F1984 F1989:F1991 F1986:F1987 F1775:F1780 F1800 F1785:F1794 F1783 F1658 F1660 F1673:F1675 F1854:F1859 F1725:F1735 F1738 F1740 F1831 F1627:F1628 F1638:F1642 F1496:F1501 F1503:F1504 F1583:F1588 F1590 F1606:F1608 F1634 F1604 F1569 F1563 F1113:F1141 F1143:F1148 F1439:F1453 F1464:F1465 F1297:F1298 F1947:F1949 F1956 F1532 F1548:F1560 F1534 F1525 F1287:F1294 B2233:B2255 B2259:B2307 B925 F1644 F1677:F1678 F1688 F1178:F1179 F1176 F1172:F1174 F1328:F1331 F1339:F1344 F1653 F1863:F1869 F1872:F1889 F1958:F1959 F1411 F1507 F1397:F1400 F1458 F1372 F926:F931 F984 F1014 F988:F990 F1184:F1187 F1191:F1196 F1236:F1237 F1189 F1224 F1205:F1208 F1300 F1334:F1335 F1493:F1494 F1511:F1519 F1614 F2058:F2060 F2129 F2139:F2167 F2176:F2183 F2185:F2194 F949:F950 F729:F770 F788:F789 F715:F716 F791:F832 F834:F836 F839 F866 F1150:F1158 F919:F924 F901:F904 F981:F982 F993:F997 F1008:F1010 F544 F503 F505:F510 F1034 F497:F501 F495 F2069:F2072 F2115:F2116 F1930:F1932 F1935:F1937 F1036:F1045 F2131:F2134 F2087:F2097 F2027:F2029 F2024 F1994:F1995 F1841:F1850 F1664:F1670 F1393 F1383:F1387 F1318 F1307:F1316 F1303:F1304 F1234 F1062:F1067 F1028 F1025:F1026 F780:F782 F1565:F1567 F1571:F1572 F1618:F1623 F711 F1488:F1490 F445:F451 F453:F454 F437:F443 F456:F472 F413:F414 F2196:F2209 F407:F408 F405 F400:F402 F410:F411 F392:F395 F384:F388 F481:F493 F374:F382 F390 F350:F351 F363:F368 F285 F1467:F1473 F1239:F1256 F1320:F1321 F287:F300 F302:F303 F305 F1475:F1476 F309:F310 F312 F314:F317 F332 F240:F259 F261:F273 F1685 F275:F281 F193:F202 F204:F206 F208:F216 F218:F238 F169:F170 F848:F849 F155:F167 F172:F191 F977 F854 F153 F104:F106 F108:F110 F93:F96 F98:F102 F144 F117:F127 F1:F11 F16:F20 F1478:F1486 F29:F32 F23:F25 F34:F55 F63 F69:F91">
+  <conditionalFormatting sqref="F57:F61 F2308:F1048576 F707:F709 F2082 F852 B987 F2124:F2127 F2018:F2020 F2031:F2033 F2037:F2043 F880:F891 F1095:F1097 F1693 G1713 F1227:F1232 F1351:F1353 F1595:F1602 F1348 F428:F435 F424:F426 F335:F346 F842:F846 F554 F398 F416:F418 F420 F475:F477 F686 F704:F705 F727 F665:F684 F1071:F1072 F1099:F1101 F1103:F1107 F1084:F1088 F961 F956:F957 F952 F934:F938 F911:F916 F946:F947 F1049:F1050 F1052:F1056 F1047 F1814:F1815 F1940:F1943 F1963 F1982:F1984 F1989:F1991 F1986:F1987 F1775:F1780 F1800 F1785:F1794 F1783 F1658 F1660 F1673:F1675 F1854:F1859 F1725:F1735 F1738 F1740 F1831 F1627:F1628 F1638:F1642 F1496:F1501 F1503:F1504 F1583:F1588 F1590 F1606:F1608 F1634 F1604 F1569 F1563 F1113:F1141 F1143:F1148 F1439:F1453 F1464:F1465 F1297:F1298 F1947:F1949 F1956 F1532 F1548:F1560 F1534 F1525 F1287:F1294 B2233:B2255 B2259:B2307 B925 F1644 F1677:F1678 F1688 F1178:F1179 F1176 F1172:F1174 F1328:F1331 F1339:F1344 F1653 F1863:F1869 F1872:F1889 F1958:F1959 F1411 F1507 F1397:F1400 F1458 F1372 F926:F931 F984 F1014 F988:F990 F1184:F1187 F1191:F1196 F1236:F1237 F1189 F1224 F1205:F1208 F1300 F1334:F1335 F1493:F1494 F1511:F1519 F1614 F2058:F2060 F2129 F2139:F2167 F2176:F2183 F2185:F2194 F949:F950 F729:F770 F788:F789 F715:F716 F791:F832 F834:F836 F839 F866 F1150:F1158 F919:F924 F901:F904 F981:F982 F993:F997 F1008:F1010 F544 F503 F505:F510 F1034 F497:F501 F495 F2069:F2072 F2115:F2116 F1930:F1932 F1935:F1937 F1036:F1045 F2131:F2134 F2087:F2097 F2027:F2029 F2024 F1994:F1995 F1841:F1850 F1664:F1670 F1393 F1383:F1387 F1318 F1307:F1316 F1303:F1304 F1234 F1062:F1067 F1028 F1025:F1026 F780:F782 F1565:F1567 F1571:F1572 F1618:F1623 F711 F1488:F1490 F445:F451 F453:F454 F437:F443 F456:F472 F413:F414 F2196:F2209 F407:F408 F405 F400:F402 F410:F411 F392:F395 F384:F388 F481:F493 F374:F382 F390 F350:F351 F363:F368 F285 F1467:F1473 F1239:F1256 F1320:F1321 F287:F300 F302:F303 F305 F1475:F1476 F309:F310 F312 F314:F317 F332 F240:F259 F261:F273 F1685 F275:F281 F193:F202 F204:F206 F208:F216 F218:F238 F169:F170 F848:F849 F155:F167 F172:F191 F977 F854 F153 F104:F106 F108:F110 F93:F96 F98:F102 F144 F117:F127 F1:F11 F16:F20 F1478:F1486 F29:F32 F23:F25 F34:F37 F39:F55 F63 F69:F91">
     <cfRule type="duplicateValues" dxfId="40" priority="16006"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63 I49 G93:G96 G98:G106 G8:G11 G16:G20 G1485 G29:G32 G23:G25 G34:G61 G108 E109 G111:G126 G69:G91">
+  <conditionalFormatting sqref="G63 I49 G93:G96 G98:G106 G8:G11 G16:G20 G1485 G29:G32 G23:G25 G34:G37 G39:G61 G108 E109 G111:G126 G69:G91">
     <cfRule type="duplicateValues" dxfId="39" priority="16239"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -41901,8 +41897,8 @@
     <hyperlink ref="G61" r:id="rId1103" xr:uid="{297B7AE5-1B9C-4208-9D87-EA7A1DDE37FB}"/>
     <hyperlink ref="F1934" r:id="rId1104" location="msg1790805" display="https://bitcointalk.org/index.php?topic=172009.msg1790805 - msg1790805" xr:uid="{241CB31D-88D9-471F-99A8-0AB320ECC8FA}"/>
     <hyperlink ref="G39" r:id="rId1105" xr:uid="{8B0250B5-8C32-4661-B541-419595FA3BD5}"/>
-    <hyperlink ref="G38" r:id="rId1106" xr:uid="{5923BDED-2610-4662-AAF9-C0730369067E}"/>
-    <hyperlink ref="E38" r:id="rId1107" xr:uid="{29520385-8C96-4B24-BF04-3DB686F05D84}"/>
+    <hyperlink ref="G41" r:id="rId1106" xr:uid="{5923BDED-2610-4662-AAF9-C0730369067E}"/>
+    <hyperlink ref="E41" r:id="rId1107" xr:uid="{29520385-8C96-4B24-BF04-3DB686F05D84}"/>
     <hyperlink ref="G34" r:id="rId1108" xr:uid="{9B41BBEE-10F6-4DD8-A3E2-5DA1E389E844}"/>
     <hyperlink ref="G33" r:id="rId1109" xr:uid="{C71A6D3B-60CC-4450-A796-C36817C4BB16}"/>
     <hyperlink ref="G36" r:id="rId1110" xr:uid="{B5C3DD26-4913-4FC1-808F-608399545A59}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F3B7B98-F0E6-407A-AFF1-22AC8B7B1C4C}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D7693E5-C44C-4BBD-AA1A-6B3082825D55}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="11835" windowWidth="23085" windowHeight="12945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3075" windowWidth="23085" windowHeight="27105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -11524,7 +11524,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11627,6 +11627,12 @@
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -11667,7 +11673,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -11872,6 +11878,7 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -15578,8 +15585,8 @@
   <dimension ref="A1:Y2369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16165,18 +16172,6 @@
       <c r="A47" s="119"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3713</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3712</v>
-      </c>
-      <c r="G47" s="131" t="s">
-        <v>3711</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -16255,12 +16250,25 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="132" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3712</v>
+      </c>
+      <c r="G59" s="131" t="s">
+        <v>3711</v>
+      </c>
+    </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="132" t="s">
         <v>3702</v>
       </c>
       <c r="F60" t="s">
@@ -16277,7 +16285,7 @@
       <c r="D61" t="s">
         <v>85</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="132" t="s">
         <v>3755</v>
       </c>
       <c r="F61" s="119" t="s">
@@ -42820,7 +42828,7 @@
     <hyperlink ref="F243" r:id="rId1120" display="https://bitcoin.stackexchange.com/questions/95123/what-are-the-potential-attacks-against-ecdsa-that-would-be-possible-if-we-used-r" xr:uid="{37885128-A466-44C1-89AD-ECBEEFE56702}"/>
     <hyperlink ref="G61" r:id="rId1121" xr:uid="{736391EA-EEEE-446A-A2EA-60716979B5D7}"/>
     <hyperlink ref="G67" r:id="rId1122" xr:uid="{5CA30D6A-67FE-4922-B69E-51DEF630D2F7}"/>
-    <hyperlink ref="G47" r:id="rId1123" xr:uid="{D9F881EB-8DA6-4A2D-90A4-FE13881885E1}"/>
+    <hyperlink ref="G59" r:id="rId1123" xr:uid="{D9F881EB-8DA6-4A2D-90A4-FE13881885E1}"/>
     <hyperlink ref="G48" r:id="rId1124" xr:uid="{CC5B5743-1109-4FAB-A027-8414B13AB431}"/>
     <hyperlink ref="G66" r:id="rId1125" xr:uid="{37AC027A-A44D-4F5B-A0EC-C8CC7D5CAC58}"/>
     <hyperlink ref="G46" r:id="rId1126" xr:uid="{A56FCA98-5F7D-4FE8-8736-C4F79AA60E60}"/>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6868972-3E44-45E7-B685-1B003CB82569}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{313BD2A2-ADB1-4485-B532-663E8E4FC347}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="3645" windowWidth="19320" windowHeight="25050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21900" windowHeight="23535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5472" uniqueCount="3769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="3770">
   <si>
     <t>WORDS</t>
   </si>
@@ -11346,6 +11346,9 @@
   </si>
   <si>
     <t>Waxwing, Adam Gibson</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -11638,7 +11641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15594,8 +15597,8 @@
   <dimension ref="A1:Y2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16238,10 +16241,13 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D55" t="s">
         <v>85</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="132" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
@@ -16252,6 +16258,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D56" t="s">
         <v>85</v>
       </c>
@@ -16266,6 +16275,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D57" t="s">
         <v>85</v>
       </c>
@@ -16283,6 +16295,9 @@
       <c r="B58" s="2">
         <v>44144</v>
       </c>
+      <c r="C58" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D58" t="s">
         <v>85</v>
       </c>
@@ -16303,13 +16318,13 @@
       <c r="D59" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="132" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="131" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16317,7 +16332,7 @@
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="132" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="131" t="s">
@@ -16331,7 +16346,7 @@
       <c r="D61" t="s">
         <v>69</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="132" t="s">
         <v>286</v>
       </c>
       <c r="F61" t="s">
@@ -16345,7 +16360,7 @@
       <c r="D62" t="s">
         <v>85</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="132" t="s">
         <v>3696</v>
       </c>
       <c r="F62" s="18" t="s">
@@ -16391,13 +16406,13 @@
       <c r="D65" t="s">
         <v>85</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="132" t="s">
         <v>54</v>
       </c>
       <c r="F65" t="s">
         <v>3716</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="131" t="s">
         <v>3715</v>
       </c>
       <c r="H65"/>
@@ -16406,11 +16421,13 @@
     <row r="66" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="127"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D66" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="123" t="s">
+      <c r="E66" s="132" t="s">
         <v>3724</v>
       </c>
       <c r="F66" s="123" t="s">
@@ -16424,7 +16441,9 @@
     <row r="67" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="127"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D67" s="123" t="s">
         <v>85</v>
       </c>
@@ -16442,7 +16461,9 @@
     <row r="68" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="127"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>3769</v>
+      </c>
       <c r="D68" s="123" t="s">
         <v>69</v>
       </c>
@@ -42840,10 +42861,12 @@
     <hyperlink ref="H68" r:id="rId1136" xr:uid="{5B7FC8D5-7227-4304-886D-7F4EE7FAA3BD}"/>
     <hyperlink ref="G67" r:id="rId1137" xr:uid="{D66634EE-F301-44B0-B339-56C701D1A215}"/>
     <hyperlink ref="G66" r:id="rId1138" xr:uid="{705783B5-CEE4-4D26-81CA-C89B18E62F69}"/>
+    <hyperlink ref="G65" r:id="rId1139" xr:uid="{B89998A8-473A-4916-8DA8-E0BC93EECA3D}"/>
+    <hyperlink ref="G59" r:id="rId1140" xr:uid="{144E7906-21EA-4FC4-8BF9-7DD0952D3980}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1139"/>
+  <drawing r:id="rId1141"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{313BD2A2-ADB1-4485-B532-663E8E4FC347}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C904A6CB-AF41-4C74-921B-9B604D055189}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21900" windowHeight="23535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="21900" windowHeight="23535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -15597,8 +15597,8 @@
   <dimension ref="A1:Y2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="3" topLeftCell="A1723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F909" sqref="F909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15608,7 +15608,7 @@
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C904A6CB-AF41-4C74-921B-9B604D055189}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9F5A4D04-B51E-4C86-A670-E20C099A6F61}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="450" windowWidth="21900" windowHeight="23535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18015" yWindow="7500" windowWidth="19575" windowHeight="22515" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="3770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="3771">
   <si>
     <t>WORDS</t>
   </si>
@@ -11349,6 +11349,9 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>https://medium.com/@beautyon_/bitcoin-doesnt-waste-electricity-649694ea3605</t>
   </si>
 </sst>
 </file>
@@ -15597,8 +15600,8 @@
   <dimension ref="A1:Y2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F909" sqref="F909"/>
+      <pane ySplit="3" topLeftCell="A1308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1322" sqref="F1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16356,7 +16359,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>85</v>
       </c>
@@ -32321,7 +32324,7 @@
         <v>2167</v>
       </c>
       <c r="G1319" s="52" t="s">
-        <v>2168</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="1320" spans="2:8" x14ac:dyDescent="0.25">
@@ -33230,7 +33233,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="1428" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1428" s="2">
         <v>42499</v>
       </c>
@@ -37917,7 +37920,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1949" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1949" s="2">
         <v>41435</v>
       </c>

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9F5A4D04-B51E-4C86-A670-E20C099A6F61}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E83FBB91-092C-4772-9890-36DA7CF6E40F}"/>
   <bookViews>
-    <workbookView xWindow="18015" yWindow="7500" windowWidth="19575" windowHeight="22515" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="5445" windowWidth="23385" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_Toc4426568" localSheetId="0">'Other Articles'!$F$32</definedName>
     <definedName name="_Toc4426574" localSheetId="0">'Other Articles'!$F$38</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -11539,7 +11539,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11648,6 +11648,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -11688,7 +11694,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -11894,6 +11900,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -15600,8 +15607,8 @@
   <dimension ref="A1:Y2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1322" sqref="F1322"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15918,13 +15925,13 @@
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="133" t="s">
         <v>138</v>
       </c>
       <c r="F25" s="119" t="s">
         <v>3682</v>
       </c>
-      <c r="G25" s="119" t="s">
+      <c r="G25" s="131" t="s">
         <v>3681</v>
       </c>
     </row>
@@ -42866,10 +42873,11 @@
     <hyperlink ref="G66" r:id="rId1138" xr:uid="{705783B5-CEE4-4D26-81CA-C89B18E62F69}"/>
     <hyperlink ref="G65" r:id="rId1139" xr:uid="{B89998A8-473A-4916-8DA8-E0BC93EECA3D}"/>
     <hyperlink ref="G59" r:id="rId1140" xr:uid="{144E7906-21EA-4FC4-8BF9-7DD0952D3980}"/>
+    <hyperlink ref="G25" r:id="rId1141" xr:uid="{99022433-0843-4FFD-9349-2FD2D5B060FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1141"/>
+  <drawing r:id="rId1142"/>
 </worksheet>
 </file>
 

--- a/assets/queue/Articles.xlsx
+++ b/assets/queue/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64770d16cc2141b2/Documents/GitHub/bitcoinwords.github.io/assets/queue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E83FBB91-092C-4772-9890-36DA7CF6E40F}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_5E5826359B80799281EB8B4BB13B4E9AF8B3D567" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{574A506C-D86F-4E77-88A3-E14177131DA0}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="5445" windowWidth="23385" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="9330" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitcoin" sheetId="1" r:id="rId1"/>
@@ -15607,8 +15607,8 @@
   <dimension ref="A1:Y2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15970,13 +15970,13 @@
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="133" t="s">
         <v>3749</v>
       </c>
       <c r="F28" s="119" t="s">
         <v>3747</v>
       </c>
-      <c r="G28" s="119" t="s">
+      <c r="G28" s="131" t="s">
         <v>3748</v>
       </c>
     </row>
@@ -15987,13 +15987,13 @@
       <c r="D29" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="133" t="s">
         <v>3752</v>
       </c>
       <c r="F29" s="119" t="s">
         <v>3754</v>
       </c>
-      <c r="G29" s="119" t="s">
+      <c r="G29" s="131" t="s">
         <v>3753</v>
       </c>
     </row>
@@ -42874,10 +42874,12 @@
     <hyperlink ref="G65" r:id="rId1139" xr:uid="{B89998A8-473A-4916-8DA8-E0BC93EECA3D}"/>
     <hyperlink ref="G59" r:id="rId1140" xr:uid="{144E7906-21EA-4FC4-8BF9-7DD0952D3980}"/>
     <hyperlink ref="G25" r:id="rId1141" xr:uid="{99022433-0843-4FFD-9349-2FD2D5B060FD}"/>
+    <hyperlink ref="G28" r:id="rId1142" xr:uid="{F4C78605-77F4-42C3-AB7F-B1BBED5B8625}"/>
+    <hyperlink ref="G29" r:id="rId1143" xr:uid="{A5E67F5D-6A94-4781-92F9-3A611E3362EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1142"/>
+  <drawing r:id="rId1144"/>
 </worksheet>
 </file>
 
